--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1711">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528593063354</t>
+    <t xml:space="preserve">13.0528583526611</t>
   </si>
   <si>
     <t xml:space="preserve">12.8206939697266</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4681453704834</t>
+    <t xml:space="preserve">12.4681463241577</t>
   </si>
   <si>
     <t xml:space="preserve">12.3133697509766</t>
@@ -59,52 +59,52 @@
     <t xml:space="preserve">12.33056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2101850509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203758239746</t>
+    <t xml:space="preserve">12.2101831436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203748703003</t>
   </si>
   <si>
     <t xml:space="preserve">9.85413455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4130516052246</t>
+    <t xml:space="preserve">10.4130506515503</t>
   </si>
   <si>
     <t xml:space="preserve">9.90572643280029</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5334348678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3528614044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8429870605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8773822784424</t>
+    <t xml:space="preserve">10.5334329605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3528604507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8429861068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8773832321167</t>
   </si>
   <si>
     <t xml:space="preserve">10.7913951873779</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6366176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6968097686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2496747970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5162363052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5506315231323</t>
+    <t xml:space="preserve">10.6366186141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2496757507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5162353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.550630569458</t>
   </si>
   <si>
     <t xml:space="preserve">10.0777006149292</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">9.08884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02865695953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45859336853027</t>
+    <t xml:space="preserve">9.02865791320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45859432220459</t>
   </si>
   <si>
     <t xml:space="preserve">9.20063209533691</t>
@@ -128,70 +128,70 @@
     <t xml:space="preserve">9.95731925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71655654907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4990386962891</t>
+    <t xml:space="preserve">9.71655559539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4990396499634</t>
   </si>
   <si>
     <t xml:space="preserve">10.4044532775879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582740783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.066554069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840709686279</t>
+    <t xml:space="preserve">10.2582750320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0665531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.610821723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2840700149536</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410774230957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1009492874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9719686508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8748350143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0124130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757888793945</t>
+    <t xml:space="preserve">11.1009502410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9719696044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8748359680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0124139785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
     <t xml:space="preserve">11.8404388427734</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0382108688354</t>
+    <t xml:space="preserve">12.0382099151611</t>
   </si>
   <si>
     <t xml:space="preserve">11.6942615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4362993240356</t>
+    <t xml:space="preserve">11.4362983703613</t>
   </si>
   <si>
     <t xml:space="preserve">11.4448986053467</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7286577224731</t>
+    <t xml:space="preserve">11.7286567687988</t>
   </si>
   <si>
     <t xml:space="preserve">11.9092292785645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9866180419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8662357330322</t>
+    <t xml:space="preserve">11.9866170883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8662347793579</t>
   </si>
   <si>
     <t xml:space="preserve">12.1155996322632</t>
@@ -203,37 +203,37 @@
     <t xml:space="preserve">12.27037525177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4079542160034</t>
+    <t xml:space="preserve">12.4079551696777</t>
   </si>
   <si>
     <t xml:space="preserve">12.2015857696533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2359790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2875728607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9694213867188</t>
+    <t xml:space="preserve">12.2359809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2875709533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9694204330444</t>
   </si>
   <si>
     <t xml:space="preserve">11.634069442749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3503112792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8060455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.952223777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8834314346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7716503143311</t>
+    <t xml:space="preserve">11.3503122329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8060445785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9522228240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8834323883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7716484069824</t>
   </si>
   <si>
     <t xml:space="preserve">11.6684646606445</t>
@@ -242,34 +242,34 @@
     <t xml:space="preserve">11.7028589248657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5394830703735</t>
+    <t xml:space="preserve">11.5394840240479</t>
   </si>
   <si>
     <t xml:space="preserve">11.25572681427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1697387695312</t>
+    <t xml:space="preserve">11.1697397232056</t>
   </si>
   <si>
     <t xml:space="preserve">11.178337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3847074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4105024337769</t>
+    <t xml:space="preserve">11.3847055435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4105033874512</t>
   </si>
   <si>
     <t xml:space="preserve">11.2213315963745</t>
   </si>
   <si>
-    <t xml:space="preserve">11.118145942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0493574142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2041330337524</t>
+    <t xml:space="preserve">11.1181468963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0493564605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2041339874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.6624145507812</t>
@@ -278,16 +278,16 @@
     <t xml:space="preserve">11.0166463851929</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4941539764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4144515991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2816143035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3258924484253</t>
+    <t xml:space="preserve">10.4941530227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4144525527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2816133499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3258934020996</t>
   </si>
   <si>
     <t xml:space="preserve">9.9805154800415</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">10.0602178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3613166809082</t>
+    <t xml:space="preserve">10.3613157272339</t>
   </si>
   <si>
     <t xml:space="preserve">10.308180809021</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">10.6712703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4771499633789</t>
+    <t xml:space="preserve">11.4771490097046</t>
   </si>
   <si>
     <t xml:space="preserve">11.1937637329102</t>
@@ -317,13 +317,13 @@
     <t xml:space="preserve">10.9812240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3000335693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3443126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0697813034058</t>
+    <t xml:space="preserve">11.3000345230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.344313621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0697822570801</t>
   </si>
   <si>
     <t xml:space="preserve">10.8926649093628</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">10.9900789260864</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9723701477051</t>
+    <t xml:space="preserve">10.9723682403564</t>
   </si>
   <si>
     <t xml:space="preserve">10.8749542236328</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">10.0513620376587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0070838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561437606812</t>
+    <t xml:space="preserve">10.0070829391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7414083480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956411361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561447143555</t>
   </si>
   <si>
     <t xml:space="preserve">10.4055948257446</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">9.17463397979736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73255062103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62628173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98937034606934</t>
+    <t xml:space="preserve">9.73255252838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62628269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98937129974365</t>
   </si>
   <si>
     <t xml:space="preserve">10.246190071106</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77683067321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1399192810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4410181045532</t>
+    <t xml:space="preserve">9.77683162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1399202346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4410171508789</t>
   </si>
   <si>
     <t xml:space="preserve">10.3436050415039</t>
@@ -413,58 +413,58 @@
     <t xml:space="preserve">10.1930551528931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2727584838867</t>
+    <t xml:space="preserve">10.272759437561</t>
   </si>
   <si>
     <t xml:space="preserve">10.2107667922974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7598276138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1406288146973</t>
+    <t xml:space="preserve">10.7598285675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1406278610229</t>
   </si>
   <si>
     <t xml:space="preserve">11.0786380767822</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0963497161865</t>
+    <t xml:space="preserve">11.0963487625122</t>
   </si>
   <si>
     <t xml:space="preserve">11.0520706176758</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9369459152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1583404541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3177452087402</t>
+    <t xml:space="preserve">10.9369449615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1583414077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3177442550659</t>
   </si>
   <si>
     <t xml:space="preserve">11.3797359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7863960266113</t>
+    <t xml:space="preserve">10.786395072937</t>
   </si>
   <si>
     <t xml:space="preserve">11.1140613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.96351146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2291879653931</t>
+    <t xml:space="preserve">10.9635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
     <t xml:space="preserve">11.122917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2823209762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1849088668823</t>
+    <t xml:space="preserve">11.2823219299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.184907913208</t>
   </si>
   <si>
     <t xml:space="preserve">11.2468976974487</t>
@@ -476,34 +476,34 @@
     <t xml:space="preserve">11.5922765731812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8136711120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8402376174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7516803741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8668069839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7162580490112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7339687347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5125722885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3885908126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4328708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.202618598938</t>
+    <t xml:space="preserve">11.8136720657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.840238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7516813278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8668060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7162570953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7339696884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5125732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3885898590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4328718185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2026195526123</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605361938477</t>
@@ -512,28 +512,28 @@
     <t xml:space="preserve">11.6808338165283</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8933744430542</t>
+    <t xml:space="preserve">11.8933753967285</t>
   </si>
   <si>
     <t xml:space="preserve">12.1059141159058</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1236248016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1324806213379</t>
+    <t xml:space="preserve">12.1236238479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1324815750122</t>
   </si>
   <si>
     <t xml:space="preserve">12.5752716064453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6018390655518</t>
+    <t xml:space="preserve">12.6018400192261</t>
   </si>
   <si>
     <t xml:space="preserve">12.477858543396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3538770675659</t>
+    <t xml:space="preserve">12.3538761138916</t>
   </si>
   <si>
     <t xml:space="preserve">12.6726875305176</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">12.9914960861206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8852262496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9295063018799</t>
+    <t xml:space="preserve">12.8852252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9295053482056</t>
   </si>
   <si>
     <t xml:space="preserve">13.1066217422485</t>
@@ -554,28 +554,28 @@
     <t xml:space="preserve">13.4874219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6556825637817</t>
+    <t xml:space="preserve">13.6556835174561</t>
   </si>
   <si>
     <t xml:space="preserve">13.7619524002075</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5051336288452</t>
+    <t xml:space="preserve">13.5051345825195</t>
   </si>
   <si>
     <t xml:space="preserve">14.4527072906494</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3021583557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3375816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2136001586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2047452926636</t>
+    <t xml:space="preserve">14.3021574020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3375825881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2135992050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2047443389893</t>
   </si>
   <si>
     <t xml:space="preserve">14.1516084671021</t>
@@ -587,10 +587,10 @@
     <t xml:space="preserve">13.8593683242798</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6822500228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8416547775269</t>
+    <t xml:space="preserve">13.6822490692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8416557312012</t>
   </si>
   <si>
     <t xml:space="preserve">13.912501335144</t>
@@ -602,19 +602,19 @@
     <t xml:space="preserve">13.2748823165894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4519996643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2306022644043</t>
+    <t xml:space="preserve">13.4519987106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2306032180786</t>
   </si>
   <si>
     <t xml:space="preserve">13.7265300750732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6379699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.815089225769</t>
+    <t xml:space="preserve">13.6379709243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8150882720947</t>
   </si>
   <si>
     <t xml:space="preserve">13.9567813873291</t>
@@ -623,43 +623,43 @@
     <t xml:space="preserve">14.2578802108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1781778335571</t>
+    <t xml:space="preserve">14.1781768798828</t>
   </si>
   <si>
     <t xml:space="preserve">14.868932723999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3914251327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.364857673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5773992538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862531661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534177780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331182479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4268474578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6216764450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545175552368</t>
+    <t xml:space="preserve">15.3914241790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3648567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5773973464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5862512588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331201553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4268465042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6216745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545137405396</t>
   </si>
   <si>
     <t xml:space="preserve">15.6305322647095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3294353485107</t>
+    <t xml:space="preserve">15.3294343948364</t>
   </si>
   <si>
     <t xml:space="preserve">15.8962078094482</t>
@@ -671,19 +671,19 @@
     <t xml:space="preserve">16.4629821777344</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5603942871094</t>
+    <t xml:space="preserve">16.560396194458</t>
   </si>
   <si>
     <t xml:space="preserve">16.6046733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1360244750977</t>
+    <t xml:space="preserve">17.136022567749</t>
   </si>
   <si>
     <t xml:space="preserve">16.9854736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.251148223877</t>
+    <t xml:space="preserve">17.2511463165283</t>
   </si>
   <si>
     <t xml:space="preserve">16.8703479766846</t>
@@ -692,34 +692,34 @@
     <t xml:space="preserve">16.6489505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3301410675049</t>
+    <t xml:space="preserve">16.3301429748535</t>
   </si>
   <si>
     <t xml:space="preserve">16.6843757629395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7463645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6666641235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0917434692383</t>
+    <t xml:space="preserve">16.7463665008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6666622161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.091739654541</t>
   </si>
   <si>
     <t xml:space="preserve">16.7995014190674</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9766178131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9500484466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1094551086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3928394317627</t>
+    <t xml:space="preserve">16.9766159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9500465393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1094570159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3928413391113</t>
   </si>
   <si>
     <t xml:space="preserve">17.2245807647705</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">16.9589061737061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3042831420898</t>
+    <t xml:space="preserve">17.3042850494385</t>
   </si>
   <si>
     <t xml:space="preserve">17.4459762573242</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">17.7559280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6408061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6053810119629</t>
+    <t xml:space="preserve">17.6408023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6053829193115</t>
   </si>
   <si>
     <t xml:space="preserve">17.8179225921631</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">17.55224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6585178375244</t>
+    <t xml:space="preserve">17.6585159301758</t>
   </si>
   <si>
     <t xml:space="preserve">17.8444900512695</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">17.9419021606445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6762275695801</t>
+    <t xml:space="preserve">17.6762256622314</t>
   </si>
   <si>
     <t xml:space="preserve">16.8437805175781</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">16.8614921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0474624633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2600021362305</t>
+    <t xml:space="preserve">17.0474643707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2600040435791</t>
   </si>
   <si>
     <t xml:space="preserve">17.3751277923584</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">17.3839855194092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4902572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.348560333252</t>
+    <t xml:space="preserve">17.490255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485641479492</t>
   </si>
   <si>
     <t xml:space="preserve">17.5345344543457</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">17.472541809082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7470760345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0481719970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4828147888184</t>
+    <t xml:space="preserve">17.7470741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0481700897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.482816696167</t>
   </si>
   <si>
     <t xml:space="preserve">20.0495910644531</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">20.4569549560547</t>
   </si>
   <si>
-    <t xml:space="preserve">20.952880859375</t>
+    <t xml:space="preserve">20.9528846740723</t>
   </si>
   <si>
     <t xml:space="preserve">21.1654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7056293487549</t>
+    <t xml:space="preserve">21.7056274414062</t>
   </si>
   <si>
     <t xml:space="preserve">21.2097034454346</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">21.4488086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7764759063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8738918304443</t>
+    <t xml:space="preserve">21.7764778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8738899230957</t>
   </si>
   <si>
     <t xml:space="preserve">22.0421485900879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9358806610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395626068115</t>
+    <t xml:space="preserve">21.9358787536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
     <t xml:space="preserve">22.4140949249268</t>
@@ -872,31 +872,31 @@
     <t xml:space="preserve">22.4495182037354</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3166809082031</t>
+    <t xml:space="preserve">22.3166828155518</t>
   </si>
   <si>
     <t xml:space="preserve">22.7594718933105</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5646419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6089248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7948970794678</t>
+    <t xml:space="preserve">22.5646438598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6089210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7948951721191</t>
   </si>
   <si>
     <t xml:space="preserve">22.7506160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8037509918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0251445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2288284301758</t>
+    <t xml:space="preserve">22.8037490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.025146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2288303375244</t>
   </si>
   <si>
     <t xml:space="preserve">22.9631576538086</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">22.5026512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3262424468994</t>
+    <t xml:space="preserve">23.326244354248</t>
   </si>
   <si>
     <t xml:space="preserve">23.5210723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6450576782227</t>
+    <t xml:space="preserve">23.645055770874</t>
   </si>
   <si>
     <t xml:space="preserve">24.0524215698242</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">24.8494453430176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7963123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0619850158691</t>
+    <t xml:space="preserve">24.7963104248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0619869232178</t>
   </si>
   <si>
     <t xml:space="preserve">25.2302474975586</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">25.1062660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0354175567627</t>
+    <t xml:space="preserve">25.0354194641113</t>
   </si>
   <si>
     <t xml:space="preserve">26.5763320922852</t>
@@ -944,40 +944,40 @@
     <t xml:space="preserve">26.6390762329102</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5533390045166</t>
+    <t xml:space="preserve">27.553337097168</t>
   </si>
   <si>
     <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
-    <t xml:space="preserve">28.315221786499</t>
+    <t xml:space="preserve">28.3152236938477</t>
   </si>
   <si>
     <t xml:space="preserve">27.8312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440589904785</t>
+    <t xml:space="preserve">28.8440628051758</t>
   </si>
   <si>
     <t xml:space="preserve">29.5342388153076</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9656543731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6289386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1846694946289</t>
+    <t xml:space="preserve">27.9656524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6289405822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1846675872803</t>
   </si>
   <si>
     <t xml:space="preserve">29.659725189209</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9375915527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0451507568359</t>
+    <t xml:space="preserve">29.9375896453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0451488494873</t>
   </si>
   <si>
     <t xml:space="preserve">30.4753913879395</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">30.4126472473145</t>
   </si>
   <si>
-    <t xml:space="preserve">30.842887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042266845703</t>
+    <t xml:space="preserve">30.8428859710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042324066162</t>
   </si>
   <si>
     <t xml:space="preserve">31.0759334564209</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">31.1924571990967</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1745300292969</t>
+    <t xml:space="preserve">31.1745319366455</t>
   </si>
   <si>
     <t xml:space="preserve">31.1117877960205</t>
@@ -1010,28 +1010,28 @@
     <t xml:space="preserve">30.8249607086182</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9235591888428</t>
+    <t xml:space="preserve">30.9235553741455</t>
   </si>
   <si>
     <t xml:space="preserve">30.8608150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5252742767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6686859130859</t>
+    <t xml:space="preserve">29.525276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6686878204346</t>
   </si>
   <si>
     <t xml:space="preserve">29.4804592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4446048736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3409385681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3050880432129</t>
+    <t xml:space="preserve">29.4446029663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3409404754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3050899505615</t>
   </si>
   <si>
     <t xml:space="preserve">30.1706390380859</t>
@@ -1040,40 +1040,40 @@
     <t xml:space="preserve">30.0989322662354</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2244205474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.650764465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9824085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0771064758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2922306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9298000335693</t>
+    <t xml:space="preserve">30.2244148254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6507625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9824066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0771083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2922286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.929801940918</t>
   </si>
   <si>
     <t xml:space="preserve">28.1269912719727</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4099254608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8491287231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6429710388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7326068878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2793674468994</t>
+    <t xml:space="preserve">27.4099235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8491268157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.642972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.732608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.279369354248</t>
   </si>
   <si>
     <t xml:space="preserve">28.5124168395996</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">28.7813167572021</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6827182769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9516220092773</t>
+    <t xml:space="preserve">28.6827201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9516201019287</t>
   </si>
   <si>
     <t xml:space="preserve">29.9555149078369</t>
@@ -1100,37 +1100,37 @@
     <t xml:space="preserve">29.7045421600342</t>
   </si>
   <si>
-    <t xml:space="preserve">29.498384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.337043762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.399787902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3101558685303</t>
+    <t xml:space="preserve">29.4983863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3370456695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3997859954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3101577758789</t>
   </si>
   <si>
     <t xml:space="preserve">29.4894218444824</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1308898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8709487915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1577758789062</t>
+    <t xml:space="preserve">29.1308860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8709526062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1577777862549</t>
   </si>
   <si>
     <t xml:space="preserve">29.1129608154297</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0272216796875</t>
+    <t xml:space="preserve">29.7762489318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0272235870361</t>
   </si>
   <si>
     <t xml:space="preserve">29.5700950622559</t>
@@ -1139,91 +1139,91 @@
     <t xml:space="preserve">29.5790557861328</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9785137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8569202423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7852115631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8479537963867</t>
+    <t xml:space="preserve">28.9785118103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8569221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.785213470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.847957611084</t>
   </si>
   <si>
     <t xml:space="preserve">29.8658828735352</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3140506744385</t>
+    <t xml:space="preserve">30.3140487670898</t>
   </si>
   <si>
     <t xml:space="preserve">30.0092964172363</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3588638305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6866149902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3460102081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6059436798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5381336212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6456909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4664306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2692337036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2333793640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4036808013916</t>
+    <t xml:space="preserve">30.358865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6866130828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3460121154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6059455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5381317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6456928253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4664268493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2692317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.233377456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4036827087402</t>
   </si>
   <si>
     <t xml:space="preserve">32.26806640625</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6764755249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9952640533447</t>
+    <t xml:space="preserve">31.6764793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9952697753906</t>
   </si>
   <si>
     <t xml:space="preserve">32.1784286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9543437957764</t>
+    <t xml:space="preserve">31.9543476104736</t>
   </si>
   <si>
     <t xml:space="preserve">31.8736724853516</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3666572570801</t>
+    <t xml:space="preserve">32.3666610717773</t>
   </si>
   <si>
     <t xml:space="preserve">32.2591018676758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1336097717285</t>
+    <t xml:space="preserve">32.1336059570312</t>
   </si>
   <si>
     <t xml:space="preserve">32.4921455383301</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3884773254395</t>
+    <t xml:space="preserve">33.3884811401367</t>
   </si>
   <si>
     <t xml:space="preserve">33.5856781005859</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">34.9570655822754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8943214416504</t>
+    <t xml:space="preserve">34.8943252563477</t>
   </si>
   <si>
     <t xml:space="preserve">34.9301795959473</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">34.4192657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6343841552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7419471740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6293144226074</t>
+    <t xml:space="preserve">34.6343879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.741943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6293182373047</t>
   </si>
   <si>
     <t xml:space="preserve">35.4231605529785</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8584671020508</t>
+    <t xml:space="preserve">34.858470916748</t>
   </si>
   <si>
     <t xml:space="preserve">34.5716400146484</t>
@@ -1265,40 +1265,40 @@
     <t xml:space="preserve">34.0607299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0428047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3385963439941</t>
+    <t xml:space="preserve">34.0428009033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3385925292969</t>
   </si>
   <si>
     <t xml:space="preserve">33.9083557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2579231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5088958740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3117027282715</t>
+    <t xml:space="preserve">34.257926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5088996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3116989135742</t>
   </si>
   <si>
     <t xml:space="preserve">34.616455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9749946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.813648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4999351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0299453735352</t>
+    <t xml:space="preserve">34.9749908447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8136558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3027381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0299415588379</t>
   </si>
   <si>
     <t xml:space="preserve">34.2848167419434</t>
@@ -1313,19 +1313,19 @@
     <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3912048339844</t>
+    <t xml:space="preserve">36.3912010192871</t>
   </si>
   <si>
     <t xml:space="preserve">36.7049217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6281433105469</t>
+    <t xml:space="preserve">37.6281394958496</t>
   </si>
   <si>
     <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.142951965332</t>
+    <t xml:space="preserve">39.1429481506348</t>
   </si>
   <si>
     <t xml:space="preserve">38.8381996154785</t>
@@ -1337,34 +1337,34 @@
     <t xml:space="preserve">38.4886245727539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.649959564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4387397766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.026424407959</t>
+    <t xml:space="preserve">38.6499671936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4387435913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0264282226562</t>
   </si>
   <si>
     <t xml:space="preserve">38.0225296020508</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5692939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2735061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5872230529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5603370666504</t>
+    <t xml:space="preserve">38.5692977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2735023498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5872192382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5603332519531</t>
   </si>
   <si>
     <t xml:space="preserve">38.7396011352539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7844200134277</t>
+    <t xml:space="preserve">38.7844161987305</t>
   </si>
   <si>
     <t xml:space="preserve">38.8292350769043</t>
@@ -1373,19 +1373,19 @@
     <t xml:space="preserve">38.9099044799805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9547157287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6628189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3042831420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2773971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5463027954102</t>
+    <t xml:space="preserve">38.954719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3042869567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2774047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5462989807129</t>
   </si>
   <si>
     <t xml:space="preserve">38.7754516601562</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5961837768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.914966583252</t>
+    <t xml:space="preserve">38.5961875915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9149703979492</t>
   </si>
   <si>
     <t xml:space="preserve">36.8214454650879</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">37.8970413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6858215332031</t>
+    <t xml:space="preserve">38.6858177185059</t>
   </si>
   <si>
     <t xml:space="preserve">42.2353019714355</t>
@@ -1415,61 +1415,61 @@
     <t xml:space="preserve">42.8985977172852</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0599327087402</t>
+    <t xml:space="preserve">43.0599365234375</t>
   </si>
   <si>
     <t xml:space="preserve">42.6655464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2711601257324</t>
+    <t xml:space="preserve">42.2711563110352</t>
   </si>
   <si>
     <t xml:space="preserve">42.3249397277832</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1636009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8588447570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0022621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3787155151367</t>
+    <t xml:space="preserve">42.1636047363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8588485717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0022583007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.378719329834</t>
   </si>
   <si>
     <t xml:space="preserve">41.9305534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7692070007324</t>
+    <t xml:space="preserve">41.769214630127</t>
   </si>
   <si>
     <t xml:space="preserve">42.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5899467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0521392822266</t>
+    <t xml:space="preserve">41.5899505615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0521430969238</t>
   </si>
   <si>
     <t xml:space="preserve">40.586051940918</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8190956115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0303230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3670349121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9048385620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0240821838379</t>
+    <t xml:space="preserve">40.8190994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0303192138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3670310974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9048347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0240783691406</t>
   </si>
   <si>
     <t xml:space="preserve">41.7154312133789</t>
@@ -1478,55 +1478,55 @@
     <t xml:space="preserve">38.9009399414062</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7894821166992</t>
+    <t xml:space="preserve">37.7894859313965</t>
   </si>
   <si>
     <t xml:space="preserve">37.5026588439941</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8151969909668</t>
+    <t xml:space="preserve">39.8151931762695</t>
   </si>
   <si>
     <t xml:space="preserve">40.4247093200684</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3350791931152</t>
+    <t xml:space="preserve">40.335075378418</t>
   </si>
   <si>
     <t xml:space="preserve">40.8011703491211</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0342140197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1776237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3748207092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2314109802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.747386932373</t>
+    <t xml:space="preserve">41.0342178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1776275634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3748245239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2314147949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7473907470703</t>
   </si>
   <si>
     <t xml:space="preserve">41.1955604553223</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4745979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4028816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4426307678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.621898651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6258010864258</t>
+    <t xml:space="preserve">39.4745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.402889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4426345825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6219024658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6257972717285</t>
   </si>
   <si>
     <t xml:space="preserve">42.8448143005371</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">44.1534576416016</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4889984130859</t>
+    <t xml:space="preserve">45.4890022277832</t>
   </si>
   <si>
     <t xml:space="preserve">44.1355361938477</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">46.2957077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5953826904297</t>
+    <t xml:space="preserve">47.5953903198242</t>
   </si>
   <si>
     <t xml:space="preserve">46.2060661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8475379943848</t>
+    <t xml:space="preserve">45.8475341796875</t>
   </si>
   <si>
     <t xml:space="preserve">44.9512023925781</t>
@@ -1571,19 +1571,19 @@
     <t xml:space="preserve">43.2033500671387</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6975059509277</t>
+    <t xml:space="preserve">41.6975021362305</t>
   </si>
   <si>
     <t xml:space="preserve">41.4106750488281</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3927536010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.249340057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9944648742676</t>
+    <t xml:space="preserve">41.392749786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2493362426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9944686889648</t>
   </si>
   <si>
     <t xml:space="preserve">39.3311805725098</t>
@@ -1592,31 +1592,31 @@
     <t xml:space="preserve">40.9804420471191</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0123901367188</t>
+    <t xml:space="preserve">40.0123977661133</t>
   </si>
   <si>
     <t xml:space="preserve">40.7832450866699</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9586143493652</t>
+    <t xml:space="preserve">39.9586181640625</t>
   </si>
   <si>
     <t xml:space="preserve">39.5283737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4784927368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1378784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.653865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2594680786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.629695892334</t>
+    <t xml:space="preserve">40.4784889221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.137882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6538619995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2594718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6296920776367</t>
   </si>
   <si>
     <t xml:space="preserve">41.2851943969727</t>
@@ -1625,31 +1625,31 @@
     <t xml:space="preserve">42.1728477478027</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2489585876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9410018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8685302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7598457336426</t>
+    <t xml:space="preserve">41.2489624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9409980773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8685340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7598419189453</t>
   </si>
   <si>
     <t xml:space="preserve">40.0714569091797</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9519386291504</t>
+    <t xml:space="preserve">37.9519462585449</t>
   </si>
   <si>
     <t xml:space="preserve">37.6983222961426</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5389366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2635498046875</t>
+    <t xml:space="preserve">36.5389404296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2635536193848</t>
   </si>
   <si>
     <t xml:space="preserve">36.6838607788086</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">36.2128562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8686561584473</t>
+    <t xml:space="preserve">35.8686599731445</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606956481934</t>
@@ -1670,25 +1670,25 @@
     <t xml:space="preserve">34.4194221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6042251586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8578453063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0752296447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.673038482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8904228210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3433151245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9266586303711</t>
+    <t xml:space="preserve">33.6042213439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8578414916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0752334594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6730346679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8904266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3433113098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9266548156738</t>
   </si>
   <si>
     <t xml:space="preserve">34.7455024719238</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">34.1839256286621</t>
   </si>
   <si>
-    <t xml:space="preserve">34.020881652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6368103027344</t>
+    <t xml:space="preserve">34.0208854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6368141174316</t>
   </si>
   <si>
     <t xml:space="preserve">35.3251953125</t>
@@ -1712,31 +1712,31 @@
     <t xml:space="preserve">32.5897598266602</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5716400146484</t>
+    <t xml:space="preserve">32.5716438293457</t>
   </si>
   <si>
     <t xml:space="preserve">31.6477489471436</t>
   </si>
   <si>
-    <t xml:space="preserve">31.955717086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7057476043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.65505027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1079387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4014320373535</t>
+    <t xml:space="preserve">31.9557132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7057514190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6550521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1079368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4014301300049</t>
   </si>
   <si>
     <t xml:space="preserve">30.3253231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3833160400391</t>
+    <t xml:space="preserve">29.3833179473877</t>
   </si>
   <si>
     <t xml:space="preserve">29.5825881958008</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">29.2927398681641</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7093944549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7782096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4303684234619</t>
+    <t xml:space="preserve">29.7093925476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7782115936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4303646087646</t>
   </si>
   <si>
     <t xml:space="preserve">29.8180885314941</t>
@@ -1769,55 +1769,55 @@
     <t xml:space="preserve">30.5789394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8470230102539</t>
+    <t xml:space="preserve">31.8470268249512</t>
   </si>
   <si>
     <t xml:space="preserve">31.8289070129395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2636795043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2854404449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5390644073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1586360931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9194889068604</t>
+    <t xml:space="preserve">32.2636756896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2854480743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5390605926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.158634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9194850921631</t>
   </si>
   <si>
     <t xml:space="preserve">31.7926769256592</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0137119293213</t>
+    <t xml:space="preserve">31.0137157440186</t>
   </si>
   <si>
     <t xml:space="preserve">30.089822769165</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0717086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.83620262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2565097808838</t>
+    <t xml:space="preserve">30.0717067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8362045288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2565078735352</t>
   </si>
   <si>
     <t xml:space="preserve">28.8941993713379</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2601585388184</t>
+    <t xml:space="preserve">28.2601566314697</t>
   </si>
   <si>
     <t xml:space="preserve">27.7529239654541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7928047180176</t>
+    <t xml:space="preserve">26.7928028106689</t>
   </si>
   <si>
     <t xml:space="preserve">26.4304943084717</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">27.2094593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2638072967529</t>
+    <t xml:space="preserve">27.2638053894043</t>
   </si>
   <si>
     <t xml:space="preserve">27.1732292175293</t>
@@ -1844,34 +1844,34 @@
     <t xml:space="preserve">26.901496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6261157989502</t>
+    <t xml:space="preserve">27.6261177062988</t>
   </si>
   <si>
     <t xml:space="preserve">28.0790042877197</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7348079681396</t>
+    <t xml:space="preserve">27.7348098754883</t>
   </si>
   <si>
     <t xml:space="preserve">28.0971183776855</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0065422058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9521961212158</t>
+    <t xml:space="preserve">28.0065383911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9521942138672</t>
   </si>
   <si>
     <t xml:space="preserve">28.205810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1695823669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9340782165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.767391204834</t>
+    <t xml:space="preserve">28.1695804595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9340801239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7673931121826</t>
   </si>
   <si>
     <t xml:space="preserve">28.7130451202393</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">29.3470897674561</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3289737701416</t>
+    <t xml:space="preserve">29.3289756774902</t>
   </si>
   <si>
     <t xml:space="preserve">28.8036212921143</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">27.8253860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6079998016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7166919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9051456451416</t>
+    <t xml:space="preserve">27.6079978942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7166938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.905143737793</t>
   </si>
   <si>
     <t xml:space="preserve">22.8617420196533</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">21.8472766876221</t>
   </si>
   <si>
-    <t xml:space="preserve">22.916088104248</t>
+    <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
     <t xml:space="preserve">23.5501308441162</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">23.8399791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6950550079346</t>
+    <t xml:space="preserve">23.6950531005859</t>
   </si>
   <si>
     <t xml:space="preserve">23.3689765930176</t>
@@ -1928,46 +1928,46 @@
     <t xml:space="preserve">23.5682468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6443557739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8291606903076</t>
+    <t xml:space="preserve">22.6443576812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8291625976562</t>
   </si>
   <si>
     <t xml:space="preserve">20.9415016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4849643707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3581581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4668521881104</t>
+    <t xml:space="preserve">21.4849624633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3581562042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4668502807617</t>
   </si>
   <si>
     <t xml:space="preserve">21.7204685211182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8364543914795</t>
+    <t xml:space="preserve">19.8364562988281</t>
   </si>
   <si>
     <t xml:space="preserve">18.4234504699707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3872184753418</t>
+    <t xml:space="preserve">18.3872165679932</t>
   </si>
   <si>
     <t xml:space="preserve">19.6553039550781</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9850273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.111837387085</t>
+    <t xml:space="preserve">18.9850254058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959125518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1118392944336</t>
   </si>
   <si>
     <t xml:space="preserve">18.1064281463623</t>
@@ -1979,52 +1979,52 @@
     <t xml:space="preserve">17.2097110748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3636951446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7568244934082</t>
+    <t xml:space="preserve">17.3636932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7568264007568</t>
   </si>
   <si>
     <t xml:space="preserve">16.2948799133301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412616729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8057632446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7695322036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7061243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2495918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024765014648</t>
+    <t xml:space="preserve">16.0412635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8057613372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7695302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7061262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2495899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7024803161621</t>
   </si>
   <si>
     <t xml:space="preserve">16.4941501617432</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5720195770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6535396575928</t>
+    <t xml:space="preserve">17.572021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6535415649414</t>
   </si>
   <si>
     <t xml:space="preserve">16.5847263336182</t>
   </si>
   <si>
-    <t xml:space="preserve">18.043025970459</t>
+    <t xml:space="preserve">18.0430240631104</t>
   </si>
   <si>
     <t xml:space="preserve">18.9306831359863</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7622356414795</t>
+    <t xml:space="preserve">17.7622337341309</t>
   </si>
   <si>
     <t xml:space="preserve">16.8926906585693</t>
@@ -2039,25 +2039,25 @@
     <t xml:space="preserve">16.3582820892334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2858200073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8148193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4887399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354875564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8365821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6789531707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2351226806641</t>
+    <t xml:space="preserve">16.2858219146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8148183822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4887428283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354866027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8365831375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6789512634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2351236343384</t>
   </si>
   <si>
     <t xml:space="preserve">15.5521450042725</t>
@@ -2066,46 +2066,46 @@
     <t xml:space="preserve">17.2640571594238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8890438079834</t>
+    <t xml:space="preserve">17.8890419006348</t>
   </si>
   <si>
     <t xml:space="preserve">18.2604084014893</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7441177368164</t>
+    <t xml:space="preserve">17.744119644165</t>
   </si>
   <si>
     <t xml:space="preserve">17.4905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1154842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1517181396484</t>
+    <t xml:space="preserve">18.1154861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1517162322998</t>
   </si>
   <si>
     <t xml:space="preserve">18.3328723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1336002349854</t>
+    <t xml:space="preserve">18.133602142334</t>
   </si>
   <si>
     <t xml:space="preserve">18.0249080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5539073944092</t>
+    <t xml:space="preserve">17.5539054870605</t>
   </si>
   <si>
     <t xml:space="preserve">18.7857570648193</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9125652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7314147949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4415626525879</t>
+    <t xml:space="preserve">18.9125671386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7314128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4415645599365</t>
   </si>
   <si>
     <t xml:space="preserve">19.0574913024902</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">18.8944530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8038749694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4596786499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5321407318115</t>
+    <t xml:space="preserve">18.8038768768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4596767425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5321426391602</t>
   </si>
   <si>
     <t xml:space="preserve">18.0883121490479</t>
@@ -2135,16 +2135,16 @@
     <t xml:space="preserve">18.4053344726562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7132968902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5103778839111</t>
+    <t xml:space="preserve">18.7132949829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5103797912598</t>
   </si>
   <si>
     <t xml:space="preserve">19.782112121582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3618049621582</t>
+    <t xml:space="preserve">20.3618030548096</t>
   </si>
   <si>
     <t xml:space="preserve">20.1806526184082</t>
@@ -2153,22 +2153,22 @@
     <t xml:space="preserve">20.0357284545898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.528491973877</t>
+    <t xml:space="preserve">19.5284957885742</t>
   </si>
   <si>
     <t xml:space="preserve">19.5647239685059</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3980369567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8528099060059</t>
+    <t xml:space="preserve">20.3980388641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8528118133545</t>
   </si>
   <si>
     <t xml:space="preserve">17.8437538146973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8981018066406</t>
+    <t xml:space="preserve">17.898099899292</t>
   </si>
   <si>
     <t xml:space="preserve">17.6082515716553</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">16.9470348358154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0829048156738</t>
+    <t xml:space="preserve">17.0829029083252</t>
   </si>
   <si>
     <t xml:space="preserve">16.9651527404785</t>
@@ -2189,37 +2189,37 @@
     <t xml:space="preserve">17.1463069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0376148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4452114105225</t>
+    <t xml:space="preserve">17.0376167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4452133178711</t>
   </si>
   <si>
     <t xml:space="preserve">17.3727512359619</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4814453125</t>
+    <t xml:space="preserve">17.4814414978027</t>
   </si>
   <si>
     <t xml:space="preserve">17.3818092346191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2785243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0792560577393</t>
+    <t xml:space="preserve">18.2785263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0792541503906</t>
   </si>
   <si>
     <t xml:space="preserve">17.7169456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5267333984375</t>
+    <t xml:space="preserve">17.5267314910889</t>
   </si>
   <si>
     <t xml:space="preserve">18.2422943115234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0158519744873</t>
+    <t xml:space="preserve">18.0158500671387</t>
   </si>
   <si>
     <t xml:space="preserve">17.7984638214111</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">18.0520820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.336519241333</t>
+    <t xml:space="preserve">17.3365173339844</t>
   </si>
   <si>
     <t xml:space="preserve">17.2278270721436</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">18.1879463195801</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1698322296143</t>
+    <t xml:space="preserve">18.1698303222656</t>
   </si>
   <si>
     <t xml:space="preserve">17.9705619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6173114776611</t>
+    <t xml:space="preserve">17.6173095703125</t>
   </si>
   <si>
     <t xml:space="preserve">17.7078876495361</t>
@@ -2267,13 +2267,13 @@
     <t xml:space="preserve">18.7429008483887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3418235778809</t>
+    <t xml:space="preserve">17.3418216705322</t>
   </si>
   <si>
     <t xml:space="preserve">16.7572650909424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3232650756836</t>
+    <t xml:space="preserve">17.323263168335</t>
   </si>
   <si>
     <t xml:space="preserve">16.6273651123047</t>
@@ -2312,22 +2312,22 @@
     <t xml:space="preserve">13.0272445678711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1478672027588</t>
+    <t xml:space="preserve">13.1478662490845</t>
   </si>
   <si>
     <t xml:space="preserve">13.0921945571899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3798332214355</t>
+    <t xml:space="preserve">13.3798341751099</t>
   </si>
   <si>
     <t xml:space="preserve">13.454062461853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1757020950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2128171920776</t>
+    <t xml:space="preserve">13.1757030487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2128162384033</t>
   </si>
   <si>
     <t xml:space="preserve">14.001503944397</t>
@@ -2339,10 +2339,10 @@
     <t xml:space="preserve">14.5582237243652</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5025510787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.66028881073</t>
+    <t xml:space="preserve">14.5025520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6602897644043</t>
   </si>
   <si>
     <t xml:space="preserve">13.9087162017822</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">14.261305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1622323989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8189210891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2065296173096</t>
+    <t xml:space="preserve">11.1622314453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8189220428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2065305709839</t>
   </si>
   <si>
     <t xml:space="preserve">10.2714805603027</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">10.6519060134888</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9209871292114</t>
+    <t xml:space="preserve">10.9209880828857</t>
   </si>
   <si>
     <t xml:space="preserve">10.9859380722046</t>
@@ -2390,22 +2390,22 @@
     <t xml:space="preserve">10.5405616760254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7446928024292</t>
+    <t xml:space="preserve">10.7446918487549</t>
   </si>
   <si>
     <t xml:space="preserve">10.5962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3549880981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4292182922363</t>
+    <t xml:space="preserve">10.3549890518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.429217338562</t>
   </si>
   <si>
     <t xml:space="preserve">10.1044654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343664169312</t>
+    <t xml:space="preserve">10.2343654632568</t>
   </si>
   <si>
     <t xml:space="preserve">9.96528434753418</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">9.58485984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1508588790894</t>
+    <t xml:space="preserve">10.150857925415</t>
   </si>
   <si>
     <t xml:space="preserve">10.549840927124</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">10.5034465789795</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7261362075806</t>
+    <t xml:space="preserve">10.7261352539062</t>
   </si>
   <si>
     <t xml:space="preserve">10.0859079360962</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">9.34361457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63125228881836</t>
+    <t xml:space="preserve">9.63125324249268</t>
   </si>
   <si>
     <t xml:space="preserve">9.26474571228027</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">9.45495796203613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49207210540771</t>
+    <t xml:space="preserve">9.49207305908203</t>
   </si>
   <si>
     <t xml:space="preserve">9.52918815612793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25546646118164</t>
+    <t xml:space="preserve">9.25546741485596</t>
   </si>
   <si>
     <t xml:space="preserve">8.9910249710083</t>
@@ -2486,13 +2486,13 @@
     <t xml:space="preserve">8.93071365356445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59413909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29722213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33433532714844</t>
+    <t xml:space="preserve">9.59413814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29722118377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33433628082275</t>
   </si>
   <si>
     <t xml:space="preserve">9.16732025146484</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">9.93744850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0302362442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.048791885376</t>
+    <t xml:space="preserve">10.0302352905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0487928390503</t>
   </si>
   <si>
     <t xml:space="preserve">10.2993173599243</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">10.4941692352295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1415796279907</t>
+    <t xml:space="preserve">10.141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">10.1601362228394</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">9.66836738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72403907775879</t>
+    <t xml:space="preserve">9.72403812408447</t>
   </si>
   <si>
     <t xml:space="preserve">9.57558155059814</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">9.62197399139404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3157787322998</t>
+    <t xml:space="preserve">9.31577777862549</t>
   </si>
   <si>
     <t xml:space="preserve">9.44567966461182</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">9.770432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87249851226807</t>
+    <t xml:space="preserve">9.87249755859375</t>
   </si>
   <si>
     <t xml:space="preserve">9.74259662628174</t>
@@ -2573,10 +2573,10 @@
     <t xml:space="preserve">10.6426267623901</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7910861968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3457098007202</t>
+    <t xml:space="preserve">10.7910852432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3457107543945</t>
   </si>
   <si>
     <t xml:space="preserve">10.568398475647</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">11.4962644577026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003955841064</t>
+    <t xml:space="preserve">11.7003946304321</t>
   </si>
   <si>
     <t xml:space="preserve">12.3035087585449</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">12.2571153640747</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0344276428223</t>
+    <t xml:space="preserve">12.0344266891479</t>
   </si>
   <si>
     <t xml:space="preserve">12.0251483917236</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">11.8024606704712</t>
   </si>
   <si>
-    <t xml:space="preserve">12.136492729187</t>
+    <t xml:space="preserve">12.1364917755127</t>
   </si>
   <si>
     <t xml:space="preserve">12.5261964797974</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">13.6767501831055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.481897354126</t>
+    <t xml:space="preserve">13.4818983078003</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777681350708</t>
@@ -2660,16 +2660,16 @@
     <t xml:space="preserve">13.4169473648071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7973718643188</t>
+    <t xml:space="preserve">13.7973728179932</t>
   </si>
   <si>
     <t xml:space="preserve">13.8066520690918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0942897796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2149114608765</t>
+    <t xml:space="preserve">14.0942907333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2149124145508</t>
   </si>
   <si>
     <t xml:space="preserve">14.2056350708008</t>
@@ -2681,13 +2681,13 @@
     <t xml:space="preserve">13.7417020797729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7602586746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5396661758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1963548660278</t>
+    <t xml:space="preserve">13.7602577209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.539665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1963558197021</t>
   </si>
   <si>
     <t xml:space="preserve">13.9272737503052</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">15.8201217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1840858459473</t>
+    <t xml:space="preserve">17.1840839385986</t>
   </si>
   <si>
     <t xml:space="preserve">16.8871688842773</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">16.9613971710205</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8407726287842</t>
+    <t xml:space="preserve">16.8407745361328</t>
   </si>
   <si>
     <t xml:space="preserve">16.915002822876</t>
@@ -2726,10 +2726,10 @@
     <t xml:space="preserve">16.2005462646484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0892009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0242519378662</t>
+    <t xml:space="preserve">16.0892028808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0242538452148</t>
   </si>
   <si>
     <t xml:space="preserve">15.5603199005127</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376321792603</t>
+    <t xml:space="preserve">15.3376331329346</t>
   </si>
   <si>
     <t xml:space="preserve">15.068549156189</t>
@@ -2771,22 +2771,22 @@
     <t xml:space="preserve">15.1613368988037</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1870775222778</t>
+    <t xml:space="preserve">14.1870765686035</t>
   </si>
   <si>
     <t xml:space="preserve">12.6746549606323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1086559295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0437049865723</t>
+    <t xml:space="preserve">12.1086568832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0437059402466</t>
   </si>
   <si>
     <t xml:space="preserve">11.6540021896362</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3663635253906</t>
+    <t xml:space="preserve">11.3663625717163</t>
   </si>
   <si>
     <t xml:space="preserve">10.6611843109131</t>
@@ -2798,31 +2798,31 @@
     <t xml:space="preserve">9.36217212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10955238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02140522003174</t>
+    <t xml:space="preserve">8.10955142974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02140617370605</t>
   </si>
   <si>
     <t xml:space="preserve">7.93789720535278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58785104751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97755479812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9450798034668</t>
+    <t xml:space="preserve">6.58785152435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97755527496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94508028030396</t>
   </si>
   <si>
     <t xml:space="preserve">7.02394866943359</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94971942901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0517840385437</t>
+    <t xml:space="preserve">6.94971895217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05178451538086</t>
   </si>
   <si>
     <t xml:space="preserve">7.51571846008301</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">9.39000701904297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06525421142578</t>
+    <t xml:space="preserve">9.0652551651001</t>
   </si>
   <si>
     <t xml:space="preserve">8.44358444213867</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">8.30440425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1652250289917</t>
+    <t xml:space="preserve">8.16522407531738</t>
   </si>
   <si>
     <t xml:space="preserve">7.79407739639282</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">7.83119201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15594482421875</t>
+    <t xml:space="preserve">8.15594577789307</t>
   </si>
   <si>
     <t xml:space="preserve">7.88686418533325</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">7.46932458877563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33014440536499</t>
+    <t xml:space="preserve">7.33014488220215</t>
   </si>
   <si>
     <t xml:space="preserve">7.30230808258057</t>
@@ -2882,16 +2882,16 @@
     <t xml:space="preserve">7.36725902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37653779983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15384960174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59922504425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8219141960144</t>
+    <t xml:space="preserve">7.37653732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15385007858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59922552108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82191324234009</t>
   </si>
   <si>
     <t xml:space="preserve">7.97965049743652</t>
@@ -2903,13 +2903,13 @@
     <t xml:space="preserve">7.38117694854736</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56211042404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34870195388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18632459640503</t>
+    <t xml:space="preserve">7.56211090087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34870147705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18632507324219</t>
   </si>
   <si>
     <t xml:space="preserve">7.14457082748413</t>
@@ -2918,16 +2918,16 @@
     <t xml:space="preserve">7.20024347305298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10745573043823</t>
+    <t xml:space="preserve">7.10745620727539</t>
   </si>
   <si>
     <t xml:space="preserve">6.9682765007019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60850381851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58530759811401</t>
+    <t xml:space="preserve">7.6085033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58530807495117</t>
   </si>
   <si>
     <t xml:space="preserve">7.48788118362427</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">7.76624155044556</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51781272888184</t>
+    <t xml:space="preserve">8.51781368255615</t>
   </si>
   <si>
     <t xml:space="preserve">8.71730518341064</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">8.9539098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59204292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74050140380859</t>
+    <t xml:space="preserve">8.59204196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74050045013428</t>
   </si>
   <si>
     <t xml:space="preserve">8.92607498168945</t>
@@ -2963,16 +2963,16 @@
     <t xml:space="preserve">11.0694456100464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5519351959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5612154006958</t>
+    <t xml:space="preserve">11.5519361495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5612144470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.3199701309204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0044946670532</t>
+    <t xml:space="preserve">11.0044937133789</t>
   </si>
   <si>
     <t xml:space="preserve">9.88177680969238</t>
@@ -2987,16 +2987,16 @@
     <t xml:space="preserve">10.2529239654541</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0766286849976</t>
+    <t xml:space="preserve">10.0766277313232</t>
   </si>
   <si>
     <t xml:space="preserve">9.94672775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4384965896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4199380874634</t>
+    <t xml:space="preserve">10.4384956359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4199390411377</t>
   </si>
   <si>
     <t xml:space="preserve">10.2807598114014</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">10.8282012939453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0900983810425</t>
+    <t xml:space="preserve">12.0900993347168</t>
   </si>
   <si>
     <t xml:space="preserve">11.505542755127</t>
@@ -3023,10 +3023,10 @@
     <t xml:space="preserve">11.6818380355835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8766899108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.885968208313</t>
+    <t xml:space="preserve">11.8766889572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8859691619873</t>
   </si>
   <si>
     <t xml:space="preserve">11.7746229171753</t>
@@ -3041,10 +3041,10 @@
     <t xml:space="preserve">11.4127569198608</t>
   </si>
   <si>
-    <t xml:space="preserve">11.338526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.208625793457</t>
+    <t xml:space="preserve">11.3385276794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086248397827</t>
   </si>
   <si>
     <t xml:space="preserve">10.8745937347412</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">13.1293087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.472620010376</t>
+    <t xml:space="preserve">13.4726190567017</t>
   </si>
   <si>
     <t xml:space="preserve">13.3612747192383</t>
@@ -3080,10 +3080,10 @@
     <t xml:space="preserve">13.3056039810181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0829153060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2684898376465</t>
+    <t xml:space="preserve">13.0829162597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2684888839722</t>
   </si>
   <si>
     <t xml:space="preserve">13.6210775375366</t>
@@ -3098,16 +3098,16 @@
     <t xml:space="preserve">13.4447841644287</t>
   </si>
   <si>
-    <t xml:space="preserve">13.222095489502</t>
+    <t xml:space="preserve">13.2220964431763</t>
   </si>
   <si>
     <t xml:space="preserve">13.5746850967407</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1849813461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2406530380249</t>
+    <t xml:space="preserve">13.1849803924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2406539916992</t>
   </si>
   <si>
     <t xml:space="preserve">13.3427181243896</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">13.2499322891235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4076690673828</t>
+    <t xml:space="preserve">13.4076681137085</t>
   </si>
   <si>
     <t xml:space="preserve">13.4633417129517</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">12.4519672393799</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7024908065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4055728912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8602266311646</t>
+    <t xml:space="preserve">12.7024898529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4055738449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8602275848389</t>
   </si>
   <si>
     <t xml:space="preserve">13.5839643478394</t>
@@ -3149,10 +3149,10 @@
     <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5282917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3561878204346</t>
+    <t xml:space="preserve">13.5282926559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3561868667603</t>
   </si>
   <si>
     <t xml:space="preserve">15.6623840332031</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">16.2376613616943</t>
   </si>
   <si>
-    <t xml:space="preserve">15.448974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5510416030884</t>
+    <t xml:space="preserve">15.4489755630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5510406494141</t>
   </si>
   <si>
     <t xml:space="preserve">14.8458614349365</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">14.6046161651611</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6788463592529</t>
+    <t xml:space="preserve">14.6788454055786</t>
   </si>
   <si>
     <t xml:space="preserve">14.7994680404663</t>
@@ -3185,10 +3185,10 @@
     <t xml:space="preserve">14.4376010894775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.992223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.732421875</t>
+    <t xml:space="preserve">13.9922246932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7324228286743</t>
   </si>
   <si>
     <t xml:space="preserve">14.5860595703125</t>
@@ -3203,28 +3203,28 @@
     <t xml:space="preserve">15.2726802825928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7644481658936</t>
+    <t xml:space="preserve">15.7644500732422</t>
   </si>
   <si>
     <t xml:space="preserve">15.5046453475952</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1891736984253</t>
+    <t xml:space="preserve">15.1891746520996</t>
   </si>
   <si>
     <t xml:space="preserve">15.0035991668701</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4768104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8665151596069</t>
+    <t xml:space="preserve">15.4768114089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8665161132812</t>
   </si>
   <si>
     <t xml:space="preserve">15.6716623306274</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2469387054443</t>
+    <t xml:space="preserve">16.246940612793</t>
   </si>
   <si>
     <t xml:space="preserve">15.9036302566528</t>
@@ -3239,28 +3239,28 @@
     <t xml:space="preserve">16.2098236083984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9407453536987</t>
+    <t xml:space="preserve">15.9407434463501</t>
   </si>
   <si>
     <t xml:space="preserve">15.9685792922974</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4396953582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7273349761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5232038497925</t>
+    <t xml:space="preserve">15.4396963119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7273368835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5232028961182</t>
   </si>
   <si>
     <t xml:space="preserve">15.6809415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0428104400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1912689208984</t>
+    <t xml:space="preserve">16.0428123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1912670135498</t>
   </si>
   <si>
     <t xml:space="preserve">16.1634311676025</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">16.6088085174561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8892650604248</t>
+    <t xml:space="preserve">17.8892631530762</t>
   </si>
   <si>
     <t xml:space="preserve">17.4902820587158</t>
@@ -3278,10 +3278,10 @@
     <t xml:space="preserve">17.5645122528076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2119216918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3603782653809</t>
+    <t xml:space="preserve">17.2119197845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3603801727295</t>
   </si>
   <si>
     <t xml:space="preserve">17.6387386322021</t>
@@ -3305,52 +3305,52 @@
     <t xml:space="preserve">18.1397876739502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5202121734619</t>
+    <t xml:space="preserve">18.5202102661133</t>
   </si>
   <si>
     <t xml:space="preserve">18.872802734375</t>
   </si>
   <si>
-    <t xml:space="preserve">20.097583770752</t>
+    <t xml:space="preserve">20.0975856781006</t>
   </si>
   <si>
     <t xml:space="preserve">19.540864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5594234466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8356876373291</t>
+    <t xml:space="preserve">19.5594253540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8356857299805</t>
   </si>
   <si>
     <t xml:space="preserve">19.3552932739258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2996196746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4480781555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3738479614258</t>
+    <t xml:space="preserve">19.2996215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4480762481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3738498687744</t>
   </si>
   <si>
     <t xml:space="preserve">18.6501140594482</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6686706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3068027496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5758838653564</t>
+    <t xml:space="preserve">18.6686725616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3068046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5758857727051</t>
   </si>
   <si>
     <t xml:space="preserve">18.074836730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2882442474365</t>
+    <t xml:space="preserve">18.2882461547852</t>
   </si>
   <si>
     <t xml:space="preserve">19.392406463623</t>
@@ -3383,40 +3383,40 @@
     <t xml:space="preserve">22.8997421264648</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4172515869141</t>
+    <t xml:space="preserve">22.4172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">21.9718761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6028270721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8419742584229</t>
+    <t xml:space="preserve">22.6028251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8419761657715</t>
   </si>
   <si>
     <t xml:space="preserve">20.6543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7470932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8398761749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3017177581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2481384277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8027629852295</t>
+    <t xml:space="preserve">20.747091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8398780822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3017158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.248140335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8027648925781</t>
   </si>
   <si>
     <t xml:space="preserve">21.3223686218262</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5800762176514</t>
+    <t xml:space="preserve">20.5800743103027</t>
   </si>
   <si>
     <t xml:space="preserve">19.9862442016602</t>
@@ -3434,10 +3434,10 @@
     <t xml:space="preserve">21.2295818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3388328552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0604724884033</t>
+    <t xml:space="preserve">20.338830947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0604705810547</t>
   </si>
   <si>
     <t xml:space="preserve">20.2460441589355</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">20.2274856567383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7264404296875</t>
+    <t xml:space="preserve">19.7264385223389</t>
   </si>
   <si>
     <t xml:space="preserve">19.9676837921143</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">20.9141101837158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.431619644165</t>
+    <t xml:space="preserve">20.4316177368164</t>
   </si>
   <si>
     <t xml:space="preserve">20.9512233734131</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">22.305908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6770534515381</t>
+    <t xml:space="preserve">22.6770553588867</t>
   </si>
   <si>
     <t xml:space="preserve">22.1945629119873</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">24.532787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0317401885986</t>
+    <t xml:space="preserve">24.03173828125</t>
   </si>
   <si>
     <t xml:space="preserve">23.1781024932861</t>
@@ -3506,13 +3506,13 @@
     <t xml:space="preserve">23.0482025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4379062652588</t>
+    <t xml:space="preserve">23.4379043579102</t>
   </si>
   <si>
     <t xml:space="preserve">23.5306930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7162647247314</t>
+    <t xml:space="preserve">23.7162628173828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2708892822266</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">23.883279800415</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9018363952637</t>
+    <t xml:space="preserve">23.9018383026123</t>
   </si>
   <si>
     <t xml:space="preserve">23.363676071167</t>
@@ -3542,7 +3542,7 @@
     <t xml:space="preserve">22.8440704345703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.771936416626</t>
+    <t xml:space="preserve">23.7719383239746</t>
   </si>
   <si>
     <t xml:space="preserve">25.219409942627</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">26.6297664642334</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1308135986328</t>
+    <t xml:space="preserve">27.1308116912842</t>
   </si>
   <si>
     <t xml:space="preserve">27.3163871765137</t>
@@ -3563,13 +3563,13 @@
     <t xml:space="preserve">27.5390739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6504173278809</t>
+    <t xml:space="preserve">27.6504154205322</t>
   </si>
   <si>
     <t xml:space="preserve">28.3184833526611</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2071361541748</t>
+    <t xml:space="preserve">28.2071380615234</t>
   </si>
   <si>
     <t xml:space="preserve">27.4277286529541</t>
@@ -3584,7 +3584,7 @@
     <t xml:space="preserve">27.2607135772705</t>
   </si>
   <si>
-    <t xml:space="preserve">27.056583404541</t>
+    <t xml:space="preserve">27.0565853118896</t>
   </si>
   <si>
     <t xml:space="preserve">26.648323059082</t>
@@ -3602,13 +3602,13 @@
     <t xml:space="preserve">26.6112079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">26.536979675293</t>
+    <t xml:space="preserve">26.5369777679443</t>
   </si>
   <si>
     <t xml:space="preserve">26.1472759246826</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6462249755859</t>
+    <t xml:space="preserve">25.6462268829346</t>
   </si>
   <si>
     <t xml:space="preserve">26.0544891357422</t>
@@ -3620,13 +3620,13 @@
     <t xml:space="preserve">26.2771759033203</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1101589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8153381347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4813060760498</t>
+    <t xml:space="preserve">26.1101570129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.815336227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4813079833984</t>
   </si>
   <si>
     <t xml:space="preserve">26.6668796539307</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">25.5719966888428</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5163249969482</t>
+    <t xml:space="preserve">25.5163269042969</t>
   </si>
   <si>
     <t xml:space="preserve">26.7411079406738</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">27.3535003662109</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6318607330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0793323516846</t>
+    <t xml:space="preserve">27.6318626403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0793304443359</t>
   </si>
   <si>
     <t xml:space="preserve">30.6381492614746</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">29.7659549713135</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1864833831787</t>
+    <t xml:space="preserve">27.1864852905273</t>
   </si>
   <si>
     <t xml:space="preserve">27.0380249023438</t>
@@ -3686,13 +3686,13 @@
     <t xml:space="preserve">27.5019588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7803192138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.945240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0937004089355</t>
+    <t xml:space="preserve">27.7803211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9452381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0936985015869</t>
   </si>
   <si>
     <t xml:space="preserve">27.3349418640137</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">27.3720588684082</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5205173492432</t>
+    <t xml:space="preserve">27.5205154418945</t>
   </si>
   <si>
     <t xml:space="preserve">26.7782249450684</t>
@@ -3719,10 +3719,10 @@
     <t xml:space="preserve">27.4091739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9287796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.46484375</t>
+    <t xml:space="preserve">27.9287776947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4648456573486</t>
   </si>
   <si>
     <t xml:space="preserve">28.114351272583</t>
@@ -3731,10 +3731,10 @@
     <t xml:space="preserve">28.8380870819092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1885795593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.965892791748</t>
+    <t xml:space="preserve">28.1885814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9658908843994</t>
   </si>
   <si>
     <t xml:space="preserve">28.5040550231934</t>
@@ -3749,10 +3749,10 @@
     <t xml:space="preserve">27.205041885376</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9102191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.984447479248</t>
+    <t xml:space="preserve">27.9102210998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9844493865967</t>
   </si>
   <si>
     <t xml:space="preserve">28.1329078674316</t>
@@ -3770,16 +3770,16 @@
     <t xml:space="preserve">27.9473342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4441909790039</t>
+    <t xml:space="preserve">26.4441928863525</t>
   </si>
   <si>
     <t xml:space="preserve">27.1493701934814</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3699626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6647853851318</t>
+    <t xml:space="preserve">26.3699607849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6647834777832</t>
   </si>
   <si>
     <t xml:space="preserve">24.7554740905762</t>
@@ -3791,16 +3791,16 @@
     <t xml:space="preserve">25.1080627441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4956703186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8461666107178</t>
+    <t xml:space="preserve">24.4956722259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8461647033691</t>
   </si>
   <si>
     <t xml:space="preserve">23.4750194549561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4007911682129</t>
+    <t xml:space="preserve">23.4007892608643</t>
   </si>
   <si>
     <t xml:space="preserve">24.1987552642822</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">24.7740325927734</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3864250183105</t>
+    <t xml:space="preserve">25.3864231109619</t>
   </si>
   <si>
     <t xml:space="preserve">25.237964630127</t>
@@ -3827,19 +3827,19 @@
     <t xml:space="preserve">25.1266212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9596061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3307495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8111457824707</t>
+    <t xml:space="preserve">24.9596042633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3307514190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8111476898193</t>
   </si>
   <si>
     <t xml:space="preserve">25.6833400726318</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0152759552002</t>
+    <t xml:space="preserve">25.0152778625488</t>
   </si>
   <si>
     <t xml:space="preserve">25.0709495544434</t>
@@ -3863,13 +3863,13 @@
     <t xml:space="preserve">23.2894458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9904346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9533176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0089893341064</t>
+    <t xml:space="preserve">21.9904327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9533195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0089874267578</t>
   </si>
   <si>
     <t xml:space="preserve">21.1553516387939</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">21.8605308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5821723937988</t>
+    <t xml:space="preserve">21.5821704864502</t>
   </si>
   <si>
     <t xml:space="preserve">21.6564025878906</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">21.5636138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4687328338623</t>
+    <t xml:space="preserve">20.4687309265137</t>
   </si>
   <si>
     <t xml:space="preserve">21.099681854248</t>
@@ -3902,7 +3902,7 @@
     <t xml:space="preserve">22.1203346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6584968566895</t>
+    <t xml:space="preserve">22.6584987640381</t>
   </si>
   <si>
     <t xml:space="preserve">22.6399402618408</t>
@@ -3917,16 +3917,16 @@
     <t xml:space="preserve">22.9925289154053</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0667572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4358081817627</t>
+    <t xml:space="preserve">23.0667591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4358100891113</t>
   </si>
   <si>
     <t xml:space="preserve">21.507942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4893856048584</t>
+    <t xml:space="preserve">21.4893836975098</t>
   </si>
   <si>
     <t xml:space="preserve">21.9347610473633</t>
@@ -3944,7 +3944,7 @@
     <t xml:space="preserve">20.5615196228027</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3945007324219</t>
+    <t xml:space="preserve">20.3945026397705</t>
   </si>
   <si>
     <t xml:space="preserve">19.9305686950684</t>
@@ -3959,19 +3959,19 @@
     <t xml:space="preserve">20.6171894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8769931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4872875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1346988677979</t>
+    <t xml:space="preserve">20.8769912719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4872894287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1347007751465</t>
   </si>
   <si>
     <t xml:space="preserve">19.0954895019531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6129989624023</t>
+    <t xml:space="preserve">18.6129970550537</t>
   </si>
   <si>
     <t xml:space="preserve">17.7779178619385</t>
@@ -3980,55 +3980,55 @@
     <t xml:space="preserve">18.2325744628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2232933044434</t>
+    <t xml:space="preserve">18.223295211792</t>
   </si>
   <si>
     <t xml:space="preserve">17.16552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4624462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.170615196228</t>
+    <t xml:space="preserve">17.4624443054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1706161499023</t>
   </si>
   <si>
     <t xml:space="preserve">15.3190746307373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3768424987793</t>
+    <t xml:space="preserve">16.3768405914307</t>
   </si>
   <si>
     <t xml:space="preserve">15.4582538604736</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3304500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5468502044678</t>
+    <t xml:space="preserve">16.3304481506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5468492507935</t>
   </si>
   <si>
     <t xml:space="preserve">14.2984209060669</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1406841278076</t>
+    <t xml:space="preserve">14.1406831741333</t>
   </si>
   <si>
     <t xml:space="preserve">14.4190435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">14.771632194519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9015340805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3448143005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3355360031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7437973022461</t>
+    <t xml:space="preserve">14.7716331481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9015331268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3448133468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3355350494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7437963485718</t>
   </si>
   <si>
     <t xml:space="preserve">15.9129076004028</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">14.0757331848145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8994388580322</t>
+    <t xml:space="preserve">13.8994379043579</t>
   </si>
   <si>
     <t xml:space="preserve">14.4468793869019</t>
@@ -4055,7 +4055,7 @@
     <t xml:space="preserve">13.6953077316284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8901596069336</t>
+    <t xml:space="preserve">13.8901605606079</t>
   </si>
   <si>
     <t xml:space="preserve">12.8787860870361</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">15.4304180145264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1242208480835</t>
+    <t xml:space="preserve">15.1242218017578</t>
   </si>
   <si>
     <t xml:space="preserve">15.3210420608521</t>
@@ -4404,9 +4404,6 @@
   </si>
   <si>
     <t xml:space="preserve">12.3012142181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415031433105</t>
@@ -51241,7 +51238,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1760" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51293,7 +51290,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1762" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51345,7 +51342,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1764" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51397,7 +51394,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1766" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51423,7 +51420,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51449,7 +51446,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1768" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51475,7 +51472,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1769" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51527,7 +51524,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51553,7 +51550,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1772" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51605,7 +51602,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1774" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51631,7 +51628,7 @@
         <v>12.5</v>
       </c>
       <c r="G1775" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51683,7 +51680,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G1777" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51709,7 +51706,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51735,7 +51732,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1779" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51865,7 +51862,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1784" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51891,7 +51888,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1785" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51943,7 +51940,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1787" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51969,7 +51966,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1788" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51995,7 +51992,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1789" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52021,7 +52018,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1790" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52047,7 +52044,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1791" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52073,7 +52070,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52099,7 +52096,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G1793" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52125,7 +52122,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1794" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52151,7 +52148,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G1795" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52177,7 +52174,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1796" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52203,7 +52200,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52229,7 +52226,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52255,7 +52252,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1799" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52281,7 +52278,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1800" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52307,7 +52304,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52333,7 +52330,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1802" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52359,7 +52356,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52385,7 +52382,7 @@
         <v>14.7700004577637</v>
       </c>
       <c r="G1804" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52411,7 +52408,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1805" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52437,7 +52434,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52489,7 +52486,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1808" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52515,7 +52512,7 @@
         <v>15</v>
       </c>
       <c r="G1809" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52541,7 +52538,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1810" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52567,7 +52564,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G1811" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52593,7 +52590,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1812" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52619,7 +52616,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1813" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52645,7 +52642,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1814" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52671,7 +52668,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1815" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52697,7 +52694,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1816" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52723,7 +52720,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1817" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52749,7 +52746,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1818" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52775,7 +52772,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1819" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52801,7 +52798,7 @@
         <v>14.9700002670288</v>
       </c>
       <c r="G1820" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52827,7 +52824,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1821" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52853,7 +52850,7 @@
         <v>16.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52879,7 +52876,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1823" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52905,7 +52902,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1824" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52931,7 +52928,7 @@
         <v>17.4300003051758</v>
       </c>
       <c r="G1825" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52983,7 +52980,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1827" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53009,7 +53006,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1828" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53035,7 +53032,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1829" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53061,7 +53058,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1830" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53087,7 +53084,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1831" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53113,7 +53110,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1832" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53139,7 +53136,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1833" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53165,7 +53162,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1834" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53191,7 +53188,7 @@
         <v>15.25</v>
       </c>
       <c r="G1835" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53217,7 +53214,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53243,7 +53240,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1837" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53269,7 +53266,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1838" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53295,7 +53292,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1839" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53321,7 +53318,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1840" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53373,7 +53370,7 @@
         <v>14.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53399,7 +53396,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1843" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53425,7 +53422,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1844" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53451,7 +53448,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1845" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53477,7 +53474,7 @@
         <v>14.5299997329712</v>
       </c>
       <c r="G1846" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53503,7 +53500,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53529,7 +53526,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53555,7 +53552,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53607,7 +53604,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1851" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53633,7 +53630,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1852" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53659,7 +53656,7 @@
         <v>14.1300001144409</v>
       </c>
       <c r="G1853" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53685,7 +53682,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1854" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53711,7 +53708,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1855" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53737,7 +53734,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1856" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53763,7 +53760,7 @@
         <v>14</v>
       </c>
       <c r="G1857" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53789,7 +53786,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G1858" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53815,7 +53812,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1859" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53867,7 +53864,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1861" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53893,7 +53890,7 @@
         <v>13.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53919,7 +53916,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1863" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53945,7 +53942,7 @@
         <v>13.75</v>
       </c>
       <c r="G1864" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53971,7 +53968,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1865" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54023,7 +54020,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1867" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54075,7 +54072,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G1869" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54101,7 +54098,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1870" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54127,7 +54124,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1871" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54153,7 +54150,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1872" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54179,7 +54176,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G1873" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54205,7 +54202,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G1874" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54231,7 +54228,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G1875" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54257,7 +54254,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54283,7 +54280,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54309,7 +54306,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1878" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54335,7 +54332,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1879" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54361,7 +54358,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1880" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54387,7 +54384,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1881" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54413,7 +54410,7 @@
         <v>11.75</v>
       </c>
       <c r="G1882" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54439,7 +54436,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54465,7 +54462,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G1884" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54491,7 +54488,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1885" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54517,7 +54514,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54543,7 +54540,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54569,7 +54566,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1888" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54595,7 +54592,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1889" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54621,7 +54618,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54647,7 +54644,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1891" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54673,7 +54670,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1892" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54699,7 +54696,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1893" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54725,7 +54722,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54751,7 +54748,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1895" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54777,7 +54774,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54803,7 +54800,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1897" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54829,7 +54826,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1898" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54855,7 +54852,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1899" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54881,7 +54878,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1900" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54907,7 +54904,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1901" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54933,7 +54930,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1902" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54959,7 +54956,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54985,7 +54982,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1904" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55011,7 +55008,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1905" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55037,7 +55034,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1906" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55063,7 +55060,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1907" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55089,7 +55086,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1908" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55115,7 +55112,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1909" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55141,7 +55138,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55167,7 +55164,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1911" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55193,7 +55190,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55219,7 +55216,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1913" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55245,7 +55242,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1914" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55271,7 +55268,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1915" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55297,7 +55294,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1916" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55323,7 +55320,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1917" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55349,7 +55346,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1918" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55375,7 +55372,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55401,7 +55398,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1920" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55427,7 +55424,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55453,7 +55450,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55479,7 +55476,7 @@
         <v>12</v>
       </c>
       <c r="G1923" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55505,7 +55502,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55531,7 +55528,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1925" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55557,7 +55554,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55583,7 +55580,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1927" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55609,7 +55606,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1928" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55635,7 +55632,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1929" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55661,7 +55658,7 @@
         <v>12.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55687,7 +55684,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1931" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55713,7 +55710,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1932" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55739,7 +55736,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55765,7 +55762,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55791,7 +55788,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55817,7 +55814,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55843,7 +55840,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1937" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55869,7 +55866,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55895,7 +55892,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55921,7 +55918,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1940" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55947,7 +55944,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1941" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55973,7 +55970,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1942" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55999,7 +55996,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1943" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56025,7 +56022,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56051,7 +56048,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1945" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56077,7 +56074,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1946" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56103,7 +56100,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1947" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56129,7 +56126,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1948" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56155,7 +56152,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1949" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56181,7 +56178,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1950" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56207,7 +56204,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1951" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56233,7 +56230,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1952" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56259,7 +56256,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G1953" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56285,7 +56282,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1954" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56311,7 +56308,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56337,7 +56334,7 @@
         <v>12.5</v>
       </c>
       <c r="G1956" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56363,7 +56360,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1957" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56389,7 +56386,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56415,7 +56412,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1959" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56441,7 +56438,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56467,7 +56464,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1961" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56493,7 +56490,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1962" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56519,7 +56516,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1963" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56545,7 +56542,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1964" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56571,7 +56568,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1965" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56597,7 +56594,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1966" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56623,7 +56620,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G1967" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56649,7 +56646,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1968" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56675,7 +56672,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56701,7 +56698,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G1970" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56727,7 +56724,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56753,7 +56750,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56779,7 +56776,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56805,7 +56802,7 @@
         <v>10.9899997711182</v>
       </c>
       <c r="G1974" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56831,7 +56828,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1975" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56857,7 +56854,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56883,7 +56880,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1977" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56909,7 +56906,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1978" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56935,7 +56932,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56961,7 +56958,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56987,7 +56984,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57013,7 +57010,7 @@
         <v>11.25</v>
       </c>
       <c r="G1982" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57039,7 +57036,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1983" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57065,7 +57062,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57091,7 +57088,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1985" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57117,7 +57114,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G1986" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57143,7 +57140,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1987" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57169,7 +57166,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57195,7 +57192,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57221,7 +57218,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1990" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57247,7 +57244,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57273,7 +57270,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1992" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57299,7 +57296,7 @@
         <v>9.70499992370605</v>
       </c>
       <c r="G1993" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57325,7 +57322,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57351,7 +57348,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57377,7 +57374,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1996" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57403,7 +57400,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1997" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57429,7 +57426,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1998" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57455,7 +57452,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1999" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57481,7 +57478,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57507,7 +57504,7 @@
         <v>10.75</v>
       </c>
       <c r="G2001" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57533,7 +57530,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G2002" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57559,7 +57556,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2003" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57585,7 +57582,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2004" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57611,7 +57608,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2005" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57637,7 +57634,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G2006" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57663,7 +57660,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2007" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57689,7 +57686,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2008" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57715,7 +57712,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2009" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57741,7 +57738,7 @@
         <v>11.0900001525879</v>
       </c>
       <c r="G2010" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57767,7 +57764,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2011" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57793,7 +57790,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G2012" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57819,7 +57816,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2013" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57845,7 +57842,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2014" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57871,7 +57868,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57897,7 +57894,7 @@
         <v>11.5</v>
       </c>
       <c r="G2016" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57923,7 +57920,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57949,7 +57946,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2018" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57975,7 +57972,7 @@
         <v>11</v>
       </c>
       <c r="G2019" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58001,7 +57998,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2020" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58027,7 +58024,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58053,7 +58050,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G2022" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58079,7 +58076,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2023" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58105,7 +58102,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58131,7 +58128,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58157,7 +58154,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2026" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58183,7 +58180,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2027" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58209,7 +58206,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2028" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58235,7 +58232,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58261,7 +58258,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2030" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58287,7 +58284,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2031" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58313,7 +58310,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2032" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58339,7 +58336,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2033" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58365,7 +58362,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58391,7 +58388,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2035" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58417,7 +58414,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58443,7 +58440,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2037" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58469,7 +58466,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2038" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58495,7 +58492,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2039" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58521,7 +58518,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2040" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58547,7 +58544,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58573,7 +58570,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58599,7 +58596,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2043" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58625,7 +58622,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2044" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58651,7 +58648,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58677,7 +58674,7 @@
         <v>12</v>
       </c>
       <c r="G2046" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58703,7 +58700,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2047" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58729,7 +58726,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2048" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58755,7 +58752,7 @@
         <v>12</v>
       </c>
       <c r="G2049" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58781,7 +58778,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2050" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58807,7 +58804,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58833,7 +58830,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G2052" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58859,7 +58856,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2053" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58885,7 +58882,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G2054" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58911,7 +58908,7 @@
         <v>12.25</v>
       </c>
       <c r="G2055" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58937,7 +58934,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2056" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58963,7 +58960,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2057" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58989,7 +58986,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2058" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59015,7 +59012,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2059" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59041,7 +59038,7 @@
         <v>12.25</v>
       </c>
       <c r="G2060" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59067,7 +59064,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2061" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59093,7 +59090,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2062" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59119,7 +59116,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2063" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59145,7 +59142,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2064" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59171,7 +59168,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2065" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59197,7 +59194,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59223,7 +59220,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2067" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59249,7 +59246,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59275,7 +59272,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2069" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59301,7 +59298,7 @@
         <v>12.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59327,7 +59324,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2071" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59353,7 +59350,7 @@
         <v>12.25</v>
       </c>
       <c r="G2072" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59379,7 +59376,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2073" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59405,7 +59402,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59431,7 +59428,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2075" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59457,7 +59454,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2076" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59483,7 +59480,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2077" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59509,7 +59506,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G2078" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59535,7 +59532,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G2079" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59561,7 +59558,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59587,7 +59584,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2081" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59613,7 +59610,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2082" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59639,7 +59636,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59665,7 +59662,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2084" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59691,7 +59688,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2085" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59717,7 +59714,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59743,7 +59740,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2087" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59769,7 +59766,7 @@
         <v>11.7299995422363</v>
       </c>
       <c r="G2088" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59795,7 +59792,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59821,7 +59818,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G2090" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59847,7 +59844,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59873,7 +59870,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59899,7 +59896,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2093" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59925,7 +59922,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2094" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59951,7 +59948,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2095" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59977,7 +59974,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60003,7 +60000,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60029,7 +60026,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2098" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60055,7 +60052,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60081,7 +60078,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60107,7 +60104,7 @@
         <v>12.3699998855591</v>
       </c>
       <c r="G2101" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60133,7 +60130,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2102" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60159,7 +60156,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2103" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60185,7 +60182,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2104" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60211,7 +60208,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60237,7 +60234,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60263,7 +60260,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60289,7 +60286,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2108" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60315,7 +60312,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60341,7 +60338,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2110" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60367,7 +60364,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2111" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60393,7 +60390,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G2112" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60419,7 +60416,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G2113" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60445,7 +60442,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2114" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60471,7 +60468,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2115" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60497,7 +60494,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60523,7 +60520,7 @@
         <v>11.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60549,7 +60546,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2118" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60575,7 +60572,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2119" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60601,7 +60598,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2120" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60627,7 +60624,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2121" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60653,7 +60650,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2122" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60679,7 +60676,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2123" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60705,7 +60702,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2124" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60731,7 +60728,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60757,7 +60754,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60783,7 +60780,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60809,7 +60806,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2128" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60835,7 +60832,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2129" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60861,7 +60858,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G2130" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60887,7 +60884,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60913,7 +60910,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2132" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60939,7 +60936,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60965,7 +60962,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2134" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60991,7 +60988,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2135" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61017,7 +61014,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61043,7 +61040,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2137" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61069,7 +61066,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2138" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61095,7 +61092,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2139" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61121,7 +61118,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2140" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61147,7 +61144,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2141" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61173,7 +61170,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2142" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61199,7 +61196,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2143" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61225,7 +61222,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2144" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61251,7 +61248,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1712">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528583526611</t>
+    <t xml:space="preserve">13.0528593063354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8206939697266</t>
@@ -53,49 +53,49 @@
     <t xml:space="preserve">12.4681463241577</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3133697509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2101831436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203748703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85413455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4130506515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90572643280029</t>
+    <t xml:space="preserve">12.3133687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3305673599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.21018409729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480833053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85413265228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.413049697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90572738647461</t>
   </si>
   <si>
     <t xml:space="preserve">10.5334329605103</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3528604507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8429861068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8773832321167</t>
+    <t xml:space="preserve">10.3528594970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8429880142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8773822784424</t>
   </si>
   <si>
     <t xml:space="preserve">10.7913951873779</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6366186141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6968088150024</t>
+    <t xml:space="preserve">10.6366176605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968078613281</t>
   </si>
   <si>
     <t xml:space="preserve">10.2496757507324</t>
@@ -104,22 +104,22 @@
     <t xml:space="preserve">10.5162353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.550630569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0777006149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08884811401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02865791320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45859432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20063209533691</t>
+    <t xml:space="preserve">10.5506324768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0777015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08884906768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02865695953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45859241485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2006311416626</t>
   </si>
   <si>
     <t xml:space="preserve">9.48438930511475</t>
@@ -131,34 +131,34 @@
     <t xml:space="preserve">9.71655559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4990396499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044532775879</t>
+    <t xml:space="preserve">10.4990386962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044523239136</t>
   </si>
   <si>
     <t xml:space="preserve">10.2582750320435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0665531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.610821723938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840700149536</t>
+    <t xml:space="preserve">11.066554069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6108226776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2840709686279</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410774230957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1009502410889</t>
+    <t xml:space="preserve">11.1009483337402</t>
   </si>
   <si>
     <t xml:space="preserve">10.9719696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8748359680176</t>
+    <t xml:space="preserve">11.8748350143433</t>
   </si>
   <si>
     <t xml:space="preserve">12.0124139785767</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8404388427734</t>
+    <t xml:space="preserve">11.8404407501221</t>
   </si>
   <si>
     <t xml:space="preserve">12.0382099151611</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">11.6942615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4362983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4448986053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7286567687988</t>
+    <t xml:space="preserve">11.4362993240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4448976516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7286548614502</t>
   </si>
   <si>
     <t xml:space="preserve">11.9092292785645</t>
@@ -194,52 +194,52 @@
     <t xml:space="preserve">11.8662347793579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1155996322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617769241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.27037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2015857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2359809875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2875709533691</t>
+    <t xml:space="preserve">12.1155977249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.261775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2703762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079542160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201584815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2359800338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2875728607178</t>
   </si>
   <si>
     <t xml:space="preserve">11.9694204330444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.634069442749</t>
+    <t xml:space="preserve">11.6340684890747</t>
   </si>
   <si>
     <t xml:space="preserve">11.3503122329712</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8060445785522</t>
+    <t xml:space="preserve">11.8060436248779</t>
   </si>
   <si>
     <t xml:space="preserve">11.9522228240967</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8834323883057</t>
+    <t xml:space="preserve">11.88343334198</t>
   </si>
   <si>
     <t xml:space="preserve">11.7716484069824</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6684646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7028589248657</t>
+    <t xml:space="preserve">11.6684637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028579711914</t>
   </si>
   <si>
     <t xml:space="preserve">11.5394840240479</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">11.1697397232056</t>
   </si>
   <si>
-    <t xml:space="preserve">11.178337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3847055435181</t>
+    <t xml:space="preserve">11.1783380508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3847064971924</t>
   </si>
   <si>
     <t xml:space="preserve">11.4105033874512</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2213315963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1181468963623</t>
+    <t xml:space="preserve">11.2213306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.118145942688</t>
   </si>
   <si>
     <t xml:space="preserve">11.0493564605713</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">11.0166463851929</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4941530227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4144525527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2816133499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3258934020996</t>
+    <t xml:space="preserve">10.4941539764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4144506454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2816123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.325891494751</t>
   </si>
   <si>
     <t xml:space="preserve">9.9805154800415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3790273666382</t>
+    <t xml:space="preserve">10.3790283203125</t>
   </si>
   <si>
     <t xml:space="preserve">10.0602178573608</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">10.3613157272339</t>
   </si>
   <si>
-    <t xml:space="preserve">10.308180809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6712703704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4771490097046</t>
+    <t xml:space="preserve">10.3081817626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6712694168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4771499633789</t>
   </si>
   <si>
     <t xml:space="preserve">11.1937637329102</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">10.9812240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3000345230103</t>
+    <t xml:space="preserve">11.3000335693359</t>
   </si>
   <si>
     <t xml:space="preserve">11.344313621521</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">10.9015216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9900789260864</t>
+    <t xml:space="preserve">10.9900798797607</t>
   </si>
   <si>
     <t xml:space="preserve">10.9723682403564</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">10.5738554000854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1222095489502</t>
+    <t xml:space="preserve">10.1222076416016</t>
   </si>
   <si>
     <t xml:space="preserve">10.0513620376587</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">9.7414083480835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0956411361694</t>
+    <t xml:space="preserve">10.0956420898438</t>
   </si>
   <si>
     <t xml:space="preserve">10.5561447143555</t>
@@ -371,16 +371,16 @@
     <t xml:space="preserve">10.6447019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93623733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17463397979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73255252838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62628269195557</t>
+    <t xml:space="preserve">9.93623638153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17463493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73255157470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62628173828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.98937129974365</t>
@@ -389,22 +389,22 @@
     <t xml:space="preserve">10.246190071106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0425062179565</t>
+    <t xml:space="preserve">10.0425052642822</t>
   </si>
   <si>
     <t xml:space="preserve">9.23662662506104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19234752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77683162689209</t>
+    <t xml:space="preserve">9.19234657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77683067321777</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4410171508789</t>
+    <t xml:space="preserve">10.4410181045532</t>
   </si>
   <si>
     <t xml:space="preserve">10.3436050415039</t>
@@ -413,46 +413,46 @@
     <t xml:space="preserve">10.1930551528931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.272759437561</t>
+    <t xml:space="preserve">10.2727584838867</t>
   </si>
   <si>
     <t xml:space="preserve">10.2107667922974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7598285675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1406278610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0786380767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0963487625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0520706176758</t>
+    <t xml:space="preserve">10.7598276138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1406288146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0786390304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0963478088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0520696640015</t>
   </si>
   <si>
     <t xml:space="preserve">10.9369449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1583414077759</t>
+    <t xml:space="preserve">11.1583404541016</t>
   </si>
   <si>
     <t xml:space="preserve">11.3177442550659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3797359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.786395072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1140613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9635124206543</t>
+    <t xml:space="preserve">11.379734992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7863960266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1140623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.96351146698</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
@@ -461,25 +461,25 @@
     <t xml:space="preserve">11.122917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2823219299316</t>
+    <t xml:space="preserve">11.2823209762573</t>
   </si>
   <si>
     <t xml:space="preserve">11.184907913208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2468976974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3266000747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922765731812</t>
+    <t xml:space="preserve">11.246898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3266010284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5922746658325</t>
   </si>
   <si>
     <t xml:space="preserve">11.8136720657349</t>
   </si>
   <si>
-    <t xml:space="preserve">11.840238571167</t>
+    <t xml:space="preserve">11.8402376174927</t>
   </si>
   <si>
     <t xml:space="preserve">11.7516813278198</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">11.7162570953369</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7339696884155</t>
+    <t xml:space="preserve">11.7339677810669</t>
   </si>
   <si>
     <t xml:space="preserve">11.5125732421875</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">11.3885898590088</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4328718185425</t>
+    <t xml:space="preserve">11.4328708648682</t>
   </si>
   <si>
     <t xml:space="preserve">11.2026195526123</t>
@@ -524,25 +524,25 @@
     <t xml:space="preserve">12.1324815750122</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752716064453</t>
+    <t xml:space="preserve">12.575270652771</t>
   </si>
   <si>
     <t xml:space="preserve">12.6018400192261</t>
   </si>
   <si>
-    <t xml:space="preserve">12.477858543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3538761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6726875305176</t>
+    <t xml:space="preserve">12.4778575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3538770675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6726865768433</t>
   </si>
   <si>
     <t xml:space="preserve">12.9914960861206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8852252960205</t>
+    <t xml:space="preserve">12.8852262496948</t>
   </si>
   <si>
     <t xml:space="preserve">12.9295053482056</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">13.4874219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6556835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619524002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5051345825195</t>
+    <t xml:space="preserve">13.6556825637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5051336288452</t>
   </si>
   <si>
     <t xml:space="preserve">14.4527072906494</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">14.3021574020386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3375825881958</t>
+    <t xml:space="preserve">14.3375806808472</t>
   </si>
   <si>
     <t xml:space="preserve">14.2135992050171</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">14.2047443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1516084671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0010604858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8593683242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822490692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8416557312012</t>
+    <t xml:space="preserve">14.1516094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0010595321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8593664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8416547775269</t>
   </si>
   <si>
     <t xml:space="preserve">13.912501335144</t>
@@ -599,37 +599,37 @@
     <t xml:space="preserve">13.8062314987183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2748823165894</t>
+    <t xml:space="preserve">13.2748832702637</t>
   </si>
   <si>
     <t xml:space="preserve">13.4519987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2306032180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265300750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6379709243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8150882720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9567813873291</t>
+    <t xml:space="preserve">13.2306022644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265291213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.815089225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9567823410034</t>
   </si>
   <si>
     <t xml:space="preserve">14.2578802108765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1781768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.868932723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3914241790771</t>
+    <t xml:space="preserve">14.1781778335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8689336776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3914260864258</t>
   </si>
   <si>
     <t xml:space="preserve">15.3648567199707</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">15.5773973464966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5862512588501</t>
+    <t xml:space="preserve">15.5862531661987</t>
   </si>
   <si>
     <t xml:space="preserve">15.4534149169922</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5331201553345</t>
+    <t xml:space="preserve">15.5331192016602</t>
   </si>
   <si>
     <t xml:space="preserve">15.4268465042114</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6216745376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545137405396</t>
+    <t xml:space="preserve">15.621675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545156478882</t>
   </si>
   <si>
     <t xml:space="preserve">15.6305322647095</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">16.2858619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4629821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.560396194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6046733856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.136022567749</t>
+    <t xml:space="preserve">16.4629783630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5603923797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6046714782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1360244750977</t>
   </si>
   <si>
     <t xml:space="preserve">16.9854736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2511463165283</t>
+    <t xml:space="preserve">17.2511501312256</t>
   </si>
   <si>
     <t xml:space="preserve">16.8703479766846</t>
@@ -695,37 +695,37 @@
     <t xml:space="preserve">16.3301429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6843757629395</t>
+    <t xml:space="preserve">16.6843776702881</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463665008545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666622161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.091739654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7995014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9766159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9500465393066</t>
+    <t xml:space="preserve">16.6666641235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0917415618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7994995117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.976619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9500503540039</t>
   </si>
   <si>
     <t xml:space="preserve">17.1094570159912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3928413391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2245807647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6312427520752</t>
+    <t xml:space="preserve">17.39284324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2245826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6312389373779</t>
   </si>
   <si>
     <t xml:space="preserve">17.1803016662598</t>
@@ -734,19 +734,19 @@
     <t xml:space="preserve">16.9589061737061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3042850494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4459762573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7559280395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6408023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6053829193115</t>
+    <t xml:space="preserve">17.3042812347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4459743499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7559261322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6408042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6053810119629</t>
   </si>
   <si>
     <t xml:space="preserve">17.8179225921631</t>
@@ -758,40 +758,40 @@
     <t xml:space="preserve">17.6585159301758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8444900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9419021606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6762256622314</t>
+    <t xml:space="preserve">17.8444881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9419040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6762294769287</t>
   </si>
   <si>
     <t xml:space="preserve">16.8437805175781</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8614921569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0474643707275</t>
+    <t xml:space="preserve">16.8614940643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0474624633789</t>
   </si>
   <si>
     <t xml:space="preserve">17.2600040435791</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3751277923584</t>
+    <t xml:space="preserve">17.375129699707</t>
   </si>
   <si>
     <t xml:space="preserve">16.7817916870117</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068710327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9146289825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308506011963</t>
+    <t xml:space="preserve">17.2068691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9146270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.330846786499</t>
   </si>
   <si>
     <t xml:space="preserve">17.3839855194092</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">17.490255355835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3485641479492</t>
+    <t xml:space="preserve">17.3485622406006</t>
   </si>
   <si>
     <t xml:space="preserve">17.5345344543457</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">17.472541809082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7470741271973</t>
+    <t xml:space="preserve">17.7470760345459</t>
   </si>
   <si>
     <t xml:space="preserve">18.0481700897217</t>
@@ -824,28 +824,28 @@
     <t xml:space="preserve">20.5012359619141</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7137775421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4569549560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9528846740723</t>
+    <t xml:space="preserve">20.7137756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.456958770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.952880859375</t>
   </si>
   <si>
     <t xml:space="preserve">21.1654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7056274414062</t>
+    <t xml:space="preserve">21.7056293487549</t>
   </si>
   <si>
     <t xml:space="preserve">21.2097034454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4488086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7764778137207</t>
+    <t xml:space="preserve">21.4488105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7764759063721</t>
   </si>
   <si>
     <t xml:space="preserve">21.8738899230957</t>
@@ -854,34 +854,34 @@
     <t xml:space="preserve">22.0421485900879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9358787536621</t>
+    <t xml:space="preserve">21.9358806610107</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4140949249268</t>
+    <t xml:space="preserve">22.4140930175781</t>
   </si>
   <si>
     <t xml:space="preserve">22.3875274658203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4760818481445</t>
+    <t xml:space="preserve">22.4760837554932</t>
   </si>
   <si>
     <t xml:space="preserve">22.4495182037354</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3166828155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7594718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5646438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6089210510254</t>
+    <t xml:space="preserve">22.3166809082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7594699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5646419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.608922958374</t>
   </si>
   <si>
     <t xml:space="preserve">22.7948951721191</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">22.7506160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8037490844727</t>
+    <t xml:space="preserve">22.8037509918213</t>
   </si>
   <si>
     <t xml:space="preserve">23.025146484375</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">23.2288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9631576538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5026512145996</t>
+    <t xml:space="preserve">22.96315574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5026531219482</t>
   </si>
   <si>
     <t xml:space="preserve">23.326244354248</t>
@@ -911,19 +911,19 @@
     <t xml:space="preserve">23.5210723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.645055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0524215698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3800888061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8494453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7963104248047</t>
+    <t xml:space="preserve">23.6450576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0524234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3800868988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8494472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7963123321533</t>
   </si>
   <si>
     <t xml:space="preserve">25.0619869232178</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">25.1062660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0354194641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5763320922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6390762329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.553337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7863864898682</t>
+    <t xml:space="preserve">25.03542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5763339996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6390743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5533390045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7863845825195</t>
   </si>
   <si>
     <t xml:space="preserve">28.3152236938477</t>
@@ -959,58 +959,58 @@
     <t xml:space="preserve">28.8440628051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5342388153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9656524658203</t>
+    <t xml:space="preserve">29.534236907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9656543731689</t>
   </si>
   <si>
     <t xml:space="preserve">28.6289405822754</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1846675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.659725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9375896453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0451488494873</t>
+    <t xml:space="preserve">29.1846694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6597270965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9375915527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0451469421387</t>
   </si>
   <si>
     <t xml:space="preserve">30.4753913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9504470825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4126472473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8428859710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042324066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0759334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1924571990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1745319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1117877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8249607086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9235553741455</t>
+    <t xml:space="preserve">30.9504489898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4126491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8428897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.075927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.192455291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1745300292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1117858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8249588012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9235610961914</t>
   </si>
   <si>
     <t xml:space="preserve">30.8608150482178</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">29.525276184082</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6686878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4804592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4446029663086</t>
+    <t xml:space="preserve">29.6686859130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4804573059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4446048736572</t>
   </si>
   <si>
     <t xml:space="preserve">30.3409404754639</t>
@@ -1034,55 +1034,55 @@
     <t xml:space="preserve">30.3050899505615</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1706390380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0989322662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2244148254395</t>
+    <t xml:space="preserve">30.1706371307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.098934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2244186401367</t>
   </si>
   <si>
     <t xml:space="preserve">29.6507625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9824066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0771083831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2922286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.929801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1269912719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8491268157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.642972946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.732608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.279369354248</t>
+    <t xml:space="preserve">29.9824047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0771045684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2922306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9297981262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1269931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4099254608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8491287231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6429710388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7326068878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2793712615967</t>
   </si>
   <si>
     <t xml:space="preserve">28.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8760204315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7365036010742</t>
+    <t xml:space="preserve">27.8760185241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7365016937256</t>
   </si>
   <si>
     <t xml:space="preserve">28.7813167572021</t>
@@ -1094,34 +1094,34 @@
     <t xml:space="preserve">28.9516201019287</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9555149078369</t>
+    <t xml:space="preserve">29.9555130004883</t>
   </si>
   <si>
     <t xml:space="preserve">29.7045421600342</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4983863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3370456695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3997859954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3101577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4894218444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1308860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8709526062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1577777862549</t>
+    <t xml:space="preserve">29.4983882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.337043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3997898101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3101539611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4894237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1308917999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8709506988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1577796936035</t>
   </si>
   <si>
     <t xml:space="preserve">29.1129608154297</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">29.5700950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5790557861328</t>
+    <t xml:space="preserve">29.5790576934814</t>
   </si>
   <si>
     <t xml:space="preserve">28.9785118103027</t>
@@ -1145,76 +1145,76 @@
     <t xml:space="preserve">29.8569221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">29.785213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.847957611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8658828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3140487670898</t>
+    <t xml:space="preserve">29.7852115631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8479557037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8658809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3140506744385</t>
   </si>
   <si>
     <t xml:space="preserve">30.0092964172363</t>
   </si>
   <si>
-    <t xml:space="preserve">30.358865737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6866130828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3460121154785</t>
+    <t xml:space="preserve">30.3588676452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.686616897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3460102081299</t>
   </si>
   <si>
     <t xml:space="preserve">29.6059455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5381317138672</t>
+    <t xml:space="preserve">30.5381374359131</t>
   </si>
   <si>
     <t xml:space="preserve">30.6367301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6456928253174</t>
+    <t xml:space="preserve">30.645694732666</t>
   </si>
   <si>
     <t xml:space="preserve">30.4664268493652</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2692317962646</t>
+    <t xml:space="preserve">30.2692356109619</t>
   </si>
   <si>
     <t xml:space="preserve">30.233377456665</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4036827087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.26806640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6764793395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9952697753906</t>
+    <t xml:space="preserve">30.4036808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2680587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.676477432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9952640533447</t>
   </si>
   <si>
     <t xml:space="preserve">32.1784286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9543476104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8736724853516</t>
+    <t xml:space="preserve">31.9543495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8736705780029</t>
   </si>
   <si>
     <t xml:space="preserve">32.3666610717773</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2591018676758</t>
+    <t xml:space="preserve">32.2590980529785</t>
   </si>
   <si>
     <t xml:space="preserve">32.1336059570312</t>
@@ -1226,28 +1226,28 @@
     <t xml:space="preserve">33.3884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5856781005859</t>
+    <t xml:space="preserve">33.5856704711914</t>
   </si>
   <si>
     <t xml:space="preserve">34.9570655822754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8943252563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9301795959473</t>
+    <t xml:space="preserve">34.8943214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.93017578125</t>
   </si>
   <si>
     <t xml:space="preserve">34.7777976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4192657470703</t>
+    <t xml:space="preserve">34.4192695617676</t>
   </si>
   <si>
     <t xml:space="preserve">34.6343879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.741943359375</t>
+    <t xml:space="preserve">34.7419395446777</t>
   </si>
   <si>
     <t xml:space="preserve">35.6293182373047</t>
@@ -1256,37 +1256,37 @@
     <t xml:space="preserve">35.4231605529785</t>
   </si>
   <si>
-    <t xml:space="preserve">34.858470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5716400146484</t>
+    <t xml:space="preserve">34.8584671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5716438293457</t>
   </si>
   <si>
     <t xml:space="preserve">34.0607299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0428009033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3385925292969</t>
+    <t xml:space="preserve">34.0428047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3385963439941</t>
   </si>
   <si>
     <t xml:space="preserve">33.9083557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">34.257926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5088996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3116989135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.616455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9749908447266</t>
+    <t xml:space="preserve">34.2579193115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5088958740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6164588928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9749946594238</t>
   </si>
   <si>
     <t xml:space="preserve">34.8136558532715</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">34.4999389648438</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3027381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0299415588379</t>
+    <t xml:space="preserve">34.3027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0299453735352</t>
   </si>
   <si>
     <t xml:space="preserve">34.2848167419434</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">35.3066368103027</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4539451599121</t>
+    <t xml:space="preserve">36.4539413452148</t>
   </si>
   <si>
     <t xml:space="preserve">36.5077247619629</t>
@@ -1316,49 +1316,49 @@
     <t xml:space="preserve">36.3912010192871</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7049217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6281394958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0802040100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1429481506348</t>
+    <t xml:space="preserve">36.7049179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6281471252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.080207824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.142951965332</t>
   </si>
   <si>
     <t xml:space="preserve">38.8381996154785</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8023414611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4886245727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6499671936035</t>
+    <t xml:space="preserve">38.8023452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4886283874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6499633789062</t>
   </si>
   <si>
     <t xml:space="preserve">39.4387435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0264282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0225296020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5692977905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2735023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5872192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5603332519531</t>
+    <t xml:space="preserve">39.0264320373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.022533416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5692939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2735061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.587215423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5603294372559</t>
   </si>
   <si>
     <t xml:space="preserve">38.7396011352539</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">38.9099044799805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.954719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6628265380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3042869567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2774047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5462989807129</t>
+    <t xml:space="preserve">38.9547157287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6628227233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3042907714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.277400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5462951660156</t>
   </si>
   <si>
     <t xml:space="preserve">38.7754516601562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5065536499023</t>
+    <t xml:space="preserve">38.5065498352051</t>
   </si>
   <si>
     <t xml:space="preserve">38.5961875915527</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">37.9149703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8214454650879</t>
+    <t xml:space="preserve">36.8214416503906</t>
   </si>
   <si>
     <t xml:space="preserve">37.8970413208008</t>
@@ -1409,46 +1409,46 @@
     <t xml:space="preserve">38.6858177185059</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2353019714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8985977172852</t>
+    <t xml:space="preserve">42.2353096008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8985900878906</t>
   </si>
   <si>
     <t xml:space="preserve">43.0599365234375</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6655464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2711563110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1636047363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8588485717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0022583007812</t>
+    <t xml:space="preserve">42.6655426025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2711601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249435424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1635971069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8588447570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0022621154785</t>
   </si>
   <si>
     <t xml:space="preserve">42.378719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9305534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.769214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0201835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5899505615234</t>
+    <t xml:space="preserve">41.930549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7692070007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0201873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5899467468262</t>
   </si>
   <si>
     <t xml:space="preserve">41.0521430969238</t>
@@ -1463,31 +1463,31 @@
     <t xml:space="preserve">40.0303192138672</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3670310974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9048347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0240783691406</t>
+    <t xml:space="preserve">39.3670349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9048385620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0240821838379</t>
   </si>
   <si>
     <t xml:space="preserve">41.7154312133789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9009399414062</t>
+    <t xml:space="preserve">38.9009437561035</t>
   </si>
   <si>
     <t xml:space="preserve">37.7894859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5026588439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8151931762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4247093200684</t>
+    <t xml:space="preserve">37.5026550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8152008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4247055053711</t>
   </si>
   <si>
     <t xml:space="preserve">40.335075378418</t>
@@ -1496,28 +1496,28 @@
     <t xml:space="preserve">40.8011703491211</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0342178344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1776275634766</t>
+    <t xml:space="preserve">41.0342140197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1776313781738</t>
   </si>
   <si>
     <t xml:space="preserve">41.3748245239258</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2314147949219</t>
+    <t xml:space="preserve">41.2314071655273</t>
   </si>
   <si>
     <t xml:space="preserve">40.7473907470703</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1955604553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4745941162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.402889251709</t>
+    <t xml:space="preserve">41.195556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4745979309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4028854370117</t>
   </si>
   <si>
     <t xml:space="preserve">40.4426345825195</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">40.6219024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6257972717285</t>
+    <t xml:space="preserve">41.6257934570312</t>
   </si>
   <si>
     <t xml:space="preserve">42.8448143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7988204956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1534576416016</t>
+    <t xml:space="preserve">44.798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1534652709961</t>
   </si>
   <si>
     <t xml:space="preserve">45.4890022277832</t>
@@ -1544,16 +1544,16 @@
     <t xml:space="preserve">44.1355361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">45.220100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2957077026367</t>
+    <t xml:space="preserve">45.2201042175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2957038879395</t>
   </si>
   <si>
     <t xml:space="preserve">47.5953903198242</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2060661315918</t>
+    <t xml:space="preserve">46.2060699462891</t>
   </si>
   <si>
     <t xml:space="preserve">45.8475341796875</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">44.099681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2033500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6975021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4106750488281</t>
+    <t xml:space="preserve">43.2033462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.697509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4106826782227</t>
   </si>
   <si>
     <t xml:space="preserve">41.392749786377</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">39.3311805725098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9804420471191</t>
+    <t xml:space="preserve">40.9804344177246</t>
   </si>
   <si>
     <t xml:space="preserve">40.0123977661133</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7832450866699</t>
+    <t xml:space="preserve">40.7832412719727</t>
   </si>
   <si>
     <t xml:space="preserve">39.9586181640625</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">40.137882232666</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6538619995117</t>
+    <t xml:space="preserve">39.653865814209</t>
   </si>
   <si>
     <t xml:space="preserve">39.2594718933105</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">41.2851943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1728477478027</t>
+    <t xml:space="preserve">42.1728515625</t>
   </si>
   <si>
     <t xml:space="preserve">41.2489624023438</t>
@@ -1634,103 +1634,103 @@
     <t xml:space="preserve">40.8685340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7598419189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0714569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9519462585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6983222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5389404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2635536193848</t>
+    <t xml:space="preserve">40.7598457336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0714530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9519424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6983261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5389366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.263557434082</t>
   </si>
   <si>
     <t xml:space="preserve">36.6838607788086</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8106689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2128562927246</t>
+    <t xml:space="preserve">36.810661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2128601074219</t>
   </si>
   <si>
     <t xml:space="preserve">35.8686599731445</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5606956481934</t>
+    <t xml:space="preserve">35.5606994628906</t>
   </si>
   <si>
     <t xml:space="preserve">34.4194221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6042213439941</t>
+    <t xml:space="preserve">33.6042251586914</t>
   </si>
   <si>
     <t xml:space="preserve">33.8578414916992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0752334594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6730346679688</t>
+    <t xml:space="preserve">34.0752296447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.673038482666</t>
   </si>
   <si>
     <t xml:space="preserve">34.8904266357422</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3433113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9266548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7455024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1839256286621</t>
+    <t xml:space="preserve">35.3433151245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9266586303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7454986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1839218139648</t>
   </si>
   <si>
     <t xml:space="preserve">34.0208854675293</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6368141174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3251953125</t>
+    <t xml:space="preserve">34.6368103027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3251991271973</t>
   </si>
   <si>
     <t xml:space="preserve">33.6948051452637</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5897598266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5716438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6477489471436</t>
+    <t xml:space="preserve">32.5897560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5716400146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6477546691895</t>
   </si>
   <si>
     <t xml:space="preserve">31.9557132720947</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7057514190674</t>
+    <t xml:space="preserve">30.705753326416</t>
   </si>
   <si>
     <t xml:space="preserve">29.6550521850586</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1079368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4014301300049</t>
+    <t xml:space="preserve">30.1079406738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4014320373535</t>
   </si>
   <si>
     <t xml:space="preserve">30.3253231048584</t>
@@ -1742,76 +1742,76 @@
     <t xml:space="preserve">29.5825881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9884243011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2927398681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7093925476074</t>
+    <t xml:space="preserve">27.9884262084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2927417755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7093944549561</t>
   </si>
   <si>
     <t xml:space="preserve">30.7782115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4303646087646</t>
+    <t xml:space="preserve">31.4303722381592</t>
   </si>
   <si>
     <t xml:space="preserve">29.8180885314941</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1260528564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2890892028809</t>
+    <t xml:space="preserve">30.1260509490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2890911102295</t>
   </si>
   <si>
     <t xml:space="preserve">30.5789394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8470268249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8289070129395</t>
+    <t xml:space="preserve">31.8470249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8289051055908</t>
   </si>
   <si>
     <t xml:space="preserve">32.2636756896973</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2854480743408</t>
+    <t xml:space="preserve">31.2854442596436</t>
   </si>
   <si>
     <t xml:space="preserve">31.5390605926514</t>
   </si>
   <si>
-    <t xml:space="preserve">31.158634185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9194850921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7926769256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0137157440186</t>
+    <t xml:space="preserve">31.1586380004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9194889068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7926750183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0137138366699</t>
   </si>
   <si>
     <t xml:space="preserve">30.089822769165</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0717067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8362045288086</t>
+    <t xml:space="preserve">30.0717086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8362064361572</t>
   </si>
   <si>
     <t xml:space="preserve">29.2565078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8941993713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2601566314697</t>
+    <t xml:space="preserve">28.8941974639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.260160446167</t>
   </si>
   <si>
     <t xml:space="preserve">27.7529239654541</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">26.7928028106689</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4304943084717</t>
+    <t xml:space="preserve">26.4304962158203</t>
   </si>
   <si>
     <t xml:space="preserve">26.1949920654297</t>
@@ -1838,16 +1838,16 @@
     <t xml:space="preserve">27.2638053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1732292175293</t>
+    <t xml:space="preserve">27.1732273101807</t>
   </si>
   <si>
     <t xml:space="preserve">26.901496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6261177062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0790042877197</t>
+    <t xml:space="preserve">27.6261157989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0790023803711</t>
   </si>
   <si>
     <t xml:space="preserve">27.7348098754883</t>
@@ -1856,10 +1856,10 @@
     <t xml:space="preserve">28.0971183776855</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0065383911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9521942138672</t>
+    <t xml:space="preserve">28.0065402984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9521961212158</t>
   </si>
   <si>
     <t xml:space="preserve">28.205810546875</t>
@@ -1871,40 +1871,40 @@
     <t xml:space="preserve">27.9340801239014</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7673931121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7130451202393</t>
+    <t xml:space="preserve">28.767391204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7130470275879</t>
   </si>
   <si>
     <t xml:space="preserve">29.3470897674561</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3289756774902</t>
+    <t xml:space="preserve">29.328971862793</t>
   </si>
   <si>
     <t xml:space="preserve">28.8036212921143</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8398532867432</t>
+    <t xml:space="preserve">28.8398551940918</t>
   </si>
   <si>
     <t xml:space="preserve">27.8253860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6079978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7166938781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8617420196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8653907775879</t>
+    <t xml:space="preserve">27.6079998016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7166957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9051456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.861743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8653926849365</t>
   </si>
   <si>
     <t xml:space="preserve">21.8472766876221</t>
@@ -1913,31 +1913,31 @@
     <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5501308441162</t>
+    <t xml:space="preserve">23.5501289367676</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6950531005859</t>
+    <t xml:space="preserve">23.6950569152832</t>
   </si>
   <si>
     <t xml:space="preserve">23.3689765930176</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5682468414307</t>
+    <t xml:space="preserve">23.5682487487793</t>
   </si>
   <si>
     <t xml:space="preserve">22.6443576812744</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8291625976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9415016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4849624633789</t>
+    <t xml:space="preserve">21.8291606903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9415035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4849643707275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3581562042236</t>
@@ -1946,46 +1946,46 @@
     <t xml:space="preserve">21.4668502807617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7204685211182</t>
+    <t xml:space="preserve">21.7204666137695</t>
   </si>
   <si>
     <t xml:space="preserve">19.8364562988281</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4234504699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3872165679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6553039550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9850254058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959125518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1118392944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1064281463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2368850708008</t>
+    <t xml:space="preserve">18.4234485626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3872184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6553020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9850273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.111837387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1064300537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2368869781494</t>
   </si>
   <si>
     <t xml:space="preserve">17.2097110748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3636932373047</t>
+    <t xml:space="preserve">17.3636913299561</t>
   </si>
   <si>
     <t xml:space="preserve">16.7568264007568</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2948799133301</t>
+    <t xml:space="preserve">16.2948780059814</t>
   </si>
   <si>
     <t xml:space="preserve">16.0412635803223</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">16.2495899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7024803161621</t>
+    <t xml:space="preserve">16.7024784088135</t>
   </si>
   <si>
     <t xml:space="preserve">16.4941501617432</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">17.572021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6535415649414</t>
+    <t xml:space="preserve">17.6535396575928</t>
   </si>
   <si>
     <t xml:space="preserve">16.5847263336182</t>
@@ -2021,43 +2021,43 @@
     <t xml:space="preserve">18.0430240631104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9306831359863</t>
+    <t xml:space="preserve">18.9306812286377</t>
   </si>
   <si>
     <t xml:space="preserve">17.7622337341309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8926906585693</t>
+    <t xml:space="preserve">16.8926887512207</t>
   </si>
   <si>
     <t xml:space="preserve">16.1046676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9959735870361</t>
+    <t xml:space="preserve">15.9959745407104</t>
   </si>
   <si>
     <t xml:space="preserve">16.3582820892334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2858219146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8148183822632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4887428283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354866027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8365831375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6789512634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2351236343384</t>
+    <t xml:space="preserve">16.2858200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8148174285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4887399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354885101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8365821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6789522171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2351245880127</t>
   </si>
   <si>
     <t xml:space="preserve">15.5521450042725</t>
@@ -2069,40 +2069,40 @@
     <t xml:space="preserve">17.8890419006348</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2604084014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.744119644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4905014038086</t>
+    <t xml:space="preserve">18.2604103088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7441177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.49049949646</t>
   </si>
   <si>
     <t xml:space="preserve">18.1154861450195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1517162322998</t>
+    <t xml:space="preserve">18.1517181396484</t>
   </si>
   <si>
     <t xml:space="preserve">18.3328723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.133602142334</t>
+    <t xml:space="preserve">18.1336002349854</t>
   </si>
   <si>
     <t xml:space="preserve">18.0249080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5539054870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7857570648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9125671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7314128875732</t>
+    <t xml:space="preserve">17.5539073944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.785758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9125690460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7314109802246</t>
   </si>
   <si>
     <t xml:space="preserve">18.4415645599365</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">18.8944530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8038768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4596767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5321426391602</t>
+    <t xml:space="preserve">18.8038749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4596786499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5321407318115</t>
   </si>
   <si>
     <t xml:space="preserve">18.0883121490479</t>
@@ -2132,37 +2132,37 @@
     <t xml:space="preserve">17.8256397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4053344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7132949829102</t>
+    <t xml:space="preserve">18.405330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7132968902588</t>
   </si>
   <si>
     <t xml:space="preserve">19.5103797912598</t>
   </si>
   <si>
-    <t xml:space="preserve">19.782112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3618030548096</t>
+    <t xml:space="preserve">19.7821102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3618049621582</t>
   </si>
   <si>
     <t xml:space="preserve">20.1806526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0357284545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5284957885742</t>
+    <t xml:space="preserve">20.0357265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.528491973877</t>
   </si>
   <si>
     <t xml:space="preserve">19.5647239685059</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3980388641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8528118133545</t>
+    <t xml:space="preserve">20.3980369567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8528099060059</t>
   </si>
   <si>
     <t xml:space="preserve">17.8437538146973</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">17.6082515716553</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5176753997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9470348358154</t>
+    <t xml:space="preserve">17.5176773071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9470367431641</t>
   </si>
   <si>
     <t xml:space="preserve">17.0829029083252</t>
@@ -2189,55 +2189,55 @@
     <t xml:space="preserve">17.1463069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0376167297363</t>
+    <t xml:space="preserve">17.0376148223877</t>
   </si>
   <si>
     <t xml:space="preserve">17.4452133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3727512359619</t>
+    <t xml:space="preserve">17.3727493286133</t>
   </si>
   <si>
     <t xml:space="preserve">17.4814414978027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3818092346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2785263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0792541503906</t>
+    <t xml:space="preserve">17.3818073272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2785243988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.079252243042</t>
   </si>
   <si>
     <t xml:space="preserve">17.7169456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5267314910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2422943115234</t>
+    <t xml:space="preserve">17.5267333984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2422924041748</t>
   </si>
   <si>
     <t xml:space="preserve">18.0158500671387</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7984638214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2966423034668</t>
+    <t xml:space="preserve">17.7984657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2966403961182</t>
   </si>
   <si>
     <t xml:space="preserve">18.0520820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3365173339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2278270721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7803478240967</t>
+    <t xml:space="preserve">17.336519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2278289794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7803497314453</t>
   </si>
   <si>
     <t xml:space="preserve">18.070198059082</t>
@@ -2249,16 +2249,16 @@
     <t xml:space="preserve">18.1698303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9705619812012</t>
+    <t xml:space="preserve">17.9705600738525</t>
   </si>
   <si>
     <t xml:space="preserve">17.6173095703125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7078876495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6897735595703</t>
+    <t xml:space="preserve">17.7078857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6897716522217</t>
   </si>
   <si>
     <t xml:space="preserve">17.8709259033203</t>
@@ -2267,13 +2267,13 @@
     <t xml:space="preserve">18.7429008483887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3418216705322</t>
+    <t xml:space="preserve">17.3418235778809</t>
   </si>
   <si>
     <t xml:space="preserve">16.7572650909424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.323263168335</t>
+    <t xml:space="preserve">17.3232650756836</t>
   </si>
   <si>
     <t xml:space="preserve">16.6273651123047</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">14.7066822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8808813095093</t>
+    <t xml:space="preserve">13.880880355835</t>
   </si>
   <si>
     <t xml:space="preserve">14.0200605392456</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">13.862322807312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3891124725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9736671447754</t>
+    <t xml:space="preserve">13.3891115188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9736680984497</t>
   </si>
   <si>
     <t xml:space="preserve">13.9179954528809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5561265945435</t>
+    <t xml:space="preserve">13.5561275482178</t>
   </si>
   <si>
     <t xml:space="preserve">13.0272445678711</t>
@@ -2318,31 +2318,31 @@
     <t xml:space="preserve">13.0921945571899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3798341751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.454062461853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1757030487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2128162384033</t>
+    <t xml:space="preserve">13.3798332214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4540615081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1757020950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2128171920776</t>
   </si>
   <si>
     <t xml:space="preserve">14.001503944397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7788152694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5582237243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5025520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6602897644043</t>
+    <t xml:space="preserve">13.7788162231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5582227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5025510787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.66028881073</t>
   </si>
   <si>
     <t xml:space="preserve">13.9087162017822</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">13.8716020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7695369720459</t>
+    <t xml:space="preserve">13.7695379257202</t>
   </si>
   <si>
     <t xml:space="preserve">14.5953378677368</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">14.261305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1622314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8189220428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2065305709839</t>
+    <t xml:space="preserve">11.1622323989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8189210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2065296173096</t>
   </si>
   <si>
     <t xml:space="preserve">10.2714805603027</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">10.4663324356079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4756116867065</t>
+    <t xml:space="preserve">10.4756107330322</t>
   </si>
   <si>
     <t xml:space="preserve">10.6519060134888</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9209880828857</t>
+    <t xml:space="preserve">10.9209871292114</t>
   </si>
   <si>
     <t xml:space="preserve">10.9859380722046</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">10.5405616760254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7446918487549</t>
+    <t xml:space="preserve">10.7446928024292</t>
   </si>
   <si>
     <t xml:space="preserve">10.5962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3549890518188</t>
+    <t xml:space="preserve">10.3549880981445</t>
   </si>
   <si>
     <t xml:space="preserve">10.429217338562</t>
@@ -2405,13 +2405,13 @@
     <t xml:space="preserve">10.1044654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343654632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96528434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71476173400879</t>
+    <t xml:space="preserve">10.2343664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9652853012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71476078033447</t>
   </si>
   <si>
     <t xml:space="preserve">9.58485984802246</t>
@@ -2429,22 +2429,22 @@
     <t xml:space="preserve">10.4848899841309</t>
   </si>
   <si>
-    <t xml:space="preserve">10.577675819397</t>
+    <t xml:space="preserve">10.5776767730713</t>
   </si>
   <si>
     <t xml:space="preserve">10.3642673492432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5034465789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7261352539062</t>
+    <t xml:space="preserve">10.5034475326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7261362075806</t>
   </si>
   <si>
     <t xml:space="preserve">10.0859079360962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.020956993103</t>
+    <t xml:space="preserve">10.0209560394287</t>
   </si>
   <si>
     <t xml:space="preserve">10.1137428283691</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">10.1786937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5570240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34361457824707</t>
+    <t xml:space="preserve">9.55702495574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34361362457275</t>
   </si>
   <si>
     <t xml:space="preserve">9.63125324249268</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">9.45495796203613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49207305908203</t>
+    <t xml:space="preserve">9.49207210540771</t>
   </si>
   <si>
     <t xml:space="preserve">9.52918815612793</t>
@@ -2483,25 +2483,25 @@
     <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93071365356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59413814544678</t>
+    <t xml:space="preserve">8.93071460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59413909912109</t>
   </si>
   <si>
     <t xml:space="preserve">9.29722118377686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33433628082275</t>
+    <t xml:space="preserve">9.33433723449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.16732025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93744850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0302352905273</t>
+    <t xml:space="preserve">9.93744945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0302362442017</t>
   </si>
   <si>
     <t xml:space="preserve">10.0487928390503</t>
@@ -2513,31 +2513,31 @@
     <t xml:space="preserve">10.4941692352295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.141580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1601362228394</t>
+    <t xml:space="preserve">10.1415796279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1601371765137</t>
   </si>
   <si>
     <t xml:space="preserve">9.66836738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72403812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57558155059814</t>
+    <t xml:space="preserve">9.72403907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57558059692383</t>
   </si>
   <si>
     <t xml:space="preserve">9.85394096374512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62197399139404</t>
+    <t xml:space="preserve">9.62197494506836</t>
   </si>
   <si>
     <t xml:space="preserve">9.31577777862549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44567966461182</t>
+    <t xml:space="preserve">9.44568061828613</t>
   </si>
   <si>
     <t xml:space="preserve">9.70548248291016</t>
@@ -2549,16 +2549,16 @@
     <t xml:space="preserve">9.770432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87249755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74259662628174</t>
+    <t xml:space="preserve">9.87249851226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74259757995605</t>
   </si>
   <si>
     <t xml:space="preserve">10.039514541626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80754661560059</t>
+    <t xml:space="preserve">9.8075475692749</t>
   </si>
   <si>
     <t xml:space="preserve">9.54774475097656</t>
@@ -2570,19 +2570,19 @@
     <t xml:space="preserve">10.1230220794678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426267623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7910852432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3457107543945</t>
+    <t xml:space="preserve">10.6426277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7910861968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3457098007202</t>
   </si>
   <si>
     <t xml:space="preserve">10.568398475647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4106616973877</t>
+    <t xml:space="preserve">10.4106607437134</t>
   </si>
   <si>
     <t xml:space="preserve">11.4962644577026</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">11.7003946304321</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3035087585449</t>
+    <t xml:space="preserve">12.3035078048706</t>
   </si>
   <si>
     <t xml:space="preserve">12.0622625350952</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">12.2571153640747</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0344266891479</t>
+    <t xml:space="preserve">12.0344276428223</t>
   </si>
   <si>
     <t xml:space="preserve">12.0251483917236</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">12.1364917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5261964797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3334398269653</t>
+    <t xml:space="preserve">12.526195526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.333438873291</t>
   </si>
   <si>
     <t xml:space="preserve">13.324161529541</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">13.6767501831055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4818983078003</t>
+    <t xml:space="preserve">13.4818992614746</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777681350708</t>
@@ -2651,46 +2651,46 @@
     <t xml:space="preserve">13.8344879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7880945205688</t>
+    <t xml:space="preserve">13.7880935668945</t>
   </si>
   <si>
     <t xml:space="preserve">13.853045463562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4169473648071</t>
+    <t xml:space="preserve">13.4169483184814</t>
   </si>
   <si>
     <t xml:space="preserve">13.7973728179932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8066520690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0942907333374</t>
+    <t xml:space="preserve">13.8066511154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0942897796631</t>
   </si>
   <si>
     <t xml:space="preserve">14.2149124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2056350708008</t>
+    <t xml:space="preserve">14.2056341171265</t>
   </si>
   <si>
     <t xml:space="preserve">14.0293397903442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7417020797729</t>
+    <t xml:space="preserve">13.7417011260986</t>
   </si>
   <si>
     <t xml:space="preserve">13.7602577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">14.539665222168</t>
+    <t xml:space="preserve">14.5396671295166</t>
   </si>
   <si>
     <t xml:space="preserve">14.1963558197021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9272737503052</t>
+    <t xml:space="preserve">13.9272747039795</t>
   </si>
   <si>
     <t xml:space="preserve">14.1314039230347</t>
@@ -2702,16 +2702,16 @@
     <t xml:space="preserve">14.0107831954956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7366132736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8201217651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1840839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8871688842773</t>
+    <t xml:space="preserve">15.7366123199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8201208114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1840858459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8871669769287</t>
   </si>
   <si>
     <t xml:space="preserve">16.9613971710205</t>
@@ -2726,19 +2726,19 @@
     <t xml:space="preserve">16.2005462646484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0892028808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0242538452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5603199005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7623538970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.400486946106</t>
+    <t xml:space="preserve">16.089204788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0242519378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5603189468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.762354850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4004859924316</t>
   </si>
   <si>
     <t xml:space="preserve">14.9293699264526</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">15.2912378311157</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8087472915649</t>
+    <t xml:space="preserve">14.8087463378906</t>
   </si>
   <si>
     <t xml:space="preserve">14.9386491775513</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376331329346</t>
+    <t xml:space="preserve">15.3376312255859</t>
   </si>
   <si>
     <t xml:space="preserve">15.068549156189</t>
@@ -2768,28 +2768,28 @@
     <t xml:space="preserve">15.2448444366455</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1613368988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1870765686035</t>
+    <t xml:space="preserve">15.1613359451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1870775222778</t>
   </si>
   <si>
     <t xml:space="preserve">12.6746549606323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1086568832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0437059402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6540021896362</t>
+    <t xml:space="preserve">12.1086559295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0437049865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6540012359619</t>
   </si>
   <si>
     <t xml:space="preserve">11.3663625717163</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6611843109131</t>
+    <t xml:space="preserve">10.6611833572388</t>
   </si>
   <si>
     <t xml:space="preserve">10.1879720687866</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">9.36217212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10955142974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02140617370605</t>
+    <t xml:space="preserve">8.10955238342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02140522003174</t>
   </si>
   <si>
     <t xml:space="preserve">7.93789720535278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58785152435303</t>
+    <t xml:space="preserve">6.58785104751587</t>
   </si>
   <si>
     <t xml:space="preserve">6.97755527496338</t>
@@ -2822,28 +2822,28 @@
     <t xml:space="preserve">6.94971895217896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05178451538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51571846008301</t>
+    <t xml:space="preserve">7.0517840385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51571750640869</t>
   </si>
   <si>
     <t xml:space="preserve">8.10027313232422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39000701904297</t>
+    <t xml:space="preserve">8.9075174331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000797271729</t>
   </si>
   <si>
     <t xml:space="preserve">9.0652551651001</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44358444213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44822311401367</t>
+    <t xml:space="preserve">8.44358348846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44822406768799</t>
   </si>
   <si>
     <t xml:space="preserve">8.39719104766846</t>
@@ -2852,16 +2852,16 @@
     <t xml:space="preserve">8.30440425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16522407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79407739639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97501182556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83119201660156</t>
+    <t xml:space="preserve">8.1652250289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79407644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97501134872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8311915397644</t>
   </si>
   <si>
     <t xml:space="preserve">8.15594577789307</t>
@@ -2873,10 +2873,10 @@
     <t xml:space="preserve">7.46932458877563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33014488220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30230808258057</t>
+    <t xml:space="preserve">7.33014440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30230855941772</t>
   </si>
   <si>
     <t xml:space="preserve">7.36725902557373</t>
@@ -2888,19 +2888,19 @@
     <t xml:space="preserve">7.15385007858276</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59922552108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82191324234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97965049743652</t>
+    <t xml:space="preserve">7.59922504425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8219141960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97965097427368</t>
   </si>
   <si>
     <t xml:space="preserve">7.64561891555786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38117694854736</t>
+    <t xml:space="preserve">7.38117742538452</t>
   </si>
   <si>
     <t xml:space="preserve">7.56211090087891</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">7.14457082748413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20024347305298</t>
+    <t xml:space="preserve">7.20024299621582</t>
   </si>
   <si>
     <t xml:space="preserve">7.10745620727539</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">6.9682765007019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6085033416748</t>
+    <t xml:space="preserve">7.60850429534912</t>
   </si>
   <si>
     <t xml:space="preserve">7.58530807495117</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">7.48788118362427</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3115873336792</t>
+    <t xml:space="preserve">7.31158685684204</t>
   </si>
   <si>
     <t xml:space="preserve">7.76624155044556</t>
@@ -2942,28 +2942,28 @@
     <t xml:space="preserve">8.51781368255615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71730518341064</t>
+    <t xml:space="preserve">8.71730422973633</t>
   </si>
   <si>
     <t xml:space="preserve">8.9539098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59204196929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74050045013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92607498168945</t>
+    <t xml:space="preserve">8.59204292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74050140380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92607402801514</t>
   </si>
   <si>
     <t xml:space="preserve">9.38072872161865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0694456100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5519361495972</t>
+    <t xml:space="preserve">11.0694465637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5519371032715</t>
   </si>
   <si>
     <t xml:space="preserve">11.5612144470215</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">11.3199701309204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0044937133789</t>
+    <t xml:space="preserve">11.0044946670532</t>
   </si>
   <si>
     <t xml:space="preserve">9.88177680969238</t>
@@ -2984,34 +2984,34 @@
     <t xml:space="preserve">10.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2529239654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0766277313232</t>
+    <t xml:space="preserve">10.2529230117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0766286849976</t>
   </si>
   <si>
     <t xml:space="preserve">9.94672775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4384956359863</t>
+    <t xml:space="preserve">10.4384965896606</t>
   </si>
   <si>
     <t xml:space="preserve">10.4199390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2807598114014</t>
+    <t xml:space="preserve">10.2807588577271</t>
   </si>
   <si>
     <t xml:space="preserve">10.7354135513306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6055135726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282012939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0900993347168</t>
+    <t xml:space="preserve">10.6055126190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.828200340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0900983810425</t>
   </si>
   <si>
     <t xml:space="preserve">11.505542755127</t>
@@ -3023,52 +3023,52 @@
     <t xml:space="preserve">11.6818380355835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8766889572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8859691619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7746229171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7282304763794</t>
+    <t xml:space="preserve">11.8766899108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.885968208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7746238708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7282314300537</t>
   </si>
   <si>
     <t xml:space="preserve">11.6354446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4127569198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3385276794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086248397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8745937347412</t>
+    <t xml:space="preserve">11.4127559661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.338526725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.208625793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8745946884155</t>
   </si>
   <si>
     <t xml:space="preserve">12.0715417861938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3870162963867</t>
+    <t xml:space="preserve">12.387017250061</t>
   </si>
   <si>
     <t xml:space="preserve">12.8973426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7767200469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1293087005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4726190567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3612747192383</t>
+    <t xml:space="preserve">12.7767210006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1293096542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.472620010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3612756729126</t>
   </si>
   <si>
     <t xml:space="preserve">13.5190124511719</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">13.2684888839722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6210775375366</t>
+    <t xml:space="preserve">13.6210784912109</t>
   </si>
   <si>
     <t xml:space="preserve">13.4262266159058</t>
@@ -3098,13 +3098,13 @@
     <t xml:space="preserve">13.4447841644287</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2220964431763</t>
+    <t xml:space="preserve">13.222095489502</t>
   </si>
   <si>
     <t xml:space="preserve">13.5746850967407</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1849803924561</t>
+    <t xml:space="preserve">13.1849813461304</t>
   </si>
   <si>
     <t xml:space="preserve">13.2406539916992</t>
@@ -3122,10 +3122,10 @@
     <t xml:space="preserve">13.2499322891235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4076681137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4633417129517</t>
+    <t xml:space="preserve">13.4076690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4633407592773</t>
   </si>
   <si>
     <t xml:space="preserve">12.5818681716919</t>
@@ -3137,34 +3137,34 @@
     <t xml:space="preserve">12.7024898529053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4055738449097</t>
+    <t xml:space="preserve">12.4055728912354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8602275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839643478394</t>
+    <t xml:space="preserve">13.583963394165</t>
   </si>
   <si>
     <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5282926559448</t>
+    <t xml:space="preserve">13.5282907485962</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561868667603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6623840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9221858978271</t>
+    <t xml:space="preserve">15.6623830795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9221868515015</t>
   </si>
   <si>
     <t xml:space="preserve">16.2376613616943</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4489755630493</t>
+    <t xml:space="preserve">15.448974609375</t>
   </si>
   <si>
     <t xml:space="preserve">15.5510406494141</t>
@@ -3173,13 +3173,13 @@
     <t xml:space="preserve">14.8458614349365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6046161651611</t>
+    <t xml:space="preserve">14.6046171188354</t>
   </si>
   <si>
     <t xml:space="preserve">14.6788454055786</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7994680404663</t>
+    <t xml:space="preserve">14.7994689941406</t>
   </si>
   <si>
     <t xml:space="preserve">14.4376010894775</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">15.2726802825928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7644500732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5046453475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1891746520996</t>
+    <t xml:space="preserve">15.7644510269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5046472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.189172744751</t>
   </si>
   <si>
     <t xml:space="preserve">15.0035991668701</t>
@@ -3227,67 +3227,67 @@
     <t xml:space="preserve">16.246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036302566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9314661026001</t>
+    <t xml:space="preserve">15.9036283493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9314641952515</t>
   </si>
   <si>
     <t xml:space="preserve">16.0149745941162</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2098236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9685792922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4396963119507</t>
+    <t xml:space="preserve">16.2098255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407444000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9685802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4396953582764</t>
   </si>
   <si>
     <t xml:space="preserve">15.7273368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5232028961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6809415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0428123474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1912670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1634311676025</t>
+    <t xml:space="preserve">15.5232048034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6809406280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0428104400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1912689208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1634330749512</t>
   </si>
   <si>
     <t xml:space="preserve">16.6088085174561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8892631530762</t>
+    <t xml:space="preserve">17.8892650604248</t>
   </si>
   <si>
     <t xml:space="preserve">17.4902820587158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5645122528076</t>
+    <t xml:space="preserve">17.564510345459</t>
   </si>
   <si>
     <t xml:space="preserve">17.2119197845459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3603801727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6387386322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5459518432617</t>
+    <t xml:space="preserve">17.3603782653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6387405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5459537506104</t>
   </si>
   <si>
     <t xml:space="preserve">17.666576385498</t>
@@ -3296,19 +3296,19 @@
     <t xml:space="preserve">17.4717235565186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7222499847412</t>
+    <t xml:space="preserve">17.7222480773926</t>
   </si>
   <si>
     <t xml:space="preserve">17.6480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1397876739502</t>
+    <t xml:space="preserve">18.1397857666016</t>
   </si>
   <si>
     <t xml:space="preserve">18.5202102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.872802734375</t>
+    <t xml:space="preserve">18.8728008270264</t>
   </si>
   <si>
     <t xml:space="preserve">20.0975856781006</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">19.540864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5594253540039</t>
+    <t xml:space="preserve">19.5594234466553</t>
   </si>
   <si>
     <t xml:space="preserve">18.8356857299805</t>
@@ -3326,19 +3326,19 @@
     <t xml:space="preserve">19.3552932739258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2996215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4480762481689</t>
+    <t xml:space="preserve">19.2996196746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4480781555176</t>
   </si>
   <si>
     <t xml:space="preserve">19.3738498687744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6501140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6686725616455</t>
+    <t xml:space="preserve">18.6501159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6686744689941</t>
   </si>
   <si>
     <t xml:space="preserve">18.3068046569824</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">18.074836730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2882461547852</t>
+    <t xml:space="preserve">18.2882442474365</t>
   </si>
   <si>
     <t xml:space="preserve">19.392406463623</t>
@@ -3377,22 +3377,22 @@
     <t xml:space="preserve">21.3038120269775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8811836242676</t>
+    <t xml:space="preserve">22.8811855316162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8997421264648</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4172496795654</t>
+    <t xml:space="preserve">22.4172515869141</t>
   </si>
   <si>
     <t xml:space="preserve">21.9718761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6028251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8419761657715</t>
+    <t xml:space="preserve">22.6028232574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8419742584229</t>
   </si>
   <si>
     <t xml:space="preserve">20.6543064117432</t>
@@ -3410,34 +3410,34 @@
     <t xml:space="preserve">21.248140335083</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8027648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3223686218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5800743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9862442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7656478881836</t>
+    <t xml:space="preserve">20.8027629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3223667144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5800762176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9862422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7656497955322</t>
   </si>
   <si>
     <t xml:space="preserve">20.9697799682617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2110271453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2295818328857</t>
+    <t xml:space="preserve">21.2110252380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2295837402344</t>
   </si>
   <si>
     <t xml:space="preserve">20.338830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0604705810547</t>
+    <t xml:space="preserve">20.0604724884033</t>
   </si>
   <si>
     <t xml:space="preserve">20.2460441589355</t>
@@ -3458,40 +3458,40 @@
     <t xml:space="preserve">20.4316177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9512233734131</t>
+    <t xml:space="preserve">20.9512214660645</t>
   </si>
   <si>
     <t xml:space="preserve">22.305908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6770553588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1945629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3430233001709</t>
+    <t xml:space="preserve">22.6770534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1945648193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3430213928223</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1388912200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3801383972168</t>
+    <t xml:space="preserve">22.1388931274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3801364898682</t>
   </si>
   <si>
     <t xml:space="preserve">22.1574478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3265590667725</t>
+    <t xml:space="preserve">23.3265609741211</t>
   </si>
   <si>
     <t xml:space="preserve">23.9203968048096</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8647212982178</t>
+    <t xml:space="preserve">23.8647232055664</t>
   </si>
   <si>
     <t xml:space="preserve">24.532787322998</t>
@@ -3500,40 +3500,40 @@
     <t xml:space="preserve">24.03173828125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1781024932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0482025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4379043579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5306930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7162628173828</t>
+    <t xml:space="preserve">23.1781005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0482006072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4379024505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5306911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7162647247314</t>
   </si>
   <si>
     <t xml:space="preserve">23.2708892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7141666412354</t>
+    <t xml:space="preserve">22.714168548584</t>
   </si>
   <si>
     <t xml:space="preserve">22.9368553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4729232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6234760284424</t>
+    <t xml:space="preserve">22.47292137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.623477935791</t>
   </si>
   <si>
     <t xml:space="preserve">23.883279800415</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9018383026123</t>
+    <t xml:space="preserve">23.9018363952637</t>
   </si>
   <si>
     <t xml:space="preserve">23.363676071167</t>
@@ -3542,13 +3542,13 @@
     <t xml:space="preserve">22.8440704345703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7719383239746</t>
+    <t xml:space="preserve">23.771936416626</t>
   </si>
   <si>
     <t xml:space="preserve">25.219409942627</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9081249237061</t>
+    <t xml:space="preserve">26.9081230163574</t>
   </si>
   <si>
     <t xml:space="preserve">26.6297664642334</t>
@@ -3560,16 +3560,16 @@
     <t xml:space="preserve">27.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5390739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6504154205322</t>
+    <t xml:space="preserve">27.5390758514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6504173278809</t>
   </si>
   <si>
     <t xml:space="preserve">28.3184833526611</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2071380615234</t>
+    <t xml:space="preserve">28.2071361541748</t>
   </si>
   <si>
     <t xml:space="preserve">27.4277286529541</t>
@@ -3578,19 +3578,19 @@
     <t xml:space="preserve">27.724645614624</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5576305389404</t>
+    <t xml:space="preserve">27.5576324462891</t>
   </si>
   <si>
     <t xml:space="preserve">27.2607135772705</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0565853118896</t>
+    <t xml:space="preserve">27.0565814971924</t>
   </si>
   <si>
     <t xml:space="preserve">26.648323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0730457305908</t>
+    <t xml:space="preserve">26.0730438232422</t>
   </si>
   <si>
     <t xml:space="preserve">25.8689136505127</t>
@@ -3605,10 +3605,10 @@
     <t xml:space="preserve">26.5369777679443</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1472759246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6462268829346</t>
+    <t xml:space="preserve">26.147274017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6462249755859</t>
   </si>
   <si>
     <t xml:space="preserve">26.0544891357422</t>
@@ -3620,19 +3620,19 @@
     <t xml:space="preserve">26.2771759033203</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1101570129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.815336227417</t>
+    <t xml:space="preserve">26.1101589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8153381347656</t>
   </si>
   <si>
     <t xml:space="preserve">26.4813079833984</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6668796539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5905532836914</t>
+    <t xml:space="preserve">26.666877746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.59055519104</t>
   </si>
   <si>
     <t xml:space="preserve">26.8895683288574</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">26.9823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5926494598389</t>
+    <t xml:space="preserve">26.5926475524902</t>
   </si>
   <si>
     <t xml:space="preserve">26.6854362487793</t>
@@ -3653,25 +3653,25 @@
     <t xml:space="preserve">25.5719966888428</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5163269042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7411079406738</t>
+    <t xml:space="preserve">25.5163249969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7411098480225</t>
   </si>
   <si>
     <t xml:space="preserve">27.3535003662109</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6318626403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0793304443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6381492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.139196395874</t>
+    <t xml:space="preserve">27.6318607330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0793342590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.638147354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1391983032227</t>
   </si>
   <si>
     <t xml:space="preserve">29.7659549713135</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">27.0380249023438</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5019588470459</t>
+    <t xml:space="preserve">27.5019569396973</t>
   </si>
   <si>
     <t xml:space="preserve">27.7803211212158</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9452381134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0936985015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3349418640137</t>
+    <t xml:space="preserve">26.945240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0937004089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3349437713623</t>
   </si>
   <si>
     <t xml:space="preserve">28.0586795806885</t>
@@ -3707,19 +3707,19 @@
     <t xml:space="preserve">27.3906154632568</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3720588684082</t>
+    <t xml:space="preserve">27.3720569610596</t>
   </si>
   <si>
     <t xml:space="preserve">27.5205154418945</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7782249450684</t>
+    <t xml:space="preserve">26.7782230377197</t>
   </si>
   <si>
     <t xml:space="preserve">27.4091739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9287776947021</t>
+    <t xml:space="preserve">27.9287796020508</t>
   </si>
   <si>
     <t xml:space="preserve">27.4648456573486</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">28.8380870819092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1885814666748</t>
+    <t xml:space="preserve">28.1885795593262</t>
   </si>
   <si>
     <t xml:space="preserve">27.9658908843994</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">28.0772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8545475006104</t>
+    <t xml:space="preserve">27.854549407959</t>
   </si>
   <si>
     <t xml:space="preserve">27.205041885376</t>
@@ -3758,31 +3758,31 @@
     <t xml:space="preserve">28.1329078674316</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4669399261475</t>
+    <t xml:space="preserve">28.4669418334961</t>
   </si>
   <si>
     <t xml:space="preserve">28.4483833312988</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2442531585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4441928863525</t>
+    <t xml:space="preserve">28.244255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473361968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4441909790039</t>
   </si>
   <si>
     <t xml:space="preserve">27.1493701934814</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3699607849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6647834777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7554740905762</t>
+    <t xml:space="preserve">26.3699626922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6647853851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7554759979248</t>
   </si>
   <si>
     <t xml:space="preserve">24.2358703613281</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">24.4956722259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8461647033691</t>
+    <t xml:space="preserve">23.8461666107178</t>
   </si>
   <si>
     <t xml:space="preserve">23.4750194549561</t>
@@ -3806,13 +3806,13 @@
     <t xml:space="preserve">24.1987552642822</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3472137451172</t>
+    <t xml:space="preserve">24.3472118377686</t>
   </si>
   <si>
     <t xml:space="preserve">24.8853759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7740325927734</t>
+    <t xml:space="preserve">24.7740345001221</t>
   </si>
   <si>
     <t xml:space="preserve">25.3864231109619</t>
@@ -3821,31 +3821,31 @@
     <t xml:space="preserve">25.237964630127</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0523929595947</t>
+    <t xml:space="preserve">25.0523910522461</t>
   </si>
   <si>
     <t xml:space="preserve">25.1266212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9596042633057</t>
+    <t xml:space="preserve">24.9596061706543</t>
   </si>
   <si>
     <t xml:space="preserve">25.3307514190674</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8111476898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6833400726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0152778625488</t>
+    <t xml:space="preserve">24.8111457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6833419799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0152759552002</t>
   </si>
   <si>
     <t xml:space="preserve">25.0709495544434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9781608581543</t>
+    <t xml:space="preserve">24.9781627655029</t>
   </si>
   <si>
     <t xml:space="preserve">24.4028854370117</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">24.0131816864014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6605930328369</t>
+    <t xml:space="preserve">23.6605911254883</t>
   </si>
   <si>
     <t xml:space="preserve">23.2894458770752</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">21.9533195495605</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0089874267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1553516387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8213233947754</t>
+    <t xml:space="preserve">22.0089893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1553535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8213214874268</t>
   </si>
   <si>
     <t xml:space="preserve">21.8605308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5821704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6564025878906</t>
+    <t xml:space="preserve">21.5821723937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.656400680542</t>
   </si>
   <si>
     <t xml:space="preserve">22.7883987426758</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">21.5636138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4687309265137</t>
+    <t xml:space="preserve">20.4687328338623</t>
   </si>
   <si>
     <t xml:space="preserve">21.099681854248</t>
@@ -3917,7 +3917,7 @@
     <t xml:space="preserve">22.9925289154053</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0667591094971</t>
+    <t xml:space="preserve">23.0667572021484</t>
   </si>
   <si>
     <t xml:space="preserve">22.4358100891113</t>
@@ -3926,43 +3926,43 @@
     <t xml:space="preserve">21.507942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4893836975098</t>
+    <t xml:space="preserve">21.4893856048584</t>
   </si>
   <si>
     <t xml:space="preserve">21.9347610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0419139862061</t>
+    <t xml:space="preserve">20.0419120788574</t>
   </si>
   <si>
     <t xml:space="preserve">20.190372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.006893157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5615196228027</t>
+    <t xml:space="preserve">21.0068950653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5615177154541</t>
   </si>
   <si>
     <t xml:space="preserve">20.3945026397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9305686950684</t>
+    <t xml:space="preserve">19.930570602417</t>
   </si>
   <si>
     <t xml:space="preserve">20.9326648712158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3202724456787</t>
+    <t xml:space="preserve">20.3202743530273</t>
   </si>
   <si>
     <t xml:space="preserve">20.6171894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8769912719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4872894287109</t>
+    <t xml:space="preserve">20.8769931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4872875213623</t>
   </si>
   <si>
     <t xml:space="preserve">20.1347007751465</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">19.0954895019531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6129970550537</t>
+    <t xml:space="preserve">18.6129989624023</t>
   </si>
   <si>
     <t xml:space="preserve">17.7779178619385</t>
@@ -3992,19 +3992,19 @@
     <t xml:space="preserve">15.1706161499023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3190746307373</t>
+    <t xml:space="preserve">15.319073677063</t>
   </si>
   <si>
     <t xml:space="preserve">16.3768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4582538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3304481506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5468492507935</t>
+    <t xml:space="preserve">15.4582529067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3304500579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5468502044678</t>
   </si>
   <si>
     <t xml:space="preserve">14.2984209060669</t>
@@ -4016,13 +4016,13 @@
     <t xml:space="preserve">14.4190435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7716331481934</t>
+    <t xml:space="preserve">14.771632194519</t>
   </si>
   <si>
     <t xml:space="preserve">14.9015331268311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3448133468628</t>
+    <t xml:space="preserve">14.3448143005371</t>
   </si>
   <si>
     <t xml:space="preserve">14.3355350494385</t>
@@ -4031,13 +4031,13 @@
     <t xml:space="preserve">14.7437963485718</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9129076004028</t>
+    <t xml:space="preserve">15.9129085540771</t>
   </si>
   <si>
     <t xml:space="preserve">15.7458925247192</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1221265792847</t>
+    <t xml:space="preserve">14.122127532959</t>
   </si>
   <si>
     <t xml:space="preserve">14.0757331848145</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">14.4468793869019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9458322525024</t>
+    <t xml:space="preserve">13.9458312988281</t>
   </si>
   <si>
     <t xml:space="preserve">13.6953077316284</t>
@@ -4058,7 +4058,7 @@
     <t xml:space="preserve">13.8901605606079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8787860870361</t>
+    <t xml:space="preserve">12.8787851333618</t>
   </si>
   <si>
     <t xml:space="preserve">12.7859983444214</t>
@@ -4067,7 +4067,7 @@
     <t xml:space="preserve">13.4355049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.031436920166</t>
+    <t xml:space="preserve">15.0314350128174</t>
   </si>
   <si>
     <t xml:space="preserve">15.1335000991821</t>
@@ -4076,19 +4076,19 @@
     <t xml:space="preserve">15.3933029174805</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4304180145264</t>
+    <t xml:space="preserve">15.4304170608521</t>
   </si>
   <si>
     <t xml:space="preserve">15.1242218017578</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3210420608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0219535827637</t>
+    <t xml:space="preserve">15.3210411071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579359054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0219526290894</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368171691895</t>
@@ -4097,28 +4097,28 @@
     <t xml:space="preserve">15.5622406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0735874176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6297788619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8034420013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8709783554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1218242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9481639862061</t>
+    <t xml:space="preserve">16.0735855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6297779083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8034410476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.870979309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.121826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9481620788574</t>
   </si>
   <si>
     <t xml:space="preserve">15.7359056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4078731536865</t>
+    <t xml:space="preserve">15.4078741073608</t>
   </si>
   <si>
     <t xml:space="preserve">14.6360330581665</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">13.2177743911743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0923509597778</t>
+    <t xml:space="preserve">13.0923500061035</t>
   </si>
   <si>
     <t xml:space="preserve">13.1405906677246</t>
@@ -4157,10 +4157,10 @@
     <t xml:space="preserve">12.8222064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9186868667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.667839050293</t>
+    <t xml:space="preserve">12.9186878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6678380966187</t>
   </si>
   <si>
     <t xml:space="preserve">12.195086479187</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">12.7932624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7546701431274</t>
+    <t xml:space="preserve">12.7546710968018</t>
   </si>
   <si>
     <t xml:space="preserve">12.2722702026367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.966926574707</t>
+    <t xml:space="preserve">12.9669256210327</t>
   </si>
   <si>
     <t xml:space="preserve">13.2467184066772</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">12.5038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8511505126953</t>
+    <t xml:space="preserve">12.851149559021</t>
   </si>
   <si>
     <t xml:space="preserve">13.3817911148071</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">13.3914394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5520620346069</t>
+    <t xml:space="preserve">12.5520629882812</t>
   </si>
   <si>
     <t xml:space="preserve">12.6774873733521</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">12.4652299880981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3205099105835</t>
+    <t xml:space="preserve">12.3205108642578</t>
   </si>
   <si>
     <t xml:space="preserve">11.9345893859863</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">12.0793104171753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2240304946899</t>
+    <t xml:space="preserve">12.2240295410156</t>
   </si>
   <si>
     <t xml:space="preserve">12.2915658950806</t>
@@ -4262,25 +4262,25 @@
     <t xml:space="preserve">12.3783979415894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1854381561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2529735565186</t>
+    <t xml:space="preserve">12.1854372024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2529745101929</t>
   </si>
   <si>
     <t xml:space="preserve">11.9152936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.233678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5583171844482</t>
+    <t xml:space="preserve">12.2336778640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5583162307739</t>
   </si>
   <si>
     <t xml:space="preserve">11.5293731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3943014144897</t>
+    <t xml:space="preserve">11.3943004608154</t>
   </si>
   <si>
     <t xml:space="preserve">11.7319812774658</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">11.3364133834839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9987316131592</t>
+    <t xml:space="preserve">10.9987325668335</t>
   </si>
   <si>
     <t xml:space="preserve">11.0083799362183</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">11.7223329544067</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6355018615723</t>
+    <t xml:space="preserve">11.6355009078979</t>
   </si>
   <si>
     <t xml:space="preserve">11.645149230957</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">11.9635334014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.789870262146</t>
+    <t xml:space="preserve">11.7898693084717</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125581741333</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">12.156494140625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3301572799683</t>
+    <t xml:space="preserve">12.3301582336426</t>
   </si>
   <si>
     <t xml:space="preserve">12.2626218795776</t>
@@ -4403,7 +4403,7 @@
     <t xml:space="preserve">12.63889503479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012142181396</t>
+    <t xml:space="preserve">12.3012132644653</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415031433105</t>
@@ -4418,34 +4418,34 @@
     <t xml:space="preserve">12.3976945877075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3880453109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5327663421631</t>
+    <t xml:space="preserve">12.3880462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5327653884888</t>
   </si>
   <si>
     <t xml:space="preserve">12.0600137710571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9924783706665</t>
+    <t xml:space="preserve">11.9924774169922</t>
   </si>
   <si>
     <t xml:space="preserve">12.1082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1275491714478</t>
+    <t xml:space="preserve">12.1275501251221</t>
   </si>
   <si>
     <t xml:space="preserve">12.5713577270508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8993911743164</t>
+    <t xml:space="preserve">12.8993902206421</t>
   </si>
   <si>
     <t xml:space="preserve">13.1598873138428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255996704102</t>
+    <t xml:space="preserve">13.8255987167358</t>
   </si>
   <si>
     <t xml:space="preserve">13.9124317169189</t>
@@ -4466,16 +4466,16 @@
     <t xml:space="preserve">14.2983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.31764793396</t>
+    <t xml:space="preserve">14.3176488876343</t>
   </si>
   <si>
     <t xml:space="preserve">13.8641910552979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2211685180664</t>
+    <t xml:space="preserve">13.8931360244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2211675643921</t>
   </si>
   <si>
     <t xml:space="preserve">14.2790565490723</t>
@@ -4493,13 +4493,13 @@
     <t xml:space="preserve">14.2501125335693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.800048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0316019058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202560424805</t>
+    <t xml:space="preserve">14.8000497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0316009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202569961548</t>
   </si>
   <si>
     <t xml:space="preserve">14.4720163345337</t>
@@ -4508,22 +4508,22 @@
     <t xml:space="preserve">14.394832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5299043655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4141283035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.433424949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6553287506104</t>
+    <t xml:space="preserve">14.5299053192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4141273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4334239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.655327796936</t>
   </si>
   <si>
     <t xml:space="preserve">14.6070890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6842727661133</t>
+    <t xml:space="preserve">14.6842737197876</t>
   </si>
   <si>
     <t xml:space="preserve">14.4430732727051</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">16.1797142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9192190170288</t>
+    <t xml:space="preserve">15.9192180633545</t>
   </si>
   <si>
     <t xml:space="preserve">16.3437309265137</t>
@@ -4541,10 +4541,10 @@
     <t xml:space="preserve">16.4305629730225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8164844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4209136962891</t>
+    <t xml:space="preserve">16.8164825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4209156036377</t>
   </si>
   <si>
     <t xml:space="preserve">16.2954902648926</t>
@@ -4553,10 +4553,10 @@
     <t xml:space="preserve">16.3244342803955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2376041412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1121788024902</t>
+    <t xml:space="preserve">16.2376022338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1121807098389</t>
   </si>
   <si>
     <t xml:space="preserve">15.4464654922485</t>
@@ -4583,22 +4583,22 @@
     <t xml:space="preserve">14.1246881484985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0185594558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1343355178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860958099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4686231613159</t>
+    <t xml:space="preserve">14.0185604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1343364715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860967636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4686241149902</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194719314575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6326398849487</t>
+    <t xml:space="preserve">13.6326389312744</t>
   </si>
   <si>
     <t xml:space="preserve">13.5361595153809</t>
@@ -4613,7 +4613,7 @@
     <t xml:space="preserve">13.5072154998779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4300308227539</t>
+    <t xml:space="preserve">13.4300317764282</t>
   </si>
   <si>
     <t xml:space="preserve">13.2949590682983</t>
@@ -4628,7 +4628,7 @@
     <t xml:space="preserve">13.0441112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3335514068604</t>
+    <t xml:space="preserve">13.333550453186</t>
   </si>
   <si>
     <t xml:space="preserve">13.1019992828369</t>
@@ -5145,6 +5145,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.8299999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8199996948242</t>
   </si>
 </sst>
 </file>
@@ -61230,7 +61233,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6495949074</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>18766</v>
@@ -61251,6 +61254,32 @@
         <v>1710</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494328704</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>22212</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>11.9499998092651</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>11.7700004577637</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>11.9499998092651</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>11.8199996948242</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -44,34 +44,34 @@
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528583526611</t>
+    <t xml:space="preserve">13.0528593063354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8206920623779</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4681463241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3133687973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3305673599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.21018409729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85413551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4130516052246</t>
+    <t xml:space="preserve">12.4681453704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3133678436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.33056640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2101850509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203748703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85413455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4130506515503</t>
   </si>
   <si>
     <t xml:space="preserve">9.90572738647461</t>
@@ -83,19 +83,19 @@
     <t xml:space="preserve">10.3528604507446</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8429870605469</t>
+    <t xml:space="preserve">10.8429880142212</t>
   </si>
   <si>
     <t xml:space="preserve">10.8773822784424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7913951873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6366176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6968097686768</t>
+    <t xml:space="preserve">10.7913942337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6366186141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968078613281</t>
   </si>
   <si>
     <t xml:space="preserve">10.2496757507324</t>
@@ -104,67 +104,67 @@
     <t xml:space="preserve">10.5162353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.550630569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0777006149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08884811401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02865791320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45859432220459</t>
+    <t xml:space="preserve">10.5506315231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0777015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08884716033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02865886688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45859241485596</t>
   </si>
   <si>
     <t xml:space="preserve">9.2006311416626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48438835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95731925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71655559539795</t>
+    <t xml:space="preserve">9.48438930511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95731735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71655464172363</t>
   </si>
   <si>
     <t xml:space="preserve">10.4990386962891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4044532775879</t>
+    <t xml:space="preserve">10.4044542312622</t>
   </si>
   <si>
     <t xml:space="preserve">10.2582740783691</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0665531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2410774230957</t>
+    <t xml:space="preserve">11.066554069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.610821723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2840700149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410764694214</t>
   </si>
   <si>
     <t xml:space="preserve">11.1009492874146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9719696044922</t>
+    <t xml:space="preserve">10.9719686508179</t>
   </si>
   <si>
     <t xml:space="preserve">11.8748350143433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.012414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757888793945</t>
+    <t xml:space="preserve">12.0124139785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
     <t xml:space="preserve">11.8404397964478</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">12.0382089614868</t>
   </si>
   <si>
-    <t xml:space="preserve">11.694260597229</t>
+    <t xml:space="preserve">11.6942615509033</t>
   </si>
   <si>
     <t xml:space="preserve">11.43630027771</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">11.7286558151245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9092292785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9866170883179</t>
+    <t xml:space="preserve">11.9092283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9866161346436</t>
   </si>
   <si>
     <t xml:space="preserve">11.8662347793579</t>
@@ -200,22 +200,22 @@
     <t xml:space="preserve">12.2617769241333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.27037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079542160034</t>
+    <t xml:space="preserve">12.2703762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079551696777</t>
   </si>
   <si>
     <t xml:space="preserve">12.201584815979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2359800338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2875728607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9694194793701</t>
+    <t xml:space="preserve">12.2359790802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2875719070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9694213867188</t>
   </si>
   <si>
     <t xml:space="preserve">11.6340703964233</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">11.3503112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8060426712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9522228240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.88343334198</t>
+    <t xml:space="preserve">11.8060436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9522218704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8834323883057</t>
   </si>
   <si>
     <t xml:space="preserve">11.7716493606567</t>
@@ -239,19 +239,19 @@
     <t xml:space="preserve">11.6684646606445</t>
   </si>
   <si>
-    <t xml:space="preserve">11.70285987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394830703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25572681427</t>
+    <t xml:space="preserve">11.7028579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557258605957</t>
   </si>
   <si>
     <t xml:space="preserve">11.1697378158569</t>
   </si>
   <si>
-    <t xml:space="preserve">11.178337097168</t>
+    <t xml:space="preserve">11.1783380508423</t>
   </si>
   <si>
     <t xml:space="preserve">11.3847074508667</t>
@@ -260,16 +260,16 @@
     <t xml:space="preserve">11.4105033874512</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2213306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.118145942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.049355506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2041330337524</t>
+    <t xml:space="preserve">11.2213315963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1181478500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0493564605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2041320800781</t>
   </si>
   <si>
     <t xml:space="preserve">10.6624135971069</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">11.0166463851929</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4941549301147</t>
+    <t xml:space="preserve">10.4941539764404</t>
   </si>
   <si>
     <t xml:space="preserve">10.4144506454468</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2816123962402</t>
+    <t xml:space="preserve">10.2816133499146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3258924484253</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9805154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3790264129639</t>
+    <t xml:space="preserve">9.98051643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3790273666382</t>
   </si>
   <si>
     <t xml:space="preserve">10.0602178573608</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">10.3613157272339</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3081817626953</t>
+    <t xml:space="preserve">10.308180809021</t>
   </si>
   <si>
     <t xml:space="preserve">10.6712694168091</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4771499633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1937637329102</t>
+    <t xml:space="preserve">11.4771490097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1937646865845</t>
   </si>
   <si>
     <t xml:space="preserve">10.9812231063843</t>
@@ -326,25 +326,25 @@
     <t xml:space="preserve">11.0697822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8926668167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9015216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9900798797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9723672866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8749532699585</t>
+    <t xml:space="preserve">10.8926658630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9015207290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9900789260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9723682403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8749542236328</t>
   </si>
   <si>
     <t xml:space="preserve">10.5738544464111</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1222095489502</t>
+    <t xml:space="preserve">10.1222076416016</t>
   </si>
   <si>
     <t xml:space="preserve">10.0513620376587</t>
@@ -353,52 +353,52 @@
     <t xml:space="preserve">10.0070829391479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7414083480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956392288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561437606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4055948257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118637084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.644702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93623542785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17463493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73255252838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62628173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98937129974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0425071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23662662506104</t>
+    <t xml:space="preserve">9.74140739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956401824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4055957794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118646621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6447019577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93623638153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.174635887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73255157470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62628269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98937034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0425062179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23662567138672</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234657287598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77683258056641</t>
+    <t xml:space="preserve">9.77683067321777</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
@@ -413,13 +413,13 @@
     <t xml:space="preserve">10.1930551528931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2727584838867</t>
+    <t xml:space="preserve">10.272759437561</t>
   </si>
   <si>
     <t xml:space="preserve">10.2107667922974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7598285675049</t>
+    <t xml:space="preserve">10.7598276138306</t>
   </si>
   <si>
     <t xml:space="preserve">11.1406278610229</t>
@@ -428,67 +428,67 @@
     <t xml:space="preserve">11.0786390304565</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0963478088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0520706176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9369449615479</t>
+    <t xml:space="preserve">11.0963487625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0520696640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9369459152222</t>
   </si>
   <si>
     <t xml:space="preserve">11.1583404541016</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3177442550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.379734992981</t>
+    <t xml:space="preserve">11.3177452087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3797359466553</t>
   </si>
   <si>
     <t xml:space="preserve">10.7863960266113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1140613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9635124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2291870117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1229162216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2823209762573</t>
+    <t xml:space="preserve">11.1140604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.96351146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2291879653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.122917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2823219299316</t>
   </si>
   <si>
     <t xml:space="preserve">11.184907913208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.246898651123</t>
+    <t xml:space="preserve">11.2468967437744</t>
   </si>
   <si>
     <t xml:space="preserve">11.3266010284424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5922765731812</t>
+    <t xml:space="preserve">11.5922756195068</t>
   </si>
   <si>
     <t xml:space="preserve">11.8136711120605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8402376174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7516803741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8668050765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7162570953369</t>
+    <t xml:space="preserve">11.8402395248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7516813278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8668069839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7162561416626</t>
   </si>
   <si>
     <t xml:space="preserve">11.7339687347412</t>
@@ -497,37 +497,37 @@
     <t xml:space="preserve">11.5125732421875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3885917663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4328718185425</t>
+    <t xml:space="preserve">11.3885927200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4328699111938</t>
   </si>
   <si>
     <t xml:space="preserve">11.2026195526123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.760537147522</t>
+    <t xml:space="preserve">11.7605352401733</t>
   </si>
   <si>
     <t xml:space="preserve">11.6808338165283</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8933753967285</t>
+    <t xml:space="preserve">11.8933734893799</t>
   </si>
   <si>
     <t xml:space="preserve">12.1059141159058</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1236248016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1324815750122</t>
+    <t xml:space="preserve">12.1236257553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1324806213379</t>
   </si>
   <si>
     <t xml:space="preserve">12.5752725601196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6018390655518</t>
+    <t xml:space="preserve">12.6018381118774</t>
   </si>
   <si>
     <t xml:space="preserve">12.4778575897217</t>
@@ -536,16 +536,16 @@
     <t xml:space="preserve">12.3538761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6726865768433</t>
+    <t xml:space="preserve">12.6726875305176</t>
   </si>
   <si>
     <t xml:space="preserve">12.9914960861206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9295053482056</t>
+    <t xml:space="preserve">12.8852272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9295063018799</t>
   </si>
   <si>
     <t xml:space="preserve">13.1066217422485</t>
@@ -557,19 +557,19 @@
     <t xml:space="preserve">13.6556825637817</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7619533538818</t>
+    <t xml:space="preserve">13.7619524002075</t>
   </si>
   <si>
     <t xml:space="preserve">13.5051336288452</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4527072906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3021583557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3375825881958</t>
+    <t xml:space="preserve">14.4527082443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3021574020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3375816345215</t>
   </si>
   <si>
     <t xml:space="preserve">14.2136001586914</t>
@@ -581,16 +581,16 @@
     <t xml:space="preserve">14.1516094207764</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0010604858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8593673706055</t>
+    <t xml:space="preserve">14.0010614395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8593683242798</t>
   </si>
   <si>
     <t xml:space="preserve">13.6822509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8416557312012</t>
+    <t xml:space="preserve">13.8416538238525</t>
   </si>
   <si>
     <t xml:space="preserve">13.912501335144</t>
@@ -599,85 +599,85 @@
     <t xml:space="preserve">13.8062314987183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2748832702637</t>
+    <t xml:space="preserve">13.2748823165894</t>
   </si>
   <si>
     <t xml:space="preserve">13.4519987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2306022644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265300750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6379709243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8150873184204</t>
+    <t xml:space="preserve">13.2306032180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265291213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6379718780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8150882720947</t>
   </si>
   <si>
     <t xml:space="preserve">13.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2578783035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1781778335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8689336776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3914232254028</t>
+    <t xml:space="preserve">14.2578792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1781759262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.868932723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3914222717285</t>
   </si>
   <si>
     <t xml:space="preserve">15.3648567199707</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5773973464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862550735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534177780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4268465042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6216764450073</t>
+    <t xml:space="preserve">15.5773963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5862560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331182479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4268484115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.621675491333</t>
   </si>
   <si>
     <t xml:space="preserve">15.7545146942139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6305303573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3294334411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8962059020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2858600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4629764556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5603923797607</t>
+    <t xml:space="preserve">15.6305332183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3294343948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8962078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2858619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4629802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.560396194458</t>
   </si>
   <si>
     <t xml:space="preserve">16.6046733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1360244750977</t>
+    <t xml:space="preserve">17.136022567749</t>
   </si>
   <si>
     <t xml:space="preserve">16.9854736328125</t>
@@ -686,127 +686,127 @@
     <t xml:space="preserve">17.251148223877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8703479766846</t>
+    <t xml:space="preserve">16.8703460693359</t>
   </si>
   <si>
     <t xml:space="preserve">16.6489505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3301429748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6843757629395</t>
+    <t xml:space="preserve">16.3301410675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6843738555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666641235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0917434692383</t>
+    <t xml:space="preserve">16.6666622161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0917415618896</t>
   </si>
   <si>
     <t xml:space="preserve">16.7994995117188</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9766159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9500484466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1094570159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3928413391113</t>
+    <t xml:space="preserve">16.9766178131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9500503540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1094512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.39284324646</t>
   </si>
   <si>
     <t xml:space="preserve">17.2245807647705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6312408447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1802997589111</t>
+    <t xml:space="preserve">16.6312427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1803016662598</t>
   </si>
   <si>
     <t xml:space="preserve">16.9589061737061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3042831420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4459743499756</t>
+    <t xml:space="preserve">17.3042850494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4459781646729</t>
   </si>
   <si>
     <t xml:space="preserve">17.7559299468994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6408042907715</t>
+    <t xml:space="preserve">17.6408061981201</t>
   </si>
   <si>
     <t xml:space="preserve">17.6053810119629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8179206848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.55224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6585159301758</t>
+    <t xml:space="preserve">17.8179225921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5522480010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6585178375244</t>
   </si>
   <si>
     <t xml:space="preserve">17.8444881439209</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9419040679932</t>
+    <t xml:space="preserve">17.9419021606445</t>
   </si>
   <si>
     <t xml:space="preserve">17.6762275695801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8437805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614940643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0474643707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2600059509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3751316070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7817916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068691253662</t>
+    <t xml:space="preserve">16.8437786102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614902496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0474662780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2600021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.375129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7817897796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068672180176</t>
   </si>
   <si>
     <t xml:space="preserve">16.9146270751953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3308506011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3839855194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4902572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3485622406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5345325469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4725456237793</t>
+    <t xml:space="preserve">17.3308486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3839836120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.490255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485641479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5345306396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4725437164307</t>
   </si>
   <si>
     <t xml:space="preserve">17.7470741271973</t>
@@ -815,46 +815,46 @@
     <t xml:space="preserve">18.0481700897217</t>
   </si>
   <si>
-    <t xml:space="preserve">19.482816696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0495891571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5012378692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7137775421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4569549560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9528846740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1654243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7056293487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2097034454346</t>
+    <t xml:space="preserve">19.4828147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0495872497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5012359619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7137756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4569568634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9528827667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1654224395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7056274414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2097053527832</t>
   </si>
   <si>
     <t xml:space="preserve">21.4488086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7764739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8738899230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0421466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9358825683594</t>
+    <t xml:space="preserve">21.7764759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8738918304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0421524047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9358787536621</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395645141602</t>
@@ -863,40 +863,40 @@
     <t xml:space="preserve">22.4140930175781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3875274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4760856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4495182037354</t>
+    <t xml:space="preserve">22.3875293731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4760837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4495162963867</t>
   </si>
   <si>
     <t xml:space="preserve">22.3166809082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7594699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5646419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7506141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8037509918213</t>
+    <t xml:space="preserve">22.7594718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5646438598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6089210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7506160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8037528991699</t>
   </si>
   <si>
     <t xml:space="preserve">23.025146484375</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2288284301758</t>
+    <t xml:space="preserve">23.2288303375244</t>
   </si>
   <si>
     <t xml:space="preserve">22.96315574646</t>
@@ -905,67 +905,67 @@
     <t xml:space="preserve">22.5026531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3262462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5210742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.645055770874</t>
+    <t xml:space="preserve">23.326244354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5210704803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6450538635254</t>
   </si>
   <si>
     <t xml:space="preserve">24.0524215698242</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3800888061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8494453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7963123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0619869232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2302474975586</t>
+    <t xml:space="preserve">24.3800868988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8494472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7963104248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0619850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.23024559021</t>
   </si>
   <si>
     <t xml:space="preserve">25.1062660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0354175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5763339996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6390743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5533390045166</t>
+    <t xml:space="preserve">25.0354194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5763320922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6390762329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5533409118652</t>
   </si>
   <si>
     <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3152236938477</t>
+    <t xml:space="preserve">28.315221786499</t>
   </si>
   <si>
     <t xml:space="preserve">27.8312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5342388153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9656524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.628942489624</t>
+    <t xml:space="preserve">28.8440628051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5342407226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9656505584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6289386749268</t>
   </si>
   <si>
     <t xml:space="preserve">29.1846694946289</t>
@@ -974,37 +974,37 @@
     <t xml:space="preserve">29.659725189209</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9375896453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0451488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4753875732422</t>
+    <t xml:space="preserve">29.937593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0451507568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4753932952881</t>
   </si>
   <si>
     <t xml:space="preserve">30.9504489898682</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4126472473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8428897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042266845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0759296417236</t>
+    <t xml:space="preserve">30.4126491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.842887878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042285919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0759315490723</t>
   </si>
   <si>
     <t xml:space="preserve">31.1924571990967</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1745300292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1117858886719</t>
+    <t xml:space="preserve">31.1745338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1117877960205</t>
   </si>
   <si>
     <t xml:space="preserve">30.8249588012695</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">30.9235572814941</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8608150482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.525276184082</t>
+    <t xml:space="preserve">30.8608169555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5252742767334</t>
   </si>
   <si>
     <t xml:space="preserve">29.6686878204346</t>
@@ -1025,19 +1025,19 @@
     <t xml:space="preserve">29.4804592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4446029663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3409404754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3050880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1706371307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.098934173584</t>
+    <t xml:space="preserve">29.4446048736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3409366607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3050899505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.17063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0989303588867</t>
   </si>
   <si>
     <t xml:space="preserve">30.2244205474854</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">29.650764465332</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9824085235596</t>
+    <t xml:space="preserve">29.9824066162109</t>
   </si>
   <si>
     <t xml:space="preserve">29.0771045684814</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">27.9298000335693</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1269931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8491287231445</t>
+    <t xml:space="preserve">28.1269950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4099273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8491306304932</t>
   </si>
   <si>
     <t xml:space="preserve">27.6429710388184</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">27.7326068878174</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2793712615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5124168395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8760185241699</t>
+    <t xml:space="preserve">28.2793674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5124187469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8760204315186</t>
   </si>
   <si>
     <t xml:space="preserve">28.7365016937256</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">28.7813186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6827201843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9516220092773</t>
+    <t xml:space="preserve">28.6827182769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9516201019287</t>
   </si>
   <si>
     <t xml:space="preserve">29.9555149078369</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7045402526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4983882904053</t>
+    <t xml:space="preserve">29.7045440673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4983863830566</t>
   </si>
   <si>
     <t xml:space="preserve">29.337043762207</t>
@@ -1109,43 +1109,43 @@
     <t xml:space="preserve">29.399787902832</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3101539611816</t>
+    <t xml:space="preserve">29.3101558685303</t>
   </si>
   <si>
     <t xml:space="preserve">29.4894237518311</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1308898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8709526062012</t>
+    <t xml:space="preserve">29.1308879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8709506988525</t>
   </si>
   <si>
     <t xml:space="preserve">29.1577777862549</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1129589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7762508392334</t>
+    <t xml:space="preserve">29.1129608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7762489318848</t>
   </si>
   <si>
     <t xml:space="preserve">30.0272254943848</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5700931549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5790557861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9785118103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8569202423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7852096557617</t>
+    <t xml:space="preserve">29.5700950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5790538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9785137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8569221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7852115631104</t>
   </si>
   <si>
     <t xml:space="preserve">29.8479557037354</t>
@@ -1154,52 +1154,52 @@
     <t xml:space="preserve">29.8658809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3140506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0092926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3588638305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.686616897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3460121154785</t>
+    <t xml:space="preserve">30.3140449523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.009298324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.358865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6866130828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3460083007812</t>
   </si>
   <si>
     <t xml:space="preserve">29.6059455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5381355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367340087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.645694732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4664268493652</t>
+    <t xml:space="preserve">30.5381317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6456928253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4664287567139</t>
   </si>
   <si>
     <t xml:space="preserve">30.2692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">30.233377456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4036827087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2680587768555</t>
+    <t xml:space="preserve">30.2333793640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4036808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2680625915527</t>
   </si>
   <si>
     <t xml:space="preserve">31.6764793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9952659606934</t>
+    <t xml:space="preserve">30.995267868042</t>
   </si>
   <si>
     <t xml:space="preserve">32.1784248352051</t>
@@ -1208,10 +1208,10 @@
     <t xml:space="preserve">31.9543418884277</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8736724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3666572570801</t>
+    <t xml:space="preserve">31.8736743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3666610717773</t>
   </si>
   <si>
     <t xml:space="preserve">32.2590980529785</t>
@@ -1226,34 +1226,34 @@
     <t xml:space="preserve">33.3884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5856742858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9570617675781</t>
+    <t xml:space="preserve">33.5856704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9570655822754</t>
   </si>
   <si>
     <t xml:space="preserve">34.8943214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">34.93017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7777938842773</t>
+    <t xml:space="preserve">34.9301834106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7777976989746</t>
   </si>
   <si>
     <t xml:space="preserve">34.4192657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6343879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.741943359375</t>
+    <t xml:space="preserve">34.6343803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7419395446777</t>
   </si>
   <si>
     <t xml:space="preserve">35.6293182373047</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4231567382812</t>
+    <t xml:space="preserve">35.4231605529785</t>
   </si>
   <si>
     <t xml:space="preserve">34.8584671020508</t>
@@ -1262,22 +1262,22 @@
     <t xml:space="preserve">34.5716400146484</t>
   </si>
   <si>
-    <t xml:space="preserve">34.060733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0428047180176</t>
+    <t xml:space="preserve">34.0607299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0428009033203</t>
   </si>
   <si>
     <t xml:space="preserve">34.3385963439941</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9083518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2579231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5088958740234</t>
+    <t xml:space="preserve">33.9083595275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2579307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5088996887207</t>
   </si>
   <si>
     <t xml:space="preserve">34.3117027282715</t>
@@ -1286,16 +1286,16 @@
     <t xml:space="preserve">34.6164588928223</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9749908447266</t>
+    <t xml:space="preserve">34.9749870300293</t>
   </si>
   <si>
     <t xml:space="preserve">34.8136520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4999389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3027420043945</t>
+    <t xml:space="preserve">34.4999351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3027458190918</t>
   </si>
   <si>
     <t xml:space="preserve">33.0299453735352</t>
@@ -1313,43 +1313,43 @@
     <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3912048339844</t>
+    <t xml:space="preserve">36.3911972045898</t>
   </si>
   <si>
     <t xml:space="preserve">36.7049179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6281433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.080207824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.142951965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8381996154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8023452758789</t>
+    <t xml:space="preserve">37.6281471252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0802040100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1429481506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8381958007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8023414611816</t>
   </si>
   <si>
     <t xml:space="preserve">38.4886245727539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6499633789062</t>
+    <t xml:space="preserve">38.6499671936035</t>
   </si>
   <si>
     <t xml:space="preserve">39.4387435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0264282226562</t>
+    <t xml:space="preserve">39.0264320373535</t>
   </si>
   <si>
     <t xml:space="preserve">38.0225296020508</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5692939758301</t>
+    <t xml:space="preserve">38.5692977905273</t>
   </si>
   <si>
     <t xml:space="preserve">38.2735061645508</t>
@@ -1358,55 +1358,55 @@
     <t xml:space="preserve">38.5872230529785</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5603332519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7396011352539</t>
+    <t xml:space="preserve">38.5603294372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7395973205566</t>
   </si>
   <si>
     <t xml:space="preserve">38.7844161987305</t>
   </si>
   <si>
-    <t xml:space="preserve">38.829231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9099044799805</t>
+    <t xml:space="preserve">38.8292350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9099006652832</t>
   </si>
   <si>
     <t xml:space="preserve">38.9547157287598</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6628227233887</t>
+    <t xml:space="preserve">39.6628265380859</t>
   </si>
   <si>
     <t xml:space="preserve">39.3042869567871</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2773971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5462989807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7754516601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5065498352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5961837768555</t>
+    <t xml:space="preserve">39.277400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5463027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.775447845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5065536499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5961875915527</t>
   </si>
   <si>
     <t xml:space="preserve">37.9149703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8214416503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8970413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6858215332031</t>
+    <t xml:space="preserve">36.8214492797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.897045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6858253479004</t>
   </si>
   <si>
     <t xml:space="preserve">42.2353057861328</t>
@@ -1415,37 +1415,37 @@
     <t xml:space="preserve">42.8985900878906</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0599327087402</t>
+    <t xml:space="preserve">43.0599365234375</t>
   </si>
   <si>
     <t xml:space="preserve">42.6655426025391</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2711639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1635971069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8588447570801</t>
+    <t xml:space="preserve">42.2711563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249435424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1636009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8588409423828</t>
   </si>
   <si>
     <t xml:space="preserve">42.0022583007812</t>
   </si>
   <si>
-    <t xml:space="preserve">42.378719329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9305534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7692070007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0201835632324</t>
+    <t xml:space="preserve">42.3787155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.930549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.769214630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0201873779297</t>
   </si>
   <si>
     <t xml:space="preserve">41.5899467468262</t>
@@ -1457,79 +1457,79 @@
     <t xml:space="preserve">40.5860481262207</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8190956115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0303230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3670349121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9048385620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0240821838379</t>
+    <t xml:space="preserve">40.8190994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0303192138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3670310974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9048347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0240783691406</t>
   </si>
   <si>
     <t xml:space="preserve">41.7154312133789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9009399414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7894859313965</t>
+    <t xml:space="preserve">38.9009437561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7894821166992</t>
   </si>
   <si>
     <t xml:space="preserve">37.5026588439941</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8151969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4247016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3350791931152</t>
+    <t xml:space="preserve">39.8152008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4247055053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.335075378418</t>
   </si>
   <si>
     <t xml:space="preserve">40.8011703491211</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0342140197754</t>
+    <t xml:space="preserve">41.0342178344727</t>
   </si>
   <si>
     <t xml:space="preserve">41.1776275634766</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3748207092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2314109802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7473907470703</t>
+    <t xml:space="preserve">41.3748245239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2314071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7473945617676</t>
   </si>
   <si>
     <t xml:space="preserve">41.195556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4745979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.402889251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4426383972168</t>
+    <t xml:space="preserve">39.4745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4028816223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4426307678223</t>
   </si>
   <si>
     <t xml:space="preserve">40.6219024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6257934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8448143005371</t>
+    <t xml:space="preserve">41.6257972717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8448104858398</t>
   </si>
   <si>
     <t xml:space="preserve">44.7988243103027</t>
@@ -1538,37 +1538,37 @@
     <t xml:space="preserve">44.1534614562988</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4889984130859</t>
+    <t xml:space="preserve">45.4890022277832</t>
   </si>
   <si>
     <t xml:space="preserve">44.1355361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">45.220100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2957038879395</t>
+    <t xml:space="preserve">45.2201042175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2957077026367</t>
   </si>
   <si>
     <t xml:space="preserve">47.5953903198242</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2060699462891</t>
+    <t xml:space="preserve">46.2060661315918</t>
   </si>
   <si>
     <t xml:space="preserve">45.8475379943848</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9511985778809</t>
+    <t xml:space="preserve">44.9512023925781</t>
   </si>
   <si>
     <t xml:space="preserve">44.2610244750977</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0996856689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2033462524414</t>
+    <t xml:space="preserve">44.099681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2033500671387</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975059509277</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">41.249340057373</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9944648742676</t>
+    <t xml:space="preserve">39.9944686889648</t>
   </si>
   <si>
     <t xml:space="preserve">39.331184387207</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">40.0123977661133</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7832450866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9586143493652</t>
+    <t xml:space="preserve">40.7832412719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9586181640625</t>
   </si>
   <si>
     <t xml:space="preserve">39.5283699035645</t>
@@ -1607,22 +1607,22 @@
     <t xml:space="preserve">40.4784889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">40.137882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6538619995117</t>
+    <t xml:space="preserve">40.1378784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6538581848145</t>
   </si>
   <si>
     <t xml:space="preserve">39.2594718933105</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6296920776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2851943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1728477478027</t>
+    <t xml:space="preserve">42.629695892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2851905822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1728515625</t>
   </si>
   <si>
     <t xml:space="preserve">41.2489624023438</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">40.9410018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8685340881348</t>
+    <t xml:space="preserve">40.8685302734375</t>
   </si>
   <si>
     <t xml:space="preserve">40.7598419189453</t>
@@ -1649,19 +1649,19 @@
     <t xml:space="preserve">36.5389366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2635498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6838569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8106651306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2128562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8686561584473</t>
+    <t xml:space="preserve">37.2635536193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6838607788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8106689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2128601074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8686599731445</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606956481934</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">34.4194221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6042251586914</t>
+    <t xml:space="preserve">33.6042213439941</t>
   </si>
   <si>
     <t xml:space="preserve">33.8578453063965</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">34.0752296447754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6730346679688</t>
+    <t xml:space="preserve">34.673038482666</t>
   </si>
   <si>
     <t xml:space="preserve">34.8904266357422</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3433113098145</t>
+    <t xml:space="preserve">35.3433074951172</t>
   </si>
   <si>
     <t xml:space="preserve">34.9266586303711</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">34.7455024719238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1839218139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0208854675293</t>
+    <t xml:space="preserve">34.1839256286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.020881652832</t>
   </si>
   <si>
     <t xml:space="preserve">34.6368103027344</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">35.3251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6948013305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5897560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5716438293457</t>
+    <t xml:space="preserve">33.6948051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5897636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5716400146484</t>
   </si>
   <si>
     <t xml:space="preserve">31.6477527618408</t>
@@ -1724,34 +1724,34 @@
     <t xml:space="preserve">30.7057495117188</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6550540924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1079387664795</t>
+    <t xml:space="preserve">29.65505027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1079368591309</t>
   </si>
   <si>
     <t xml:space="preserve">29.4014339447021</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3253231048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3833160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5825881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9884223937988</t>
+    <t xml:space="preserve">30.325325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3833141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5825862884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9884243011475</t>
   </si>
   <si>
     <t xml:space="preserve">29.2927417755127</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7093982696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7782115936279</t>
+    <t xml:space="preserve">29.7093963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7782096862793</t>
   </si>
   <si>
     <t xml:space="preserve">31.4303684234619</t>
@@ -1769,16 +1769,16 @@
     <t xml:space="preserve">30.5789394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8470230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8289108276367</t>
+    <t xml:space="preserve">31.8470268249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8289070129395</t>
   </si>
   <si>
     <t xml:space="preserve">32.2636795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2854461669922</t>
+    <t xml:space="preserve">31.2854480743408</t>
   </si>
   <si>
     <t xml:space="preserve">31.5390605926514</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">31.1586360931396</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9194869995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7926750183105</t>
+    <t xml:space="preserve">31.9194850921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7926769256592</t>
   </si>
   <si>
     <t xml:space="preserve">31.0137138366699</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">30.0717067718506</t>
   </si>
   <si>
-    <t xml:space="preserve">29.83620262146</t>
+    <t xml:space="preserve">29.8362045288086</t>
   </si>
   <si>
     <t xml:space="preserve">29.2565078735352</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">28.2601566314697</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7529220581055</t>
+    <t xml:space="preserve">27.7529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">26.7928028106689</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">26.4304943084717</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1949939727783</t>
+    <t xml:space="preserve">26.1949920654297</t>
   </si>
   <si>
     <t xml:space="preserve">26.6659965515137</t>
@@ -1838,25 +1838,25 @@
     <t xml:space="preserve">27.2638053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1732273101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.901496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6261157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0790023803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7348079681396</t>
+    <t xml:space="preserve">27.1732292175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9014987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6261177062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0790042877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7348098754883</t>
   </si>
   <si>
     <t xml:space="preserve">28.0971183776855</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0065422058105</t>
+    <t xml:space="preserve">28.0065402984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.9521961212158</t>
@@ -1868,13 +1868,13 @@
     <t xml:space="preserve">28.1695823669434</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9340801239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.767391204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7130470275879</t>
+    <t xml:space="preserve">27.9340782165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7673931121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7130451202393</t>
   </si>
   <si>
     <t xml:space="preserve">29.3470897674561</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">29.328971862793</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8036212921143</t>
+    <t xml:space="preserve">28.8036231994629</t>
   </si>
   <si>
     <t xml:space="preserve">28.8398532867432</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8253841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6079998016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7166938781738</t>
+    <t xml:space="preserve">27.8253860473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6079978942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7166919708252</t>
   </si>
   <si>
     <t xml:space="preserve">25.9051456451416</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5501289367676</t>
+    <t xml:space="preserve">23.5501327514648</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">23.6950569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3689765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5682487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6443576812744</t>
+    <t xml:space="preserve">23.3689746856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5682468414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6443557739258</t>
   </si>
   <si>
     <t xml:space="preserve">21.8291606903076</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">21.4849662780762</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3581581115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4668521881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7204685211182</t>
+    <t xml:space="preserve">21.3581562042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4668502807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7204666137695</t>
   </si>
   <si>
     <t xml:space="preserve">19.8364562988281</t>
@@ -1964,13 +1964,13 @@
     <t xml:space="preserve">18.9850273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4959125518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.111837387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1064281463623</t>
+    <t xml:space="preserve">18.4959106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1118354797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1064300537109</t>
   </si>
   <si>
     <t xml:space="preserve">17.2368850708008</t>
@@ -1985,13 +1985,13 @@
     <t xml:space="preserve">16.7568244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2948780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.041259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8057622909546</t>
+    <t xml:space="preserve">16.2948818206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0412635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8057632446289</t>
   </si>
   <si>
     <t xml:space="preserve">15.7695302963257</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">16.7024784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4941482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5720195770264</t>
+    <t xml:space="preserve">16.4941501617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.572021484375</t>
   </si>
   <si>
     <t xml:space="preserve">17.6535396575928</t>
@@ -2033,19 +2033,19 @@
     <t xml:space="preserve">16.1046676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9959726333618</t>
+    <t xml:space="preserve">15.9959735870361</t>
   </si>
   <si>
     <t xml:space="preserve">16.358283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2858219146729</t>
+    <t xml:space="preserve">16.2858200073242</t>
   </si>
   <si>
     <t xml:space="preserve">15.8148183822632</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4887399673462</t>
+    <t xml:space="preserve">15.4887409210205</t>
   </si>
   <si>
     <t xml:space="preserve">15.1354875564575</t>
@@ -2054,16 +2054,16 @@
     <t xml:space="preserve">14.8365821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6789522171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2351226806641</t>
+    <t xml:space="preserve">15.6789512634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2351236343384</t>
   </si>
   <si>
     <t xml:space="preserve">15.5521450042725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2640590667725</t>
+    <t xml:space="preserve">17.2640571594238</t>
   </si>
   <si>
     <t xml:space="preserve">17.8890438079834</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">18.3328723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.133602142334</t>
+    <t xml:space="preserve">18.1336002349854</t>
   </si>
   <si>
     <t xml:space="preserve">18.0249080657959</t>
@@ -2105,16 +2105,16 @@
     <t xml:space="preserve">18.7314128875732</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4415664672852</t>
+    <t xml:space="preserve">18.4415645599365</t>
   </si>
   <si>
     <t xml:space="preserve">19.0574913024902</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944530487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8038749694824</t>
+    <t xml:space="preserve">18.8944511413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8038768768311</t>
   </si>
   <si>
     <t xml:space="preserve">18.4596786499023</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">17.8256378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4053325653076</t>
+    <t xml:space="preserve">18.4053344726562</t>
   </si>
   <si>
     <t xml:space="preserve">18.7132968902588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5103797912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7821102142334</t>
+    <t xml:space="preserve">19.5103778839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.782112121582</t>
   </si>
   <si>
     <t xml:space="preserve">20.3618049621582</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">20.0357265472412</t>
   </si>
   <si>
-    <t xml:space="preserve">19.528491973877</t>
+    <t xml:space="preserve">19.5284938812256</t>
   </si>
   <si>
     <t xml:space="preserve">19.5647239685059</t>
@@ -2165,28 +2165,28 @@
     <t xml:space="preserve">17.8528099060059</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8437557220459</t>
+    <t xml:space="preserve">17.8437538146973</t>
   </si>
   <si>
     <t xml:space="preserve">17.898099899292</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6082534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5176773071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9470367431641</t>
+    <t xml:space="preserve">17.6082515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5176753997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9470348358154</t>
   </si>
   <si>
     <t xml:space="preserve">17.0829029083252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9651508331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1463088989258</t>
+    <t xml:space="preserve">16.9651527404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1463069915771</t>
   </si>
   <si>
     <t xml:space="preserve">17.0376148223877</t>
@@ -2201,22 +2201,22 @@
     <t xml:space="preserve">17.4814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3818092346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2785243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0792541503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7169456481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5267333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2422943115234</t>
+    <t xml:space="preserve">17.3818073272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2785263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0792560577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7169437408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5267314910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2422924041748</t>
   </si>
   <si>
     <t xml:space="preserve">18.0158500671387</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">18.0520820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3365173339844</t>
+    <t xml:space="preserve">17.336519241333</t>
   </si>
   <si>
     <t xml:space="preserve">17.2278270721436</t>
@@ -2243,22 +2243,22 @@
     <t xml:space="preserve">18.070198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1879482269287</t>
+    <t xml:space="preserve">18.1879463195801</t>
   </si>
   <si>
     <t xml:space="preserve">18.1698322296143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9705638885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6173095703125</t>
+    <t xml:space="preserve">17.9705619812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6173114776611</t>
   </si>
   <si>
     <t xml:space="preserve">17.7078876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6897716522217</t>
+    <t xml:space="preserve">17.6897735595703</t>
   </si>
   <si>
     <t xml:space="preserve">17.8709259033203</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">16.7572650909424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3232650756836</t>
+    <t xml:space="preserve">17.323263168335</t>
   </si>
   <si>
     <t xml:space="preserve">16.6273651123047</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">14.7066822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.880880355835</t>
+    <t xml:space="preserve">13.8808813095093</t>
   </si>
   <si>
     <t xml:space="preserve">14.0200605392456</t>
@@ -2300,31 +2300,31 @@
     <t xml:space="preserve">13.3891124725342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9736680984497</t>
+    <t xml:space="preserve">13.9736671447754</t>
   </si>
   <si>
     <t xml:space="preserve">13.9179954528809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5561275482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0272436141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1478672027588</t>
+    <t xml:space="preserve">13.5561265945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0272445678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1478662490845</t>
   </si>
   <si>
     <t xml:space="preserve">13.0921945571899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3798332214355</t>
+    <t xml:space="preserve">13.3798341751099</t>
   </si>
   <si>
     <t xml:space="preserve">13.454062461853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1757020950317</t>
+    <t xml:space="preserve">13.1757030487061</t>
   </si>
   <si>
     <t xml:space="preserve">13.2128162384033</t>
@@ -2333,34 +2333,34 @@
     <t xml:space="preserve">14.001503944397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7788162231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5582227706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5025510787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.66028881073</t>
+    <t xml:space="preserve">13.7788152694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5582237243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5025520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6602897644043</t>
   </si>
   <si>
     <t xml:space="preserve">13.9087162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716011047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7695379257202</t>
+    <t xml:space="preserve">13.8716020584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7695369720459</t>
   </si>
   <si>
     <t xml:space="preserve">14.5953378677368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2613067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1622323989868</t>
+    <t xml:space="preserve">14.261305809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1622314453125</t>
   </si>
   <si>
     <t xml:space="preserve">10.8189220428467</t>
@@ -2372,28 +2372,28 @@
     <t xml:space="preserve">10.2714805603027</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4663314819336</t>
+    <t xml:space="preserve">10.4663324356079</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756116867065</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6519050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9209871292114</t>
+    <t xml:space="preserve">10.6519060134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9209880828857</t>
   </si>
   <si>
     <t xml:space="preserve">10.9859380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5405607223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7446928024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5962343215942</t>
+    <t xml:space="preserve">10.5405616760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7446918487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5962333679199</t>
   </si>
   <si>
     <t xml:space="preserve">10.3549890518188</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">9.96528434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71476078033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58485889434814</t>
+    <t xml:space="preserve">9.71476173400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58485984802246</t>
   </si>
   <si>
     <t xml:space="preserve">10.150857925415</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">10.5034465789795</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7261362075806</t>
+    <t xml:space="preserve">10.7261352539062</t>
   </si>
   <si>
     <t xml:space="preserve">10.0859079360962</t>
@@ -2450,31 +2450,31 @@
     <t xml:space="preserve">10.1137428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1786947250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55702495574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34361362457275</t>
+    <t xml:space="preserve">10.1786937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5570240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34361457824707</t>
   </si>
   <si>
     <t xml:space="preserve">9.63125324249268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26474666595459</t>
+    <t xml:space="preserve">9.26474571228027</t>
   </si>
   <si>
     <t xml:space="preserve">9.45495796203613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49207210540771</t>
+    <t xml:space="preserve">9.49207305908203</t>
   </si>
   <si>
     <t xml:space="preserve">9.52918815612793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25546646118164</t>
+    <t xml:space="preserve">9.25546741485596</t>
   </si>
   <si>
     <t xml:space="preserve">8.9910249710083</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93071460723877</t>
+    <t xml:space="preserve">8.93071365356445</t>
   </si>
   <si>
     <t xml:space="preserve">9.59413814544678</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">9.16732025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93744945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0302362442017</t>
+    <t xml:space="preserve">9.93744850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0302352905273</t>
   </si>
   <si>
     <t xml:space="preserve">10.0487928390503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.29931640625</t>
+    <t xml:space="preserve">10.2993173599243</t>
   </si>
   <si>
     <t xml:space="preserve">10.4941692352295</t>
@@ -2522,10 +2522,10 @@
     <t xml:space="preserve">9.66836738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72403907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57558059692383</t>
+    <t xml:space="preserve">9.72403812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57558155059814</t>
   </si>
   <si>
     <t xml:space="preserve">9.85394096374512</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">9.31577777862549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44568061828613</t>
+    <t xml:space="preserve">9.44567966461182</t>
   </si>
   <si>
     <t xml:space="preserve">9.70548248291016</t>
@@ -2549,19 +2549,19 @@
     <t xml:space="preserve">9.770432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87249851226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74259757995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0395135879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8075475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54774379730225</t>
+    <t xml:space="preserve">9.87249755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74259662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.039514541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80754661560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54774475097656</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364315032959</t>
@@ -2570,19 +2570,19 @@
     <t xml:space="preserve">10.1230220794678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7910861968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3457098007202</t>
+    <t xml:space="preserve">10.6426267623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7910852432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3457107543945</t>
   </si>
   <si>
     <t xml:space="preserve">10.568398475647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4106607437134</t>
+    <t xml:space="preserve">10.4106616973877</t>
   </si>
   <si>
     <t xml:space="preserve">11.4962644577026</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">11.7003946304321</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3035078048706</t>
+    <t xml:space="preserve">12.3035087585449</t>
   </si>
   <si>
     <t xml:space="preserve">12.0622625350952</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">12.2107210159302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2571144104004</t>
+    <t xml:space="preserve">12.2571153640747</t>
   </si>
   <si>
     <t xml:space="preserve">12.0344266891479</t>
@@ -2624,16 +2624,16 @@
     <t xml:space="preserve">11.8024606704712</t>
   </si>
   <si>
-    <t xml:space="preserve">12.136492729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.526195526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.333438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3241605758667</t>
+    <t xml:space="preserve">12.1364917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5261964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3334398269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.324161529541</t>
   </si>
   <si>
     <t xml:space="preserve">13.1571455001831</t>
@@ -2648,16 +2648,16 @@
     <t xml:space="preserve">13.2777681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8344869613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7880935668945</t>
+    <t xml:space="preserve">13.8344879150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7880945205688</t>
   </si>
   <si>
     <t xml:space="preserve">13.853045463562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4169483184814</t>
+    <t xml:space="preserve">13.4169473648071</t>
   </si>
   <si>
     <t xml:space="preserve">13.7973728179932</t>
@@ -2666,34 +2666,34 @@
     <t xml:space="preserve">13.8066520690918</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0942897796631</t>
+    <t xml:space="preserve">14.0942907333374</t>
   </si>
   <si>
     <t xml:space="preserve">14.2149124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2056341171265</t>
+    <t xml:space="preserve">14.2056350708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.0293397903442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7417011260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7602586746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5396661758423</t>
+    <t xml:space="preserve">13.7417020797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7602577209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.539665222168</t>
   </si>
   <si>
     <t xml:space="preserve">14.1963558197021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9272747039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.131404876709</t>
+    <t xml:space="preserve">13.9272737503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1314039230347</t>
   </si>
   <si>
     <t xml:space="preserve">14.112847328186</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">15.7366132736206</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8201198577881</t>
+    <t xml:space="preserve">15.8201217651367</t>
   </si>
   <si>
     <t xml:space="preserve">17.1840839385986</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">16.8871688842773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9613990783691</t>
+    <t xml:space="preserve">16.9613971710205</t>
   </si>
   <si>
     <t xml:space="preserve">16.8407745361328</t>
@@ -2723,28 +2723,28 @@
     <t xml:space="preserve">16.915002822876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2005481719971</t>
+    <t xml:space="preserve">16.2005462646484</t>
   </si>
   <si>
     <t xml:space="preserve">16.0892028808594</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0242519378662</t>
+    <t xml:space="preserve">16.0242538452148</t>
   </si>
   <si>
     <t xml:space="preserve">15.5603199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.762354850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4004859924316</t>
+    <t xml:space="preserve">14.7623538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.400486946106</t>
   </si>
   <si>
     <t xml:space="preserve">14.9293699264526</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3840255737305</t>
+    <t xml:space="preserve">15.3840246200562</t>
   </si>
   <si>
     <t xml:space="preserve">15.2912378311157</t>
@@ -2759,31 +2759,31 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376312255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0685501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2448434829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1613359451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1870775222778</t>
+    <t xml:space="preserve">15.3376331329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.068549156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2448444366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1613368988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1870765686035</t>
   </si>
   <si>
     <t xml:space="preserve">12.6746549606323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1086559295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0437049865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6540012359619</t>
+    <t xml:space="preserve">12.1086568832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0437059402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6540021896362</t>
   </si>
   <si>
     <t xml:space="preserve">11.3663625717163</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">9.36217212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10955238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02140522003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93789768218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58785104751587</t>
+    <t xml:space="preserve">8.10955142974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02140617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93789720535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58785152435303</t>
   </si>
   <si>
     <t xml:space="preserve">6.97755527496338</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">6.94508028030396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02394819259644</t>
+    <t xml:space="preserve">7.02394866943359</t>
   </si>
   <si>
     <t xml:space="preserve">6.94971895217896</t>
@@ -2825,16 +2825,16 @@
     <t xml:space="preserve">7.05178451538086</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51571798324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10027408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9075174331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39000797271729</t>
+    <t xml:space="preserve">7.51571846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10027313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90751838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000701904297</t>
   </si>
   <si>
     <t xml:space="preserve">9.0652551651001</t>
@@ -2855,13 +2855,13 @@
     <t xml:space="preserve">8.16522407531738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79407691955566</t>
+    <t xml:space="preserve">7.79407739639282</t>
   </si>
   <si>
     <t xml:space="preserve">7.97501182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8311915397644</t>
+    <t xml:space="preserve">7.83119201660156</t>
   </si>
   <si>
     <t xml:space="preserve">8.15594577789307</t>
@@ -2873,37 +2873,37 @@
     <t xml:space="preserve">7.46932458877563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33014440536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30230855941772</t>
+    <t xml:space="preserve">7.33014488220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30230808258057</t>
   </si>
   <si>
     <t xml:space="preserve">7.36725902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37653684616089</t>
+    <t xml:space="preserve">7.37653732299805</t>
   </si>
   <si>
     <t xml:space="preserve">7.15385007858276</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59922504425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8219141960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.979651927948</t>
+    <t xml:space="preserve">7.59922552108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82191324234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97965049743652</t>
   </si>
   <si>
     <t xml:space="preserve">7.64561891555786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38117742538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56211042404175</t>
+    <t xml:space="preserve">7.38117694854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56211090087891</t>
   </si>
   <si>
     <t xml:space="preserve">7.34870147705078</t>
@@ -2912,10 +2912,10 @@
     <t xml:space="preserve">7.18632507324219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14457035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20024299621582</t>
+    <t xml:space="preserve">7.14457082748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20024347305298</t>
   </si>
   <si>
     <t xml:space="preserve">7.10745620727539</t>
@@ -2924,25 +2924,25 @@
     <t xml:space="preserve">6.9682765007019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60850429534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58530759811401</t>
+    <t xml:space="preserve">7.6085033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58530807495117</t>
   </si>
   <si>
     <t xml:space="preserve">7.48788118362427</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31158685684204</t>
+    <t xml:space="preserve">7.3115873336792</t>
   </si>
   <si>
     <t xml:space="preserve">7.76624155044556</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51781463623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71730422973633</t>
+    <t xml:space="preserve">8.51781368255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71730518341064</t>
   </si>
   <si>
     <t xml:space="preserve">8.9539098739624</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">8.59204196929932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74050140380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92607402801514</t>
+    <t xml:space="preserve">8.74050045013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92607498168945</t>
   </si>
   <si>
     <t xml:space="preserve">9.38072872161865</t>
@@ -2963,19 +2963,19 @@
     <t xml:space="preserve">11.0694456100464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5519371032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5612154006958</t>
+    <t xml:space="preserve">11.5519361495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5612144470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.3199701309204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0044946670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88177585601807</t>
+    <t xml:space="preserve">11.0044937133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88177680969238</t>
   </si>
   <si>
     <t xml:space="preserve">9.79826927185059</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">10.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2529230117798</t>
+    <t xml:space="preserve">10.2529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">10.0766277313232</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">9.94672775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.438497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4199380874634</t>
+    <t xml:space="preserve">10.4384956359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4199390411377</t>
   </si>
   <si>
     <t xml:space="preserve">10.2807598114014</t>
@@ -3005,13 +3005,13 @@
     <t xml:space="preserve">10.7354135513306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6055126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.828200340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0900983810425</t>
+    <t xml:space="preserve">10.6055135726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0900993347168</t>
   </si>
   <si>
     <t xml:space="preserve">11.505542755127</t>
@@ -3029,22 +3029,22 @@
     <t xml:space="preserve">11.8859691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7746238708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7282314300537</t>
+    <t xml:space="preserve">11.7746229171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7282304763794</t>
   </si>
   <si>
     <t xml:space="preserve">11.6354446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4127559661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.338526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.208625793457</t>
+    <t xml:space="preserve">11.4127569198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3385276794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086248397827</t>
   </si>
   <si>
     <t xml:space="preserve">10.8745937347412</t>
@@ -3053,22 +3053,22 @@
     <t xml:space="preserve">12.0715417861938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.387017250061</t>
+    <t xml:space="preserve">12.3870162963867</t>
   </si>
   <si>
     <t xml:space="preserve">12.8973426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7767210006714</t>
+    <t xml:space="preserve">12.7767200469971</t>
   </si>
   <si>
     <t xml:space="preserve">13.1293087005615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.472620010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3612756729126</t>
+    <t xml:space="preserve">13.4726190567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3612747192383</t>
   </si>
   <si>
     <t xml:space="preserve">13.5190124511719</t>
@@ -3077,40 +3077,40 @@
     <t xml:space="preserve">13.203537940979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056049346924</t>
+    <t xml:space="preserve">13.3056039810181</t>
   </si>
   <si>
     <t xml:space="preserve">13.0829162597656</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2684898376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6210784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4262275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6489152908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4447832107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.222095489502</t>
+    <t xml:space="preserve">13.2684888839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6210775375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4262266159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6489143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4447841644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2220964431763</t>
   </si>
   <si>
     <t xml:space="preserve">13.5746850967407</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1849813461304</t>
+    <t xml:space="preserve">13.1849803924561</t>
   </si>
   <si>
     <t xml:space="preserve">13.2406539916992</t>
   </si>
   <si>
-    <t xml:space="preserve">13.342719078064</t>
+    <t xml:space="preserve">13.3427181243896</t>
   </si>
   <si>
     <t xml:space="preserve">13.3519973754883</t>
@@ -3119,43 +3119,43 @@
     <t xml:space="preserve">13.1200304031372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2499313354492</t>
+    <t xml:space="preserve">13.2499322891235</t>
   </si>
   <si>
     <t xml:space="preserve">13.4076681137085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4633407592773</t>
+    <t xml:space="preserve">13.4633417129517</t>
   </si>
   <si>
     <t xml:space="preserve">12.5818681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4519662857056</t>
+    <t xml:space="preserve">12.4519672393799</t>
   </si>
   <si>
     <t xml:space="preserve">12.7024898529053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4055728912354</t>
+    <t xml:space="preserve">12.4055738449097</t>
   </si>
   <si>
     <t xml:space="preserve">12.8602275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.583963394165</t>
+    <t xml:space="preserve">13.5839643478394</t>
   </si>
   <si>
     <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5282907485962</t>
+    <t xml:space="preserve">13.5282926559448</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561868667603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6623830795288</t>
+    <t xml:space="preserve">15.6623840332031</t>
   </si>
   <si>
     <t xml:space="preserve">15.9221858978271</t>
@@ -3164,22 +3164,22 @@
     <t xml:space="preserve">16.2376613616943</t>
   </si>
   <si>
-    <t xml:space="preserve">15.448974609375</t>
+    <t xml:space="preserve">15.4489755630493</t>
   </si>
   <si>
     <t xml:space="preserve">15.5510406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8458623886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6046171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6788463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7994689941406</t>
+    <t xml:space="preserve">14.8458614349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6046161651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6788454055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7994680404663</t>
   </si>
   <si>
     <t xml:space="preserve">14.4376010894775</t>
@@ -3206,19 +3206,19 @@
     <t xml:space="preserve">15.7644500732422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5046472549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1891736984253</t>
+    <t xml:space="preserve">15.5046453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1891746520996</t>
   </si>
   <si>
     <t xml:space="preserve">15.0035991668701</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4768104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8665170669556</t>
+    <t xml:space="preserve">15.4768114089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8665161132812</t>
   </si>
   <si>
     <t xml:space="preserve">15.6716623306274</t>
@@ -3227,37 +3227,37 @@
     <t xml:space="preserve">16.246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036293029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9314641952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0149726867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2098255157471</t>
+    <t xml:space="preserve">15.9036302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9314661026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0149745941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2098236083984</t>
   </si>
   <si>
     <t xml:space="preserve">15.9407434463501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9685802459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4396953582764</t>
+    <t xml:space="preserve">15.9685792922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4396963119507</t>
   </si>
   <si>
     <t xml:space="preserve">15.7273368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5232048034668</t>
+    <t xml:space="preserve">15.5232028961182</t>
   </si>
   <si>
     <t xml:space="preserve">15.6809415817261</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0428104400635</t>
+    <t xml:space="preserve">16.0428123474121</t>
   </si>
   <si>
     <t xml:space="preserve">16.1912670135498</t>
@@ -3269,13 +3269,13 @@
     <t xml:space="preserve">16.6088085174561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8892650604248</t>
+    <t xml:space="preserve">17.8892631530762</t>
   </si>
   <si>
     <t xml:space="preserve">17.4902820587158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.564510345459</t>
+    <t xml:space="preserve">17.5645122528076</t>
   </si>
   <si>
     <t xml:space="preserve">17.2119197845459</t>
@@ -3284,10 +3284,10 @@
     <t xml:space="preserve">17.3603801727295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6387405395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5459537506104</t>
+    <t xml:space="preserve">17.6387386322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5459518432617</t>
   </si>
   <si>
     <t xml:space="preserve">17.666576385498</t>
@@ -3299,13 +3299,13 @@
     <t xml:space="preserve">17.7222499847412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6480197906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1397857666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5202121734619</t>
+    <t xml:space="preserve">17.6480178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1397876739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5202102661133</t>
   </si>
   <si>
     <t xml:space="preserve">18.872802734375</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">19.540864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5594234466553</t>
+    <t xml:space="preserve">19.5594253540039</t>
   </si>
   <si>
     <t xml:space="preserve">18.8356857299805</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">19.3552932739258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2996196746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4480781555176</t>
+    <t xml:space="preserve">19.2996215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4480762481689</t>
   </si>
   <si>
     <t xml:space="preserve">19.3738498687744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6501159667969</t>
+    <t xml:space="preserve">18.6501140594482</t>
   </si>
   <si>
     <t xml:space="preserve">18.6686725616455</t>
@@ -3350,13 +3350,13 @@
     <t xml:space="preserve">18.074836730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2882442474365</t>
+    <t xml:space="preserve">18.2882461547852</t>
   </si>
   <si>
     <t xml:space="preserve">19.392406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0790271759033</t>
+    <t xml:space="preserve">20.079029083252</t>
   </si>
   <si>
     <t xml:space="preserve">20.7285346984863</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">21.3409271240234</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4337120056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3038101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8811855316162</t>
+    <t xml:space="preserve">21.4337139129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3038120269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8811836242676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8997421264648</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4172515869141</t>
+    <t xml:space="preserve">22.4172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">21.9718761444092</t>
@@ -3392,7 +3392,7 @@
     <t xml:space="preserve">22.6028251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8419742584229</t>
+    <t xml:space="preserve">21.8419761657715</t>
   </si>
   <si>
     <t xml:space="preserve">20.6543064117432</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">20.747091293335</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8398761749268</t>
+    <t xml:space="preserve">20.8398780822754</t>
   </si>
   <si>
     <t xml:space="preserve">20.3017158508301</t>
@@ -3416,10 +3416,10 @@
     <t xml:space="preserve">21.3223686218262</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5800762176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9862422943115</t>
+    <t xml:space="preserve">20.5800743103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9862442016602</t>
   </si>
   <si>
     <t xml:space="preserve">20.7656478881836</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">20.9697799682617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2110252380371</t>
+    <t xml:space="preserve">21.2110271453857</t>
   </si>
   <si>
     <t xml:space="preserve">21.2295818328857</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">20.338830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0604724884033</t>
+    <t xml:space="preserve">20.0604705810547</t>
   </si>
   <si>
     <t xml:space="preserve">20.2460441589355</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">20.2274856567383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7264404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9676856994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9141082763672</t>
+    <t xml:space="preserve">19.7264385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9676837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9141101837158</t>
   </si>
   <si>
     <t xml:space="preserve">20.4316177368164</t>
@@ -3464,13 +3464,13 @@
     <t xml:space="preserve">22.305908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6770534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1945648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3430213928223</t>
+    <t xml:space="preserve">22.6770553588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1945629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3430233001709</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687931060791</t>
@@ -3479,73 +3479,73 @@
     <t xml:space="preserve">22.1388912200928</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3801364898682</t>
+    <t xml:space="preserve">22.3801383972168</t>
   </si>
   <si>
     <t xml:space="preserve">22.1574478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3265609741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9203948974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8647232055664</t>
+    <t xml:space="preserve">23.3265590667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9203968048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8647212982178</t>
   </si>
   <si>
     <t xml:space="preserve">24.532787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0317401885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1781005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0482006072998</t>
+    <t xml:space="preserve">24.03173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1781024932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0482025146484</t>
   </si>
   <si>
     <t xml:space="preserve">23.4379043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5306911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7162647247314</t>
+    <t xml:space="preserve">23.5306930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7162628173828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2708892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">22.714168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9368572235107</t>
+    <t xml:space="preserve">22.7141666412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9368553161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.4729232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">23.623477935791</t>
+    <t xml:space="preserve">23.6234760284424</t>
   </si>
   <si>
     <t xml:space="preserve">23.883279800415</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9018363952637</t>
+    <t xml:space="preserve">23.9018383026123</t>
   </si>
   <si>
     <t xml:space="preserve">23.363676071167</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8440685272217</t>
+    <t xml:space="preserve">22.8440704345703</t>
   </si>
   <si>
     <t xml:space="preserve">23.7719383239746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2194080352783</t>
+    <t xml:space="preserve">25.219409942627</t>
   </si>
   <si>
     <t xml:space="preserve">26.9081249237061</t>
@@ -3560,13 +3560,13 @@
     <t xml:space="preserve">27.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5390758514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6504173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3184814453125</t>
+    <t xml:space="preserve">27.5390739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6504154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3184833526611</t>
   </si>
   <si>
     <t xml:space="preserve">28.2071380615234</t>
@@ -3578,16 +3578,16 @@
     <t xml:space="preserve">27.724645614624</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5576324462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2607116699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0565814971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6483211517334</t>
+    <t xml:space="preserve">27.5576305389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2607135772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0565853118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.648323059082</t>
   </si>
   <si>
     <t xml:space="preserve">26.0730457305908</t>
@@ -3599,19 +3599,19 @@
     <t xml:space="preserve">26.7967796325684</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6112098693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.536979675293</t>
+    <t xml:space="preserve">26.6112079620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5369777679443</t>
   </si>
   <si>
     <t xml:space="preserve">26.1472759246826</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6462249755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0544872283936</t>
+    <t xml:space="preserve">25.6462268829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0544891357422</t>
   </si>
   <si>
     <t xml:space="preserve">26.407075881958</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">26.2771759033203</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1101589202881</t>
+    <t xml:space="preserve">26.1101570129395</t>
   </si>
   <si>
     <t xml:space="preserve">26.815336227417</t>
@@ -3629,13 +3629,13 @@
     <t xml:space="preserve">26.4813079833984</t>
   </si>
   <si>
-    <t xml:space="preserve">26.666877746582</t>
+    <t xml:space="preserve">26.6668796539307</t>
   </si>
   <si>
     <t xml:space="preserve">25.5905532836914</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8895664215088</t>
+    <t xml:space="preserve">26.8895683288574</t>
   </si>
   <si>
     <t xml:space="preserve">26.8710098266602</t>
@@ -3644,16 +3644,16 @@
     <t xml:space="preserve">26.9823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5926475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6854381561279</t>
+    <t xml:space="preserve">26.5926494598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6854362487793</t>
   </si>
   <si>
     <t xml:space="preserve">25.5719966888428</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5163249969482</t>
+    <t xml:space="preserve">25.5163269042969</t>
   </si>
   <si>
     <t xml:space="preserve">26.7411079406738</t>
@@ -3662,19 +3662,19 @@
     <t xml:space="preserve">27.3535003662109</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6318607330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0793323516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.638147354126</t>
+    <t xml:space="preserve">27.6318626403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0793304443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6381492614746</t>
   </si>
   <si>
     <t xml:space="preserve">31.139196395874</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7659568786621</t>
+    <t xml:space="preserve">29.7659549713135</t>
   </si>
   <si>
     <t xml:space="preserve">27.1864852905273</t>
@@ -3683,13 +3683,13 @@
     <t xml:space="preserve">27.0380249023438</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5019569396973</t>
+    <t xml:space="preserve">27.5019588470459</t>
   </si>
   <si>
     <t xml:space="preserve">27.7803211212158</t>
   </si>
   <si>
-    <t xml:space="preserve">26.945240020752</t>
+    <t xml:space="preserve">26.9452381134033</t>
   </si>
   <si>
     <t xml:space="preserve">27.0936985015869</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">28.0586795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7432022094727</t>
+    <t xml:space="preserve">27.7432041168213</t>
   </si>
   <si>
     <t xml:space="preserve">27.3906154632568</t>
@@ -3710,13 +3710,13 @@
     <t xml:space="preserve">27.3720588684082</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5205173492432</t>
+    <t xml:space="preserve">27.5205154418945</t>
   </si>
   <si>
     <t xml:space="preserve">26.7782249450684</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4091720581055</t>
+    <t xml:space="preserve">27.4091739654541</t>
   </si>
   <si>
     <t xml:space="preserve">27.9287776947021</t>
@@ -3731,19 +3731,19 @@
     <t xml:space="preserve">28.8380870819092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1885795593262</t>
+    <t xml:space="preserve">28.1885814666748</t>
   </si>
   <si>
     <t xml:space="preserve">27.9658908843994</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5040531158447</t>
+    <t xml:space="preserve">28.5040550231934</t>
   </si>
   <si>
     <t xml:space="preserve">28.0772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.854549407959</t>
+    <t xml:space="preserve">27.8545475006104</t>
   </si>
   <si>
     <t xml:space="preserve">27.205041885376</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">27.9844493865967</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1329097747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4669418334961</t>
+    <t xml:space="preserve">28.1329078674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4669399261475</t>
   </si>
   <si>
     <t xml:space="preserve">28.4483833312988</t>
@@ -3767,16 +3767,16 @@
     <t xml:space="preserve">28.2442531585693</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9473361968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4441909790039</t>
+    <t xml:space="preserve">27.9473342895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4441928863525</t>
   </si>
   <si>
     <t xml:space="preserve">27.1493701934814</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3699626922607</t>
+    <t xml:space="preserve">26.3699607849121</t>
   </si>
   <si>
     <t xml:space="preserve">25.6647834777832</t>
@@ -3788,13 +3788,13 @@
     <t xml:space="preserve">24.2358703613281</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1080646514893</t>
+    <t xml:space="preserve">25.1080627441406</t>
   </si>
   <si>
     <t xml:space="preserve">24.4956722259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8461666107178</t>
+    <t xml:space="preserve">23.8461647033691</t>
   </si>
   <si>
     <t xml:space="preserve">23.4750194549561</t>
@@ -3806,37 +3806,37 @@
     <t xml:space="preserve">24.1987552642822</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3472118377686</t>
+    <t xml:space="preserve">24.3472137451172</t>
   </si>
   <si>
     <t xml:space="preserve">24.8853759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7740345001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3864250183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2379665374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0523910522461</t>
+    <t xml:space="preserve">24.7740325927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3864231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.237964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0523929595947</t>
   </si>
   <si>
     <t xml:space="preserve">25.1266212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9596061706543</t>
+    <t xml:space="preserve">24.9596042633057</t>
   </si>
   <si>
     <t xml:space="preserve">25.3307514190674</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8111457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6833419799805</t>
+    <t xml:space="preserve">24.8111476898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6833400726318</t>
   </si>
   <si>
     <t xml:space="preserve">25.0152778625488</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">25.0709495544434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9781627655029</t>
+    <t xml:space="preserve">24.9781608581543</t>
   </si>
   <si>
     <t xml:space="preserve">24.4028854370117</t>
@@ -3854,10 +3854,10 @@
     <t xml:space="preserve">24.4400005340576</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0131797790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6605911254883</t>
+    <t xml:space="preserve">24.0131816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6605930328369</t>
   </si>
   <si>
     <t xml:space="preserve">23.2894458770752</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">21.9533195495605</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0089893341064</t>
+    <t xml:space="preserve">22.0089874267578</t>
   </si>
   <si>
     <t xml:space="preserve">21.1553516387939</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8213214874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8605327606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5821723937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.656400680542</t>
+    <t xml:space="preserve">20.8213233947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8605308532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5821704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6564025878906</t>
   </si>
   <si>
     <t xml:space="preserve">22.7883987426758</t>
@@ -3902,7 +3902,7 @@
     <t xml:space="preserve">22.1203346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6584968566895</t>
+    <t xml:space="preserve">22.6584987640381</t>
   </si>
   <si>
     <t xml:space="preserve">22.6399402618408</t>
@@ -3917,16 +3917,16 @@
     <t xml:space="preserve">22.9925289154053</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0667572021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4358081817627</t>
+    <t xml:space="preserve">23.0667591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4358100891113</t>
   </si>
   <si>
     <t xml:space="preserve">21.507942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4893856048584</t>
+    <t xml:space="preserve">21.4893836975098</t>
   </si>
   <si>
     <t xml:space="preserve">21.9347610473633</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">20.0419139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1903743743896</t>
+    <t xml:space="preserve">20.190372467041</t>
   </si>
   <si>
     <t xml:space="preserve">21.006893157959</t>
@@ -3944,13 +3944,13 @@
     <t xml:space="preserve">20.5615196228027</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3945007324219</t>
+    <t xml:space="preserve">20.3945026397705</t>
   </si>
   <si>
     <t xml:space="preserve">19.9305686950684</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9326629638672</t>
+    <t xml:space="preserve">20.9326648712158</t>
   </si>
   <si>
     <t xml:space="preserve">20.3202724456787</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">20.6171894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8769950866699</t>
+    <t xml:space="preserve">20.8769912719727</t>
   </si>
   <si>
     <t xml:space="preserve">20.4872894287109</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">20.1347007751465</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0954875946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6129989624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7779197692871</t>
+    <t xml:space="preserve">19.0954895019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6129970550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7779178619385</t>
   </si>
   <si>
     <t xml:space="preserve">18.2325744628906</t>
@@ -3989,16 +3989,16 @@
     <t xml:space="preserve">17.4624443054199</t>
   </si>
   <si>
-    <t xml:space="preserve">15.170615196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.319073677063</t>
+    <t xml:space="preserve">15.1706161499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3190746307373</t>
   </si>
   <si>
     <t xml:space="preserve">16.3768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4582529067993</t>
+    <t xml:space="preserve">15.4582538604736</t>
   </si>
   <si>
     <t xml:space="preserve">16.3304481506348</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">13.5468492507935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2984218597412</t>
+    <t xml:space="preserve">14.2984209060669</t>
   </si>
   <si>
     <t xml:space="preserve">14.1406831741333</t>
@@ -4022,7 +4022,7 @@
     <t xml:space="preserve">14.9015331268311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3448143005371</t>
+    <t xml:space="preserve">14.3448133468628</t>
   </si>
   <si>
     <t xml:space="preserve">14.3355350494385</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">15.9129076004028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7458915710449</t>
+    <t xml:space="preserve">15.7458925247192</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221265792847</t>
@@ -4046,10 +4046,10 @@
     <t xml:space="preserve">13.8994379043579</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4468784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9458312988281</t>
+    <t xml:space="preserve">14.4468793869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9458322525024</t>
   </si>
   <si>
     <t xml:space="preserve">13.6953077316284</t>
@@ -4058,7 +4058,7 @@
     <t xml:space="preserve">13.8901605606079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8787851333618</t>
+    <t xml:space="preserve">12.8787860870361</t>
   </si>
   <si>
     <t xml:space="preserve">12.7859983444214</t>
@@ -4067,28 +4067,28 @@
     <t xml:space="preserve">13.4355049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0314359664917</t>
+    <t xml:space="preserve">15.031436920166</t>
   </si>
   <si>
     <t xml:space="preserve">15.1335000991821</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3933038711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4304170608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242208480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3210411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579359054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0219526290894</t>
+    <t xml:space="preserve">15.3933029174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4304180145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3210420608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0219535827637</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368171691895</t>
@@ -4097,28 +4097,28 @@
     <t xml:space="preserve">15.5622406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0735855102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6297779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8034410476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.870979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.121826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9481620788574</t>
+    <t xml:space="preserve">16.0735874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6297788619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8034420013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8709783554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1218242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9481639862061</t>
   </si>
   <si>
     <t xml:space="preserve">15.7359056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4078741073608</t>
+    <t xml:space="preserve">15.4078731536865</t>
   </si>
   <si>
     <t xml:space="preserve">14.6360330581665</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">13.2177743911743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0923500061035</t>
+    <t xml:space="preserve">13.0923509597778</t>
   </si>
   <si>
     <t xml:space="preserve">13.1405906677246</t>
@@ -4157,10 +4157,10 @@
     <t xml:space="preserve">12.8222064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9186878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6678380966187</t>
+    <t xml:space="preserve">12.9186868667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.667839050293</t>
   </si>
   <si>
     <t xml:space="preserve">12.195086479187</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">12.7932624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7546710968018</t>
+    <t xml:space="preserve">12.7546701431274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2722702026367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9669256210327</t>
+    <t xml:space="preserve">12.966926574707</t>
   </si>
   <si>
     <t xml:space="preserve">13.2467184066772</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">12.5038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.851149559021</t>
+    <t xml:space="preserve">12.8511505126953</t>
   </si>
   <si>
     <t xml:space="preserve">13.3817911148071</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">13.3914394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5520629882812</t>
+    <t xml:space="preserve">12.5520620346069</t>
   </si>
   <si>
     <t xml:space="preserve">12.6774873733521</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">12.4652299880981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3205108642578</t>
+    <t xml:space="preserve">12.3205099105835</t>
   </si>
   <si>
     <t xml:space="preserve">11.9345893859863</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">12.0793104171753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2240295410156</t>
+    <t xml:space="preserve">12.2240304946899</t>
   </si>
   <si>
     <t xml:space="preserve">12.2915658950806</t>
@@ -4262,25 +4262,25 @@
     <t xml:space="preserve">12.3783979415894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1854372024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2529745101929</t>
+    <t xml:space="preserve">12.1854381561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2529735565186</t>
   </si>
   <si>
     <t xml:space="preserve">11.9152936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336778640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5583162307739</t>
+    <t xml:space="preserve">12.233678817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5583171844482</t>
   </si>
   <si>
     <t xml:space="preserve">11.5293731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3943004608154</t>
+    <t xml:space="preserve">11.3943014144897</t>
   </si>
   <si>
     <t xml:space="preserve">11.7319812774658</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">11.3364133834839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9987325668335</t>
+    <t xml:space="preserve">10.9987316131592</t>
   </si>
   <si>
     <t xml:space="preserve">11.0083799362183</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">11.7223329544067</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6355009078979</t>
+    <t xml:space="preserve">11.6355018615723</t>
   </si>
   <si>
     <t xml:space="preserve">11.645149230957</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">11.9635334014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7898693084717</t>
+    <t xml:space="preserve">11.789870262146</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125581741333</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">12.156494140625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3301582336426</t>
+    <t xml:space="preserve">12.3301572799683</t>
   </si>
   <si>
     <t xml:space="preserve">12.2626218795776</t>
@@ -4403,10 +4403,7 @@
     <t xml:space="preserve">12.63889503479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012132644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757898330688</t>
+    <t xml:space="preserve">12.3012142181396</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415031433105</t>
@@ -4421,34 +4418,34 @@
     <t xml:space="preserve">12.3976945877075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3880462646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5327653884888</t>
+    <t xml:space="preserve">12.3880453109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5327663421631</t>
   </si>
   <si>
     <t xml:space="preserve">12.0600137710571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9924774169922</t>
+    <t xml:space="preserve">11.9924783706665</t>
   </si>
   <si>
     <t xml:space="preserve">12.1082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1275501251221</t>
+    <t xml:space="preserve">12.1275491714478</t>
   </si>
   <si>
     <t xml:space="preserve">12.5713577270508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8993902206421</t>
+    <t xml:space="preserve">12.8993911743164</t>
   </si>
   <si>
     <t xml:space="preserve">13.1598873138428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255987167358</t>
+    <t xml:space="preserve">13.8255996704102</t>
   </si>
   <si>
     <t xml:space="preserve">13.9124317169189</t>
@@ -4469,16 +4466,16 @@
     <t xml:space="preserve">14.2983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176488876343</t>
+    <t xml:space="preserve">14.31764793396</t>
   </si>
   <si>
     <t xml:space="preserve">13.8641910552979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931360244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2211675643921</t>
+    <t xml:space="preserve">13.8931350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2211685180664</t>
   </si>
   <si>
     <t xml:space="preserve">14.2790565490723</t>
@@ -4496,13 +4493,13 @@
     <t xml:space="preserve">14.2501125335693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8000497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0316009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202569961548</t>
+    <t xml:space="preserve">14.800048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0316019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202560424805</t>
   </si>
   <si>
     <t xml:space="preserve">14.4720163345337</t>
@@ -4511,22 +4508,22 @@
     <t xml:space="preserve">14.394832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5299053192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4141273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4334239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.655327796936</t>
+    <t xml:space="preserve">14.5299043655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4141283035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.433424949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6553287506104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6070890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6842737197876</t>
+    <t xml:space="preserve">14.6842727661133</t>
   </si>
   <si>
     <t xml:space="preserve">14.4430732727051</t>
@@ -4535,7 +4532,7 @@
     <t xml:space="preserve">16.1797142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9192180633545</t>
+    <t xml:space="preserve">15.9192190170288</t>
   </si>
   <si>
     <t xml:space="preserve">16.3437309265137</t>
@@ -4544,10 +4541,10 @@
     <t xml:space="preserve">16.4305629730225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8164825439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4209156036377</t>
+    <t xml:space="preserve">16.8164844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4209136962891</t>
   </si>
   <si>
     <t xml:space="preserve">16.2954902648926</t>
@@ -4556,10 +4553,10 @@
     <t xml:space="preserve">16.3244342803955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2376022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1121807098389</t>
+    <t xml:space="preserve">16.2376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1121788024902</t>
   </si>
   <si>
     <t xml:space="preserve">15.4464654922485</t>
@@ -4586,22 +4583,22 @@
     <t xml:space="preserve">14.1246881484985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0185604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1343364715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860967636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4686241149902</t>
+    <t xml:space="preserve">14.0185594558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1343355178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4686231613159</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194719314575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6326389312744</t>
+    <t xml:space="preserve">13.6326398849487</t>
   </si>
   <si>
     <t xml:space="preserve">13.5361595153809</t>
@@ -4616,7 +4613,7 @@
     <t xml:space="preserve">13.5072154998779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4300317764282</t>
+    <t xml:space="preserve">13.4300308227539</t>
   </si>
   <si>
     <t xml:space="preserve">13.2949590682983</t>
@@ -4631,7 +4628,7 @@
     <t xml:space="preserve">13.0441112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.333550453186</t>
+    <t xml:space="preserve">13.3335514068604</t>
   </si>
   <si>
     <t xml:space="preserve">13.1019992828369</t>
@@ -5175,6 +5172,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.8100004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6000003814697</t>
   </si>
 </sst>
 </file>
@@ -51268,7 +51268,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1760" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51320,7 +51320,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1762" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51372,7 +51372,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1764" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51424,7 +51424,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1766" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51450,7 +51450,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51476,7 +51476,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1768" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51502,7 +51502,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1769" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51554,7 +51554,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51580,7 +51580,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1772" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51632,7 +51632,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1774" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51658,7 +51658,7 @@
         <v>12.5</v>
       </c>
       <c r="G1775" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51710,7 +51710,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G1777" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51736,7 +51736,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51762,7 +51762,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1779" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51892,7 +51892,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1784" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51918,7 +51918,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1785" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51970,7 +51970,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1787" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51996,7 +51996,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1788" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52022,7 +52022,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1789" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52048,7 +52048,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1790" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52074,7 +52074,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1791" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52100,7 +52100,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52126,7 +52126,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G1793" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52152,7 +52152,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1794" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52178,7 +52178,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G1795" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52204,7 +52204,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1796" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52230,7 +52230,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52256,7 +52256,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52282,7 +52282,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1799" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52308,7 +52308,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1800" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52334,7 +52334,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52360,7 +52360,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1802" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52386,7 +52386,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52412,7 +52412,7 @@
         <v>14.7700004577637</v>
       </c>
       <c r="G1804" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52438,7 +52438,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1805" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52464,7 +52464,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52516,7 +52516,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1808" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52542,7 +52542,7 @@
         <v>15</v>
       </c>
       <c r="G1809" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52568,7 +52568,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1810" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52594,7 +52594,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G1811" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52620,7 +52620,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1812" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52646,7 +52646,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1813" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52672,7 +52672,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1814" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52698,7 +52698,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1815" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52724,7 +52724,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1816" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52750,7 +52750,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1817" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52776,7 +52776,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1818" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52802,7 +52802,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1819" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52828,7 +52828,7 @@
         <v>14.9700002670288</v>
       </c>
       <c r="G1820" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52854,7 +52854,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1821" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52880,7 +52880,7 @@
         <v>16.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52906,7 +52906,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1823" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52932,7 +52932,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1824" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52958,7 +52958,7 @@
         <v>17.4300003051758</v>
       </c>
       <c r="G1825" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53010,7 +53010,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1827" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53036,7 +53036,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1828" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53062,7 +53062,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1829" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53088,7 +53088,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1830" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53114,7 +53114,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1831" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53140,7 +53140,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1832" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53166,7 +53166,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1833" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53192,7 +53192,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1834" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53218,7 +53218,7 @@
         <v>15.25</v>
       </c>
       <c r="G1835" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53244,7 +53244,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53270,7 +53270,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1837" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53296,7 +53296,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1838" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53322,7 +53322,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1839" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53348,7 +53348,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1840" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53400,7 +53400,7 @@
         <v>14.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53426,7 +53426,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1843" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53452,7 +53452,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1844" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53478,7 +53478,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1845" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53504,7 +53504,7 @@
         <v>14.5299997329712</v>
       </c>
       <c r="G1846" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53530,7 +53530,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53556,7 +53556,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53582,7 +53582,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53634,7 +53634,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1851" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53660,7 +53660,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1852" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53686,7 +53686,7 @@
         <v>14.1300001144409</v>
       </c>
       <c r="G1853" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53712,7 +53712,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1854" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53738,7 +53738,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1855" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53764,7 +53764,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1856" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53790,7 +53790,7 @@
         <v>14</v>
       </c>
       <c r="G1857" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53816,7 +53816,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G1858" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53842,7 +53842,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1859" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53894,7 +53894,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1861" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53920,7 +53920,7 @@
         <v>13.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53946,7 +53946,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1863" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53972,7 +53972,7 @@
         <v>13.75</v>
       </c>
       <c r="G1864" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53998,7 +53998,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1865" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54050,7 +54050,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1867" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54102,7 +54102,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G1869" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54128,7 +54128,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1870" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54154,7 +54154,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1871" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54180,7 +54180,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1872" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54206,7 +54206,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G1873" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54232,7 +54232,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G1874" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54258,7 +54258,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G1875" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54284,7 +54284,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54310,7 +54310,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54336,7 +54336,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1878" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54362,7 +54362,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1879" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54388,7 +54388,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1880" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54414,7 +54414,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1881" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54440,7 +54440,7 @@
         <v>11.75</v>
       </c>
       <c r="G1882" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54466,7 +54466,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54492,7 +54492,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G1884" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54518,7 +54518,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1885" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54544,7 +54544,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54570,7 +54570,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54596,7 +54596,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1888" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54622,7 +54622,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1889" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54648,7 +54648,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54674,7 +54674,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1891" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54700,7 +54700,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1892" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54726,7 +54726,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1893" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54752,7 +54752,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54778,7 +54778,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1895" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54804,7 +54804,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54830,7 +54830,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1897" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54856,7 +54856,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1898" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54882,7 +54882,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1899" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54908,7 +54908,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1900" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54934,7 +54934,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1901" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54960,7 +54960,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1902" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54986,7 +54986,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55012,7 +55012,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1904" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55038,7 +55038,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1905" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55064,7 +55064,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1906" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55090,7 +55090,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1907" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55116,7 +55116,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1908" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55142,7 +55142,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1909" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55168,7 +55168,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55194,7 +55194,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1911" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55220,7 +55220,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55246,7 +55246,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1913" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55272,7 +55272,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1914" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55298,7 +55298,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1915" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55324,7 +55324,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1916" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55350,7 +55350,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1917" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55376,7 +55376,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1918" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55402,7 +55402,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55428,7 +55428,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1920" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55454,7 +55454,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55480,7 +55480,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55506,7 +55506,7 @@
         <v>12</v>
       </c>
       <c r="G1923" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55532,7 +55532,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55558,7 +55558,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1925" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55584,7 +55584,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55610,7 +55610,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1927" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55636,7 +55636,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1928" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55662,7 +55662,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1929" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55688,7 +55688,7 @@
         <v>12.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55714,7 +55714,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1931" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55740,7 +55740,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1932" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55766,7 +55766,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55792,7 +55792,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55818,7 +55818,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55844,7 +55844,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55870,7 +55870,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1937" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55896,7 +55896,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55922,7 +55922,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55948,7 +55948,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1940" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55974,7 +55974,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1941" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56000,7 +56000,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1942" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56026,7 +56026,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1943" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56052,7 +56052,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56078,7 +56078,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1945" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56104,7 +56104,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1946" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56130,7 +56130,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1947" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56156,7 +56156,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1948" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56182,7 +56182,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1949" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56208,7 +56208,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1950" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56234,7 +56234,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1951" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56260,7 +56260,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1952" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56286,7 +56286,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G1953" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56312,7 +56312,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1954" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56338,7 +56338,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56364,7 +56364,7 @@
         <v>12.5</v>
       </c>
       <c r="G1956" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56390,7 +56390,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1957" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56416,7 +56416,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56442,7 +56442,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1959" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56468,7 +56468,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56494,7 +56494,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1961" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56520,7 +56520,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1962" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56546,7 +56546,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1963" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56572,7 +56572,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1964" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56598,7 +56598,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1965" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56624,7 +56624,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1966" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56650,7 +56650,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G1967" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56676,7 +56676,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1968" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56702,7 +56702,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56728,7 +56728,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G1970" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56754,7 +56754,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56780,7 +56780,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56806,7 +56806,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56832,7 +56832,7 @@
         <v>10.9899997711182</v>
       </c>
       <c r="G1974" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56858,7 +56858,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1975" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56884,7 +56884,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56910,7 +56910,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1977" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56936,7 +56936,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1978" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56962,7 +56962,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56988,7 +56988,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57014,7 +57014,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57040,7 +57040,7 @@
         <v>11.25</v>
       </c>
       <c r="G1982" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57066,7 +57066,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1983" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57092,7 +57092,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57118,7 +57118,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1985" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57144,7 +57144,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G1986" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57170,7 +57170,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1987" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57196,7 +57196,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57222,7 +57222,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57248,7 +57248,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1990" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57274,7 +57274,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57300,7 +57300,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1992" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57326,7 +57326,7 @@
         <v>9.70499992370605</v>
       </c>
       <c r="G1993" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57352,7 +57352,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57378,7 +57378,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57404,7 +57404,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1996" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57430,7 +57430,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1997" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57456,7 +57456,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1998" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57482,7 +57482,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1999" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57508,7 +57508,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57534,7 +57534,7 @@
         <v>10.75</v>
       </c>
       <c r="G2001" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57560,7 +57560,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G2002" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57586,7 +57586,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2003" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57612,7 +57612,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2004" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57638,7 +57638,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2005" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57664,7 +57664,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G2006" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57690,7 +57690,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2007" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57716,7 +57716,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2008" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57742,7 +57742,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2009" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57768,7 +57768,7 @@
         <v>11.0900001525879</v>
       </c>
       <c r="G2010" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57794,7 +57794,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2011" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57820,7 +57820,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G2012" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57846,7 +57846,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2013" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57872,7 +57872,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2014" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57898,7 +57898,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57924,7 +57924,7 @@
         <v>11.5</v>
       </c>
       <c r="G2016" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57950,7 +57950,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57976,7 +57976,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2018" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58002,7 +58002,7 @@
         <v>11</v>
       </c>
       <c r="G2019" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58028,7 +58028,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2020" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58054,7 +58054,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58080,7 +58080,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G2022" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58106,7 +58106,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2023" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58132,7 +58132,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58158,7 +58158,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58184,7 +58184,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2026" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58210,7 +58210,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2027" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58236,7 +58236,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2028" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58262,7 +58262,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58288,7 +58288,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2030" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58314,7 +58314,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2031" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58340,7 +58340,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2032" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58366,7 +58366,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2033" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58392,7 +58392,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58418,7 +58418,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2035" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58444,7 +58444,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58470,7 +58470,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2037" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58496,7 +58496,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2038" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58522,7 +58522,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2039" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58548,7 +58548,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2040" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58574,7 +58574,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58600,7 +58600,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58626,7 +58626,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2043" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58652,7 +58652,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2044" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58678,7 +58678,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58704,7 +58704,7 @@
         <v>12</v>
       </c>
       <c r="G2046" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58730,7 +58730,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2047" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58756,7 +58756,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2048" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58782,7 +58782,7 @@
         <v>12</v>
       </c>
       <c r="G2049" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58808,7 +58808,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2050" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58834,7 +58834,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58860,7 +58860,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G2052" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58886,7 +58886,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2053" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58912,7 +58912,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G2054" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58938,7 +58938,7 @@
         <v>12.25</v>
       </c>
       <c r="G2055" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58964,7 +58964,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2056" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58990,7 +58990,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2057" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59016,7 +59016,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2058" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59042,7 +59042,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2059" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59068,7 +59068,7 @@
         <v>12.25</v>
       </c>
       <c r="G2060" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59094,7 +59094,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2061" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59120,7 +59120,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2062" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59146,7 +59146,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2063" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59172,7 +59172,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2064" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59198,7 +59198,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2065" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59224,7 +59224,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59250,7 +59250,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2067" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59276,7 +59276,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59302,7 +59302,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2069" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59328,7 +59328,7 @@
         <v>12.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59354,7 +59354,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2071" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59380,7 +59380,7 @@
         <v>12.25</v>
       </c>
       <c r="G2072" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59406,7 +59406,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2073" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59432,7 +59432,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59458,7 +59458,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2075" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59484,7 +59484,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2076" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59510,7 +59510,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2077" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59536,7 +59536,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G2078" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59562,7 +59562,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G2079" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59588,7 +59588,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59614,7 +59614,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2081" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59640,7 +59640,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2082" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59666,7 +59666,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59692,7 +59692,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2084" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59718,7 +59718,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2085" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59744,7 +59744,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59770,7 +59770,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2087" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59796,7 +59796,7 @@
         <v>11.7299995422363</v>
       </c>
       <c r="G2088" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59822,7 +59822,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59848,7 +59848,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G2090" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59874,7 +59874,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59900,7 +59900,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59926,7 +59926,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2093" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59952,7 +59952,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2094" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59978,7 +59978,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2095" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60004,7 +60004,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60030,7 +60030,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60056,7 +60056,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2098" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60082,7 +60082,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60108,7 +60108,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60134,7 +60134,7 @@
         <v>12.3699998855591</v>
       </c>
       <c r="G2101" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60160,7 +60160,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2102" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60186,7 +60186,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2103" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60212,7 +60212,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2104" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60238,7 +60238,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60264,7 +60264,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60290,7 +60290,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60316,7 +60316,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2108" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60342,7 +60342,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60368,7 +60368,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2110" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60394,7 +60394,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2111" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60420,7 +60420,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G2112" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60446,7 +60446,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G2113" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60472,7 +60472,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2114" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60498,7 +60498,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2115" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60524,7 +60524,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60550,7 +60550,7 @@
         <v>11.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60576,7 +60576,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2118" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60602,7 +60602,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2119" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60628,7 +60628,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2120" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60654,7 +60654,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2121" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60680,7 +60680,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2122" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60706,7 +60706,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2123" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60732,7 +60732,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2124" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60758,7 +60758,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60784,7 +60784,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60810,7 +60810,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60836,7 +60836,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2128" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60862,7 +60862,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2129" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60888,7 +60888,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G2130" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60914,7 +60914,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60940,7 +60940,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2132" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60966,7 +60966,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60992,7 +60992,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2134" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61018,7 +61018,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2135" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61044,7 +61044,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61070,7 +61070,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2137" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61096,7 +61096,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2138" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61122,7 +61122,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2139" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61148,7 +61148,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2140" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61174,7 +61174,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2141" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61200,7 +61200,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2142" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61226,7 +61226,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2143" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61252,7 +61252,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2144" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61278,7 +61278,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61304,7 +61304,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2146" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61330,7 +61330,7 @@
         <v>11.75</v>
       </c>
       <c r="G2147" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61356,7 +61356,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61382,7 +61382,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2149" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61408,7 +61408,7 @@
         <v>11.5</v>
       </c>
       <c r="G2150" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61434,7 +61434,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G2151" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61460,7 +61460,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2152" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61486,7 +61486,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2153" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61494,7 +61494,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6495949074</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>49317</v>
@@ -61512,9 +61512,35 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G2154" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6494791667</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>45959</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>10.9200000762939</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>10.5699996948242</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>10.9200000762939</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>10.6000003814697</v>
+      </c>
+      <c r="G2155" t="s">
         <v>1720</v>
       </c>
-      <c r="H2154" t="s">
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1722">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3280172348022</t>
+    <t xml:space="preserve">13.3280181884766</t>
   </si>
   <si>
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528583526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8206939697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4681463241577</t>
+    <t xml:space="preserve">13.0528593063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8206930160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4681453704834</t>
   </si>
   <si>
     <t xml:space="preserve">12.3133687973022</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">12.33056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.21018409729</t>
+    <t xml:space="preserve">12.2101831436157</t>
   </si>
   <si>
     <t xml:space="preserve">11.5480833053589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9203748703003</t>
+    <t xml:space="preserve">10.9203767776489</t>
   </si>
   <si>
     <t xml:space="preserve">9.85413455963135</t>
@@ -74,31 +74,31 @@
     <t xml:space="preserve">10.4130516052246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90572738647461</t>
+    <t xml:space="preserve">9.90572643280029</t>
   </si>
   <si>
     <t xml:space="preserve">10.5334339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3528594970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8429861068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8773822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7913951873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6366186141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6968088150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2496747970581</t>
+    <t xml:space="preserve">10.3528604507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8429880142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8773813247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7913942337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6366176605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968078613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2496767044067</t>
   </si>
   <si>
     <t xml:space="preserve">10.5162353515625</t>
@@ -107,19 +107,19 @@
     <t xml:space="preserve">10.5506315231323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0777006149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08884716033936</t>
+    <t xml:space="preserve">10.0777015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08884811401367</t>
   </si>
   <si>
     <t xml:space="preserve">9.02865791320801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45859241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20063209533691</t>
+    <t xml:space="preserve">9.45859336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2006311416626</t>
   </si>
   <si>
     <t xml:space="preserve">9.48438930511475</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">9.95731925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71655559539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4990377426147</t>
+    <t xml:space="preserve">9.71655464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4990396499634</t>
   </si>
   <si>
     <t xml:space="preserve">10.4044523239136</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">10.2582750320435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.066554069519</t>
+    <t xml:space="preserve">11.0665531158447</t>
   </si>
   <si>
     <t xml:space="preserve">10.6108226776123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2840690612793</t>
+    <t xml:space="preserve">10.2840700149536</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410774230957</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">11.1009483337402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9719686508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8748350143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0124130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757888793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8404388427734</t>
+    <t xml:space="preserve">10.9719696044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8748331069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0124139785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1757898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8404397964478</t>
   </si>
   <si>
     <t xml:space="preserve">12.0382099151611</t>
@@ -182,22 +182,22 @@
     <t xml:space="preserve">11.4448986053467</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7286567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9866170883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8662347793579</t>
+    <t xml:space="preserve">11.7286558151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092292785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9866180419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8662357330322</t>
   </si>
   <si>
     <t xml:space="preserve">12.1155977249146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2617769241333</t>
+    <t xml:space="preserve">12.261775970459</t>
   </si>
   <si>
     <t xml:space="preserve">12.27037525177</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">12.4079542160034</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2015857696533</t>
+    <t xml:space="preserve">12.201584815979</t>
   </si>
   <si>
     <t xml:space="preserve">12.2359790802002</t>
@@ -218,28 +218,28 @@
     <t xml:space="preserve">11.9694204330444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.634069442749</t>
+    <t xml:space="preserve">11.6340684890747</t>
   </si>
   <si>
     <t xml:space="preserve">11.3503112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.952220916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8834323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7716493606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6684646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.70285987854</t>
+    <t xml:space="preserve">11.8060445785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9522228240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8834314346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7716484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6684637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028589248657</t>
   </si>
   <si>
     <t xml:space="preserve">11.5394840240479</t>
@@ -251,91 +251,91 @@
     <t xml:space="preserve">11.1697378158569</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1783361434937</t>
+    <t xml:space="preserve">11.178337097168</t>
   </si>
   <si>
     <t xml:space="preserve">11.3847064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2213306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.118145942688</t>
+    <t xml:space="preserve">11.4105043411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2213315963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1181468963623</t>
   </si>
   <si>
     <t xml:space="preserve">11.0493564605713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2041330337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6624145507812</t>
+    <t xml:space="preserve">11.2041339874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6624135971069</t>
   </si>
   <si>
     <t xml:space="preserve">11.0166463851929</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4941539764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4144506454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2816143035889</t>
+    <t xml:space="preserve">10.4941520690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4144525527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2816123962402</t>
   </si>
   <si>
     <t xml:space="preserve">10.3258924484253</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9805154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3790264129639</t>
+    <t xml:space="preserve">9.98051643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3790292739868</t>
   </si>
   <si>
     <t xml:space="preserve">10.0602178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3613166809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3081798553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6712694168091</t>
+    <t xml:space="preserve">10.3613157272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3081827163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6712703704834</t>
   </si>
   <si>
     <t xml:space="preserve">11.4771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1937627792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9812231063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3000335693359</t>
+    <t xml:space="preserve">11.1937637329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9812240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3000345230103</t>
   </si>
   <si>
     <t xml:space="preserve">11.3443126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0697813034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8926658630371</t>
+    <t xml:space="preserve">11.0697822570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8926649093628</t>
   </si>
   <si>
     <t xml:space="preserve">10.9015207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9900789260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9723691940308</t>
+    <t xml:space="preserve">10.9900798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9723672866821</t>
   </si>
   <si>
     <t xml:space="preserve">10.8749542236328</t>
@@ -347,37 +347,37 @@
     <t xml:space="preserve">10.1222085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0513610839844</t>
+    <t xml:space="preserve">10.0513620376587</t>
   </si>
   <si>
     <t xml:space="preserve">10.0070829391479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561437606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4055957794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118646621704</t>
+    <t xml:space="preserve">9.7414083480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956411361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4055948257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118637084961</t>
   </si>
   <si>
     <t xml:space="preserve">10.644702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93623733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.174635887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73255252838135</t>
+    <t xml:space="preserve">9.93623638153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17463397979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73255157470703</t>
   </si>
   <si>
     <t xml:space="preserve">9.62628269195557</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">10.2461891174316</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0425052642822</t>
+    <t xml:space="preserve">10.0425062179565</t>
   </si>
   <si>
     <t xml:space="preserve">9.23662662506104</t>
@@ -398,19 +398,19 @@
     <t xml:space="preserve">9.19234657287598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77683162689209</t>
+    <t xml:space="preserve">9.77683067321777</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4410190582275</t>
+    <t xml:space="preserve">10.4410181045532</t>
   </si>
   <si>
     <t xml:space="preserve">10.3436050415039</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1930551528931</t>
+    <t xml:space="preserve">10.1930561065674</t>
   </si>
   <si>
     <t xml:space="preserve">10.2727584838867</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">11.1406297683716</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0786390304565</t>
+    <t xml:space="preserve">11.0786380767822</t>
   </si>
   <si>
     <t xml:space="preserve">11.0963487625122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0520696640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9369459152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1583395004272</t>
+    <t xml:space="preserve">11.0520706176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9369449615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1583404541016</t>
   </si>
   <si>
     <t xml:space="preserve">11.3177452087402</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">11.3797359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7863969802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1140613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9635124206543</t>
+    <t xml:space="preserve">10.786395072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1140604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9635133743286</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
@@ -464,28 +464,28 @@
     <t xml:space="preserve">11.2823219299316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1849069595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2468976974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3266000747681</t>
+    <t xml:space="preserve">11.1849060058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.246898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3266010284424</t>
   </si>
   <si>
     <t xml:space="preserve">11.5922765731812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8136711120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8402376174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7516803741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8668050765991</t>
+    <t xml:space="preserve">11.8136720657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.840238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7516822814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8668060302734</t>
   </si>
   <si>
     <t xml:space="preserve">11.7162570953369</t>
@@ -494,28 +494,28 @@
     <t xml:space="preserve">11.7339696884155</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5125713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3885908126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4328708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2026195526123</t>
+    <t xml:space="preserve">11.5125722885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3885917663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4328699111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.202618598938</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.680832862854</t>
+    <t xml:space="preserve">11.6808338165283</t>
   </si>
   <si>
     <t xml:space="preserve">11.8933744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1059131622314</t>
+    <t xml:space="preserve">12.1059141159058</t>
   </si>
   <si>
     <t xml:space="preserve">12.1236248016357</t>
@@ -536,13 +536,13 @@
     <t xml:space="preserve">12.3538761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6726875305176</t>
+    <t xml:space="preserve">12.6726865768433</t>
   </si>
   <si>
     <t xml:space="preserve">12.9914970397949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8852262496948</t>
+    <t xml:space="preserve">12.8852272033691</t>
   </si>
   <si>
     <t xml:space="preserve">12.9295063018799</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">13.1066217422485</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4874219894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6556825637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619524002075</t>
+    <t xml:space="preserve">13.4874210357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6556844711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619533538818</t>
   </si>
   <si>
     <t xml:space="preserve">13.5051336288452</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">14.2047452926636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1516084671021</t>
+    <t xml:space="preserve">14.1516103744507</t>
   </si>
   <si>
     <t xml:space="preserve">14.0010604858398</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8593673706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822509765625</t>
+    <t xml:space="preserve">13.8593664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822500228882</t>
   </si>
   <si>
     <t xml:space="preserve">13.8416547775269</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">13.8062314987183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2748823165894</t>
+    <t xml:space="preserve">13.274881362915</t>
   </si>
   <si>
     <t xml:space="preserve">13.4519987106323</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">13.2306022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265291213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6379699707031</t>
+    <t xml:space="preserve">13.7265300750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6379709243774</t>
   </si>
   <si>
     <t xml:space="preserve">13.8150882720947</t>
@@ -620,43 +620,43 @@
     <t xml:space="preserve">13.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2578792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1781778335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8689317703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3914251327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3648586273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5773983001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862522125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534177780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4268493652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6216764450073</t>
+    <t xml:space="preserve">14.2578802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1781759262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8689308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3914232254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.364857673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5773992538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5862550735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534158706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331182479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4268484115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6216745376587</t>
   </si>
   <si>
     <t xml:space="preserve">15.7545156478882</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6305332183838</t>
+    <t xml:space="preserve">15.6305313110352</t>
   </si>
   <si>
     <t xml:space="preserve">15.3294343948364</t>
@@ -674,25 +674,25 @@
     <t xml:space="preserve">16.5603942871094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6046752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1360244750977</t>
+    <t xml:space="preserve">16.6046733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.136022567749</t>
   </si>
   <si>
     <t xml:space="preserve">16.9854736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.251148223877</t>
+    <t xml:space="preserve">17.2511463165283</t>
   </si>
   <si>
     <t xml:space="preserve">16.8703460693359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6489505767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3301410675049</t>
+    <t xml:space="preserve">16.6489524841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3301429748535</t>
   </si>
   <si>
     <t xml:space="preserve">16.6843757629395</t>
@@ -701,28 +701,28 @@
     <t xml:space="preserve">16.7463665008545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666622161865</t>
+    <t xml:space="preserve">16.6666641235352</t>
   </si>
   <si>
     <t xml:space="preserve">17.0917434692383</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7994995117188</t>
+    <t xml:space="preserve">16.7995014190674</t>
   </si>
   <si>
     <t xml:space="preserve">16.9766178131104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9500503540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1094532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3928394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2245788574219</t>
+    <t xml:space="preserve">16.9500522613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1094512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3928413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2245807647705</t>
   </si>
   <si>
     <t xml:space="preserve">16.6312427520752</t>
@@ -734,46 +734,46 @@
     <t xml:space="preserve">16.9589061737061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3042831420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4459762573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7559280395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6408042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6053810119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8179206848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5522441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6585178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8444881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9419021606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6762275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8437786102295</t>
+    <t xml:space="preserve">17.3042850494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4459781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.755931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6408061981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6053791046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8179244995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.55224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6585159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8444900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9419040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6762256622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8437805175781</t>
   </si>
   <si>
     <t xml:space="preserve">16.8614921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0474662780762</t>
+    <t xml:space="preserve">17.0474643707275</t>
   </si>
   <si>
     <t xml:space="preserve">17.2600040435791</t>
@@ -782,43 +782,43 @@
     <t xml:space="preserve">17.3751316070557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7817897796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068691253662</t>
+    <t xml:space="preserve">16.7817878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068710327148</t>
   </si>
   <si>
     <t xml:space="preserve">16.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3308525085449</t>
+    <t xml:space="preserve">17.3308506011963</t>
   </si>
   <si>
     <t xml:space="preserve">17.3839855194092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4902572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3485622406006</t>
+    <t xml:space="preserve">17.490255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485641479492</t>
   </si>
   <si>
     <t xml:space="preserve">17.5345325469971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4725437164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470760345459</t>
+    <t xml:space="preserve">17.4725456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
   </si>
   <si>
     <t xml:space="preserve">18.0481719970703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4828147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0495872497559</t>
+    <t xml:space="preserve">19.482816696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0495891571045</t>
   </si>
   <si>
     <t xml:space="preserve">20.5012359619141</t>
@@ -833,46 +833,46 @@
     <t xml:space="preserve">20.9528827667236</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1654224395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7056293487549</t>
+    <t xml:space="preserve">21.1654243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7056312561035</t>
   </si>
   <si>
     <t xml:space="preserve">21.2097034454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4488086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7764739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8738918304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0421466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9358825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395626068115</t>
+    <t xml:space="preserve">21.4488067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7764778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8738899230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0421485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9358806610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
     <t xml:space="preserve">22.4140930175781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3875255584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4760818481445</t>
+    <t xml:space="preserve">22.3875274658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4760837554932</t>
   </si>
   <si>
     <t xml:space="preserve">22.449520111084</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3166790008545</t>
+    <t xml:space="preserve">22.3166809082031</t>
   </si>
   <si>
     <t xml:space="preserve">22.7594718933105</t>
@@ -881,19 +881,19 @@
     <t xml:space="preserve">22.5646438598633</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6089248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7506141662598</t>
+    <t xml:space="preserve">22.608922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7948932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.750617980957</t>
   </si>
   <si>
     <t xml:space="preserve">22.8037509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0251426696777</t>
+    <t xml:space="preserve">23.0251445770264</t>
   </si>
   <si>
     <t xml:space="preserve">23.2288303375244</t>
@@ -902,52 +902,52 @@
     <t xml:space="preserve">22.96315574646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5026512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3262424468994</t>
+    <t xml:space="preserve">22.5026531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3262462615967</t>
   </si>
   <si>
     <t xml:space="preserve">23.5210723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.645055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0524196624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3800868988037</t>
+    <t xml:space="preserve">23.6450576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0524234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3800888061523</t>
   </si>
   <si>
     <t xml:space="preserve">24.8494472503662</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7963123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0619850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.23024559021</t>
+    <t xml:space="preserve">24.7963104248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0619869232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2302474975586</t>
   </si>
   <si>
     <t xml:space="preserve">25.1062660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0354156494141</t>
+    <t xml:space="preserve">25.0354175567627</t>
   </si>
   <si>
     <t xml:space="preserve">26.5763301849365</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6390762329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5533390045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7863845825195</t>
+    <t xml:space="preserve">26.6390743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.553337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
     <t xml:space="preserve">28.3152236938477</t>
@@ -956,58 +956,58 @@
     <t xml:space="preserve">27.8312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440589904785</t>
+    <t xml:space="preserve">28.8440608978271</t>
   </si>
   <si>
     <t xml:space="preserve">29.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9656543731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6289405822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1846675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.659725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9375915527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0451488494873</t>
+    <t xml:space="preserve">27.9656524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.628942489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1846694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6597232818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.937593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0451507568359</t>
   </si>
   <si>
     <t xml:space="preserve">30.4753913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9504489898682</t>
+    <t xml:space="preserve">30.9504451751709</t>
   </si>
   <si>
     <t xml:space="preserve">30.4126472473145</t>
   </si>
   <si>
-    <t xml:space="preserve">30.842887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042285919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0759315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1924571990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1745319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1117858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8249626159668</t>
+    <t xml:space="preserve">30.8428897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0759372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1924591064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1745338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1117877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8249588012695</t>
   </si>
   <si>
     <t xml:space="preserve">30.9235591888428</t>
@@ -1016,25 +1016,25 @@
     <t xml:space="preserve">30.8608150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5252723693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6686878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4804592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4446048736572</t>
+    <t xml:space="preserve">29.525276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6686859130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4804611206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.44460105896</t>
   </si>
   <si>
     <t xml:space="preserve">30.3409385681152</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3050880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1706390380859</t>
+    <t xml:space="preserve">30.3050899505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1706352233887</t>
   </si>
   <si>
     <t xml:space="preserve">30.0989303588867</t>
@@ -1049,40 +1049,40 @@
     <t xml:space="preserve">29.9824085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0771064758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2922306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9298000335693</t>
+    <t xml:space="preserve">29.0771083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2922267913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9297981262207</t>
   </si>
   <si>
     <t xml:space="preserve">28.1269912719727</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4099254608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8491306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6429710388184</t>
+    <t xml:space="preserve">27.4099273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8491287231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6429748535156</t>
   </si>
   <si>
     <t xml:space="preserve">27.7326068878174</t>
   </si>
   <si>
-    <t xml:space="preserve">28.279369354248</t>
+    <t xml:space="preserve">28.2793674468994</t>
   </si>
   <si>
     <t xml:space="preserve">28.512414932251</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8760204315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7365036010742</t>
+    <t xml:space="preserve">27.8760185241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7365016937256</t>
   </si>
   <si>
     <t xml:space="preserve">28.7813186645508</t>
@@ -1091,31 +1091,31 @@
     <t xml:space="preserve">28.6827201843262</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9516220092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9555149078369</t>
+    <t xml:space="preserve">28.9516201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9555168151855</t>
   </si>
   <si>
     <t xml:space="preserve">29.7045421600342</t>
   </si>
   <si>
-    <t xml:space="preserve">29.498384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.337043762207</t>
+    <t xml:space="preserve">29.4983863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3370456695557</t>
   </si>
   <si>
     <t xml:space="preserve">29.399787902832</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3101558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4894218444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1308898925781</t>
+    <t xml:space="preserve">29.3101577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4894237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1308879852295</t>
   </si>
   <si>
     <t xml:space="preserve">28.8709506988525</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">29.1577758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1129627227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7762489318848</t>
+    <t xml:space="preserve">29.1129589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">30.0272216796875</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">29.5790557861328</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9785118103027</t>
+    <t xml:space="preserve">28.9785137176514</t>
   </si>
   <si>
     <t xml:space="preserve">29.8569202423096</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">29.8479537963867</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8658847808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3140525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0092945098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3588638305664</t>
+    <t xml:space="preserve">29.8658809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3140506744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0092964172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.358865737915</t>
   </si>
   <si>
     <t xml:space="preserve">29.6866149902344</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">29.3460083007812</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6059455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5381317138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6456909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4664306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2692356109619</t>
+    <t xml:space="preserve">29.6059436798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5381355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367321014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6456928253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4664287567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2692337036133</t>
   </si>
   <si>
     <t xml:space="preserve">30.2333793640137</t>
@@ -1196,22 +1196,22 @@
     <t xml:space="preserve">32.2680625915527</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6764793395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9952640533447</t>
+    <t xml:space="preserve">31.6764755249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9952659606934</t>
   </si>
   <si>
     <t xml:space="preserve">32.1784286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9543495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8736763000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3666572570801</t>
+    <t xml:space="preserve">31.9543437957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8736743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3666534423828</t>
   </si>
   <si>
     <t xml:space="preserve">32.2591018676758</t>
@@ -1223,19 +1223,19 @@
     <t xml:space="preserve">32.4921455383301</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3884773254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5856781005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9570617675781</t>
+    <t xml:space="preserve">33.3884811401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5856742858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9570693969727</t>
   </si>
   <si>
     <t xml:space="preserve">34.8943214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">34.93017578125</t>
+    <t xml:space="preserve">34.9301795959473</t>
   </si>
   <si>
     <t xml:space="preserve">34.7777976989746</t>
@@ -1244,22 +1244,22 @@
     <t xml:space="preserve">34.4192657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6343841552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7419471740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6293182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4231605529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8584671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5716400146484</t>
+    <t xml:space="preserve">34.6343803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.741943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.629322052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4231643676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.858470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5716438293457</t>
   </si>
   <si>
     <t xml:space="preserve">34.060733795166</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">34.5088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3117027282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.616455078125</t>
+    <t xml:space="preserve">34.3117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6164588928223</t>
   </si>
   <si>
     <t xml:space="preserve">34.9749946594238</t>
@@ -1292,40 +1292,40 @@
     <t xml:space="preserve">34.8136520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4999351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3027381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0299453735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2848129272461</t>
+    <t xml:space="preserve">34.4999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0299415588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2848167419434</t>
   </si>
   <si>
     <t xml:space="preserve">35.3066368103027</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4539451599121</t>
+    <t xml:space="preserve">36.4539413452148</t>
   </si>
   <si>
     <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3912010192871</t>
+    <t xml:space="preserve">36.3911972045898</t>
   </si>
   <si>
     <t xml:space="preserve">36.7049179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6281433105469</t>
+    <t xml:space="preserve">37.6281471252441</t>
   </si>
   <si>
     <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.142951965332</t>
+    <t xml:space="preserve">39.1429481506348</t>
   </si>
   <si>
     <t xml:space="preserve">38.8381996154785</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">38.8023452758789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4886283874512</t>
+    <t xml:space="preserve">38.4886245727539</t>
   </si>
   <si>
     <t xml:space="preserve">38.6499633789062</t>
@@ -1343,28 +1343,28 @@
     <t xml:space="preserve">39.4387397766113</t>
   </si>
   <si>
-    <t xml:space="preserve">39.026424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0225257873535</t>
+    <t xml:space="preserve">39.0264282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0225296020508</t>
   </si>
   <si>
     <t xml:space="preserve">38.5692977905273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2735061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5872192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5603370666504</t>
+    <t xml:space="preserve">38.2735023498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5872230529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5603332519531</t>
   </si>
   <si>
     <t xml:space="preserve">38.7396049499512</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7844200134277</t>
+    <t xml:space="preserve">38.7844161987305</t>
   </si>
   <si>
     <t xml:space="preserve">38.829231262207</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">38.9099006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9547157287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6628227233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3042869567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2773971557617</t>
+    <t xml:space="preserve">38.954719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3042907714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.277400970459</t>
   </si>
   <si>
     <t xml:space="preserve">39.5463027954102</t>
@@ -1394,46 +1394,46 @@
     <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5961799621582</t>
+    <t xml:space="preserve">38.5961875915527</t>
   </si>
   <si>
     <t xml:space="preserve">37.9149703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8214492797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8970413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6858177185059</t>
+    <t xml:space="preserve">36.8214416503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.897045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6858215332031</t>
   </si>
   <si>
     <t xml:space="preserve">42.2353019714355</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8985900878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0599327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6655426025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2711639404297</t>
+    <t xml:space="preserve">42.8985939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6655464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2711601257324</t>
   </si>
   <si>
     <t xml:space="preserve">42.3249397277832</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1635971069336</t>
+    <t xml:space="preserve">42.1636047363281</t>
   </si>
   <si>
     <t xml:space="preserve">41.8588447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0022621154785</t>
+    <t xml:space="preserve">42.002254486084</t>
   </si>
   <si>
     <t xml:space="preserve">42.378719329834</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">41.9305534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7692070007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0201835632324</t>
+    <t xml:space="preserve">41.7692108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.020191192627</t>
   </si>
   <si>
     <t xml:space="preserve">41.5899467468262</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">40.8190956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0303192138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3670349121094</t>
+    <t xml:space="preserve">40.0303230285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3670310974121</t>
   </si>
   <si>
     <t xml:space="preserve">39.9048385620117</t>
@@ -1472,31 +1472,31 @@
     <t xml:space="preserve">43.0240821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7154350280762</t>
+    <t xml:space="preserve">41.7154312133789</t>
   </si>
   <si>
     <t xml:space="preserve">38.9009437561035</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7894821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5026626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8152008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4247055053711</t>
+    <t xml:space="preserve">37.7894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5026588439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8151969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4247093200684</t>
   </si>
   <si>
     <t xml:space="preserve">40.335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8011703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0342140197754</t>
+    <t xml:space="preserve">40.8011741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0342178344727</t>
   </si>
   <si>
     <t xml:space="preserve">41.1776275634766</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">41.3748245239258</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2314071655273</t>
+    <t xml:space="preserve">41.2314109802246</t>
   </si>
   <si>
     <t xml:space="preserve">40.747386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">41.195556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4745979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.402889251709</t>
+    <t xml:space="preserve">41.1955528259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4028854370117</t>
   </si>
   <si>
     <t xml:space="preserve">40.4426345825195</t>
@@ -1526,22 +1526,22 @@
     <t xml:space="preserve">40.6219024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6258010864258</t>
+    <t xml:space="preserve">41.6257934570312</t>
   </si>
   <si>
     <t xml:space="preserve">42.8448143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7988204956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1534614562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4889984130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1355323791504</t>
+    <t xml:space="preserve">44.7988243103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1534652709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4890022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1355361938477</t>
   </si>
   <si>
     <t xml:space="preserve">45.2200965881348</t>
@@ -1553,13 +1553,13 @@
     <t xml:space="preserve">47.595386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2060661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8475379943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9511985778809</t>
+    <t xml:space="preserve">46.2060699462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.847541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9512062072754</t>
   </si>
   <si>
     <t xml:space="preserve">44.2610244750977</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">44.099681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2033462524414</t>
+    <t xml:space="preserve">43.2033500671387</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975059509277</t>
@@ -1580,31 +1580,31 @@
     <t xml:space="preserve">41.392749786377</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2493362426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9944648742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3311767578125</t>
+    <t xml:space="preserve">41.2493324279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9944686889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3311805725098</t>
   </si>
   <si>
     <t xml:space="preserve">40.9804382324219</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0123901367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7832450866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9586143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5283737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4784927368164</t>
+    <t xml:space="preserve">40.012393951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7832489013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9586181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5283699035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4784851074219</t>
   </si>
   <si>
     <t xml:space="preserve">40.137882232666</t>
@@ -1613,22 +1613,22 @@
     <t xml:space="preserve">39.653865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2594680786133</t>
+    <t xml:space="preserve">39.2594757080078</t>
   </si>
   <si>
     <t xml:space="preserve">42.629695892334</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2851943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1728477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2489585876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9410018920898</t>
+    <t xml:space="preserve">41.2851905822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1728553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2489624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9409980773926</t>
   </si>
   <si>
     <t xml:space="preserve">40.8685340881348</t>
@@ -1637,37 +1637,37 @@
     <t xml:space="preserve">40.7598419189453</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0714569091797</t>
+    <t xml:space="preserve">40.071460723877</t>
   </si>
   <si>
     <t xml:space="preserve">37.9519424438477</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6983222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5389366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2635498046875</t>
+    <t xml:space="preserve">37.6983261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.538932800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2635536193848</t>
   </si>
   <si>
     <t xml:space="preserve">36.6838569641113</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8106689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2128562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8686599731445</t>
+    <t xml:space="preserve">36.8106651306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2128601074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8686561584473</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606956481934</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4194259643555</t>
+    <t xml:space="preserve">34.4194221496582</t>
   </si>
   <si>
     <t xml:space="preserve">33.6042251586914</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">34.0752258300781</t>
   </si>
   <si>
-    <t xml:space="preserve">34.673038482666</t>
+    <t xml:space="preserve">34.6730422973633</t>
   </si>
   <si>
     <t xml:space="preserve">34.8904266357422</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">34.9266586303711</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7455024719238</t>
+    <t xml:space="preserve">34.7454986572266</t>
   </si>
   <si>
     <t xml:space="preserve">34.1839218139648</t>
@@ -1703,37 +1703,37 @@
     <t xml:space="preserve">34.6368103027344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3251953125</t>
+    <t xml:space="preserve">35.3251991271973</t>
   </si>
   <si>
     <t xml:space="preserve">33.6948051452637</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5897560119629</t>
+    <t xml:space="preserve">32.5897598266602</t>
   </si>
   <si>
     <t xml:space="preserve">32.5716438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6477489471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.955717086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7057495117188</t>
+    <t xml:space="preserve">31.6477527618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9557132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7057514190674</t>
   </si>
   <si>
     <t xml:space="preserve">29.65505027771</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1079387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4014320373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3253211975098</t>
+    <t xml:space="preserve">30.1079406738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4014339447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3253231048584</t>
   </si>
   <si>
     <t xml:space="preserve">29.3833179473877</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">29.7093963623047</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7782077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4303703308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8180866241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1260528564453</t>
+    <t xml:space="preserve">30.7782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4303684234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8180885314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1260509490967</t>
   </si>
   <si>
     <t xml:space="preserve">30.2890892028809</t>
@@ -1769,40 +1769,40 @@
     <t xml:space="preserve">30.5789375305176</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8470230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8289070129395</t>
+    <t xml:space="preserve">31.8470249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8289051055908</t>
   </si>
   <si>
     <t xml:space="preserve">32.2636795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2854404449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5390625</t>
+    <t xml:space="preserve">31.2854442596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5390567779541</t>
   </si>
   <si>
     <t xml:space="preserve">31.1586360931396</t>
   </si>
   <si>
-    <t xml:space="preserve">31.919490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7926788330078</t>
+    <t xml:space="preserve">31.9194889068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7926750183105</t>
   </si>
   <si>
     <t xml:space="preserve">31.0137119293213</t>
   </si>
   <si>
-    <t xml:space="preserve">30.089822769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0717067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.83620262146</t>
+    <t xml:space="preserve">30.0898246765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0717086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8362064361572</t>
   </si>
   <si>
     <t xml:space="preserve">29.2565097808838</t>
@@ -1814,16 +1814,16 @@
     <t xml:space="preserve">28.2601585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7529220581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7928047180176</t>
+    <t xml:space="preserve">27.7529239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7928028106689</t>
   </si>
   <si>
     <t xml:space="preserve">26.4304943084717</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1949920654297</t>
+    <t xml:space="preserve">26.1949939727783</t>
   </si>
   <si>
     <t xml:space="preserve">26.6659965515137</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">27.3906154632568</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2094612121582</t>
+    <t xml:space="preserve">27.2094593048096</t>
   </si>
   <si>
     <t xml:space="preserve">27.2638072967529</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">27.6261157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0790023803711</t>
+    <t xml:space="preserve">28.0790042877197</t>
   </si>
   <si>
     <t xml:space="preserve">27.7348079681396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0971183776855</t>
+    <t xml:space="preserve">28.0971164703369</t>
   </si>
   <si>
     <t xml:space="preserve">28.0065422058105</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">27.9521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2058124542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1695823669434</t>
+    <t xml:space="preserve">28.205810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1695804595947</t>
   </si>
   <si>
     <t xml:space="preserve">27.9340801239014</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">28.767391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7130470275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3470897674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.328971862793</t>
+    <t xml:space="preserve">28.7130451202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3470859527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3289737701416</t>
   </si>
   <si>
     <t xml:space="preserve">28.8036212921143</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">27.7166938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9051456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8617420196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8653907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8472766876221</t>
+    <t xml:space="preserve">25.905143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.861743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8653926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8472747802734</t>
   </si>
   <si>
     <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5501289367676</t>
+    <t xml:space="preserve">23.5501308441162</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">23.6950550079346</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3689765930176</t>
+    <t xml:space="preserve">23.3689785003662</t>
   </si>
   <si>
     <t xml:space="preserve">23.5682468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6443557739258</t>
+    <t xml:space="preserve">22.6443576812744</t>
   </si>
   <si>
     <t xml:space="preserve">21.8291606903076</t>
@@ -1937,46 +1937,46 @@
     <t xml:space="preserve">20.9415035247803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4849662780762</t>
+    <t xml:space="preserve">21.4849643707275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3581581115723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4668521881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7204685211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8364543914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4234504699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3872184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6553039550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9850292205811</t>
+    <t xml:space="preserve">21.4668502807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7204666137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8364582061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4234485626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3872165679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6553020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9850273132324</t>
   </si>
   <si>
     <t xml:space="preserve">18.4959106445312</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1118392944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1064281463623</t>
+    <t xml:space="preserve">19.111837387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1064300537109</t>
   </si>
   <si>
     <t xml:space="preserve">17.2368850708008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2097129821777</t>
+    <t xml:space="preserve">17.2097110748291</t>
   </si>
   <si>
     <t xml:space="preserve">17.3636932373047</t>
@@ -1985,28 +1985,28 @@
     <t xml:space="preserve">16.7568244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2948780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.041259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8057632446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.76953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7061252593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2495918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4941501617432</t>
+    <t xml:space="preserve">16.2948799133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0412635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8057622909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7695283889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7061281204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2495899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7024784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4941520690918</t>
   </si>
   <si>
     <t xml:space="preserve">17.5720195770264</t>
@@ -2015,25 +2015,25 @@
     <t xml:space="preserve">17.6535415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5847263336182</t>
+    <t xml:space="preserve">16.5847244262695</t>
   </si>
   <si>
     <t xml:space="preserve">18.0430240631104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9306831359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7622356414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8926906585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1046676635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9959726333618</t>
+    <t xml:space="preserve">18.9306812286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7622337341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8926887512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1046657562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9959735870361</t>
   </si>
   <si>
     <t xml:space="preserve">16.3582820892334</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">16.2858219146729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8148193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4887390136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354875564575</t>
+    <t xml:space="preserve">15.8148183822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4887418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354885101318</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365821838379</t>
@@ -2057,55 +2057,55 @@
     <t xml:space="preserve">15.6789531707764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2351226806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5521459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2640590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8890438079834</t>
+    <t xml:space="preserve">15.2351236343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5521430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2640571594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8890419006348</t>
   </si>
   <si>
     <t xml:space="preserve">18.2604103088379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7441177368164</t>
+    <t xml:space="preserve">17.744119644165</t>
   </si>
   <si>
     <t xml:space="preserve">17.4905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1154842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1517181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3328704833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1336002349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249099731445</t>
+    <t xml:space="preserve">18.1154861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1517162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3328723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.133602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249080657959</t>
   </si>
   <si>
     <t xml:space="preserve">17.5539054870605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7857570648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9125652313232</t>
+    <t xml:space="preserve">18.7857608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9125671386719</t>
   </si>
   <si>
     <t xml:space="preserve">18.7314147949219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4415645599365</t>
+    <t xml:space="preserve">18.4415664672852</t>
   </si>
   <si>
     <t xml:space="preserve">19.0574913024902</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">18.8944530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8038730621338</t>
+    <t xml:space="preserve">18.8038749694824</t>
   </si>
   <si>
     <t xml:space="preserve">18.4596786499023</t>
@@ -2123,22 +2123,22 @@
     <t xml:space="preserve">18.5321407318115</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0883102416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4542713165283</t>
+    <t xml:space="preserve">18.0883121490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4542694091797</t>
   </si>
   <si>
     <t xml:space="preserve">17.8256378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4053344726562</t>
+    <t xml:space="preserve">18.4053325653076</t>
   </si>
   <si>
     <t xml:space="preserve">18.7132968902588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5103797912598</t>
+    <t xml:space="preserve">19.5103778839111</t>
   </si>
   <si>
     <t xml:space="preserve">19.7821102142334</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">20.3618049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1806526184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0357284545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.528491973877</t>
+    <t xml:space="preserve">20.1806507110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0357303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5284938812256</t>
   </si>
   <si>
     <t xml:space="preserve">19.5647239685059</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3980369567871</t>
+    <t xml:space="preserve">20.3980388641357</t>
   </si>
   <si>
     <t xml:space="preserve">17.8528099060059</t>
@@ -2171,22 +2171,22 @@
     <t xml:space="preserve">17.8981018066406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6082534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5176773071289</t>
+    <t xml:space="preserve">17.6082515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5176753997803</t>
   </si>
   <si>
     <t xml:space="preserve">16.9470348358154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0829029083252</t>
+    <t xml:space="preserve">17.0829048156738</t>
   </si>
   <si>
     <t xml:space="preserve">16.9651527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1463088989258</t>
+    <t xml:space="preserve">17.1463069915771</t>
   </si>
   <si>
     <t xml:space="preserve">17.0376129150391</t>
@@ -2195,34 +2195,34 @@
     <t xml:space="preserve">17.4452133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3727512359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4814453125</t>
+    <t xml:space="preserve">17.3727493286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">17.3818092346191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2785243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0792541503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7169456481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5267333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2422943115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0158519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7984638214111</t>
+    <t xml:space="preserve">18.2785263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.079252243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7169437408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5267314910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2422924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0158500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7984657287598</t>
   </si>
   <si>
     <t xml:space="preserve">18.2966403961182</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">18.0520820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.336519241333</t>
+    <t xml:space="preserve">17.3365211486816</t>
   </si>
   <si>
     <t xml:space="preserve">17.2278270721436</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">18.070198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1879482269287</t>
+    <t xml:space="preserve">18.1879463195801</t>
   </si>
   <si>
     <t xml:space="preserve">18.1698322296143</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">17.6173095703125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7078876495361</t>
+    <t xml:space="preserve">17.7078857421875</t>
   </si>
   <si>
     <t xml:space="preserve">17.6897735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8709259033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7429027557373</t>
+    <t xml:space="preserve">17.8709278106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7429008483887</t>
   </si>
   <si>
     <t xml:space="preserve">17.3418235778809</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">16.2840538024902</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7737293243408</t>
+    <t xml:space="preserve">15.7737283706665</t>
   </si>
   <si>
     <t xml:space="preserve">14.7066822052002</t>
@@ -2291,28 +2291,28 @@
     <t xml:space="preserve">13.880880355835</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0200595855713</t>
+    <t xml:space="preserve">14.0200605392456</t>
   </si>
   <si>
     <t xml:space="preserve">13.862322807312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3891124725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9736671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9179964065552</t>
+    <t xml:space="preserve">13.3891115188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9736680984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9179954528809</t>
   </si>
   <si>
     <t xml:space="preserve">13.5561275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0272436141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1478672027588</t>
+    <t xml:space="preserve">13.0272445678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1478662490845</t>
   </si>
   <si>
     <t xml:space="preserve">13.0921945571899</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">13.3798332214355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4540634155273</t>
+    <t xml:space="preserve">13.4540615081787</t>
   </si>
   <si>
     <t xml:space="preserve">13.1757020950317</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">13.8716020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7695369720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5953369140625</t>
+    <t xml:space="preserve">13.7695379257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5953378677368</t>
   </si>
   <si>
     <t xml:space="preserve">14.261305809021</t>
@@ -2363,22 +2363,22 @@
     <t xml:space="preserve">11.1622323989868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8189220428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2065305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2714796066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4663314819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4756116867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6519050598145</t>
+    <t xml:space="preserve">10.8189210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2065296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2714805603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4663324356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4756107330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6519060134888</t>
   </si>
   <si>
     <t xml:space="preserve">10.9209871292114</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">10.5962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3549890518188</t>
+    <t xml:space="preserve">10.3549880981445</t>
   </si>
   <si>
     <t xml:space="preserve">10.429217338562</t>
@@ -2405,16 +2405,16 @@
     <t xml:space="preserve">10.1044654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343654632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96528434753418</t>
+    <t xml:space="preserve">10.2343664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9652853012085</t>
   </si>
   <si>
     <t xml:space="preserve">9.71476078033447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58485889434814</t>
+    <t xml:space="preserve">9.58485984802246</t>
   </si>
   <si>
     <t xml:space="preserve">10.150857925415</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">10.549840927124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6333494186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848909378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.577675819397</t>
+    <t xml:space="preserve">10.6333484649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848899841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776767730713</t>
   </si>
   <si>
     <t xml:space="preserve">10.3642673492432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5034465789795</t>
+    <t xml:space="preserve">10.5034475326538</t>
   </si>
   <si>
     <t xml:space="preserve">10.7261362075806</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">10.0859079360962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.020956993103</t>
+    <t xml:space="preserve">10.0209560394287</t>
   </si>
   <si>
     <t xml:space="preserve">10.1137428283691</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">10.1786937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5570240020752</t>
+    <t xml:space="preserve">9.55702495574951</t>
   </si>
   <si>
     <t xml:space="preserve">9.34361362457275</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">9.52918815612793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25546646118164</t>
+    <t xml:space="preserve">9.25546741485596</t>
   </si>
   <si>
     <t xml:space="preserve">8.9910249710083</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93071365356445</t>
+    <t xml:space="preserve">8.93071460723877</t>
   </si>
   <si>
     <t xml:space="preserve">9.59413909912109</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">9.29722118377686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33433628082275</t>
+    <t xml:space="preserve">9.33433723449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.16732025146484</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">10.1415796279907</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1601362228394</t>
+    <t xml:space="preserve">10.1601371765137</t>
   </si>
   <si>
     <t xml:space="preserve">9.66836738586426</t>
@@ -2528,22 +2528,22 @@
     <t xml:space="preserve">9.57558059692383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8539400100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62197303771973</t>
+    <t xml:space="preserve">9.85394096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62197494506836</t>
   </si>
   <si>
     <t xml:space="preserve">9.31577777862549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44567966461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70548343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37145137786865</t>
+    <t xml:space="preserve">9.44568061828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70548248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37145042419434</t>
   </si>
   <si>
     <t xml:space="preserve">9.770432472229</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">9.74259757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0395135879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80754661560059</t>
+    <t xml:space="preserve">10.039514541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8075475692749</t>
   </si>
   <si>
     <t xml:space="preserve">9.54774475097656</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">10.1230220794678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426267623901</t>
+    <t xml:space="preserve">10.6426277160645</t>
   </si>
   <si>
     <t xml:space="preserve">10.7910861968994</t>
@@ -2588,10 +2588,10 @@
     <t xml:space="preserve">11.4962644577026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003955841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3035087585449</t>
+    <t xml:space="preserve">11.7003946304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3035078048706</t>
   </si>
   <si>
     <t xml:space="preserve">12.0622625350952</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">12.15505027771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2107219696045</t>
+    <t xml:space="preserve">12.2107210159302</t>
   </si>
   <si>
     <t xml:space="preserve">12.2571153640747</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0344266891479</t>
+    <t xml:space="preserve">12.0344276428223</t>
   </si>
   <si>
     <t xml:space="preserve">12.0251483917236</t>
@@ -2618,22 +2618,22 @@
     <t xml:space="preserve">11.8210172653198</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8952465057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8024597167969</t>
+    <t xml:space="preserve">11.8952474594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8024606704712</t>
   </si>
   <si>
     <t xml:space="preserve">12.1364917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5261964797974</t>
+    <t xml:space="preserve">12.526195526123</t>
   </si>
   <si>
     <t xml:space="preserve">13.333438873291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3241605758667</t>
+    <t xml:space="preserve">13.324161529541</t>
   </si>
   <si>
     <t xml:space="preserve">13.1571455001831</t>
@@ -2642,13 +2642,13 @@
     <t xml:space="preserve">13.6767501831055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.481897354126</t>
+    <t xml:space="preserve">13.4818992614746</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8344869613647</t>
+    <t xml:space="preserve">13.8344879150391</t>
   </si>
   <si>
     <t xml:space="preserve">13.7880935668945</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">13.7973728179932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8066520690918</t>
+    <t xml:space="preserve">13.8066511154175</t>
   </si>
   <si>
     <t xml:space="preserve">14.0942897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2149114608765</t>
+    <t xml:space="preserve">14.2149124145508</t>
   </si>
   <si>
     <t xml:space="preserve">14.2056341171265</t>
@@ -2681,16 +2681,16 @@
     <t xml:space="preserve">13.7417011260986</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7602586746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5396661758423</t>
+    <t xml:space="preserve">13.7602577209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5396671295166</t>
   </si>
   <si>
     <t xml:space="preserve">14.1963558197021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9272737503052</t>
+    <t xml:space="preserve">13.9272747039795</t>
   </si>
   <si>
     <t xml:space="preserve">14.1314039230347</t>
@@ -2702,19 +2702,19 @@
     <t xml:space="preserve">14.0107831954956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.736611366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8201198577881</t>
+    <t xml:space="preserve">15.7366123199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8201208114624</t>
   </si>
   <si>
     <t xml:space="preserve">17.1840858459473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8871688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9613990783691</t>
+    <t xml:space="preserve">16.8871669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9613971710205</t>
   </si>
   <si>
     <t xml:space="preserve">16.8407745361328</t>
@@ -2726,16 +2726,16 @@
     <t xml:space="preserve">16.2005462646484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0892009735107</t>
+    <t xml:space="preserve">16.089204788208</t>
   </si>
   <si>
     <t xml:space="preserve">16.0242519378662</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5603199005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7623538970947</t>
+    <t xml:space="preserve">15.5603189468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.762354850769</t>
   </si>
   <si>
     <t xml:space="preserve">14.4004859924316</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">15.2912378311157</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8087472915649</t>
+    <t xml:space="preserve">14.8087463378906</t>
   </si>
   <si>
     <t xml:space="preserve">14.9386491775513</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376321792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0685501098633</t>
+    <t xml:space="preserve">15.3376312255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.068549156189</t>
   </si>
   <si>
     <t xml:space="preserve">15.2448444366455</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1613368988037</t>
+    <t xml:space="preserve">15.1613359451294</t>
   </si>
   <si>
     <t xml:space="preserve">14.1870775222778</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">12.0437049865723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6540021896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3663635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6611852645874</t>
+    <t xml:space="preserve">11.6540012359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3663625717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6611833572388</t>
   </si>
   <si>
     <t xml:space="preserve">10.1879720687866</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">8.02140522003174</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93789768218994</t>
+    <t xml:space="preserve">7.93789720535278</t>
   </si>
   <si>
     <t xml:space="preserve">6.58785104751587</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">6.97755527496338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9450798034668</t>
+    <t xml:space="preserve">6.94508028030396</t>
   </si>
   <si>
     <t xml:space="preserve">7.02394866943359</t>
@@ -2822,28 +2822,28 @@
     <t xml:space="preserve">6.94971895217896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05178451538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51571846008301</t>
+    <t xml:space="preserve">7.0517840385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51571750640869</t>
   </si>
   <si>
     <t xml:space="preserve">8.10027313232422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39000701904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06525421142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44358444213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44822311401367</t>
+    <t xml:space="preserve">8.9075174331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0652551651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44358348846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44822406768799</t>
   </si>
   <si>
     <t xml:space="preserve">8.39719104766846</t>
@@ -2852,22 +2852,22 @@
     <t xml:space="preserve">8.30440425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16522407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79407739639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97501182556152</t>
+    <t xml:space="preserve">8.1652250289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79407644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97501134872437</t>
   </si>
   <si>
     <t xml:space="preserve">7.8311915397644</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15594482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88686466217041</t>
+    <t xml:space="preserve">8.15594577789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88686418533325</t>
   </si>
   <si>
     <t xml:space="preserve">7.46932458877563</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">7.37653732299805</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15384960174561</t>
+    <t xml:space="preserve">7.15385007858276</t>
   </si>
   <si>
     <t xml:space="preserve">7.59922504425049</t>
@@ -2900,13 +2900,13 @@
     <t xml:space="preserve">7.64561891555786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38117694854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56211042404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34870195388794</t>
+    <t xml:space="preserve">7.38117742538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56211090087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34870147705078</t>
   </si>
   <si>
     <t xml:space="preserve">7.18632507324219</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">7.20024299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10745573043823</t>
+    <t xml:space="preserve">7.10745620727539</t>
   </si>
   <si>
     <t xml:space="preserve">6.9682765007019</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">7.60850429534912</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58530759811401</t>
+    <t xml:space="preserve">7.58530807495117</t>
   </si>
   <si>
     <t xml:space="preserve">7.48788118362427</t>
@@ -2942,16 +2942,16 @@
     <t xml:space="preserve">8.51781368255615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71730518341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95391082763672</t>
+    <t xml:space="preserve">8.71730422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9539098739624</t>
   </si>
   <si>
     <t xml:space="preserve">8.59204292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74050045013428</t>
+    <t xml:space="preserve">8.74050140380859</t>
   </si>
   <si>
     <t xml:space="preserve">8.92607402801514</t>
@@ -2960,19 +2960,19 @@
     <t xml:space="preserve">9.38072872161865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0694456100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5519361495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5612154006958</t>
+    <t xml:space="preserve">11.0694465637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5519371032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5612144470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.3199701309204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0044956207275</t>
+    <t xml:space="preserve">11.0044946670532</t>
   </si>
   <si>
     <t xml:space="preserve">9.88177680969238</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">10.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2529239654541</t>
+    <t xml:space="preserve">10.2529230117798</t>
   </si>
   <si>
     <t xml:space="preserve">10.0766286849976</t>
@@ -2993,13 +2993,13 @@
     <t xml:space="preserve">9.94672775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.438497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4199380874634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2807598114014</t>
+    <t xml:space="preserve">10.4384965896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4199390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2807588577271</t>
   </si>
   <si>
     <t xml:space="preserve">10.7354135513306</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">12.0900983810425</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5055437088013</t>
+    <t xml:space="preserve">11.505542755127</t>
   </si>
   <si>
     <t xml:space="preserve">11.607608795166</t>
@@ -3026,19 +3026,19 @@
     <t xml:space="preserve">11.8766899108887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8859691619873</t>
+    <t xml:space="preserve">11.885968208313</t>
   </si>
   <si>
     <t xml:space="preserve">11.7746238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7282304763794</t>
+    <t xml:space="preserve">11.7282314300537</t>
   </si>
   <si>
     <t xml:space="preserve">11.6354446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4127569198608</t>
+    <t xml:space="preserve">11.4127559661865</t>
   </si>
   <si>
     <t xml:space="preserve">11.338526725769</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">11.208625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8745937347412</t>
+    <t xml:space="preserve">10.8745946884155</t>
   </si>
   <si>
     <t xml:space="preserve">12.0715417861938</t>
@@ -3059,10 +3059,10 @@
     <t xml:space="preserve">12.8973426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7767200469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1293087005615</t>
+    <t xml:space="preserve">12.7767210006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1293096542358</t>
   </si>
   <si>
     <t xml:space="preserve">13.472620010376</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">13.0829162597656</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2684898376465</t>
+    <t xml:space="preserve">13.2684888839722</t>
   </si>
   <si>
     <t xml:space="preserve">13.6210784912109</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">13.6489143371582</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4447832107544</t>
+    <t xml:space="preserve">13.4447841644287</t>
   </si>
   <si>
     <t xml:space="preserve">13.222095489502</t>
@@ -3107,19 +3107,19 @@
     <t xml:space="preserve">13.1849813461304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2406530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.342719078064</t>
+    <t xml:space="preserve">13.2406539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3427181243896</t>
   </si>
   <si>
     <t xml:space="preserve">13.3519973754883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1200313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2499313354492</t>
+    <t xml:space="preserve">13.1200304031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2499322891235</t>
   </si>
   <si>
     <t xml:space="preserve">13.4076690673828</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">13.4633407592773</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5818691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4519662857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7024908065796</t>
+    <t xml:space="preserve">12.5818681716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4519672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7024898529053</t>
   </si>
   <si>
     <t xml:space="preserve">12.4055728912354</t>
@@ -3143,22 +3143,22 @@
     <t xml:space="preserve">12.8602275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5097341537476</t>
+    <t xml:space="preserve">13.583963394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
     <t xml:space="preserve">13.5282907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561878204346</t>
+    <t xml:space="preserve">15.3561868667603</t>
   </si>
   <si>
     <t xml:space="preserve">15.6623830795288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9221858978271</t>
+    <t xml:space="preserve">15.9221868515015</t>
   </si>
   <si>
     <t xml:space="preserve">16.2376613616943</t>
@@ -3170,19 +3170,19 @@
     <t xml:space="preserve">15.5510406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8458623886108</t>
+    <t xml:space="preserve">14.8458614349365</t>
   </si>
   <si>
     <t xml:space="preserve">14.6046171188354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6788463592529</t>
+    <t xml:space="preserve">14.6788454055786</t>
   </si>
   <si>
     <t xml:space="preserve">14.7994689941406</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4376001358032</t>
+    <t xml:space="preserve">14.4376010894775</t>
   </si>
   <si>
     <t xml:space="preserve">13.9922246932983</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">14.7345180511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2726793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7644491195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5046453475952</t>
+    <t xml:space="preserve">15.2726802825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7644510269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5046472549438</t>
   </si>
   <si>
     <t xml:space="preserve">15.189172744751</t>
@@ -3215,28 +3215,28 @@
     <t xml:space="preserve">15.0035991668701</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4768104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8665151596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6716613769531</t>
+    <t xml:space="preserve">15.4768114089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8665161132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6716623306274</t>
   </si>
   <si>
     <t xml:space="preserve">16.246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036293029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9314661026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0149726867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2098236083984</t>
+    <t xml:space="preserve">15.9036283493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9314641952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0149745941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2098255157471</t>
   </si>
   <si>
     <t xml:space="preserve">15.9407444000244</t>
@@ -3248,13 +3248,13 @@
     <t xml:space="preserve">15.4396953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7273359298706</t>
+    <t xml:space="preserve">15.7273368835449</t>
   </si>
   <si>
     <t xml:space="preserve">15.5232048034668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6809425354004</t>
+    <t xml:space="preserve">15.6809406280518</t>
   </si>
   <si>
     <t xml:space="preserve">16.0428104400635</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">17.8892650604248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4902801513672</t>
+    <t xml:space="preserve">17.4902820587158</t>
   </si>
   <si>
     <t xml:space="preserve">17.564510345459</t>
@@ -3293,22 +3293,22 @@
     <t xml:space="preserve">17.666576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4717254638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7222499847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6480197906494</t>
+    <t xml:space="preserve">17.4717235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7222480773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6480178833008</t>
   </si>
   <si>
     <t xml:space="preserve">18.1397857666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5202121734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.872802734375</t>
+    <t xml:space="preserve">18.5202102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8728008270264</t>
   </si>
   <si>
     <t xml:space="preserve">20.0975856781006</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">19.5594234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8356876373291</t>
+    <t xml:space="preserve">18.8356857299805</t>
   </si>
   <si>
     <t xml:space="preserve">19.3552932739258</t>
@@ -3332,13 +3332,13 @@
     <t xml:space="preserve">19.4480781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3738479614258</t>
+    <t xml:space="preserve">19.3738498687744</t>
   </si>
   <si>
     <t xml:space="preserve">18.6501159667969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6686725616455</t>
+    <t xml:space="preserve">18.6686744689941</t>
   </si>
   <si>
     <t xml:space="preserve">18.3068046569824</t>
@@ -3356,7 +3356,7 @@
     <t xml:space="preserve">19.392406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0790271759033</t>
+    <t xml:space="preserve">20.079029083252</t>
   </si>
   <si>
     <t xml:space="preserve">20.7285346984863</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">21.0625667572021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780403137207</t>
+    <t xml:space="preserve">21.3780422210693</t>
   </si>
   <si>
     <t xml:space="preserve">21.3409271240234</t>
@@ -3374,10 +3374,10 @@
     <t xml:space="preserve">21.4337139129639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3038101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8811836242676</t>
+    <t xml:space="preserve">21.3038120269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8811855316162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8997421264648</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">21.9718761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6028251647949</t>
+    <t xml:space="preserve">22.6028232574463</t>
   </si>
   <si>
     <t xml:space="preserve">21.8419742584229</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">20.6543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7470932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8398761749268</t>
+    <t xml:space="preserve">20.747091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8398780822754</t>
   </si>
   <si>
     <t xml:space="preserve">20.3017158508301</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">21.248140335083</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8027648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3223705291748</t>
+    <t xml:space="preserve">20.8027629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3223667144775</t>
   </si>
   <si>
     <t xml:space="preserve">20.5800762176514</t>
@@ -3422,19 +3422,19 @@
     <t xml:space="preserve">19.9862422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7656478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9697818756104</t>
+    <t xml:space="preserve">20.7656497955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9697799682617</t>
   </si>
   <si>
     <t xml:space="preserve">21.2110252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2295818328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3388328552246</t>
+    <t xml:space="preserve">21.2295837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.338830947876</t>
   </si>
   <si>
     <t xml:space="preserve">20.0604724884033</t>
@@ -3446,22 +3446,22 @@
     <t xml:space="preserve">20.2274856567383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7264404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9676856994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9141082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.431619644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9512233734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3059062957764</t>
+    <t xml:space="preserve">19.7264385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9676837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9141101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4316177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9512214660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.305908203125</t>
   </si>
   <si>
     <t xml:space="preserve">22.6770534515381</t>
@@ -3470,25 +3470,25 @@
     <t xml:space="preserve">22.1945648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3430233001709</t>
+    <t xml:space="preserve">22.3430213928223</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1388912200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3801383972168</t>
+    <t xml:space="preserve">22.1388931274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3801364898682</t>
   </si>
   <si>
     <t xml:space="preserve">22.1574478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3265590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9203948974609</t>
+    <t xml:space="preserve">23.3265609741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9203968048096</t>
   </si>
   <si>
     <t xml:space="preserve">23.8647232055664</t>
@@ -3497,16 +3497,16 @@
     <t xml:space="preserve">24.532787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0317401885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1781024932861</t>
+    <t xml:space="preserve">24.03173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1781005859375</t>
   </si>
   <si>
     <t xml:space="preserve">23.0482006072998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4379043579102</t>
+    <t xml:space="preserve">23.4379024505615</t>
   </si>
   <si>
     <t xml:space="preserve">23.5306911468506</t>
@@ -3521,10 +3521,10 @@
     <t xml:space="preserve">22.714168548584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9368572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4729251861572</t>
+    <t xml:space="preserve">22.9368553161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.47292137146</t>
   </si>
   <si>
     <t xml:space="preserve">23.623477935791</t>
@@ -3542,13 +3542,13 @@
     <t xml:space="preserve">22.8440704345703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7719383239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2194080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9081268310547</t>
+    <t xml:space="preserve">23.771936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.219409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9081230163574</t>
   </si>
   <si>
     <t xml:space="preserve">26.6297664642334</t>
@@ -3560,16 +3560,16 @@
     <t xml:space="preserve">27.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5390739440918</t>
+    <t xml:space="preserve">27.5390758514404</t>
   </si>
   <si>
     <t xml:space="preserve">27.6504173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3184814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2071380615234</t>
+    <t xml:space="preserve">28.3184833526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2071361541748</t>
   </si>
   <si>
     <t xml:space="preserve">27.4277286529541</t>
@@ -3587,10 +3587,10 @@
     <t xml:space="preserve">27.0565814971924</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6483211517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0730476379395</t>
+    <t xml:space="preserve">26.648323059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0730438232422</t>
   </si>
   <si>
     <t xml:space="preserve">25.8689136505127</t>
@@ -3602,16 +3602,16 @@
     <t xml:space="preserve">26.6112079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">26.536979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1472759246826</t>
+    <t xml:space="preserve">26.5369777679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.147274017334</t>
   </si>
   <si>
     <t xml:space="preserve">25.6462249755859</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0544872283936</t>
+    <t xml:space="preserve">26.0544891357422</t>
   </si>
   <si>
     <t xml:space="preserve">26.407075881958</t>
@@ -3626,16 +3626,16 @@
     <t xml:space="preserve">26.8153381347656</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4813060760498</t>
+    <t xml:space="preserve">26.4813079833984</t>
   </si>
   <si>
     <t xml:space="preserve">26.666877746582</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5905532836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8895664215088</t>
+    <t xml:space="preserve">25.59055519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8895683288574</t>
   </si>
   <si>
     <t xml:space="preserve">26.8710098266602</t>
@@ -3644,10 +3644,10 @@
     <t xml:space="preserve">26.9823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5926494598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6854381561279</t>
+    <t xml:space="preserve">26.5926475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6854362487793</t>
   </si>
   <si>
     <t xml:space="preserve">25.5719966888428</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">25.5163249969482</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7411079406738</t>
+    <t xml:space="preserve">26.7411098480225</t>
   </si>
   <si>
     <t xml:space="preserve">27.3535003662109</t>
@@ -3665,19 +3665,19 @@
     <t xml:space="preserve">27.6318607330322</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0793323516846</t>
+    <t xml:space="preserve">29.0793342590332</t>
   </si>
   <si>
     <t xml:space="preserve">30.638147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">31.139196395874</t>
+    <t xml:space="preserve">31.1391983032227</t>
   </si>
   <si>
     <t xml:space="preserve">29.7659549713135</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1864833831787</t>
+    <t xml:space="preserve">27.1864852905273</t>
   </si>
   <si>
     <t xml:space="preserve">27.0380249023438</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">27.5019569396973</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7803192138672</t>
+    <t xml:space="preserve">27.7803211212158</t>
   </si>
   <si>
     <t xml:space="preserve">26.945240020752</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">27.0937004089355</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3349418640137</t>
+    <t xml:space="preserve">27.3349437713623</t>
   </si>
   <si>
     <t xml:space="preserve">28.0586795806885</t>
@@ -3704,16 +3704,16 @@
     <t xml:space="preserve">27.7432041168213</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3720588684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5205173492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7782249450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4091720581055</t>
+    <t xml:space="preserve">27.3720569610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5205154418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7782230377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4091739654541</t>
   </si>
   <si>
     <t xml:space="preserve">27.9287796020508</t>
@@ -3734,16 +3734,16 @@
     <t xml:space="preserve">27.9658908843994</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5040531158447</t>
+    <t xml:space="preserve">28.5040550231934</t>
   </si>
   <si>
     <t xml:space="preserve">28.0772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8545475006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2050399780273</t>
+    <t xml:space="preserve">27.854549407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.205041885376</t>
   </si>
   <si>
     <t xml:space="preserve">27.9102210998535</t>
@@ -3761,10 +3761,10 @@
     <t xml:space="preserve">28.4483833312988</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2442531585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473342895508</t>
+    <t xml:space="preserve">28.244255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473361968994</t>
   </si>
   <si>
     <t xml:space="preserve">26.4441909790039</t>
@@ -3776,13 +3776,13 @@
     <t xml:space="preserve">26.3699626922607</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6647834777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7554740905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2358722686768</t>
+    <t xml:space="preserve">25.6647853851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7554759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2358703613281</t>
   </si>
   <si>
     <t xml:space="preserve">25.1080627441406</t>
@@ -3791,13 +3791,13 @@
     <t xml:space="preserve">24.4956722259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8461685180664</t>
+    <t xml:space="preserve">23.8461666107178</t>
   </si>
   <si>
     <t xml:space="preserve">23.4750194549561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4007911682129</t>
+    <t xml:space="preserve">23.4007892608643</t>
   </si>
   <si>
     <t xml:space="preserve">24.1987552642822</t>
@@ -3812,13 +3812,13 @@
     <t xml:space="preserve">24.7740345001221</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3864250183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2379665374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0523929595947</t>
+    <t xml:space="preserve">25.3864231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.237964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0523910522461</t>
   </si>
   <si>
     <t xml:space="preserve">25.1266212463379</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">25.0152759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">25.070951461792</t>
+    <t xml:space="preserve">25.0709495544434</t>
   </si>
   <si>
     <t xml:space="preserve">24.9781627655029</t>
@@ -3848,28 +3848,28 @@
     <t xml:space="preserve">24.4028854370117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.439998626709</t>
+    <t xml:space="preserve">24.4400005340576</t>
   </si>
   <si>
     <t xml:space="preserve">24.0131816864014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6605930328369</t>
+    <t xml:space="preserve">23.6605911254883</t>
   </si>
   <si>
     <t xml:space="preserve">23.2894458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9904346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9533176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0089912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1553516387939</t>
+    <t xml:space="preserve">21.9904327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9533195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0089893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1553535461426</t>
   </si>
   <si>
     <t xml:space="preserve">20.8213214874268</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">21.5636138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4687309265137</t>
+    <t xml:space="preserve">20.4687328338623</t>
   </si>
   <si>
     <t xml:space="preserve">21.099681854248</t>
@@ -3899,7 +3899,7 @@
     <t xml:space="preserve">22.1203346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6584968566895</t>
+    <t xml:space="preserve">22.6584987640381</t>
   </si>
   <si>
     <t xml:space="preserve">22.6399402618408</t>
@@ -3917,7 +3917,7 @@
     <t xml:space="preserve">23.0667572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4358081817627</t>
+    <t xml:space="preserve">22.4358100891113</t>
   </si>
   <si>
     <t xml:space="preserve">21.507942199707</t>
@@ -3929,37 +3929,37 @@
     <t xml:space="preserve">21.9347610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0419139862061</t>
+    <t xml:space="preserve">20.0419120788574</t>
   </si>
   <si>
     <t xml:space="preserve">20.190372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.006893157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5615196228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3945007324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9305686950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9326629638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3202724456787</t>
+    <t xml:space="preserve">21.0068950653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5615177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3945026397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.930570602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9326648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3202743530273</t>
   </si>
   <si>
     <t xml:space="preserve">20.6171894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8769950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4872894287109</t>
+    <t xml:space="preserve">20.8769931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4872875213623</t>
   </si>
   <si>
     <t xml:space="preserve">20.1347007751465</t>
@@ -3977,16 +3977,16 @@
     <t xml:space="preserve">18.2325744628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2232933044434</t>
+    <t xml:space="preserve">18.223295211792</t>
   </si>
   <si>
     <t xml:space="preserve">17.16552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4624462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.170615196228</t>
+    <t xml:space="preserve">17.4624443054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1706161499023</t>
   </si>
   <si>
     <t xml:space="preserve">15.319073677063</t>
@@ -3995,10 +3995,10 @@
     <t xml:space="preserve">16.3768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4582538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3304481506348</t>
+    <t xml:space="preserve">15.4582529067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3304500579834</t>
   </si>
   <si>
     <t xml:space="preserve">13.5468502044678</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">14.3448143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3355360031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7437973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9129076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7458915710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1221265792847</t>
+    <t xml:space="preserve">14.3355350494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7437963485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9129085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7458925247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.122127532959</t>
   </si>
   <si>
     <t xml:space="preserve">14.0757331848145</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">13.8994379043579</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4468784332275</t>
+    <t xml:space="preserve">14.4468793869019</t>
   </si>
   <si>
     <t xml:space="preserve">13.9458312988281</t>
@@ -4052,7 +4052,7 @@
     <t xml:space="preserve">13.6953077316284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8901596069336</t>
+    <t xml:space="preserve">13.8901605606079</t>
   </si>
   <si>
     <t xml:space="preserve">12.8787851333618</t>
@@ -4064,10 +4064,10 @@
     <t xml:space="preserve">13.4355049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.031436920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1334991455078</t>
+    <t xml:space="preserve">15.0314350128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1335000991821</t>
   </si>
   <si>
     <t xml:space="preserve">15.3933029174805</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">15.4304170608521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1242208480835</t>
+    <t xml:space="preserve">15.1242218017578</t>
   </si>
   <si>
     <t xml:space="preserve">15.3210411071777</t>
@@ -4401,9 +4401,6 @@
   </si>
   <si>
     <t xml:space="preserve">12.3012132644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415031433105</t>
@@ -51274,7 +51271,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1760" t="s">
-        <v>1463</v>
+        <v>50</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51326,7 +51323,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1762" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51378,7 +51375,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1764" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51430,7 +51427,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1766" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51456,7 +51453,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51482,7 +51479,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1768" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51508,7 +51505,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1769" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51560,7 +51557,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51586,7 +51583,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1772" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51638,7 +51635,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1774" t="s">
-        <v>1463</v>
+        <v>50</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51664,7 +51661,7 @@
         <v>12.5</v>
       </c>
       <c r="G1775" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51716,7 +51713,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G1777" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51742,7 +51739,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51768,7 +51765,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1779" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51898,7 +51895,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1784" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51924,7 +51921,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1785" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51976,7 +51973,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1787" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52002,7 +51999,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1788" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52028,7 +52025,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1789" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52054,7 +52051,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1790" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52080,7 +52077,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1791" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52106,7 +52103,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52132,7 +52129,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G1793" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52158,7 +52155,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1794" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52184,7 +52181,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G1795" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52210,7 +52207,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1796" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52236,7 +52233,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52262,7 +52259,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52288,7 +52285,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1799" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52314,7 +52311,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1800" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52340,7 +52337,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52366,7 +52363,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1802" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52392,7 +52389,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52418,7 +52415,7 @@
         <v>14.7700004577637</v>
       </c>
       <c r="G1804" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52444,7 +52441,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1805" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52470,7 +52467,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52522,7 +52519,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1808" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52548,7 +52545,7 @@
         <v>15</v>
       </c>
       <c r="G1809" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52574,7 +52571,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1810" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52600,7 +52597,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G1811" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52626,7 +52623,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1812" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52652,7 +52649,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1813" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52678,7 +52675,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1814" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52704,7 +52701,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1815" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52730,7 +52727,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1816" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52756,7 +52753,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1817" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52782,7 +52779,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1818" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52808,7 +52805,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1819" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52834,7 +52831,7 @@
         <v>14.9700002670288</v>
       </c>
       <c r="G1820" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52860,7 +52857,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1821" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52886,7 +52883,7 @@
         <v>16.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52912,7 +52909,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1823" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52938,7 +52935,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1824" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52964,7 +52961,7 @@
         <v>17.4300003051758</v>
       </c>
       <c r="G1825" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53016,7 +53013,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1827" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53042,7 +53039,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1828" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53068,7 +53065,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1829" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53094,7 +53091,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1830" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53120,7 +53117,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1831" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53146,7 +53143,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1832" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53172,7 +53169,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1833" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53198,7 +53195,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1834" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53224,7 +53221,7 @@
         <v>15.25</v>
       </c>
       <c r="G1835" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53250,7 +53247,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53276,7 +53273,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1837" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53302,7 +53299,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1838" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53328,7 +53325,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1839" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53354,7 +53351,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1840" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53406,7 +53403,7 @@
         <v>14.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53432,7 +53429,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1843" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53458,7 +53455,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1844" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53484,7 +53481,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1845" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53510,7 +53507,7 @@
         <v>14.5299997329712</v>
       </c>
       <c r="G1846" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53536,7 +53533,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53562,7 +53559,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53588,7 +53585,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53640,7 +53637,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1851" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53666,7 +53663,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1852" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53692,7 +53689,7 @@
         <v>14.1300001144409</v>
       </c>
       <c r="G1853" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53718,7 +53715,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1854" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53744,7 +53741,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1855" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53770,7 +53767,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1856" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53796,7 +53793,7 @@
         <v>14</v>
       </c>
       <c r="G1857" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53822,7 +53819,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G1858" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53848,7 +53845,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1859" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53900,7 +53897,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1861" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53926,7 +53923,7 @@
         <v>13.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53952,7 +53949,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1863" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53978,7 +53975,7 @@
         <v>13.75</v>
       </c>
       <c r="G1864" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54004,7 +54001,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1865" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54056,7 +54053,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1867" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54108,7 +54105,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G1869" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54134,7 +54131,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1870" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54160,7 +54157,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1871" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54186,7 +54183,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1872" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54212,7 +54209,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G1873" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54238,7 +54235,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G1874" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54264,7 +54261,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G1875" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54290,7 +54287,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54316,7 +54313,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54342,7 +54339,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1878" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54368,7 +54365,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1879" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54394,7 +54391,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1880" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54420,7 +54417,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1881" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54446,7 +54443,7 @@
         <v>11.75</v>
       </c>
       <c r="G1882" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54472,7 +54469,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54498,7 +54495,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G1884" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54524,7 +54521,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1885" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54550,7 +54547,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54576,7 +54573,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54602,7 +54599,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1888" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54628,7 +54625,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1889" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54654,7 +54651,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54680,7 +54677,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1891" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54706,7 +54703,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1892" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54732,7 +54729,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1893" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54758,7 +54755,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54784,7 +54781,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1895" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54810,7 +54807,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54836,7 +54833,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1897" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54862,7 +54859,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1898" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54888,7 +54885,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1899" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54914,7 +54911,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1900" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54940,7 +54937,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1901" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54966,7 +54963,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1902" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54992,7 +54989,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55018,7 +55015,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1904" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55044,7 +55041,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1905" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55070,7 +55067,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1906" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55096,7 +55093,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1907" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55122,7 +55119,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1908" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55148,7 +55145,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1909" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55174,7 +55171,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55200,7 +55197,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1911" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55226,7 +55223,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55252,7 +55249,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1913" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55278,7 +55275,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1914" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55304,7 +55301,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1915" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55330,7 +55327,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1916" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55356,7 +55353,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1917" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55382,7 +55379,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1918" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55408,7 +55405,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55434,7 +55431,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1920" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55460,7 +55457,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55486,7 +55483,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55512,7 +55509,7 @@
         <v>12</v>
       </c>
       <c r="G1923" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55538,7 +55535,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55564,7 +55561,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1925" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55590,7 +55587,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55616,7 +55613,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1927" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55642,7 +55639,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1928" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55668,7 +55665,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1929" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55694,7 +55691,7 @@
         <v>12.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55720,7 +55717,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1931" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55746,7 +55743,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1932" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55772,7 +55769,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55798,7 +55795,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55824,7 +55821,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55850,7 +55847,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55876,7 +55873,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1937" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55902,7 +55899,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55928,7 +55925,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55954,7 +55951,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1940" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55980,7 +55977,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1941" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56006,7 +56003,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1942" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56032,7 +56029,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1943" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56058,7 +56055,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56084,7 +56081,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1945" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56110,7 +56107,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1946" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56136,7 +56133,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1947" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56162,7 +56159,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1948" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56188,7 +56185,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1949" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56214,7 +56211,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1950" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56240,7 +56237,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1951" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56266,7 +56263,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1952" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56292,7 +56289,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G1953" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56318,7 +56315,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1954" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56344,7 +56341,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56370,7 +56367,7 @@
         <v>12.5</v>
       </c>
       <c r="G1956" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56396,7 +56393,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1957" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56422,7 +56419,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56448,7 +56445,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1959" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56474,7 +56471,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56500,7 +56497,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1961" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56526,7 +56523,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1962" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56552,7 +56549,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1963" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56578,7 +56575,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1964" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56604,7 +56601,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1965" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56630,7 +56627,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1966" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56656,7 +56653,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G1967" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56682,7 +56679,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1968" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56708,7 +56705,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56734,7 +56731,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G1970" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56760,7 +56757,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56786,7 +56783,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56812,7 +56809,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56838,7 +56835,7 @@
         <v>10.9899997711182</v>
       </c>
       <c r="G1974" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56864,7 +56861,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1975" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56890,7 +56887,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56916,7 +56913,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1977" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56942,7 +56939,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1978" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56968,7 +56965,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56994,7 +56991,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57020,7 +57017,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57046,7 +57043,7 @@
         <v>11.25</v>
       </c>
       <c r="G1982" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57072,7 +57069,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1983" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57098,7 +57095,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57124,7 +57121,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1985" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57150,7 +57147,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G1986" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57176,7 +57173,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1987" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57202,7 +57199,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57228,7 +57225,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57254,7 +57251,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1990" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57280,7 +57277,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57306,7 +57303,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1992" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57332,7 +57329,7 @@
         <v>9.70499992370605</v>
       </c>
       <c r="G1993" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57358,7 +57355,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57384,7 +57381,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57410,7 +57407,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1996" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57436,7 +57433,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1997" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57462,7 +57459,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1998" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57488,7 +57485,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1999" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57514,7 +57511,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57540,7 +57537,7 @@
         <v>10.75</v>
       </c>
       <c r="G2001" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57566,7 +57563,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G2002" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57592,7 +57589,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2003" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57618,7 +57615,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2004" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57644,7 +57641,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2005" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57670,7 +57667,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G2006" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57696,7 +57693,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2007" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57722,7 +57719,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2008" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57748,7 +57745,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2009" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57774,7 +57771,7 @@
         <v>11.0900001525879</v>
       </c>
       <c r="G2010" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57800,7 +57797,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2011" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57826,7 +57823,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G2012" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57852,7 +57849,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2013" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57878,7 +57875,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2014" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57904,7 +57901,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57930,7 +57927,7 @@
         <v>11.5</v>
       </c>
       <c r="G2016" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57956,7 +57953,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57982,7 +57979,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2018" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58008,7 +58005,7 @@
         <v>11</v>
       </c>
       <c r="G2019" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58034,7 +58031,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2020" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58060,7 +58057,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58086,7 +58083,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G2022" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58112,7 +58109,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2023" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58138,7 +58135,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58164,7 +58161,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58190,7 +58187,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2026" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58216,7 +58213,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2027" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58242,7 +58239,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2028" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58268,7 +58265,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58294,7 +58291,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2030" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58320,7 +58317,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2031" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58346,7 +58343,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2032" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58372,7 +58369,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2033" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58398,7 +58395,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58424,7 +58421,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2035" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58450,7 +58447,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58476,7 +58473,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2037" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58502,7 +58499,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2038" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58528,7 +58525,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2039" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58554,7 +58551,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2040" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58580,7 +58577,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58606,7 +58603,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58632,7 +58629,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2043" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58658,7 +58655,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2044" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58684,7 +58681,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58710,7 +58707,7 @@
         <v>12</v>
       </c>
       <c r="G2046" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58736,7 +58733,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2047" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58762,7 +58759,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2048" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58788,7 +58785,7 @@
         <v>12</v>
       </c>
       <c r="G2049" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58814,7 +58811,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2050" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58840,7 +58837,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58866,7 +58863,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G2052" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58892,7 +58889,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2053" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58918,7 +58915,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G2054" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58944,7 +58941,7 @@
         <v>12.25</v>
       </c>
       <c r="G2055" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58970,7 +58967,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2056" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58996,7 +58993,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2057" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59022,7 +59019,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2058" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59048,7 +59045,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2059" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59074,7 +59071,7 @@
         <v>12.25</v>
       </c>
       <c r="G2060" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59100,7 +59097,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2061" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59126,7 +59123,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2062" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59152,7 +59149,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2063" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59178,7 +59175,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2064" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59204,7 +59201,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2065" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59230,7 +59227,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59256,7 +59253,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2067" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59282,7 +59279,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59308,7 +59305,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2069" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59334,7 +59331,7 @@
         <v>12.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59360,7 +59357,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2071" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59386,7 +59383,7 @@
         <v>12.25</v>
       </c>
       <c r="G2072" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59412,7 +59409,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2073" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59438,7 +59435,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59464,7 +59461,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2075" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59490,7 +59487,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2076" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59516,7 +59513,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2077" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59542,7 +59539,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G2078" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59568,7 +59565,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G2079" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59594,7 +59591,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59620,7 +59617,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2081" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59646,7 +59643,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2082" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59672,7 +59669,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59698,7 +59695,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2084" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59724,7 +59721,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2085" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59750,7 +59747,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59776,7 +59773,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2087" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59802,7 +59799,7 @@
         <v>11.7299995422363</v>
       </c>
       <c r="G2088" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59828,7 +59825,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59854,7 +59851,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G2090" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59880,7 +59877,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59906,7 +59903,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59932,7 +59929,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2093" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59958,7 +59955,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2094" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59984,7 +59981,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2095" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60010,7 +60007,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60036,7 +60033,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60062,7 +60059,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2098" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60088,7 +60085,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60114,7 +60111,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60140,7 +60137,7 @@
         <v>12.3699998855591</v>
       </c>
       <c r="G2101" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60166,7 +60163,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2102" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60192,7 +60189,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2103" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60218,7 +60215,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2104" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60244,7 +60241,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60270,7 +60267,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60296,7 +60293,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60322,7 +60319,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2108" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60348,7 +60345,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60374,7 +60371,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2110" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60400,7 +60397,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2111" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60426,7 +60423,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G2112" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60452,7 +60449,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G2113" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60478,7 +60475,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2114" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60504,7 +60501,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2115" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60530,7 +60527,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60556,7 +60553,7 @@
         <v>11.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60582,7 +60579,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2118" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60608,7 +60605,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2119" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60634,7 +60631,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2120" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60660,7 +60657,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2121" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60686,7 +60683,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2122" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60712,7 +60709,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2123" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60738,7 +60735,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2124" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60764,7 +60761,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2125" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60790,7 +60787,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60816,7 +60813,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60842,7 +60839,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2128" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60868,7 +60865,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2129" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60894,7 +60891,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G2130" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60920,7 +60917,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60946,7 +60943,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2132" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60972,7 +60969,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60998,7 +60995,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2134" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61024,7 +61021,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2135" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61050,7 +61047,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61076,7 +61073,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2137" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61102,7 +61099,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2138" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61128,7 +61125,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2139" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61154,7 +61151,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2140" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61180,7 +61177,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2141" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61206,7 +61203,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2142" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61232,7 +61229,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2143" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61258,7 +61255,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2144" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61284,7 +61281,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61310,7 +61307,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2146" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61336,7 +61333,7 @@
         <v>11.75</v>
       </c>
       <c r="G2147" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61362,7 +61359,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61388,7 +61385,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2149" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61414,7 +61411,7 @@
         <v>11.5</v>
       </c>
       <c r="G2150" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61440,7 +61437,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G2151" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61466,7 +61463,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2152" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61492,7 +61489,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2153" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61518,7 +61515,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61544,7 +61541,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61570,7 +61567,7 @@
         <v>11</v>
       </c>
       <c r="G2156" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61578,7 +61575,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6495949074</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>98366</v>
@@ -61596,9 +61593,35 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2157" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6494097222</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>49421</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>11.1599998474121</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>10.7399997711182</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>11.1300001144409</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>11.039999961853</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1723">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,43 +47,43 @@
     <t xml:space="preserve">13.0528593063354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8206930160522</t>
+    <t xml:space="preserve">12.8206920623779</t>
   </si>
   <si>
     <t xml:space="preserve">12.4681453704834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3133687973022</t>
+    <t xml:space="preserve">12.3133678436279</t>
   </si>
   <si>
     <t xml:space="preserve">12.33056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2101831436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85413455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4130516052246</t>
+    <t xml:space="preserve">12.21018409729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203748703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85413360595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4130506515503</t>
   </si>
   <si>
     <t xml:space="preserve">9.90572643280029</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5334339141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3528604507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8429880142212</t>
+    <t xml:space="preserve">10.5334320068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3528594970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8429861068726</t>
   </si>
   <si>
     <t xml:space="preserve">10.8773813247681</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">10.7913942337036</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6366176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6968078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2496767044067</t>
+    <t xml:space="preserve">10.6366186141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2496757507324</t>
   </si>
   <si>
     <t xml:space="preserve">10.5162353515625</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">10.0777015686035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08884811401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02865791320801</t>
+    <t xml:space="preserve">9.08884716033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02865886688232</t>
   </si>
   <si>
     <t xml:space="preserve">9.45859336853027</t>
@@ -122,31 +122,31 @@
     <t xml:space="preserve">9.2006311416626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48438930511475</t>
+    <t xml:space="preserve">9.48438835144043</t>
   </si>
   <si>
     <t xml:space="preserve">9.95731925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71655464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4990396499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044523239136</t>
+    <t xml:space="preserve">9.71655559539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4990386962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044542312622</t>
   </si>
   <si>
     <t xml:space="preserve">10.2582750320435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0665531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840700149536</t>
+    <t xml:space="preserve">11.066554069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.610821723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2840690612793</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410774230957</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">11.1009483337402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9719696044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8748331069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0124139785767</t>
+    <t xml:space="preserve">10.9719676971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8748340606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0124130249023</t>
   </si>
   <si>
     <t xml:space="preserve">12.1757898330688</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">11.8404397964478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0382099151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.694260597229</t>
+    <t xml:space="preserve">12.0382089614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6942625045776</t>
   </si>
   <si>
     <t xml:space="preserve">11.4362993240356</t>
@@ -182,10 +182,10 @@
     <t xml:space="preserve">11.4448986053467</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7286558151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092292785645</t>
+    <t xml:space="preserve">11.7286548614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092283248901</t>
   </si>
   <si>
     <t xml:space="preserve">11.9866180419922</t>
@@ -194,16 +194,16 @@
     <t xml:space="preserve">11.8662357330322</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1155977249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.261775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.27037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079542160034</t>
+    <t xml:space="preserve">12.1155986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617769241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2703742980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079551696777</t>
   </si>
   <si>
     <t xml:space="preserve">12.201584815979</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">12.2359790802002</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2875719070435</t>
+    <t xml:space="preserve">12.2875728607178</t>
   </si>
   <si>
     <t xml:space="preserve">11.9694204330444</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">11.3503112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8060445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9522228240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8834314346313</t>
+    <t xml:space="preserve">11.8060436248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9522218704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8834342956543</t>
   </si>
   <si>
     <t xml:space="preserve">11.7716484069824</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">11.6684637069702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7028589248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394840240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557258605957</t>
+    <t xml:space="preserve">11.7028608322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394849777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25572681427</t>
   </si>
   <si>
     <t xml:space="preserve">11.1697378158569</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">11.4105043411255</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2213315963745</t>
+    <t xml:space="preserve">11.2213306427002</t>
   </si>
   <si>
     <t xml:space="preserve">11.1181468963623</t>
@@ -269,22 +269,22 @@
     <t xml:space="preserve">11.0493564605713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2041339874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6624135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0166463851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4941520690918</t>
+    <t xml:space="preserve">11.2041349411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6624126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0166473388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4941530227661</t>
   </si>
   <si>
     <t xml:space="preserve">10.4144525527954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2816123962402</t>
+    <t xml:space="preserve">10.2816114425659</t>
   </si>
   <si>
     <t xml:space="preserve">10.3258924484253</t>
@@ -293,25 +293,25 @@
     <t xml:space="preserve">9.98051643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3790292739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0602178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3613157272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3081827163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6712703704834</t>
+    <t xml:space="preserve">10.3790283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0602159500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3613166809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3081817626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6712694168091</t>
   </si>
   <si>
     <t xml:space="preserve">11.4771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1937637329102</t>
+    <t xml:space="preserve">11.1937646865845</t>
   </si>
   <si>
     <t xml:space="preserve">10.9812240600586</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">11.3000345230103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3443126678467</t>
+    <t xml:space="preserve">11.344313621521</t>
   </si>
   <si>
     <t xml:space="preserve">11.0697822570801</t>
@@ -329,37 +329,37 @@
     <t xml:space="preserve">10.8926649093628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9015207290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9900798797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9723672866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8749542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5738554000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1222085952759</t>
+    <t xml:space="preserve">10.9015226364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9900789260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9723682403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8749532699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5738563537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1222076416016</t>
   </si>
   <si>
     <t xml:space="preserve">10.0513620376587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0070829391479</t>
+    <t xml:space="preserve">10.0070819854736</t>
   </si>
   <si>
     <t xml:space="preserve">9.7414083480835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0956411361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561447143555</t>
+    <t xml:space="preserve">10.0956401824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561428070068</t>
   </si>
   <si>
     <t xml:space="preserve">10.4055948257446</t>
@@ -380,34 +380,34 @@
     <t xml:space="preserve">9.73255157470703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62628269195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98937129974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461891174316</t>
+    <t xml:space="preserve">9.62628173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98937034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.246190071106</t>
   </si>
   <si>
     <t xml:space="preserve">10.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23662662506104</t>
+    <t xml:space="preserve">9.23662757873535</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234657287598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77683067321777</t>
+    <t xml:space="preserve">9.77683162689209</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4410181045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3436050415039</t>
+    <t xml:space="preserve">10.4410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3436040878296</t>
   </si>
   <si>
     <t xml:space="preserve">10.1930561065674</t>
@@ -416,10 +416,10 @@
     <t xml:space="preserve">10.2727584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.210765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7598276138306</t>
+    <t xml:space="preserve">10.2107667922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7598285675049</t>
   </si>
   <si>
     <t xml:space="preserve">11.1406297683716</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">11.0963487625122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0520706176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9369449615479</t>
+    <t xml:space="preserve">11.0520696640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9369440078735</t>
   </si>
   <si>
     <t xml:space="preserve">11.1583404541016</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">10.9635133743286</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2291870117188</t>
+    <t xml:space="preserve">11.2291860580444</t>
   </si>
   <si>
     <t xml:space="preserve">11.122917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2823219299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1849060058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.246898651123</t>
+    <t xml:space="preserve">11.2823209762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.184907913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2468996047974</t>
   </si>
   <si>
     <t xml:space="preserve">11.3266010284424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5922765731812</t>
+    <t xml:space="preserve">11.5922756195068</t>
   </si>
   <si>
     <t xml:space="preserve">11.8136720657349</t>
@@ -482,25 +482,25 @@
     <t xml:space="preserve">11.840238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7516822814941</t>
+    <t xml:space="preserve">11.7516813278198</t>
   </si>
   <si>
     <t xml:space="preserve">11.8668060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7162570953369</t>
+    <t xml:space="preserve">11.7162561416626</t>
   </si>
   <si>
     <t xml:space="preserve">11.7339696884155</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5125722885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3885917663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4328699111938</t>
+    <t xml:space="preserve">11.5125732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3885908126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4328708648682</t>
   </si>
   <si>
     <t xml:space="preserve">11.202618598938</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">11.8933744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1059141159058</t>
+    <t xml:space="preserve">12.1059131622314</t>
   </si>
   <si>
     <t xml:space="preserve">12.1236248016357</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">12.1324806213379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752716064453</t>
+    <t xml:space="preserve">12.5752725601196</t>
   </si>
   <si>
     <t xml:space="preserve">12.6018390655518</t>
@@ -539,10 +539,10 @@
     <t xml:space="preserve">12.6726865768433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9914970397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8852272033691</t>
+    <t xml:space="preserve">12.9914960861206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8852262496948</t>
   </si>
   <si>
     <t xml:space="preserve">12.9295063018799</t>
@@ -554,31 +554,31 @@
     <t xml:space="preserve">13.4874210357666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6556844711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619533538818</t>
+    <t xml:space="preserve">13.6556825637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619524002075</t>
   </si>
   <si>
     <t xml:space="preserve">13.5051336288452</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4527072906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3021583557129</t>
+    <t xml:space="preserve">14.4527063369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3021574020386</t>
   </si>
   <si>
     <t xml:space="preserve">14.3375825881958</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2135992050171</t>
+    <t xml:space="preserve">14.2136001586914</t>
   </si>
   <si>
     <t xml:space="preserve">14.2047452926636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1516103744507</t>
+    <t xml:space="preserve">14.1516084671021</t>
   </si>
   <si>
     <t xml:space="preserve">14.0010604858398</t>
@@ -587,94 +587,94 @@
     <t xml:space="preserve">13.8593664169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6822500228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8416547775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9125022888184</t>
+    <t xml:space="preserve">13.6822509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8416557312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912501335144</t>
   </si>
   <si>
     <t xml:space="preserve">13.8062314987183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.274881362915</t>
+    <t xml:space="preserve">13.2748823165894</t>
   </si>
   <si>
     <t xml:space="preserve">13.4519987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2306022644043</t>
+    <t xml:space="preserve">13.2306032180786</t>
   </si>
   <si>
     <t xml:space="preserve">13.7265300750732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6379709243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8150882720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9567813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2578802108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1781759262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8689308166504</t>
+    <t xml:space="preserve">13.6379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8150873184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9567823410034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2578792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1781768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.868932723999</t>
   </si>
   <si>
     <t xml:space="preserve">15.3914232254028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.364857673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5773992538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862550735474</t>
+    <t xml:space="preserve">15.3648567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5773973464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.586254119873</t>
   </si>
   <si>
     <t xml:space="preserve">15.4534158706665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5331182479858</t>
+    <t xml:space="preserve">15.5331201553345</t>
   </si>
   <si>
     <t xml:space="preserve">15.4268484115601</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6216745376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545156478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6305313110352</t>
+    <t xml:space="preserve">15.6216764450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545137405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6305332183838</t>
   </si>
   <si>
     <t xml:space="preserve">15.3294343948364</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8962078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2858619689941</t>
+    <t xml:space="preserve">15.8962059020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2858638763428</t>
   </si>
   <si>
     <t xml:space="preserve">16.4629802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5603942871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6046733856201</t>
+    <t xml:space="preserve">16.5603923797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6046714782715</t>
   </si>
   <si>
     <t xml:space="preserve">17.136022567749</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">16.9854736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2511463165283</t>
+    <t xml:space="preserve">17.251148223877</t>
   </si>
   <si>
     <t xml:space="preserve">16.8703460693359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6489524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3301429748535</t>
+    <t xml:space="preserve">16.6489505767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3301410675049</t>
   </si>
   <si>
     <t xml:space="preserve">16.6843757629395</t>
@@ -704,22 +704,22 @@
     <t xml:space="preserve">16.6666641235352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0917434692383</t>
+    <t xml:space="preserve">17.0917415618896</t>
   </si>
   <si>
     <t xml:space="preserve">16.7995014190674</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9766178131104</t>
+    <t xml:space="preserve">16.9766159057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.9500522613525</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1094512939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3928413391113</t>
+    <t xml:space="preserve">17.1094532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.39284324646</t>
   </si>
   <si>
     <t xml:space="preserve">17.2245807647705</t>
@@ -728,37 +728,37 @@
     <t xml:space="preserve">16.6312427520752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1802997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9589061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3042850494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4459781646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.755931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6408061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6053791046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8179244995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.55224609375</t>
+    <t xml:space="preserve">17.1803016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9589080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3042831420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4459762573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7559299468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6408042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6053829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8179225921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5522441864014</t>
   </si>
   <si>
     <t xml:space="preserve">17.6585159301758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8444900512695</t>
+    <t xml:space="preserve">17.8444881439209</t>
   </si>
   <si>
     <t xml:space="preserve">17.9419040679932</t>
@@ -767,49 +767,49 @@
     <t xml:space="preserve">17.6762256622314</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8437805175781</t>
+    <t xml:space="preserve">16.8437824249268</t>
   </si>
   <si>
     <t xml:space="preserve">16.8614921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0474643707275</t>
+    <t xml:space="preserve">17.0474624633789</t>
   </si>
   <si>
     <t xml:space="preserve">17.2600040435791</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3751316070557</t>
+    <t xml:space="preserve">17.375129699707</t>
   </si>
   <si>
     <t xml:space="preserve">16.7817878723145</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068710327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9146289825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308506011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3839855194092</t>
+    <t xml:space="preserve">17.2068691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9146270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3839874267578</t>
   </si>
   <si>
     <t xml:space="preserve">17.490255355835</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3485641479492</t>
+    <t xml:space="preserve">17.348560333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.5345325469971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4725456237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470741271973</t>
+    <t xml:space="preserve">17.4725437164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470760345459</t>
   </si>
   <si>
     <t xml:space="preserve">18.0481719970703</t>
@@ -818,16 +818,16 @@
     <t xml:space="preserve">19.482816696167</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0495891571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5012359619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7137756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4569568634033</t>
+    <t xml:space="preserve">20.0495872497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5012378692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7137775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4569549560547</t>
   </si>
   <si>
     <t xml:space="preserve">20.9528827667236</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">21.7056312561035</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2097034454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4488067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7764778137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8738899230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0421485900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9358806610107</t>
+    <t xml:space="preserve">21.2097015380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4488086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7764759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8738880157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0421504974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9358825683594</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395645141602</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">22.4140930175781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3875274658203</t>
+    <t xml:space="preserve">22.3875293731689</t>
   </si>
   <si>
     <t xml:space="preserve">22.4760837554932</t>
   </si>
   <si>
-    <t xml:space="preserve">22.449520111084</t>
+    <t xml:space="preserve">22.4495182037354</t>
   </si>
   <si>
     <t xml:space="preserve">22.3166809082031</t>
@@ -878,22 +878,22 @@
     <t xml:space="preserve">22.7594718933105</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5646438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7948932647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.750617980957</t>
+    <t xml:space="preserve">22.5646419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6089267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7506160736084</t>
   </si>
   <si>
     <t xml:space="preserve">22.8037509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0251445770264</t>
+    <t xml:space="preserve">23.025146484375</t>
   </si>
   <si>
     <t xml:space="preserve">23.2288303375244</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">22.96315574646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5026531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3262462615967</t>
+    <t xml:space="preserve">22.5026550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.326244354248</t>
   </si>
   <si>
     <t xml:space="preserve">23.5210723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6450576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0524234771729</t>
+    <t xml:space="preserve">23.6450538635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0524215698242</t>
   </si>
   <si>
     <t xml:space="preserve">24.3800888061523</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">25.2302474975586</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1062660217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0354175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5763301849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6390743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.553337097168</t>
+    <t xml:space="preserve">25.1062641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0354194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5763320922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6390762329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5533390045166</t>
   </si>
   <si>
     <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3152236938477</t>
+    <t xml:space="preserve">28.315221786499</t>
   </si>
   <si>
     <t xml:space="preserve">27.8312015533447</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">28.8440608978271</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5342407226562</t>
+    <t xml:space="preserve">29.5342388153076</t>
   </si>
   <si>
     <t xml:space="preserve">27.9656524658203</t>
@@ -983,34 +983,34 @@
     <t xml:space="preserve">30.4753913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9504451751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4126472473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8428897857666</t>
+    <t xml:space="preserve">30.9504432678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4126491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8428916931152</t>
   </si>
   <si>
     <t xml:space="preserve">31.0042304992676</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0759372711182</t>
+    <t xml:space="preserve">31.0759353637695</t>
   </si>
   <si>
     <t xml:space="preserve">31.1924591064453</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1745338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1117877960205</t>
+    <t xml:space="preserve">31.1745319366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1117897033691</t>
   </si>
   <si>
     <t xml:space="preserve">30.8249588012695</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9235591888428</t>
+    <t xml:space="preserve">30.9235553741455</t>
   </si>
   <si>
     <t xml:space="preserve">30.8608150482178</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">29.525276184082</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6686859130859</t>
+    <t xml:space="preserve">29.6686878204346</t>
   </si>
   <si>
     <t xml:space="preserve">29.4804611206055</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">29.44460105896</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3409385681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3050899505615</t>
+    <t xml:space="preserve">30.3409404754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3050880432129</t>
   </si>
   <si>
     <t xml:space="preserve">30.1706352233887</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">30.2244186401367</t>
   </si>
   <si>
-    <t xml:space="preserve">29.650764465332</t>
+    <t xml:space="preserve">29.6507625579834</t>
   </si>
   <si>
     <t xml:space="preserve">29.9824085235596</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">29.0771083831787</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2922267913818</t>
+    <t xml:space="preserve">29.2922286987305</t>
   </si>
   <si>
     <t xml:space="preserve">27.9297981262207</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">27.8491287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6429748535156</t>
+    <t xml:space="preserve">27.642972946167</t>
   </si>
   <si>
     <t xml:space="preserve">27.7326068878174</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">28.2793674468994</t>
   </si>
   <si>
-    <t xml:space="preserve">28.512414932251</t>
+    <t xml:space="preserve">28.5124168395996</t>
   </si>
   <si>
     <t xml:space="preserve">27.8760185241699</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">29.7045421600342</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4983863830566</t>
+    <t xml:space="preserve">29.4983882904053</t>
   </si>
   <si>
     <t xml:space="preserve">29.3370456695557</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">29.1577758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1129589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7762508392334</t>
+    <t xml:space="preserve">29.1129608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7762489318848</t>
   </si>
   <si>
     <t xml:space="preserve">30.0272216796875</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">29.8658809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3140506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0092964172363</t>
+    <t xml:space="preserve">30.3140525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0092945098877</t>
   </si>
   <si>
     <t xml:space="preserve">30.358865737915</t>
@@ -1181,25 +1181,25 @@
     <t xml:space="preserve">30.6456928253174</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4664287567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2692337036133</t>
+    <t xml:space="preserve">30.4664306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2692317962646</t>
   </si>
   <si>
     <t xml:space="preserve">30.2333793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4036808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2680625915527</t>
+    <t xml:space="preserve">30.4036827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.26806640625</t>
   </si>
   <si>
     <t xml:space="preserve">31.6764755249023</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9952659606934</t>
+    <t xml:space="preserve">30.9952640533447</t>
   </si>
   <si>
     <t xml:space="preserve">32.1784286499023</t>
@@ -1208,13 +1208,13 @@
     <t xml:space="preserve">31.9543437957764</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8736743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3666534423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2591018676758</t>
+    <t xml:space="preserve">31.8736705780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3666572570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2590980529785</t>
   </si>
   <si>
     <t xml:space="preserve">32.1336059570312</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">34.7777976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4192657470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6343803405762</t>
+    <t xml:space="preserve">34.419261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6343841552734</t>
   </si>
   <si>
     <t xml:space="preserve">34.741943359375</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">35.629322052002</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4231643676758</t>
+    <t xml:space="preserve">35.4231605529785</t>
   </si>
   <si>
     <t xml:space="preserve">34.858470916748</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">34.5716438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">34.060733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0428009033203</t>
+    <t xml:space="preserve">34.0607299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0428047180176</t>
   </si>
   <si>
     <t xml:space="preserve">34.3385963439941</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">34.5088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3117065429688</t>
+    <t xml:space="preserve">34.3117027282715</t>
   </si>
   <si>
     <t xml:space="preserve">34.6164588928223</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3911972045898</t>
+    <t xml:space="preserve">36.3912010192871</t>
   </si>
   <si>
     <t xml:space="preserve">36.7049179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6281471252441</t>
+    <t xml:space="preserve">37.6281433105469</t>
   </si>
   <si>
     <t xml:space="preserve">39.0802040100098</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">38.8023452758789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4886245727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6499633789062</t>
+    <t xml:space="preserve">38.4886207580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6499671936035</t>
   </si>
   <si>
     <t xml:space="preserve">39.4387397766113</t>
@@ -1346,22 +1346,22 @@
     <t xml:space="preserve">39.0264282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0225296020508</t>
+    <t xml:space="preserve">38.022533416748</t>
   </si>
   <si>
     <t xml:space="preserve">38.5692977905273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2735023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5872230529785</t>
+    <t xml:space="preserve">38.2735061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5872192382812</t>
   </si>
   <si>
     <t xml:space="preserve">38.5603332519531</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7396049499512</t>
+    <t xml:space="preserve">38.7396011352539</t>
   </si>
   <si>
     <t xml:space="preserve">38.7844161987305</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">38.9099006652832</t>
   </si>
   <si>
-    <t xml:space="preserve">38.954719543457</t>
+    <t xml:space="preserve">38.9547157287598</t>
   </si>
   <si>
     <t xml:space="preserve">39.6628265380859</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">39.3042907714844</t>
   </si>
   <si>
-    <t xml:space="preserve">39.277400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5463027954102</t>
+    <t xml:space="preserve">39.2774047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5462989807129</t>
   </si>
   <si>
     <t xml:space="preserve">38.7754516601562</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5961875915527</t>
+    <t xml:space="preserve">38.59619140625</t>
   </si>
   <si>
     <t xml:space="preserve">37.9149703979492</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">37.897045135498</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6858215332031</t>
+    <t xml:space="preserve">38.6858177185059</t>
   </si>
   <si>
     <t xml:space="preserve">42.2353019714355</t>
@@ -1415,16 +1415,16 @@
     <t xml:space="preserve">42.8985939025879</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0599365234375</t>
+    <t xml:space="preserve">43.0599403381348</t>
   </si>
   <si>
     <t xml:space="preserve">42.6655464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2711601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249397277832</t>
+    <t xml:space="preserve">42.2711563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249359130859</t>
   </si>
   <si>
     <t xml:space="preserve">42.1636047363281</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">41.8588447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.002254486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.378719329834</t>
+    <t xml:space="preserve">42.0022583007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3787155151367</t>
   </si>
   <si>
     <t xml:space="preserve">41.9305534362793</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">41.7692108154297</t>
   </si>
   <si>
-    <t xml:space="preserve">42.020191192627</t>
+    <t xml:space="preserve">42.0201873779297</t>
   </si>
   <si>
     <t xml:space="preserve">41.5899467468262</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">39.9048385620117</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0240821838379</t>
+    <t xml:space="preserve">43.0240783691406</t>
   </si>
   <si>
     <t xml:space="preserve">41.7154312133789</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">40.335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8011741638184</t>
+    <t xml:space="preserve">40.8011703491211</t>
   </si>
   <si>
     <t xml:space="preserve">41.0342178344727</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">41.1776275634766</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3748245239258</t>
+    <t xml:space="preserve">41.3748207092285</t>
   </si>
   <si>
     <t xml:space="preserve">41.2314109802246</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">41.1955528259277</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4745941162109</t>
+    <t xml:space="preserve">39.4745979309082</t>
   </si>
   <si>
     <t xml:space="preserve">39.4028854370117</t>
@@ -1529,25 +1529,25 @@
     <t xml:space="preserve">41.6257934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8448143005371</t>
+    <t xml:space="preserve">42.8448104858398</t>
   </si>
   <si>
     <t xml:space="preserve">44.7988243103027</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1534652709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4890022277832</t>
+    <t xml:space="preserve">44.1534614562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4889984130859</t>
   </si>
   <si>
     <t xml:space="preserve">44.1355361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2200965881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2957077026367</t>
+    <t xml:space="preserve">45.220100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2957038879395</t>
   </si>
   <si>
     <t xml:space="preserve">47.595386505127</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">41.392749786377</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2493324279785</t>
+    <t xml:space="preserve">41.2493362426758</t>
   </si>
   <si>
     <t xml:space="preserve">39.9944686889648</t>
@@ -1592,34 +1592,34 @@
     <t xml:space="preserve">40.9804382324219</t>
   </si>
   <si>
-    <t xml:space="preserve">40.012393951416</t>
+    <t xml:space="preserve">40.0123901367188</t>
   </si>
   <si>
     <t xml:space="preserve">40.7832489013672</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9586181640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5283699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4784851074219</t>
+    <t xml:space="preserve">39.9586143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5283737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4784889221191</t>
   </si>
   <si>
     <t xml:space="preserve">40.137882232666</t>
   </si>
   <si>
-    <t xml:space="preserve">39.653865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2594757080078</t>
+    <t xml:space="preserve">39.6538696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2594718933105</t>
   </si>
   <si>
     <t xml:space="preserve">42.629695892334</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2851905822754</t>
+    <t xml:space="preserve">41.2851943969727</t>
   </si>
   <si>
     <t xml:space="preserve">42.1728553771973</t>
@@ -5178,6 +5178,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.7299995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8000001907349</t>
   </si>
 </sst>
 </file>
@@ -61601,7 +61604,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494097222</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>49421</v>
@@ -61613,7 +61616,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="E2158" t="n">
-        <v>11.1300001144409</v>
+        <v>10.7700004577637</v>
       </c>
       <c r="F2158" t="n">
         <v>11.039999961853</v>
@@ -61622,6 +61625,32 @@
         <v>1715</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6493518519</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>102002</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>10.9300003051758</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>10.7799997329712</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>10.8900003433228</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>10.8000001907349</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -47,43 +47,43 @@
     <t xml:space="preserve">13.0528583526611</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8206939697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4681453704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3133678436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2101821899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203758239746</t>
+    <t xml:space="preserve">12.8206930160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4681463241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3133687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3305673599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2101850509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480833053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203767776489</t>
   </si>
   <si>
     <t xml:space="preserve">9.85413455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4130516052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90572643280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5334339141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3528604507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8429861068726</t>
+    <t xml:space="preserve">10.4130506515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90572738647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5334320068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3528594970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8429880142212</t>
   </si>
   <si>
     <t xml:space="preserve">10.8773822784424</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">10.7913951873779</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6366186141968</t>
+    <t xml:space="preserve">10.6366195678711</t>
   </si>
   <si>
     <t xml:space="preserve">10.6968097686768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2496776580811</t>
+    <t xml:space="preserve">10.2496757507324</t>
   </si>
   <si>
     <t xml:space="preserve">10.5162353515625</t>
@@ -107,40 +107,40 @@
     <t xml:space="preserve">10.5506315231323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0777015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08884811401367</t>
+    <t xml:space="preserve">10.0777006149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08884716033936</t>
   </si>
   <si>
     <t xml:space="preserve">9.02865695953369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45859241485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20063209533691</t>
+    <t xml:space="preserve">9.45859336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2006311416626</t>
   </si>
   <si>
     <t xml:space="preserve">9.48438930511475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95731925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71655559539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4990386962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044523239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2582750320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.066554069519</t>
+    <t xml:space="preserve">9.95731830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71655464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4990396499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2582740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0665531158447</t>
   </si>
   <si>
     <t xml:space="preserve">10.610821723938</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">10.2840700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2410764694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9719686508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8748340606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.012414932251</t>
+    <t xml:space="preserve">10.2410774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1009492874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9719696044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8748350143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0124158859253</t>
   </si>
   <si>
     <t xml:space="preserve">12.1757898330688</t>
@@ -170,136 +170,136 @@
     <t xml:space="preserve">11.8404388427734</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0382089614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6942615509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.43630027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4448986053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7286558151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092292785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9866161346436</t>
+    <t xml:space="preserve">12.0382080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.694260597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4362983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.444899559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7286567687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9866180419922</t>
   </si>
   <si>
     <t xml:space="preserve">11.8662357330322</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1155977249146</t>
+    <t xml:space="preserve">12.1155986785889</t>
   </si>
   <si>
     <t xml:space="preserve">12.2617769241333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.27037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.201584815979</t>
+    <t xml:space="preserve">12.2703762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079561233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2015857696533</t>
   </si>
   <si>
     <t xml:space="preserve">12.2359800338745</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2875728607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9694213867188</t>
+    <t xml:space="preserve">12.2875719070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9694204330444</t>
   </si>
   <si>
     <t xml:space="preserve">11.634069442749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3503131866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9522218704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8834314346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7716493606567</t>
+    <t xml:space="preserve">11.3503122329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8060445785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9522228240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8834323883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7716484069824</t>
   </si>
   <si>
     <t xml:space="preserve">11.6684646606445</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7028589248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394849777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1697378158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.178337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3847055435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4105043411255</t>
+    <t xml:space="preserve">11.7028579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1697387695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1783380508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3847064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4105033874512</t>
   </si>
   <si>
     <t xml:space="preserve">11.2213315963745</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1181468963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.049355506897</t>
+    <t xml:space="preserve">11.1181478500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0493564605713</t>
   </si>
   <si>
     <t xml:space="preserve">11.2041339874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6624135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0166473388672</t>
+    <t xml:space="preserve">10.6624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0166482925415</t>
   </si>
   <si>
     <t xml:space="preserve">10.4941530227661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4144496917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2816123962402</t>
+    <t xml:space="preserve">10.4144515991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2816133499146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3258924484253</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9805154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3790283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0602169036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3613147735596</t>
+    <t xml:space="preserve">9.98051643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3790264129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0602178573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3613157272339</t>
   </si>
   <si>
     <t xml:space="preserve">10.308180809021</t>
@@ -308,19 +308,19 @@
     <t xml:space="preserve">10.6712703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4771490097046</t>
+    <t xml:space="preserve">11.4771499633789</t>
   </si>
   <si>
     <t xml:space="preserve">11.1937637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9812231063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3000335693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.344313621521</t>
+    <t xml:space="preserve">10.9812240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3000345230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3443126678467</t>
   </si>
   <si>
     <t xml:space="preserve">11.0697822570801</t>
@@ -329,13 +329,13 @@
     <t xml:space="preserve">10.8926668167114</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9015226364136</t>
+    <t xml:space="preserve">10.9015216827393</t>
   </si>
   <si>
     <t xml:space="preserve">10.9900789260864</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9723682403564</t>
+    <t xml:space="preserve">10.9723672866821</t>
   </si>
   <si>
     <t xml:space="preserve">10.8749532699585</t>
@@ -344,22 +344,22 @@
     <t xml:space="preserve">10.5738554000854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1222085952759</t>
+    <t xml:space="preserve">10.1222095489502</t>
   </si>
   <si>
     <t xml:space="preserve">10.051362991333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0070838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956411361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561456680298</t>
+    <t xml:space="preserve">10.0070829391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7414083480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956401824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561447143555</t>
   </si>
   <si>
     <t xml:space="preserve">10.4055948257446</t>
@@ -368,25 +368,25 @@
     <t xml:space="preserve">10.5118646621704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6447019577026</t>
+    <t xml:space="preserve">10.644702911377</t>
   </si>
   <si>
     <t xml:space="preserve">9.93623733520508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.174635887146</t>
+    <t xml:space="preserve">9.17463397979736</t>
   </si>
   <si>
     <t xml:space="preserve">9.73255157470703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62628173828125</t>
+    <t xml:space="preserve">9.62628364562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.98937129974365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461891174316</t>
+    <t xml:space="preserve">10.246190071106</t>
   </si>
   <si>
     <t xml:space="preserve">10.0425062179565</t>
@@ -395,73 +395,73 @@
     <t xml:space="preserve">9.23662567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19234752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77683067321777</t>
+    <t xml:space="preserve">9.19234657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77683162689209</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4410190582275</t>
+    <t xml:space="preserve">10.4410171508789</t>
   </si>
   <si>
     <t xml:space="preserve">10.3436050415039</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1930541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.272759437561</t>
+    <t xml:space="preserve">10.1930551528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2727584838867</t>
   </si>
   <si>
     <t xml:space="preserve">10.2107667922974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7598266601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1406288146973</t>
+    <t xml:space="preserve">10.7598276138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1406278610229</t>
   </si>
   <si>
     <t xml:space="preserve">11.0786380767822</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0963478088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0520687103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9369440078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1583395004272</t>
+    <t xml:space="preserve">11.0963487625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0520696640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9369449615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1583414077759</t>
   </si>
   <si>
     <t xml:space="preserve">11.3177452087402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.379734992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7863969802856</t>
+    <t xml:space="preserve">11.3797359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.786395072937</t>
   </si>
   <si>
     <t xml:space="preserve">11.1140613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.96351146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2291879653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1229181289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2823219299316</t>
+    <t xml:space="preserve">10.9635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2291889190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.122917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2823209762573</t>
   </si>
   <si>
     <t xml:space="preserve">11.184907913208</t>
@@ -470,10 +470,10 @@
     <t xml:space="preserve">11.246898651123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3266000747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922746658325</t>
+    <t xml:space="preserve">11.3266010284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5922756195068</t>
   </si>
   <si>
     <t xml:space="preserve">11.8136711120605</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">11.840238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7516822814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8668069839478</t>
+    <t xml:space="preserve">11.7516813278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8668060302734</t>
   </si>
   <si>
     <t xml:space="preserve">11.7162561416626</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">11.7339687347412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5125722885132</t>
+    <t xml:space="preserve">11.5125732421875</t>
   </si>
   <si>
     <t xml:space="preserve">11.3885908126831</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">11.7605361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6808338165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8933734893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1059141159058</t>
+    <t xml:space="preserve">11.680832862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8933744430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1059131622314</t>
   </si>
   <si>
     <t xml:space="preserve">12.1236248016357</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">12.1324806213379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.575270652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6018400192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4778575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3538761138916</t>
+    <t xml:space="preserve">12.5752725601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6018390655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.477858543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3538770675659</t>
   </si>
   <si>
     <t xml:space="preserve">12.6726865768433</t>
@@ -542,58 +542,58 @@
     <t xml:space="preserve">12.9914960861206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8852272033691</t>
+    <t xml:space="preserve">12.8852262496948</t>
   </si>
   <si>
     <t xml:space="preserve">12.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1066207885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4874229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6556816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619514465332</t>
+    <t xml:space="preserve">13.1066217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4874219894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6556835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619524002075</t>
   </si>
   <si>
     <t xml:space="preserve">13.5051336288452</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4527072906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3021574020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3375816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2135992050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2047443389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1516094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0010614395142</t>
+    <t xml:space="preserve">14.4527082443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3021583557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3375825881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2135982513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2047452926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1516084671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0010595321655</t>
   </si>
   <si>
     <t xml:space="preserve">13.8593673706055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6822500228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8416547775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.912501335144</t>
+    <t xml:space="preserve">13.6822509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8416557312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9125022888184</t>
   </si>
   <si>
     <t xml:space="preserve">13.8062314987183</t>
@@ -605,19 +605,19 @@
     <t xml:space="preserve">13.4519987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2306032180786</t>
+    <t xml:space="preserve">13.2306022644043</t>
   </si>
   <si>
     <t xml:space="preserve">13.7265300750732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6379718780518</t>
+    <t xml:space="preserve">13.6379709243774</t>
   </si>
   <si>
     <t xml:space="preserve">13.8150882720947</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9567813873291</t>
+    <t xml:space="preserve">13.9567823410034</t>
   </si>
   <si>
     <t xml:space="preserve">14.2578792572021</t>
@@ -626,79 +626,79 @@
     <t xml:space="preserve">14.1781768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8689308166504</t>
+    <t xml:space="preserve">14.868932723999</t>
   </si>
   <si>
     <t xml:space="preserve">15.3914232254028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.364857673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5773973464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862522125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534158706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331192016602</t>
+    <t xml:space="preserve">15.3648557662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5773963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.586254119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534139633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331201553345</t>
   </si>
   <si>
     <t xml:space="preserve">15.4268474578857</t>
   </si>
   <si>
-    <t xml:space="preserve">15.621675491333</t>
+    <t xml:space="preserve">15.6216735839844</t>
   </si>
   <si>
     <t xml:space="preserve">15.7545137405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6305332183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3294343948364</t>
+    <t xml:space="preserve">15.6305322647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3294324874878</t>
   </si>
   <si>
     <t xml:space="preserve">15.8962078094482</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2858638763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4629821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5603942871094</t>
+    <t xml:space="preserve">16.2858619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4629802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5603923797607</t>
   </si>
   <si>
     <t xml:space="preserve">16.6046733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1360263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9854755401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2511501312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8703479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6489505767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3301410675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6843757629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7463665008545</t>
+    <t xml:space="preserve">17.136022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9854717254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.251148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8703460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6489524841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3301448822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6843719482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7463645935059</t>
   </si>
   <si>
     <t xml:space="preserve">16.6666622161865</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">17.0917415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7995014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9766178131104</t>
+    <t xml:space="preserve">16.799503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.976619720459</t>
   </si>
   <si>
     <t xml:space="preserve">16.9500484466553</t>
@@ -722,25 +722,25 @@
     <t xml:space="preserve">17.3928413391113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2245807647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6312427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1803016662598</t>
+    <t xml:space="preserve">17.2245826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6312446594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1802997589111</t>
   </si>
   <si>
     <t xml:space="preserve">16.9589061737061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3042831420898</t>
+    <t xml:space="preserve">17.3042850494385</t>
   </si>
   <si>
     <t xml:space="preserve">17.4459781646729</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7559299468994</t>
+    <t xml:space="preserve">17.7559280395508</t>
   </si>
   <si>
     <t xml:space="preserve">17.6408042907715</t>
@@ -749,28 +749,28 @@
     <t xml:space="preserve">17.6053810119629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8179244995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5522480010986</t>
+    <t xml:space="preserve">17.8179225921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.55224609375</t>
   </si>
   <si>
     <t xml:space="preserve">17.6585159301758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8444862365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9419040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6762275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8437805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614902496338</t>
+    <t xml:space="preserve">17.8444900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9419021606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6762237548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8437786102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614921569824</t>
   </si>
   <si>
     <t xml:space="preserve">17.0474643707275</t>
@@ -791,46 +791,46 @@
     <t xml:space="preserve">16.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3308506011963</t>
+    <t xml:space="preserve">17.3308486938477</t>
   </si>
   <si>
     <t xml:space="preserve">17.3839855194092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4902572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3485622406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5345306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4725437164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0481719970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4828147888184</t>
+    <t xml:space="preserve">17.490255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485641479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5345325469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4725456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470760345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0481700897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.482816696167</t>
   </si>
   <si>
     <t xml:space="preserve">20.0495872497559</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5012340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.713773727417</t>
+    <t xml:space="preserve">20.5012359619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7137775421143</t>
   </si>
   <si>
     <t xml:space="preserve">20.4569568634033</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9528827667236</t>
+    <t xml:space="preserve">20.9528846740723</t>
   </si>
   <si>
     <t xml:space="preserve">21.1654224395752</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">21.7056293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2097053527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4488105773926</t>
+    <t xml:space="preserve">21.2097034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4488086700439</t>
   </si>
   <si>
     <t xml:space="preserve">21.7764739990234</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8738880157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0421504974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9358806610107</t>
+    <t xml:space="preserve">21.8738899230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0421485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9358787536621</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395645141602</t>
@@ -866,22 +866,22 @@
     <t xml:space="preserve">22.3875274658203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4760875701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4495162963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3166790008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7594699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5646438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.608922958374</t>
+    <t xml:space="preserve">22.4760837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4495182037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3166828155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7594718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5646419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6089210510254</t>
   </si>
   <si>
     <t xml:space="preserve">22.7948951721191</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">22.8037528991699</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0251445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2288303375244</t>
+    <t xml:space="preserve">23.025146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2288341522217</t>
   </si>
   <si>
     <t xml:space="preserve">22.9631576538086</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">22.5026512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.326244354248</t>
+    <t xml:space="preserve">23.3262462615967</t>
   </si>
   <si>
     <t xml:space="preserve">23.5210723876953</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">24.3800868988037</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8494453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7963104248047</t>
+    <t xml:space="preserve">24.8494472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7963085174561</t>
   </si>
   <si>
     <t xml:space="preserve">25.0619850158691</t>
@@ -941,16 +941,16 @@
     <t xml:space="preserve">26.5763320922852</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6390762329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5533390045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7863845825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.315221786499</t>
+    <t xml:space="preserve">26.6390781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.553337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7863864898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3152236938477</t>
   </si>
   <si>
     <t xml:space="preserve">27.8312015533447</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">29.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9656524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6289386749268</t>
+    <t xml:space="preserve">27.9656505584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6289405822754</t>
   </si>
   <si>
     <t xml:space="preserve">29.1846675872803</t>
@@ -980,40 +980,40 @@
     <t xml:space="preserve">30.0451507568359</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4753932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9504470825195</t>
+    <t xml:space="preserve">30.4753913879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9504489898682</t>
   </si>
   <si>
     <t xml:space="preserve">30.4126491546631</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8428897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042304992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0759353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1924610137939</t>
+    <t xml:space="preserve">30.8428859710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042324066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0759334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1924571990967</t>
   </si>
   <si>
     <t xml:space="preserve">31.1745338439941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1117858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8249626159668</t>
+    <t xml:space="preserve">31.1117877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8249607086182</t>
   </si>
   <si>
     <t xml:space="preserve">30.9235591888428</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8608150482178</t>
+    <t xml:space="preserve">30.8608169555664</t>
   </si>
   <si>
     <t xml:space="preserve">29.5252742767334</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">29.4804592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4446067810059</t>
+    <t xml:space="preserve">29.4446029663086</t>
   </si>
   <si>
     <t xml:space="preserve">30.3409404754639</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3050880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.17063331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0989303588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2244205474854</t>
+    <t xml:space="preserve">30.3050899505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1706390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0989322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2244148254395</t>
   </si>
   <si>
     <t xml:space="preserve">29.6507625579834</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">29.9824066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0771064758301</t>
+    <t xml:space="preserve">29.0771083831787</t>
   </si>
   <si>
     <t xml:space="preserve">29.2922286987305</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9297981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1269931793213</t>
+    <t xml:space="preserve">27.9298000335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1269950866699</t>
   </si>
   <si>
     <t xml:space="preserve">27.4099254608154</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">27.8491287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6429710388184</t>
+    <t xml:space="preserve">27.642972946167</t>
   </si>
   <si>
     <t xml:space="preserve">27.7326068878174</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2793674468994</t>
+    <t xml:space="preserve">28.279369354248</t>
   </si>
   <si>
     <t xml:space="preserve">28.5124168395996</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">28.7365016937256</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7813186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6827201843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9516201019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9555149078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7045440673828</t>
+    <t xml:space="preserve">28.7813167572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6827182769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9516220092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9555130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7045421600342</t>
   </si>
   <si>
     <t xml:space="preserve">29.498384475708</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">29.3370456695557</t>
   </si>
   <si>
-    <t xml:space="preserve">29.399787902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3101558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4894237518311</t>
+    <t xml:space="preserve">29.3997840881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3101577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4894218444824</t>
   </si>
   <si>
     <t xml:space="preserve">29.1308879852295</t>
@@ -1121,34 +1121,34 @@
     <t xml:space="preserve">28.8709506988525</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1577758789062</t>
+    <t xml:space="preserve">29.1577777862549</t>
   </si>
   <si>
     <t xml:space="preserve">29.1129608154297</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7762489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0272254943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5700950622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5790538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9785118103027</t>
+    <t xml:space="preserve">29.7762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0272216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700969696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5790557861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9785137176514</t>
   </si>
   <si>
     <t xml:space="preserve">29.8569221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7852115631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8479557037354</t>
+    <t xml:space="preserve">29.785213470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.847957611084</t>
   </si>
   <si>
     <t xml:space="preserve">29.8658828735352</t>
@@ -1163,64 +1163,64 @@
     <t xml:space="preserve">30.358865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6866130828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3460102081299</t>
+    <t xml:space="preserve">29.6866149902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3460121154785</t>
   </si>
   <si>
     <t xml:space="preserve">29.6059455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5381336212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367301940918</t>
+    <t xml:space="preserve">30.5381317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367321014404</t>
   </si>
   <si>
     <t xml:space="preserve">30.6456928253174</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4664249420166</t>
+    <t xml:space="preserve">30.4664287567139</t>
   </si>
   <si>
     <t xml:space="preserve">30.2692317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2333793640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.403678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2680587768555</t>
+    <t xml:space="preserve">30.233377456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4036827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2680625915527</t>
   </si>
   <si>
     <t xml:space="preserve">31.6764793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9952659606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1784248352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9543418884277</t>
+    <t xml:space="preserve">30.9952697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1784286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.954345703125</t>
   </si>
   <si>
     <t xml:space="preserve">31.8736743927002</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3666572570801</t>
+    <t xml:space="preserve">32.3666610717773</t>
   </si>
   <si>
     <t xml:space="preserve">32.2591018676758</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1336059570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921417236328</t>
+    <t xml:space="preserve">32.1336097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4921455383301</t>
   </si>
   <si>
     <t xml:space="preserve">33.3884811401367</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">34.9301795959473</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7777976989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4192657470703</t>
+    <t xml:space="preserve">34.7777938842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4192695617676</t>
   </si>
   <si>
     <t xml:space="preserve">34.6343841552734</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">34.741943359375</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6293182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4231605529785</t>
+    <t xml:space="preserve">35.629322052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4231643676758</t>
   </si>
   <si>
     <t xml:space="preserve">34.858470916748</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">34.0607299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0428047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3385963439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9083595275879</t>
+    <t xml:space="preserve">34.0428009033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3385925292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9083557128906</t>
   </si>
   <si>
     <t xml:space="preserve">34.257926940918</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">34.5088996887207</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3116989135742</t>
+    <t xml:space="preserve">34.3117027282715</t>
   </si>
   <si>
     <t xml:space="preserve">34.6164588928223</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">34.9749908447266</t>
   </si>
   <si>
-    <t xml:space="preserve">34.813648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4999351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3027458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0299453735352</t>
+    <t xml:space="preserve">34.8136558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0299415588379</t>
   </si>
   <si>
     <t xml:space="preserve">34.2848129272461</t>
@@ -1307,28 +1307,28 @@
     <t xml:space="preserve">35.3066329956055</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4539413452148</t>
+    <t xml:space="preserve">36.4539451599121</t>
   </si>
   <si>
     <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3912010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7049140930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6281471252441</t>
+    <t xml:space="preserve">36.3911972045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7049179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6281433105469</t>
   </si>
   <si>
     <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1429481506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.838191986084</t>
+    <t xml:space="preserve">39.142951965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8381996154785</t>
   </si>
   <si>
     <t xml:space="preserve">38.8023414611816</t>
@@ -1337,31 +1337,31 @@
     <t xml:space="preserve">38.4886245727539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6499633789062</t>
+    <t xml:space="preserve">38.6499671936035</t>
   </si>
   <si>
     <t xml:space="preserve">39.4387397766113</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0264320373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0225257873535</t>
+    <t xml:space="preserve">39.0264282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0225296020508</t>
   </si>
   <si>
     <t xml:space="preserve">38.5692977905273</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2735061645508</t>
+    <t xml:space="preserve">38.2735023498535</t>
   </si>
   <si>
     <t xml:space="preserve">38.5872192382812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5603294372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7395973205566</t>
+    <t xml:space="preserve">38.5603332519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7396011352539</t>
   </si>
   <si>
     <t xml:space="preserve">38.7844200134277</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">38.8292350769043</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9099006652832</t>
+    <t xml:space="preserve">38.9099044799805</t>
   </si>
   <si>
     <t xml:space="preserve">38.9547157287598</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6628265380859</t>
+    <t xml:space="preserve">39.6628303527832</t>
   </si>
   <si>
     <t xml:space="preserve">39.3042869567871</t>
@@ -1385,70 +1385,70 @@
     <t xml:space="preserve">39.277400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5463027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7754516601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5065536499023</t>
+    <t xml:space="preserve">39.5462989807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.775447845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5065498352051</t>
   </si>
   <si>
     <t xml:space="preserve">38.5961875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9149703979492</t>
+    <t xml:space="preserve">37.9149742126465</t>
   </si>
   <si>
     <t xml:space="preserve">36.8214454650879</t>
   </si>
   <si>
-    <t xml:space="preserve">37.897045135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6858215332031</t>
+    <t xml:space="preserve">37.8970413208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6858177185059</t>
   </si>
   <si>
     <t xml:space="preserve">42.2353057861328</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8985900878906</t>
+    <t xml:space="preserve">42.8985939025879</t>
   </si>
   <si>
     <t xml:space="preserve">43.0599365234375</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6655426025391</t>
+    <t xml:space="preserve">42.6655464172363</t>
   </si>
   <si>
     <t xml:space="preserve">42.2711563110352</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3249435424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1636009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8588409423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0022621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3787155151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.930549621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.769214630127</t>
+    <t xml:space="preserve">42.3249397277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1636047363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8588485717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.002254486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.378719329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9305534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7692108154297</t>
   </si>
   <si>
     <t xml:space="preserve">42.0201873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5899505615234</t>
+    <t xml:space="preserve">41.5899467468262</t>
   </si>
   <si>
     <t xml:space="preserve">41.0521430969238</t>
@@ -1460,61 +1460,61 @@
     <t xml:space="preserve">40.8190994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0303230285645</t>
+    <t xml:space="preserve">40.0303192138672</t>
   </si>
   <si>
     <t xml:space="preserve">39.3670310974121</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9048347473145</t>
+    <t xml:space="preserve">39.9048385620117</t>
   </si>
   <si>
     <t xml:space="preserve">43.0240783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7154312133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9009437561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7894821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5026550292969</t>
+    <t xml:space="preserve">41.7154350280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9009399414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5026588439941</t>
   </si>
   <si>
     <t xml:space="preserve">39.8151969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4247093200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.335075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8011665344238</t>
+    <t xml:space="preserve">40.4247055053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3350715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8011741638184</t>
   </si>
   <si>
     <t xml:space="preserve">41.0342178344727</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1776313781738</t>
+    <t xml:space="preserve">41.1776275634766</t>
   </si>
   <si>
     <t xml:space="preserve">41.3748245239258</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2314071655273</t>
+    <t xml:space="preserve">41.2314109802246</t>
   </si>
   <si>
     <t xml:space="preserve">40.7473907470703</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1955528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4745979309082</t>
+    <t xml:space="preserve">41.195556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4745941162109</t>
   </si>
   <si>
     <t xml:space="preserve">39.4028854370117</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">40.4426345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6219062805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6257972717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8448104858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7988243103027</t>
+    <t xml:space="preserve">40.6219024658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6258010864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8448143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7988204956055</t>
   </si>
   <si>
     <t xml:space="preserve">44.1534614562988</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">45.4890022277832</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1355400085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.220100402832</t>
+    <t xml:space="preserve">44.1355361938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2201042175293</t>
   </si>
   <si>
     <t xml:space="preserve">46.2957077026367</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">45.8475379943848</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9512023925781</t>
+    <t xml:space="preserve">44.9511985778809</t>
   </si>
   <si>
     <t xml:space="preserve">44.2610244750977</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">43.2033500671387</t>
   </si>
   <si>
-    <t xml:space="preserve">41.697509765625</t>
+    <t xml:space="preserve">41.6975021362305</t>
   </si>
   <si>
     <t xml:space="preserve">41.4106788635254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.392749786377</t>
+    <t xml:space="preserve">41.3927459716797</t>
   </si>
   <si>
     <t xml:space="preserve">41.2493362426758</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">39.9944686889648</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3311805725098</t>
+    <t xml:space="preserve">39.3311767578125</t>
   </si>
   <si>
     <t xml:space="preserve">40.9804382324219</t>
@@ -1595,34 +1595,34 @@
     <t xml:space="preserve">40.0123977661133</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7832412719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9586219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5283737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4784889221191</t>
+    <t xml:space="preserve">40.7832489013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9586181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5283699035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4784927368164</t>
   </si>
   <si>
     <t xml:space="preserve">40.1378784179688</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6538581848145</t>
+    <t xml:space="preserve">39.6538619995117</t>
   </si>
   <si>
     <t xml:space="preserve">39.2594718933105</t>
   </si>
   <si>
-    <t xml:space="preserve">42.629695892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2851905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1728477478027</t>
+    <t xml:space="preserve">42.6296920776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2851943969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1728515625</t>
   </si>
   <si>
     <t xml:space="preserve">41.2489624023438</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">40.8685340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7598419189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0714530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9519424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6983222961426</t>
+    <t xml:space="preserve">40.759838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0714569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9519462585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6983261108398</t>
   </si>
   <si>
     <t xml:space="preserve">36.5389366149902</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">36.6838607788086</t>
   </si>
   <si>
-    <t xml:space="preserve">36.810661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2128601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8686561584473</t>
+    <t xml:space="preserve">36.8106689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2128562927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8686599731445</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606956481934</t>
@@ -1673,25 +1673,25 @@
     <t xml:space="preserve">33.6042251586914</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8578453063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0752334594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6730346679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8904228210449</t>
+    <t xml:space="preserve">33.8578414916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0752296447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.673038482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8904266357422</t>
   </si>
   <si>
     <t xml:space="preserve">35.3433113098145</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9266586303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7455024719238</t>
+    <t xml:space="preserve">34.9266548156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7454986572266</t>
   </si>
   <si>
     <t xml:space="preserve">34.1839218139648</t>
@@ -1709,34 +1709,34 @@
     <t xml:space="preserve">33.6948013305664</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5897560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5716400146484</t>
+    <t xml:space="preserve">32.5897598266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.571647644043</t>
   </si>
   <si>
     <t xml:space="preserve">31.6477508544922</t>
   </si>
   <si>
-    <t xml:space="preserve">31.955717086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7057495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6550521850586</t>
+    <t xml:space="preserve">31.9557132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7057514190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6550540924072</t>
   </si>
   <si>
     <t xml:space="preserve">30.1079387664795</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4014320373535</t>
+    <t xml:space="preserve">29.4014301300049</t>
   </si>
   <si>
     <t xml:space="preserve">30.3253231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3833160400391</t>
+    <t xml:space="preserve">29.3833179473877</t>
   </si>
   <si>
     <t xml:space="preserve">29.5825881958008</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">27.9884243011475</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2927417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7093963623047</t>
+    <t xml:space="preserve">29.2927398681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7093925476074</t>
   </si>
   <si>
     <t xml:space="preserve">30.7782115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4303684234619</t>
+    <t xml:space="preserve">31.4303646087646</t>
   </si>
   <si>
     <t xml:space="preserve">29.8180885314941</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">32.2636795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2854480743408</t>
+    <t xml:space="preserve">31.2854461669922</t>
   </si>
   <si>
     <t xml:space="preserve">31.5390605926514</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">31.158634185791</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9194889068604</t>
+    <t xml:space="preserve">31.9194850921631</t>
   </si>
   <si>
     <t xml:space="preserve">31.7926750183105</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0137138366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0898208618164</t>
+    <t xml:space="preserve">31.0137157440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.089822769165</t>
   </si>
   <si>
     <t xml:space="preserve">30.0717067718506</t>
@@ -1805,13 +1805,13 @@
     <t xml:space="preserve">29.8362045288086</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2565078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8941974639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2601585388184</t>
+    <t xml:space="preserve">29.2565097808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8941993713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2601566314697</t>
   </si>
   <si>
     <t xml:space="preserve">27.7529239654541</t>
@@ -1829,25 +1829,25 @@
     <t xml:space="preserve">26.6659965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3906135559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2094612121582</t>
+    <t xml:space="preserve">27.3906154632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2094593048096</t>
   </si>
   <si>
     <t xml:space="preserve">27.2638053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1732273101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.901496887207</t>
+    <t xml:space="preserve">27.1732292175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9014949798584</t>
   </si>
   <si>
     <t xml:space="preserve">27.6261157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0790023803711</t>
+    <t xml:space="preserve">28.0790042877197</t>
   </si>
   <si>
     <t xml:space="preserve">27.7348098754883</t>
@@ -1856,31 +1856,31 @@
     <t xml:space="preserve">28.0971164703369</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0065422058105</t>
+    <t xml:space="preserve">28.0065402984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.9521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2058086395264</t>
+    <t xml:space="preserve">28.205810546875</t>
   </si>
   <si>
     <t xml:space="preserve">28.1695804595947</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9340782165527</t>
+    <t xml:space="preserve">27.9340801239014</t>
   </si>
   <si>
     <t xml:space="preserve">28.767391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7130470275879</t>
+    <t xml:space="preserve">28.7130451202393</t>
   </si>
   <si>
     <t xml:space="preserve">29.3470897674561</t>
   </si>
   <si>
-    <t xml:space="preserve">29.328971862793</t>
+    <t xml:space="preserve">29.3289737701416</t>
   </si>
   <si>
     <t xml:space="preserve">28.8036212921143</t>
@@ -1889,43 +1889,43 @@
     <t xml:space="preserve">28.8398551940918</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8253841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6079978942871</t>
+    <t xml:space="preserve">27.8253860473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6079998016357</t>
   </si>
   <si>
     <t xml:space="preserve">27.7166938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9051456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8617458343506</t>
+    <t xml:space="preserve">25.905143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8617420196533</t>
   </si>
   <si>
     <t xml:space="preserve">21.8653926849365</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8472785949707</t>
+    <t xml:space="preserve">21.8472766876221</t>
   </si>
   <si>
     <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5501289367676</t>
+    <t xml:space="preserve">23.5501308441162</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6950569152832</t>
+    <t xml:space="preserve">23.6950550079346</t>
   </si>
   <si>
     <t xml:space="preserve">23.3689765930176</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5682487487793</t>
+    <t xml:space="preserve">23.5682468414307</t>
   </si>
   <si>
     <t xml:space="preserve">22.6443576812744</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">21.8291606903076</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9415035247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4849662780762</t>
+    <t xml:space="preserve">20.9415016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4849624633789</t>
   </si>
   <si>
     <t xml:space="preserve">21.3581562042236</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">21.4668502807617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7204666137695</t>
+    <t xml:space="preserve">21.7204685211182</t>
   </si>
   <si>
     <t xml:space="preserve">19.8364562988281</t>
@@ -1955,22 +1955,22 @@
     <t xml:space="preserve">18.4234504699707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3872184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6553039550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9850273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959106445312</t>
+    <t xml:space="preserve">18.3872165679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6553020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9850254058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959125518799</t>
   </si>
   <si>
     <t xml:space="preserve">19.1118392944336</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1064300537109</t>
+    <t xml:space="preserve">18.1064281463623</t>
   </si>
   <si>
     <t xml:space="preserve">17.2368850708008</t>
@@ -1985,13 +1985,13 @@
     <t xml:space="preserve">16.7568244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2948780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0412616729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8057632446289</t>
+    <t xml:space="preserve">16.2948799133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0412635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.805760383606</t>
   </si>
   <si>
     <t xml:space="preserve">15.7695302963257</t>
@@ -2003,16 +2003,16 @@
     <t xml:space="preserve">16.2495899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7024784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4941482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.572021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6535396575928</t>
+    <t xml:space="preserve">16.7024803161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4941501617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5720195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6535415649414</t>
   </si>
   <si>
     <t xml:space="preserve">16.5847263336182</t>
@@ -2033,28 +2033,28 @@
     <t xml:space="preserve">16.1046676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9959745407104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.358283996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2858200073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8148174285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4887399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354875564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8365821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6789522171021</t>
+    <t xml:space="preserve">15.9959735870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582820892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2858238220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8148183822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4887418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354866027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8365831375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6789512634277</t>
   </si>
   <si>
     <t xml:space="preserve">15.2351236343384</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">15.5521450042725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2640590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8890419006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2604084014893</t>
+    <t xml:space="preserve">17.2640571594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8890399932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2604103088379</t>
   </si>
   <si>
     <t xml:space="preserve">17.744119644165</t>
@@ -2078,16 +2078,16 @@
     <t xml:space="preserve">17.4905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1154861450195</t>
+    <t xml:space="preserve">18.1154880523682</t>
   </si>
   <si>
     <t xml:space="preserve">18.1517162322998</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3328723907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1336002349854</t>
+    <t xml:space="preserve">18.3328704833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.133602142334</t>
   </si>
   <si>
     <t xml:space="preserve">18.0249080657959</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">18.785758972168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9125690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7314109802246</t>
+    <t xml:space="preserve">18.9125671386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7314128875732</t>
   </si>
   <si>
     <t xml:space="preserve">18.4415645599365</t>
@@ -2126,13 +2126,13 @@
     <t xml:space="preserve">18.0883121490479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4542694091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8256397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.405330657959</t>
+    <t xml:space="preserve">17.454273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8256378173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053344726562</t>
   </si>
   <si>
     <t xml:space="preserve">18.7132968902588</t>
@@ -2147,55 +2147,55 @@
     <t xml:space="preserve">20.3618049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1806526184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0357265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.528491973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5647239685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3980369567871</t>
+    <t xml:space="preserve">20.1806507110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0357284545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5284938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5647258758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3980388641357</t>
   </si>
   <si>
     <t xml:space="preserve">17.8528118133545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8437557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.898099899292</t>
+    <t xml:space="preserve">17.8437538146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8981018066406</t>
   </si>
   <si>
     <t xml:space="preserve">17.6082515716553</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5176773071289</t>
+    <t xml:space="preserve">17.5176753997803</t>
   </si>
   <si>
     <t xml:space="preserve">16.9470367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0829010009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9651508331299</t>
+    <t xml:space="preserve">17.0829029083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9651527404785</t>
   </si>
   <si>
     <t xml:space="preserve">17.1463088989258</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0376167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4452114105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3727512359619</t>
+    <t xml:space="preserve">17.0376148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4452133178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3727493286133</t>
   </si>
   <si>
     <t xml:space="preserve">17.4814434051514</t>
@@ -2204,34 +2204,34 @@
     <t xml:space="preserve">17.3818092346191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2785243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0792541503906</t>
+    <t xml:space="preserve">18.2785263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.079252243042</t>
   </si>
   <si>
     <t xml:space="preserve">17.7169456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5267333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2422924041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0158500671387</t>
+    <t xml:space="preserve">17.5267314910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2422943115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.01584815979</t>
   </si>
   <si>
     <t xml:space="preserve">17.7984657287598</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2966423034668</t>
+    <t xml:space="preserve">18.2966403961182</t>
   </si>
   <si>
     <t xml:space="preserve">18.0520820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3365173339844</t>
+    <t xml:space="preserve">17.336519241333</t>
   </si>
   <si>
     <t xml:space="preserve">17.2278270721436</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">17.7803478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0701999664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1879482269287</t>
+    <t xml:space="preserve">18.070198059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1879463195801</t>
   </si>
   <si>
     <t xml:space="preserve">18.1698303222656</t>
@@ -2258,22 +2258,22 @@
     <t xml:space="preserve">17.7078876495361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6897716522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8709259033203</t>
+    <t xml:space="preserve">17.6897735595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8709278106689</t>
   </si>
   <si>
     <t xml:space="preserve">18.7429008483887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3418235778809</t>
+    <t xml:space="preserve">17.3418216705322</t>
   </si>
   <si>
     <t xml:space="preserve">16.7572650909424</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3232650756836</t>
+    <t xml:space="preserve">17.323263168335</t>
   </si>
   <si>
     <t xml:space="preserve">16.6273651123047</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">14.7066822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.880880355835</t>
+    <t xml:space="preserve">13.8808813095093</t>
   </si>
   <si>
     <t xml:space="preserve">14.0200605392456</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">13.862322807312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3891115188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9736680984497</t>
+    <t xml:space="preserve">13.3891124725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9736671447754</t>
   </si>
   <si>
     <t xml:space="preserve">13.9179954528809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5561275482178</t>
+    <t xml:space="preserve">13.5561265945435</t>
   </si>
   <si>
     <t xml:space="preserve">13.0272445678711</t>
@@ -2318,31 +2318,31 @@
     <t xml:space="preserve">13.0921945571899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3798332214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4540615081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1757020950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2128171920776</t>
+    <t xml:space="preserve">13.3798341751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.454062461853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1757030487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2128162384033</t>
   </si>
   <si>
     <t xml:space="preserve">14.001503944397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7788162231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5582227706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5025510787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.66028881073</t>
+    <t xml:space="preserve">13.7788152694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5582237243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5025520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6602897644043</t>
   </si>
   <si>
     <t xml:space="preserve">13.9087162017822</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">13.8716020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7695379257202</t>
+    <t xml:space="preserve">13.7695369720459</t>
   </si>
   <si>
     <t xml:space="preserve">14.5953378677368</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">14.261305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1622323989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8189210891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2065296173096</t>
+    <t xml:space="preserve">11.1622314453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8189220428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2065305709839</t>
   </si>
   <si>
     <t xml:space="preserve">10.2714805603027</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">10.4663324356079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4756107330322</t>
+    <t xml:space="preserve">10.4756116867065</t>
   </si>
   <si>
     <t xml:space="preserve">10.6519060134888</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9209871292114</t>
+    <t xml:space="preserve">10.9209880828857</t>
   </si>
   <si>
     <t xml:space="preserve">10.9859380722046</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">10.5405616760254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7446928024292</t>
+    <t xml:space="preserve">10.7446918487549</t>
   </si>
   <si>
     <t xml:space="preserve">10.5962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3549880981445</t>
+    <t xml:space="preserve">10.3549890518188</t>
   </si>
   <si>
     <t xml:space="preserve">10.429217338562</t>
@@ -2405,13 +2405,13 @@
     <t xml:space="preserve">10.1044654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343664169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9652853012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71476078033447</t>
+    <t xml:space="preserve">10.2343654632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96528434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71476173400879</t>
   </si>
   <si>
     <t xml:space="preserve">9.58485984802246</t>
@@ -2429,22 +2429,22 @@
     <t xml:space="preserve">10.4848899841309</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5776767730713</t>
+    <t xml:space="preserve">10.577675819397</t>
   </si>
   <si>
     <t xml:space="preserve">10.3642673492432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5034475326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7261362075806</t>
+    <t xml:space="preserve">10.5034465789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7261352539062</t>
   </si>
   <si>
     <t xml:space="preserve">10.0859079360962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0209560394287</t>
+    <t xml:space="preserve">10.020956993103</t>
   </si>
   <si>
     <t xml:space="preserve">10.1137428283691</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">10.1786937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55702495574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34361362457275</t>
+    <t xml:space="preserve">9.5570240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34361457824707</t>
   </si>
   <si>
     <t xml:space="preserve">9.63125324249268</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">9.45495796203613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49207210540771</t>
+    <t xml:space="preserve">9.49207305908203</t>
   </si>
   <si>
     <t xml:space="preserve">9.52918815612793</t>
@@ -2483,25 +2483,25 @@
     <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93071460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59413909912109</t>
+    <t xml:space="preserve">8.93071365356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59413814544678</t>
   </si>
   <si>
     <t xml:space="preserve">9.29722118377686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33433723449707</t>
+    <t xml:space="preserve">9.33433628082275</t>
   </si>
   <si>
     <t xml:space="preserve">9.16732025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93744945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0302362442017</t>
+    <t xml:space="preserve">9.93744850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0302352905273</t>
   </si>
   <si>
     <t xml:space="preserve">10.0487928390503</t>
@@ -2513,31 +2513,31 @@
     <t xml:space="preserve">10.4941692352295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1415796279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1601371765137</t>
+    <t xml:space="preserve">10.141580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1601362228394</t>
   </si>
   <si>
     <t xml:space="preserve">9.66836738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72403907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57558059692383</t>
+    <t xml:space="preserve">9.72403812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57558155059814</t>
   </si>
   <si>
     <t xml:space="preserve">9.85394096374512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62197494506836</t>
+    <t xml:space="preserve">9.62197399139404</t>
   </si>
   <si>
     <t xml:space="preserve">9.31577777862549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44568061828613</t>
+    <t xml:space="preserve">9.44567966461182</t>
   </si>
   <si>
     <t xml:space="preserve">9.70548248291016</t>
@@ -2549,16 +2549,16 @@
     <t xml:space="preserve">9.770432472229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87249851226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74259757995605</t>
+    <t xml:space="preserve">9.87249755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74259662628174</t>
   </si>
   <si>
     <t xml:space="preserve">10.039514541626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8075475692749</t>
+    <t xml:space="preserve">9.80754661560059</t>
   </si>
   <si>
     <t xml:space="preserve">9.54774475097656</t>
@@ -2570,19 +2570,19 @@
     <t xml:space="preserve">10.1230220794678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7910861968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3457098007202</t>
+    <t xml:space="preserve">10.6426267623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7910852432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3457107543945</t>
   </si>
   <si>
     <t xml:space="preserve">10.568398475647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4106607437134</t>
+    <t xml:space="preserve">10.4106616973877</t>
   </si>
   <si>
     <t xml:space="preserve">11.4962644577026</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">11.7003946304321</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3035078048706</t>
+    <t xml:space="preserve">12.3035087585449</t>
   </si>
   <si>
     <t xml:space="preserve">12.0622625350952</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">12.2571153640747</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0344276428223</t>
+    <t xml:space="preserve">12.0344266891479</t>
   </si>
   <si>
     <t xml:space="preserve">12.0251483917236</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">12.1364917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.526195526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.333438873291</t>
+    <t xml:space="preserve">12.5261964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3334398269653</t>
   </si>
   <si>
     <t xml:space="preserve">13.324161529541</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">13.6767501831055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4818992614746</t>
+    <t xml:space="preserve">13.4818983078003</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777681350708</t>
@@ -2651,46 +2651,46 @@
     <t xml:space="preserve">13.8344879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7880935668945</t>
+    <t xml:space="preserve">13.7880945205688</t>
   </si>
   <si>
     <t xml:space="preserve">13.853045463562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4169483184814</t>
+    <t xml:space="preserve">13.4169473648071</t>
   </si>
   <si>
     <t xml:space="preserve">13.7973728179932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8066511154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0942897796631</t>
+    <t xml:space="preserve">13.8066520690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0942907333374</t>
   </si>
   <si>
     <t xml:space="preserve">14.2149124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2056341171265</t>
+    <t xml:space="preserve">14.2056350708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.0293397903442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7417011260986</t>
+    <t xml:space="preserve">13.7417020797729</t>
   </si>
   <si>
     <t xml:space="preserve">13.7602577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5396671295166</t>
+    <t xml:space="preserve">14.539665222168</t>
   </si>
   <si>
     <t xml:space="preserve">14.1963558197021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9272747039795</t>
+    <t xml:space="preserve">13.9272737503052</t>
   </si>
   <si>
     <t xml:space="preserve">14.1314039230347</t>
@@ -2702,16 +2702,16 @@
     <t xml:space="preserve">14.0107831954956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7366123199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8201208114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1840858459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8871669769287</t>
+    <t xml:space="preserve">15.7366132736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8201217651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1840839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8871688842773</t>
   </si>
   <si>
     <t xml:space="preserve">16.9613971710205</t>
@@ -2726,19 +2726,19 @@
     <t xml:space="preserve">16.2005462646484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.089204788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0242519378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5603189468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.762354850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4004859924316</t>
+    <t xml:space="preserve">16.0892028808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0242538452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5603199005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7623538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.400486946106</t>
   </si>
   <si>
     <t xml:space="preserve">14.9293699264526</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">15.2912378311157</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8087463378906</t>
+    <t xml:space="preserve">14.8087472915649</t>
   </si>
   <si>
     <t xml:space="preserve">14.9386491775513</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376312255859</t>
+    <t xml:space="preserve">15.3376331329346</t>
   </si>
   <si>
     <t xml:space="preserve">15.068549156189</t>
@@ -2768,28 +2768,28 @@
     <t xml:space="preserve">15.2448444366455</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1613359451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1870775222778</t>
+    <t xml:space="preserve">15.1613368988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1870765686035</t>
   </si>
   <si>
     <t xml:space="preserve">12.6746549606323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1086559295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0437049865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6540012359619</t>
+    <t xml:space="preserve">12.1086568832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0437059402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6540021896362</t>
   </si>
   <si>
     <t xml:space="preserve">11.3663625717163</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6611833572388</t>
+    <t xml:space="preserve">10.6611843109131</t>
   </si>
   <si>
     <t xml:space="preserve">10.1879720687866</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">9.36217212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10955238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02140522003174</t>
+    <t xml:space="preserve">8.10955142974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02140617370605</t>
   </si>
   <si>
     <t xml:space="preserve">7.93789720535278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58785104751587</t>
+    <t xml:space="preserve">6.58785152435303</t>
   </si>
   <si>
     <t xml:space="preserve">6.97755527496338</t>
@@ -2822,28 +2822,28 @@
     <t xml:space="preserve">6.94971895217896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0517840385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51571750640869</t>
+    <t xml:space="preserve">7.05178451538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51571846008301</t>
   </si>
   <si>
     <t xml:space="preserve">8.10027313232422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9075174331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39000797271729</t>
+    <t xml:space="preserve">8.90751838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000701904297</t>
   </si>
   <si>
     <t xml:space="preserve">9.0652551651001</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44358348846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44822406768799</t>
+    <t xml:space="preserve">8.44358444213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44822311401367</t>
   </si>
   <si>
     <t xml:space="preserve">8.39719104766846</t>
@@ -2852,16 +2852,16 @@
     <t xml:space="preserve">8.30440425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1652250289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79407644271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97501134872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8311915397644</t>
+    <t xml:space="preserve">8.16522407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79407739639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97501182556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83119201660156</t>
   </si>
   <si>
     <t xml:space="preserve">8.15594577789307</t>
@@ -2873,10 +2873,10 @@
     <t xml:space="preserve">7.46932458877563</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33014440536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30230855941772</t>
+    <t xml:space="preserve">7.33014488220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30230808258057</t>
   </si>
   <si>
     <t xml:space="preserve">7.36725902557373</t>
@@ -2888,19 +2888,19 @@
     <t xml:space="preserve">7.15385007858276</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59922504425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8219141960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97965097427368</t>
+    <t xml:space="preserve">7.59922552108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82191324234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97965049743652</t>
   </si>
   <si>
     <t xml:space="preserve">7.64561891555786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38117742538452</t>
+    <t xml:space="preserve">7.38117694854736</t>
   </si>
   <si>
     <t xml:space="preserve">7.56211090087891</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">7.14457082748413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20024299621582</t>
+    <t xml:space="preserve">7.20024347305298</t>
   </si>
   <si>
     <t xml:space="preserve">7.10745620727539</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">6.9682765007019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60850429534912</t>
+    <t xml:space="preserve">7.6085033416748</t>
   </si>
   <si>
     <t xml:space="preserve">7.58530807495117</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">7.48788118362427</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31158685684204</t>
+    <t xml:space="preserve">7.3115873336792</t>
   </si>
   <si>
     <t xml:space="preserve">7.76624155044556</t>
@@ -2942,28 +2942,28 @@
     <t xml:space="preserve">8.51781368255615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71730422973633</t>
+    <t xml:space="preserve">8.71730518341064</t>
   </si>
   <si>
     <t xml:space="preserve">8.9539098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59204292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74050140380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92607402801514</t>
+    <t xml:space="preserve">8.59204196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74050045013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92607498168945</t>
   </si>
   <si>
     <t xml:space="preserve">9.38072872161865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0694465637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5519371032715</t>
+    <t xml:space="preserve">11.0694456100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5519361495972</t>
   </si>
   <si>
     <t xml:space="preserve">11.5612144470215</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">11.3199701309204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0044946670532</t>
+    <t xml:space="preserve">11.0044937133789</t>
   </si>
   <si>
     <t xml:space="preserve">9.88177680969238</t>
@@ -2984,34 +2984,34 @@
     <t xml:space="preserve">10.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2529230117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0766286849976</t>
+    <t xml:space="preserve">10.2529239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0766277313232</t>
   </si>
   <si>
     <t xml:space="preserve">9.94672775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4384965896606</t>
+    <t xml:space="preserve">10.4384956359863</t>
   </si>
   <si>
     <t xml:space="preserve">10.4199390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2807588577271</t>
+    <t xml:space="preserve">10.2807598114014</t>
   </si>
   <si>
     <t xml:space="preserve">10.7354135513306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6055126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.828200340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0900983810425</t>
+    <t xml:space="preserve">10.6055135726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0900993347168</t>
   </si>
   <si>
     <t xml:space="preserve">11.505542755127</t>
@@ -3023,52 +3023,52 @@
     <t xml:space="preserve">11.6818380355835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8766899108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.885968208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7746238708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7282314300537</t>
+    <t xml:space="preserve">11.8766889572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8859691619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7746229171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7282304763794</t>
   </si>
   <si>
     <t xml:space="preserve">11.6354446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4127559661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.338526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.208625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8745946884155</t>
+    <t xml:space="preserve">11.4127569198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3385276794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086248397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8745937347412</t>
   </si>
   <si>
     <t xml:space="preserve">12.0715417861938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.387017250061</t>
+    <t xml:space="preserve">12.3870162963867</t>
   </si>
   <si>
     <t xml:space="preserve">12.8973426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7767210006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1293096542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.472620010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3612756729126</t>
+    <t xml:space="preserve">12.7767200469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1293087005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4726190567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3612747192383</t>
   </si>
   <si>
     <t xml:space="preserve">13.5190124511719</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">13.2684888839722</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6210784912109</t>
+    <t xml:space="preserve">13.6210775375366</t>
   </si>
   <si>
     <t xml:space="preserve">13.4262266159058</t>
@@ -3098,13 +3098,13 @@
     <t xml:space="preserve">13.4447841644287</t>
   </si>
   <si>
-    <t xml:space="preserve">13.222095489502</t>
+    <t xml:space="preserve">13.2220964431763</t>
   </si>
   <si>
     <t xml:space="preserve">13.5746850967407</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1849813461304</t>
+    <t xml:space="preserve">13.1849803924561</t>
   </si>
   <si>
     <t xml:space="preserve">13.2406539916992</t>
@@ -3122,10 +3122,10 @@
     <t xml:space="preserve">13.2499322891235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4076690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4633407592773</t>
+    <t xml:space="preserve">13.4076681137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4633417129517</t>
   </si>
   <si>
     <t xml:space="preserve">12.5818681716919</t>
@@ -3137,34 +3137,34 @@
     <t xml:space="preserve">12.7024898529053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4055728912354</t>
+    <t xml:space="preserve">12.4055738449097</t>
   </si>
   <si>
     <t xml:space="preserve">12.8602275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.583963394165</t>
+    <t xml:space="preserve">13.5839643478394</t>
   </si>
   <si>
     <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5282907485962</t>
+    <t xml:space="preserve">13.5282926559448</t>
   </si>
   <si>
     <t xml:space="preserve">15.3561868667603</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6623830795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9221868515015</t>
+    <t xml:space="preserve">15.6623840332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9221858978271</t>
   </si>
   <si>
     <t xml:space="preserve">16.2376613616943</t>
   </si>
   <si>
-    <t xml:space="preserve">15.448974609375</t>
+    <t xml:space="preserve">15.4489755630493</t>
   </si>
   <si>
     <t xml:space="preserve">15.5510406494141</t>
@@ -3173,13 +3173,13 @@
     <t xml:space="preserve">14.8458614349365</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6046171188354</t>
+    <t xml:space="preserve">14.6046161651611</t>
   </si>
   <si>
     <t xml:space="preserve">14.6788454055786</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7994689941406</t>
+    <t xml:space="preserve">14.7994680404663</t>
   </si>
   <si>
     <t xml:space="preserve">14.4376010894775</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">15.2726802825928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7644510269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5046472549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.189172744751</t>
+    <t xml:space="preserve">15.7644500732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5046453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1891746520996</t>
   </si>
   <si>
     <t xml:space="preserve">15.0035991668701</t>
@@ -3227,67 +3227,67 @@
     <t xml:space="preserve">16.246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036283493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9314641952515</t>
+    <t xml:space="preserve">15.9036302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9314661026001</t>
   </si>
   <si>
     <t xml:space="preserve">16.0149745941162</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2098255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407444000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9685802459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4396953582764</t>
+    <t xml:space="preserve">16.2098236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407434463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9685792922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4396963119507</t>
   </si>
   <si>
     <t xml:space="preserve">15.7273368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5232048034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6809406280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0428104400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1912689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1634330749512</t>
+    <t xml:space="preserve">15.5232028961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6809415817261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0428123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1912670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1634311676025</t>
   </si>
   <si>
     <t xml:space="preserve">16.6088085174561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8892650604248</t>
+    <t xml:space="preserve">17.8892631530762</t>
   </si>
   <si>
     <t xml:space="preserve">17.4902820587158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.564510345459</t>
+    <t xml:space="preserve">17.5645122528076</t>
   </si>
   <si>
     <t xml:space="preserve">17.2119197845459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3603782653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6387405395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5459537506104</t>
+    <t xml:space="preserve">17.3603801727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6387386322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5459518432617</t>
   </si>
   <si>
     <t xml:space="preserve">17.666576385498</t>
@@ -3296,19 +3296,22 @@
     <t xml:space="preserve">17.4717235565186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7222480773926</t>
+    <t xml:space="preserve">17.7222499847412</t>
   </si>
   <si>
     <t xml:space="preserve">17.6480178833008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1397857666016</t>
+    <t xml:space="preserve">18.1397876739502</t>
   </si>
   <si>
     <t xml:space="preserve">18.5202102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8728008270264</t>
+    <t xml:space="preserve">18.872802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.782112121582</t>
   </si>
   <si>
     <t xml:space="preserve">20.0975856781006</t>
@@ -3317,7 +3320,7 @@
     <t xml:space="preserve">19.540864944458</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5594234466553</t>
+    <t xml:space="preserve">19.5594253540039</t>
   </si>
   <si>
     <t xml:space="preserve">18.8356857299805</t>
@@ -3326,19 +3329,19 @@
     <t xml:space="preserve">19.3552932739258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2996196746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4480781555176</t>
+    <t xml:space="preserve">19.2996215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4480762481689</t>
   </si>
   <si>
     <t xml:space="preserve">19.3738498687744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6501159667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6686744689941</t>
+    <t xml:space="preserve">18.6501140594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6686725616455</t>
   </si>
   <si>
     <t xml:space="preserve">18.3068046569824</t>
@@ -3350,7 +3353,7 @@
     <t xml:space="preserve">18.074836730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2882442474365</t>
+    <t xml:space="preserve">18.2882461547852</t>
   </si>
   <si>
     <t xml:space="preserve">19.392406463623</t>
@@ -3377,22 +3380,22 @@
     <t xml:space="preserve">21.3038120269775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8811855316162</t>
+    <t xml:space="preserve">22.8811836242676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8997421264648</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4172515869141</t>
+    <t xml:space="preserve">22.4172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">21.9718761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6028232574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8419742584229</t>
+    <t xml:space="preserve">22.6028251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8419761657715</t>
   </si>
   <si>
     <t xml:space="preserve">20.6543064117432</t>
@@ -3410,34 +3413,34 @@
     <t xml:space="preserve">21.248140335083</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8027629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3223667144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5800762176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9862422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7656497955322</t>
+    <t xml:space="preserve">20.8027648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3223686218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5800743103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9862442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7656478881836</t>
   </si>
   <si>
     <t xml:space="preserve">20.9697799682617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2110252380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2295837402344</t>
+    <t xml:space="preserve">21.2110271453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2295818328857</t>
   </si>
   <si>
     <t xml:space="preserve">20.338830947876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0604724884033</t>
+    <t xml:space="preserve">20.0604705810547</t>
   </si>
   <si>
     <t xml:space="preserve">20.2460441589355</t>
@@ -3458,40 +3461,40 @@
     <t xml:space="preserve">20.4316177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9512214660645</t>
+    <t xml:space="preserve">20.9512233734131</t>
   </si>
   <si>
     <t xml:space="preserve">22.305908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6770534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1945648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3430213928223</t>
+    <t xml:space="preserve">22.6770553588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1945629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3430233001709</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1388931274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3801364898682</t>
+    <t xml:space="preserve">22.1388912200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3801383972168</t>
   </si>
   <si>
     <t xml:space="preserve">22.1574478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3265609741211</t>
+    <t xml:space="preserve">23.3265590667725</t>
   </si>
   <si>
     <t xml:space="preserve">23.9203968048096</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8647232055664</t>
+    <t xml:space="preserve">23.8647212982178</t>
   </si>
   <si>
     <t xml:space="preserve">24.532787322998</t>
@@ -3500,40 +3503,40 @@
     <t xml:space="preserve">24.03173828125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1781005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0482006072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4379024505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5306911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7162647247314</t>
+    <t xml:space="preserve">23.1781024932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0482025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4379043579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5306930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7162628173828</t>
   </si>
   <si>
     <t xml:space="preserve">23.2708892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">22.714168548584</t>
+    <t xml:space="preserve">22.7141666412354</t>
   </si>
   <si>
     <t xml:space="preserve">22.9368553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">22.47292137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.623477935791</t>
+    <t xml:space="preserve">22.4729232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6234760284424</t>
   </si>
   <si>
     <t xml:space="preserve">23.883279800415</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9018363952637</t>
+    <t xml:space="preserve">23.9018383026123</t>
   </si>
   <si>
     <t xml:space="preserve">23.363676071167</t>
@@ -3542,13 +3545,13 @@
     <t xml:space="preserve">22.8440704345703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.771936416626</t>
+    <t xml:space="preserve">23.7719383239746</t>
   </si>
   <si>
     <t xml:space="preserve">25.219409942627</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9081230163574</t>
+    <t xml:space="preserve">26.9081249237061</t>
   </si>
   <si>
     <t xml:space="preserve">26.6297664642334</t>
@@ -3560,16 +3563,16 @@
     <t xml:space="preserve">27.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5390758514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6504173278809</t>
+    <t xml:space="preserve">27.5390739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6504154205322</t>
   </si>
   <si>
     <t xml:space="preserve">28.3184833526611</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2071361541748</t>
+    <t xml:space="preserve">28.2071380615234</t>
   </si>
   <si>
     <t xml:space="preserve">27.4277286529541</t>
@@ -3578,19 +3581,19 @@
     <t xml:space="preserve">27.724645614624</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5576324462891</t>
+    <t xml:space="preserve">27.5576305389404</t>
   </si>
   <si>
     <t xml:space="preserve">27.2607135772705</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0565814971924</t>
+    <t xml:space="preserve">27.0565853118896</t>
   </si>
   <si>
     <t xml:space="preserve">26.648323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0730438232422</t>
+    <t xml:space="preserve">26.0730457305908</t>
   </si>
   <si>
     <t xml:space="preserve">25.8689136505127</t>
@@ -3605,10 +3608,10 @@
     <t xml:space="preserve">26.5369777679443</t>
   </si>
   <si>
-    <t xml:space="preserve">26.147274017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6462249755859</t>
+    <t xml:space="preserve">26.1472759246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6462268829346</t>
   </si>
   <si>
     <t xml:space="preserve">26.0544891357422</t>
@@ -3620,19 +3623,19 @@
     <t xml:space="preserve">26.2771759033203</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1101589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8153381347656</t>
+    <t xml:space="preserve">26.1101570129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.815336227417</t>
   </si>
   <si>
     <t xml:space="preserve">26.4813079833984</t>
   </si>
   <si>
-    <t xml:space="preserve">26.666877746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.59055519104</t>
+    <t xml:space="preserve">26.6668796539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5905532836914</t>
   </si>
   <si>
     <t xml:space="preserve">26.8895683288574</t>
@@ -3644,7 +3647,7 @@
     <t xml:space="preserve">26.9823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5926475524902</t>
+    <t xml:space="preserve">26.5926494598389</t>
   </si>
   <si>
     <t xml:space="preserve">26.6854362487793</t>
@@ -3653,25 +3656,25 @@
     <t xml:space="preserve">25.5719966888428</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5163249969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7411098480225</t>
+    <t xml:space="preserve">25.5163269042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7411079406738</t>
   </si>
   <si>
     <t xml:space="preserve">27.3535003662109</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6318607330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0793342590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.638147354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1391983032227</t>
+    <t xml:space="preserve">27.6318626403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0793304443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6381492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.139196395874</t>
   </si>
   <si>
     <t xml:space="preserve">29.7659549713135</t>
@@ -3683,19 +3686,19 @@
     <t xml:space="preserve">27.0380249023438</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5019569396973</t>
+    <t xml:space="preserve">27.5019588470459</t>
   </si>
   <si>
     <t xml:space="preserve">27.7803211212158</t>
   </si>
   <si>
-    <t xml:space="preserve">26.945240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0937004089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3349437713623</t>
+    <t xml:space="preserve">26.9452381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0936985015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3349418640137</t>
   </si>
   <si>
     <t xml:space="preserve">28.0586795806885</t>
@@ -3704,22 +3707,19 @@
     <t xml:space="preserve">27.7432041168213</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3906154632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3720569610596</t>
+    <t xml:space="preserve">27.3720588684082</t>
   </si>
   <si>
     <t xml:space="preserve">27.5205154418945</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7782230377197</t>
+    <t xml:space="preserve">26.7782249450684</t>
   </si>
   <si>
     <t xml:space="preserve">27.4091739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9287796020508</t>
+    <t xml:space="preserve">27.9287776947021</t>
   </si>
   <si>
     <t xml:space="preserve">27.4648456573486</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">28.8380870819092</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1885795593262</t>
+    <t xml:space="preserve">28.1885814666748</t>
   </si>
   <si>
     <t xml:space="preserve">27.9658908843994</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">28.0772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.854549407959</t>
+    <t xml:space="preserve">27.8545475006104</t>
   </si>
   <si>
     <t xml:space="preserve">27.205041885376</t>
@@ -3758,31 +3758,31 @@
     <t xml:space="preserve">28.1329078674316</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4669418334961</t>
+    <t xml:space="preserve">28.4669399261475</t>
   </si>
   <si>
     <t xml:space="preserve">28.4483833312988</t>
   </si>
   <si>
-    <t xml:space="preserve">28.244255065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473361968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4441909790039</t>
+    <t xml:space="preserve">28.2442531585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473342895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4441928863525</t>
   </si>
   <si>
     <t xml:space="preserve">27.1493701934814</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3699626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6647853851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7554759979248</t>
+    <t xml:space="preserve">26.3699607849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6647834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7554740905762</t>
   </si>
   <si>
     <t xml:space="preserve">24.2358703613281</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">24.4956722259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8461666107178</t>
+    <t xml:space="preserve">23.8461647033691</t>
   </si>
   <si>
     <t xml:space="preserve">23.4750194549561</t>
@@ -3806,13 +3806,13 @@
     <t xml:space="preserve">24.1987552642822</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3472118377686</t>
+    <t xml:space="preserve">24.3472137451172</t>
   </si>
   <si>
     <t xml:space="preserve">24.8853759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7740345001221</t>
+    <t xml:space="preserve">24.7740325927734</t>
   </si>
   <si>
     <t xml:space="preserve">25.3864231109619</t>
@@ -3821,31 +3821,31 @@
     <t xml:space="preserve">25.237964630127</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0523910522461</t>
+    <t xml:space="preserve">25.0523929595947</t>
   </si>
   <si>
     <t xml:space="preserve">25.1266212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9596061706543</t>
+    <t xml:space="preserve">24.9596042633057</t>
   </si>
   <si>
     <t xml:space="preserve">25.3307514190674</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8111457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6833419799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0152759552002</t>
+    <t xml:space="preserve">24.8111476898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6833400726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0152778625488</t>
   </si>
   <si>
     <t xml:space="preserve">25.0709495544434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9781627655029</t>
+    <t xml:space="preserve">24.9781608581543</t>
   </si>
   <si>
     <t xml:space="preserve">24.4028854370117</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">24.0131816864014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6605911254883</t>
+    <t xml:space="preserve">23.6605930328369</t>
   </si>
   <si>
     <t xml:space="preserve">23.2894458770752</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">21.9533195495605</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0089893341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1553535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8213214874268</t>
+    <t xml:space="preserve">22.0089874267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1553516387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8213233947754</t>
   </si>
   <si>
     <t xml:space="preserve">21.8605308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5821723937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.656400680542</t>
+    <t xml:space="preserve">21.5821704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6564025878906</t>
   </si>
   <si>
     <t xml:space="preserve">22.7883987426758</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">21.5636138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4687328338623</t>
+    <t xml:space="preserve">20.4687309265137</t>
   </si>
   <si>
     <t xml:space="preserve">21.099681854248</t>
@@ -3917,7 +3917,7 @@
     <t xml:space="preserve">22.9925289154053</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0667572021484</t>
+    <t xml:space="preserve">23.0667591094971</t>
   </si>
   <si>
     <t xml:space="preserve">22.4358100891113</t>
@@ -3926,43 +3926,43 @@
     <t xml:space="preserve">21.507942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4893856048584</t>
+    <t xml:space="preserve">21.4893836975098</t>
   </si>
   <si>
     <t xml:space="preserve">21.9347610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0419120788574</t>
+    <t xml:space="preserve">20.0419139862061</t>
   </si>
   <si>
     <t xml:space="preserve">20.190372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0068950653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5615177154541</t>
+    <t xml:space="preserve">21.006893157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5615196228027</t>
   </si>
   <si>
     <t xml:space="preserve">20.3945026397705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.930570602417</t>
+    <t xml:space="preserve">19.9305686950684</t>
   </si>
   <si>
     <t xml:space="preserve">20.9326648712158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3202743530273</t>
+    <t xml:space="preserve">20.3202724456787</t>
   </si>
   <si>
     <t xml:space="preserve">20.6171894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8769931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4872875213623</t>
+    <t xml:space="preserve">20.8769912719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4872894287109</t>
   </si>
   <si>
     <t xml:space="preserve">20.1347007751465</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">19.0954895019531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6129989624023</t>
+    <t xml:space="preserve">18.6129970550537</t>
   </si>
   <si>
     <t xml:space="preserve">17.7779178619385</t>
@@ -3992,19 +3992,19 @@
     <t xml:space="preserve">15.1706161499023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.319073677063</t>
+    <t xml:space="preserve">15.3190746307373</t>
   </si>
   <si>
     <t xml:space="preserve">16.3768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4582529067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3304500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5468502044678</t>
+    <t xml:space="preserve">15.4582538604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3304481506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5468492507935</t>
   </si>
   <si>
     <t xml:space="preserve">14.2984209060669</t>
@@ -4016,13 +4016,13 @@
     <t xml:space="preserve">14.4190435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">14.771632194519</t>
+    <t xml:space="preserve">14.7716331481934</t>
   </si>
   <si>
     <t xml:space="preserve">14.9015331268311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3448143005371</t>
+    <t xml:space="preserve">14.3448133468628</t>
   </si>
   <si>
     <t xml:space="preserve">14.3355350494385</t>
@@ -4031,13 +4031,13 @@
     <t xml:space="preserve">14.7437963485718</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9129085540771</t>
+    <t xml:space="preserve">15.9129076004028</t>
   </si>
   <si>
     <t xml:space="preserve">15.7458925247192</t>
   </si>
   <si>
-    <t xml:space="preserve">14.122127532959</t>
+    <t xml:space="preserve">14.1221265792847</t>
   </si>
   <si>
     <t xml:space="preserve">14.0757331848145</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">14.4468793869019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9458312988281</t>
+    <t xml:space="preserve">13.9458322525024</t>
   </si>
   <si>
     <t xml:space="preserve">13.6953077316284</t>
@@ -4058,7 +4058,7 @@
     <t xml:space="preserve">13.8901605606079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8787851333618</t>
+    <t xml:space="preserve">12.8787860870361</t>
   </si>
   <si>
     <t xml:space="preserve">12.7859983444214</t>
@@ -4067,7 +4067,7 @@
     <t xml:space="preserve">13.4355049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0314350128174</t>
+    <t xml:space="preserve">15.031436920166</t>
   </si>
   <si>
     <t xml:space="preserve">15.1335000991821</t>
@@ -4076,19 +4076,19 @@
     <t xml:space="preserve">15.3933029174805</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4304170608521</t>
+    <t xml:space="preserve">15.4304180145264</t>
   </si>
   <si>
     <t xml:space="preserve">15.1242218017578</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3210411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579359054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0219526290894</t>
+    <t xml:space="preserve">15.3210420608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0219535827637</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368171691895</t>
@@ -4097,28 +4097,28 @@
     <t xml:space="preserve">15.5622406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0735855102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6297779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8034410476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.870979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.121826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9481620788574</t>
+    <t xml:space="preserve">16.0735874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6297788619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8034420013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8709783554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1218242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9481639862061</t>
   </si>
   <si>
     <t xml:space="preserve">15.7359056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4078741073608</t>
+    <t xml:space="preserve">15.4078731536865</t>
   </si>
   <si>
     <t xml:space="preserve">14.6360330581665</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">13.2177743911743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0923500061035</t>
+    <t xml:space="preserve">13.0923509597778</t>
   </si>
   <si>
     <t xml:space="preserve">13.1405906677246</t>
@@ -4157,10 +4157,10 @@
     <t xml:space="preserve">12.8222064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9186878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6678380966187</t>
+    <t xml:space="preserve">12.9186868667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.667839050293</t>
   </si>
   <si>
     <t xml:space="preserve">12.195086479187</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">12.7932624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7546710968018</t>
+    <t xml:space="preserve">12.7546701431274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2722702026367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9669256210327</t>
+    <t xml:space="preserve">12.966926574707</t>
   </si>
   <si>
     <t xml:space="preserve">13.2467184066772</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">12.5038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.851149559021</t>
+    <t xml:space="preserve">12.8511505126953</t>
   </si>
   <si>
     <t xml:space="preserve">13.3817911148071</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">13.3914394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5520629882812</t>
+    <t xml:space="preserve">12.5520620346069</t>
   </si>
   <si>
     <t xml:space="preserve">12.6774873733521</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">12.4652299880981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3205108642578</t>
+    <t xml:space="preserve">12.3205099105835</t>
   </si>
   <si>
     <t xml:space="preserve">11.9345893859863</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">12.0793104171753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2240295410156</t>
+    <t xml:space="preserve">12.2240304946899</t>
   </si>
   <si>
     <t xml:space="preserve">12.2915658950806</t>
@@ -4262,25 +4262,25 @@
     <t xml:space="preserve">12.3783979415894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1854372024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2529745101929</t>
+    <t xml:space="preserve">12.1854381561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2529735565186</t>
   </si>
   <si>
     <t xml:space="preserve">11.9152936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336778640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5583162307739</t>
+    <t xml:space="preserve">12.233678817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5583171844482</t>
   </si>
   <si>
     <t xml:space="preserve">11.5293731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3943004608154</t>
+    <t xml:space="preserve">11.3943014144897</t>
   </si>
   <si>
     <t xml:space="preserve">11.7319812774658</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">11.3364133834839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9987325668335</t>
+    <t xml:space="preserve">10.9987316131592</t>
   </si>
   <si>
     <t xml:space="preserve">11.0083799362183</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">11.7223329544067</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6355009078979</t>
+    <t xml:space="preserve">11.6355018615723</t>
   </si>
   <si>
     <t xml:space="preserve">11.645149230957</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">11.9635334014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7898693084717</t>
+    <t xml:space="preserve">11.789870262146</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125581741333</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">12.156494140625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3301582336426</t>
+    <t xml:space="preserve">12.3301572799683</t>
   </si>
   <si>
     <t xml:space="preserve">12.2626218795776</t>
@@ -4403,7 +4403,7 @@
     <t xml:space="preserve">12.63889503479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012132644653</t>
+    <t xml:space="preserve">12.3012142181396</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415031433105</t>
@@ -4418,34 +4418,34 @@
     <t xml:space="preserve">12.3976945877075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3880462646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5327653884888</t>
+    <t xml:space="preserve">12.3880453109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5327663421631</t>
   </si>
   <si>
     <t xml:space="preserve">12.0600137710571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9924774169922</t>
+    <t xml:space="preserve">11.9924783706665</t>
   </si>
   <si>
     <t xml:space="preserve">12.1082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1275501251221</t>
+    <t xml:space="preserve">12.1275491714478</t>
   </si>
   <si>
     <t xml:space="preserve">12.5713577270508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8993902206421</t>
+    <t xml:space="preserve">12.8993911743164</t>
   </si>
   <si>
     <t xml:space="preserve">13.1598873138428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255987167358</t>
+    <t xml:space="preserve">13.8255996704102</t>
   </si>
   <si>
     <t xml:space="preserve">13.9124317169189</t>
@@ -4466,16 +4466,16 @@
     <t xml:space="preserve">14.2983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176488876343</t>
+    <t xml:space="preserve">14.31764793396</t>
   </si>
   <si>
     <t xml:space="preserve">13.8641910552979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931360244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2211675643921</t>
+    <t xml:space="preserve">13.8931350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2211685180664</t>
   </si>
   <si>
     <t xml:space="preserve">14.2790565490723</t>
@@ -4493,13 +4493,13 @@
     <t xml:space="preserve">14.2501125335693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8000497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0316009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202569961548</t>
+    <t xml:space="preserve">14.800048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0316019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202560424805</t>
   </si>
   <si>
     <t xml:space="preserve">14.4720163345337</t>
@@ -4508,22 +4508,22 @@
     <t xml:space="preserve">14.394832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5299053192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4141273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4334239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.655327796936</t>
+    <t xml:space="preserve">14.5299043655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4141283035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.433424949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6553287506104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6070890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6842737197876</t>
+    <t xml:space="preserve">14.6842727661133</t>
   </si>
   <si>
     <t xml:space="preserve">14.4430732727051</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">16.1797142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9192180633545</t>
+    <t xml:space="preserve">15.9192190170288</t>
   </si>
   <si>
     <t xml:space="preserve">16.3437309265137</t>
@@ -4541,10 +4541,10 @@
     <t xml:space="preserve">16.4305629730225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8164825439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4209156036377</t>
+    <t xml:space="preserve">16.8164844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4209136962891</t>
   </si>
   <si>
     <t xml:space="preserve">16.2954902648926</t>
@@ -4553,10 +4553,10 @@
     <t xml:space="preserve">16.3244342803955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2376022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1121807098389</t>
+    <t xml:space="preserve">16.2376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1121788024902</t>
   </si>
   <si>
     <t xml:space="preserve">15.4464654922485</t>
@@ -4583,22 +4583,22 @@
     <t xml:space="preserve">14.1246881484985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0185604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1343364715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860967636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4686241149902</t>
+    <t xml:space="preserve">14.0185594558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1343355178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4686231613159</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194719314575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6326389312744</t>
+    <t xml:space="preserve">13.6326398849487</t>
   </si>
   <si>
     <t xml:space="preserve">13.5361595153809</t>
@@ -4613,7 +4613,7 @@
     <t xml:space="preserve">13.5072154998779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4300317764282</t>
+    <t xml:space="preserve">13.4300308227539</t>
   </si>
   <si>
     <t xml:space="preserve">13.2949590682983</t>
@@ -4628,7 +4628,7 @@
     <t xml:space="preserve">13.0441112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.333550453186</t>
+    <t xml:space="preserve">13.3335514068604</t>
   </si>
   <si>
     <t xml:space="preserve">13.1019992828369</t>
@@ -38696,7 +38696,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G1276" t="s">
-        <v>709</v>
+        <v>1099</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -38722,7 +38722,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G1277" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -38748,7 +38748,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G1278" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -38774,7 +38774,7 @@
         <v>21.0799999237061</v>
       </c>
       <c r="G1279" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -38800,7 +38800,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1280" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -38826,7 +38826,7 @@
         <v>20.8600006103516</v>
       </c>
       <c r="G1281" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -38852,7 +38852,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38878,7 +38878,7 @@
         <v>20.9599990844727</v>
       </c>
       <c r="G1283" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -38904,7 +38904,7 @@
         <v>20.8799991607666</v>
       </c>
       <c r="G1284" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38930,7 +38930,7 @@
         <v>20.8799991607666</v>
       </c>
       <c r="G1285" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38956,7 +38956,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1286" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38982,7 +38982,7 @@
         <v>20.1200008392334</v>
       </c>
       <c r="G1287" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -39008,7 +39008,7 @@
         <v>19.7299995422363</v>
       </c>
       <c r="G1288" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -39034,7 +39034,7 @@
         <v>20.0200004577637</v>
       </c>
       <c r="G1289" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -39060,7 +39060,7 @@
         <v>19.4799995422363</v>
       </c>
       <c r="G1290" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -39086,7 +39086,7 @@
         <v>19.7099990844727</v>
       </c>
       <c r="G1291" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -39112,7 +39112,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1292" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -39138,7 +39138,7 @@
         <v>21.6399993896484</v>
       </c>
       <c r="G1293" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -39164,7 +39164,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G1294" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -39190,7 +39190,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1295" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -39216,7 +39216,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G1296" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -39242,7 +39242,7 @@
         <v>23</v>
       </c>
       <c r="G1297" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -39268,7 +39268,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1298" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -39294,7 +39294,7 @@
         <v>22.9599990844727</v>
       </c>
       <c r="G1299" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -39320,7 +39320,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G1300" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -39346,7 +39346,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1301" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -39372,7 +39372,7 @@
         <v>24.6800003051758</v>
       </c>
       <c r="G1302" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -39398,7 +39398,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G1303" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -39424,7 +39424,7 @@
         <v>23.6800003051758</v>
       </c>
       <c r="G1304" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -39450,7 +39450,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G1305" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -39476,7 +39476,7 @@
         <v>23.5400009155273</v>
       </c>
       <c r="G1306" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -39502,7 +39502,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1307" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -39528,7 +39528,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G1308" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -39554,7 +39554,7 @@
         <v>22.4599990844727</v>
       </c>
       <c r="G1309" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -39580,7 +39580,7 @@
         <v>21.8799991607666</v>
       </c>
       <c r="G1310" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -39606,7 +39606,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -39632,7 +39632,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G1312" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -39658,7 +39658,7 @@
         <v>22.9799995422363</v>
       </c>
       <c r="G1313" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -39684,7 +39684,7 @@
         <v>22.1800003051758</v>
       </c>
       <c r="G1314" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -39710,7 +39710,7 @@
         <v>21.5400009155273</v>
       </c>
       <c r="G1315" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -39736,7 +39736,7 @@
         <v>22.3799991607666</v>
       </c>
       <c r="G1316" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -39762,7 +39762,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1317" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -39788,7 +39788,7 @@
         <v>22.8600006103516</v>
       </c>
       <c r="G1318" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -39814,7 +39814,7 @@
         <v>22.8799991607666</v>
       </c>
       <c r="G1319" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -39840,7 +39840,7 @@
         <v>22.8799991607666</v>
       </c>
       <c r="G1320" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -39866,7 +39866,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G1321" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39892,7 +39892,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G1322" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39918,7 +39918,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="G1323" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39944,7 +39944,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G1324" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39970,7 +39970,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1325" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39996,7 +39996,7 @@
         <v>21.2600002288818</v>
       </c>
       <c r="G1326" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -40022,7 +40022,7 @@
         <v>21.5200004577637</v>
       </c>
       <c r="G1327" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -40048,7 +40048,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G1328" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -40074,7 +40074,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G1329" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -40100,7 +40100,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G1330" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -40126,7 +40126,7 @@
         <v>22.5799999237061</v>
       </c>
       <c r="G1331" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -40152,7 +40152,7 @@
         <v>24.0400009155273</v>
       </c>
       <c r="G1332" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -40178,7 +40178,7 @@
         <v>24.4400005340576</v>
       </c>
       <c r="G1333" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -40204,7 +40204,7 @@
         <v>23.9200000762939</v>
       </c>
       <c r="G1334" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -40230,7 +40230,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G1335" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -40256,7 +40256,7 @@
         <v>24</v>
       </c>
       <c r="G1336" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -40282,7 +40282,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G1337" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -40308,7 +40308,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G1338" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -40334,7 +40334,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="G1339" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -40360,7 +40360,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G1340" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -40386,7 +40386,7 @@
         <v>25.7800006866455</v>
       </c>
       <c r="G1341" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -40412,7 +40412,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G1342" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -40438,7 +40438,7 @@
         <v>26.4400005340576</v>
       </c>
       <c r="G1343" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -40464,7 +40464,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1344" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -40490,7 +40490,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G1345" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -40516,7 +40516,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G1346" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -40542,7 +40542,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G1347" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -40568,7 +40568,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G1348" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -40594,7 +40594,7 @@
         <v>25.3600006103516</v>
       </c>
       <c r="G1349" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -40620,7 +40620,7 @@
         <v>25.5599994659424</v>
       </c>
       <c r="G1350" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -40646,7 +40646,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G1351" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -40672,7 +40672,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1352" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -40698,7 +40698,7 @@
         <v>24.4799995422363</v>
       </c>
       <c r="G1353" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -40724,7 +40724,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G1354" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -40750,7 +40750,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G1355" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -40776,7 +40776,7 @@
         <v>25.4599990844727</v>
       </c>
       <c r="G1356" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -40802,7 +40802,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G1357" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -40828,7 +40828,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1358" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -40854,7 +40854,7 @@
         <v>25.7600002288818</v>
       </c>
       <c r="G1359" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -40880,7 +40880,7 @@
         <v>25.1800003051758</v>
       </c>
       <c r="G1360" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -40906,7 +40906,7 @@
         <v>24.6200008392334</v>
       </c>
       <c r="G1361" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40932,7 +40932,7 @@
         <v>25.6200008392334</v>
       </c>
       <c r="G1362" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40958,7 +40958,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G1363" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40984,7 +40984,7 @@
         <v>27.1800003051758</v>
       </c>
       <c r="G1364" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -41010,7 +41010,7 @@
         <v>29</v>
       </c>
       <c r="G1365" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -41036,7 +41036,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1366" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -41062,7 +41062,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1367" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -41088,7 +41088,7 @@
         <v>29.4400005340576</v>
       </c>
       <c r="G1368" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -41114,7 +41114,7 @@
         <v>29.6800003051758</v>
       </c>
       <c r="G1369" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -41140,7 +41140,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1370" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -41166,7 +41166,7 @@
         <v>30.5200004577637</v>
       </c>
       <c r="G1371" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -41192,7 +41192,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1372" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -41218,7 +41218,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1373" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -41244,7 +41244,7 @@
         <v>29.5599994659424</v>
       </c>
       <c r="G1374" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -41270,7 +41270,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="G1375" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -41296,7 +41296,7 @@
         <v>29.6800003051758</v>
       </c>
       <c r="G1376" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -41322,7 +41322,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1377" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -41348,7 +41348,7 @@
         <v>29.3799991607666</v>
       </c>
       <c r="G1378" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -41374,7 +41374,7 @@
         <v>29.1599998474121</v>
       </c>
       <c r="G1379" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -41400,7 +41400,7 @@
         <v>28.7199993133545</v>
       </c>
       <c r="G1380" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -41426,7 +41426,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1381" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -41452,7 +41452,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="G1382" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -41478,7 +41478,7 @@
         <v>28.7199993133545</v>
       </c>
       <c r="G1383" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -41504,7 +41504,7 @@
         <v>28.8799991607666</v>
       </c>
       <c r="G1384" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -41530,7 +41530,7 @@
         <v>28.6800003051758</v>
       </c>
       <c r="G1385" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -41556,7 +41556,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1386" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -41582,7 +41582,7 @@
         <v>28.1800003051758</v>
       </c>
       <c r="G1387" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -41608,7 +41608,7 @@
         <v>27.6399993896484</v>
       </c>
       <c r="G1388" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -41634,7 +41634,7 @@
         <v>28.0799999237061</v>
       </c>
       <c r="G1389" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -41660,7 +41660,7 @@
         <v>28.0799999237061</v>
       </c>
       <c r="G1390" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -41686,7 +41686,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="G1391" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -41712,7 +41712,7 @@
         <v>28.4599990844727</v>
       </c>
       <c r="G1392" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -41738,7 +41738,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G1393" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -41764,7 +41764,7 @@
         <v>28.1399993896484</v>
       </c>
       <c r="G1394" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -41790,7 +41790,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1395" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -41816,7 +41816,7 @@
         <v>28.1800003051758</v>
       </c>
       <c r="G1396" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -41842,7 +41842,7 @@
         <v>28.5400009155273</v>
       </c>
       <c r="G1397" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -41868,7 +41868,7 @@
         <v>28.6800003051758</v>
       </c>
       <c r="G1398" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -41894,7 +41894,7 @@
         <v>28.7399997711182</v>
       </c>
       <c r="G1399" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -41920,7 +41920,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1400" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -41946,7 +41946,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G1401" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -41972,7 +41972,7 @@
         <v>27.5799999237061</v>
       </c>
       <c r="G1402" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -41998,7 +41998,7 @@
         <v>28.9799995422363</v>
       </c>
       <c r="G1403" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -42024,7 +42024,7 @@
         <v>28.9599990844727</v>
       </c>
       <c r="G1404" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -42050,7 +42050,7 @@
         <v>29.0799999237061</v>
       </c>
       <c r="G1405" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -42076,7 +42076,7 @@
         <v>29</v>
       </c>
       <c r="G1406" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -42102,7 +42102,7 @@
         <v>28.6599998474121</v>
       </c>
       <c r="G1407" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -42128,7 +42128,7 @@
         <v>28.7600002288818</v>
       </c>
       <c r="G1408" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -42154,7 +42154,7 @@
         <v>27.5599994659424</v>
       </c>
       <c r="G1409" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -42180,7 +42180,7 @@
         <v>27.5</v>
       </c>
       <c r="G1410" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -42206,7 +42206,7 @@
         <v>28.7399997711182</v>
       </c>
       <c r="G1411" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -42232,7 +42232,7 @@
         <v>28.8199996948242</v>
       </c>
       <c r="G1412" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -42258,7 +42258,7 @@
         <v>29.4799995422363</v>
       </c>
       <c r="G1413" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -42284,7 +42284,7 @@
         <v>29.7800006866455</v>
       </c>
       <c r="G1414" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -42310,7 +42310,7 @@
         <v>31.3400001525879</v>
       </c>
       <c r="G1415" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -42336,7 +42336,7 @@
         <v>33.0200004577637</v>
       </c>
       <c r="G1416" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -42362,7 +42362,7 @@
         <v>33.560001373291</v>
       </c>
       <c r="G1417" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -42388,7 +42388,7 @@
         <v>32.0800018310547</v>
       </c>
       <c r="G1418" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -42414,7 +42414,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1419" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -42440,7 +42440,7 @@
         <v>29.1399993896484</v>
       </c>
       <c r="G1420" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -42466,7 +42466,7 @@
         <v>29.6399993896484</v>
       </c>
       <c r="G1421" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -42492,7 +42492,7 @@
         <v>29.9400005340576</v>
       </c>
       <c r="G1422" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -42518,7 +42518,7 @@
         <v>29.0400009155273</v>
       </c>
       <c r="G1423" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -42544,7 +42544,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1424" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -42570,7 +42570,7 @@
         <v>29.4599990844727</v>
       </c>
       <c r="G1425" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -42596,7 +42596,7 @@
         <v>30.2399997711182</v>
       </c>
       <c r="G1426" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -42622,7 +42622,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1427" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -42648,7 +42648,7 @@
         <v>29.5200004577637</v>
       </c>
       <c r="G1428" t="s">
-        <v>1230</v>
+        <v>605</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -42674,7 +42674,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1429" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -42752,7 +42752,7 @@
         <v>29.2399997711182</v>
       </c>
       <c r="G1432" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -43350,7 +43350,7 @@
         <v>28.6599998474121</v>
       </c>
       <c r="G1455" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -43376,7 +43376,7 @@
         <v>29.1399993896484</v>
       </c>
       <c r="G1456" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -43610,7 +43610,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G1465" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -43688,7 +43688,7 @@
         <v>25.3600006103516</v>
       </c>
       <c r="G1468" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -43714,7 +43714,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G1469" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -43948,7 +43948,7 @@
         <v>27.1800003051758</v>
       </c>
       <c r="G1478" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -44338,7 +44338,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G1493" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -44364,7 +44364,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G1494" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -44468,7 +44468,7 @@
         <v>24.6800003051758</v>
       </c>
       <c r="G1498" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -44494,7 +44494,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G1499" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -44598,7 +44598,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1503" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -44858,7 +44858,7 @@
         <v>22.8799991607666</v>
       </c>
       <c r="G1513" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -44936,7 +44936,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G1516" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -44962,7 +44962,7 @@
         <v>22.5799999237061</v>
       </c>
       <c r="G1517" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -44988,7 +44988,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G1518" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -45092,7 +45092,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G1522" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -45404,7 +45404,7 @@
         <v>23.6800003051758</v>
       </c>
       <c r="G1534" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -45430,7 +45430,7 @@
         <v>23.6800003051758</v>
       </c>
       <c r="G1535" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -45456,7 +45456,7 @@
         <v>23.6800003051758</v>
       </c>
       <c r="G1536" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -45482,7 +45482,7 @@
         <v>23.9200000762939</v>
       </c>
       <c r="G1537" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -45664,7 +45664,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G1544" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -45716,7 +45716,7 @@
         <v>22.4599990844727</v>
       </c>
       <c r="G1546" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -45742,7 +45742,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1547" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -45768,7 +45768,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1548" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -45794,7 +45794,7 @@
         <v>23</v>
       </c>
       <c r="G1549" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -45820,7 +45820,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1550" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -45950,7 +45950,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G1555" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -46002,7 +46002,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G1557" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -61662,7 +61662,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6496990741</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>86033</v>
@@ -61683,6 +61683,32 @@
         <v>1724</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6496064815</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>49728</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>10.5500001907349</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>10.6000003814697</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>10.710000038147</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3280172348022</t>
+    <t xml:space="preserve">13.3280181884766</t>
   </si>
   <si>
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528573989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8206930160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4681463241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3133668899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2101831436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203767776489</t>
+    <t xml:space="preserve">13.0528602600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8206939697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4681453704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3133678436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3305654525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.21018409729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203758239746</t>
   </si>
   <si>
     <t xml:space="preserve">9.85413551330566</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">10.4130516052246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90572643280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5334339141846</t>
+    <t xml:space="preserve">9.90572738647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5334348678589</t>
   </si>
   <si>
     <t xml:space="preserve">10.3528604507446</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">10.6366176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968088150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2496747970581</t>
+    <t xml:space="preserve">10.6968097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2496767044067</t>
   </si>
   <si>
     <t xml:space="preserve">10.5162353515625</t>
@@ -113,25 +113,25 @@
     <t xml:space="preserve">9.08884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02865695953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45859432220459</t>
+    <t xml:space="preserve">9.02865791320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45859336853027</t>
   </si>
   <si>
     <t xml:space="preserve">9.20063209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48438835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95731830596924</t>
+    <t xml:space="preserve">9.48438930511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95731925964355</t>
   </si>
   <si>
     <t xml:space="preserve">9.71655464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4990386962891</t>
+    <t xml:space="preserve">10.4990377426147</t>
   </si>
   <si>
     <t xml:space="preserve">10.4044523239136</t>
@@ -143,58 +143,58 @@
     <t xml:space="preserve">11.066554069519</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6108226776123</t>
+    <t xml:space="preserve">10.610821723938</t>
   </si>
   <si>
     <t xml:space="preserve">10.2840700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2410764694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9719696044922</t>
+    <t xml:space="preserve">10.2410774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1009492874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9719676971436</t>
   </si>
   <si>
     <t xml:space="preserve">11.8748350143433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0124139785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757888793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8404407501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0382099151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.694260597229</t>
+    <t xml:space="preserve">12.0124130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1757898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8404388427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0382108688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6942615509033</t>
   </si>
   <si>
     <t xml:space="preserve">11.4362993240356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4448986053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7286567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9866170883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8662357330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1155977249146</t>
+    <t xml:space="preserve">11.4448976516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7286558151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092292785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9866161346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8662347793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1155986785889</t>
   </si>
   <si>
     <t xml:space="preserve">12.2617769241333</t>
@@ -203,13 +203,13 @@
     <t xml:space="preserve">12.2703762054443</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4079542160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2015857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2359800338745</t>
+    <t xml:space="preserve">12.4079561233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201584815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2359790802002</t>
   </si>
   <si>
     <t xml:space="preserve">12.2875719070435</t>
@@ -218,34 +218,34 @@
     <t xml:space="preserve">11.9694204330444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6340703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3503122329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9522218704224</t>
+    <t xml:space="preserve">11.634069442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3503112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8060426712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9522228240967</t>
   </si>
   <si>
     <t xml:space="preserve">11.8834314346313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7716484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6684637069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.70285987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394830703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557258605957</t>
+    <t xml:space="preserve">11.7716503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6684646606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557277679443</t>
   </si>
   <si>
     <t xml:space="preserve">11.1697387695312</t>
@@ -257,46 +257,46 @@
     <t xml:space="preserve">11.3847074508667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2213315963745</t>
+    <t xml:space="preserve">11.4105043411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2213306427002</t>
   </si>
   <si>
     <t xml:space="preserve">11.118145942688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0493564605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2041330337524</t>
+    <t xml:space="preserve">11.0493574142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2041339874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.6624145507812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0166463851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4941539764404</t>
+    <t xml:space="preserve">11.0166473388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4941530227661</t>
   </si>
   <si>
     <t xml:space="preserve">10.4144506454468</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2816123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.325891494751</t>
+    <t xml:space="preserve">10.2816133499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3258924484253</t>
   </si>
   <si>
     <t xml:space="preserve">9.9805154800415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3790273666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0602178573608</t>
+    <t xml:space="preserve">10.3790283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0602169036865</t>
   </si>
   <si>
     <t xml:space="preserve">10.3613157272339</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">10.3081817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6712694168091</t>
+    <t xml:space="preserve">10.6712703704834</t>
   </si>
   <si>
     <t xml:space="preserve">11.4771499633789</t>
@@ -314,25 +314,25 @@
     <t xml:space="preserve">11.1937637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9812231063843</t>
+    <t xml:space="preserve">10.9812240600586</t>
   </si>
   <si>
     <t xml:space="preserve">11.3000335693359</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3443126678467</t>
+    <t xml:space="preserve">11.344313621521</t>
   </si>
   <si>
     <t xml:space="preserve">11.0697822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8926668167114</t>
+    <t xml:space="preserve">10.8926658630371</t>
   </si>
   <si>
     <t xml:space="preserve">10.9015207290649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9900798797607</t>
+    <t xml:space="preserve">10.9900789260864</t>
   </si>
   <si>
     <t xml:space="preserve">10.9723682403564</t>
@@ -344,40 +344,40 @@
     <t xml:space="preserve">10.5738554000854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1222076416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0513620376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0070829391479</t>
+    <t xml:space="preserve">10.1222095489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0513610839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0070848464966</t>
   </si>
   <si>
     <t xml:space="preserve">9.74140739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0956401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561437606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4055957794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118637084961</t>
+    <t xml:space="preserve">10.0956392288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4055948257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118646621704</t>
   </si>
   <si>
     <t xml:space="preserve">10.644702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93623542785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17463493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73255157470703</t>
+    <t xml:space="preserve">9.93623638153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.174635887146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73255252838135</t>
   </si>
   <si>
     <t xml:space="preserve">9.62628269195557</t>
@@ -386,91 +386,91 @@
     <t xml:space="preserve">9.98937129974365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0425062179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23662662506104</t>
+    <t xml:space="preserve">10.246190071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0425071716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23662567138672</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234657287598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77683258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1399202346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4410181045532</t>
+    <t xml:space="preserve">9.77683067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1399192810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4410190582275</t>
   </si>
   <si>
     <t xml:space="preserve">10.3436050415039</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1930551528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2727584838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.210765838623</t>
+    <t xml:space="preserve">10.1930561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2727575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2107667922974</t>
   </si>
   <si>
     <t xml:space="preserve">10.7598285675049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1406278610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0786390304565</t>
+    <t xml:space="preserve">11.1406288146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0786380767822</t>
   </si>
   <si>
     <t xml:space="preserve">11.0963487625122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0520706176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9369440078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1583404541016</t>
+    <t xml:space="preserve">11.0520696640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9369459152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1583414077759</t>
   </si>
   <si>
     <t xml:space="preserve">11.3177452087402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.379734992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.786395072937</t>
+    <t xml:space="preserve">11.3797369003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7863960266113</t>
   </si>
   <si>
     <t xml:space="preserve">11.1140613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9635124206543</t>
+    <t xml:space="preserve">10.96351146698</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1229162216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2823219299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1849069595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2468996047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3266000747681</t>
+    <t xml:space="preserve">11.122917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2823209762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.184907913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.246898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3266010284424</t>
   </si>
   <si>
     <t xml:space="preserve">11.5922765731812</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">11.8136711120605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8402376174927</t>
+    <t xml:space="preserve">11.840238571167</t>
   </si>
   <si>
     <t xml:space="preserve">11.7516813278198</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">11.8668060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7162570953369</t>
+    <t xml:space="preserve">11.7162561416626</t>
   </si>
   <si>
     <t xml:space="preserve">11.7339687347412</t>
@@ -503,25 +503,25 @@
     <t xml:space="preserve">11.4328718185425</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2026195526123</t>
+    <t xml:space="preserve">11.202618598938</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6808319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8933753967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1059131622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1236238479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1324815750122</t>
+    <t xml:space="preserve">11.6808338165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8933734893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1059141159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1236248016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1324806213379</t>
   </si>
   <si>
     <t xml:space="preserve">12.5752716064453</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">12.3538761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6726865768433</t>
+    <t xml:space="preserve">12.6726875305176</t>
   </si>
   <si>
     <t xml:space="preserve">12.9914960861206</t>
@@ -545,31 +545,31 @@
     <t xml:space="preserve">12.8852262496948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9295053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1066226959229</t>
+    <t xml:space="preserve">12.9295063018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1066207885742</t>
   </si>
   <si>
     <t xml:space="preserve">13.4874219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6556825637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5051345825195</t>
+    <t xml:space="preserve">13.6556835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619524002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5051326751709</t>
   </si>
   <si>
     <t xml:space="preserve">14.4527063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3021574020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3375806808472</t>
+    <t xml:space="preserve">14.3021583557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3375816345215</t>
   </si>
   <si>
     <t xml:space="preserve">14.2135992050171</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">14.2047452926636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1516084671021</t>
+    <t xml:space="preserve">14.1516094207764</t>
   </si>
   <si>
     <t xml:space="preserve">14.0010595321655</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">13.8416557312012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.912501335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8062314987183</t>
+    <t xml:space="preserve">13.9125022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8062334060669</t>
   </si>
   <si>
     <t xml:space="preserve">13.2748823165894</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">13.7265300750732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6379709243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8150873184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9567813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2578792572021</t>
+    <t xml:space="preserve">13.6379718780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.815089225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9567804336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2578802108765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1781778335571</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8689317703247</t>
+    <t xml:space="preserve">14.8689308166504</t>
   </si>
   <si>
     <t xml:space="preserve">15.3914251327515</t>
@@ -635,31 +635,31 @@
     <t xml:space="preserve">15.3648586273193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5773973464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862550735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534177780151</t>
+    <t xml:space="preserve">15.5773963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5862531661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534168243408</t>
   </si>
   <si>
     <t xml:space="preserve">15.5331172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4268484115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6216764450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545146942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6305303573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3294315338135</t>
+    <t xml:space="preserve">15.4268474578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.621675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545156478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6305313110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3294343948364</t>
   </si>
   <si>
     <t xml:space="preserve">15.8962078094482</t>
@@ -668,91 +668,91 @@
     <t xml:space="preserve">16.2858619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4629783630371</t>
+    <t xml:space="preserve">16.4629802703857</t>
   </si>
   <si>
     <t xml:space="preserve">16.5603942871094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6046714782715</t>
+    <t xml:space="preserve">16.6046752929688</t>
   </si>
   <si>
     <t xml:space="preserve">17.136022567749</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9854717254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2511501312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8703479766846</t>
+    <t xml:space="preserve">16.9854755401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2511463165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8703460693359</t>
   </si>
   <si>
     <t xml:space="preserve">16.6489505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3301448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6843757629395</t>
+    <t xml:space="preserve">16.3301429748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6843738555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666622161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0917434692383</t>
+    <t xml:space="preserve">16.6666660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0917415618896</t>
   </si>
   <si>
     <t xml:space="preserve">16.7995014190674</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9766159057617</t>
+    <t xml:space="preserve">16.9766178131104</t>
   </si>
   <si>
     <t xml:space="preserve">16.9500503540039</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1094570159912</t>
+    <t xml:space="preserve">17.1094551086426</t>
   </si>
   <si>
     <t xml:space="preserve">17.3928413391113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2245788574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6312408447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1803016662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9589061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3042831420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4459762573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7559280395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6408042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6053791046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8179187774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.55224609375</t>
+    <t xml:space="preserve">17.2245826721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6312389373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1802997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9589042663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3042812347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4459781646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7559299468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6408061981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6053810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8179206848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5522480010986</t>
   </si>
   <si>
     <t xml:space="preserve">17.6585178375244</t>
@@ -761,16 +761,16 @@
     <t xml:space="preserve">17.8444881439209</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9419040679932</t>
+    <t xml:space="preserve">17.9419021606445</t>
   </si>
   <si>
     <t xml:space="preserve">17.6762256622314</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8437805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614940643311</t>
+    <t xml:space="preserve">16.8437824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614921569824</t>
   </si>
   <si>
     <t xml:space="preserve">17.0474643707275</t>
@@ -782,31 +782,31 @@
     <t xml:space="preserve">17.375129699707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7817916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068672180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9146270751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308525085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3839836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4902572631836</t>
+    <t xml:space="preserve">16.7817878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9146308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308506011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3839855194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.490255355835</t>
   </si>
   <si>
     <t xml:space="preserve">17.3485641479492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5345325469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4725456237793</t>
+    <t xml:space="preserve">17.5345363616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4725437164307</t>
   </si>
   <si>
     <t xml:space="preserve">17.7470741271973</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">19.4828147888184</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0495872497559</t>
+    <t xml:space="preserve">20.0495910644531</t>
   </si>
   <si>
     <t xml:space="preserve">20.5012359619141</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">21.2097034454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4488105773926</t>
+    <t xml:space="preserve">21.4488086700439</t>
   </si>
   <si>
     <t xml:space="preserve">21.7764739990234</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8738880157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0421485900879</t>
+    <t xml:space="preserve">21.8738918304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0421504974365</t>
   </si>
   <si>
     <t xml:space="preserve">21.9358825683594</t>
@@ -872,22 +872,22 @@
     <t xml:space="preserve">22.4495182037354</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3166809082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7594699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5646438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7506141662598</t>
+    <t xml:space="preserve">22.3166828155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7594738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5646419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6089210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7948951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7506160736084</t>
   </si>
   <si>
     <t xml:space="preserve">22.8037509918213</t>
@@ -899,49 +899,49 @@
     <t xml:space="preserve">23.2288303375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.96315574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5026512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3262462615967</t>
+    <t xml:space="preserve">22.9631576538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5026531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3262424468994</t>
   </si>
   <si>
     <t xml:space="preserve">23.5210723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6450576782227</t>
+    <t xml:space="preserve">23.645055770874</t>
   </si>
   <si>
     <t xml:space="preserve">24.0524215698242</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3800868988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8494434356689</t>
+    <t xml:space="preserve">24.3800888061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8494472503662</t>
   </si>
   <si>
     <t xml:space="preserve">24.7963123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0619869232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2302474975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1062660217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0354175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5763339996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6390743255615</t>
+    <t xml:space="preserve">25.0619850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.23024559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1062679290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0354194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5763301849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6390762329102</t>
   </si>
   <si>
     <t xml:space="preserve">27.5533390045166</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3152236938477</t>
+    <t xml:space="preserve">28.315221786499</t>
   </si>
   <si>
     <t xml:space="preserve">27.8312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440608978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.534236907959</t>
+    <t xml:space="preserve">28.8440589904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5342388153076</t>
   </si>
   <si>
     <t xml:space="preserve">27.9656543731689</t>
   </si>
   <si>
-    <t xml:space="preserve">28.628942489624</t>
+    <t xml:space="preserve">28.6289386749268</t>
   </si>
   <si>
     <t xml:space="preserve">29.1846694946289</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">29.9375915527344</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0451469421387</t>
+    <t xml:space="preserve">30.0451507568359</t>
   </si>
   <si>
     <t xml:space="preserve">30.4753913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9504489898682</t>
+    <t xml:space="preserve">30.9504470825195</t>
   </si>
   <si>
     <t xml:space="preserve">30.4126472473145</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8428897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042304992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0759296417236</t>
+    <t xml:space="preserve">30.842887878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042266845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0759334564209</t>
   </si>
   <si>
     <t xml:space="preserve">31.1924571990967</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">31.1745300292969</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1117858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8249588012695</t>
+    <t xml:space="preserve">31.1117877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8249607086182</t>
   </si>
   <si>
     <t xml:space="preserve">30.9235591888428</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">30.8608150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.525276184082</t>
+    <t xml:space="preserve">29.5252742767334</t>
   </si>
   <si>
     <t xml:space="preserve">29.6686859130859</t>
@@ -1025,31 +1025,31 @@
     <t xml:space="preserve">29.4804592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4446029663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3409404754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3050899505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1706371307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.098934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2244186401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6507625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9824047088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0771026611328</t>
+    <t xml:space="preserve">29.4446048736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3409385681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3050880432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1706390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0989322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2244205474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.650764465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9824085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0771064758301</t>
   </si>
   <si>
     <t xml:space="preserve">29.2922306060791</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">27.9298000335693</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1269931793213</t>
+    <t xml:space="preserve">28.1269912719727</t>
   </si>
   <si>
     <t xml:space="preserve">27.4099254608154</t>
@@ -1073,85 +1073,85 @@
     <t xml:space="preserve">27.7326068878174</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2793712615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5124187469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8760166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7365016937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7813186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6827201843262</t>
+    <t xml:space="preserve">28.2793674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5124168395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8760204315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7365036010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7813167572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6827182769775</t>
   </si>
   <si>
     <t xml:space="preserve">28.9516220092773</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9555130004883</t>
+    <t xml:space="preserve">29.9555149078369</t>
   </si>
   <si>
     <t xml:space="preserve">29.7045421600342</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4983882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3370456695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3997898101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3101539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4894237518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1308917999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8709506988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1577777862549</t>
+    <t xml:space="preserve">29.498384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.337043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.399787902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3101558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4894218444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1308898925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8709487915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1577758789062</t>
   </si>
   <si>
     <t xml:space="preserve">29.1129608154297</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7762489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0272235870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5700931549072</t>
+    <t xml:space="preserve">29.7762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0272216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700950622559</t>
   </si>
   <si>
     <t xml:space="preserve">29.5790557861328</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9785118103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8569221496582</t>
+    <t xml:space="preserve">28.9785137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8569202423096</t>
   </si>
   <si>
     <t xml:space="preserve">29.7852115631104</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8479557037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8658809661865</t>
+    <t xml:space="preserve">29.8479537963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8658828735352</t>
   </si>
   <si>
     <t xml:space="preserve">30.3140506744385</t>
@@ -1160,82 +1160,82 @@
     <t xml:space="preserve">30.0092964172363</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3588676452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.686616897583</t>
+    <t xml:space="preserve">30.3588638305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6866149902344</t>
   </si>
   <si>
     <t xml:space="preserve">29.3460102081299</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6059474945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5381355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.645694732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4664268493652</t>
+    <t xml:space="preserve">29.6059436798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5381336212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6456909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4664306640625</t>
   </si>
   <si>
     <t xml:space="preserve">30.2692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">30.233377456665</t>
+    <t xml:space="preserve">30.2333793640137</t>
   </si>
   <si>
     <t xml:space="preserve">30.4036808013916</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2680625915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6764793395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9952659606934</t>
+    <t xml:space="preserve">32.26806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6764755249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9952640533447</t>
   </si>
   <si>
     <t xml:space="preserve">32.1784286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.954345703125</t>
+    <t xml:space="preserve">31.9543437957764</t>
   </si>
   <si>
     <t xml:space="preserve">31.8736724853516</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3666610717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2590980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1336059570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921417236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3884811401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5856704711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9570617675781</t>
+    <t xml:space="preserve">32.3666572570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2591018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1336097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4921455383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3884773254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5856781005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9570655822754</t>
   </si>
   <si>
     <t xml:space="preserve">34.8943214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">34.93017578125</t>
+    <t xml:space="preserve">34.9301795959473</t>
   </si>
   <si>
     <t xml:space="preserve">34.7777976989746</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">34.4192657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6343879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.741943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6293182373047</t>
+    <t xml:space="preserve">34.6343841552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7419471740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6293144226074</t>
   </si>
   <si>
     <t xml:space="preserve">35.4231605529785</t>
   </si>
   <si>
-    <t xml:space="preserve">34.858470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5716438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.060733795166</t>
+    <t xml:space="preserve">34.8584671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5716400146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0607299804688</t>
   </si>
   <si>
     <t xml:space="preserve">34.0428047180176</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">34.3385963439941</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9083518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2579193115234</t>
+    <t xml:space="preserve">33.9083557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2579231262207</t>
   </si>
   <si>
     <t xml:space="preserve">34.5088958740234</t>
@@ -1283,16 +1283,16 @@
     <t xml:space="preserve">34.3117027282715</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6164588928223</t>
+    <t xml:space="preserve">34.616455078125</t>
   </si>
   <si>
     <t xml:space="preserve">34.9749946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8136558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4999389648438</t>
+    <t xml:space="preserve">34.813648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4999351501465</t>
   </si>
   <si>
     <t xml:space="preserve">34.3027420043945</t>
@@ -1301,28 +1301,28 @@
     <t xml:space="preserve">33.0299453735352</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2848129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3066329956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4539413452148</t>
+    <t xml:space="preserve">34.2848167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3066368103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4539451599121</t>
   </si>
   <si>
     <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3912010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7049179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6281471252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.080207824707</t>
+    <t xml:space="preserve">36.3912048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7049217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6281433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
     <t xml:space="preserve">39.142951965332</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">38.8381996154785</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8023452758789</t>
+    <t xml:space="preserve">38.8023414611816</t>
   </si>
   <si>
     <t xml:space="preserve">38.4886245727539</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">38.649959564209</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4387435913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0264282226562</t>
+    <t xml:space="preserve">39.4387397766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.026424407959</t>
   </si>
   <si>
     <t xml:space="preserve">38.0225296020508</t>
@@ -1355,19 +1355,19 @@
     <t xml:space="preserve">38.2735061645508</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5872192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5603294372559</t>
+    <t xml:space="preserve">38.5872230529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5603370666504</t>
   </si>
   <si>
     <t xml:space="preserve">38.7396011352539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7844161987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.829231262207</t>
+    <t xml:space="preserve">38.7844200134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8292350769043</t>
   </si>
   <si>
     <t xml:space="preserve">38.9099044799805</t>
@@ -1376,91 +1376,91 @@
     <t xml:space="preserve">38.9547157287598</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6628265380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3042869567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.277400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5462989807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7754554748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5065498352051</t>
+    <t xml:space="preserve">39.6628189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3042831420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2773971557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5463027954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7754516601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
     <t xml:space="preserve">38.5961837768555</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9149703979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8214416503906</t>
+    <t xml:space="preserve">37.914966583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8214454650879</t>
   </si>
   <si>
     <t xml:space="preserve">37.8970413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6858177185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2353057861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8985900878906</t>
+    <t xml:space="preserve">38.6858215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2353019714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8985977172852</t>
   </si>
   <si>
     <t xml:space="preserve">43.0599327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6655426025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2711639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249435424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1635971069336</t>
+    <t xml:space="preserve">42.6655464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2711601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249397277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1636009216309</t>
   </si>
   <si>
     <t xml:space="preserve">41.8588447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0022583007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.378719329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.930549621582</t>
+    <t xml:space="preserve">42.0022621154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3787155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9305534362793</t>
   </si>
   <si>
     <t xml:space="preserve">41.7692070007324</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0201873779297</t>
+    <t xml:space="preserve">42.0201835632324</t>
   </si>
   <si>
     <t xml:space="preserve">41.5899467468262</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0521430969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5860481262207</t>
+    <t xml:space="preserve">41.0521392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.586051940918</t>
   </si>
   <si>
     <t xml:space="preserve">40.8190956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0303192138672</t>
+    <t xml:space="preserve">40.0303230285645</t>
   </si>
   <si>
     <t xml:space="preserve">39.3670349121094</t>
@@ -1475,19 +1475,19 @@
     <t xml:space="preserve">41.7154312133789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9009437561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7894859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5026550292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8152008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4247055053711</t>
+    <t xml:space="preserve">38.9009399414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7894821166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5026588439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8151969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4247093200684</t>
   </si>
   <si>
     <t xml:space="preserve">40.3350791931152</t>
@@ -1499,67 +1499,67 @@
     <t xml:space="preserve">41.0342140197754</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1776313781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3748245239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2314071655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7473907470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.195556640625</t>
+    <t xml:space="preserve">41.1776237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3748207092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2314109802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.747386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1955604553223</t>
   </si>
   <si>
     <t xml:space="preserve">39.4745979309082</t>
   </si>
   <si>
-    <t xml:space="preserve">39.402889251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4426345825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6219024658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6257934570312</t>
+    <t xml:space="preserve">39.4028816223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4426307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.621898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6258010864258</t>
   </si>
   <si>
     <t xml:space="preserve">42.8448143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7988243103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1534652709961</t>
+    <t xml:space="preserve">44.7988204956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1534576416016</t>
   </si>
   <si>
     <t xml:space="preserve">45.4889984130859</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1355323791504</t>
+    <t xml:space="preserve">44.1355361938477</t>
   </si>
   <si>
     <t xml:space="preserve">45.220100402832</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2957038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5953903198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2060699462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8475341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9511985778809</t>
+    <t xml:space="preserve">46.2957077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5953826904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2060661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8475379943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9512023925781</t>
   </si>
   <si>
     <t xml:space="preserve">44.2610244750977</t>
@@ -1568,16 +1568,16 @@
     <t xml:space="preserve">44.099681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2033462524414</t>
+    <t xml:space="preserve">43.2033500671387</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4106826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.392749786377</t>
+    <t xml:space="preserve">41.4106750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3927536010742</t>
   </si>
   <si>
     <t xml:space="preserve">41.249340057373</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">39.3311805725098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9804344177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0123977661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7832412719727</t>
+    <t xml:space="preserve">40.9804420471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0123901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7832450866699</t>
   </si>
   <si>
     <t xml:space="preserve">39.9586143493652</t>
@@ -1604,64 +1604,64 @@
     <t xml:space="preserve">39.5283737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4784889221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.137882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6538619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2594718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6296920776367</t>
+    <t xml:space="preserve">40.4784927368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1378784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.653865814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2594680786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.629695892334</t>
   </si>
   <si>
     <t xml:space="preserve">41.2851943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2489624023438</t>
+    <t xml:space="preserve">42.1728477478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2489585876465</t>
   </si>
   <si>
     <t xml:space="preserve">40.9410018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8685340881348</t>
+    <t xml:space="preserve">40.8685302734375</t>
   </si>
   <si>
     <t xml:space="preserve">40.7598457336426</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0714530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9519462585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6983261108398</t>
+    <t xml:space="preserve">40.0714569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9519386291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6983222961426</t>
   </si>
   <si>
     <t xml:space="preserve">36.5389366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2635536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6838569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8106651306152</t>
+    <t xml:space="preserve">37.2635498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6838607788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8106689453125</t>
   </si>
   <si>
     <t xml:space="preserve">36.2128562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8686599731445</t>
+    <t xml:space="preserve">35.8686561584473</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606956481934</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">33.6042251586914</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8578414916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0752258300781</t>
+    <t xml:space="preserve">33.8578453063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0752296447754</t>
   </si>
   <si>
     <t xml:space="preserve">34.673038482666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8904304504395</t>
+    <t xml:space="preserve">34.8904228210449</t>
   </si>
   <si>
     <t xml:space="preserve">35.3433151245117</t>
@@ -1691,52 +1691,52 @@
     <t xml:space="preserve">34.9266586303711</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7454986572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1839218139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0208854675293</t>
+    <t xml:space="preserve">34.7455024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1839256286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.020881652832</t>
   </si>
   <si>
     <t xml:space="preserve">34.6368103027344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3251991271973</t>
+    <t xml:space="preserve">35.3251953125</t>
   </si>
   <si>
     <t xml:space="preserve">33.6948051452637</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5897560119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5716438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6477565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9557132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7057514190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6550521850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1079406738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4014339447021</t>
+    <t xml:space="preserve">32.5897598266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5716400146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6477489471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.955717086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7057476043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.65505027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1079387664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4014320373535</t>
   </si>
   <si>
     <t xml:space="preserve">30.3253231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3833179473877</t>
+    <t xml:space="preserve">29.3833160400391</t>
   </si>
   <si>
     <t xml:space="preserve">29.5825881958008</t>
@@ -1745,25 +1745,25 @@
     <t xml:space="preserve">27.9884243011475</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2927417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7093963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7782115936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4303722381592</t>
+    <t xml:space="preserve">29.2927398681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7093944549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7782096862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4303684234619</t>
   </si>
   <si>
     <t xml:space="preserve">29.8180885314941</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1260509490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2890911102295</t>
+    <t xml:space="preserve">30.1260528564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2890892028809</t>
   </si>
   <si>
     <t xml:space="preserve">30.5789394378662</t>
@@ -1775,25 +1775,25 @@
     <t xml:space="preserve">31.8289070129395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2636756896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2854442596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5390605926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1586399078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9194869995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7926750183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0137138366699</t>
+    <t xml:space="preserve">32.2636795043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2854404449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5390644073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1586360931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9194889068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7926769256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0137119293213</t>
   </si>
   <si>
     <t xml:space="preserve">30.089822769165</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">30.0717086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8362045288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2565078735352</t>
+    <t xml:space="preserve">29.83620262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2565097808838</t>
   </si>
   <si>
     <t xml:space="preserve">28.8941993713379</t>
@@ -1814,16 +1814,16 @@
     <t xml:space="preserve">28.2601585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7529220581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7928028106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4304962158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1949939727783</t>
+    <t xml:space="preserve">27.7529239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7928047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4304943084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1949920654297</t>
   </si>
   <si>
     <t xml:space="preserve">26.6659965515137</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">27.3906135559082</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2094612121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2638053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1732273101807</t>
+    <t xml:space="preserve">27.2094593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2638072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1732292175293</t>
   </si>
   <si>
     <t xml:space="preserve">26.901496887207</t>
@@ -1847,40 +1847,40 @@
     <t xml:space="preserve">27.6261157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0790023803711</t>
+    <t xml:space="preserve">28.0790042877197</t>
   </si>
   <si>
     <t xml:space="preserve">27.7348079681396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0971202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0065402984619</t>
+    <t xml:space="preserve">28.0971183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0065422058105</t>
   </si>
   <si>
     <t xml:space="preserve">27.9521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2058124542236</t>
+    <t xml:space="preserve">28.205810546875</t>
   </si>
   <si>
     <t xml:space="preserve">28.1695823669434</t>
   </si>
   <si>
-    <t xml:space="preserve">27.93408203125</t>
+    <t xml:space="preserve">27.9340782165527</t>
   </si>
   <si>
     <t xml:space="preserve">28.767391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7130470275879</t>
+    <t xml:space="preserve">28.7130451202393</t>
   </si>
   <si>
     <t xml:space="preserve">29.3470897674561</t>
   </si>
   <si>
-    <t xml:space="preserve">29.328971862793</t>
+    <t xml:space="preserve">29.3289737701416</t>
   </si>
   <si>
     <t xml:space="preserve">28.8036212921143</t>
@@ -1892,10 +1892,10 @@
     <t xml:space="preserve">27.8253860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6080017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7166957855225</t>
+    <t xml:space="preserve">27.6079998016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7166919708252</t>
   </si>
   <si>
     <t xml:space="preserve">25.9051456451416</t>
@@ -1907,34 +1907,34 @@
     <t xml:space="preserve">21.8653907775879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8472747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9160900115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5501289367676</t>
+    <t xml:space="preserve">21.8472766876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.916088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5501308441162</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6950569152832</t>
+    <t xml:space="preserve">23.6950550079346</t>
   </si>
   <si>
     <t xml:space="preserve">23.3689765930176</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5682487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6443576812744</t>
+    <t xml:space="preserve">23.5682468414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6443557739258</t>
   </si>
   <si>
     <t xml:space="preserve">21.8291606903076</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9415035247803</t>
+    <t xml:space="preserve">20.9415016174316</t>
   </si>
   <si>
     <t xml:space="preserve">21.4849643707275</t>
@@ -1949,61 +1949,61 @@
     <t xml:space="preserve">21.7204685211182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8364562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4234485626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3872165679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6553020477295</t>
+    <t xml:space="preserve">19.8364543914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4234504699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3872184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6553039550781</t>
   </si>
   <si>
     <t xml:space="preserve">18.9850273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4959125518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1118354797363</t>
+    <t xml:space="preserve">18.4959106445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.111837387085</t>
   </si>
   <si>
     <t xml:space="preserve">18.1064281463623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2368869781494</t>
+    <t xml:space="preserve">17.2368850708008</t>
   </si>
   <si>
     <t xml:space="preserve">17.2097110748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3636932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7568264007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2948780059814</t>
+    <t xml:space="preserve">17.3636951446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7568244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2948799133301</t>
   </si>
   <si>
     <t xml:space="preserve">16.0412616729736</t>
   </si>
   <si>
-    <t xml:space="preserve">15.805760383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7695302963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7061262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2495899200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024784088135</t>
+    <t xml:space="preserve">15.8057632446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7695322036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7061243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2495918273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7024765014648</t>
   </si>
   <si>
     <t xml:space="preserve">16.4941501617432</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">16.5847263336182</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0430240631104</t>
+    <t xml:space="preserve">18.043025970459</t>
   </si>
   <si>
     <t xml:space="preserve">18.9306831359863</t>
@@ -2027,37 +2027,37 @@
     <t xml:space="preserve">17.7622356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8926887512207</t>
+    <t xml:space="preserve">16.8926906585693</t>
   </si>
   <si>
     <t xml:space="preserve">16.1046676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9959726333618</t>
+    <t xml:space="preserve">15.9959735870361</t>
   </si>
   <si>
     <t xml:space="preserve">16.3582820892334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2858219146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8148183822632</t>
+    <t xml:space="preserve">16.2858200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8148193359375</t>
   </si>
   <si>
     <t xml:space="preserve">15.4887399673462</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1354885101318</t>
+    <t xml:space="preserve">15.1354875564575</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6789522171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2351245880127</t>
+    <t xml:space="preserve">15.6789531707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2351226806641</t>
   </si>
   <si>
     <t xml:space="preserve">15.5521450042725</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">17.8890438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2604103088379</t>
+    <t xml:space="preserve">18.2604084014893</t>
   </si>
   <si>
     <t xml:space="preserve">17.7441177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">17.49049949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1154861450195</t>
+    <t xml:space="preserve">17.4905014038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1154842376709</t>
   </si>
   <si>
     <t xml:space="preserve">18.1517181396484</t>
@@ -2087,25 +2087,25 @@
     <t xml:space="preserve">18.3328723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.133602142334</t>
+    <t xml:space="preserve">18.1336002349854</t>
   </si>
   <si>
     <t xml:space="preserve">18.0249080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5539054870605</t>
+    <t xml:space="preserve">17.5539073944092</t>
   </si>
   <si>
     <t xml:space="preserve">18.7857570648193</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9125671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7314128875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4415664672852</t>
+    <t xml:space="preserve">18.9125652313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7314147949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4415626525879</t>
   </si>
   <si>
     <t xml:space="preserve">19.0574913024902</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">17.4542713165283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8256378173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053325653076</t>
+    <t xml:space="preserve">17.8256397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053344726562</t>
   </si>
   <si>
     <t xml:space="preserve">18.7132968902588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5103797912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7821102142334</t>
+    <t xml:space="preserve">19.5103778839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.782112121582</t>
   </si>
   <si>
     <t xml:space="preserve">20.3618049621582</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">20.1806526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0357265472412</t>
+    <t xml:space="preserve">20.0357284545898</t>
   </si>
   <si>
     <t xml:space="preserve">19.528491973877</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">17.8437538146973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.898099899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6082534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5176773071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9470367431641</t>
+    <t xml:space="preserve">17.8981018066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6082515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5176753997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9470348358154</t>
   </si>
   <si>
     <t xml:space="preserve">17.0829048156738</t>
@@ -2189,25 +2189,25 @@
     <t xml:space="preserve">17.1463069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0376129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4452152252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3727493286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4814434051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3818073272705</t>
+    <t xml:space="preserve">17.0376148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4452114105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3727512359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3818092346191</t>
   </si>
   <si>
     <t xml:space="preserve">18.2785243988037</t>
   </si>
   <si>
-    <t xml:space="preserve">18.079252243042</t>
+    <t xml:space="preserve">18.0792560577393</t>
   </si>
   <si>
     <t xml:space="preserve">17.7169456481934</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">18.2422943115234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0158500671387</t>
+    <t xml:space="preserve">18.0158519744873</t>
   </si>
   <si>
     <t xml:space="preserve">17.7984638214111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2966384887695</t>
+    <t xml:space="preserve">18.2966423034668</t>
   </si>
   <si>
     <t xml:space="preserve">18.0520820617676</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">17.336519241333</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2278289794922</t>
+    <t xml:space="preserve">17.2278270721436</t>
   </si>
   <si>
     <t xml:space="preserve">17.7803478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0701961517334</t>
+    <t xml:space="preserve">18.070198059082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1879463195801</t>
@@ -2252,13 +2252,13 @@
     <t xml:space="preserve">17.9705619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6173095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7078857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6897716522217</t>
+    <t xml:space="preserve">17.6173114776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7078876495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6897735595703</t>
   </si>
   <si>
     <t xml:space="preserve">17.8709259033203</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">18.7429008483887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3418216705322</t>
+    <t xml:space="preserve">17.3418235778809</t>
   </si>
   <si>
     <t xml:space="preserve">16.7572650909424</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">14.7066822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.880880355835</t>
+    <t xml:space="preserve">13.8808813095093</t>
   </si>
   <si>
     <t xml:space="preserve">14.0200605392456</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">13.3891124725342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9736680984497</t>
+    <t xml:space="preserve">13.9736671447754</t>
   </si>
   <si>
     <t xml:space="preserve">13.9179954528809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5561275482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0272436141968</t>
+    <t xml:space="preserve">13.5561265945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0272445678711</t>
   </si>
   <si>
     <t xml:space="preserve">13.1478672027588</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">13.1757020950317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2128162384033</t>
+    <t xml:space="preserve">13.2128171920776</t>
   </si>
   <si>
     <t xml:space="preserve">14.001503944397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7788162231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5582227706909</t>
+    <t xml:space="preserve">13.7788152694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5582237243652</t>
   </si>
   <si>
     <t xml:space="preserve">14.5025510787964</t>
@@ -2348,37 +2348,37 @@
     <t xml:space="preserve">13.9087162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716011047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7695379257202</t>
+    <t xml:space="preserve">13.8716020584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7695369720459</t>
   </si>
   <si>
     <t xml:space="preserve">14.5953378677368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2613067626953</t>
+    <t xml:space="preserve">14.261305809021</t>
   </si>
   <si>
     <t xml:space="preserve">11.1622323989868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8189220428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2065305709839</t>
+    <t xml:space="preserve">10.8189210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2065296173096</t>
   </si>
   <si>
     <t xml:space="preserve">10.2714805603027</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4663314819336</t>
+    <t xml:space="preserve">10.4663324356079</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756116867065</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6519050598145</t>
+    <t xml:space="preserve">10.6519060134888</t>
   </si>
   <si>
     <t xml:space="preserve">10.9209871292114</t>
@@ -2387,37 +2387,37 @@
     <t xml:space="preserve">10.9859380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5405607223511</t>
+    <t xml:space="preserve">10.5405616760254</t>
   </si>
   <si>
     <t xml:space="preserve">10.7446928024292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5962343215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3549890518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.429217338562</t>
+    <t xml:space="preserve">10.5962333679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3549880981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4292182922363</t>
   </si>
   <si>
     <t xml:space="preserve">10.1044654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343654632568</t>
+    <t xml:space="preserve">10.2343664169312</t>
   </si>
   <si>
     <t xml:space="preserve">9.96528434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71476078033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58485889434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.150857925415</t>
+    <t xml:space="preserve">9.71476173400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58485984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1508588790894</t>
   </si>
   <si>
     <t xml:space="preserve">10.549840927124</t>
@@ -2450,19 +2450,19 @@
     <t xml:space="preserve">10.1137428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1786947250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55702495574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34361362457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63125324249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26474666595459</t>
+    <t xml:space="preserve">10.1786937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5570240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34361457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63125228881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26474571228027</t>
   </si>
   <si>
     <t xml:space="preserve">9.45495796203613</t>
@@ -2483,37 +2483,37 @@
     <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93071460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59413814544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29722118377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33433628082275</t>
+    <t xml:space="preserve">8.93071365356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59413909912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29722213745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33433532714844</t>
   </si>
   <si>
     <t xml:space="preserve">9.16732025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93744945526123</t>
+    <t xml:space="preserve">9.93744850158691</t>
   </si>
   <si>
     <t xml:space="preserve">10.0302362442017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0487928390503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.29931640625</t>
+    <t xml:space="preserve">10.048791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2993173599243</t>
   </si>
   <si>
     <t xml:space="preserve">10.4941692352295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.141580581665</t>
+    <t xml:space="preserve">10.1415796279907</t>
   </si>
   <si>
     <t xml:space="preserve">10.1601362228394</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">9.72403907775879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57558059692383</t>
+    <t xml:space="preserve">9.57558155059814</t>
   </si>
   <si>
     <t xml:space="preserve">9.85394096374512</t>
@@ -2534,10 +2534,10 @@
     <t xml:space="preserve">9.62197399139404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31577777862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44568061828613</t>
+    <t xml:space="preserve">9.3157787322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44567966461182</t>
   </si>
   <si>
     <t xml:space="preserve">9.70548248291016</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">9.87249851226807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74259757995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0395135879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8075475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54774379730225</t>
+    <t xml:space="preserve">9.74259662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.039514541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80754661560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54774475097656</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364315032959</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">10.1230220794678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426277160645</t>
+    <t xml:space="preserve">10.6426267623901</t>
   </si>
   <si>
     <t xml:space="preserve">10.7910861968994</t>
@@ -2582,16 +2582,16 @@
     <t xml:space="preserve">10.568398475647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4106607437134</t>
+    <t xml:space="preserve">10.4106616973877</t>
   </si>
   <si>
     <t xml:space="preserve">11.4962644577026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003946304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3035078048706</t>
+    <t xml:space="preserve">11.7003955841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3035087585449</t>
   </si>
   <si>
     <t xml:space="preserve">12.0622625350952</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">12.2107210159302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2571144104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0344266891479</t>
+    <t xml:space="preserve">12.2571153640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0344276428223</t>
   </si>
   <si>
     <t xml:space="preserve">12.0251483917236</t>
@@ -2627,13 +2627,13 @@
     <t xml:space="preserve">12.136492729187</t>
   </si>
   <si>
-    <t xml:space="preserve">12.526195526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.333438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3241605758667</t>
+    <t xml:space="preserve">12.5261964797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3334398269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.324161529541</t>
   </si>
   <si>
     <t xml:space="preserve">13.1571455001831</t>
@@ -2642,25 +2642,25 @@
     <t xml:space="preserve">13.6767501831055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4818983078003</t>
+    <t xml:space="preserve">13.481897354126</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8344869613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7880935668945</t>
+    <t xml:space="preserve">13.8344879150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7880945205688</t>
   </si>
   <si>
     <t xml:space="preserve">13.853045463562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4169483184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7973728179932</t>
+    <t xml:space="preserve">13.4169473648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7973718643188</t>
   </si>
   <si>
     <t xml:space="preserve">13.8066520690918</t>
@@ -2669,16 +2669,16 @@
     <t xml:space="preserve">14.0942897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2149124145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2056341171265</t>
+    <t xml:space="preserve">14.2149114608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2056350708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.0293397903442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7417011260986</t>
+    <t xml:space="preserve">13.7417020797729</t>
   </si>
   <si>
     <t xml:space="preserve">13.7602586746216</t>
@@ -2687,13 +2687,13 @@
     <t xml:space="preserve">14.5396661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1963558197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9272747039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.131404876709</t>
+    <t xml:space="preserve">14.1963548660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9272737503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1314039230347</t>
   </si>
   <si>
     <t xml:space="preserve">14.112847328186</t>
@@ -2705,28 +2705,28 @@
     <t xml:space="preserve">15.7366132736206</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8201198577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1840839385986</t>
+    <t xml:space="preserve">15.8201217651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1840858459473</t>
   </si>
   <si>
     <t xml:space="preserve">16.8871688842773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9613990783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8407745361328</t>
+    <t xml:space="preserve">16.9613971710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8407726287842</t>
   </si>
   <si>
     <t xml:space="preserve">16.915002822876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2005481719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0892028808594</t>
+    <t xml:space="preserve">16.2005462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0892009735107</t>
   </si>
   <si>
     <t xml:space="preserve">16.0242519378662</t>
@@ -2735,16 +2735,16 @@
     <t xml:space="preserve">15.5603199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.762354850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4004859924316</t>
+    <t xml:space="preserve">14.7623538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.400486946106</t>
   </si>
   <si>
     <t xml:space="preserve">14.9293699264526</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3840255737305</t>
+    <t xml:space="preserve">15.3840246200562</t>
   </si>
   <si>
     <t xml:space="preserve">15.2912378311157</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376312255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0685501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2448434829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1613359451294</t>
+    <t xml:space="preserve">15.3376321792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.068549156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2448444366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1613368988037</t>
   </si>
   <si>
     <t xml:space="preserve">14.1870775222778</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">12.0437049865723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6540012359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3663625717163</t>
+    <t xml:space="preserve">11.6540021896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3663635253906</t>
   </si>
   <si>
     <t xml:space="preserve">10.6611843109131</t>
@@ -2804,40 +2804,40 @@
     <t xml:space="preserve">8.02140522003174</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93789768218994</t>
+    <t xml:space="preserve">7.93789720535278</t>
   </si>
   <si>
     <t xml:space="preserve">6.58785104751587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97755527496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94508028030396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02394819259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94971895217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05178451538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51571798324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10027408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9075174331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39000797271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0652551651001</t>
+    <t xml:space="preserve">6.97755479812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9450798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02394866943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94971942901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0517840385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51571846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10027313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90751838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000701904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06525421142578</t>
   </si>
   <si>
     <t xml:space="preserve">8.44358444213867</t>
@@ -2852,19 +2852,19 @@
     <t xml:space="preserve">8.30440425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16522407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79407691955566</t>
+    <t xml:space="preserve">8.1652250289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79407739639282</t>
   </si>
   <si>
     <t xml:space="preserve">7.97501182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8311915397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15594577789307</t>
+    <t xml:space="preserve">7.83119201660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15594482421875</t>
   </si>
   <si>
     <t xml:space="preserve">7.88686418533325</t>
@@ -2876,16 +2876,16 @@
     <t xml:space="preserve">7.33014440536499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30230855941772</t>
+    <t xml:space="preserve">7.30230808258057</t>
   </si>
   <si>
     <t xml:space="preserve">7.36725902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37653684616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15385007858276</t>
+    <t xml:space="preserve">7.37653779983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15384960174561</t>
   </si>
   <si>
     <t xml:space="preserve">7.59922504425049</t>
@@ -2894,37 +2894,37 @@
     <t xml:space="preserve">7.8219141960144</t>
   </si>
   <si>
-    <t xml:space="preserve">7.979651927948</t>
+    <t xml:space="preserve">7.97965049743652</t>
   </si>
   <si>
     <t xml:space="preserve">7.64561891555786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38117742538452</t>
+    <t xml:space="preserve">7.38117694854736</t>
   </si>
   <si>
     <t xml:space="preserve">7.56211042404175</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34870147705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18632507324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14457035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20024299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10745620727539</t>
+    <t xml:space="preserve">7.34870195388794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18632459640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14457082748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20024347305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10745573043823</t>
   </si>
   <si>
     <t xml:space="preserve">6.9682765007019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60850429534912</t>
+    <t xml:space="preserve">7.60850381851196</t>
   </si>
   <si>
     <t xml:space="preserve">7.58530759811401</t>
@@ -2933,28 +2933,28 @@
     <t xml:space="preserve">7.48788118362427</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31158685684204</t>
+    <t xml:space="preserve">7.3115873336792</t>
   </si>
   <si>
     <t xml:space="preserve">7.76624155044556</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51781463623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71730422973633</t>
+    <t xml:space="preserve">8.51781272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71730518341064</t>
   </si>
   <si>
     <t xml:space="preserve">8.9539098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59204196929932</t>
+    <t xml:space="preserve">8.59204292297363</t>
   </si>
   <si>
     <t xml:space="preserve">8.74050140380859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92607402801514</t>
+    <t xml:space="preserve">8.92607498168945</t>
   </si>
   <si>
     <t xml:space="preserve">9.38072872161865</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">11.0694456100464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5519371032715</t>
+    <t xml:space="preserve">11.5519351959229</t>
   </si>
   <si>
     <t xml:space="preserve">11.5612154006958</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">11.0044946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88177585601807</t>
+    <t xml:space="preserve">9.88177680969238</t>
   </si>
   <si>
     <t xml:space="preserve">9.79826927185059</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">10.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2529230117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0766277313232</t>
+    <t xml:space="preserve">10.2529239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0766286849976</t>
   </si>
   <si>
     <t xml:space="preserve">9.94672775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.438497543335</t>
+    <t xml:space="preserve">10.4384965896606</t>
   </si>
   <si>
     <t xml:space="preserve">10.4199380874634</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">10.7354135513306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6055126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.828200340271</t>
+    <t xml:space="preserve">10.6055135726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282012939453</t>
   </si>
   <si>
     <t xml:space="preserve">12.0900983810425</t>
@@ -3023,22 +3023,22 @@
     <t xml:space="preserve">11.6818380355835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8766889572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8859691619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7746238708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7282314300537</t>
+    <t xml:space="preserve">11.8766899108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.885968208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7746229171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7282304763794</t>
   </si>
   <si>
     <t xml:space="preserve">11.6354446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4127559661865</t>
+    <t xml:space="preserve">11.4127569198608</t>
   </si>
   <si>
     <t xml:space="preserve">11.338526725769</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">12.0715417861938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.387017250061</t>
+    <t xml:space="preserve">12.3870162963867</t>
   </si>
   <si>
     <t xml:space="preserve">12.8973426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7767210006714</t>
+    <t xml:space="preserve">12.7767200469971</t>
   </si>
   <si>
     <t xml:space="preserve">13.1293087005615</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">13.472620010376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3612756729126</t>
+    <t xml:space="preserve">13.3612747192383</t>
   </si>
   <si>
     <t xml:space="preserve">13.5190124511719</t>
@@ -3077,25 +3077,25 @@
     <t xml:space="preserve">13.203537940979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056049346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0829162597656</t>
+    <t xml:space="preserve">13.3056039810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0829153060913</t>
   </si>
   <si>
     <t xml:space="preserve">13.2684898376465</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6210784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4262275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6489152908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4447832107544</t>
+    <t xml:space="preserve">13.6210775375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4262266159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6489143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4447841644287</t>
   </si>
   <si>
     <t xml:space="preserve">13.222095489502</t>
@@ -3107,10 +3107,10 @@
     <t xml:space="preserve">13.1849813461304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2406539916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.342719078064</t>
+    <t xml:space="preserve">13.2406530380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3427181243896</t>
   </si>
   <si>
     <t xml:space="preserve">13.3519973754883</t>
@@ -3119,43 +3119,43 @@
     <t xml:space="preserve">13.1200304031372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2499313354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4076681137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4633407592773</t>
+    <t xml:space="preserve">13.2499322891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4076690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4633417129517</t>
   </si>
   <si>
     <t xml:space="preserve">12.5818681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4519662857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7024898529053</t>
+    <t xml:space="preserve">12.4519672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7024908065796</t>
   </si>
   <si>
     <t xml:space="preserve">12.4055728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8602275848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.583963394165</t>
+    <t xml:space="preserve">12.8602266311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5839643478394</t>
   </si>
   <si>
     <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5282907485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3561868667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6623830795288</t>
+    <t xml:space="preserve">13.5282917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3561878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6623840332031</t>
   </si>
   <si>
     <t xml:space="preserve">15.9221858978271</t>
@@ -3167,28 +3167,28 @@
     <t xml:space="preserve">15.448974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5510406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8458623886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6046171188354</t>
+    <t xml:space="preserve">15.5510416030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8458614349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6046161651611</t>
   </si>
   <si>
     <t xml:space="preserve">14.6788463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7994689941406</t>
+    <t xml:space="preserve">14.7994680404663</t>
   </si>
   <si>
     <t xml:space="preserve">14.4376010894775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9922246932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7324228286743</t>
+    <t xml:space="preserve">13.992223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.732421875</t>
   </si>
   <si>
     <t xml:space="preserve">14.5860595703125</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">15.2726802825928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7644500732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5046472549438</t>
+    <t xml:space="preserve">15.7644481658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5046453475952</t>
   </si>
   <si>
     <t xml:space="preserve">15.1891736984253</t>
@@ -3218,40 +3218,40 @@
     <t xml:space="preserve">15.4768104553223</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8665170669556</t>
+    <t xml:space="preserve">15.8665151596069</t>
   </si>
   <si>
     <t xml:space="preserve">15.6716623306274</t>
   </si>
   <si>
-    <t xml:space="preserve">16.246940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9036293029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9314641952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0149726867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2098255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9685802459717</t>
+    <t xml:space="preserve">16.2469387054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9036302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9314661026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0149745941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2098236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407453536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9685792922974</t>
   </si>
   <si>
     <t xml:space="preserve">15.4396953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7273368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5232048034668</t>
+    <t xml:space="preserve">15.7273349761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5232038497925</t>
   </si>
   <si>
     <t xml:space="preserve">15.6809415817261</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">16.0428104400635</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1912670135498</t>
+    <t xml:space="preserve">16.1912689208984</t>
   </si>
   <si>
     <t xml:space="preserve">16.1634311676025</t>
@@ -3275,19 +3275,19 @@
     <t xml:space="preserve">17.4902820587158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.564510345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2119197845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3603801727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6387405395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5459537506104</t>
+    <t xml:space="preserve">17.5645122528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2119216918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3603782653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6387386322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5459518432617</t>
   </si>
   <si>
     <t xml:space="preserve">17.666576385498</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">17.7222499847412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6480197906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1397857666016</t>
+    <t xml:space="preserve">17.6480178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1397876739502</t>
   </si>
   <si>
     <t xml:space="preserve">18.5202121734619</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">18.872802734375</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0975856781006</t>
+    <t xml:space="preserve">20.097583770752</t>
   </si>
   <si>
     <t xml:space="preserve">19.540864944458</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">19.5594234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8356857299805</t>
+    <t xml:space="preserve">18.8356876373291</t>
   </si>
   <si>
     <t xml:space="preserve">19.3552932739258</t>
@@ -3332,19 +3332,19 @@
     <t xml:space="preserve">19.4480781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3738498687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6501159667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6686725616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3068046569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5758857727051</t>
+    <t xml:space="preserve">19.3738479614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6501140594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6686706542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3068027496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5758838653564</t>
   </si>
   <si>
     <t xml:space="preserve">18.074836730957</t>
@@ -3356,7 +3356,7 @@
     <t xml:space="preserve">19.392406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0790271759033</t>
+    <t xml:space="preserve">20.079029083252</t>
   </si>
   <si>
     <t xml:space="preserve">20.7285346984863</t>
@@ -3371,13 +3371,13 @@
     <t xml:space="preserve">21.3409271240234</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4337120056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3038101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8811855316162</t>
+    <t xml:space="preserve">21.4337139129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3038120269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8811836242676</t>
   </si>
   <si>
     <t xml:space="preserve">22.8997421264648</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">21.9718761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6028251647949</t>
+    <t xml:space="preserve">22.6028270721436</t>
   </si>
   <si>
     <t xml:space="preserve">21.8419742584229</t>
@@ -3398,19 +3398,19 @@
     <t xml:space="preserve">20.6543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">20.747091293335</t>
+    <t xml:space="preserve">20.7470932006836</t>
   </si>
   <si>
     <t xml:space="preserve">20.8398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3017158508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.248140335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8027648925781</t>
+    <t xml:space="preserve">20.3017177581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2481384277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8027629852295</t>
   </si>
   <si>
     <t xml:space="preserve">21.3223686218262</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">20.5800762176514</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9862422943115</t>
+    <t xml:space="preserve">19.9862442016602</t>
   </si>
   <si>
     <t xml:space="preserve">20.7656478881836</t>
@@ -3428,13 +3428,13 @@
     <t xml:space="preserve">20.9697799682617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2110252380371</t>
+    <t xml:space="preserve">21.2110271453857</t>
   </si>
   <si>
     <t xml:space="preserve">21.2295818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">20.338830947876</t>
+    <t xml:space="preserve">20.3388328552246</t>
   </si>
   <si>
     <t xml:space="preserve">20.0604724884033</t>
@@ -3449,13 +3449,13 @@
     <t xml:space="preserve">19.7264404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9676856994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9141082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4316177368164</t>
+    <t xml:space="preserve">19.9676837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9141101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.431619644165</t>
   </si>
   <si>
     <t xml:space="preserve">20.9512233734131</t>
@@ -3467,10 +3467,10 @@
     <t xml:space="preserve">22.6770534515381</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1945648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3430213928223</t>
+    <t xml:space="preserve">22.1945629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3430233001709</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687931060791</t>
@@ -3479,19 +3479,19 @@
     <t xml:space="preserve">22.1388912200928</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3801364898682</t>
+    <t xml:space="preserve">22.3801383972168</t>
   </si>
   <si>
     <t xml:space="preserve">22.1574478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3265609741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9203948974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8647232055664</t>
+    <t xml:space="preserve">23.3265590667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9203968048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8647212982178</t>
   </si>
   <si>
     <t xml:space="preserve">24.532787322998</t>
@@ -3500,16 +3500,16 @@
     <t xml:space="preserve">24.0317401885986</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1781005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0482006072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4379043579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5306911468506</t>
+    <t xml:space="preserve">23.1781024932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0482025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4379062652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5306930541992</t>
   </si>
   <si>
     <t xml:space="preserve">23.7162647247314</t>
@@ -3518,16 +3518,16 @@
     <t xml:space="preserve">23.2708892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">22.714168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9368572235107</t>
+    <t xml:space="preserve">22.7141666412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9368553161621</t>
   </si>
   <si>
     <t xml:space="preserve">22.4729232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">23.623477935791</t>
+    <t xml:space="preserve">23.6234760284424</t>
   </si>
   <si>
     <t xml:space="preserve">23.883279800415</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">23.363676071167</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8440685272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7719383239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2194080352783</t>
+    <t xml:space="preserve">22.8440704345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.771936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.219409942627</t>
   </si>
   <si>
     <t xml:space="preserve">26.9081249237061</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">26.6297664642334</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1308116912842</t>
+    <t xml:space="preserve">27.1308135986328</t>
   </si>
   <si>
     <t xml:space="preserve">27.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5390758514404</t>
+    <t xml:space="preserve">27.5390739440918</t>
   </si>
   <si>
     <t xml:space="preserve">27.6504173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3184814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2071380615234</t>
+    <t xml:space="preserve">28.3184833526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2071361541748</t>
   </si>
   <si>
     <t xml:space="preserve">27.4277286529541</t>
@@ -3578,16 +3578,16 @@
     <t xml:space="preserve">27.724645614624</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5576324462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2607116699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0565814971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6483211517334</t>
+    <t xml:space="preserve">27.5576305389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2607135772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.056583404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.648323059082</t>
   </si>
   <si>
     <t xml:space="preserve">26.0730457305908</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">26.7967796325684</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6112098693848</t>
+    <t xml:space="preserve">26.6112079620361</t>
   </si>
   <si>
     <t xml:space="preserve">26.536979675293</t>
@@ -3611,7 +3611,7 @@
     <t xml:space="preserve">25.6462249755859</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0544872283936</t>
+    <t xml:space="preserve">26.0544891357422</t>
   </si>
   <si>
     <t xml:space="preserve">26.407075881958</t>
@@ -3623,19 +3623,19 @@
     <t xml:space="preserve">26.1101589202881</t>
   </si>
   <si>
-    <t xml:space="preserve">26.815336227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4813079833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.666877746582</t>
+    <t xml:space="preserve">26.8153381347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4813060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6668796539307</t>
   </si>
   <si>
     <t xml:space="preserve">25.5905532836914</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8895664215088</t>
+    <t xml:space="preserve">26.8895683288574</t>
   </si>
   <si>
     <t xml:space="preserve">26.8710098266602</t>
@@ -3644,10 +3644,10 @@
     <t xml:space="preserve">26.9823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5926475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6854381561279</t>
+    <t xml:space="preserve">26.5926494598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6854362487793</t>
   </si>
   <si>
     <t xml:space="preserve">25.5719966888428</t>
@@ -3668,31 +3668,31 @@
     <t xml:space="preserve">29.0793323516846</t>
   </si>
   <si>
-    <t xml:space="preserve">30.638147354126</t>
+    <t xml:space="preserve">30.6381492614746</t>
   </si>
   <si>
     <t xml:space="preserve">31.139196395874</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7659568786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1864852905273</t>
+    <t xml:space="preserve">29.7659549713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1864833831787</t>
   </si>
   <si>
     <t xml:space="preserve">27.0380249023438</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5019569396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7803211212158</t>
+    <t xml:space="preserve">27.5019588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7803192138672</t>
   </si>
   <si>
     <t xml:space="preserve">26.945240020752</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0936985015869</t>
+    <t xml:space="preserve">27.0937004089355</t>
   </si>
   <si>
     <t xml:space="preserve">27.3349418640137</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">28.0586795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7432022094727</t>
+    <t xml:space="preserve">27.7432041168213</t>
   </si>
   <si>
     <t xml:space="preserve">27.3906154632568</t>
@@ -3716,13 +3716,13 @@
     <t xml:space="preserve">26.7782249450684</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4091720581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9287776947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4648456573486</t>
+    <t xml:space="preserve">27.4091739654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9287796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.46484375</t>
   </si>
   <si>
     <t xml:space="preserve">28.114351272583</t>
@@ -3734,31 +3734,31 @@
     <t xml:space="preserve">28.1885795593262</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9658908843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5040531158447</t>
+    <t xml:space="preserve">27.965892791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5040550231934</t>
   </si>
   <si>
     <t xml:space="preserve">28.0772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.854549407959</t>
+    <t xml:space="preserve">27.8545475006104</t>
   </si>
   <si>
     <t xml:space="preserve">27.205041885376</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9102210998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9844493865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1329097747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4669418334961</t>
+    <t xml:space="preserve">27.9102191925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.984447479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1329078674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4669399261475</t>
   </si>
   <si>
     <t xml:space="preserve">28.4483833312988</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">28.2442531585693</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9473361968994</t>
+    <t xml:space="preserve">27.9473342895508</t>
   </si>
   <si>
     <t xml:space="preserve">26.4441909790039</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">26.3699626922607</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6647834777832</t>
+    <t xml:space="preserve">25.6647853851318</t>
   </si>
   <si>
     <t xml:space="preserve">24.7554740905762</t>
@@ -3788,10 +3788,10 @@
     <t xml:space="preserve">24.2358703613281</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1080646514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4956722259521</t>
+    <t xml:space="preserve">25.1080627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4956703186035</t>
   </si>
   <si>
     <t xml:space="preserve">23.8461666107178</t>
@@ -3800,28 +3800,28 @@
     <t xml:space="preserve">23.4750194549561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4007892608643</t>
+    <t xml:space="preserve">23.4007911682129</t>
   </si>
   <si>
     <t xml:space="preserve">24.1987552642822</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3472118377686</t>
+    <t xml:space="preserve">24.3472137451172</t>
   </si>
   <si>
     <t xml:space="preserve">24.8853759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7740345001221</t>
+    <t xml:space="preserve">24.7740325927734</t>
   </si>
   <si>
     <t xml:space="preserve">25.3864250183105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2379665374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0523910522461</t>
+    <t xml:space="preserve">25.237964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0523929595947</t>
   </si>
   <si>
     <t xml:space="preserve">25.1266212463379</t>
@@ -3830,22 +3830,22 @@
     <t xml:space="preserve">24.9596061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3307514190674</t>
+    <t xml:space="preserve">25.3307495117188</t>
   </si>
   <si>
     <t xml:space="preserve">24.8111457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6833419799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0152778625488</t>
+    <t xml:space="preserve">25.6833400726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0152759552002</t>
   </si>
   <si>
     <t xml:space="preserve">25.0709495544434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9781627655029</t>
+    <t xml:space="preserve">24.9781608581543</t>
   </si>
   <si>
     <t xml:space="preserve">24.4028854370117</t>
@@ -3854,19 +3854,19 @@
     <t xml:space="preserve">24.4400005340576</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0131797790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6605911254883</t>
+    <t xml:space="preserve">24.0131816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6605930328369</t>
   </si>
   <si>
     <t xml:space="preserve">23.2894458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9904327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9533195495605</t>
+    <t xml:space="preserve">21.9904346466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9533176422119</t>
   </si>
   <si>
     <t xml:space="preserve">22.0089893341064</t>
@@ -3875,16 +3875,16 @@
     <t xml:space="preserve">21.1553516387939</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8213214874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8605327606201</t>
+    <t xml:space="preserve">20.8213233947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8605308532715</t>
   </si>
   <si>
     <t xml:space="preserve">21.5821723937988</t>
   </si>
   <si>
-    <t xml:space="preserve">21.656400680542</t>
+    <t xml:space="preserve">21.6564025878906</t>
   </si>
   <si>
     <t xml:space="preserve">22.7883987426758</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">21.5636138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4687309265137</t>
+    <t xml:space="preserve">20.4687328338623</t>
   </si>
   <si>
     <t xml:space="preserve">21.099681854248</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">20.0419139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1903743743896</t>
+    <t xml:space="preserve">20.190372467041</t>
   </si>
   <si>
     <t xml:space="preserve">21.006893157959</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">19.9305686950684</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9326629638672</t>
+    <t xml:space="preserve">20.9326648712158</t>
   </si>
   <si>
     <t xml:space="preserve">20.3202724456787</t>
@@ -3959,82 +3959,82 @@
     <t xml:space="preserve">20.6171894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8769950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4872894287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1347007751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0954875946045</t>
+    <t xml:space="preserve">20.8769931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4872875213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1346988677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0954895019531</t>
   </si>
   <si>
     <t xml:space="preserve">18.6129989624023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7779197692871</t>
+    <t xml:space="preserve">17.7779178619385</t>
   </si>
   <si>
     <t xml:space="preserve">18.2325744628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.223295211792</t>
+    <t xml:space="preserve">18.2232933044434</t>
   </si>
   <si>
     <t xml:space="preserve">17.16552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4624443054199</t>
+    <t xml:space="preserve">17.4624462127686</t>
   </si>
   <si>
     <t xml:space="preserve">15.170615196228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.319073677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3768405914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4582529067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3304481506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5468492507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2984218597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1406831741333</t>
+    <t xml:space="preserve">15.3190746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4582538604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3304500579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5468502044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2984209060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1406841278076</t>
   </si>
   <si>
     <t xml:space="preserve">14.4190435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7716331481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9015331268311</t>
+    <t xml:space="preserve">14.771632194519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9015340805054</t>
   </si>
   <si>
     <t xml:space="preserve">14.3448143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3355350494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7437963485718</t>
+    <t xml:space="preserve">14.3355360031128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7437973022461</t>
   </si>
   <si>
     <t xml:space="preserve">15.9129076004028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7458915710449</t>
+    <t xml:space="preserve">15.7458925247192</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221265792847</t>
@@ -4043,22 +4043,22 @@
     <t xml:space="preserve">14.0757331848145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8994379043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9458312988281</t>
+    <t xml:space="preserve">13.8994388580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468793869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9458322525024</t>
   </si>
   <si>
     <t xml:space="preserve">13.6953077316284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8901605606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8787851333618</t>
+    <t xml:space="preserve">13.8901596069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8787860870361</t>
   </si>
   <si>
     <t xml:space="preserve">12.7859983444214</t>
@@ -4067,28 +4067,28 @@
     <t xml:space="preserve">13.4355049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0314359664917</t>
+    <t xml:space="preserve">15.031436920166</t>
   </si>
   <si>
     <t xml:space="preserve">15.1335000991821</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3933038711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4304170608521</t>
+    <t xml:space="preserve">15.3933029174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4304180145264</t>
   </si>
   <si>
     <t xml:space="preserve">15.1242208480835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3210411071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579359054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0219526290894</t>
+    <t xml:space="preserve">15.3210420608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0219535827637</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368171691895</t>
@@ -4097,28 +4097,28 @@
     <t xml:space="preserve">15.5622406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0735855102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6297779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8034410476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.870979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.121826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9481620788574</t>
+    <t xml:space="preserve">16.0735874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6297788619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8034420013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8709783554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1218242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9481639862061</t>
   </si>
   <si>
     <t xml:space="preserve">15.7359056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4078741073608</t>
+    <t xml:space="preserve">15.4078731536865</t>
   </si>
   <si>
     <t xml:space="preserve">14.6360330581665</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">13.2177743911743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0923500061035</t>
+    <t xml:space="preserve">13.0923509597778</t>
   </si>
   <si>
     <t xml:space="preserve">13.1405906677246</t>
@@ -4157,10 +4157,10 @@
     <t xml:space="preserve">12.8222064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9186878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6678380966187</t>
+    <t xml:space="preserve">12.9186868667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.667839050293</t>
   </si>
   <si>
     <t xml:space="preserve">12.195086479187</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">12.7932624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7546710968018</t>
+    <t xml:space="preserve">12.7546701431274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2722702026367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9669256210327</t>
+    <t xml:space="preserve">12.966926574707</t>
   </si>
   <si>
     <t xml:space="preserve">13.2467184066772</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">12.5038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.851149559021</t>
+    <t xml:space="preserve">12.8511505126953</t>
   </si>
   <si>
     <t xml:space="preserve">13.3817911148071</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">13.3914394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5520629882812</t>
+    <t xml:space="preserve">12.5520620346069</t>
   </si>
   <si>
     <t xml:space="preserve">12.6774873733521</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">12.4652299880981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3205108642578</t>
+    <t xml:space="preserve">12.3205099105835</t>
   </si>
   <si>
     <t xml:space="preserve">11.9345893859863</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">12.0793104171753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2240295410156</t>
+    <t xml:space="preserve">12.2240304946899</t>
   </si>
   <si>
     <t xml:space="preserve">12.2915658950806</t>
@@ -4262,25 +4262,25 @@
     <t xml:space="preserve">12.3783979415894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1854372024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2529745101929</t>
+    <t xml:space="preserve">12.1854381561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2529735565186</t>
   </si>
   <si>
     <t xml:space="preserve">11.9152936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336778640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5583162307739</t>
+    <t xml:space="preserve">12.233678817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5583171844482</t>
   </si>
   <si>
     <t xml:space="preserve">11.5293731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3943004608154</t>
+    <t xml:space="preserve">11.3943014144897</t>
   </si>
   <si>
     <t xml:space="preserve">11.7319812774658</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">11.3364133834839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9987325668335</t>
+    <t xml:space="preserve">10.9987316131592</t>
   </si>
   <si>
     <t xml:space="preserve">11.0083799362183</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">11.7223329544067</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6355009078979</t>
+    <t xml:space="preserve">11.6355018615723</t>
   </si>
   <si>
     <t xml:space="preserve">11.645149230957</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">11.9635334014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7898693084717</t>
+    <t xml:space="preserve">11.789870262146</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125581741333</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">12.156494140625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3301582336426</t>
+    <t xml:space="preserve">12.3301572799683</t>
   </si>
   <si>
     <t xml:space="preserve">12.2626218795776</t>
@@ -4403,10 +4403,7 @@
     <t xml:space="preserve">12.63889503479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012132644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757898330688</t>
+    <t xml:space="preserve">12.3012142181396</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415031433105</t>
@@ -4421,34 +4418,34 @@
     <t xml:space="preserve">12.3976945877075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3880462646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5327653884888</t>
+    <t xml:space="preserve">12.3880453109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5327663421631</t>
   </si>
   <si>
     <t xml:space="preserve">12.0600137710571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9924774169922</t>
+    <t xml:space="preserve">11.9924783706665</t>
   </si>
   <si>
     <t xml:space="preserve">12.1082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1275501251221</t>
+    <t xml:space="preserve">12.1275491714478</t>
   </si>
   <si>
     <t xml:space="preserve">12.5713577270508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8993902206421</t>
+    <t xml:space="preserve">12.8993911743164</t>
   </si>
   <si>
     <t xml:space="preserve">13.1598873138428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255987167358</t>
+    <t xml:space="preserve">13.8255996704102</t>
   </si>
   <si>
     <t xml:space="preserve">13.9124317169189</t>
@@ -4469,16 +4466,16 @@
     <t xml:space="preserve">14.2983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176488876343</t>
+    <t xml:space="preserve">14.31764793396</t>
   </si>
   <si>
     <t xml:space="preserve">13.8641910552979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931360244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2211675643921</t>
+    <t xml:space="preserve">13.8931350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2211685180664</t>
   </si>
   <si>
     <t xml:space="preserve">14.2790565490723</t>
@@ -4496,13 +4493,13 @@
     <t xml:space="preserve">14.2501125335693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8000497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0316009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202569961548</t>
+    <t xml:space="preserve">14.800048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0316019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202560424805</t>
   </si>
   <si>
     <t xml:space="preserve">14.4720163345337</t>
@@ -4511,22 +4508,22 @@
     <t xml:space="preserve">14.394832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5299053192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4141273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4334239959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.655327796936</t>
+    <t xml:space="preserve">14.5299043655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4141283035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.433424949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6553287506104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6070890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6842737197876</t>
+    <t xml:space="preserve">14.6842727661133</t>
   </si>
   <si>
     <t xml:space="preserve">14.4430732727051</t>
@@ -4535,7 +4532,7 @@
     <t xml:space="preserve">16.1797142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9192180633545</t>
+    <t xml:space="preserve">15.9192190170288</t>
   </si>
   <si>
     <t xml:space="preserve">16.3437309265137</t>
@@ -4544,10 +4541,10 @@
     <t xml:space="preserve">16.4305629730225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8164825439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4209156036377</t>
+    <t xml:space="preserve">16.8164844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4209136962891</t>
   </si>
   <si>
     <t xml:space="preserve">16.2954902648926</t>
@@ -4556,10 +4553,10 @@
     <t xml:space="preserve">16.3244342803955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2376022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1121807098389</t>
+    <t xml:space="preserve">16.2376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1121788024902</t>
   </si>
   <si>
     <t xml:space="preserve">15.4464654922485</t>
@@ -4586,22 +4583,22 @@
     <t xml:space="preserve">14.1246881484985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0185604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1343364715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860967636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4686241149902</t>
+    <t xml:space="preserve">14.0185594558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1343355178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860958099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4686231613159</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194719314575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6326389312744</t>
+    <t xml:space="preserve">13.6326398849487</t>
   </si>
   <si>
     <t xml:space="preserve">13.5361595153809</t>
@@ -4616,7 +4613,7 @@
     <t xml:space="preserve">13.5072154998779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4300317764282</t>
+    <t xml:space="preserve">13.4300308227539</t>
   </si>
   <si>
     <t xml:space="preserve">13.2949590682983</t>
@@ -4631,7 +4628,7 @@
     <t xml:space="preserve">13.0441112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.333550453186</t>
+    <t xml:space="preserve">13.3335514068604</t>
   </si>
   <si>
     <t xml:space="preserve">13.1019992828369</t>
@@ -5202,6 +5199,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.6499996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6899995803833</t>
   </si>
 </sst>
 </file>
@@ -51295,7 +51295,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1760" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51347,7 +51347,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1762" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51399,7 +51399,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1764" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51451,7 +51451,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1766" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51477,7 +51477,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51503,7 +51503,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1768" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51529,7 +51529,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1769" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51581,7 +51581,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51607,7 +51607,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1772" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51659,7 +51659,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1774" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51685,7 +51685,7 @@
         <v>12.5</v>
       </c>
       <c r="G1775" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51737,7 +51737,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G1777" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51763,7 +51763,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51789,7 +51789,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1779" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51919,7 +51919,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1784" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51945,7 +51945,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1785" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51997,7 +51997,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1787" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52023,7 +52023,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1788" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52049,7 +52049,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1789" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52075,7 +52075,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1790" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52101,7 +52101,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1791" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52127,7 +52127,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52153,7 +52153,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G1793" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52179,7 +52179,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1794" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52205,7 +52205,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G1795" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52231,7 +52231,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1796" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52257,7 +52257,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52283,7 +52283,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52309,7 +52309,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1799" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52335,7 +52335,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1800" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52361,7 +52361,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52387,7 +52387,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1802" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52413,7 +52413,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52439,7 +52439,7 @@
         <v>14.7700004577637</v>
       </c>
       <c r="G1804" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52465,7 +52465,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1805" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52491,7 +52491,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52543,7 +52543,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1808" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52569,7 +52569,7 @@
         <v>15</v>
       </c>
       <c r="G1809" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52595,7 +52595,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1810" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52621,7 +52621,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G1811" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52647,7 +52647,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1812" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52673,7 +52673,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1813" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52699,7 +52699,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1814" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52725,7 +52725,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1815" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52751,7 +52751,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1816" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52777,7 +52777,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1817" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52803,7 +52803,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1818" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52829,7 +52829,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1819" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52855,7 +52855,7 @@
         <v>14.9700002670288</v>
       </c>
       <c r="G1820" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52881,7 +52881,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1821" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52907,7 +52907,7 @@
         <v>16.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52933,7 +52933,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1823" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52959,7 +52959,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1824" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52985,7 +52985,7 @@
         <v>17.4300003051758</v>
       </c>
       <c r="G1825" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53037,7 +53037,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1827" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53063,7 +53063,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1828" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53089,7 +53089,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1829" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53115,7 +53115,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1830" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53141,7 +53141,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1831" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53167,7 +53167,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1832" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53193,7 +53193,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1833" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53219,7 +53219,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1834" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53245,7 +53245,7 @@
         <v>15.25</v>
       </c>
       <c r="G1835" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53271,7 +53271,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53297,7 +53297,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1837" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53323,7 +53323,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1838" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53349,7 +53349,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1839" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53375,7 +53375,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1840" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53427,7 +53427,7 @@
         <v>14.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53453,7 +53453,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1843" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53479,7 +53479,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1844" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53505,7 +53505,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1845" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53531,7 +53531,7 @@
         <v>14.5299997329712</v>
       </c>
       <c r="G1846" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53557,7 +53557,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53583,7 +53583,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53609,7 +53609,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53661,7 +53661,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1851" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53687,7 +53687,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1852" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53713,7 +53713,7 @@
         <v>14.1300001144409</v>
       </c>
       <c r="G1853" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53739,7 +53739,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1854" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53765,7 +53765,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1855" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53791,7 +53791,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1856" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53817,7 +53817,7 @@
         <v>14</v>
       </c>
       <c r="G1857" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53843,7 +53843,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G1858" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53869,7 +53869,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1859" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53921,7 +53921,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1861" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53947,7 +53947,7 @@
         <v>13.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53973,7 +53973,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1863" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53999,7 +53999,7 @@
         <v>13.75</v>
       </c>
       <c r="G1864" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54025,7 +54025,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1865" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54077,7 +54077,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1867" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54129,7 +54129,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G1869" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54155,7 +54155,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1870" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54181,7 +54181,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1871" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54207,7 +54207,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1872" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54233,7 +54233,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G1873" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54259,7 +54259,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G1874" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54285,7 +54285,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G1875" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54311,7 +54311,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54337,7 +54337,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54363,7 +54363,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1878" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54389,7 +54389,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1879" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54415,7 +54415,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1880" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54441,7 +54441,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1881" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54467,7 +54467,7 @@
         <v>11.75</v>
       </c>
       <c r="G1882" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54493,7 +54493,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54519,7 +54519,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G1884" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54545,7 +54545,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1885" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54571,7 +54571,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54597,7 +54597,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54623,7 +54623,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1888" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54649,7 +54649,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1889" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54675,7 +54675,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54701,7 +54701,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1891" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54727,7 +54727,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1892" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54753,7 +54753,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1893" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54779,7 +54779,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54805,7 +54805,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1895" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54831,7 +54831,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54857,7 +54857,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1897" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54883,7 +54883,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1898" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54909,7 +54909,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1899" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54935,7 +54935,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1900" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54961,7 +54961,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1901" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54987,7 +54987,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1902" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55013,7 +55013,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55039,7 +55039,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1904" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55065,7 +55065,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1905" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55091,7 +55091,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1906" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55117,7 +55117,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1907" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55143,7 +55143,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1908" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55169,7 +55169,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1909" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55195,7 +55195,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55221,7 +55221,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1911" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55247,7 +55247,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55273,7 +55273,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1913" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55299,7 +55299,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1914" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55325,7 +55325,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1915" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55351,7 +55351,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1916" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55377,7 +55377,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1917" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55403,7 +55403,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1918" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55429,7 +55429,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55455,7 +55455,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1920" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55481,7 +55481,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55507,7 +55507,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55533,7 +55533,7 @@
         <v>12</v>
       </c>
       <c r="G1923" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55559,7 +55559,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55585,7 +55585,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1925" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55611,7 +55611,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55637,7 +55637,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1927" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55663,7 +55663,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1928" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55689,7 +55689,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1929" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55715,7 +55715,7 @@
         <v>12.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55741,7 +55741,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1931" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55767,7 +55767,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1932" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55793,7 +55793,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55819,7 +55819,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55845,7 +55845,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55871,7 +55871,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55897,7 +55897,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1937" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55923,7 +55923,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55949,7 +55949,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55975,7 +55975,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1940" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56001,7 +56001,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1941" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56027,7 +56027,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1942" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56053,7 +56053,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1943" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56079,7 +56079,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56105,7 +56105,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1945" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56131,7 +56131,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1946" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56157,7 +56157,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1947" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56183,7 +56183,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1948" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56209,7 +56209,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1949" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56235,7 +56235,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1950" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56261,7 +56261,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1951" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56287,7 +56287,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1952" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56313,7 +56313,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G1953" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56339,7 +56339,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1954" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56365,7 +56365,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56391,7 +56391,7 @@
         <v>12.5</v>
       </c>
       <c r="G1956" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56417,7 +56417,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1957" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56443,7 +56443,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56469,7 +56469,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1959" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56495,7 +56495,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56521,7 +56521,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1961" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56547,7 +56547,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1962" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56573,7 +56573,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1963" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56599,7 +56599,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1964" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56625,7 +56625,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1965" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56651,7 +56651,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1966" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56677,7 +56677,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G1967" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56703,7 +56703,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1968" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56729,7 +56729,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56755,7 +56755,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G1970" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56781,7 +56781,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56807,7 +56807,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56833,7 +56833,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56859,7 +56859,7 @@
         <v>10.9899997711182</v>
       </c>
       <c r="G1974" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56885,7 +56885,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1975" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56911,7 +56911,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56937,7 +56937,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1977" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56963,7 +56963,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1978" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56989,7 +56989,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57015,7 +57015,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57041,7 +57041,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57067,7 +57067,7 @@
         <v>11.25</v>
       </c>
       <c r="G1982" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57093,7 +57093,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1983" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57119,7 +57119,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57145,7 +57145,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1985" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57171,7 +57171,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G1986" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57197,7 +57197,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1987" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57223,7 +57223,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57249,7 +57249,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57275,7 +57275,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1990" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57301,7 +57301,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57327,7 +57327,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1992" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57353,7 +57353,7 @@
         <v>9.70499992370605</v>
       </c>
       <c r="G1993" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57379,7 +57379,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57405,7 +57405,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57431,7 +57431,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1996" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57457,7 +57457,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1997" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57483,7 +57483,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1998" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57509,7 +57509,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1999" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57535,7 +57535,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57561,7 +57561,7 @@
         <v>10.75</v>
       </c>
       <c r="G2001" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57587,7 +57587,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G2002" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57613,7 +57613,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2003" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57639,7 +57639,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2004" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57665,7 +57665,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2005" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57691,7 +57691,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G2006" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57717,7 +57717,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2007" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57743,7 +57743,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2008" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57769,7 +57769,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2009" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57795,7 +57795,7 @@
         <v>11.0900001525879</v>
       </c>
       <c r="G2010" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57821,7 +57821,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2011" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57847,7 +57847,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G2012" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57873,7 +57873,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2013" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57899,7 +57899,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2014" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57925,7 +57925,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57951,7 +57951,7 @@
         <v>11.5</v>
       </c>
       <c r="G2016" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57977,7 +57977,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58003,7 +58003,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2018" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58029,7 +58029,7 @@
         <v>11</v>
       </c>
       <c r="G2019" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58055,7 +58055,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2020" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58081,7 +58081,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58107,7 +58107,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G2022" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58133,7 +58133,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2023" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58159,7 +58159,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58185,7 +58185,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58211,7 +58211,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2026" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58237,7 +58237,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2027" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58263,7 +58263,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2028" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58289,7 +58289,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58315,7 +58315,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2030" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58341,7 +58341,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2031" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58367,7 +58367,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2032" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58393,7 +58393,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2033" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58419,7 +58419,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58445,7 +58445,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2035" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58471,7 +58471,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58497,7 +58497,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2037" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58523,7 +58523,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2038" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58549,7 +58549,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2039" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58575,7 +58575,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2040" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58601,7 +58601,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58627,7 +58627,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58653,7 +58653,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2043" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58679,7 +58679,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2044" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58705,7 +58705,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58731,7 +58731,7 @@
         <v>12</v>
       </c>
       <c r="G2046" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58757,7 +58757,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2047" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58783,7 +58783,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2048" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58809,7 +58809,7 @@
         <v>12</v>
       </c>
       <c r="G2049" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58835,7 +58835,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2050" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58861,7 +58861,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58887,7 +58887,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G2052" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58913,7 +58913,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2053" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58939,7 +58939,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G2054" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58965,7 +58965,7 @@
         <v>12.25</v>
       </c>
       <c r="G2055" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58991,7 +58991,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2056" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59017,7 +59017,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2057" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59043,7 +59043,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2058" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59069,7 +59069,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2059" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59095,7 +59095,7 @@
         <v>12.25</v>
       </c>
       <c r="G2060" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59121,7 +59121,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2061" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59147,7 +59147,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2062" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59173,7 +59173,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2063" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59199,7 +59199,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2064" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59225,7 +59225,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2065" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59251,7 +59251,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59277,7 +59277,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2067" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59303,7 +59303,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59329,7 +59329,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2069" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59355,7 +59355,7 @@
         <v>12.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59381,7 +59381,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2071" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59407,7 +59407,7 @@
         <v>12.25</v>
       </c>
       <c r="G2072" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59433,7 +59433,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2073" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59459,7 +59459,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59485,7 +59485,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2075" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59511,7 +59511,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2076" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59537,7 +59537,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2077" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59563,7 +59563,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G2078" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59589,7 +59589,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G2079" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59615,7 +59615,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59641,7 +59641,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2081" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59667,7 +59667,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2082" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59693,7 +59693,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59719,7 +59719,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2084" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59745,7 +59745,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2085" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59771,7 +59771,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59797,7 +59797,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2087" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59823,7 +59823,7 @@
         <v>11.7299995422363</v>
       </c>
       <c r="G2088" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59849,7 +59849,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59875,7 +59875,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G2090" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59901,7 +59901,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59927,7 +59927,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59953,7 +59953,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2093" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59979,7 +59979,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2094" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60005,7 +60005,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2095" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60031,7 +60031,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60057,7 +60057,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60083,7 +60083,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2098" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60109,7 +60109,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60135,7 +60135,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60161,7 +60161,7 @@
         <v>12.3699998855591</v>
       </c>
       <c r="G2101" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60187,7 +60187,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2102" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60213,7 +60213,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2103" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60239,7 +60239,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2104" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60265,7 +60265,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60291,7 +60291,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60317,7 +60317,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60343,7 +60343,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2108" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60369,7 +60369,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60395,7 +60395,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2110" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60421,7 +60421,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2111" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60447,7 +60447,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G2112" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60473,7 +60473,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G2113" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60499,7 +60499,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2114" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60525,7 +60525,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2115" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60551,7 +60551,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60577,7 +60577,7 @@
         <v>11.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60603,7 +60603,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2118" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60629,7 +60629,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2119" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60655,7 +60655,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2120" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60681,7 +60681,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2121" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60707,7 +60707,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2122" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60733,7 +60733,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2123" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60759,7 +60759,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2124" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60785,7 +60785,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60811,7 +60811,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60837,7 +60837,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60863,7 +60863,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2128" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60889,7 +60889,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2129" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60915,7 +60915,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G2130" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60941,7 +60941,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60967,7 +60967,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2132" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60993,7 +60993,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61019,7 +61019,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2134" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61045,7 +61045,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2135" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61071,7 +61071,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61097,7 +61097,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2137" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61123,7 +61123,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2138" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61149,7 +61149,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2139" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61175,7 +61175,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2140" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61201,7 +61201,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2141" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61227,7 +61227,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2142" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61253,7 +61253,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2143" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61279,7 +61279,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2144" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61305,7 +61305,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61331,7 +61331,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2146" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61357,7 +61357,7 @@
         <v>11.75</v>
       </c>
       <c r="G2147" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61383,7 +61383,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61409,7 +61409,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2149" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61435,7 +61435,7 @@
         <v>11.5</v>
       </c>
       <c r="G2150" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61461,7 +61461,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G2151" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61487,7 +61487,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2152" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61513,7 +61513,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2153" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61539,7 +61539,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61565,7 +61565,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61591,7 +61591,7 @@
         <v>11</v>
       </c>
       <c r="G2156" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61617,7 +61617,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2157" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61643,7 +61643,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G2158" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61669,7 +61669,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2159" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61695,7 +61695,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G2160" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61721,7 +61721,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2161" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61747,7 +61747,7 @@
         <v>10.6300001144409</v>
       </c>
       <c r="G2162" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61773,7 +61773,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G2163" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61799,7 +61799,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G2164" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61825,7 +61825,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2165" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61833,7 +61833,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6495138889</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>37662</v>
@@ -61851,9 +61851,35 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G2166" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6495601852</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>40761</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>10.8500003814697</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>10.6199998855591</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>10.7299995422363</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>10.6899995803833</v>
+      </c>
+      <c r="G2167" t="s">
         <v>1729</v>
       </c>
-      <c r="H2166" t="s">
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1733">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3280191421509</t>
+    <t xml:space="preserve">13.3280162811279</t>
   </si>
   <si>
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528583526611</t>
+    <t xml:space="preserve">13.0528593063354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8206930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4681463241577</t>
+    <t xml:space="preserve">12.4681453704834</t>
   </si>
   <si>
     <t xml:space="preserve">12.3133678436279</t>
@@ -62,58 +62,58 @@
     <t xml:space="preserve">12.2101831436157</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480833053589</t>
+    <t xml:space="preserve">11.5480823516846</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203758239746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85413455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4130516052246</t>
+    <t xml:space="preserve">9.85413551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4130506515503</t>
   </si>
   <si>
     <t xml:space="preserve">9.90572643280029</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5334348678589</t>
+    <t xml:space="preserve">10.5334339141846</t>
   </si>
   <si>
     <t xml:space="preserve">10.3528594970703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8429880142212</t>
+    <t xml:space="preserve">10.8429870605469</t>
   </si>
   <si>
     <t xml:space="preserve">10.8773822784424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7913961410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6366186141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6968097686768</t>
+    <t xml:space="preserve">10.7913951873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6366176605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6968078613281</t>
   </si>
   <si>
     <t xml:space="preserve">10.2496767044067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5162343978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.550630569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0777015686035</t>
+    <t xml:space="preserve">10.5162353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5506315231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0777006149292</t>
   </si>
   <si>
     <t xml:space="preserve">9.08884906768799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02865791320801</t>
+    <t xml:space="preserve">9.02865695953369</t>
   </si>
   <si>
     <t xml:space="preserve">9.45859336853027</t>
@@ -125,61 +125,61 @@
     <t xml:space="preserve">9.48438835144043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95731925964355</t>
+    <t xml:space="preserve">9.95731830596924</t>
   </si>
   <si>
     <t xml:space="preserve">9.71655559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4990377426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044523239136</t>
+    <t xml:space="preserve">10.4990367889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044532775879</t>
   </si>
   <si>
     <t xml:space="preserve">10.2582750320435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.066554069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.610821723938</t>
+    <t xml:space="preserve">11.0665531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6108226776123</t>
   </si>
   <si>
     <t xml:space="preserve">10.2840700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2410764694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1009492874146</t>
+    <t xml:space="preserve">10.2410755157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1009502410889</t>
   </si>
   <si>
     <t xml:space="preserve">10.9719686508179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8748321533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0124139785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757888793945</t>
+    <t xml:space="preserve">11.8748331069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0124130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
     <t xml:space="preserve">11.8404397964478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0382099151611</t>
+    <t xml:space="preserve">12.0382108688354</t>
   </si>
   <si>
     <t xml:space="preserve">11.6942615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4362993240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4448986053467</t>
+    <t xml:space="preserve">11.43630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4448976516724</t>
   </si>
   <si>
     <t xml:space="preserve">11.7286558151245</t>
@@ -188,25 +188,25 @@
     <t xml:space="preserve">11.9092292785645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9866180419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8662357330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1155986785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617769241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2703771591187</t>
+    <t xml:space="preserve">11.9866170883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8662347793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1155977249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617778778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.27037525177</t>
   </si>
   <si>
     <t xml:space="preserve">12.4079551696777</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2015867233276</t>
+    <t xml:space="preserve">12.2015857696533</t>
   </si>
   <si>
     <t xml:space="preserve">12.2359800338745</t>
@@ -224,67 +224,67 @@
     <t xml:space="preserve">11.3503122329712</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8060426712036</t>
+    <t xml:space="preserve">11.8060436248779</t>
   </si>
   <si>
     <t xml:space="preserve">11.9522218704224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8834314346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7716484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6684637069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.70285987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394849777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25572681427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1697387695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1783380508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3847074508667</t>
+    <t xml:space="preserve">11.8834323883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7716503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6684646606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1697397232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.178337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3847064971924</t>
   </si>
   <si>
     <t xml:space="preserve">11.4105033874512</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2213306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.118145942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0493574142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2041339874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6624135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0166473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4941539764404</t>
+    <t xml:space="preserve">11.2213315963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1181468963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0493564605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2041349411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0166454315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4941530227661</t>
   </si>
   <si>
     <t xml:space="preserve">10.4144506454468</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2816133499146</t>
+    <t xml:space="preserve">10.2816143035889</t>
   </si>
   <si>
     <t xml:space="preserve">10.3258924484253</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">10.3613157272339</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3081817626953</t>
+    <t xml:space="preserve">10.308180809021</t>
   </si>
   <si>
     <t xml:space="preserve">10.6712694168091</t>
@@ -314,34 +314,34 @@
     <t xml:space="preserve">11.1937646865845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9812231063843</t>
+    <t xml:space="preserve">10.9812240600586</t>
   </si>
   <si>
     <t xml:space="preserve">11.3000335693359</t>
   </si>
   <si>
-    <t xml:space="preserve">11.344313621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0697822570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8926658630371</t>
+    <t xml:space="preserve">11.3443126678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0697832107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8926649093628</t>
   </si>
   <si>
     <t xml:space="preserve">10.9015226364136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9900798797607</t>
+    <t xml:space="preserve">10.9900789260864</t>
   </si>
   <si>
     <t xml:space="preserve">10.9723672866821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8749542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5738544464111</t>
+    <t xml:space="preserve">10.8749532699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5738563537598</t>
   </si>
   <si>
     <t xml:space="preserve">10.1222085952759</t>
@@ -353,19 +353,19 @@
     <t xml:space="preserve">10.0070838928223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561437606812</t>
+    <t xml:space="preserve">9.7414083480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956392288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561447143555</t>
   </si>
   <si>
     <t xml:space="preserve">10.4055948257446</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5118637084961</t>
+    <t xml:space="preserve">10.5118656158447</t>
   </si>
   <si>
     <t xml:space="preserve">10.644702911377</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">9.62628269195557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98937225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461910247803</t>
+    <t xml:space="preserve">9.98937129974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.246190071106</t>
   </si>
   <si>
     <t xml:space="preserve">10.0425062179565</t>
@@ -395,37 +395,37 @@
     <t xml:space="preserve">9.23662662506104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19234752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77683067321777</t>
+    <t xml:space="preserve">9.19234657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77683162689209</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4410181045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3436059951782</t>
+    <t xml:space="preserve">10.4410190582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3436050415039</t>
   </si>
   <si>
     <t xml:space="preserve">10.1930561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2727584838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2107667922974</t>
+    <t xml:space="preserve">10.2727575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2107677459717</t>
   </si>
   <si>
     <t xml:space="preserve">10.7598276138306</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1406288146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0786390304565</t>
+    <t xml:space="preserve">11.1406297683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0786371231079</t>
   </si>
   <si>
     <t xml:space="preserve">11.0963487625122</t>
@@ -443,19 +443,19 @@
     <t xml:space="preserve">11.3177442550659</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3797369003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7863969802856</t>
+    <t xml:space="preserve">11.3797359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.786395072937</t>
   </si>
   <si>
     <t xml:space="preserve">11.1140613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9635105133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2291879653931</t>
+    <t xml:space="preserve">10.9635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2291870117188</t>
   </si>
   <si>
     <t xml:space="preserve">11.122917175293</t>
@@ -473,16 +473,16 @@
     <t xml:space="preserve">11.3266010284424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5922746658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8136720657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8402376174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7516803741455</t>
+    <t xml:space="preserve">11.5922756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8136711120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.840238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7516813278198</t>
   </si>
   <si>
     <t xml:space="preserve">11.8668060302734</t>
@@ -494,16 +494,16 @@
     <t xml:space="preserve">11.7339687347412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5125732421875</t>
+    <t xml:space="preserve">11.5125722885132</t>
   </si>
   <si>
     <t xml:space="preserve">11.3885908126831</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4328708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.202618598938</t>
+    <t xml:space="preserve">11.4328718185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2026195526123</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605361938477</t>
@@ -512,34 +512,34 @@
     <t xml:space="preserve">11.680832862854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8933753967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1059141159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1236248016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1324806213379</t>
+    <t xml:space="preserve">11.8933734893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1059131622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1236257553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1324815750122</t>
   </si>
   <si>
     <t xml:space="preserve">12.5752716064453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6018400192261</t>
+    <t xml:space="preserve">12.6018390655518</t>
   </si>
   <si>
     <t xml:space="preserve">12.4778575897217</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3538751602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6726865768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9914960861206</t>
+    <t xml:space="preserve">12.3538761138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6726875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9914970397949</t>
   </si>
   <si>
     <t xml:space="preserve">12.8852262496948</t>
@@ -548,16 +548,16 @@
     <t xml:space="preserve">12.9295053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1066217422485</t>
+    <t xml:space="preserve">13.1066207885742</t>
   </si>
   <si>
     <t xml:space="preserve">13.4874219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6556835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619533538818</t>
+    <t xml:space="preserve">13.6556844711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619524002075</t>
   </si>
   <si>
     <t xml:space="preserve">13.5051336288452</t>
@@ -566,37 +566,37 @@
     <t xml:space="preserve">14.4527072906494</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3021583557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3375806808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2136001586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2047462463379</t>
+    <t xml:space="preserve">14.3021574020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3375816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2135992050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2047452926636</t>
   </si>
   <si>
     <t xml:space="preserve">14.1516094207764</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0010595321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8593673706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822500228882</t>
+    <t xml:space="preserve">14.0010604858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8593664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822509765625</t>
   </si>
   <si>
     <t xml:space="preserve">13.8416557312012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9125032424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8062324523926</t>
+    <t xml:space="preserve">13.9125022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8062314987183</t>
   </si>
   <si>
     <t xml:space="preserve">13.2748823165894</t>
@@ -608,13 +608,13 @@
     <t xml:space="preserve">13.2306022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265291213989</t>
+    <t xml:space="preserve">13.7265281677246</t>
   </si>
   <si>
     <t xml:space="preserve">13.6379709243774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8150873184204</t>
+    <t xml:space="preserve">13.8150882720947</t>
   </si>
   <si>
     <t xml:space="preserve">13.9567823410034</t>
@@ -629,55 +629,55 @@
     <t xml:space="preserve">14.868932723999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3914241790771</t>
+    <t xml:space="preserve">15.3914260864258</t>
   </si>
   <si>
     <t xml:space="preserve">15.364857673645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5773954391479</t>
+    <t xml:space="preserve">15.5773973464966</t>
   </si>
   <si>
     <t xml:space="preserve">15.5862531661987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4534187316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331182479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4268474578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.621675491333</t>
+    <t xml:space="preserve">15.4534158706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4268493652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6216735839844</t>
   </si>
   <si>
     <t xml:space="preserve">15.7545137405396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6305313110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3294334411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8962059020996</t>
+    <t xml:space="preserve">15.6305332183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3294324874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8962078094482</t>
   </si>
   <si>
     <t xml:space="preserve">16.2858619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4629783630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5603942871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6046733856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.136022567749</t>
+    <t xml:space="preserve">16.4629802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.560396194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6046714782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1360206604004</t>
   </si>
   <si>
     <t xml:space="preserve">16.9854755401611</t>
@@ -686,52 +686,52 @@
     <t xml:space="preserve">17.251148223877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8703479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6489505767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3301429748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6843757629395</t>
+    <t xml:space="preserve">16.8703441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6489524841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3301448822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6843738555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666660308838</t>
+    <t xml:space="preserve">16.6666622161865</t>
   </si>
   <si>
     <t xml:space="preserve">17.0917415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7994995117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9766178131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9500503540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1094551086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.39284324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2245845794678</t>
+    <t xml:space="preserve">16.7995014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.976619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9500484466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1094532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3928413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2245826721191</t>
   </si>
   <si>
     <t xml:space="preserve">16.6312427520752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1802997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9589061737061</t>
+    <t xml:space="preserve">17.1803035736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9589042663574</t>
   </si>
   <si>
     <t xml:space="preserve">17.3042850494385</t>
@@ -749,10 +749,10 @@
     <t xml:space="preserve">17.6053810119629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8179206848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5522441864014</t>
+    <t xml:space="preserve">17.8179225921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5522480010986</t>
   </si>
   <si>
     <t xml:space="preserve">17.6585159301758</t>
@@ -761,64 +761,64 @@
     <t xml:space="preserve">17.8444900512695</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9419040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6762275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8437786102295</t>
+    <t xml:space="preserve">17.9419021606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6762256622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8437805175781</t>
   </si>
   <si>
     <t xml:space="preserve">16.8614921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0474643707275</t>
+    <t xml:space="preserve">17.0474662780762</t>
   </si>
   <si>
     <t xml:space="preserve">17.2600059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3751316070557</t>
+    <t xml:space="preserve">17.375129699707</t>
   </si>
   <si>
     <t xml:space="preserve">16.7817897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068710327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9146270751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308486938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3839836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4902572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3485641479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5345344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.472541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470760345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0481700897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4828147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0495910644531</t>
+    <t xml:space="preserve">17.2068691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9146308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308506011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3839874267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.490255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485622406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5345325469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4725437164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0481739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.482816696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0495891571045</t>
   </si>
   <si>
     <t xml:space="preserve">20.5012359619141</t>
@@ -827,91 +827,91 @@
     <t xml:space="preserve">20.7137756347656</t>
   </si>
   <si>
-    <t xml:space="preserve">20.456958770752</t>
+    <t xml:space="preserve">20.4569568634033</t>
   </si>
   <si>
     <t xml:space="preserve">20.9528827667236</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1654243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7056274414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2097015380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4488105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7764720916748</t>
+    <t xml:space="preserve">21.1654224395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7056255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2097034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4488086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7764739990234</t>
   </si>
   <si>
     <t xml:space="preserve">21.8738918304443</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0421504974365</t>
+    <t xml:space="preserve">22.0421485900879</t>
   </si>
   <si>
     <t xml:space="preserve">21.9358825683594</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1395645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4140930175781</t>
+    <t xml:space="preserve">22.1395664215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4140949249268</t>
   </si>
   <si>
     <t xml:space="preserve">22.3875293731689</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4760856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4495182037354</t>
+    <t xml:space="preserve">22.4760837554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4495162963867</t>
   </si>
   <si>
     <t xml:space="preserve">22.3166809082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7594738006592</t>
+    <t xml:space="preserve">22.7594718933105</t>
   </si>
   <si>
     <t xml:space="preserve">22.5646419525146</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6089248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.750617980957</t>
+    <t xml:space="preserve">22.608922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7948932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7506160736084</t>
   </si>
   <si>
     <t xml:space="preserve">22.8037509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.025146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2288303375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9631538391113</t>
+    <t xml:space="preserve">23.0251445770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2288284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.96315574646</t>
   </si>
   <si>
     <t xml:space="preserve">22.5026512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3262462615967</t>
+    <t xml:space="preserve">23.3262424468994</t>
   </si>
   <si>
     <t xml:space="preserve">23.5210723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6450576782227</t>
+    <t xml:space="preserve">23.6450538635254</t>
   </si>
   <si>
     <t xml:space="preserve">24.0524215698242</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">24.380090713501</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8494453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7963123321533</t>
+    <t xml:space="preserve">24.8494472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.796314239502</t>
   </si>
   <si>
     <t xml:space="preserve">25.0619869232178</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">27.5533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7863864898682</t>
+    <t xml:space="preserve">27.7863845825195</t>
   </si>
   <si>
     <t xml:space="preserve">28.3152236938477</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">28.8440628051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5342407226562</t>
+    <t xml:space="preserve">29.5342426300049</t>
   </si>
   <si>
     <t xml:space="preserve">27.9656524658203</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">28.6289405822754</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1846694946289</t>
+    <t xml:space="preserve">29.1846675872803</t>
   </si>
   <si>
     <t xml:space="preserve">29.659725189209</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">31.0042266845703</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0759296417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.192455291748</t>
+    <t xml:space="preserve">31.0759334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1924591064453</t>
   </si>
   <si>
     <t xml:space="preserve">31.1745319366455</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">29.4446048736572</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3409404754639</t>
+    <t xml:space="preserve">30.3409366607666</t>
   </si>
   <si>
     <t xml:space="preserve">30.3050899505615</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">30.1706371307373</t>
   </si>
   <si>
-    <t xml:space="preserve">30.098934173584</t>
+    <t xml:space="preserve">30.0989303588867</t>
   </si>
   <si>
     <t xml:space="preserve">30.2244205474854</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">28.1269931793213</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4099235534668</t>
+    <t xml:space="preserve">27.4099254608154</t>
   </si>
   <si>
     <t xml:space="preserve">27.8491287231445</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">27.6429710388184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7326068878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.279369354248</t>
+    <t xml:space="preserve">27.7326049804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2793674468994</t>
   </si>
   <si>
     <t xml:space="preserve">28.5124168395996</t>
@@ -1097,85 +1097,85 @@
     <t xml:space="preserve">29.9555149078369</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7045402526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4983882904053</t>
+    <t xml:space="preserve">29.7045440673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.498384475708</t>
   </si>
   <si>
     <t xml:space="preserve">29.3370418548584</t>
   </si>
   <si>
-    <t xml:space="preserve">29.399787902832</t>
+    <t xml:space="preserve">29.3997898101807</t>
   </si>
   <si>
     <t xml:space="preserve">29.3101558685303</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4894237518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1308898925781</t>
+    <t xml:space="preserve">29.4894256591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1308879852295</t>
   </si>
   <si>
     <t xml:space="preserve">28.8709506988525</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1577777862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1129589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.776252746582</t>
+    <t xml:space="preserve">29.1577758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1129608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7762489318848</t>
   </si>
   <si>
     <t xml:space="preserve">30.0272254943848</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5700931549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5790576934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9785118103027</t>
+    <t xml:space="preserve">29.5700950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5790538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9785137176514</t>
   </si>
   <si>
     <t xml:space="preserve">29.8569221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7852096557617</t>
+    <t xml:space="preserve">29.785213470459</t>
   </si>
   <si>
     <t xml:space="preserve">29.847957611084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8658790588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3140506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0092945098877</t>
+    <t xml:space="preserve">29.8658828735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3140468597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0092964172363</t>
   </si>
   <si>
     <t xml:space="preserve">30.358865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6866149902344</t>
+    <t xml:space="preserve">29.6866130828857</t>
   </si>
   <si>
     <t xml:space="preserve">29.3460121154785</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6059455871582</t>
+    <t xml:space="preserve">29.6059436798096</t>
   </si>
   <si>
     <t xml:space="preserve">30.5381355285645</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6367321014404</t>
+    <t xml:space="preserve">30.6367282867432</t>
   </si>
   <si>
     <t xml:space="preserve">30.6456928253174</t>
@@ -1193,13 +1193,13 @@
     <t xml:space="preserve">30.4036827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2680587768555</t>
+    <t xml:space="preserve">32.2680625915527</t>
   </si>
   <si>
     <t xml:space="preserve">31.6764793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9952659606934</t>
+    <t xml:space="preserve">30.9952697753906</t>
   </si>
   <si>
     <t xml:space="preserve">32.1784248352051</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">31.8736724853516</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3666572570801</t>
+    <t xml:space="preserve">32.3666534423828</t>
   </si>
   <si>
     <t xml:space="preserve">32.2590980529785</t>
@@ -1235,28 +1235,28 @@
     <t xml:space="preserve">34.8943214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">34.93017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7777976989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4192657470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6343879699707</t>
+    <t xml:space="preserve">34.9301795959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7778015136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.419261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6343841552734</t>
   </si>
   <si>
     <t xml:space="preserve">34.741943359375</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6293182373047</t>
+    <t xml:space="preserve">35.6293144226074</t>
   </si>
   <si>
     <t xml:space="preserve">35.4231567382812</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8584671020508</t>
+    <t xml:space="preserve">34.858470916748</t>
   </si>
   <si>
     <t xml:space="preserve">34.5716400146484</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">34.2579231262207</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5088958740234</t>
+    <t xml:space="preserve">34.5088996887207</t>
   </si>
   <si>
     <t xml:space="preserve">34.3117027282715</t>
@@ -1292,13 +1292,13 @@
     <t xml:space="preserve">34.8136520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4999389648438</t>
+    <t xml:space="preserve">34.4999351501465</t>
   </si>
   <si>
     <t xml:space="preserve">34.3027420043945</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0299453735352</t>
+    <t xml:space="preserve">33.0299491882324</t>
   </si>
   <si>
     <t xml:space="preserve">34.2848129272461</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">35.3066368103027</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4539413452148</t>
+    <t xml:space="preserve">36.4539451599121</t>
   </si>
   <si>
     <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3912048339844</t>
+    <t xml:space="preserve">36.3912010192871</t>
   </si>
   <si>
     <t xml:space="preserve">36.7049179077148</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.142951965332</t>
+    <t xml:space="preserve">39.1429481506348</t>
   </si>
   <si>
     <t xml:space="preserve">38.8381996154785</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">38.2735061645508</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5872192382812</t>
+    <t xml:space="preserve">38.5872230529785</t>
   </si>
   <si>
     <t xml:space="preserve">38.5603332519531</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">38.7395973205566</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7844123840332</t>
+    <t xml:space="preserve">38.7844161987305</t>
   </si>
   <si>
     <t xml:space="preserve">38.8292350769043</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">39.2773971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5462951660156</t>
+    <t xml:space="preserve">39.5462989807129</t>
   </si>
   <si>
     <t xml:space="preserve">38.7754516601562</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5961837768555</t>
+    <t xml:space="preserve">38.5961875915527</t>
   </si>
   <si>
     <t xml:space="preserve">37.9149703979492</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">43.0599365234375</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6655464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2711601257324</t>
+    <t xml:space="preserve">42.6655502319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2711563110352</t>
   </si>
   <si>
     <t xml:space="preserve">42.3249397277832</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">42.0022583007812</t>
   </si>
   <si>
-    <t xml:space="preserve">42.378719329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.930549621582</t>
+    <t xml:space="preserve">42.3787155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9305458068848</t>
   </si>
   <si>
     <t xml:space="preserve">41.7692108154297</t>
@@ -1463,31 +1463,31 @@
     <t xml:space="preserve">40.0303230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3670349121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9048347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0240821838379</t>
+    <t xml:space="preserve">39.3670310974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9048309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0240783691406</t>
   </si>
   <si>
     <t xml:space="preserve">41.7154312133789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.900936126709</t>
+    <t xml:space="preserve">38.9009399414062</t>
   </si>
   <si>
     <t xml:space="preserve">37.7894821166992</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5026588439941</t>
+    <t xml:space="preserve">37.5026550292969</t>
   </si>
   <si>
     <t xml:space="preserve">39.8151969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4247093200684</t>
+    <t xml:space="preserve">40.4247131347656</t>
   </si>
   <si>
     <t xml:space="preserve">40.335075378418</t>
@@ -1496,10 +1496,10 @@
     <t xml:space="preserve">40.8011703491211</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0342140197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1776237487793</t>
+    <t xml:space="preserve">41.0342178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1776275634766</t>
   </si>
   <si>
     <t xml:space="preserve">41.3748207092285</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">40.7473907470703</t>
   </si>
   <si>
-    <t xml:space="preserve">41.195556640625</t>
+    <t xml:space="preserve">41.1955528259277</t>
   </si>
   <si>
     <t xml:space="preserve">39.4745979309082</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">39.4028854370117</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4426383972168</t>
+    <t xml:space="preserve">40.4426345825195</t>
   </si>
   <si>
     <t xml:space="preserve">40.6219024658203</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">45.2201042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2957000732422</t>
+    <t xml:space="preserve">46.2957038879395</t>
   </si>
   <si>
     <t xml:space="preserve">47.5953903198242</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">44.099681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2033462524414</t>
+    <t xml:space="preserve">43.2033500671387</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975059509277</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">41.4106788635254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3927574157715</t>
+    <t xml:space="preserve">41.3927536010742</t>
   </si>
   <si>
     <t xml:space="preserve">41.249340057373</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9944648742676</t>
+    <t xml:space="preserve">39.9944686889648</t>
   </si>
   <si>
     <t xml:space="preserve">39.331184387207</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">40.9804382324219</t>
   </si>
   <si>
-    <t xml:space="preserve">40.012393951416</t>
+    <t xml:space="preserve">40.0123901367188</t>
   </si>
   <si>
     <t xml:space="preserve">40.7832450866699</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">39.9586181640625</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5283737182617</t>
+    <t xml:space="preserve">39.5283699035645</t>
   </si>
   <si>
     <t xml:space="preserve">40.4784927368164</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">42.6296920776367</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2851943969727</t>
+    <t xml:space="preserve">41.2851905822754</t>
   </si>
   <si>
     <t xml:space="preserve">42.1728477478027</t>
@@ -4404,9 +4404,6 @@
   </si>
   <si>
     <t xml:space="preserve">12.3012142181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
     <t xml:space="preserve">12.8415031433105</t>
@@ -51307,7 +51304,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1760" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51359,7 +51356,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1762" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51411,7 +51408,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1764" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51463,7 +51460,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1766" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51489,7 +51486,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51515,7 +51512,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1768" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51541,7 +51538,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1769" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51593,7 +51590,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51619,7 +51616,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1772" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51671,7 +51668,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1774" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51697,7 +51694,7 @@
         <v>12.5</v>
       </c>
       <c r="G1775" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51749,7 +51746,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G1777" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51775,7 +51772,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51801,7 +51798,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1779" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51931,7 +51928,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1784" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51957,7 +51954,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1785" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52009,7 +52006,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1787" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52035,7 +52032,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1788" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52061,7 +52058,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1789" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52087,7 +52084,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1790" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52113,7 +52110,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1791" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52139,7 +52136,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52165,7 +52162,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G1793" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52191,7 +52188,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1794" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52217,7 +52214,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G1795" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52243,7 +52240,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1796" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52269,7 +52266,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52295,7 +52292,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52321,7 +52318,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1799" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52347,7 +52344,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1800" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52373,7 +52370,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52399,7 +52396,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1802" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52425,7 +52422,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52451,7 +52448,7 @@
         <v>14.7700004577637</v>
       </c>
       <c r="G1804" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52477,7 +52474,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1805" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52503,7 +52500,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52555,7 +52552,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1808" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52581,7 +52578,7 @@
         <v>15</v>
       </c>
       <c r="G1809" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52607,7 +52604,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1810" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52633,7 +52630,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G1811" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52659,7 +52656,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1812" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52685,7 +52682,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1813" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52711,7 +52708,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1814" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52737,7 +52734,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1815" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52763,7 +52760,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1816" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52789,7 +52786,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1817" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52815,7 +52812,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1818" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52841,7 +52838,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1819" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52867,7 +52864,7 @@
         <v>14.9700002670288</v>
       </c>
       <c r="G1820" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52893,7 +52890,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1821" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52919,7 +52916,7 @@
         <v>16.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52945,7 +52942,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1823" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52971,7 +52968,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1824" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52997,7 +52994,7 @@
         <v>17.4300003051758</v>
       </c>
       <c r="G1825" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53049,7 +53046,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1827" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53075,7 +53072,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1828" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53101,7 +53098,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1829" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53127,7 +53124,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1830" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53153,7 +53150,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1831" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53179,7 +53176,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1832" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53205,7 +53202,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1833" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53231,7 +53228,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1834" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53257,7 +53254,7 @@
         <v>15.25</v>
       </c>
       <c r="G1835" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53283,7 +53280,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53309,7 +53306,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1837" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53335,7 +53332,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1838" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53361,7 +53358,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1839" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53387,7 +53384,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1840" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53439,7 +53436,7 @@
         <v>14.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53465,7 +53462,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1843" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53491,7 +53488,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1844" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53517,7 +53514,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1845" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53543,7 +53540,7 @@
         <v>14.5299997329712</v>
       </c>
       <c r="G1846" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53569,7 +53566,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53595,7 +53592,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53621,7 +53618,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53673,7 +53670,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1851" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53699,7 +53696,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1852" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53725,7 +53722,7 @@
         <v>14.1300001144409</v>
       </c>
       <c r="G1853" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53751,7 +53748,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1854" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53777,7 +53774,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1855" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53803,7 +53800,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1856" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53829,7 +53826,7 @@
         <v>14</v>
       </c>
       <c r="G1857" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53855,7 +53852,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G1858" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53881,7 +53878,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1859" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53933,7 +53930,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1861" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53959,7 +53956,7 @@
         <v>13.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53985,7 +53982,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1863" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54011,7 +54008,7 @@
         <v>13.75</v>
       </c>
       <c r="G1864" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54037,7 +54034,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1865" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54089,7 +54086,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1867" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54141,7 +54138,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G1869" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54167,7 +54164,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1870" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54193,7 +54190,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1871" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54219,7 +54216,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1872" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54245,7 +54242,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G1873" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54271,7 +54268,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G1874" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54297,7 +54294,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G1875" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54323,7 +54320,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54349,7 +54346,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54375,7 +54372,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1878" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54401,7 +54398,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1879" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54427,7 +54424,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1880" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54453,7 +54450,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1881" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54479,7 +54476,7 @@
         <v>11.75</v>
       </c>
       <c r="G1882" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54505,7 +54502,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54531,7 +54528,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G1884" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54557,7 +54554,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1885" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54583,7 +54580,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54609,7 +54606,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54635,7 +54632,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1888" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54661,7 +54658,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1889" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54687,7 +54684,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54713,7 +54710,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1891" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54739,7 +54736,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1892" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54765,7 +54762,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1893" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54791,7 +54788,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54817,7 +54814,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1895" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54843,7 +54840,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54869,7 +54866,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1897" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54895,7 +54892,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1898" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54921,7 +54918,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1899" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54947,7 +54944,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1900" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54973,7 +54970,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1901" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54999,7 +54996,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1902" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55025,7 +55022,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55051,7 +55048,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1904" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55077,7 +55074,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1905" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55103,7 +55100,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1906" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55129,7 +55126,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1907" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55155,7 +55152,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1908" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55181,7 +55178,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1909" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55207,7 +55204,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55233,7 +55230,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1911" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55259,7 +55256,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55285,7 +55282,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1913" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55311,7 +55308,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1914" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55337,7 +55334,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1915" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55363,7 +55360,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1916" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55389,7 +55386,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1917" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55415,7 +55412,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1918" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55441,7 +55438,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55467,7 +55464,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1920" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55493,7 +55490,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55519,7 +55516,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55545,7 +55542,7 @@
         <v>12</v>
       </c>
       <c r="G1923" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55571,7 +55568,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55597,7 +55594,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1925" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55623,7 +55620,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55649,7 +55646,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1927" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55675,7 +55672,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1928" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55701,7 +55698,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1929" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55727,7 +55724,7 @@
         <v>12.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55753,7 +55750,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1931" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55779,7 +55776,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1932" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55805,7 +55802,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55831,7 +55828,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55857,7 +55854,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55883,7 +55880,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55909,7 +55906,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1937" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55935,7 +55932,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55961,7 +55958,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55987,7 +55984,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1940" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56013,7 +56010,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1941" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56039,7 +56036,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1942" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56065,7 +56062,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1943" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56091,7 +56088,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56117,7 +56114,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1945" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56143,7 +56140,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1946" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56169,7 +56166,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1947" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56195,7 +56192,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1948" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56221,7 +56218,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1949" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56247,7 +56244,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1950" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56273,7 +56270,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1951" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56299,7 +56296,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1952" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56325,7 +56322,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G1953" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56351,7 +56348,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1954" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56377,7 +56374,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56403,7 +56400,7 @@
         <v>12.5</v>
       </c>
       <c r="G1956" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56429,7 +56426,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1957" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56455,7 +56452,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56481,7 +56478,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1959" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56507,7 +56504,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56533,7 +56530,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1961" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56559,7 +56556,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1962" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56585,7 +56582,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1963" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56611,7 +56608,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1964" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56637,7 +56634,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1965" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56663,7 +56660,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1966" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56689,7 +56686,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G1967" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56715,7 +56712,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1968" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56741,7 +56738,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56767,7 +56764,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G1970" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56793,7 +56790,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56819,7 +56816,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56845,7 +56842,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56871,7 +56868,7 @@
         <v>10.9899997711182</v>
       </c>
       <c r="G1974" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56897,7 +56894,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1975" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56923,7 +56920,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56949,7 +56946,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1977" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56975,7 +56972,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1978" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57001,7 +56998,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57027,7 +57024,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57053,7 +57050,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57079,7 +57076,7 @@
         <v>11.25</v>
       </c>
       <c r="G1982" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57105,7 +57102,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1983" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57131,7 +57128,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57157,7 +57154,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1985" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57183,7 +57180,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G1986" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57209,7 +57206,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1987" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57235,7 +57232,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57261,7 +57258,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57287,7 +57284,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1990" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57313,7 +57310,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57339,7 +57336,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1992" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57365,7 +57362,7 @@
         <v>9.70499992370605</v>
       </c>
       <c r="G1993" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57391,7 +57388,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57417,7 +57414,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57443,7 +57440,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1996" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57469,7 +57466,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1997" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57495,7 +57492,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1998" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57521,7 +57518,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1999" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57547,7 +57544,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57573,7 +57570,7 @@
         <v>10.75</v>
       </c>
       <c r="G2001" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57599,7 +57596,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G2002" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57625,7 +57622,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2003" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57651,7 +57648,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2004" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57677,7 +57674,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2005" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57703,7 +57700,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G2006" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57729,7 +57726,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2007" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57755,7 +57752,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2008" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57781,7 +57778,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2009" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57807,7 +57804,7 @@
         <v>11.0900001525879</v>
       </c>
       <c r="G2010" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57833,7 +57830,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2011" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57859,7 +57856,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G2012" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57885,7 +57882,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2013" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57911,7 +57908,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2014" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57937,7 +57934,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57963,7 +57960,7 @@
         <v>11.5</v>
       </c>
       <c r="G2016" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57989,7 +57986,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58015,7 +58012,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2018" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58041,7 +58038,7 @@
         <v>11</v>
       </c>
       <c r="G2019" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58067,7 +58064,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2020" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58093,7 +58090,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58119,7 +58116,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G2022" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58145,7 +58142,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2023" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58171,7 +58168,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58197,7 +58194,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58223,7 +58220,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2026" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58249,7 +58246,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2027" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58275,7 +58272,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2028" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58301,7 +58298,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58327,7 +58324,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2030" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58353,7 +58350,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2031" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58379,7 +58376,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2032" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58405,7 +58402,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2033" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58431,7 +58428,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58457,7 +58454,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2035" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58483,7 +58480,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58509,7 +58506,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2037" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58535,7 +58532,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2038" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58561,7 +58558,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2039" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58587,7 +58584,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2040" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58613,7 +58610,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58639,7 +58636,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58665,7 +58662,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2043" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58691,7 +58688,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2044" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58717,7 +58714,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58743,7 +58740,7 @@
         <v>12</v>
       </c>
       <c r="G2046" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58769,7 +58766,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2047" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58795,7 +58792,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2048" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58821,7 +58818,7 @@
         <v>12</v>
       </c>
       <c r="G2049" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58847,7 +58844,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2050" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58873,7 +58870,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58899,7 +58896,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G2052" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58925,7 +58922,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2053" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58951,7 +58948,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G2054" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58977,7 +58974,7 @@
         <v>12.25</v>
       </c>
       <c r="G2055" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59003,7 +59000,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2056" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59029,7 +59026,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2057" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59055,7 +59052,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2058" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59081,7 +59078,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2059" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59107,7 +59104,7 @@
         <v>12.25</v>
       </c>
       <c r="G2060" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59133,7 +59130,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2061" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59159,7 +59156,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2062" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59185,7 +59182,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2063" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59211,7 +59208,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2064" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59237,7 +59234,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2065" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59263,7 +59260,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59289,7 +59286,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2067" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59315,7 +59312,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59341,7 +59338,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2069" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59367,7 +59364,7 @@
         <v>12.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59393,7 +59390,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2071" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59419,7 +59416,7 @@
         <v>12.25</v>
       </c>
       <c r="G2072" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59445,7 +59442,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2073" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59471,7 +59468,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59497,7 +59494,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2075" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59523,7 +59520,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2076" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59549,7 +59546,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2077" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59575,7 +59572,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G2078" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59601,7 +59598,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G2079" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59627,7 +59624,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59653,7 +59650,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2081" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59679,7 +59676,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2082" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59705,7 +59702,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59731,7 +59728,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2084" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59757,7 +59754,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2085" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59783,7 +59780,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59809,7 +59806,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2087" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59835,7 +59832,7 @@
         <v>11.7299995422363</v>
       </c>
       <c r="G2088" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59861,7 +59858,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59887,7 +59884,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G2090" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59913,7 +59910,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59939,7 +59936,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59965,7 +59962,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2093" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59991,7 +59988,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2094" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60017,7 +60014,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2095" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60043,7 +60040,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60069,7 +60066,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60095,7 +60092,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2098" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60121,7 +60118,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60147,7 +60144,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60173,7 +60170,7 @@
         <v>12.3699998855591</v>
       </c>
       <c r="G2101" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60199,7 +60196,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2102" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60225,7 +60222,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2103" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60251,7 +60248,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2104" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60277,7 +60274,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60303,7 +60300,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60329,7 +60326,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60355,7 +60352,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2108" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60381,7 +60378,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60407,7 +60404,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2110" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60433,7 +60430,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2111" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60459,7 +60456,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G2112" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60485,7 +60482,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G2113" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60511,7 +60508,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2114" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60537,7 +60534,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2115" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60563,7 +60560,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60589,7 +60586,7 @@
         <v>11.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60615,7 +60612,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2118" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60641,7 +60638,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2119" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60667,7 +60664,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2120" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60693,7 +60690,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2121" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60719,7 +60716,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2122" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60745,7 +60742,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2123" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60771,7 +60768,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2124" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60797,7 +60794,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60823,7 +60820,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60849,7 +60846,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60875,7 +60872,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2128" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60901,7 +60898,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2129" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60927,7 +60924,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G2130" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60953,7 +60950,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60979,7 +60976,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2132" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61005,7 +61002,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61031,7 +61028,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2134" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61057,7 +61054,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2135" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61083,7 +61080,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61109,7 +61106,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2137" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61135,7 +61132,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2138" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61161,7 +61158,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2139" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61187,7 +61184,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2140" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61213,7 +61210,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2141" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61239,7 +61236,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2142" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61265,7 +61262,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2143" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61291,7 +61288,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2144" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61317,7 +61314,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61343,7 +61340,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2146" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61369,7 +61366,7 @@
         <v>11.75</v>
       </c>
       <c r="G2147" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61395,7 +61392,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61421,7 +61418,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2149" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61447,7 +61444,7 @@
         <v>11.5</v>
       </c>
       <c r="G2150" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61473,7 +61470,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G2151" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61499,7 +61496,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2152" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61525,7 +61522,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2153" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61551,7 +61548,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61577,7 +61574,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61603,7 +61600,7 @@
         <v>11</v>
       </c>
       <c r="G2156" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61629,7 +61626,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2157" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61655,7 +61652,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G2158" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61681,7 +61678,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2159" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61707,7 +61704,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G2160" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61733,7 +61730,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2161" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61759,7 +61756,7 @@
         <v>10.6300001144409</v>
       </c>
       <c r="G2162" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61785,7 +61782,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G2163" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61811,7 +61808,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G2164" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61837,7 +61834,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2165" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61863,7 +61860,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G2166" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61889,7 +61886,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2167" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61915,7 +61912,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G2168" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61941,7 +61938,7 @@
         <v>10.5</v>
       </c>
       <c r="G2169" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61949,7 +61946,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6495601852</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>23217</v>
@@ -61967,9 +61964,35 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G2170" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6496064815</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>88065</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>10.710000038147</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>10.3100004196167</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>10.5299997329712</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>10.7299995422363</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3280162811279</t>
+    <t xml:space="preserve">13.3280181884766</t>
   </si>
   <si>
     <t xml:space="preserve">BSS.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">13.0528593063354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8206930160522</t>
+    <t xml:space="preserve">12.8206939697266</t>
   </si>
   <si>
     <t xml:space="preserve">12.4681453704834</t>
@@ -56,31 +56,31 @@
     <t xml:space="preserve">12.3133678436279</t>
   </si>
   <si>
-    <t xml:space="preserve">12.33056640625</t>
+    <t xml:space="preserve">12.3305654525757</t>
   </si>
   <si>
     <t xml:space="preserve">12.2101831436157</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480823516846</t>
+    <t xml:space="preserve">11.5480842590332</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203758239746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85413551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4130506515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90572643280029</t>
+    <t xml:space="preserve">9.85413646697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4130516052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90572738647461</t>
   </si>
   <si>
     <t xml:space="preserve">10.5334339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3528594970703</t>
+    <t xml:space="preserve">10.3528604507446</t>
   </si>
   <si>
     <t xml:space="preserve">10.8429870605469</t>
@@ -89,16 +89,16 @@
     <t xml:space="preserve">10.8773822784424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7913951873779</t>
+    <t xml:space="preserve">10.7913942337036</t>
   </si>
   <si>
     <t xml:space="preserve">10.6366176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2496767044067</t>
+    <t xml:space="preserve">10.6968088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2496757507324</t>
   </si>
   <si>
     <t xml:space="preserve">10.5162353515625</t>
@@ -107,61 +107,61 @@
     <t xml:space="preserve">10.5506315231323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0777006149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08884906768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02865695953369</t>
+    <t xml:space="preserve">10.0777015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08884811401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02865791320801</t>
   </si>
   <si>
     <t xml:space="preserve">9.45859336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2006311416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48438835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95731830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71655559539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4990367889404</t>
+    <t xml:space="preserve">9.20063209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48438930511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95731925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71655654907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4990377426147</t>
   </si>
   <si>
     <t xml:space="preserve">10.4044532775879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582750320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0665531158447</t>
+    <t xml:space="preserve">10.2582740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.066554069519</t>
   </si>
   <si>
     <t xml:space="preserve">10.6108226776123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2840700149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2410755157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1009502410889</t>
+    <t xml:space="preserve">10.2840709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1009492874146</t>
   </si>
   <si>
     <t xml:space="preserve">10.9719686508179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8748331069946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0124130249023</t>
+    <t xml:space="preserve">11.8748350143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.012414932251</t>
   </si>
   <si>
     <t xml:space="preserve">12.1757898330688</t>
@@ -173,67 +173,67 @@
     <t xml:space="preserve">12.0382108688354</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6942615509033</t>
+    <t xml:space="preserve">11.6942625045776</t>
   </si>
   <si>
     <t xml:space="preserve">11.43630027771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4448976516724</t>
+    <t xml:space="preserve">11.4448986053467</t>
   </si>
   <si>
     <t xml:space="preserve">11.7286558151245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9092292785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9866170883179</t>
+    <t xml:space="preserve">11.9092283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9866180419922</t>
   </si>
   <si>
     <t xml:space="preserve">11.8662347793579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1155977249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617778778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.27037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2015857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2359800338745</t>
+    <t xml:space="preserve">12.1155986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617769241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2703762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079561233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201584815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2359790802002</t>
   </si>
   <si>
     <t xml:space="preserve">12.2875728607178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9694204330444</t>
+    <t xml:space="preserve">11.9694213867188</t>
   </si>
   <si>
     <t xml:space="preserve">11.634069442749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3503122329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9522218704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8834323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7716503143311</t>
+    <t xml:space="preserve">11.3503112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8060445785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.952220916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.88343334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7716493606567</t>
   </si>
   <si>
     <t xml:space="preserve">11.6684646606445</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">11.5394840240479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2557258605957</t>
+    <t xml:space="preserve">11.25572681427</t>
   </si>
   <si>
     <t xml:space="preserve">11.1697397232056</t>
@@ -254,37 +254,37 @@
     <t xml:space="preserve">11.178337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3847064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4105033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2213315963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1181468963623</t>
+    <t xml:space="preserve">11.3847045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4105043411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2213296890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1181478500366</t>
   </si>
   <si>
     <t xml:space="preserve">11.0493564605713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2041349411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6624145507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0166454315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4941530227661</t>
+    <t xml:space="preserve">11.2041330337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6624135971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0166473388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4941539764404</t>
   </si>
   <si>
     <t xml:space="preserve">10.4144506454468</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2816143035889</t>
+    <t xml:space="preserve">10.2816133499146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3258924484253</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">10.3790273666382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0602169036865</t>
+    <t xml:space="preserve">10.0602178573608</t>
   </si>
   <si>
     <t xml:space="preserve">10.3613157272339</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">10.308180809021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6712694168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4771490097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1937646865845</t>
+    <t xml:space="preserve">10.6712703704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4771499633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1937637329102</t>
   </si>
   <si>
     <t xml:space="preserve">10.9812240600586</t>
@@ -323,46 +323,46 @@
     <t xml:space="preserve">11.3443126678467</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0697832107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8926649093628</t>
+    <t xml:space="preserve">11.0697822570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8926658630371</t>
   </si>
   <si>
     <t xml:space="preserve">10.9015226364136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9900789260864</t>
+    <t xml:space="preserve">10.9900798797607</t>
   </si>
   <si>
     <t xml:space="preserve">10.9723672866821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8749532699585</t>
+    <t xml:space="preserve">10.8749542236328</t>
   </si>
   <si>
     <t xml:space="preserve">10.5738563537598</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1222085952759</t>
+    <t xml:space="preserve">10.1222095489502</t>
   </si>
   <si>
     <t xml:space="preserve">10.0513620376587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0070838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7414083480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956392288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4055948257446</t>
+    <t xml:space="preserve">10.0070829391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74140739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956411361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561437606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4055938720703</t>
   </si>
   <si>
     <t xml:space="preserve">10.5118656158447</t>
@@ -371,22 +371,22 @@
     <t xml:space="preserve">10.644702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93623638153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17463493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73255252838135</t>
+    <t xml:space="preserve">9.93623733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17463397979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73255062103271</t>
   </si>
   <si>
     <t xml:space="preserve">9.62628269195557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98937129974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.246190071106</t>
+    <t xml:space="preserve">9.98937034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461891174316</t>
   </si>
   <si>
     <t xml:space="preserve">10.0425062179565</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">9.19234657287598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77683162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1399202346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4410190582275</t>
+    <t xml:space="preserve">9.77683067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1399192810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4410181045532</t>
   </si>
   <si>
     <t xml:space="preserve">10.3436050415039</t>
@@ -416,16 +416,16 @@
     <t xml:space="preserve">10.2727575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2107677459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7598276138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1406297683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0786371231079</t>
+    <t xml:space="preserve">10.210765838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7598266601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1406278610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0786380767822</t>
   </si>
   <si>
     <t xml:space="preserve">11.0963487625122</t>
@@ -440,34 +440,34 @@
     <t xml:space="preserve">11.1583404541016</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3177442550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3797359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.786395072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1140613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9635124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2291870117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.122917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2823209762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1849069595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.246898651123</t>
+    <t xml:space="preserve">11.3177461624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3797369003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7863960266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1140604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.96351146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2291879653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1229181289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2823219299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.184907913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2468976974487</t>
   </si>
   <si>
     <t xml:space="preserve">11.3266010284424</t>
@@ -485,10 +485,10 @@
     <t xml:space="preserve">11.7516813278198</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8668060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7162561416626</t>
+    <t xml:space="preserve">11.8668069839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7162570953369</t>
   </si>
   <si>
     <t xml:space="preserve">11.7339687347412</t>
@@ -497,19 +497,19 @@
     <t xml:space="preserve">11.5125722885132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3885908126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4328718185425</t>
+    <t xml:space="preserve">11.3885898590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4328699111938</t>
   </si>
   <si>
     <t xml:space="preserve">11.2026195526123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7605361938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.680832862854</t>
+    <t xml:space="preserve">11.7605352401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6808347702026</t>
   </si>
   <si>
     <t xml:space="preserve">11.8933734893799</t>
@@ -530,34 +530,34 @@
     <t xml:space="preserve">12.6018390655518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4778575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3538761138916</t>
+    <t xml:space="preserve">12.477858543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3538770675659</t>
   </si>
   <si>
     <t xml:space="preserve">12.6726875305176</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9914970397949</t>
+    <t xml:space="preserve">12.9914960861206</t>
   </si>
   <si>
     <t xml:space="preserve">12.8852262496948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9295053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1066207885742</t>
+    <t xml:space="preserve">12.9295072555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1066217422485</t>
   </si>
   <si>
     <t xml:space="preserve">13.4874219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6556844711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619524002075</t>
+    <t xml:space="preserve">13.6556825637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619533538818</t>
   </si>
   <si>
     <t xml:space="preserve">13.5051336288452</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">14.3021574020386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3375816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2135992050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2047452926636</t>
+    <t xml:space="preserve">14.3375825881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2136001586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2047443389893</t>
   </si>
   <si>
     <t xml:space="preserve">14.1516094207764</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">14.0010604858398</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8593664169312</t>
+    <t xml:space="preserve">13.8593683242798</t>
   </si>
   <si>
     <t xml:space="preserve">13.6822509765625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8416557312012</t>
+    <t xml:space="preserve">13.8416538238525</t>
   </si>
   <si>
     <t xml:space="preserve">13.9125022888184</t>
@@ -605,85 +605,85 @@
     <t xml:space="preserve">13.4519987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2306022644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265281677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6379709243774</t>
+    <t xml:space="preserve">13.2306032180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265310287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6379718780518</t>
   </si>
   <si>
     <t xml:space="preserve">13.8150882720947</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9567823410034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2578792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1781768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.868932723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3914260864258</t>
+    <t xml:space="preserve">13.9567813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2578802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1781778335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8689317703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3914232254028</t>
   </si>
   <si>
     <t xml:space="preserve">15.364857673645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5773973464966</t>
+    <t xml:space="preserve">15.5773963928223</t>
   </si>
   <si>
     <t xml:space="preserve">15.5862531661987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4534158706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4268493652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6216735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545137405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6305332183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3294324874878</t>
+    <t xml:space="preserve">15.4534168243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4268484115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6216745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6305341720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3294343948364</t>
   </si>
   <si>
     <t xml:space="preserve">15.8962078094482</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2858619689941</t>
+    <t xml:space="preserve">16.2858638763428</t>
   </si>
   <si>
     <t xml:space="preserve">16.4629802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.560396194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6046714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1360206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9854755401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.251148223877</t>
+    <t xml:space="preserve">16.5603942871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6046733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.136022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9854736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2511463165283</t>
   </si>
   <si>
     <t xml:space="preserve">16.8703441619873</t>
@@ -692,79 +692,79 @@
     <t xml:space="preserve">16.6489524841309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3301448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6843738555908</t>
+    <t xml:space="preserve">16.3301429748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6843757629395</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666622161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0917415618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7995014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.976619720459</t>
+    <t xml:space="preserve">16.6666641235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0917434692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.799503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9766178131104</t>
   </si>
   <si>
     <t xml:space="preserve">16.9500484466553</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1094532012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3928413391113</t>
+    <t xml:space="preserve">17.1094551086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3928394317627</t>
   </si>
   <si>
     <t xml:space="preserve">17.2245826721191</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6312427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1803035736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9589042663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3042850494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4459781646729</t>
+    <t xml:space="preserve">16.6312408447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1803016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9589061737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3042831420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4459762573242</t>
   </si>
   <si>
     <t xml:space="preserve">17.7559299468994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6408042907715</t>
+    <t xml:space="preserve">17.6408081054688</t>
   </si>
   <si>
     <t xml:space="preserve">17.6053810119629</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8179225921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5522480010986</t>
+    <t xml:space="preserve">17.8179206848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.55224609375</t>
   </si>
   <si>
     <t xml:space="preserve">17.6585159301758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8444900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9419021606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6762256622314</t>
+    <t xml:space="preserve">17.8444862365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9419040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6762294769287</t>
   </si>
   <si>
     <t xml:space="preserve">16.8437805175781</t>
@@ -773,34 +773,34 @@
     <t xml:space="preserve">16.8614921569824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0474662780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2600059509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.375129699707</t>
+    <t xml:space="preserve">17.0474643707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2600040435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3751316070557</t>
   </si>
   <si>
     <t xml:space="preserve">16.7817897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9146308898926</t>
+    <t xml:space="preserve">17.2068672180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9146289825439</t>
   </si>
   <si>
     <t xml:space="preserve">17.3308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3839874267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.490255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3485622406006</t>
+    <t xml:space="preserve">17.3839855194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4902572631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485641479492</t>
   </si>
   <si>
     <t xml:space="preserve">17.5345325469971</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">17.4725437164307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0481739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.482816696167</t>
+    <t xml:space="preserve">17.7470760345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0481700897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4828147888184</t>
   </si>
   <si>
     <t xml:space="preserve">20.0495891571045</t>
@@ -824,25 +824,25 @@
     <t xml:space="preserve">20.5012359619141</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7137756347656</t>
+    <t xml:space="preserve">20.7137775421143</t>
   </si>
   <si>
     <t xml:space="preserve">20.4569568634033</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9528827667236</t>
+    <t xml:space="preserve">20.9528846740723</t>
   </si>
   <si>
     <t xml:space="preserve">21.1654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7056255340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2097034454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4488086700439</t>
+    <t xml:space="preserve">21.7056293487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2097053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4488105773926</t>
   </si>
   <si>
     <t xml:space="preserve">21.7764739990234</t>
@@ -854,40 +854,40 @@
     <t xml:space="preserve">22.0421485900879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9358825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395664215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4140949249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3875293731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4760837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4495162963867</t>
+    <t xml:space="preserve">21.9358787536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4140930175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3875274658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4760818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4495182037354</t>
   </si>
   <si>
     <t xml:space="preserve">22.3166809082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7594718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5646419525146</t>
+    <t xml:space="preserve">22.7594738006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5646438598633</t>
   </si>
   <si>
     <t xml:space="preserve">22.608922958374</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7948932647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7506160736084</t>
+    <t xml:space="preserve">22.7948970794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7506141662598</t>
   </si>
   <si>
     <t xml:space="preserve">22.8037509918213</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">23.0251445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2288284301758</t>
+    <t xml:space="preserve">23.2288303375244</t>
   </si>
   <si>
     <t xml:space="preserve">22.96315574646</t>
@@ -905,31 +905,31 @@
     <t xml:space="preserve">22.5026512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3262424468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5210723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6450538635254</t>
+    <t xml:space="preserve">23.326244354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5210704803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.645055770874</t>
   </si>
   <si>
     <t xml:space="preserve">24.0524215698242</t>
   </si>
   <si>
-    <t xml:space="preserve">24.380090713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8494472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.796314239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0619869232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2302474975586</t>
+    <t xml:space="preserve">24.3800888061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8494453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7963123321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0619850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.23024559021</t>
   </si>
   <si>
     <t xml:space="preserve">25.1062660217285</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">25.0354194641113</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5763339996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6390762329102</t>
+    <t xml:space="preserve">26.5763320922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6390781402588</t>
   </si>
   <si>
     <t xml:space="preserve">27.5533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7863845825195</t>
+    <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
     <t xml:space="preserve">28.3152236938477</t>
@@ -956,31 +956,31 @@
     <t xml:space="preserve">27.8312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440628051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5342426300049</t>
+    <t xml:space="preserve">28.8440608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5342388153076</t>
   </si>
   <si>
     <t xml:space="preserve">27.9656524658203</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6289405822754</t>
+    <t xml:space="preserve">28.6289386749268</t>
   </si>
   <si>
     <t xml:space="preserve">29.1846675872803</t>
   </si>
   <si>
-    <t xml:space="preserve">29.659725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9375915527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0451488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4753894805908</t>
+    <t xml:space="preserve">29.6597270965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.937593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0451526641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4753913879395</t>
   </si>
   <si>
     <t xml:space="preserve">30.9504489898682</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">30.4126491546631</t>
   </si>
   <si>
-    <t xml:space="preserve">30.842887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042266845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0759334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1924591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1745319366455</t>
+    <t xml:space="preserve">30.8428859710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042285919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0759315490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1924571990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1745338439941</t>
   </si>
   <si>
     <t xml:space="preserve">31.1117877960205</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">30.8249607086182</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9235553741455</t>
+    <t xml:space="preserve">30.9235572814941</t>
   </si>
   <si>
     <t xml:space="preserve">30.8608169555664</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5252742767334</t>
+    <t xml:space="preserve">29.5252723693848</t>
   </si>
   <si>
     <t xml:space="preserve">29.6686878204346</t>
@@ -1028,31 +1028,31 @@
     <t xml:space="preserve">29.4446048736572</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3409366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3050899505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1706371307373</t>
+    <t xml:space="preserve">30.3409404754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3050861358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1706390380859</t>
   </si>
   <si>
     <t xml:space="preserve">30.0989303588867</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2244205474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.650764465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9824085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0771064758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2922306060791</t>
+    <t xml:space="preserve">30.2244186401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6507625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9824047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0771083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2922286987305</t>
   </si>
   <si>
     <t xml:space="preserve">27.9298000335693</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">27.7326049804688</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2793674468994</t>
+    <t xml:space="preserve">28.279369354248</t>
   </si>
   <si>
     <t xml:space="preserve">28.5124168395996</t>
@@ -1082,73 +1082,73 @@
     <t xml:space="preserve">27.8760185241699</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7365036010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7813167572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6827201843262</t>
+    <t xml:space="preserve">28.7365016937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7813186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6827182769775</t>
   </si>
   <si>
     <t xml:space="preserve">28.9516201019287</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9555149078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7045440673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.498384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3370418548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3997898101807</t>
+    <t xml:space="preserve">29.9555130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7045421600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4983863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.337043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3997859954834</t>
   </si>
   <si>
     <t xml:space="preserve">29.3101558685303</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4894256591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1308879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8709506988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1577758789062</t>
+    <t xml:space="preserve">29.4894218444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1308898925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8709487915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1577777862549</t>
   </si>
   <si>
     <t xml:space="preserve">29.1129608154297</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7762489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0272254943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5700950622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5790538787842</t>
+    <t xml:space="preserve">29.7762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0272216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700931549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5790557861328</t>
   </si>
   <si>
     <t xml:space="preserve">28.9785137176514</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8569221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.785213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.847957611084</t>
+    <t xml:space="preserve">29.8569202423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7852115631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8479537963867</t>
   </si>
   <si>
     <t xml:space="preserve">29.8658828735352</t>
@@ -1163,28 +1163,28 @@
     <t xml:space="preserve">30.358865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6866130828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3460121154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6059436798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5381355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367282867432</t>
+    <t xml:space="preserve">29.686616897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3460083007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6059455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5381317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367321014404</t>
   </si>
   <si>
     <t xml:space="preserve">30.6456928253174</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4664268493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2692337036133</t>
+    <t xml:space="preserve">30.4664287567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2692375183105</t>
   </si>
   <si>
     <t xml:space="preserve">30.233377456665</t>
@@ -1199,31 +1199,31 @@
     <t xml:space="preserve">31.6764793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9952697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1784248352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9543437957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8736724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3666534423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2590980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1336097717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921417236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3884811401367</t>
+    <t xml:space="preserve">30.9952640533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1784286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.954345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8736743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3666610717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2591018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1336059570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4921455383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3884773254395</t>
   </si>
   <si>
     <t xml:space="preserve">33.5856742858887</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">34.9301795959473</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7778015136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.419261932373</t>
+    <t xml:space="preserve">34.7777976989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4192657470703</t>
   </si>
   <si>
     <t xml:space="preserve">34.6343841552734</t>
@@ -1250,31 +1250,31 @@
     <t xml:space="preserve">34.741943359375</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6293144226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4231567382812</t>
+    <t xml:space="preserve">35.629322052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4231605529785</t>
   </si>
   <si>
     <t xml:space="preserve">34.858470916748</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5716400146484</t>
+    <t xml:space="preserve">34.5716438293457</t>
   </si>
   <si>
     <t xml:space="preserve">34.0607299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0428047180176</t>
+    <t xml:space="preserve">34.042797088623</t>
   </si>
   <si>
     <t xml:space="preserve">34.3385963439941</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9083518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2579231262207</t>
+    <t xml:space="preserve">33.9083557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.257926940918</t>
   </si>
   <si>
     <t xml:space="preserve">34.5088996887207</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">34.3117027282715</t>
   </si>
   <si>
-    <t xml:space="preserve">34.616455078125</t>
+    <t xml:space="preserve">34.6164627075195</t>
   </si>
   <si>
     <t xml:space="preserve">34.9749908447266</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8136520385742</t>
+    <t xml:space="preserve">34.813648223877</t>
   </si>
   <si>
     <t xml:space="preserve">34.4999351501465</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">35.3066368103027</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4539451599121</t>
+    <t xml:space="preserve">36.4539375305176</t>
   </si>
   <si>
     <t xml:space="preserve">36.5077247619629</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">36.7049179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6281433105469</t>
+    <t xml:space="preserve">37.6281471252441</t>
   </si>
   <si>
     <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1429481506348</t>
+    <t xml:space="preserve">39.142951965332</t>
   </si>
   <si>
     <t xml:space="preserve">38.8381996154785</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">38.8023414611816</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4886283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6499633789062</t>
+    <t xml:space="preserve">38.4886245727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6499671936035</t>
   </si>
   <si>
     <t xml:space="preserve">39.4387397766113</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0264320373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.022533416748</t>
+    <t xml:space="preserve">39.0264282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0225296020508</t>
   </si>
   <si>
     <t xml:space="preserve">38.5692977905273</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">38.7395973205566</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7844161987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8292350769043</t>
+    <t xml:space="preserve">38.7844200134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.829231262207</t>
   </si>
   <si>
     <t xml:space="preserve">38.9099044799805</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">39.6628227233887</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3042907714844</t>
+    <t xml:space="preserve">39.3042869567871</t>
   </si>
   <si>
     <t xml:space="preserve">39.2773971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5462989807129</t>
+    <t xml:space="preserve">39.5463027954102</t>
   </si>
   <si>
     <t xml:space="preserve">38.7754516601562</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5961875915527</t>
+    <t xml:space="preserve">38.5961837768555</t>
   </si>
   <si>
     <t xml:space="preserve">37.9149703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8214416503906</t>
+    <t xml:space="preserve">36.8214492797852</t>
   </si>
   <si>
     <t xml:space="preserve">37.8970413208008</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">38.6858215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2353057861328</t>
+    <t xml:space="preserve">42.2353019714355</t>
   </si>
   <si>
     <t xml:space="preserve">42.8985939025879</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">43.0599365234375</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6655502319336</t>
+    <t xml:space="preserve">42.6655426025391</t>
   </si>
   <si>
     <t xml:space="preserve">42.2711563110352</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3249397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1635971069336</t>
+    <t xml:space="preserve">42.3249435424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1636009216309</t>
   </si>
   <si>
     <t xml:space="preserve">41.8588447570801</t>
@@ -1436,22 +1436,22 @@
     <t xml:space="preserve">42.0022583007812</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3787155151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9305458068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7692108154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0201835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5899505615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0521430969238</t>
+    <t xml:space="preserve">42.378719329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9305534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.769214630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0201873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5899467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0521392822266</t>
   </si>
   <si>
     <t xml:space="preserve">40.586051940918</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">40.8190956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0303230285645</t>
+    <t xml:space="preserve">40.0303192138672</t>
   </si>
   <si>
     <t xml:space="preserve">39.3670310974121</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9048309326172</t>
+    <t xml:space="preserve">39.9048347473145</t>
   </si>
   <si>
     <t xml:space="preserve">43.0240783691406</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">37.7894821166992</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5026550292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8151969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4247131347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.335075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8011703491211</t>
+    <t xml:space="preserve">37.5026588439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8152008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4247055053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3350791931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8011665344238</t>
   </si>
   <si>
     <t xml:space="preserve">41.0342178344727</t>
@@ -1502,22 +1502,22 @@
     <t xml:space="preserve">41.1776275634766</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3748207092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2314147949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7473907470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1955528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4745979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4028854370117</t>
+    <t xml:space="preserve">41.3748245239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2314071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.747386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.195556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4028816223145</t>
   </si>
   <si>
     <t xml:space="preserve">40.4426345825195</t>
@@ -1526,19 +1526,19 @@
     <t xml:space="preserve">40.6219024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6257934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8448181152344</t>
+    <t xml:space="preserve">41.6258010864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8448104858398</t>
   </si>
   <si>
     <t xml:space="preserve">44.7988243103027</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1534614562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4890022277832</t>
+    <t xml:space="preserve">44.1534652709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4890060424805</t>
   </si>
   <si>
     <t xml:space="preserve">44.1355400085449</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">45.2201042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2957038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5953903198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2060699462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8475341796875</t>
+    <t xml:space="preserve">46.2957077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.595386505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2060661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8475379943848</t>
   </si>
   <si>
     <t xml:space="preserve">44.9512023925781</t>
@@ -1568,10 +1568,10 @@
     <t xml:space="preserve">44.099681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2033500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6975059509277</t>
+    <t xml:space="preserve">43.2033538818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.697509765625</t>
   </si>
   <si>
     <t xml:space="preserve">41.4106788635254</t>
@@ -1586,28 +1586,28 @@
     <t xml:space="preserve">39.9944686889648</t>
   </si>
   <si>
-    <t xml:space="preserve">39.331184387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9804382324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0123901367188</t>
+    <t xml:space="preserve">39.3311805725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9804420471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.012393951416</t>
   </si>
   <si>
     <t xml:space="preserve">40.7832450866699</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9586181640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5283699035645</t>
+    <t xml:space="preserve">39.9586143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5283737182617</t>
   </si>
   <si>
     <t xml:space="preserve">40.4784927368164</t>
   </si>
   <si>
-    <t xml:space="preserve">40.137882232666</t>
+    <t xml:space="preserve">40.1378784179688</t>
   </si>
   <si>
     <t xml:space="preserve">39.6538619995117</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">42.1728477478027</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2489624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9410018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8685302734375</t>
+    <t xml:space="preserve">41.2489585876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9409980773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8685340881348</t>
   </si>
   <si>
     <t xml:space="preserve">40.7598457336426</t>
@@ -1649,28 +1649,28 @@
     <t xml:space="preserve">36.5389404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2635498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6838607788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8106689453125</t>
+    <t xml:space="preserve">37.2635536193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6838569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8106651306152</t>
   </si>
   <si>
     <t xml:space="preserve">36.2128562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8686561584473</t>
+    <t xml:space="preserve">35.8686599731445</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606956481934</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4194183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6042213439941</t>
+    <t xml:space="preserve">34.4194221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6042251586914</t>
   </si>
   <si>
     <t xml:space="preserve">33.8578453063965</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">34.0752296447754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6730346679688</t>
+    <t xml:space="preserve">34.673038482666</t>
   </si>
   <si>
     <t xml:space="preserve">34.8904228210449</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">34.7455024719238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1839294433594</t>
+    <t xml:space="preserve">34.1839256286621</t>
   </si>
   <si>
     <t xml:space="preserve">34.020881652832</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">32.5716400146484</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6477527618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.955717086792</t>
+    <t xml:space="preserve">31.6477489471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9557132720947</t>
   </si>
   <si>
     <t xml:space="preserve">30.7057476043701</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6550521850586</t>
+    <t xml:space="preserve">29.65505027771</t>
   </si>
   <si>
     <t xml:space="preserve">30.1079368591309</t>
@@ -1733,31 +1733,31 @@
     <t xml:space="preserve">29.4014320373535</t>
   </si>
   <si>
-    <t xml:space="preserve">30.325325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3833141326904</t>
+    <t xml:space="preserve">30.3253231048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3833179473877</t>
   </si>
   <si>
     <t xml:space="preserve">29.5825881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9884223937988</t>
+    <t xml:space="preserve">27.9884262084961</t>
   </si>
   <si>
     <t xml:space="preserve">29.2927398681641</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7093963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7782115936279</t>
+    <t xml:space="preserve">29.7093944549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7782077789307</t>
   </si>
   <si>
     <t xml:space="preserve">31.4303684234619</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8180904388428</t>
+    <t xml:space="preserve">29.8180885314941</t>
   </si>
   <si>
     <t xml:space="preserve">30.1260528564453</t>
@@ -1769,13 +1769,13 @@
     <t xml:space="preserve">30.5789394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8470268249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8289108276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2636795043945</t>
+    <t xml:space="preserve">31.8470230102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8289070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2636756896973</t>
   </si>
   <si>
     <t xml:space="preserve">31.2854442596436</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">31.5390605926514</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1586360931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9194850921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7926731109619</t>
+    <t xml:space="preserve">31.158634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9194889068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7926769256592</t>
   </si>
   <si>
     <t xml:space="preserve">31.0137119293213</t>
@@ -1799,31 +1799,31 @@
     <t xml:space="preserve">30.089822769165</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0717086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8362045288086</t>
+    <t xml:space="preserve">30.0717067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.83620262146</t>
   </si>
   <si>
     <t xml:space="preserve">29.2565078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8941974639893</t>
+    <t xml:space="preserve">28.8941993713379</t>
   </si>
   <si>
     <t xml:space="preserve">28.2601585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7529258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7928028106689</t>
+    <t xml:space="preserve">27.7529220581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7928047180176</t>
   </si>
   <si>
     <t xml:space="preserve">26.4304943084717</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1949939727783</t>
+    <t xml:space="preserve">26.1949920654297</t>
   </si>
   <si>
     <t xml:space="preserve">26.6659965515137</t>
@@ -1844,19 +1844,19 @@
     <t xml:space="preserve">26.901496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6261177062988</t>
+    <t xml:space="preserve">27.6261157989502</t>
   </si>
   <si>
     <t xml:space="preserve">28.0790042877197</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7348079681396</t>
+    <t xml:space="preserve">27.7348098754883</t>
   </si>
   <si>
     <t xml:space="preserve">28.0971183776855</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0065422058105</t>
+    <t xml:space="preserve">28.0065402984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.9521961212158</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">28.205810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1695823669434</t>
+    <t xml:space="preserve">28.1695804595947</t>
   </si>
   <si>
     <t xml:space="preserve">27.9340782165527</t>
   </si>
   <si>
-    <t xml:space="preserve">28.767391204834</t>
+    <t xml:space="preserve">28.7673931121826</t>
   </si>
   <si>
     <t xml:space="preserve">28.7130451202393</t>
@@ -1886,10 +1886,10 @@
     <t xml:space="preserve">28.8036231994629</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8398532867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8253841400146</t>
+    <t xml:space="preserve">28.8398513793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8253860473633</t>
   </si>
   <si>
     <t xml:space="preserve">27.6079998016357</t>
@@ -1898,19 +1898,19 @@
     <t xml:space="preserve">27.7166919708252</t>
   </si>
   <si>
-    <t xml:space="preserve">25.905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.861743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8653907775879</t>
+    <t xml:space="preserve">25.9051456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8617420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8653888702393</t>
   </si>
   <si>
     <t xml:space="preserve">21.8472766876221</t>
   </si>
   <si>
-    <t xml:space="preserve">22.916088104248</t>
+    <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
     <t xml:space="preserve">23.5501308441162</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">23.5682468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6443557739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8291606903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9415016174316</t>
+    <t xml:space="preserve">22.6443576812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8291625976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9415035247803</t>
   </si>
   <si>
     <t xml:space="preserve">21.4849643707275</t>
@@ -1943,10 +1943,10 @@
     <t xml:space="preserve">21.3581562042236</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4668502807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7204666137695</t>
+    <t xml:space="preserve">21.4668521881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7204685211182</t>
   </si>
   <si>
     <t xml:space="preserve">19.8364562988281</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">18.3872184753418</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6553039550781</t>
+    <t xml:space="preserve">19.6553020477295</t>
   </si>
   <si>
     <t xml:space="preserve">18.9850273132324</t>
@@ -1967,28 +1967,28 @@
     <t xml:space="preserve">18.4959106445312</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1118354797363</t>
+    <t xml:space="preserve">19.111837387085</t>
   </si>
   <si>
     <t xml:space="preserve">18.1064281463623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2368850708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2097091674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3636951446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7568244934082</t>
+    <t xml:space="preserve">17.2368869781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2097110748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3636932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7568264007568</t>
   </si>
   <si>
     <t xml:space="preserve">16.2948799133301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0412635803223</t>
+    <t xml:space="preserve">16.0412616729736</t>
   </si>
   <si>
     <t xml:space="preserve">15.8057632446289</t>
@@ -1997,28 +1997,28 @@
     <t xml:space="preserve">15.7695302963257</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7061262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2495918273926</t>
+    <t xml:space="preserve">15.7061243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2495899200439</t>
   </si>
   <si>
     <t xml:space="preserve">16.7024784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4941482543945</t>
+    <t xml:space="preserve">16.4941501617432</t>
   </si>
   <si>
     <t xml:space="preserve">17.572021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6535396575928</t>
+    <t xml:space="preserve">17.6535415649414</t>
   </si>
   <si>
     <t xml:space="preserve">16.5847263336182</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0430240631104</t>
+    <t xml:space="preserve">18.043025970459</t>
   </si>
   <si>
     <t xml:space="preserve">18.9306831359863</t>
@@ -2036,19 +2036,19 @@
     <t xml:space="preserve">15.9959735870361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.358283996582</t>
+    <t xml:space="preserve">16.3582820892334</t>
   </si>
   <si>
     <t xml:space="preserve">16.2858200073242</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8148193359375</t>
+    <t xml:space="preserve">15.8148183822632</t>
   </si>
   <si>
     <t xml:space="preserve">15.4887409210205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1354875564575</t>
+    <t xml:space="preserve">15.1354866027832</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365821838379</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">15.6789531707764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2351236343384</t>
+    <t xml:space="preserve">15.2351226806641</t>
   </si>
   <si>
     <t xml:space="preserve">15.5521450042725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2640571594238</t>
+    <t xml:space="preserve">17.2640590667725</t>
   </si>
   <si>
     <t xml:space="preserve">17.8890438079834</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">17.744119644165</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4905014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1154842376709</t>
+    <t xml:space="preserve">17.4905033111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1154861450195</t>
   </si>
   <si>
     <t xml:space="preserve">18.1517181396484</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">18.3328723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.133602142334</t>
+    <t xml:space="preserve">18.1336002349854</t>
   </si>
   <si>
     <t xml:space="preserve">18.0249080657959</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">18.7857570648193</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9125671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7314128875732</t>
+    <t xml:space="preserve">18.9125652313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7314147949219</t>
   </si>
   <si>
     <t xml:space="preserve">18.4415645599365</t>
@@ -2111,34 +2111,34 @@
     <t xml:space="preserve">19.0574913024902</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944511413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8038768768311</t>
+    <t xml:space="preserve">18.8944530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8038749694824</t>
   </si>
   <si>
     <t xml:space="preserve">18.4596786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5321426391602</t>
+    <t xml:space="preserve">18.5321407318115</t>
   </si>
   <si>
     <t xml:space="preserve">18.0883121490479</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4542694091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8256378173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7132968902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5103778839111</t>
+    <t xml:space="preserve">17.4542713165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8256397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053325653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7132949829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5103797912598</t>
   </si>
   <si>
     <t xml:space="preserve">19.782112121582</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">20.3618049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1806507110596</t>
+    <t xml:space="preserve">20.1806526184082</t>
   </si>
   <si>
     <t xml:space="preserve">20.0357284545898</t>
   </si>
   <si>
-    <t xml:space="preserve">19.528491973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5647258758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3980369567871</t>
+    <t xml:space="preserve">19.5284938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5647239685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3980388641357</t>
   </si>
   <si>
     <t xml:space="preserve">17.8528099060059</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">17.8437538146973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8981018066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6082515716553</t>
+    <t xml:space="preserve">17.898099899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6082534790039</t>
   </si>
   <si>
     <t xml:space="preserve">17.5176753997803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9470348358154</t>
+    <t xml:space="preserve">16.9470329284668</t>
   </si>
   <si>
     <t xml:space="preserve">17.0829048156738</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">17.3727512359619</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4814453125</t>
+    <t xml:space="preserve">17.4814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">17.3818092346191</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">18.2785263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0792541503906</t>
+    <t xml:space="preserve">18.0792560577393</t>
   </si>
   <si>
     <t xml:space="preserve">17.7169437408447</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5267333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2422924041748</t>
+    <t xml:space="preserve">17.5267314910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2422943115234</t>
   </si>
   <si>
     <t xml:space="preserve">18.0158519744873</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">18.0520820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3365173339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2278289794922</t>
+    <t xml:space="preserve">17.336519241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2278270721436</t>
   </si>
   <si>
     <t xml:space="preserve">17.7803478240967</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">18.070198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1879463195801</t>
+    <t xml:space="preserve">18.1879482269287</t>
   </si>
   <si>
     <t xml:space="preserve">18.1698322296143</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">17.6173114776611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7078857421875</t>
+    <t xml:space="preserve">17.7078876495361</t>
   </si>
   <si>
     <t xml:space="preserve">17.6897735595703</t>
@@ -61972,13 +61972,13 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6496064815</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>88065</v>
       </c>
       <c r="C2171" t="n">
-        <v>10.710000038147</v>
+        <v>10.7299995422363</v>
       </c>
       <c r="D2171" t="n">
         <v>10.3100004196167</v>
@@ -61993,6 +61993,32 @@
         <v>1722</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.649375</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>32662</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>10.7299995422363</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>10.6000003814697</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>10.7299995422363</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>10.6499996185303</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">12.3305673599243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2101850509644</t>
+    <t xml:space="preserve">12.2101831436157</t>
   </si>
   <si>
     <t xml:space="preserve">11.5480823516846</t>
@@ -77,40 +77,40 @@
     <t xml:space="preserve">9.90572738647461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5334339141846</t>
+    <t xml:space="preserve">10.5334329605103</t>
   </si>
   <si>
     <t xml:space="preserve">10.3528604507446</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8429861068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8773822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7913951873779</t>
+    <t xml:space="preserve">10.8429870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8773813247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7913942337036</t>
   </si>
   <si>
     <t xml:space="preserve">10.6366176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968088150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2496767044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5162363052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5506315231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0777015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08884906768799</t>
+    <t xml:space="preserve">10.6968097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2496747970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5162353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5506324768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0777006149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08884811401367</t>
   </si>
   <si>
     <t xml:space="preserve">9.02865791320801</t>
@@ -119,40 +119,40 @@
     <t xml:space="preserve">9.45859336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2006311416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48438930511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95731925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71655559539795</t>
+    <t xml:space="preserve">9.20063209533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48438835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95732021331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71655464172363</t>
   </si>
   <si>
     <t xml:space="preserve">10.4990377426147</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4044523239136</t>
+    <t xml:space="preserve">10.4044532775879</t>
   </si>
   <si>
     <t xml:space="preserve">10.2582750320435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0665531158447</t>
+    <t xml:space="preserve">11.066554069519</t>
   </si>
   <si>
     <t xml:space="preserve">10.6108226776123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2840700149536</t>
+    <t xml:space="preserve">10.2840709686279</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410764694214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1009483337402</t>
+    <t xml:space="preserve">11.1009492874146</t>
   </si>
   <si>
     <t xml:space="preserve">10.9719696044922</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">11.8748340606689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0124130249023</t>
+    <t xml:space="preserve">12.0124139785767</t>
   </si>
   <si>
     <t xml:space="preserve">12.1757898330688</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">11.6942615509033</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4362993240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.444899559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7286558151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092283248901</t>
+    <t xml:space="preserve">11.43630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4448976516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7286567687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092292785645</t>
   </si>
   <si>
     <t xml:space="preserve">11.9866161346436</t>
@@ -194,40 +194,40 @@
     <t xml:space="preserve">11.8662347793579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1155977249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617778778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.27037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2015857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2359790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2875728607178</t>
+    <t xml:space="preserve">12.1155986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617769241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2703762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079542160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201584815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2359800338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2875719070435</t>
   </si>
   <si>
     <t xml:space="preserve">11.9694185256958</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6340703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3503112792969</t>
+    <t xml:space="preserve">11.634069442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3503131866455</t>
   </si>
   <si>
     <t xml:space="preserve">11.8060436248779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9522218704224</t>
+    <t xml:space="preserve">11.9522228240967</t>
   </si>
   <si>
     <t xml:space="preserve">11.8834323883057</t>
@@ -236,34 +236,34 @@
     <t xml:space="preserve">11.7716493606567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6684646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7028579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394840240479</t>
+    <t xml:space="preserve">11.6684637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.70285987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394849777222</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557258605957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1697368621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1783380508423</t>
+    <t xml:space="preserve">11.1697387695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.178337097168</t>
   </si>
   <si>
     <t xml:space="preserve">11.3847064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105043411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2213306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1181468963623</t>
+    <t xml:space="preserve">11.4105033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2213315963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1181478500366</t>
   </si>
   <si>
     <t xml:space="preserve">11.0493574142456</t>
@@ -272,16 +272,16 @@
     <t xml:space="preserve">11.2041330337524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6624155044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0166454315186</t>
+    <t xml:space="preserve">10.6624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0166473388672</t>
   </si>
   <si>
     <t xml:space="preserve">10.4941530227661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4144506454468</t>
+    <t xml:space="preserve">10.4144515991211</t>
   </si>
   <si>
     <t xml:space="preserve">10.2816133499146</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">10.3258924484253</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98051452636719</t>
+    <t xml:space="preserve">9.98051643371582</t>
   </si>
   <si>
     <t xml:space="preserve">10.3790273666382</t>
@@ -299,46 +299,46 @@
     <t xml:space="preserve">10.0602178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3613157272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3081798553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6712694168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4771499633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1937637329102</t>
+    <t xml:space="preserve">10.3613166809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3081817626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6712703704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4771509170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1937646865845</t>
   </si>
   <si>
     <t xml:space="preserve">10.9812240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3000335693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3443117141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0697813034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8926658630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9015216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9900798797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9723672866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8749542236328</t>
+    <t xml:space="preserve">11.3000345230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3443126678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0697822570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8926649093628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9015207290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9900789260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9723691940308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8749532699585</t>
   </si>
   <si>
     <t xml:space="preserve">10.5738554000854</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">10.0513620376587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0070819854736</t>
+    <t xml:space="preserve">10.0070829391479</t>
   </si>
   <si>
     <t xml:space="preserve">9.7414083480835</t>
@@ -359,40 +359,40 @@
     <t xml:space="preserve">10.0956401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5561447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4055957794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6447019577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93623542785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17463493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73255252838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62628269195557</t>
+    <t xml:space="preserve">10.5561428070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4055948257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118637084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6447038650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93623638153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17463397979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73255157470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62628364562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.98937129974365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.246190071106</t>
+    <t xml:space="preserve">10.2461910247803</t>
   </si>
   <si>
     <t xml:space="preserve">10.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23662567138672</t>
+    <t xml:space="preserve">9.23662757873535</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234657287598</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">9.77683162689209</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1399192810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4410190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3436050415039</t>
+    <t xml:space="preserve">10.1399202346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4410181045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3436040878296</t>
   </si>
   <si>
     <t xml:space="preserve">10.1930551528931</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2727575302124</t>
+    <t xml:space="preserve">10.2727584838867</t>
   </si>
   <si>
     <t xml:space="preserve">10.2107667922974</t>
@@ -425,43 +425,43 @@
     <t xml:space="preserve">11.1406278610229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0786380767822</t>
+    <t xml:space="preserve">11.0786390304565</t>
   </si>
   <si>
     <t xml:space="preserve">11.0963487625122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0520696640015</t>
+    <t xml:space="preserve">11.0520706176758</t>
   </si>
   <si>
     <t xml:space="preserve">10.9369449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1583414077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3177452087402</t>
+    <t xml:space="preserve">11.1583404541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3177442550659</t>
   </si>
   <si>
     <t xml:space="preserve">11.3797369003296</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7863960266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1140613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.96351146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2291860580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1229162216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2823209762573</t>
+    <t xml:space="preserve">10.786395072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1140604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2291870117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.122917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2823219299316</t>
   </si>
   <si>
     <t xml:space="preserve">11.1849069595337</t>
@@ -470,16 +470,16 @@
     <t xml:space="preserve">11.246898651123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3266019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8136711120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8402376174927</t>
+    <t xml:space="preserve">11.3266010284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5922756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8136720657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.840238571167</t>
   </si>
   <si>
     <t xml:space="preserve">11.7516813278198</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">11.8668060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7162570953369</t>
+    <t xml:space="preserve">11.7162561416626</t>
   </si>
   <si>
     <t xml:space="preserve">11.7339687347412</t>
@@ -497,25 +497,25 @@
     <t xml:space="preserve">11.5125722885132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3885917663574</t>
+    <t xml:space="preserve">11.3885908126831</t>
   </si>
   <si>
     <t xml:space="preserve">11.4328708648682</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2026195526123</t>
+    <t xml:space="preserve">11.202618598938</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6808319091797</t>
+    <t xml:space="preserve">11.6808338165283</t>
   </si>
   <si>
     <t xml:space="preserve">11.8933734893799</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1059131622314</t>
+    <t xml:space="preserve">12.1059150695801</t>
   </si>
   <si>
     <t xml:space="preserve">12.1236248016357</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">12.1324806213379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752725601196</t>
+    <t xml:space="preserve">12.5752716064453</t>
   </si>
   <si>
     <t xml:space="preserve">12.6018390655518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4778575897217</t>
+    <t xml:space="preserve">12.477858543396</t>
   </si>
   <si>
     <t xml:space="preserve">12.3538761138916</t>
@@ -542,25 +542,25 @@
     <t xml:space="preserve">12.9914970397949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8852272033691</t>
+    <t xml:space="preserve">12.8852262496948</t>
   </si>
   <si>
     <t xml:space="preserve">12.9295053482056</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1066226959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4874219894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6556844711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5051345825195</t>
+    <t xml:space="preserve">13.1066217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4874210357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6556835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619524002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5051336288452</t>
   </si>
   <si>
     <t xml:space="preserve">14.4527063369751</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">14.3021574020386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3375816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2136001586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2047452926636</t>
+    <t xml:space="preserve">14.3375825881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2135982513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2047462463379</t>
   </si>
   <si>
     <t xml:space="preserve">14.1516094207764</t>
@@ -587,58 +587,58 @@
     <t xml:space="preserve">13.8593664169312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6822500228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8416547775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.912501335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8062314987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2748832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4519996643066</t>
+    <t xml:space="preserve">13.6822509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8416557312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9125022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8062324523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2748823165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.451997756958</t>
   </si>
   <si>
     <t xml:space="preserve">13.2306032180786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265291213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6379709243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8150882720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9567804336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2578792572021</t>
+    <t xml:space="preserve">13.7265300750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8150873184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9567813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2578802108765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1781759262085</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8689317703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3914241790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3648567199707</t>
+    <t xml:space="preserve">14.8689308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3914232254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3648586273193</t>
   </si>
   <si>
     <t xml:space="preserve">15.5773963928223</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5862531661987</t>
+    <t xml:space="preserve">15.586254119873</t>
   </si>
   <si>
     <t xml:space="preserve">15.4534168243408</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">15.5331192016602</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4268493652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6216745376587</t>
+    <t xml:space="preserve">15.4268484115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6216764450073</t>
   </si>
   <si>
     <t xml:space="preserve">15.7545137405396</t>
@@ -659,64 +659,64 @@
     <t xml:space="preserve">15.6305313110352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3294324874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8962078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2858619689941</t>
+    <t xml:space="preserve">15.3294343948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8962059020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2858638763428</t>
   </si>
   <si>
     <t xml:space="preserve">16.4629802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.560396194458</t>
+    <t xml:space="preserve">16.5603942871094</t>
   </si>
   <si>
     <t xml:space="preserve">16.6046733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1360244750977</t>
+    <t xml:space="preserve">17.136022567749</t>
   </si>
   <si>
     <t xml:space="preserve">16.9854736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2511463165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8703441619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6489524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3301448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6843776702881</t>
+    <t xml:space="preserve">17.251148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8703479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6489505767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3301429748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6843757629395</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666641235352</t>
+    <t xml:space="preserve">16.6666622161865</t>
   </si>
   <si>
     <t xml:space="preserve">17.0917434692383</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7995014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9766159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9500484466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1094551086426</t>
+    <t xml:space="preserve">16.799503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9766178131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9500503540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1094532012939</t>
   </si>
   <si>
     <t xml:space="preserve">17.3928413391113</t>
@@ -728,52 +728,52 @@
     <t xml:space="preserve">16.6312427520752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1802997589111</t>
+    <t xml:space="preserve">17.1803016662598</t>
   </si>
   <si>
     <t xml:space="preserve">16.9589061737061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3042850494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4459781646729</t>
+    <t xml:space="preserve">17.3042831420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4459762573242</t>
   </si>
   <si>
     <t xml:space="preserve">17.7559280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6408042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6053810119629</t>
+    <t xml:space="preserve">17.6408061981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6053829193115</t>
   </si>
   <si>
     <t xml:space="preserve">17.8179225921631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5522480010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.658519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8444900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9419021606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6762256622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8437786102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614940643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0474681854248</t>
+    <t xml:space="preserve">17.5522441864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6585159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8444881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9419040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6762275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8437824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614921569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0474643707275</t>
   </si>
   <si>
     <t xml:space="preserve">17.2600040435791</t>
@@ -782,31 +782,31 @@
     <t xml:space="preserve">17.375129699707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7817897796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068672180176</t>
+    <t xml:space="preserve">16.7817878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068691253662</t>
   </si>
   <si>
     <t xml:space="preserve">16.9146270751953</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3308506011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3839874267578</t>
+    <t xml:space="preserve">17.3308486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3839855194092</t>
   </si>
   <si>
     <t xml:space="preserve">17.4902572631836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3485622406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5345325469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4725456237793</t>
+    <t xml:space="preserve">17.348560333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5345344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4725437164307</t>
   </si>
   <si>
     <t xml:space="preserve">17.7470760345459</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">20.5012378692627</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7137756347656</t>
+    <t xml:space="preserve">20.7137775421143</t>
   </si>
   <si>
     <t xml:space="preserve">20.4569549560547</t>
@@ -836,34 +836,34 @@
     <t xml:space="preserve">21.1654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7056274414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2096996307373</t>
+    <t xml:space="preserve">21.7056312561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2097015380859</t>
   </si>
   <si>
     <t xml:space="preserve">21.4488086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7764739990234</t>
+    <t xml:space="preserve">21.7764759063721</t>
   </si>
   <si>
     <t xml:space="preserve">21.8738899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0421504974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9358825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395626068115</t>
+    <t xml:space="preserve">22.0421466827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9358806610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
     <t xml:space="preserve">22.4140930175781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3875274658203</t>
+    <t xml:space="preserve">22.3875293731689</t>
   </si>
   <si>
     <t xml:space="preserve">22.4760818481445</t>
@@ -872,31 +872,31 @@
     <t xml:space="preserve">22.4495162963867</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3166828155518</t>
+    <t xml:space="preserve">22.3166809082031</t>
   </si>
   <si>
     <t xml:space="preserve">22.7594738006592</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5646419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7948913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7506141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8037509918213</t>
+    <t xml:space="preserve">22.5646438598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6089248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7948951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.750617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8037490844727</t>
   </si>
   <si>
     <t xml:space="preserve">23.0251445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">23.228832244873</t>
+    <t xml:space="preserve">23.2288303375244</t>
   </si>
   <si>
     <t xml:space="preserve">22.96315574646</t>
@@ -905,40 +905,40 @@
     <t xml:space="preserve">22.5026531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">23.326244354248</t>
+    <t xml:space="preserve">23.3262462615967</t>
   </si>
   <si>
     <t xml:space="preserve">23.5210723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6450576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0524215698242</t>
+    <t xml:space="preserve">23.6450538635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0524234771729</t>
   </si>
   <si>
     <t xml:space="preserve">24.3800888061523</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8494434356689</t>
+    <t xml:space="preserve">24.8494472503662</t>
   </si>
   <si>
     <t xml:space="preserve">24.7963104248047</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0619869232178</t>
+    <t xml:space="preserve">25.0619850158691</t>
   </si>
   <si>
     <t xml:space="preserve">25.2302474975586</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1062679290771</t>
+    <t xml:space="preserve">25.1062660217285</t>
   </si>
   <si>
     <t xml:space="preserve">25.0354175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5763339996338</t>
+    <t xml:space="preserve">26.5763320922852</t>
   </si>
   <si>
     <t xml:space="preserve">26.6390743255615</t>
@@ -947,19 +947,19 @@
     <t xml:space="preserve">27.5533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7863845825195</t>
+    <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
     <t xml:space="preserve">28.3152236938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8312034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440589904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5342426300049</t>
+    <t xml:space="preserve">27.8312015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5342407226562</t>
   </si>
   <si>
     <t xml:space="preserve">27.9656524658203</t>
@@ -968,25 +968,25 @@
     <t xml:space="preserve">28.628942489624</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1846675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6597270965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9375915527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0451507568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4753913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9504470825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4126491546631</t>
+    <t xml:space="preserve">29.1846694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.659725189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9375896453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0451488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4753932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9504451751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4126472473145</t>
   </si>
   <si>
     <t xml:space="preserve">30.842887878418</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">31.0042285919189</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0759334564209</t>
+    <t xml:space="preserve">31.0759353637695</t>
   </si>
   <si>
     <t xml:space="preserve">31.1924591064453</t>
@@ -1004,31 +1004,31 @@
     <t xml:space="preserve">31.1745319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1117839813232</t>
+    <t xml:space="preserve">31.1117897033691</t>
   </si>
   <si>
     <t xml:space="preserve">30.8249607086182</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9235553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8608131408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5252742767334</t>
+    <t xml:space="preserve">30.9235572814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8608150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.525276184082</t>
   </si>
   <si>
     <t xml:space="preserve">29.6686859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4804573059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4446048736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3409366607666</t>
+    <t xml:space="preserve">29.4804611206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4446029663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3409385681152</t>
   </si>
   <si>
     <t xml:space="preserve">30.3050880432129</t>
@@ -1037,88 +1037,88 @@
     <t xml:space="preserve">30.1706371307373</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0989303588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2244186401367</t>
+    <t xml:space="preserve">30.0989284515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2244167327881</t>
   </si>
   <si>
     <t xml:space="preserve">29.650764465332</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9824085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0771045684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2922306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9297981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1269931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099254608154</t>
+    <t xml:space="preserve">29.9824066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0771083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2922286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9297962188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1269912719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4099235534668</t>
   </si>
   <si>
     <t xml:space="preserve">27.8491287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6429710388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7326068878174</t>
+    <t xml:space="preserve">27.642972946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.732608795166</t>
   </si>
   <si>
     <t xml:space="preserve">28.279369354248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5124168395996</t>
+    <t xml:space="preserve">28.512414932251</t>
   </si>
   <si>
     <t xml:space="preserve">27.8760185241699</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7365036010742</t>
+    <t xml:space="preserve">28.736499786377</t>
   </si>
   <si>
     <t xml:space="preserve">28.7813186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6827220916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9516201019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9555149078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7045421600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4983863830566</t>
+    <t xml:space="preserve">28.6827201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9516181945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9555168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7045459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4983882904053</t>
   </si>
   <si>
     <t xml:space="preserve">29.337043762207</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3997898101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3101558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4894237518311</t>
+    <t xml:space="preserve">29.3997859954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3101577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4894256591797</t>
   </si>
   <si>
     <t xml:space="preserve">29.1308879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8709526062012</t>
+    <t xml:space="preserve">28.8709487915039</t>
   </si>
   <si>
     <t xml:space="preserve">29.1577758789062</t>
@@ -1130,31 +1130,31 @@
     <t xml:space="preserve">29.7762489318848</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0272254943848</t>
+    <t xml:space="preserve">30.0272235870361</t>
   </si>
   <si>
     <t xml:space="preserve">29.5700950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5790538787842</t>
+    <t xml:space="preserve">29.5790557861328</t>
   </si>
   <si>
     <t xml:space="preserve">28.9785118103027</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8569221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.785213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8479557037354</t>
+    <t xml:space="preserve">29.8569183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7852153778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8479537963867</t>
   </si>
   <si>
     <t xml:space="preserve">29.8658828735352</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3140487670898</t>
+    <t xml:space="preserve">30.3140506744385</t>
   </si>
   <si>
     <t xml:space="preserve">30.0092964172363</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">29.6866130828857</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3460121154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6059417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5381355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6456909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4664287567139</t>
+    <t xml:space="preserve">29.3460083007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6059455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5381336212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367340087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.645694732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4664306640625</t>
   </si>
   <si>
     <t xml:space="preserve">30.2692337036133</t>
@@ -1199,73 +1199,73 @@
     <t xml:space="preserve">31.6764793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">30.995267868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1784248352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.954345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8736724853516</t>
+    <t xml:space="preserve">30.9952640533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1784286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9543399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8736743927002</t>
   </si>
   <si>
     <t xml:space="preserve">32.3666572570801</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2590980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1336097717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921417236328</t>
+    <t xml:space="preserve">32.2591018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1336059570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4921455383301</t>
   </si>
   <si>
     <t xml:space="preserve">33.3884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5856781005859</t>
+    <t xml:space="preserve">33.5856742858887</t>
   </si>
   <si>
     <t xml:space="preserve">34.9570655822754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8943214416504</t>
+    <t xml:space="preserve">34.8943252563477</t>
   </si>
   <si>
     <t xml:space="preserve">34.9301795959473</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7777976989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4192657470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6343841552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7419395446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6293182373047</t>
+    <t xml:space="preserve">34.7778015136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.419261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6343803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.741943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.629322052002</t>
   </si>
   <si>
     <t xml:space="preserve">35.4231605529785</t>
   </si>
   <si>
-    <t xml:space="preserve">34.858470916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5716400146484</t>
+    <t xml:space="preserve">34.8584671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5716438293457</t>
   </si>
   <si>
     <t xml:space="preserve">34.060733795166</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0428047180176</t>
+    <t xml:space="preserve">34.0428009033203</t>
   </si>
   <si>
     <t xml:space="preserve">34.3385963439941</t>
@@ -1274,16 +1274,16 @@
     <t xml:space="preserve">33.9083557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2579231262207</t>
+    <t xml:space="preserve">34.257926940918</t>
   </si>
   <si>
     <t xml:space="preserve">34.5088958740234</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3116989135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.616455078125</t>
+    <t xml:space="preserve">34.3117065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6164588928223</t>
   </si>
   <si>
     <t xml:space="preserve">34.9749908447266</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">34.8136520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4999351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3027420043945</t>
+    <t xml:space="preserve">34.4999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3027381896973</t>
   </si>
   <si>
     <t xml:space="preserve">33.0299453735352</t>
@@ -1304,22 +1304,22 @@
     <t xml:space="preserve">34.2848129272461</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3066329956055</t>
+    <t xml:space="preserve">35.3066368103027</t>
   </si>
   <si>
     <t xml:space="preserve">36.4539451599121</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5077209472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3912010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7049217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6281433105469</t>
+    <t xml:space="preserve">36.5077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3911972045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7049179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6281471252441</t>
   </si>
   <si>
     <t xml:space="preserve">39.0802040100098</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">39.1429481506348</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8381958007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8023414611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4886283874512</t>
+    <t xml:space="preserve">38.8381996154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8023452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4886207580566</t>
   </si>
   <si>
     <t xml:space="preserve">38.6499633789062</t>
@@ -1346,25 +1346,25 @@
     <t xml:space="preserve">39.0264282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0225257873535</t>
+    <t xml:space="preserve">38.0225296020508</t>
   </si>
   <si>
     <t xml:space="preserve">38.5692939758301</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2735061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5872230529785</t>
+    <t xml:space="preserve">38.2735023498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5872192382812</t>
   </si>
   <si>
     <t xml:space="preserve">38.5603332519531</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7396049499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7844161987305</t>
+    <t xml:space="preserve">38.7396011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7844200134277</t>
   </si>
   <si>
     <t xml:space="preserve">38.829231262207</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">38.954719543457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6628227233887</t>
+    <t xml:space="preserve">39.6628265380859</t>
   </si>
   <si>
     <t xml:space="preserve">39.3042907714844</t>
@@ -1385,49 +1385,49 @@
     <t xml:space="preserve">39.277400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5463027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7754516601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5065536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5961875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.914966583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8214416503906</t>
+    <t xml:space="preserve">39.5462989807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7754554748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5065498352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5961837768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9149742126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8214454650879</t>
   </si>
   <si>
     <t xml:space="preserve">37.8970413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6858215332031</t>
+    <t xml:space="preserve">38.6858177185059</t>
   </si>
   <si>
     <t xml:space="preserve">42.2353019714355</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8985900878906</t>
+    <t xml:space="preserve">42.8985977172852</t>
   </si>
   <si>
     <t xml:space="preserve">43.0599327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6655426025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2711601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249435424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1635971069336</t>
+    <t xml:space="preserve">42.6655502319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2711563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249397277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1636009216309</t>
   </si>
   <si>
     <t xml:space="preserve">41.8588409423828</t>
@@ -1436,28 +1436,28 @@
     <t xml:space="preserve">42.0022583007812</t>
   </si>
   <si>
-    <t xml:space="preserve">42.378719329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.930549621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7692070007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0201873779297</t>
+    <t xml:space="preserve">42.3787155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9305534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7692108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0201835632324</t>
   </si>
   <si>
     <t xml:space="preserve">41.5899467468262</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0521469116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5860443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8190994262695</t>
+    <t xml:space="preserve">41.0521430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5860481262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8190956115723</t>
   </si>
   <si>
     <t xml:space="preserve">40.0303192138672</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">43.0240783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7154312133789</t>
+    <t xml:space="preserve">41.7154350280762</t>
   </si>
   <si>
     <t xml:space="preserve">38.9009437561035</t>
@@ -1487,10 +1487,10 @@
     <t xml:space="preserve">39.8152008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4247055053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.335075378418</t>
+    <t xml:space="preserve">40.4247093200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3350791931152</t>
   </si>
   <si>
     <t xml:space="preserve">40.8011703491211</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">41.3748245239258</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2314109802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7473945617676</t>
+    <t xml:space="preserve">41.2314147949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.747386932373</t>
   </si>
   <si>
     <t xml:space="preserve">41.1955528259277</t>
@@ -1529,16 +1529,16 @@
     <t xml:space="preserve">41.6257934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8448143005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7988204956055</t>
+    <t xml:space="preserve">42.8448104858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7988243103027</t>
   </si>
   <si>
     <t xml:space="preserve">44.1534614562988</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4889984130859</t>
+    <t xml:space="preserve">45.4890022277832</t>
   </si>
   <si>
     <t xml:space="preserve">44.1355361938477</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">45.2201042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2957077026367</t>
+    <t xml:space="preserve">46.2957038879395</t>
   </si>
   <si>
     <t xml:space="preserve">47.595386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2060737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8475341796875</t>
+    <t xml:space="preserve">46.2060699462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8475379943848</t>
   </si>
   <si>
     <t xml:space="preserve">44.9512023925781</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2610244750977</t>
+    <t xml:space="preserve">44.2610206604004</t>
   </si>
   <si>
     <t xml:space="preserve">44.0996856689453</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">43.2033462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6975021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4106788635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.392749786377</t>
+    <t xml:space="preserve">41.697509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4106750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3927536010742</t>
   </si>
   <si>
     <t xml:space="preserve">41.2493362426758</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">39.3311805725098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9804382324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0123977661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7832450866699</t>
+    <t xml:space="preserve">40.9804344177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.012393951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7832489013672</t>
   </si>
   <si>
     <t xml:space="preserve">39.9586181640625</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">40.4784851074219</t>
   </si>
   <si>
-    <t xml:space="preserve">40.137882232666</t>
+    <t xml:space="preserve">40.1378784179688</t>
   </si>
   <si>
     <t xml:space="preserve">39.653865814209</t>
@@ -1616,49 +1616,49 @@
     <t xml:space="preserve">39.2594718933105</t>
   </si>
   <si>
-    <t xml:space="preserve">42.629695892334</t>
+    <t xml:space="preserve">42.6296920776367</t>
   </si>
   <si>
     <t xml:space="preserve">41.2851943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1728477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2489624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9410018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8685340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7598419189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0714569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9519462585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6983222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5389404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2635498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6838569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8106689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2128562927246</t>
+    <t xml:space="preserve">42.1728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.248966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9409980773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8685302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7598457336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.071460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9519424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6983261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5389366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2635536193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6838607788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.810661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2128601074219</t>
   </si>
   <si>
     <t xml:space="preserve">35.8686599731445</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">34.4194221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6042213439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8578453063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0752258300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6730346679688</t>
+    <t xml:space="preserve">33.6042251586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8578414916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0752296447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.673038482666</t>
   </si>
   <si>
     <t xml:space="preserve">34.8904266357422</t>
@@ -1691,10 +1691,10 @@
     <t xml:space="preserve">34.9266586303711</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7455024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1839256286621</t>
+    <t xml:space="preserve">34.7454986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1839218139648</t>
   </si>
   <si>
     <t xml:space="preserve">34.0208854675293</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">35.3251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6948051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5897560119629</t>
+    <t xml:space="preserve">33.6948013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5897636413574</t>
   </si>
   <si>
     <t xml:space="preserve">32.5716438293457</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">31.955717086792</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7057495117188</t>
+    <t xml:space="preserve">30.7057514190674</t>
   </si>
   <si>
     <t xml:space="preserve">29.6550521850586</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1079368591309</t>
+    <t xml:space="preserve">30.1079387664795</t>
   </si>
   <si>
     <t xml:space="preserve">29.4014320373535</t>
@@ -1736,43 +1736,43 @@
     <t xml:space="preserve">30.3253231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3833160400391</t>
+    <t xml:space="preserve">29.3833179473877</t>
   </si>
   <si>
     <t xml:space="preserve">29.5825881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9884223937988</t>
+    <t xml:space="preserve">27.9884243011475</t>
   </si>
   <si>
     <t xml:space="preserve">29.2927398681641</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7093982696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7782096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4303703308105</t>
+    <t xml:space="preserve">29.7093963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7782115936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4303684234619</t>
   </si>
   <si>
     <t xml:space="preserve">29.8180885314941</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1260528564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2890892028809</t>
+    <t xml:space="preserve">30.1260509490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2890911102295</t>
   </si>
   <si>
     <t xml:space="preserve">30.5789375305176</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8470268249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8289108276367</t>
+    <t xml:space="preserve">31.8470249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8289051055908</t>
   </si>
   <si>
     <t xml:space="preserve">32.2636795043945</t>
@@ -1781,22 +1781,22 @@
     <t xml:space="preserve">31.2854442596436</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5390586853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1586360931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9194869995117</t>
+    <t xml:space="preserve">31.5390605926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1586399078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9194889068604</t>
   </si>
   <si>
     <t xml:space="preserve">31.7926750183105</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0137119293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.089822769165</t>
+    <t xml:space="preserve">31.0137138366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0898246765137</t>
   </si>
   <si>
     <t xml:space="preserve">30.0717067718506</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">29.8362045288086</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2565078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8941993713379</t>
+    <t xml:space="preserve">29.2565097808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8942012786865</t>
   </si>
   <si>
     <t xml:space="preserve">28.2601585388184</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">27.7529239654541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7928028106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.430492401123</t>
+    <t xml:space="preserve">26.7928047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4304943084717</t>
   </si>
   <si>
     <t xml:space="preserve">26.1949939727783</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">27.3906154632568</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2094612121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2638072967529</t>
+    <t xml:space="preserve">27.2094593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2638053894043</t>
   </si>
   <si>
     <t xml:space="preserve">27.1732292175293</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">26.901496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6261177062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0790023803711</t>
+    <t xml:space="preserve">27.6261157989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0790042877197</t>
   </si>
   <si>
     <t xml:space="preserve">27.7348079681396</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">27.9521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">28.205810546875</t>
+    <t xml:space="preserve">28.2058086395264</t>
   </si>
   <si>
     <t xml:space="preserve">28.1695823669434</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">28.767391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7130470275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3470897674561</t>
+    <t xml:space="preserve">28.7130451202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3470878601074</t>
   </si>
   <si>
     <t xml:space="preserve">29.328971862793</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8036231994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8398532867432</t>
+    <t xml:space="preserve">28.8036193847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8398551940918</t>
   </si>
   <si>
     <t xml:space="preserve">27.8253841400146</t>
@@ -1898,37 +1898,37 @@
     <t xml:space="preserve">27.7166938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">25.905143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.861743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8653907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8472766876221</t>
+    <t xml:space="preserve">25.9051456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8617420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8653926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8472747802734</t>
   </si>
   <si>
     <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5501289367676</t>
+    <t xml:space="preserve">23.5501308441162</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6950550079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3689765930176</t>
+    <t xml:space="preserve">23.6950569152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3689785003662</t>
   </si>
   <si>
     <t xml:space="preserve">23.5682468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6443557739258</t>
+    <t xml:space="preserve">22.6443576812744</t>
   </si>
   <si>
     <t xml:space="preserve">21.8291606903076</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">20.9415035247803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4849662780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3581562042236</t>
+    <t xml:space="preserve">21.4849643707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3581581115723</t>
   </si>
   <si>
     <t xml:space="preserve">21.4668502807617</t>
@@ -1955,22 +1955,22 @@
     <t xml:space="preserve">18.4234504699707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3872184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6553039550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9850292205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959106445312</t>
+    <t xml:space="preserve">18.3872165679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6553020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9850273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959125518799</t>
   </si>
   <si>
     <t xml:space="preserve">19.111837387085</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1064281463623</t>
+    <t xml:space="preserve">18.1064300537109</t>
   </si>
   <si>
     <t xml:space="preserve">17.2368850708008</t>
@@ -1985,28 +1985,28 @@
     <t xml:space="preserve">16.7568244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2948780059814</t>
+    <t xml:space="preserve">16.2948818206787</t>
   </si>
   <si>
     <t xml:space="preserve">16.0412616729736</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8057632446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7695293426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.706127166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2495918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4941482543945</t>
+    <t xml:space="preserve">15.805760383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7695302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7061262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2495899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7024803161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4941501617432</t>
   </si>
   <si>
     <t xml:space="preserve">17.5720195770264</t>
@@ -2015,13 +2015,13 @@
     <t xml:space="preserve">17.6535415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5847263336182</t>
+    <t xml:space="preserve">16.5847244262695</t>
   </si>
   <si>
     <t xml:space="preserve">18.0430221557617</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9306831359863</t>
+    <t xml:space="preserve">18.9306812286377</t>
   </si>
   <si>
     <t xml:space="preserve">17.7622356414795</t>
@@ -2033,70 +2033,70 @@
     <t xml:space="preserve">16.1046676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9959726333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.358283996582</t>
+    <t xml:space="preserve">15.9959735870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3582820892334</t>
   </si>
   <si>
     <t xml:space="preserve">16.2858219146729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8148193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4887409210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354875564575</t>
+    <t xml:space="preserve">15.8148202896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4887428283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354885101318</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6789531707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2351236343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5521459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2640590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8890438079834</t>
+    <t xml:space="preserve">15.6789512634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2351245880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5521430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2640552520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8890419006348</t>
   </si>
   <si>
     <t xml:space="preserve">18.2604103088379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.744119644165</t>
+    <t xml:space="preserve">17.7441177368164</t>
   </si>
   <si>
     <t xml:space="preserve">17.4905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1154842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1517181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3328704833984</t>
+    <t xml:space="preserve">18.1154861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1517162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3328723907471</t>
   </si>
   <si>
     <t xml:space="preserve">18.133602142334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0249099731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5539035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7857570648193</t>
+    <t xml:space="preserve">18.0249080657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5539054870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.785758972168</t>
   </si>
   <si>
     <t xml:space="preserve">18.9125671386719</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">19.0574913024902</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944511413574</t>
+    <t xml:space="preserve">18.8944530487061</t>
   </si>
   <si>
     <t xml:space="preserve">18.8038749694824</t>
@@ -2123,34 +2123,34 @@
     <t xml:space="preserve">18.5321407318115</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0883102416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4542694091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8256359100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7132968902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5103797912598</t>
+    <t xml:space="preserve">18.0883140563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4542713165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8256378173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.405330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7132949829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5103778839111</t>
   </si>
   <si>
     <t xml:space="preserve">19.7821102142334</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3618068695068</t>
+    <t xml:space="preserve">20.3618049621582</t>
   </si>
   <si>
     <t xml:space="preserve">20.1806507110596</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0357284545898</t>
+    <t xml:space="preserve">20.0357303619385</t>
   </si>
   <si>
     <t xml:space="preserve">19.528491973877</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">19.5647258758545</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3980369567871</t>
+    <t xml:space="preserve">20.3980388641357</t>
   </si>
   <si>
     <t xml:space="preserve">17.8528099060059</t>
@@ -2174,31 +2174,31 @@
     <t xml:space="preserve">17.6082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5176773071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9470348358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0829029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9651527404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1463088989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0376129150391</t>
+    <t xml:space="preserve">17.5176753997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9470367431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0829048156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9651546478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1463069915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0376148223877</t>
   </si>
   <si>
     <t xml:space="preserve">17.4452133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3727512359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4814453125</t>
+    <t xml:space="preserve">17.3727493286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">17.3818092346191</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">18.2785263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">18.079252243042</t>
+    <t xml:space="preserve">18.0792541503906</t>
   </si>
   <si>
     <t xml:space="preserve">17.7169437408447</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">18.0158519744873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7984638214111</t>
+    <t xml:space="preserve">17.7984657287598</t>
   </si>
   <si>
     <t xml:space="preserve">18.2966403961182</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">18.0520820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3365173339844</t>
+    <t xml:space="preserve">17.336519241333</t>
   </si>
   <si>
     <t xml:space="preserve">17.2278289794922</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">17.7803478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.070198059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1879482269287</t>
+    <t xml:space="preserve">18.0701961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1879463195801</t>
   </si>
   <si>
     <t xml:space="preserve">18.1698322296143</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">17.6897735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8709259033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7429027557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3418235778809</t>
+    <t xml:space="preserve">17.8709278106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7429008483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3418216705322</t>
   </si>
   <si>
     <t xml:space="preserve">16.7572650909424</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">16.2840538024902</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7737293243408</t>
+    <t xml:space="preserve">15.7737283706665</t>
   </si>
   <si>
     <t xml:space="preserve">14.7066822052002</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">13.880880355835</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0200595855713</t>
+    <t xml:space="preserve">14.0200605392456</t>
   </si>
   <si>
     <t xml:space="preserve">13.862322807312</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">13.3891124725342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9736671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9179964065552</t>
+    <t xml:space="preserve">13.9736680984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9179954528809</t>
   </si>
   <si>
     <t xml:space="preserve">13.5561275482178</t>
@@ -2321,13 +2321,13 @@
     <t xml:space="preserve">13.3798332214355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4540634155273</t>
+    <t xml:space="preserve">13.454062461853</t>
   </si>
   <si>
     <t xml:space="preserve">13.1757020950317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2128171920776</t>
+    <t xml:space="preserve">13.2128162384033</t>
   </si>
   <si>
     <t xml:space="preserve">14.001503944397</t>
@@ -2348,16 +2348,16 @@
     <t xml:space="preserve">13.9087162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716020584106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7695369720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5953369140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.261305809021</t>
+    <t xml:space="preserve">13.8716011047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7695379257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5953378677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2613067626953</t>
   </si>
   <si>
     <t xml:space="preserve">11.1622323989868</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">10.2065305709839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2714796066284</t>
+    <t xml:space="preserve">10.2714805603027</t>
   </si>
   <si>
     <t xml:space="preserve">10.4663314819336</t>
@@ -2387,13 +2387,13 @@
     <t xml:space="preserve">10.9859380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5405616760254</t>
+    <t xml:space="preserve">10.5405607223511</t>
   </si>
   <si>
     <t xml:space="preserve">10.7446928024292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5962333679199</t>
+    <t xml:space="preserve">10.5962343215942</t>
   </si>
   <si>
     <t xml:space="preserve">10.3549890518188</t>
@@ -2423,10 +2423,10 @@
     <t xml:space="preserve">10.549840927124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6333494186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848909378052</t>
+    <t xml:space="preserve">10.6333484649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848899841309</t>
   </si>
   <si>
     <t xml:space="preserve">10.577675819397</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">10.1137428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1786937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5570240020752</t>
+    <t xml:space="preserve">10.1786947250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55702495574951</t>
   </si>
   <si>
     <t xml:space="preserve">9.34361362457275</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">9.63125324249268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26474571228027</t>
+    <t xml:space="preserve">9.26474666595459</t>
   </si>
   <si>
     <t xml:space="preserve">9.45495796203613</t>
@@ -2483,10 +2483,10 @@
     <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93071365356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59413909912109</t>
+    <t xml:space="preserve">8.93071460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59413814544678</t>
   </si>
   <si>
     <t xml:space="preserve">9.29722118377686</t>
@@ -2507,13 +2507,13 @@
     <t xml:space="preserve">10.0487928390503</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2993173599243</t>
+    <t xml:space="preserve">10.29931640625</t>
   </si>
   <si>
     <t xml:space="preserve">10.4941692352295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1415796279907</t>
+    <t xml:space="preserve">10.141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">10.1601362228394</t>
@@ -2528,22 +2528,22 @@
     <t xml:space="preserve">9.57558059692383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8539400100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62197303771973</t>
+    <t xml:space="preserve">9.85394096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62197399139404</t>
   </si>
   <si>
     <t xml:space="preserve">9.31577777862549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44567966461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70548343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37145137786865</t>
+    <t xml:space="preserve">9.44568061828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70548248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37145042419434</t>
   </si>
   <si>
     <t xml:space="preserve">9.770432472229</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">10.0395135879517</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80754661560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54774475097656</t>
+    <t xml:space="preserve">9.8075475692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54774379730225</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364315032959</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">10.1230220794678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426267623901</t>
+    <t xml:space="preserve">10.6426277160645</t>
   </si>
   <si>
     <t xml:space="preserve">10.7910861968994</t>
@@ -2588,10 +2588,10 @@
     <t xml:space="preserve">11.4962644577026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003955841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3035087585449</t>
+    <t xml:space="preserve">11.7003946304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3035078048706</t>
   </si>
   <si>
     <t xml:space="preserve">12.0622625350952</t>
@@ -2603,10 +2603,10 @@
     <t xml:space="preserve">12.15505027771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2107219696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2571153640747</t>
+    <t xml:space="preserve">12.2107210159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2571144104004</t>
   </si>
   <si>
     <t xml:space="preserve">12.0344266891479</t>
@@ -2618,16 +2618,16 @@
     <t xml:space="preserve">11.8210172653198</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8952465057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8024597167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1364917755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5261964797974</t>
+    <t xml:space="preserve">11.8952474594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8024606704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.136492729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.526195526123</t>
   </si>
   <si>
     <t xml:space="preserve">13.333438873291</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">13.6767501831055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.481897354126</t>
+    <t xml:space="preserve">13.4818983078003</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777681350708</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">14.0942897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2149114608765</t>
+    <t xml:space="preserve">14.2149124145508</t>
   </si>
   <si>
     <t xml:space="preserve">14.2056341171265</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">14.1963558197021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9272737503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1314039230347</t>
+    <t xml:space="preserve">13.9272747039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.131404876709</t>
   </si>
   <si>
     <t xml:space="preserve">14.112847328186</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">14.0107831954956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.736611366272</t>
+    <t xml:space="preserve">15.7366132736206</t>
   </si>
   <si>
     <t xml:space="preserve">15.8201198577881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1840858459473</t>
+    <t xml:space="preserve">17.1840839385986</t>
   </si>
   <si>
     <t xml:space="preserve">16.8871688842773</t>
@@ -2723,10 +2723,10 @@
     <t xml:space="preserve">16.915002822876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2005462646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0892009735107</t>
+    <t xml:space="preserve">16.2005481719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0892028808594</t>
   </si>
   <si>
     <t xml:space="preserve">16.0242519378662</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">15.5603199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7623538970947</t>
+    <t xml:space="preserve">14.762354850769</t>
   </si>
   <si>
     <t xml:space="preserve">14.4004859924316</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">14.9293699264526</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3840246200562</t>
+    <t xml:space="preserve">15.3840255737305</t>
   </si>
   <si>
     <t xml:space="preserve">15.2912378311157</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376321792603</t>
+    <t xml:space="preserve">15.3376312255859</t>
   </si>
   <si>
     <t xml:space="preserve">15.0685501098633</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2448444366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1613368988037</t>
+    <t xml:space="preserve">15.2448434829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1613359451294</t>
   </si>
   <si>
     <t xml:space="preserve">14.1870775222778</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">12.0437049865723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6540021896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3663635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6611852645874</t>
+    <t xml:space="preserve">11.6540012359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3663625717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6611843109131</t>
   </si>
   <si>
     <t xml:space="preserve">10.1879720687866</t>
@@ -2813,10 +2813,10 @@
     <t xml:space="preserve">6.97755527496338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9450798034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02394866943359</t>
+    <t xml:space="preserve">6.94508028030396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02394819259644</t>
   </si>
   <si>
     <t xml:space="preserve">6.94971895217896</t>
@@ -2825,19 +2825,19 @@
     <t xml:space="preserve">7.05178451538086</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51571846008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10027313232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39000701904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06525421142578</t>
+    <t xml:space="preserve">7.51571798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10027408599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9075174331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0652551651001</t>
   </si>
   <si>
     <t xml:space="preserve">8.44358444213867</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">8.16522407531738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79407739639282</t>
+    <t xml:space="preserve">7.79407691955566</t>
   </si>
   <si>
     <t xml:space="preserve">7.97501182556152</t>
@@ -2864,10 +2864,10 @@
     <t xml:space="preserve">7.8311915397644</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15594482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88686466217041</t>
+    <t xml:space="preserve">8.15594577789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88686418533325</t>
   </si>
   <si>
     <t xml:space="preserve">7.46932458877563</t>
@@ -2882,10 +2882,10 @@
     <t xml:space="preserve">7.36725902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37653732299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15384960174561</t>
+    <t xml:space="preserve">7.37653684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15385007858276</t>
   </si>
   <si>
     <t xml:space="preserve">7.59922504425049</t>
@@ -2894,31 +2894,31 @@
     <t xml:space="preserve">7.8219141960144</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97965097427368</t>
+    <t xml:space="preserve">7.979651927948</t>
   </si>
   <si>
     <t xml:space="preserve">7.64561891555786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38117694854736</t>
+    <t xml:space="preserve">7.38117742538452</t>
   </si>
   <si>
     <t xml:space="preserve">7.56211042404175</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34870195388794</t>
+    <t xml:space="preserve">7.34870147705078</t>
   </si>
   <si>
     <t xml:space="preserve">7.18632507324219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14457082748413</t>
+    <t xml:space="preserve">7.14457035064697</t>
   </si>
   <si>
     <t xml:space="preserve">7.20024299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10745573043823</t>
+    <t xml:space="preserve">7.10745620727539</t>
   </si>
   <si>
     <t xml:space="preserve">6.9682765007019</t>
@@ -2939,19 +2939,19 @@
     <t xml:space="preserve">7.76624155044556</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51781368255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71730518341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95391082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59204292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74050045013428</t>
+    <t xml:space="preserve">8.51781463623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71730422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9539098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59204196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74050140380859</t>
   </si>
   <si>
     <t xml:space="preserve">8.92607402801514</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">11.0694456100464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5519361495972</t>
+    <t xml:space="preserve">11.5519371032715</t>
   </si>
   <si>
     <t xml:space="preserve">11.5612154006958</t>
@@ -2972,10 +2972,10 @@
     <t xml:space="preserve">11.3199701309204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0044956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88177680969238</t>
+    <t xml:space="preserve">11.0044946670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88177585601807</t>
   </si>
   <si>
     <t xml:space="preserve">9.79826927185059</t>
@@ -2984,10 +2984,10 @@
     <t xml:space="preserve">10.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2529239654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0766286849976</t>
+    <t xml:space="preserve">10.2529230117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0766277313232</t>
   </si>
   <si>
     <t xml:space="preserve">9.94672775268555</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">12.0900983810425</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5055437088013</t>
+    <t xml:space="preserve">11.505542755127</t>
   </si>
   <si>
     <t xml:space="preserve">11.607608795166</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">11.6818380355835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8766899108887</t>
+    <t xml:space="preserve">11.8766889572144</t>
   </si>
   <si>
     <t xml:space="preserve">11.8859691619873</t>
@@ -3032,13 +3032,13 @@
     <t xml:space="preserve">11.7746238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7282304763794</t>
+    <t xml:space="preserve">11.7282314300537</t>
   </si>
   <si>
     <t xml:space="preserve">11.6354446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4127569198608</t>
+    <t xml:space="preserve">11.4127559661865</t>
   </si>
   <si>
     <t xml:space="preserve">11.338526725769</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">12.8973426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7767200469971</t>
+    <t xml:space="preserve">12.7767210006714</t>
   </si>
   <si>
     <t xml:space="preserve">13.1293087005615</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">13.203537940979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056039810181</t>
+    <t xml:space="preserve">13.3056049346924</t>
   </si>
   <si>
     <t xml:space="preserve">13.0829162597656</t>
@@ -3089,10 +3089,10 @@
     <t xml:space="preserve">13.6210784912109</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4262266159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6489143371582</t>
+    <t xml:space="preserve">13.4262275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6489152908325</t>
   </si>
   <si>
     <t xml:space="preserve">13.4447832107544</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">13.1849813461304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2406530380249</t>
+    <t xml:space="preserve">13.2406539916992</t>
   </si>
   <si>
     <t xml:space="preserve">13.342719078064</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">13.3519973754883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1200313568115</t>
+    <t xml:space="preserve">13.1200304031372</t>
   </si>
   <si>
     <t xml:space="preserve">13.2499313354492</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4076690673828</t>
+    <t xml:space="preserve">13.4076681137085</t>
   </si>
   <si>
     <t xml:space="preserve">13.4633407592773</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5818691253662</t>
+    <t xml:space="preserve">12.5818681716919</t>
   </si>
   <si>
     <t xml:space="preserve">12.4519662857056</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7024908065796</t>
+    <t xml:space="preserve">12.7024898529053</t>
   </si>
   <si>
     <t xml:space="preserve">12.4055728912354</t>
@@ -3143,16 +3143,16 @@
     <t xml:space="preserve">12.8602275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5097341537476</t>
+    <t xml:space="preserve">13.583963394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
     <t xml:space="preserve">13.5282907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561878204346</t>
+    <t xml:space="preserve">15.3561868667603</t>
   </si>
   <si>
     <t xml:space="preserve">15.6623830795288</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">14.7994689941406</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4376001358032</t>
+    <t xml:space="preserve">14.4376010894775</t>
   </si>
   <si>
     <t xml:space="preserve">13.9922246932983</t>
@@ -3200,16 +3200,16 @@
     <t xml:space="preserve">14.7345180511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2726793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7644491195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5046453475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.189172744751</t>
+    <t xml:space="preserve">15.2726802825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7644500732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5046472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1891736984253</t>
   </si>
   <si>
     <t xml:space="preserve">15.0035991668701</t>
@@ -3218,10 +3218,10 @@
     <t xml:space="preserve">15.4768104553223</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8665151596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6716613769531</t>
+    <t xml:space="preserve">15.8665170669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6716623306274</t>
   </si>
   <si>
     <t xml:space="preserve">16.246940612793</t>
@@ -3230,16 +3230,16 @@
     <t xml:space="preserve">15.9036293029785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9314661026001</t>
+    <t xml:space="preserve">15.9314641952515</t>
   </si>
   <si>
     <t xml:space="preserve">16.0149726867676</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2098236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407444000244</t>
+    <t xml:space="preserve">16.2098255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407434463501</t>
   </si>
   <si>
     <t xml:space="preserve">15.9685802459717</t>
@@ -3248,22 +3248,22 @@
     <t xml:space="preserve">15.4396953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7273359298706</t>
+    <t xml:space="preserve">15.7273368835449</t>
   </si>
   <si>
     <t xml:space="preserve">15.5232048034668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6809425354004</t>
+    <t xml:space="preserve">15.6809415817261</t>
   </si>
   <si>
     <t xml:space="preserve">16.0428104400635</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1912689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1634330749512</t>
+    <t xml:space="preserve">16.1912670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1634311676025</t>
   </si>
   <si>
     <t xml:space="preserve">16.6088085174561</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">17.8892650604248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4902801513672</t>
+    <t xml:space="preserve">17.4902820587158</t>
   </si>
   <si>
     <t xml:space="preserve">17.564510345459</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">17.2119197845459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3603782653809</t>
+    <t xml:space="preserve">17.3603801727295</t>
   </si>
   <si>
     <t xml:space="preserve">17.6387405395508</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">17.666576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4717254638672</t>
+    <t xml:space="preserve">17.4717235565186</t>
   </si>
   <si>
     <t xml:space="preserve">17.7222499847412</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">19.5594234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8356876373291</t>
+    <t xml:space="preserve">18.8356857299805</t>
   </si>
   <si>
     <t xml:space="preserve">19.3552932739258</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">19.4480781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3738479614258</t>
+    <t xml:space="preserve">19.3738498687744</t>
   </si>
   <si>
     <t xml:space="preserve">18.6501159667969</t>
@@ -3365,19 +3365,19 @@
     <t xml:space="preserve">21.0625667572021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780403137207</t>
+    <t xml:space="preserve">21.3780422210693</t>
   </si>
   <si>
     <t xml:space="preserve">21.3409271240234</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4337139129639</t>
+    <t xml:space="preserve">21.4337120056152</t>
   </si>
   <si>
     <t xml:space="preserve">21.3038101196289</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8811836242676</t>
+    <t xml:space="preserve">22.8811855316162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8997421264648</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">20.6543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7470932006836</t>
+    <t xml:space="preserve">20.747091293335</t>
   </si>
   <si>
     <t xml:space="preserve">20.8398761749268</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">20.8027648925781</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3223705291748</t>
+    <t xml:space="preserve">21.3223686218262</t>
   </si>
   <si>
     <t xml:space="preserve">20.5800762176514</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">20.7656478881836</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9697818756104</t>
+    <t xml:space="preserve">20.9697799682617</t>
   </si>
   <si>
     <t xml:space="preserve">21.2110252380371</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">21.2295818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3388328552246</t>
+    <t xml:space="preserve">20.338830947876</t>
   </si>
   <si>
     <t xml:space="preserve">20.0604724884033</t>
@@ -3455,13 +3455,13 @@
     <t xml:space="preserve">20.9141082763672</t>
   </si>
   <si>
-    <t xml:space="preserve">20.431619644165</t>
+    <t xml:space="preserve">20.4316177368164</t>
   </si>
   <si>
     <t xml:space="preserve">20.9512233734131</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3059062957764</t>
+    <t xml:space="preserve">22.305908203125</t>
   </si>
   <si>
     <t xml:space="preserve">22.6770534515381</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">22.1945648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3430233001709</t>
+    <t xml:space="preserve">22.3430213928223</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687931060791</t>
@@ -3479,13 +3479,13 @@
     <t xml:space="preserve">22.1388912200928</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3801383972168</t>
+    <t xml:space="preserve">22.3801364898682</t>
   </si>
   <si>
     <t xml:space="preserve">22.1574478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3265590667725</t>
+    <t xml:space="preserve">23.3265609741211</t>
   </si>
   <si>
     <t xml:space="preserve">23.9203948974609</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">24.0317401885986</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1781024932861</t>
+    <t xml:space="preserve">23.1781005859375</t>
   </si>
   <si>
     <t xml:space="preserve">23.0482006072998</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">22.9368572235107</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4729251861572</t>
+    <t xml:space="preserve">22.4729232788086</t>
   </si>
   <si>
     <t xml:space="preserve">23.623477935791</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">23.363676071167</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8440704345703</t>
+    <t xml:space="preserve">22.8440685272217</t>
   </si>
   <si>
     <t xml:space="preserve">23.7719383239746</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">25.2194080352783</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9081268310547</t>
+    <t xml:space="preserve">26.9081249237061</t>
   </si>
   <si>
     <t xml:space="preserve">26.6297664642334</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">27.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5390739440918</t>
+    <t xml:space="preserve">27.5390758514404</t>
   </si>
   <si>
     <t xml:space="preserve">27.6504173278809</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">27.5576324462891</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2607135772705</t>
+    <t xml:space="preserve">27.2607116699219</t>
   </si>
   <si>
     <t xml:space="preserve">27.0565814971924</t>
@@ -3590,7 +3590,7 @@
     <t xml:space="preserve">26.6483211517334</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0730476379395</t>
+    <t xml:space="preserve">26.0730457305908</t>
   </si>
   <si>
     <t xml:space="preserve">25.8689136505127</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">26.7967796325684</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6112079620361</t>
+    <t xml:space="preserve">26.6112098693848</t>
   </si>
   <si>
     <t xml:space="preserve">26.536979675293</t>
@@ -3623,10 +3623,10 @@
     <t xml:space="preserve">26.1101589202881</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8153381347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4813060760498</t>
+    <t xml:space="preserve">26.815336227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4813079833984</t>
   </si>
   <si>
     <t xml:space="preserve">26.666877746582</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">26.9823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5926494598389</t>
+    <t xml:space="preserve">26.5926475524902</t>
   </si>
   <si>
     <t xml:space="preserve">26.6854381561279</t>
@@ -3674,10 +3674,10 @@
     <t xml:space="preserve">31.139196395874</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7659549713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1864833831787</t>
+    <t xml:space="preserve">29.7659568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1864852905273</t>
   </si>
   <si>
     <t xml:space="preserve">27.0380249023438</t>
@@ -3686,13 +3686,13 @@
     <t xml:space="preserve">27.5019569396973</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7803192138672</t>
+    <t xml:space="preserve">27.7803211212158</t>
   </si>
   <si>
     <t xml:space="preserve">26.945240020752</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0937004089355</t>
+    <t xml:space="preserve">27.0936985015869</t>
   </si>
   <si>
     <t xml:space="preserve">27.3349418640137</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">28.0586795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7432041168213</t>
+    <t xml:space="preserve">27.7432022094727</t>
   </si>
   <si>
     <t xml:space="preserve">27.3720588684082</t>
@@ -3716,7 +3716,7 @@
     <t xml:space="preserve">27.4091720581055</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9287796020508</t>
+    <t xml:space="preserve">27.9287776947021</t>
   </si>
   <si>
     <t xml:space="preserve">27.4648456573486</t>
@@ -3740,10 +3740,10 @@
     <t xml:space="preserve">28.0772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8545475006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2050399780273</t>
+    <t xml:space="preserve">27.854549407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.205041885376</t>
   </si>
   <si>
     <t xml:space="preserve">27.9102210998535</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">27.9844493865967</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1329078674316</t>
+    <t xml:space="preserve">28.1329097747803</t>
   </si>
   <si>
     <t xml:space="preserve">28.4669418334961</t>
@@ -3764,7 +3764,7 @@
     <t xml:space="preserve">28.2442531585693</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9473342895508</t>
+    <t xml:space="preserve">27.9473361968994</t>
   </si>
   <si>
     <t xml:space="preserve">26.4441909790039</t>
@@ -3782,22 +3782,22 @@
     <t xml:space="preserve">24.7554740905762</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2358722686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1080627441406</t>
+    <t xml:space="preserve">24.2358703613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1080646514893</t>
   </si>
   <si>
     <t xml:space="preserve">24.4956722259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8461685180664</t>
+    <t xml:space="preserve">23.8461666107178</t>
   </si>
   <si>
     <t xml:space="preserve">23.4750194549561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4007911682129</t>
+    <t xml:space="preserve">23.4007892608643</t>
   </si>
   <si>
     <t xml:space="preserve">24.1987552642822</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">25.2379665374756</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0523929595947</t>
+    <t xml:space="preserve">25.0523910522461</t>
   </si>
   <si>
     <t xml:space="preserve">25.1266212463379</t>
@@ -3836,10 +3836,10 @@
     <t xml:space="preserve">25.6833419799805</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0152759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.070951461792</t>
+    <t xml:space="preserve">25.0152778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0709495544434</t>
   </si>
   <si>
     <t xml:space="preserve">24.9781627655029</t>
@@ -3848,25 +3848,25 @@
     <t xml:space="preserve">24.4028854370117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.439998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0131816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6605930328369</t>
+    <t xml:space="preserve">24.4400005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0131797790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6605911254883</t>
   </si>
   <si>
     <t xml:space="preserve">23.2894458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9904346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9533176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0089912414551</t>
+    <t xml:space="preserve">21.9904327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9533195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0089893341064</t>
   </si>
   <si>
     <t xml:space="preserve">21.1553516387939</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">20.8213214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8605308532715</t>
+    <t xml:space="preserve">21.8605327606201</t>
   </si>
   <si>
     <t xml:space="preserve">21.5821723937988</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">20.0419139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">20.190372467041</t>
+    <t xml:space="preserve">20.1903743743896</t>
   </si>
   <si>
     <t xml:space="preserve">21.006893157959</t>
@@ -3965,25 +3965,25 @@
     <t xml:space="preserve">20.1347007751465</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0954895019531</t>
+    <t xml:space="preserve">19.0954875946045</t>
   </si>
   <si>
     <t xml:space="preserve">18.6129989624023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7779178619385</t>
+    <t xml:space="preserve">17.7779197692871</t>
   </si>
   <si>
     <t xml:space="preserve">18.2325744628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2232933044434</t>
+    <t xml:space="preserve">18.223295211792</t>
   </si>
   <si>
     <t xml:space="preserve">17.16552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4624462127686</t>
+    <t xml:space="preserve">17.4624443054199</t>
   </si>
   <si>
     <t xml:space="preserve">15.170615196228</t>
@@ -3995,16 +3995,16 @@
     <t xml:space="preserve">16.3768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4582538604736</t>
+    <t xml:space="preserve">15.4582529067993</t>
   </si>
   <si>
     <t xml:space="preserve">16.3304481506348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5468502044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2984209060669</t>
+    <t xml:space="preserve">13.5468492507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2984218597412</t>
   </si>
   <si>
     <t xml:space="preserve">14.1406831741333</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">14.4190435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">14.771632194519</t>
+    <t xml:space="preserve">14.7716331481934</t>
   </si>
   <si>
     <t xml:space="preserve">14.9015331268311</t>
@@ -4022,10 +4022,10 @@
     <t xml:space="preserve">14.3448143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3355360031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7437973022461</t>
+    <t xml:space="preserve">14.3355350494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7437963485718</t>
   </si>
   <si>
     <t xml:space="preserve">15.9129076004028</t>
@@ -4052,7 +4052,7 @@
     <t xml:space="preserve">13.6953077316284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8901596069336</t>
+    <t xml:space="preserve">13.8901605606079</t>
   </si>
   <si>
     <t xml:space="preserve">12.8787851333618</t>
@@ -4064,13 +4064,13 @@
     <t xml:space="preserve">13.4355049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.031436920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1334991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3933029174805</t>
+    <t xml:space="preserve">15.0314359664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1335000991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3933038711548</t>
   </si>
   <si>
     <t xml:space="preserve">15.4304170608521</t>
@@ -62082,7 +62082,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6496180556</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>73349</v>
@@ -62103,6 +62103,32 @@
         <v>1734</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6493865741</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>95741</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>10.7200002670288</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>10.460000038147</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>10.6099996566772</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>10.6300001144409</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1738">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528593063354</t>
+    <t xml:space="preserve">13.0528602600098</t>
   </si>
   <si>
     <t xml:space="preserve">12.8206930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4681463241577</t>
+    <t xml:space="preserve">12.4681453704834</t>
   </si>
   <si>
     <t xml:space="preserve">12.3133687973022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3305683135986</t>
+    <t xml:space="preserve">12.3305654525757</t>
   </si>
   <si>
     <t xml:space="preserve">12.21018409729</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">11.5480833053589</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9203758239746</t>
+    <t xml:space="preserve">10.9203767776489</t>
   </si>
   <si>
     <t xml:space="preserve">9.85413455963135</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">10.4130516052246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90572834014893</t>
+    <t xml:space="preserve">9.90572643280029</t>
   </si>
   <si>
     <t xml:space="preserve">10.5334329605103</t>
   </si>
   <si>
-    <t xml:space="preserve">10.352858543396</t>
+    <t xml:space="preserve">10.3528594970703</t>
   </si>
   <si>
     <t xml:space="preserve">10.8429870605469</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">10.8773813247681</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7913961410522</t>
+    <t xml:space="preserve">10.7913951873779</t>
   </si>
   <si>
     <t xml:space="preserve">10.6366176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6968088150024</t>
+    <t xml:space="preserve">10.6968078613281</t>
   </si>
   <si>
     <t xml:space="preserve">10.2496757507324</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">10.5162353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.550630569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0777006149292</t>
+    <t xml:space="preserve">10.5506315231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0777015686035</t>
   </si>
   <si>
     <t xml:space="preserve">9.08884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02865695953369</t>
+    <t xml:space="preserve">9.02865791320801</t>
   </si>
   <si>
     <t xml:space="preserve">9.45859336853027</t>
@@ -125,40 +125,40 @@
     <t xml:space="preserve">9.48438930511475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95731925964355</t>
+    <t xml:space="preserve">9.95732021331787</t>
   </si>
   <si>
     <t xml:space="preserve">9.71655559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4990377426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044523239136</t>
+    <t xml:space="preserve">10.4990386962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044542312622</t>
   </si>
   <si>
     <t xml:space="preserve">10.2582750320435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.066554069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.610821723938</t>
+    <t xml:space="preserve">11.0665531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6108236312866</t>
   </si>
   <si>
     <t xml:space="preserve">10.2840700149536</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2410764694214</t>
+    <t xml:space="preserve">10.2410774230957</t>
   </si>
   <si>
     <t xml:space="preserve">11.1009483337402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9719696044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8748350143433</t>
+    <t xml:space="preserve">10.9719676971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8748331069946</t>
   </si>
   <si>
     <t xml:space="preserve">12.0124139785767</t>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8404388427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0382089614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6942596435547</t>
+    <t xml:space="preserve">11.8404397964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0382099151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6942625045776</t>
   </si>
   <si>
     <t xml:space="preserve">11.4362993240356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.444899559021</t>
+    <t xml:space="preserve">11.4448976516724</t>
   </si>
   <si>
     <t xml:space="preserve">11.7286558151245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9092292785645</t>
+    <t xml:space="preserve">11.9092302322388</t>
   </si>
   <si>
     <t xml:space="preserve">11.9866170883179</t>
@@ -194,31 +194,31 @@
     <t xml:space="preserve">11.8662347793579</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1155977249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617769241333</t>
+    <t xml:space="preserve">12.1155986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617750167847</t>
   </si>
   <si>
     <t xml:space="preserve">12.27037525177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4079551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2015857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2359790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2875738143921</t>
+    <t xml:space="preserve">12.4079542160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201584815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2359800338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2875728607178</t>
   </si>
   <si>
     <t xml:space="preserve">11.9694204330444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6340713500977</t>
+    <t xml:space="preserve">11.634069442749</t>
   </si>
   <si>
     <t xml:space="preserve">11.3503112792969</t>
@@ -230,94 +230,94 @@
     <t xml:space="preserve">11.9522218704224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8834314346313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7716493606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6684646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7028589248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394830703735</t>
+    <t xml:space="preserve">11.8834323883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7716484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6684637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.70285987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394840240479</t>
   </si>
   <si>
     <t xml:space="preserve">11.2557258605957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1697387695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.178337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3847055435181</t>
+    <t xml:space="preserve">11.1697378158569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1783361434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3847064971924</t>
   </si>
   <si>
     <t xml:space="preserve">11.4105043411255</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2213306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1181468963623</t>
+    <t xml:space="preserve">11.2213315963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.118145942688</t>
   </si>
   <si>
     <t xml:space="preserve">11.0493564605713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2041330337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6624155044556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0166463851929</t>
+    <t xml:space="preserve">11.2041349411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6624145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0166473388672</t>
   </si>
   <si>
     <t xml:space="preserve">10.4941530227661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4144506454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2816133499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3258934020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9805154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3790273666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0602169036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3613166809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.308180809021</t>
+    <t xml:space="preserve">10.4144525527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2816123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3258924484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98051643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3790283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0602178573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3613157272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3081827163696</t>
   </si>
   <si>
     <t xml:space="preserve">10.6712703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4771509170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1937637329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9812231063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3000335693359</t>
+    <t xml:space="preserve">11.4771499633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1937646865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9812240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3000345230103</t>
   </si>
   <si>
     <t xml:space="preserve">11.3443126678467</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">11.0697822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8926658630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9015226364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9900798797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9723672866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8749542236328</t>
+    <t xml:space="preserve">10.8926649093628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9015207290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9900789260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9723682403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8749532699585</t>
   </si>
   <si>
     <t xml:space="preserve">10.5738554000854</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">10.1222085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0513610839844</t>
+    <t xml:space="preserve">10.0513620376587</t>
   </si>
   <si>
     <t xml:space="preserve">10.0070829391479</t>
@@ -356,28 +356,28 @@
     <t xml:space="preserve">9.7414083480835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0956401824951</t>
+    <t xml:space="preserve">10.0956411361694</t>
   </si>
   <si>
     <t xml:space="preserve">10.5561447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4055957794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118646621704</t>
+    <t xml:space="preserve">10.4055948257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118637084961</t>
   </si>
   <si>
     <t xml:space="preserve">10.6447019577026</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93623542785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.174635887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73255348205566</t>
+    <t xml:space="preserve">9.93623733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17463397979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73255157470703</t>
   </si>
   <si>
     <t xml:space="preserve">9.62628269195557</t>
@@ -386,34 +386,34 @@
     <t xml:space="preserve">9.98937129974365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461910247803</t>
+    <t xml:space="preserve">10.246190071106</t>
   </si>
   <si>
     <t xml:space="preserve">10.0425071716309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23662567138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234657287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77683258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1399192810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4410190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3436040878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1930561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2727575302124</t>
+    <t xml:space="preserve">9.23662662506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234752655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77683067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1399202346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3436050415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1930551528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2727584838867</t>
   </si>
   <si>
     <t xml:space="preserve">10.210765838623</t>
@@ -422,16 +422,16 @@
     <t xml:space="preserve">10.7598276138306</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1406288146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0786390304565</t>
+    <t xml:space="preserve">11.1406297683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0786380767822</t>
   </si>
   <si>
     <t xml:space="preserve">11.0963487625122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0520696640015</t>
+    <t xml:space="preserve">11.0520706176758</t>
   </si>
   <si>
     <t xml:space="preserve">10.9369440078735</t>
@@ -440,16 +440,16 @@
     <t xml:space="preserve">11.1583414077759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3177461624146</t>
+    <t xml:space="preserve">11.3177452087402</t>
   </si>
   <si>
     <t xml:space="preserve">11.3797359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7863969802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1140613555908</t>
+    <t xml:space="preserve">10.786395072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1140604019165</t>
   </si>
   <si>
     <t xml:space="preserve">10.9635124206543</t>
@@ -461,37 +461,37 @@
     <t xml:space="preserve">11.122917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2823209762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.184907913208</t>
+    <t xml:space="preserve">11.2823219299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1849060058594</t>
   </si>
   <si>
     <t xml:space="preserve">11.246898651123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3266000747681</t>
+    <t xml:space="preserve">11.3266010284424</t>
   </si>
   <si>
     <t xml:space="preserve">11.5922765731812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8136711120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8402376174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7516803741455</t>
+    <t xml:space="preserve">11.8136720657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.840238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7516822814941</t>
   </si>
   <si>
     <t xml:space="preserve">11.8668060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7162570953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7339696884155</t>
+    <t xml:space="preserve">11.7162580490112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7339687347412</t>
   </si>
   <si>
     <t xml:space="preserve">11.5125732421875</t>
@@ -500,46 +500,46 @@
     <t xml:space="preserve">11.3885917663574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4328708648682</t>
+    <t xml:space="preserve">11.4328699111938</t>
   </si>
   <si>
     <t xml:space="preserve">11.202618598938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7605361938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6808319091797</t>
+    <t xml:space="preserve">11.760537147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6808338165283</t>
   </si>
   <si>
     <t xml:space="preserve">11.8933744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1059141159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1236238479614</t>
+    <t xml:space="preserve">12.1059150695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1236248016357</t>
   </si>
   <si>
     <t xml:space="preserve">12.1324806213379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752725601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6018381118774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4778575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3538751602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6726865768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9914970397949</t>
+    <t xml:space="preserve">12.5752716064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6018400192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.477858543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3538770675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6726856231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9914960861206</t>
   </si>
   <si>
     <t xml:space="preserve">12.8852262496948</t>
@@ -551,34 +551,34 @@
     <t xml:space="preserve">13.1066217422485</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4874219894409</t>
+    <t xml:space="preserve">13.4874210357666</t>
   </si>
   <si>
     <t xml:space="preserve">13.6556835174561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7619524002075</t>
+    <t xml:space="preserve">13.7619533538818</t>
   </si>
   <si>
     <t xml:space="preserve">13.5051336288452</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4527053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3021574020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3375816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2135982513428</t>
+    <t xml:space="preserve">14.4527072906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3021583557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3375825881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2135992050171</t>
   </si>
   <si>
     <t xml:space="preserve">14.2047452926636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1516103744507</t>
+    <t xml:space="preserve">14.1516094207764</t>
   </si>
   <si>
     <t xml:space="preserve">14.0010604858398</t>
@@ -596,19 +596,19 @@
     <t xml:space="preserve">13.9125022888184</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8062324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2748832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.452000617981</t>
+    <t xml:space="preserve">13.8062314987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.274881362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.451997756958</t>
   </si>
   <si>
     <t xml:space="preserve">13.2306032180786</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265291213989</t>
+    <t xml:space="preserve">13.7265300750732</t>
   </si>
   <si>
     <t xml:space="preserve">13.6379709243774</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">13.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2578792572021</t>
+    <t xml:space="preserve">14.2578802108765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1781768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8689317703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3914241790771</t>
+    <t xml:space="preserve">14.8689308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3914232254028</t>
   </si>
   <si>
     <t xml:space="preserve">15.364857673645</t>
@@ -638,37 +638,37 @@
     <t xml:space="preserve">15.5773973464966</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5862531661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534168243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331163406372</t>
+    <t xml:space="preserve">15.5862550735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534158706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331182479858</t>
   </si>
   <si>
     <t xml:space="preserve">15.4268484115601</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6216735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545146942139</t>
+    <t xml:space="preserve">15.6216745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545156478882</t>
   </si>
   <si>
     <t xml:space="preserve">15.6305313110352</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3294324874878</t>
+    <t xml:space="preserve">15.3294343948364</t>
   </si>
   <si>
     <t xml:space="preserve">15.8962078094482</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2858600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4629802703857</t>
+    <t xml:space="preserve">16.2858619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4629821777344</t>
   </si>
   <si>
     <t xml:space="preserve">16.5603942871094</t>
@@ -677,16 +677,16 @@
     <t xml:space="preserve">16.6046733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1360244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9854736328125</t>
+    <t xml:space="preserve">17.136022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9854755401611</t>
   </si>
   <si>
     <t xml:space="preserve">17.2511463165283</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8703479766846</t>
+    <t xml:space="preserve">16.8703460693359</t>
   </si>
   <si>
     <t xml:space="preserve">16.6489524841309</t>
@@ -698,13 +698,13 @@
     <t xml:space="preserve">16.6843757629395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7463645935059</t>
+    <t xml:space="preserve">16.7463665008545</t>
   </si>
   <si>
     <t xml:space="preserve">16.6666641235352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0917415618896</t>
+    <t xml:space="preserve">17.0917434692383</t>
   </si>
   <si>
     <t xml:space="preserve">16.7995014190674</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">16.9766159057617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9500484466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1094551086426</t>
+    <t xml:space="preserve">16.9500503540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1094532012939</t>
   </si>
   <si>
     <t xml:space="preserve">17.3928413391113</t>
@@ -725,25 +725,25 @@
     <t xml:space="preserve">17.2245807647705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6312408447266</t>
+    <t xml:space="preserve">16.6312427520752</t>
   </si>
   <si>
     <t xml:space="preserve">17.1802997589111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9589061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3042831420898</t>
+    <t xml:space="preserve">16.9589080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3042850494385</t>
   </si>
   <si>
     <t xml:space="preserve">17.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.755931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6408061981201</t>
+    <t xml:space="preserve">17.7559299468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6408042907715</t>
   </si>
   <si>
     <t xml:space="preserve">17.6053810119629</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">17.55224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6585178375244</t>
+    <t xml:space="preserve">17.6585159301758</t>
   </si>
   <si>
     <t xml:space="preserve">17.8444881439209</t>
@@ -764,16 +764,16 @@
     <t xml:space="preserve">17.9419021606445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6762275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8437805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614902496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0474662780762</t>
+    <t xml:space="preserve">17.6762256622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8437824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614921569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0474643707275</t>
   </si>
   <si>
     <t xml:space="preserve">17.2600040435791</t>
@@ -782,10 +782,10 @@
     <t xml:space="preserve">17.3751316070557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7817916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068672180176</t>
+    <t xml:space="preserve">16.7817878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068710327148</t>
   </si>
   <si>
     <t xml:space="preserve">16.9146289825439</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">17.3308506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3839836120605</t>
+    <t xml:space="preserve">17.3839855194092</t>
   </si>
   <si>
     <t xml:space="preserve">17.4902572631836</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">17.4725437164307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7470760345459</t>
+    <t xml:space="preserve">17.7470741271973</t>
   </si>
   <si>
     <t xml:space="preserve">18.0481719970703</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">20.5012359619141</t>
   </si>
   <si>
-    <t xml:space="preserve">20.713773727417</t>
+    <t xml:space="preserve">20.7137756347656</t>
   </si>
   <si>
     <t xml:space="preserve">20.4569568634033</t>
@@ -836,16 +836,16 @@
     <t xml:space="preserve">21.1654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7056293487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2097015380859</t>
+    <t xml:space="preserve">21.7056312561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2097034454346</t>
   </si>
   <si>
     <t xml:space="preserve">21.4488086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7764739990234</t>
+    <t xml:space="preserve">21.7764759063721</t>
   </si>
   <si>
     <t xml:space="preserve">21.8738880157471</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">22.0421485900879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9358825683594</t>
+    <t xml:space="preserve">21.9358806610107</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395645141602</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">22.4140949249268</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3875274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4760856628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4495162963867</t>
+    <t xml:space="preserve">22.3875293731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4760818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4495182037354</t>
   </si>
   <si>
     <t xml:space="preserve">22.3166828155518</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">22.7594718933105</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5646419525146</t>
+    <t xml:space="preserve">22.5646438598633</t>
   </si>
   <si>
     <t xml:space="preserve">22.608922958374</t>
@@ -887,28 +887,28 @@
     <t xml:space="preserve">22.7948932647705</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7506160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8037509918213</t>
+    <t xml:space="preserve">22.750617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8037490844727</t>
   </si>
   <si>
     <t xml:space="preserve">23.025146484375</t>
   </si>
   <si>
-    <t xml:space="preserve">23.228832244873</t>
+    <t xml:space="preserve">23.2288303375244</t>
   </si>
   <si>
     <t xml:space="preserve">22.9631576538086</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5026531219482</t>
+    <t xml:space="preserve">22.5026550292969</t>
   </si>
   <si>
     <t xml:space="preserve">23.326244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5210723876953</t>
+    <t xml:space="preserve">23.5210742950439</t>
   </si>
   <si>
     <t xml:space="preserve">23.6450576782227</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">24.0524234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3800868988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8494453430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7963123321533</t>
+    <t xml:space="preserve">24.3800888061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8494472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7963104248047</t>
   </si>
   <si>
     <t xml:space="preserve">25.0619869232178</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">25.0354175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5763339996338</t>
+    <t xml:space="preserve">26.5763301849365</t>
   </si>
   <si>
     <t xml:space="preserve">26.6390762329102</t>
@@ -947,94 +947,94 @@
     <t xml:space="preserve">27.5533390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7863845825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3152236938477</t>
+    <t xml:space="preserve">27.7863864898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.315221786499</t>
   </si>
   <si>
     <t xml:space="preserve">27.8312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440589904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5342407226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9656543731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6289405822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1846675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.659725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9375915527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0451488494873</t>
+    <t xml:space="preserve">28.8440608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5342388153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9656524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.628942489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1846694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6597232818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.937593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0451507568359</t>
   </si>
   <si>
     <t xml:space="preserve">30.4753913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9504489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4126472473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.842887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042285919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0759315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1924571990967</t>
+    <t xml:space="preserve">30.9504432678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4126491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8428916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0759353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1924591064453</t>
   </si>
   <si>
     <t xml:space="preserve">31.1745319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1117858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8249626159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9235591888428</t>
+    <t xml:space="preserve">31.1117897033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8249588012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9235553741455</t>
   </si>
   <si>
     <t xml:space="preserve">30.8608150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5252723693848</t>
+    <t xml:space="preserve">29.525276184082</t>
   </si>
   <si>
     <t xml:space="preserve">29.6686878204346</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4804592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4446048736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3409385681152</t>
+    <t xml:space="preserve">29.4804611206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.44460105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3409404754639</t>
   </si>
   <si>
     <t xml:space="preserve">30.3050880432129</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1706390380859</t>
+    <t xml:space="preserve">30.1706352233887</t>
   </si>
   <si>
     <t xml:space="preserve">30.0989303588867</t>
@@ -1043,46 +1043,46 @@
     <t xml:space="preserve">30.2244186401367</t>
   </si>
   <si>
-    <t xml:space="preserve">29.650764465332</t>
+    <t xml:space="preserve">29.6507625579834</t>
   </si>
   <si>
     <t xml:space="preserve">29.9824085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0771064758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2922306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9298000335693</t>
+    <t xml:space="preserve">29.0771083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2922286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9297981262207</t>
   </si>
   <si>
     <t xml:space="preserve">28.1269912719727</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4099254608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8491306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6429710388184</t>
+    <t xml:space="preserve">27.4099273681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8491287231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.642972946167</t>
   </si>
   <si>
     <t xml:space="preserve">27.7326068878174</t>
   </si>
   <si>
-    <t xml:space="preserve">28.279369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.512414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8760204315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7365036010742</t>
+    <t xml:space="preserve">28.2793674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5124168395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8760185241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7365016937256</t>
   </si>
   <si>
     <t xml:space="preserve">28.7813186645508</t>
@@ -1091,31 +1091,31 @@
     <t xml:space="preserve">28.6827201843262</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9516220092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9555149078369</t>
+    <t xml:space="preserve">28.9516201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9555168151855</t>
   </si>
   <si>
     <t xml:space="preserve">29.7045421600342</t>
   </si>
   <si>
-    <t xml:space="preserve">29.498384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.337043762207</t>
+    <t xml:space="preserve">29.4983882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3370456695557</t>
   </si>
   <si>
     <t xml:space="preserve">29.399787902832</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3101558685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4894218444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1308898925781</t>
+    <t xml:space="preserve">29.3101577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4894237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1308879852295</t>
   </si>
   <si>
     <t xml:space="preserve">28.8709506988525</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">29.1577758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1129627227783</t>
+    <t xml:space="preserve">29.1129608154297</t>
   </si>
   <si>
     <t xml:space="preserve">29.7762489318848</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">29.5790557861328</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9785118103027</t>
+    <t xml:space="preserve">28.9785137176514</t>
   </si>
   <si>
     <t xml:space="preserve">29.8569202423096</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">29.8479537963867</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8658847808838</t>
+    <t xml:space="preserve">29.8658809661865</t>
   </si>
   <si>
     <t xml:space="preserve">30.3140525817871</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">30.0092945098877</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3588638305664</t>
+    <t xml:space="preserve">30.358865737915</t>
   </si>
   <si>
     <t xml:space="preserve">29.6866149902344</t>
@@ -1169,34 +1169,34 @@
     <t xml:space="preserve">29.3460083007812</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6059455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5381317138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6456909179688</t>
+    <t xml:space="preserve">29.6059436798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5381355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367321014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6456928253174</t>
   </si>
   <si>
     <t xml:space="preserve">30.4664306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2692356109619</t>
+    <t xml:space="preserve">30.2692317962646</t>
   </si>
   <si>
     <t xml:space="preserve">30.2333793640137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4036808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2680625915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6764793395996</t>
+    <t xml:space="preserve">30.4036827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.26806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6764755249023</t>
   </si>
   <si>
     <t xml:space="preserve">30.9952640533447</t>
@@ -1205,16 +1205,16 @@
     <t xml:space="preserve">32.1784286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9543495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8736763000488</t>
+    <t xml:space="preserve">31.9543437957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8736705780029</t>
   </si>
   <si>
     <t xml:space="preserve">32.3666572570801</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2591018676758</t>
+    <t xml:space="preserve">32.2590980529785</t>
   </si>
   <si>
     <t xml:space="preserve">32.1336059570312</t>
@@ -1223,49 +1223,49 @@
     <t xml:space="preserve">32.4921455383301</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3884773254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5856781005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9570617675781</t>
+    <t xml:space="preserve">33.3884811401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5856742858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9570693969727</t>
   </si>
   <si>
     <t xml:space="preserve">34.8943214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">34.93017578125</t>
+    <t xml:space="preserve">34.9301795959473</t>
   </si>
   <si>
     <t xml:space="preserve">34.7777976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4192657470703</t>
+    <t xml:space="preserve">34.419261932373</t>
   </si>
   <si>
     <t xml:space="preserve">34.6343841552734</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7419471740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6293182373047</t>
+    <t xml:space="preserve">34.741943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.629322052002</t>
   </si>
   <si>
     <t xml:space="preserve">35.4231605529785</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8584671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5716400146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.060733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0428009033203</t>
+    <t xml:space="preserve">34.858470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5716438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0607299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0428047180176</t>
   </si>
   <si>
     <t xml:space="preserve">34.3385963439941</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">34.3117027282715</t>
   </si>
   <si>
-    <t xml:space="preserve">34.616455078125</t>
+    <t xml:space="preserve">34.6164588928223</t>
   </si>
   <si>
     <t xml:space="preserve">34.9749946594238</t>
@@ -1292,22 +1292,22 @@
     <t xml:space="preserve">34.8136520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4999351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3027381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0299453735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2848129272461</t>
+    <t xml:space="preserve">34.4999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3027420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0299415588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2848167419434</t>
   </si>
   <si>
     <t xml:space="preserve">35.3066368103027</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4539451599121</t>
+    <t xml:space="preserve">36.4539413452148</t>
   </si>
   <si>
     <t xml:space="preserve">36.5077247619629</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.142951965332</t>
+    <t xml:space="preserve">39.1429481506348</t>
   </si>
   <si>
     <t xml:space="preserve">38.8381996154785</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">38.8023452758789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4886283874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6499633789062</t>
+    <t xml:space="preserve">38.4886207580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6499671936035</t>
   </si>
   <si>
     <t xml:space="preserve">39.4387397766113</t>
   </si>
   <si>
-    <t xml:space="preserve">39.026424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0225257873535</t>
+    <t xml:space="preserve">39.0264282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.022533416748</t>
   </si>
   <si>
     <t xml:space="preserve">38.5692977905273</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">38.5872192382812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5603370666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7396049499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7844200134277</t>
+    <t xml:space="preserve">38.5603332519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7396011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7844161987305</t>
   </si>
   <si>
     <t xml:space="preserve">38.829231262207</t>
@@ -1376,16 +1376,16 @@
     <t xml:space="preserve">38.9547157287598</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6628227233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3042869567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2773971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5463027954102</t>
+    <t xml:space="preserve">39.6628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3042907714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2774047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5462989807129</t>
   </si>
   <si>
     <t xml:space="preserve">38.7754516601562</t>
@@ -1394,16 +1394,16 @@
     <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5961799621582</t>
+    <t xml:space="preserve">38.59619140625</t>
   </si>
   <si>
     <t xml:space="preserve">37.9149703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8214492797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8970413208008</t>
+    <t xml:space="preserve">36.8214416503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.897045135498</t>
   </si>
   <si>
     <t xml:space="preserve">38.6858177185059</t>
@@ -1412,40 +1412,40 @@
     <t xml:space="preserve">42.2353019714355</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8985900878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0599327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6655426025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2711639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1635971069336</t>
+    <t xml:space="preserve">42.8985939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0599403381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6655464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2711563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249359130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1636047363281</t>
   </si>
   <si>
     <t xml:space="preserve">41.8588447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0022621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.378719329834</t>
+    <t xml:space="preserve">42.0022583007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3787155151367</t>
   </si>
   <si>
     <t xml:space="preserve">41.9305534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7692070007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0201835632324</t>
+    <t xml:space="preserve">41.7692108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0201873779297</t>
   </si>
   <si>
     <t xml:space="preserve">41.5899467468262</t>
@@ -1460,34 +1460,34 @@
     <t xml:space="preserve">40.8190956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0303192138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3670349121094</t>
+    <t xml:space="preserve">40.0303230285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3670310974121</t>
   </si>
   <si>
     <t xml:space="preserve">39.9048385620117</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0240821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154350280762</t>
+    <t xml:space="preserve">43.0240783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154312133789</t>
   </si>
   <si>
     <t xml:space="preserve">38.9009437561035</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7894821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5026626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8152008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4247055053711</t>
+    <t xml:space="preserve">37.7894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5026588439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8151969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4247093200684</t>
   </si>
   <si>
     <t xml:space="preserve">40.335075378418</t>
@@ -1496,28 +1496,28 @@
     <t xml:space="preserve">40.8011703491211</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0342140197754</t>
+    <t xml:space="preserve">41.0342178344727</t>
   </si>
   <si>
     <t xml:space="preserve">41.1776275634766</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3748245239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2314071655273</t>
+    <t xml:space="preserve">41.3748207092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2314109802246</t>
   </si>
   <si>
     <t xml:space="preserve">40.747386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">41.195556640625</t>
+    <t xml:space="preserve">41.1955528259277</t>
   </si>
   <si>
     <t xml:space="preserve">39.4745979309082</t>
   </si>
   <si>
-    <t xml:space="preserve">39.402889251709</t>
+    <t xml:space="preserve">39.4028854370117</t>
   </si>
   <si>
     <t xml:space="preserve">40.4426345825195</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">40.6219024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6258010864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8448143005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7988204956055</t>
+    <t xml:space="preserve">41.6257934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8448104858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7988243103027</t>
   </si>
   <si>
     <t xml:space="preserve">44.1534614562988</t>
@@ -1541,25 +1541,25 @@
     <t xml:space="preserve">45.4889984130859</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1355323791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2200965881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2957077026367</t>
+    <t xml:space="preserve">44.1355361938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.220100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2957038879395</t>
   </si>
   <si>
     <t xml:space="preserve">47.595386505127</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2060661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8475379943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9511985778809</t>
+    <t xml:space="preserve">46.2060699462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.847541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9512062072754</t>
   </si>
   <si>
     <t xml:space="preserve">44.2610244750977</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">44.099681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2033462524414</t>
+    <t xml:space="preserve">43.2033500671387</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975059509277</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">41.2493362426758</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9944648742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3311767578125</t>
+    <t xml:space="preserve">39.9944686889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3311805725098</t>
   </si>
   <si>
     <t xml:space="preserve">40.9804382324219</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">40.0123901367188</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7832450866699</t>
+    <t xml:space="preserve">40.7832489013672</t>
   </si>
   <si>
     <t xml:space="preserve">39.9586143493652</t>
@@ -1604,16 +1604,16 @@
     <t xml:space="preserve">39.5283737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4784927368164</t>
+    <t xml:space="preserve">40.4784889221191</t>
   </si>
   <si>
     <t xml:space="preserve">40.137882232666</t>
   </si>
   <si>
-    <t xml:space="preserve">39.653865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2594680786133</t>
+    <t xml:space="preserve">39.6538696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2594718933105</t>
   </si>
   <si>
     <t xml:space="preserve">42.629695892334</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">41.2851943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1728477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2489585876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9410018920898</t>
+    <t xml:space="preserve">42.1728553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2489624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9409980773926</t>
   </si>
   <si>
     <t xml:space="preserve">40.8685340881348</t>
@@ -1637,37 +1637,37 @@
     <t xml:space="preserve">40.7598419189453</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0714569091797</t>
+    <t xml:space="preserve">40.071460723877</t>
   </si>
   <si>
     <t xml:space="preserve">37.9519424438477</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6983222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5389366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2635498046875</t>
+    <t xml:space="preserve">37.6983261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.538932800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2635536193848</t>
   </si>
   <si>
     <t xml:space="preserve">36.6838569641113</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8106689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2128562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8686599731445</t>
+    <t xml:space="preserve">36.8106651306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2128601074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8686561584473</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606956481934</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4194259643555</t>
+    <t xml:space="preserve">34.4194221496582</t>
   </si>
   <si>
     <t xml:space="preserve">33.6042251586914</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">34.0752258300781</t>
   </si>
   <si>
-    <t xml:space="preserve">34.673038482666</t>
+    <t xml:space="preserve">34.6730422973633</t>
   </si>
   <si>
     <t xml:space="preserve">34.8904266357422</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">34.9266586303711</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7455024719238</t>
+    <t xml:space="preserve">34.7454986572266</t>
   </si>
   <si>
     <t xml:space="preserve">34.1839218139648</t>
@@ -1703,37 +1703,37 @@
     <t xml:space="preserve">34.6368103027344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3251953125</t>
+    <t xml:space="preserve">35.3251991271973</t>
   </si>
   <si>
     <t xml:space="preserve">33.6948051452637</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5897560119629</t>
+    <t xml:space="preserve">32.5897598266602</t>
   </si>
   <si>
     <t xml:space="preserve">32.5716438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6477489471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.955717086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7057495117188</t>
+    <t xml:space="preserve">31.6477527618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9557132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7057514190674</t>
   </si>
   <si>
     <t xml:space="preserve">29.65505027771</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1079387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4014320373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3253211975098</t>
+    <t xml:space="preserve">30.1079406738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4014339447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3253231048584</t>
   </si>
   <si>
     <t xml:space="preserve">29.3833179473877</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">29.7093963623047</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7782077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4303703308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8180866241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1260528564453</t>
+    <t xml:space="preserve">30.7782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4303684234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8180885314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1260509490967</t>
   </si>
   <si>
     <t xml:space="preserve">30.2890892028809</t>
@@ -1769,40 +1769,40 @@
     <t xml:space="preserve">30.5789375305176</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8470230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8289070129395</t>
+    <t xml:space="preserve">31.8470249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8289051055908</t>
   </si>
   <si>
     <t xml:space="preserve">32.2636795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2854404449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5390625</t>
+    <t xml:space="preserve">31.2854442596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5390567779541</t>
   </si>
   <si>
     <t xml:space="preserve">31.1586360931396</t>
   </si>
   <si>
-    <t xml:space="preserve">31.919490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7926788330078</t>
+    <t xml:space="preserve">31.9194889068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7926750183105</t>
   </si>
   <si>
     <t xml:space="preserve">31.0137119293213</t>
   </si>
   <si>
-    <t xml:space="preserve">30.089822769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0717067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.83620262146</t>
+    <t xml:space="preserve">30.0898246765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0717086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8362064361572</t>
   </si>
   <si>
     <t xml:space="preserve">29.2565097808838</t>
@@ -1814,16 +1814,16 @@
     <t xml:space="preserve">28.2601585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7529220581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7928047180176</t>
+    <t xml:space="preserve">27.7529239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7928028106689</t>
   </si>
   <si>
     <t xml:space="preserve">26.4304943084717</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1949920654297</t>
+    <t xml:space="preserve">26.1949939727783</t>
   </si>
   <si>
     <t xml:space="preserve">26.6659965515137</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">27.3906154632568</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2094612121582</t>
+    <t xml:space="preserve">27.2094593048096</t>
   </si>
   <si>
     <t xml:space="preserve">27.2638072967529</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">27.6261157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0790023803711</t>
+    <t xml:space="preserve">28.0790042877197</t>
   </si>
   <si>
     <t xml:space="preserve">27.7348079681396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0971183776855</t>
+    <t xml:space="preserve">28.0971164703369</t>
   </si>
   <si>
     <t xml:space="preserve">28.0065422058105</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">27.9521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2058124542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1695823669434</t>
+    <t xml:space="preserve">28.205810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1695804595947</t>
   </si>
   <si>
     <t xml:space="preserve">27.9340801239014</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">28.767391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7130470275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3470897674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.328971862793</t>
+    <t xml:space="preserve">28.7130451202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3470859527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3289737701416</t>
   </si>
   <si>
     <t xml:space="preserve">28.8036212921143</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">27.7166938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9051456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8617420196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8653907775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8472766876221</t>
+    <t xml:space="preserve">25.905143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.861743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8653926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8472747802734</t>
   </si>
   <si>
     <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5501289367676</t>
+    <t xml:space="preserve">23.5501308441162</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">23.6950550079346</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3689765930176</t>
+    <t xml:space="preserve">23.3689785003662</t>
   </si>
   <si>
     <t xml:space="preserve">23.5682468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6443557739258</t>
+    <t xml:space="preserve">22.6443576812744</t>
   </si>
   <si>
     <t xml:space="preserve">21.8291606903076</t>
@@ -1937,46 +1937,46 @@
     <t xml:space="preserve">20.9415035247803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4849662780762</t>
+    <t xml:space="preserve">21.4849643707275</t>
   </si>
   <si>
     <t xml:space="preserve">21.3581581115723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4668521881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7204685211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8364543914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4234504699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3872184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6553039550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9850292205811</t>
+    <t xml:space="preserve">21.4668502807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7204666137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8364582061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4234485626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3872165679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6553020477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9850273132324</t>
   </si>
   <si>
     <t xml:space="preserve">18.4959106445312</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1118392944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1064281463623</t>
+    <t xml:space="preserve">19.111837387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1064300537109</t>
   </si>
   <si>
     <t xml:space="preserve">17.2368850708008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2097129821777</t>
+    <t xml:space="preserve">17.2097110748291</t>
   </si>
   <si>
     <t xml:space="preserve">17.3636932373047</t>
@@ -1985,28 +1985,28 @@
     <t xml:space="preserve">16.7568244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2948780059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.041259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8057632446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.76953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7061252593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2495918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4941501617432</t>
+    <t xml:space="preserve">16.2948799133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0412635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8057622909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7695283889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7061281204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2495899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7024784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4941520690918</t>
   </si>
   <si>
     <t xml:space="preserve">17.5720195770264</t>
@@ -2015,25 +2015,25 @@
     <t xml:space="preserve">17.6535415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5847263336182</t>
+    <t xml:space="preserve">16.5847244262695</t>
   </si>
   <si>
     <t xml:space="preserve">18.0430240631104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9306831359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7622356414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8926906585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1046676635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9959726333618</t>
+    <t xml:space="preserve">18.9306812286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7622337341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8926887512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1046657562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9959735870361</t>
   </si>
   <si>
     <t xml:space="preserve">16.3582820892334</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">16.2858219146729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8148193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4887390136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1354875564575</t>
+    <t xml:space="preserve">15.8148183822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4887418746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1354885101318</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365821838379</t>
@@ -2057,55 +2057,55 @@
     <t xml:space="preserve">15.6789531707764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2351226806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5521459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2640590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8890438079834</t>
+    <t xml:space="preserve">15.2351236343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5521430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2640571594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8890419006348</t>
   </si>
   <si>
     <t xml:space="preserve">18.2604103088379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7441177368164</t>
+    <t xml:space="preserve">17.744119644165</t>
   </si>
   <si>
     <t xml:space="preserve">17.4905014038086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1154842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1517181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3328704833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1336002349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249099731445</t>
+    <t xml:space="preserve">18.1154861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1517162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3328723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.133602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249080657959</t>
   </si>
   <si>
     <t xml:space="preserve">17.5539054870605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7857570648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9125652313232</t>
+    <t xml:space="preserve">18.7857608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9125671386719</t>
   </si>
   <si>
     <t xml:space="preserve">18.7314147949219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4415645599365</t>
+    <t xml:space="preserve">18.4415664672852</t>
   </si>
   <si>
     <t xml:space="preserve">19.0574913024902</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">18.8944530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8038730621338</t>
+    <t xml:space="preserve">18.8038749694824</t>
   </si>
   <si>
     <t xml:space="preserve">18.4596786499023</t>
@@ -2123,22 +2123,22 @@
     <t xml:space="preserve">18.5321407318115</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0883102416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4542713165283</t>
+    <t xml:space="preserve">18.0883121490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4542694091797</t>
   </si>
   <si>
     <t xml:space="preserve">17.8256378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4053344726562</t>
+    <t xml:space="preserve">18.4053325653076</t>
   </si>
   <si>
     <t xml:space="preserve">18.7132968902588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5103797912598</t>
+    <t xml:space="preserve">19.5103778839111</t>
   </si>
   <si>
     <t xml:space="preserve">19.7821102142334</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">20.3618049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1806526184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0357284545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.528491973877</t>
+    <t xml:space="preserve">20.1806507110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0357303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5284938812256</t>
   </si>
   <si>
     <t xml:space="preserve">19.5647239685059</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3980369567871</t>
+    <t xml:space="preserve">20.3980388641357</t>
   </si>
   <si>
     <t xml:space="preserve">17.8528099060059</t>
@@ -2171,22 +2171,22 @@
     <t xml:space="preserve">17.8981018066406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6082534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5176773071289</t>
+    <t xml:space="preserve">17.6082515716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5176753997803</t>
   </si>
   <si>
     <t xml:space="preserve">16.9470348358154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0829029083252</t>
+    <t xml:space="preserve">17.0829048156738</t>
   </si>
   <si>
     <t xml:space="preserve">16.9651527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1463088989258</t>
+    <t xml:space="preserve">17.1463069915771</t>
   </si>
   <si>
     <t xml:space="preserve">17.0376129150391</t>
@@ -2195,34 +2195,34 @@
     <t xml:space="preserve">17.4452133178711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3727512359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4814453125</t>
+    <t xml:space="preserve">17.3727493286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">17.3818092346191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2785243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0792541503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7169456481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5267333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2422943115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0158519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7984638214111</t>
+    <t xml:space="preserve">18.2785263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.079252243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7169437408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5267314910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2422924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0158500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7984657287598</t>
   </si>
   <si>
     <t xml:space="preserve">18.2966403961182</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">18.0520820617676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.336519241333</t>
+    <t xml:space="preserve">17.3365211486816</t>
   </si>
   <si>
     <t xml:space="preserve">17.2278270721436</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">18.070198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1879482269287</t>
+    <t xml:space="preserve">18.1879463195801</t>
   </si>
   <si>
     <t xml:space="preserve">18.1698322296143</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">17.6173095703125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7078876495361</t>
+    <t xml:space="preserve">17.7078857421875</t>
   </si>
   <si>
     <t xml:space="preserve">17.6897735595703</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8709259033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7429027557373</t>
+    <t xml:space="preserve">17.8709278106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7429008483887</t>
   </si>
   <si>
     <t xml:space="preserve">17.3418235778809</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">16.2840538024902</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7737293243408</t>
+    <t xml:space="preserve">15.7737283706665</t>
   </si>
   <si>
     <t xml:space="preserve">14.7066822052002</t>
@@ -2291,28 +2291,28 @@
     <t xml:space="preserve">13.880880355835</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0200595855713</t>
+    <t xml:space="preserve">14.0200605392456</t>
   </si>
   <si>
     <t xml:space="preserve">13.862322807312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3891124725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9736671447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9179964065552</t>
+    <t xml:space="preserve">13.3891115188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9736680984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9179954528809</t>
   </si>
   <si>
     <t xml:space="preserve">13.5561275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0272436141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1478672027588</t>
+    <t xml:space="preserve">13.0272445678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1478662490845</t>
   </si>
   <si>
     <t xml:space="preserve">13.0921945571899</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">13.3798332214355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4540634155273</t>
+    <t xml:space="preserve">13.4540615081787</t>
   </si>
   <si>
     <t xml:space="preserve">13.1757020950317</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">13.8716020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7695369720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5953369140625</t>
+    <t xml:space="preserve">13.7695379257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5953378677368</t>
   </si>
   <si>
     <t xml:space="preserve">14.261305809021</t>
@@ -2363,22 +2363,22 @@
     <t xml:space="preserve">11.1622323989868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8189220428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2065305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2714796066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4663314819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4756116867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6519050598145</t>
+    <t xml:space="preserve">10.8189210891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2065296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2714805603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4663324356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4756107330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6519060134888</t>
   </si>
   <si>
     <t xml:space="preserve">10.9209871292114</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">10.5962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3549890518188</t>
+    <t xml:space="preserve">10.3549880981445</t>
   </si>
   <si>
     <t xml:space="preserve">10.429217338562</t>
@@ -2405,16 +2405,16 @@
     <t xml:space="preserve">10.1044654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343654632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96528434753418</t>
+    <t xml:space="preserve">10.2343664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9652853012085</t>
   </si>
   <si>
     <t xml:space="preserve">9.71476078033447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58485889434814</t>
+    <t xml:space="preserve">9.58485984802246</t>
   </si>
   <si>
     <t xml:space="preserve">10.150857925415</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">10.549840927124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6333494186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4848909378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.577675819397</t>
+    <t xml:space="preserve">10.6333484649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4848899841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776767730713</t>
   </si>
   <si>
     <t xml:space="preserve">10.3642673492432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5034465789795</t>
+    <t xml:space="preserve">10.5034475326538</t>
   </si>
   <si>
     <t xml:space="preserve">10.7261362075806</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">10.0859079360962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.020956993103</t>
+    <t xml:space="preserve">10.0209560394287</t>
   </si>
   <si>
     <t xml:space="preserve">10.1137428283691</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">10.1786937713623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5570240020752</t>
+    <t xml:space="preserve">9.55702495574951</t>
   </si>
   <si>
     <t xml:space="preserve">9.34361362457275</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">9.52918815612793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25546646118164</t>
+    <t xml:space="preserve">9.25546741485596</t>
   </si>
   <si>
     <t xml:space="preserve">8.9910249710083</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93071365356445</t>
+    <t xml:space="preserve">8.93071460723877</t>
   </si>
   <si>
     <t xml:space="preserve">9.59413909912109</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">9.29722118377686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33433628082275</t>
+    <t xml:space="preserve">9.33433723449707</t>
   </si>
   <si>
     <t xml:space="preserve">9.16732025146484</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">10.1415796279907</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1601362228394</t>
+    <t xml:space="preserve">10.1601371765137</t>
   </si>
   <si>
     <t xml:space="preserve">9.66836738586426</t>
@@ -2528,22 +2528,22 @@
     <t xml:space="preserve">9.57558059692383</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8539400100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62197303771973</t>
+    <t xml:space="preserve">9.85394096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62197494506836</t>
   </si>
   <si>
     <t xml:space="preserve">9.31577777862549</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44567966461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70548343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37145137786865</t>
+    <t xml:space="preserve">9.44568061828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70548248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37145042419434</t>
   </si>
   <si>
     <t xml:space="preserve">9.770432472229</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">9.74259757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0395135879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80754661560059</t>
+    <t xml:space="preserve">10.039514541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8075475692749</t>
   </si>
   <si>
     <t xml:space="preserve">9.54774475097656</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">10.1230220794678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426267623901</t>
+    <t xml:space="preserve">10.6426277160645</t>
   </si>
   <si>
     <t xml:space="preserve">10.7910861968994</t>
@@ -2588,10 +2588,10 @@
     <t xml:space="preserve">11.4962644577026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003955841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3035087585449</t>
+    <t xml:space="preserve">11.7003946304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3035078048706</t>
   </si>
   <si>
     <t xml:space="preserve">12.0622625350952</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">12.15505027771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2107219696045</t>
+    <t xml:space="preserve">12.2107210159302</t>
   </si>
   <si>
     <t xml:space="preserve">12.2571153640747</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0344266891479</t>
+    <t xml:space="preserve">12.0344276428223</t>
   </si>
   <si>
     <t xml:space="preserve">12.0251483917236</t>
@@ -2618,22 +2618,22 @@
     <t xml:space="preserve">11.8210172653198</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8952465057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8024597167969</t>
+    <t xml:space="preserve">11.8952474594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8024606704712</t>
   </si>
   <si>
     <t xml:space="preserve">12.1364917755127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5261964797974</t>
+    <t xml:space="preserve">12.526195526123</t>
   </si>
   <si>
     <t xml:space="preserve">13.333438873291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3241605758667</t>
+    <t xml:space="preserve">13.324161529541</t>
   </si>
   <si>
     <t xml:space="preserve">13.1571455001831</t>
@@ -2642,13 +2642,13 @@
     <t xml:space="preserve">13.6767501831055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.481897354126</t>
+    <t xml:space="preserve">13.4818992614746</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8344869613647</t>
+    <t xml:space="preserve">13.8344879150391</t>
   </si>
   <si>
     <t xml:space="preserve">13.7880935668945</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">13.7973728179932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8066520690918</t>
+    <t xml:space="preserve">13.8066511154175</t>
   </si>
   <si>
     <t xml:space="preserve">14.0942897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2149114608765</t>
+    <t xml:space="preserve">14.2149124145508</t>
   </si>
   <si>
     <t xml:space="preserve">14.2056341171265</t>
@@ -2681,16 +2681,16 @@
     <t xml:space="preserve">13.7417011260986</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7602586746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5396661758423</t>
+    <t xml:space="preserve">13.7602577209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5396671295166</t>
   </si>
   <si>
     <t xml:space="preserve">14.1963558197021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9272737503052</t>
+    <t xml:space="preserve">13.9272747039795</t>
   </si>
   <si>
     <t xml:space="preserve">14.1314039230347</t>
@@ -2702,19 +2702,19 @@
     <t xml:space="preserve">14.0107831954956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.736611366272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8201198577881</t>
+    <t xml:space="preserve">15.7366123199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8201208114624</t>
   </si>
   <si>
     <t xml:space="preserve">17.1840858459473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8871688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9613990783691</t>
+    <t xml:space="preserve">16.8871669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9613971710205</t>
   </si>
   <si>
     <t xml:space="preserve">16.8407745361328</t>
@@ -2726,16 +2726,16 @@
     <t xml:space="preserve">16.2005462646484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0892009735107</t>
+    <t xml:space="preserve">16.089204788208</t>
   </si>
   <si>
     <t xml:space="preserve">16.0242519378662</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5603199005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7623538970947</t>
+    <t xml:space="preserve">15.5603189468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.762354850769</t>
   </si>
   <si>
     <t xml:space="preserve">14.4004859924316</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">15.2912378311157</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8087472915649</t>
+    <t xml:space="preserve">14.8087463378906</t>
   </si>
   <si>
     <t xml:space="preserve">14.9386491775513</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376321792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0685501098633</t>
+    <t xml:space="preserve">15.3376312255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.068549156189</t>
   </si>
   <si>
     <t xml:space="preserve">15.2448444366455</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1613368988037</t>
+    <t xml:space="preserve">15.1613359451294</t>
   </si>
   <si>
     <t xml:space="preserve">14.1870775222778</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">12.0437049865723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6540021896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3663635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6611852645874</t>
+    <t xml:space="preserve">11.6540012359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3663625717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6611833572388</t>
   </si>
   <si>
     <t xml:space="preserve">10.1879720687866</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">8.02140522003174</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93789768218994</t>
+    <t xml:space="preserve">7.93789720535278</t>
   </si>
   <si>
     <t xml:space="preserve">6.58785104751587</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">6.97755527496338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9450798034668</t>
+    <t xml:space="preserve">6.94508028030396</t>
   </si>
   <si>
     <t xml:space="preserve">7.02394866943359</t>
@@ -2822,28 +2822,28 @@
     <t xml:space="preserve">6.94971895217896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05178451538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51571846008301</t>
+    <t xml:space="preserve">7.0517840385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51571750640869</t>
   </si>
   <si>
     <t xml:space="preserve">8.10027313232422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39000701904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06525421142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44358444213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44822311401367</t>
+    <t xml:space="preserve">8.9075174331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0652551651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44358348846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44822406768799</t>
   </si>
   <si>
     <t xml:space="preserve">8.39719104766846</t>
@@ -2852,22 +2852,22 @@
     <t xml:space="preserve">8.30440425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16522407531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79407739639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97501182556152</t>
+    <t xml:space="preserve">8.1652250289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79407644271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97501134872437</t>
   </si>
   <si>
     <t xml:space="preserve">7.8311915397644</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15594482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88686466217041</t>
+    <t xml:space="preserve">8.15594577789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88686418533325</t>
   </si>
   <si>
     <t xml:space="preserve">7.46932458877563</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">7.37653732299805</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15384960174561</t>
+    <t xml:space="preserve">7.15385007858276</t>
   </si>
   <si>
     <t xml:space="preserve">7.59922504425049</t>
@@ -2900,13 +2900,13 @@
     <t xml:space="preserve">7.64561891555786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38117694854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56211042404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34870195388794</t>
+    <t xml:space="preserve">7.38117742538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56211090087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34870147705078</t>
   </si>
   <si>
     <t xml:space="preserve">7.18632507324219</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">7.20024299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10745573043823</t>
+    <t xml:space="preserve">7.10745620727539</t>
   </si>
   <si>
     <t xml:space="preserve">6.9682765007019</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">7.60850429534912</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58530759811401</t>
+    <t xml:space="preserve">7.58530807495117</t>
   </si>
   <si>
     <t xml:space="preserve">7.48788118362427</t>
@@ -2942,16 +2942,16 @@
     <t xml:space="preserve">8.51781368255615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71730518341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95391082763672</t>
+    <t xml:space="preserve">8.71730422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9539098739624</t>
   </si>
   <si>
     <t xml:space="preserve">8.59204292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74050045013428</t>
+    <t xml:space="preserve">8.74050140380859</t>
   </si>
   <si>
     <t xml:space="preserve">8.92607402801514</t>
@@ -2960,19 +2960,19 @@
     <t xml:space="preserve">9.38072872161865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0694456100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5519361495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5612154006958</t>
+    <t xml:space="preserve">11.0694465637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5519371032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5612144470215</t>
   </si>
   <si>
     <t xml:space="preserve">11.3199701309204</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0044956207275</t>
+    <t xml:space="preserve">11.0044946670532</t>
   </si>
   <si>
     <t xml:space="preserve">9.88177680969238</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">10.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2529239654541</t>
+    <t xml:space="preserve">10.2529230117798</t>
   </si>
   <si>
     <t xml:space="preserve">10.0766286849976</t>
@@ -2993,13 +2993,13 @@
     <t xml:space="preserve">9.94672775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.438497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4199380874634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2807598114014</t>
+    <t xml:space="preserve">10.4384965896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4199390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2807588577271</t>
   </si>
   <si>
     <t xml:space="preserve">10.7354135513306</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">12.0900983810425</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5055437088013</t>
+    <t xml:space="preserve">11.505542755127</t>
   </si>
   <si>
     <t xml:space="preserve">11.607608795166</t>
@@ -3026,19 +3026,19 @@
     <t xml:space="preserve">11.8766899108887</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8859691619873</t>
+    <t xml:space="preserve">11.885968208313</t>
   </si>
   <si>
     <t xml:space="preserve">11.7746238708496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7282304763794</t>
+    <t xml:space="preserve">11.7282314300537</t>
   </si>
   <si>
     <t xml:space="preserve">11.6354446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4127569198608</t>
+    <t xml:space="preserve">11.4127559661865</t>
   </si>
   <si>
     <t xml:space="preserve">11.338526725769</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">11.208625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8745937347412</t>
+    <t xml:space="preserve">10.8745946884155</t>
   </si>
   <si>
     <t xml:space="preserve">12.0715417861938</t>
@@ -3059,10 +3059,10 @@
     <t xml:space="preserve">12.8973426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7767200469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1293087005615</t>
+    <t xml:space="preserve">12.7767210006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1293096542358</t>
   </si>
   <si>
     <t xml:space="preserve">13.472620010376</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">13.0829162597656</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2684898376465</t>
+    <t xml:space="preserve">13.2684888839722</t>
   </si>
   <si>
     <t xml:space="preserve">13.6210784912109</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">13.6489143371582</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4447832107544</t>
+    <t xml:space="preserve">13.4447841644287</t>
   </si>
   <si>
     <t xml:space="preserve">13.222095489502</t>
@@ -3107,19 +3107,19 @@
     <t xml:space="preserve">13.1849813461304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2406530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.342719078064</t>
+    <t xml:space="preserve">13.2406539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3427181243896</t>
   </si>
   <si>
     <t xml:space="preserve">13.3519973754883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1200313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2499313354492</t>
+    <t xml:space="preserve">13.1200304031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2499322891235</t>
   </si>
   <si>
     <t xml:space="preserve">13.4076690673828</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">13.4633407592773</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5818691253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4519662857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7024908065796</t>
+    <t xml:space="preserve">12.5818681716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4519672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7024898529053</t>
   </si>
   <si>
     <t xml:space="preserve">12.4055728912354</t>
@@ -3143,22 +3143,22 @@
     <t xml:space="preserve">12.8602275848389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5839643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5097341537476</t>
+    <t xml:space="preserve">13.583963394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
     <t xml:space="preserve">13.5282907485962</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3561878204346</t>
+    <t xml:space="preserve">15.3561868667603</t>
   </si>
   <si>
     <t xml:space="preserve">15.6623830795288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9221858978271</t>
+    <t xml:space="preserve">15.9221868515015</t>
   </si>
   <si>
     <t xml:space="preserve">16.2376613616943</t>
@@ -3170,19 +3170,19 @@
     <t xml:space="preserve">15.5510406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8458623886108</t>
+    <t xml:space="preserve">14.8458614349365</t>
   </si>
   <si>
     <t xml:space="preserve">14.6046171188354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6788463592529</t>
+    <t xml:space="preserve">14.6788454055786</t>
   </si>
   <si>
     <t xml:space="preserve">14.7994689941406</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4376001358032</t>
+    <t xml:space="preserve">14.4376010894775</t>
   </si>
   <si>
     <t xml:space="preserve">13.9922246932983</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">14.7345180511475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2726793289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7644491195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5046453475952</t>
+    <t xml:space="preserve">15.2726802825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7644510269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5046472549438</t>
   </si>
   <si>
     <t xml:space="preserve">15.189172744751</t>
@@ -3215,28 +3215,28 @@
     <t xml:space="preserve">15.0035991668701</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4768104553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8665151596069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6716613769531</t>
+    <t xml:space="preserve">15.4768114089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8665161132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6716623306274</t>
   </si>
   <si>
     <t xml:space="preserve">16.246940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9036293029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9314661026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0149726867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2098236083984</t>
+    <t xml:space="preserve">15.9036283493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9314641952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0149745941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2098255157471</t>
   </si>
   <si>
     <t xml:space="preserve">15.9407444000244</t>
@@ -3248,13 +3248,13 @@
     <t xml:space="preserve">15.4396953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7273359298706</t>
+    <t xml:space="preserve">15.7273368835449</t>
   </si>
   <si>
     <t xml:space="preserve">15.5232048034668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6809425354004</t>
+    <t xml:space="preserve">15.6809406280518</t>
   </si>
   <si>
     <t xml:space="preserve">16.0428104400635</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">17.8892650604248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4902801513672</t>
+    <t xml:space="preserve">17.4902820587158</t>
   </si>
   <si>
     <t xml:space="preserve">17.564510345459</t>
@@ -3293,22 +3293,22 @@
     <t xml:space="preserve">17.666576385498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4717254638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7222499847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6480197906494</t>
+    <t xml:space="preserve">17.4717235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7222480773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6480178833008</t>
   </si>
   <si>
     <t xml:space="preserve">18.1397857666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5202121734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.872802734375</t>
+    <t xml:space="preserve">18.5202102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8728008270264</t>
   </si>
   <si>
     <t xml:space="preserve">20.0975856781006</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">19.5594234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8356876373291</t>
+    <t xml:space="preserve">18.8356857299805</t>
   </si>
   <si>
     <t xml:space="preserve">19.3552932739258</t>
@@ -3332,13 +3332,13 @@
     <t xml:space="preserve">19.4480781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3738479614258</t>
+    <t xml:space="preserve">19.3738498687744</t>
   </si>
   <si>
     <t xml:space="preserve">18.6501159667969</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6686725616455</t>
+    <t xml:space="preserve">18.6686744689941</t>
   </si>
   <si>
     <t xml:space="preserve">18.3068046569824</t>
@@ -3356,7 +3356,7 @@
     <t xml:space="preserve">19.392406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0790271759033</t>
+    <t xml:space="preserve">20.079029083252</t>
   </si>
   <si>
     <t xml:space="preserve">20.7285346984863</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">21.0625667572021</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3780403137207</t>
+    <t xml:space="preserve">21.3780422210693</t>
   </si>
   <si>
     <t xml:space="preserve">21.3409271240234</t>
@@ -3374,10 +3374,10 @@
     <t xml:space="preserve">21.4337139129639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3038101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8811836242676</t>
+    <t xml:space="preserve">21.3038120269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8811855316162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8997421264648</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">21.9718761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6028251647949</t>
+    <t xml:space="preserve">22.6028232574463</t>
   </si>
   <si>
     <t xml:space="preserve">21.8419742584229</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">20.6543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7470932006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8398761749268</t>
+    <t xml:space="preserve">20.747091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8398780822754</t>
   </si>
   <si>
     <t xml:space="preserve">20.3017158508301</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">21.248140335083</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8027648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3223705291748</t>
+    <t xml:space="preserve">20.8027629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3223667144775</t>
   </si>
   <si>
     <t xml:space="preserve">20.5800762176514</t>
@@ -3422,19 +3422,19 @@
     <t xml:space="preserve">19.9862422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7656478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9697818756104</t>
+    <t xml:space="preserve">20.7656497955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9697799682617</t>
   </si>
   <si>
     <t xml:space="preserve">21.2110252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2295818328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3388328552246</t>
+    <t xml:space="preserve">21.2295837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.338830947876</t>
   </si>
   <si>
     <t xml:space="preserve">20.0604724884033</t>
@@ -3446,22 +3446,22 @@
     <t xml:space="preserve">20.2274856567383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7264404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9676856994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9141082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.431619644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9512233734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3059062957764</t>
+    <t xml:space="preserve">19.7264385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9676837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9141101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4316177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9512214660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.305908203125</t>
   </si>
   <si>
     <t xml:space="preserve">22.6770534515381</t>
@@ -3470,25 +3470,25 @@
     <t xml:space="preserve">22.1945648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3430233001709</t>
+    <t xml:space="preserve">22.3430213928223</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687931060791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1388912200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3801383972168</t>
+    <t xml:space="preserve">22.1388931274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3801364898682</t>
   </si>
   <si>
     <t xml:space="preserve">22.1574478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3265590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9203948974609</t>
+    <t xml:space="preserve">23.3265609741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9203968048096</t>
   </si>
   <si>
     <t xml:space="preserve">23.8647232055664</t>
@@ -3497,16 +3497,16 @@
     <t xml:space="preserve">24.532787322998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0317401885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1781024932861</t>
+    <t xml:space="preserve">24.03173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1781005859375</t>
   </si>
   <si>
     <t xml:space="preserve">23.0482006072998</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4379043579102</t>
+    <t xml:space="preserve">23.4379024505615</t>
   </si>
   <si>
     <t xml:space="preserve">23.5306911468506</t>
@@ -3521,10 +3521,10 @@
     <t xml:space="preserve">22.714168548584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9368572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4729251861572</t>
+    <t xml:space="preserve">22.9368553161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.47292137146</t>
   </si>
   <si>
     <t xml:space="preserve">23.623477935791</t>
@@ -3542,13 +3542,13 @@
     <t xml:space="preserve">22.8440704345703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7719383239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2194080352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9081268310547</t>
+    <t xml:space="preserve">23.771936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.219409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9081230163574</t>
   </si>
   <si>
     <t xml:space="preserve">26.6297664642334</t>
@@ -3560,16 +3560,16 @@
     <t xml:space="preserve">27.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5390739440918</t>
+    <t xml:space="preserve">27.5390758514404</t>
   </si>
   <si>
     <t xml:space="preserve">27.6504173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3184814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2071380615234</t>
+    <t xml:space="preserve">28.3184833526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2071361541748</t>
   </si>
   <si>
     <t xml:space="preserve">27.4277286529541</t>
@@ -3587,10 +3587,10 @@
     <t xml:space="preserve">27.0565814971924</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6483211517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0730476379395</t>
+    <t xml:space="preserve">26.648323059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0730438232422</t>
   </si>
   <si>
     <t xml:space="preserve">25.8689136505127</t>
@@ -3602,16 +3602,16 @@
     <t xml:space="preserve">26.6112079620361</t>
   </si>
   <si>
-    <t xml:space="preserve">26.536979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1472759246826</t>
+    <t xml:space="preserve">26.5369777679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.147274017334</t>
   </si>
   <si>
     <t xml:space="preserve">25.6462249755859</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0544872283936</t>
+    <t xml:space="preserve">26.0544891357422</t>
   </si>
   <si>
     <t xml:space="preserve">26.407075881958</t>
@@ -3626,16 +3626,16 @@
     <t xml:space="preserve">26.8153381347656</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4813060760498</t>
+    <t xml:space="preserve">26.4813079833984</t>
   </si>
   <si>
     <t xml:space="preserve">26.666877746582</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5905532836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8895664215088</t>
+    <t xml:space="preserve">25.59055519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8895683288574</t>
   </si>
   <si>
     <t xml:space="preserve">26.8710098266602</t>
@@ -3644,10 +3644,10 @@
     <t xml:space="preserve">26.9823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5926494598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6854381561279</t>
+    <t xml:space="preserve">26.5926475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6854362487793</t>
   </si>
   <si>
     <t xml:space="preserve">25.5719966888428</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">25.5163249969482</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7411079406738</t>
+    <t xml:space="preserve">26.7411098480225</t>
   </si>
   <si>
     <t xml:space="preserve">27.3535003662109</t>
@@ -3665,19 +3665,19 @@
     <t xml:space="preserve">27.6318607330322</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0793323516846</t>
+    <t xml:space="preserve">29.0793342590332</t>
   </si>
   <si>
     <t xml:space="preserve">30.638147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">31.139196395874</t>
+    <t xml:space="preserve">31.1391983032227</t>
   </si>
   <si>
     <t xml:space="preserve">29.7659549713135</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1864833831787</t>
+    <t xml:space="preserve">27.1864852905273</t>
   </si>
   <si>
     <t xml:space="preserve">27.0380249023438</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">27.5019569396973</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7803192138672</t>
+    <t xml:space="preserve">27.7803211212158</t>
   </si>
   <si>
     <t xml:space="preserve">26.945240020752</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">27.0937004089355</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3349418640137</t>
+    <t xml:space="preserve">27.3349437713623</t>
   </si>
   <si>
     <t xml:space="preserve">28.0586795806885</t>
@@ -3704,16 +3704,16 @@
     <t xml:space="preserve">27.7432041168213</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3720588684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5205173492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7782249450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4091720581055</t>
+    <t xml:space="preserve">27.3720569610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5205154418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7782230377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4091739654541</t>
   </si>
   <si>
     <t xml:space="preserve">27.9287796020508</t>
@@ -3734,16 +3734,16 @@
     <t xml:space="preserve">27.9658908843994</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5040531158447</t>
+    <t xml:space="preserve">28.5040550231934</t>
   </si>
   <si>
     <t xml:space="preserve">28.0772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8545475006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2050399780273</t>
+    <t xml:space="preserve">27.854549407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.205041885376</t>
   </si>
   <si>
     <t xml:space="preserve">27.9102210998535</t>
@@ -3761,10 +3761,10 @@
     <t xml:space="preserve">28.4483833312988</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2442531585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9473342895508</t>
+    <t xml:space="preserve">28.244255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9473361968994</t>
   </si>
   <si>
     <t xml:space="preserve">26.4441909790039</t>
@@ -3776,13 +3776,13 @@
     <t xml:space="preserve">26.3699626922607</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6647834777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7554740905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2358722686768</t>
+    <t xml:space="preserve">25.6647853851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7554759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2358703613281</t>
   </si>
   <si>
     <t xml:space="preserve">25.1080627441406</t>
@@ -3791,13 +3791,13 @@
     <t xml:space="preserve">24.4956722259521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8461685180664</t>
+    <t xml:space="preserve">23.8461666107178</t>
   </si>
   <si>
     <t xml:space="preserve">23.4750194549561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4007911682129</t>
+    <t xml:space="preserve">23.4007892608643</t>
   </si>
   <si>
     <t xml:space="preserve">24.1987552642822</t>
@@ -3812,13 +3812,13 @@
     <t xml:space="preserve">24.7740345001221</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3864250183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2379665374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0523929595947</t>
+    <t xml:space="preserve">25.3864231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.237964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0523910522461</t>
   </si>
   <si>
     <t xml:space="preserve">25.1266212463379</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">25.0152759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">25.070951461792</t>
+    <t xml:space="preserve">25.0709495544434</t>
   </si>
   <si>
     <t xml:space="preserve">24.9781627655029</t>
@@ -3848,28 +3848,28 @@
     <t xml:space="preserve">24.4028854370117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.439998626709</t>
+    <t xml:space="preserve">24.4400005340576</t>
   </si>
   <si>
     <t xml:space="preserve">24.0131816864014</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6605930328369</t>
+    <t xml:space="preserve">23.6605911254883</t>
   </si>
   <si>
     <t xml:space="preserve">23.2894458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9904346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9533176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0089912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1553516387939</t>
+    <t xml:space="preserve">21.9904327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9533195495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0089893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1553535461426</t>
   </si>
   <si>
     <t xml:space="preserve">20.8213214874268</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">21.5636138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4687309265137</t>
+    <t xml:space="preserve">20.4687328338623</t>
   </si>
   <si>
     <t xml:space="preserve">21.099681854248</t>
@@ -3899,7 +3899,7 @@
     <t xml:space="preserve">22.1203346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6584968566895</t>
+    <t xml:space="preserve">22.6584987640381</t>
   </si>
   <si>
     <t xml:space="preserve">22.6399402618408</t>
@@ -3917,7 +3917,7 @@
     <t xml:space="preserve">23.0667572021484</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4358081817627</t>
+    <t xml:space="preserve">22.4358100891113</t>
   </si>
   <si>
     <t xml:space="preserve">21.507942199707</t>
@@ -3929,37 +3929,37 @@
     <t xml:space="preserve">21.9347610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0419139862061</t>
+    <t xml:space="preserve">20.0419120788574</t>
   </si>
   <si>
     <t xml:space="preserve">20.190372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.006893157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5615196228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3945007324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9305686950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9326629638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3202724456787</t>
+    <t xml:space="preserve">21.0068950653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5615177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3945026397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.930570602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9326648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3202743530273</t>
   </si>
   <si>
     <t xml:space="preserve">20.6171894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8769950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4872894287109</t>
+    <t xml:space="preserve">20.8769931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4872875213623</t>
   </si>
   <si>
     <t xml:space="preserve">20.1347007751465</t>
@@ -3977,16 +3977,16 @@
     <t xml:space="preserve">18.2325744628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2232933044434</t>
+    <t xml:space="preserve">18.223295211792</t>
   </si>
   <si>
     <t xml:space="preserve">17.16552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4624462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.170615196228</t>
+    <t xml:space="preserve">17.4624443054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1706161499023</t>
   </si>
   <si>
     <t xml:space="preserve">15.319073677063</t>
@@ -3995,10 +3995,10 @@
     <t xml:space="preserve">16.3768405914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4582538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3304481506348</t>
+    <t xml:space="preserve">15.4582529067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3304500579834</t>
   </si>
   <si>
     <t xml:space="preserve">13.5468502044678</t>
@@ -4022,19 +4022,19 @@
     <t xml:space="preserve">14.3448143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3355360031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7437973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9129076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7458915710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1221265792847</t>
+    <t xml:space="preserve">14.3355350494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7437963485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9129085540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7458925247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.122127532959</t>
   </si>
   <si>
     <t xml:space="preserve">14.0757331848145</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">13.8994379043579</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4468784332275</t>
+    <t xml:space="preserve">14.4468793869019</t>
   </si>
   <si>
     <t xml:space="preserve">13.9458312988281</t>
@@ -4052,7 +4052,7 @@
     <t xml:space="preserve">13.6953077316284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8901596069336</t>
+    <t xml:space="preserve">13.8901605606079</t>
   </si>
   <si>
     <t xml:space="preserve">12.8787851333618</t>
@@ -4064,10 +4064,10 @@
     <t xml:space="preserve">13.4355049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.031436920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1334991455078</t>
+    <t xml:space="preserve">15.0314350128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1335000991821</t>
   </si>
   <si>
     <t xml:space="preserve">15.3933029174805</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">15.4304170608521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1242208480835</t>
+    <t xml:space="preserve">15.1242218017578</t>
   </si>
   <si>
     <t xml:space="preserve">15.3210411071777</t>
@@ -5223,6 +5223,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.3999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4099998474121</t>
   </si>
 </sst>
 </file>
@@ -62166,7 +62169,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6493865741</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>24988</v>
@@ -62187,6 +62190,32 @@
         <v>1736</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6495717593</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>48157</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>10.460000038147</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>10.2600002288818</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>10.460000038147</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>10.4099998474121</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1744">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3280191421509</t>
+    <t xml:space="preserve">13.3280172348022</t>
   </si>
   <si>
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528602600098</t>
+    <t xml:space="preserve">13.0528583526611</t>
   </si>
   <si>
     <t xml:space="preserve">12.8206930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4681463241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3133678436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.33056640625</t>
+    <t xml:space="preserve">12.4681453704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3133687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3305673599243</t>
   </si>
   <si>
     <t xml:space="preserve">12.21018409729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203758239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85413455963135</t>
+    <t xml:space="preserve">11.5480823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203767776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85413551330566</t>
   </si>
   <si>
     <t xml:space="preserve">10.4130506515503</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">9.90572738647461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5334339141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3528594970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8429880142212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8773813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7913951873779</t>
+    <t xml:space="preserve">10.5334329605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3528604507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8429870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8773822784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7913942337036</t>
   </si>
   <si>
     <t xml:space="preserve">10.6366176605225</t>
@@ -98,127 +98,127 @@
     <t xml:space="preserve">10.6968088150024</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2496767044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5162353515625</t>
+    <t xml:space="preserve">10.2496757507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5162343978882</t>
   </si>
   <si>
     <t xml:space="preserve">10.5506315231323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0777015686035</t>
+    <t xml:space="preserve">10.0777006149292</t>
   </si>
   <si>
     <t xml:space="preserve">9.08884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02865695953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45859336853027</t>
+    <t xml:space="preserve">9.02865886688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45859432220459</t>
   </si>
   <si>
     <t xml:space="preserve">9.20063209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48438930511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95731830596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71655464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4990377426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044532775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2582740783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.066554069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840709686279</t>
+    <t xml:space="preserve">9.48438835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95731925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71655559539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4990386962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044523239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2582750320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0665531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6108236312866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2840700149536</t>
   </si>
   <si>
     <t xml:space="preserve">10.2410764694214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1009492874146</t>
+    <t xml:space="preserve">11.1009483337402</t>
   </si>
   <si>
     <t xml:space="preserve">10.9719686508179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8748350143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.012414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757888793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8404397964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0382089614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6942596435547</t>
+    <t xml:space="preserve">11.8748340606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0124139785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1757879257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8404407501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0382080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.694260597229</t>
   </si>
   <si>
     <t xml:space="preserve">11.4362993240356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4448976516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7286567687988</t>
+    <t xml:space="preserve">11.4448986053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7286558151245</t>
   </si>
   <si>
     <t xml:space="preserve">11.9092302322388</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9866170883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8662347793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1155996322632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617778778076</t>
+    <t xml:space="preserve">11.9866161346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8662357330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1155986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617769241333</t>
   </si>
   <si>
     <t xml:space="preserve">12.2703762054443</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4079561233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2015857696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2359790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2875738143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9694204330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.634069442749</t>
+    <t xml:space="preserve">12.4079542160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201584815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2359800338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2875728607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9694185256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6340703964233</t>
   </si>
   <si>
     <t xml:space="preserve">11.3503122329712</t>
@@ -230,31 +230,31 @@
     <t xml:space="preserve">11.9522218704224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8834323883057</t>
+    <t xml:space="preserve">11.8834314346313</t>
   </si>
   <si>
     <t xml:space="preserve">11.7716493606567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6684646606445</t>
+    <t xml:space="preserve">11.6684637069702</t>
   </si>
   <si>
     <t xml:space="preserve">11.70285987854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5394840240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25572681427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1697397232056</t>
+    <t xml:space="preserve">11.5394830703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557258605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1697378158569</t>
   </si>
   <si>
     <t xml:space="preserve">11.178337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3847055435181</t>
+    <t xml:space="preserve">11.3847074508667</t>
   </si>
   <si>
     <t xml:space="preserve">11.4105033874512</t>
@@ -263,16 +263,16 @@
     <t xml:space="preserve">11.2213315963745</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1181468963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0493583679199</t>
+    <t xml:space="preserve">11.118145942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0493564605713</t>
   </si>
   <si>
     <t xml:space="preserve">11.2041330337524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6624135971069</t>
+    <t xml:space="preserve">10.6624145507812</t>
   </si>
   <si>
     <t xml:space="preserve">11.0166463851929</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">10.4941539764404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4144506454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2816143035889</t>
+    <t xml:space="preserve">10.4144515991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2816133499146</t>
   </si>
   <si>
     <t xml:space="preserve">10.3258924484253</t>
@@ -299,16 +299,16 @@
     <t xml:space="preserve">10.0602178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3613157272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3081817626953</t>
+    <t xml:space="preserve">10.3613166809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.308180809021</t>
   </si>
   <si>
     <t xml:space="preserve">10.6712703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4771490097046</t>
+    <t xml:space="preserve">11.4771499633789</t>
   </si>
   <si>
     <t xml:space="preserve">11.1937637329102</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">10.9812231063843</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3000326156616</t>
+    <t xml:space="preserve">11.3000335693359</t>
   </si>
   <si>
     <t xml:space="preserve">11.3443126678467</t>
@@ -329,19 +329,19 @@
     <t xml:space="preserve">10.8926658630371</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9015216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9900789260864</t>
+    <t xml:space="preserve">10.9015207290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9900798797607</t>
   </si>
   <si>
     <t xml:space="preserve">10.9723682403564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8749542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5738563537598</t>
+    <t xml:space="preserve">10.8749532699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5738554000854</t>
   </si>
   <si>
     <t xml:space="preserve">10.1222085952759</t>
@@ -350,37 +350,37 @@
     <t xml:space="preserve">10.0513620376587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0070838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7414083480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4055948257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118656158447</t>
+    <t xml:space="preserve">10.0070829391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74140739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956411361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561437606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4055967330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118646621704</t>
   </si>
   <si>
     <t xml:space="preserve">10.644702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93623733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.174635887146</t>
+    <t xml:space="preserve">9.93623638153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17463397979736</t>
   </si>
   <si>
     <t xml:space="preserve">9.73255157470703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62628269195557</t>
+    <t xml:space="preserve">9.62628173828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.98937129974365</t>
@@ -389,16 +389,16 @@
     <t xml:space="preserve">10.2461910247803</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0425062179565</t>
+    <t xml:space="preserve">10.0425071716309</t>
   </si>
   <si>
     <t xml:space="preserve">9.23662567138672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19234657287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77683162689209</t>
+    <t xml:space="preserve">9.19234752655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77683258056641</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">10.4410181045532</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3436059951782</t>
+    <t xml:space="preserve">10.3436040878296</t>
   </si>
   <si>
     <t xml:space="preserve">10.1930551528931</t>
@@ -416,19 +416,19 @@
     <t xml:space="preserve">10.2727584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2107677459717</t>
+    <t xml:space="preserve">10.210765838623</t>
   </si>
   <si>
     <t xml:space="preserve">10.7598276138306</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1406288146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0786371231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0963497161865</t>
+    <t xml:space="preserve">11.1406278610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0786390304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0963487625122</t>
   </si>
   <si>
     <t xml:space="preserve">11.0520696640015</t>
@@ -443,16 +443,16 @@
     <t xml:space="preserve">11.3177452087402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3797369003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7863960266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1140604019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.96351146698</t>
+    <t xml:space="preserve">11.379734992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.786395072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1140613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9635133743286</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
@@ -461,10 +461,10 @@
     <t xml:space="preserve">11.122917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2823209762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1849069595337</t>
+    <t xml:space="preserve">11.2823219299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.184907913208</t>
   </si>
   <si>
     <t xml:space="preserve">11.246898651123</t>
@@ -473,16 +473,16 @@
     <t xml:space="preserve">11.3266000747681</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5922765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8136711120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.840238571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7516803741455</t>
+    <t xml:space="preserve">11.5922756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8136720657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8402376174927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7516813278198</t>
   </si>
   <si>
     <t xml:space="preserve">11.8668060302734</t>
@@ -494,10 +494,10 @@
     <t xml:space="preserve">11.7339687347412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5125722885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3885908126831</t>
+    <t xml:space="preserve">11.5125732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3885917663574</t>
   </si>
   <si>
     <t xml:space="preserve">11.4328708648682</t>
@@ -506,19 +506,19 @@
     <t xml:space="preserve">11.2026195526123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7605361938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6808338165283</t>
+    <t xml:space="preserve">11.760537147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.680832862854</t>
   </si>
   <si>
     <t xml:space="preserve">11.8933744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1059131622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1236257553101</t>
+    <t xml:space="preserve">12.1059141159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1236238479614</t>
   </si>
   <si>
     <t xml:space="preserve">12.1324806213379</t>
@@ -527,49 +527,49 @@
     <t xml:space="preserve">12.5752716064453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6018390655518</t>
+    <t xml:space="preserve">12.6018400192261</t>
   </si>
   <si>
     <t xml:space="preserve">12.4778594970703</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3538770675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6726875305176</t>
+    <t xml:space="preserve">12.3538751602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6726865768433</t>
   </si>
   <si>
     <t xml:space="preserve">12.9914960861206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8852262496948</t>
+    <t xml:space="preserve">12.8852252960205</t>
   </si>
   <si>
     <t xml:space="preserve">12.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1066207885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4874219894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6556844711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5051326751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4527072906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3021583557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3375816345215</t>
+    <t xml:space="preserve">13.1066226959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4874229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6556825637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5051345825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4527082443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3021574020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3375825881958</t>
   </si>
   <si>
     <t xml:space="preserve">14.2135992050171</t>
@@ -578,25 +578,25 @@
     <t xml:space="preserve">14.2047452926636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1516094207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0010595321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8593664169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822500228882</t>
+    <t xml:space="preserve">14.1516084671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0010614395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8593654632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822509765625</t>
   </si>
   <si>
     <t xml:space="preserve">13.8416557312012</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9125022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8062324523926</t>
+    <t xml:space="preserve">13.9125003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8062314987183</t>
   </si>
   <si>
     <t xml:space="preserve">13.2748823165894</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">13.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2578802108765</t>
+    <t xml:space="preserve">14.2578792572021</t>
   </si>
   <si>
     <t xml:space="preserve">14.1781768798828</t>
@@ -629,40 +629,40 @@
     <t xml:space="preserve">14.8689317703247</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3914251327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3648567199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5773973464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862531661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534177780151</t>
+    <t xml:space="preserve">15.3914232254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3648586273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5773992538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5862550735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534158706665</t>
   </si>
   <si>
     <t xml:space="preserve">15.5331172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4268484115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.621675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545156478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6305332183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3294353485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8962078094482</t>
+    <t xml:space="preserve">15.4268465042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6216745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545146942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6305322647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3294334411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8962097167969</t>
   </si>
   <si>
     <t xml:space="preserve">16.2858619689941</t>
@@ -671,19 +671,19 @@
     <t xml:space="preserve">16.4629802703857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.560396194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6046752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1360206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9854774475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.251148223877</t>
+    <t xml:space="preserve">16.5603923797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6046733856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1360244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9854717254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2511501312256</t>
   </si>
   <si>
     <t xml:space="preserve">16.8703460693359</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">16.6489505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3301410675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6843738555908</t>
+    <t xml:space="preserve">16.3301429748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6843776702881</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666641235352</t>
+    <t xml:space="preserve">16.6666603088379</t>
   </si>
   <si>
     <t xml:space="preserve">17.0917415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7994995117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.976619720459</t>
+    <t xml:space="preserve">16.799503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9766159057617</t>
   </si>
   <si>
     <t xml:space="preserve">16.9500503540039</t>
@@ -719,58 +719,58 @@
     <t xml:space="preserve">17.1094551086426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3928394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2245826721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6312408447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1803016662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9589042663574</t>
+    <t xml:space="preserve">17.3928413391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2245788574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6312427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1802997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9589061737061</t>
   </si>
   <si>
     <t xml:space="preserve">17.3042831420898</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4459762573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7559280395508</t>
+    <t xml:space="preserve">17.4459743499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7559299468994</t>
   </si>
   <si>
     <t xml:space="preserve">17.6408042907715</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6053791046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8179187774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5522480010986</t>
+    <t xml:space="preserve">17.6053810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8179225921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5522441864014</t>
   </si>
   <si>
     <t xml:space="preserve">17.6585159301758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8444900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9419021606445</t>
+    <t xml:space="preserve">17.8444881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9419040679932</t>
   </si>
   <si>
     <t xml:space="preserve">17.6762256622314</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8437805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614921569824</t>
+    <t xml:space="preserve">16.8437824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614940643311</t>
   </si>
   <si>
     <t xml:space="preserve">17.0474662780762</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">17.2600040435791</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3751316070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7817878723145</t>
+    <t xml:space="preserve">17.3751335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7817897796631</t>
   </si>
   <si>
     <t xml:space="preserve">17.2068672180176</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9146308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308486938477</t>
+    <t xml:space="preserve">16.9146289825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308506011963</t>
   </si>
   <si>
     <t xml:space="preserve">17.3839855194092</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">17.4902572631836</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3485622406006</t>
+    <t xml:space="preserve">17.348560333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.5345344543457</t>
@@ -809,19 +809,19 @@
     <t xml:space="preserve">17.4725437164307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7470741271973</t>
+    <t xml:space="preserve">17.7470779418945</t>
   </si>
   <si>
     <t xml:space="preserve">18.0481719970703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.482816696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0495910644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5012340545654</t>
+    <t xml:space="preserve">19.4828147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0495891571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5012378692627</t>
   </si>
   <si>
     <t xml:space="preserve">20.7137756347656</t>
@@ -830,28 +830,28 @@
     <t xml:space="preserve">20.4569568634033</t>
   </si>
   <si>
-    <t xml:space="preserve">20.952880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1654205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7056274414062</t>
+    <t xml:space="preserve">20.9528846740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1654224395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7056312561035</t>
   </si>
   <si>
     <t xml:space="preserve">21.2097034454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4488086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7764720916748</t>
+    <t xml:space="preserve">21.4488105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7764759063721</t>
   </si>
   <si>
     <t xml:space="preserve">21.8738899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0421485900879</t>
+    <t xml:space="preserve">22.0421504974365</t>
   </si>
   <si>
     <t xml:space="preserve">21.9358825683594</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4140930175781</t>
+    <t xml:space="preserve">22.4140949249268</t>
   </si>
   <si>
     <t xml:space="preserve">22.3875274658203</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">22.4760837554932</t>
   </si>
   <si>
-    <t xml:space="preserve">22.449520111084</t>
+    <t xml:space="preserve">22.4495182037354</t>
   </si>
   <si>
     <t xml:space="preserve">22.3166809082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7594738006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5646419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.608922958374</t>
+    <t xml:space="preserve">22.7594699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5646438598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6089248657227</t>
   </si>
   <si>
     <t xml:space="preserve">22.7948951721191</t>
@@ -893,13 +893,13 @@
     <t xml:space="preserve">22.8037509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0251445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2288303375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9631538391113</t>
+    <t xml:space="preserve">23.025146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2288284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.96315574646</t>
   </si>
   <si>
     <t xml:space="preserve">22.5026531219482</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">23.326244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5210723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6450538635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0524215698242</t>
+    <t xml:space="preserve">23.5210742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.645055770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0524234771729</t>
   </si>
   <si>
     <t xml:space="preserve">24.3800888061523</t>
@@ -923,19 +923,19 @@
     <t xml:space="preserve">24.8494453430176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7963123321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0619850158691</t>
+    <t xml:space="preserve">24.7963104248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0619869232178</t>
   </si>
   <si>
     <t xml:space="preserve">25.2302474975586</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1062660217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0354194641113</t>
+    <t xml:space="preserve">25.1062679290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0354156494141</t>
   </si>
   <si>
     <t xml:space="preserve">26.5763339996338</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">27.8312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440608978271</t>
+    <t xml:space="preserve">28.8440589904785</t>
   </si>
   <si>
     <t xml:space="preserve">29.5342407226562</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">27.9656543731689</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6289386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1846694946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.659725189209</t>
+    <t xml:space="preserve">28.628942489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1846675872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6597232818604</t>
   </si>
   <si>
     <t xml:space="preserve">29.9375915527344</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0451507568359</t>
+    <t xml:space="preserve">30.0451488494873</t>
   </si>
   <si>
     <t xml:space="preserve">30.4753913879395</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">30.9504489898682</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4126453399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8428859710693</t>
+    <t xml:space="preserve">30.4126472473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8428897857666</t>
   </si>
   <si>
     <t xml:space="preserve">31.0042266845703</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">31.0759334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1924591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1745319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1117839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8249607086182</t>
+    <t xml:space="preserve">31.1924571990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1745300292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1117897033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8249588012695</t>
   </si>
   <si>
     <t xml:space="preserve">30.9235591888428</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">30.8608150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5252723693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6686897277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4804592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4446067810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3409385681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3050899505615</t>
+    <t xml:space="preserve">29.525276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6686859130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4804611206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.44460105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3409366607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3050880432129</t>
   </si>
   <si>
     <t xml:space="preserve">30.1706390380859</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">30.0989303588867</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2244205474854</t>
+    <t xml:space="preserve">30.2244186401367</t>
   </si>
   <si>
     <t xml:space="preserve">29.6507625579834</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">29.0771064758301</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2922286987305</t>
+    <t xml:space="preserve">29.2922267913818</t>
   </si>
   <si>
     <t xml:space="preserve">27.9298000335693</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">27.6429710388184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7326049804688</t>
+    <t xml:space="preserve">27.7326068878174</t>
   </si>
   <si>
     <t xml:space="preserve">28.279369354248</t>
@@ -1082,70 +1082,70 @@
     <t xml:space="preserve">27.8760185241699</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7365036010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7813167572021</t>
+    <t xml:space="preserve">28.7365016937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7813186645508</t>
   </si>
   <si>
     <t xml:space="preserve">28.6827201843262</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9516220092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9555149078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7045402526855</t>
+    <t xml:space="preserve">28.9516201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9555168151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7045440673828</t>
   </si>
   <si>
     <t xml:space="preserve">29.4983863830566</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3370418548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3997898101807</t>
+    <t xml:space="preserve">29.3370456695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.399787902832</t>
   </si>
   <si>
     <t xml:space="preserve">29.3101558685303</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4894237518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1308898925781</t>
+    <t xml:space="preserve">29.4894256591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1308879852295</t>
   </si>
   <si>
     <t xml:space="preserve">28.8709506988525</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1577739715576</t>
+    <t xml:space="preserve">29.1577758789062</t>
   </si>
   <si>
     <t xml:space="preserve">29.1129608154297</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7762508392334</t>
+    <t xml:space="preserve">29.7762489318848</t>
   </si>
   <si>
     <t xml:space="preserve">30.0272235870361</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5700931549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5790576934814</t>
+    <t xml:space="preserve">29.5700950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5790557861328</t>
   </si>
   <si>
     <t xml:space="preserve">28.9785118103027</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8569221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7852115631104</t>
+    <t xml:space="preserve">29.8569202423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.785213470459</t>
   </si>
   <si>
     <t xml:space="preserve">29.8479557037354</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">30.3140487670898</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0092945098877</t>
+    <t xml:space="preserve">30.0092964172363</t>
   </si>
   <si>
     <t xml:space="preserve">30.358865737915</t>
@@ -1172,28 +1172,28 @@
     <t xml:space="preserve">29.6059436798096</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5381355285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367321014404</t>
+    <t xml:space="preserve">30.5381336212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367301940918</t>
   </si>
   <si>
     <t xml:space="preserve">30.6456909179688</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4664287567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2692356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2333793640137</t>
+    <t xml:space="preserve">30.4664306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2692337036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.233377456665</t>
   </si>
   <si>
     <t xml:space="preserve">30.4036827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2680625915527</t>
+    <t xml:space="preserve">32.2680587768555</t>
   </si>
   <si>
     <t xml:space="preserve">31.6764793395996</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">32.1784286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9543476104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8736724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3666572570801</t>
+    <t xml:space="preserve">31.9543418884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8736763000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3666534423828</t>
   </si>
   <si>
     <t xml:space="preserve">32.2590980529785</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1336097717285</t>
+    <t xml:space="preserve">32.1336059570312</t>
   </si>
   <si>
     <t xml:space="preserve">32.4921455383301</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">33.3884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5856781005859</t>
+    <t xml:space="preserve">33.5856742858887</t>
   </si>
   <si>
     <t xml:space="preserve">34.9570655822754</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">34.8943214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9301795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7778015136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4192695617676</t>
+    <t xml:space="preserve">34.93017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7777976989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4192657470703</t>
   </si>
   <si>
     <t xml:space="preserve">34.6343841552734</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">34.8584671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5716438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0607299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0428009033203</t>
+    <t xml:space="preserve">34.5716400146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.060733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0428047180176</t>
   </si>
   <si>
     <t xml:space="preserve">34.3385963439941</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">34.3117027282715</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6164588928223</t>
+    <t xml:space="preserve">34.616455078125</t>
   </si>
   <si>
     <t xml:space="preserve">34.9749946594238</t>
@@ -1292,19 +1292,19 @@
     <t xml:space="preserve">34.8136520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4999351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3027420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0299491882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2848167419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.306640625</t>
+    <t xml:space="preserve">34.4999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3027381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0299453735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2848129272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3066329956055</t>
   </si>
   <si>
     <t xml:space="preserve">36.4539451599121</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3912048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7049179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6281433105469</t>
+    <t xml:space="preserve">36.3912010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7049217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6281471252441</t>
   </si>
   <si>
     <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.142951965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8381996154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8023414611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4886283874512</t>
+    <t xml:space="preserve">39.1429481506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8381958007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8023452758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4886207580566</t>
   </si>
   <si>
     <t xml:space="preserve">38.6499633789062</t>
@@ -1346,25 +1346,25 @@
     <t xml:space="preserve">39.0264282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.022533416748</t>
+    <t xml:space="preserve">38.0225296020508</t>
   </si>
   <si>
     <t xml:space="preserve">38.5692939758301</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2735023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5872230529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5603370666504</t>
+    <t xml:space="preserve">38.2735061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5872268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5603332519531</t>
   </si>
   <si>
     <t xml:space="preserve">38.7396011352539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7844200134277</t>
+    <t xml:space="preserve">38.7844161987305</t>
   </si>
   <si>
     <t xml:space="preserve">38.829231262207</t>
@@ -1373,10 +1373,10 @@
     <t xml:space="preserve">38.9099044799805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.954719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6628227233887</t>
+    <t xml:space="preserve">38.9547157287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6628303527832</t>
   </si>
   <si>
     <t xml:space="preserve">39.3042869567871</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">39.277400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5463027954102</t>
+    <t xml:space="preserve">39.5462989807129</t>
   </si>
   <si>
     <t xml:space="preserve">38.7754516601562</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5961837768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.914966583252</t>
+    <t xml:space="preserve">38.5961875915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9149703979492</t>
   </si>
   <si>
     <t xml:space="preserve">36.8214416503906</t>
@@ -1406,25 +1406,25 @@
     <t xml:space="preserve">37.8970413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6858215332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2353019714355</t>
+    <t xml:space="preserve">38.6858177185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2353057861328</t>
   </si>
   <si>
     <t xml:space="preserve">42.8985939025879</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0599403381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6655464172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2711601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249397277832</t>
+    <t xml:space="preserve">43.0599327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6655426025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2711639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249359130859</t>
   </si>
   <si>
     <t xml:space="preserve">42.1636009216309</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">41.8588447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0022621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3787155151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.930549621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7692108154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0201835632324</t>
+    <t xml:space="preserve">42.002254486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.378719329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9305534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7692070007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0201873779297</t>
   </si>
   <si>
     <t xml:space="preserve">41.5899467468262</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">41.0521430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">40.586051940918</t>
+    <t xml:space="preserve">40.5860481262207</t>
   </si>
   <si>
     <t xml:space="preserve">40.8190956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0303268432617</t>
+    <t xml:space="preserve">40.0303230285645</t>
   </si>
   <si>
     <t xml:space="preserve">39.3670349121094</t>
@@ -1472,37 +1472,37 @@
     <t xml:space="preserve">43.0240783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7154312133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.900936126709</t>
+    <t xml:space="preserve">41.7154350280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9009399414062</t>
   </si>
   <si>
     <t xml:space="preserve">37.7894821166992</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5026626586914</t>
+    <t xml:space="preserve">37.5026550292969</t>
   </si>
   <si>
     <t xml:space="preserve">39.8151969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4247093200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.335075378418</t>
+    <t xml:space="preserve">40.4247055053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3350791931152</t>
   </si>
   <si>
     <t xml:space="preserve">40.8011703491211</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0342178344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1776275634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3748207092285</t>
+    <t xml:space="preserve">41.0342140197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1776313781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3748245239258</t>
   </si>
   <si>
     <t xml:space="preserve">41.2314109802246</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">40.747386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">41.195556640625</t>
+    <t xml:space="preserve">41.1955528259277</t>
   </si>
   <si>
     <t xml:space="preserve">39.4745979309082</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">40.4426345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6219024658203</t>
+    <t xml:space="preserve">40.6219062805176</t>
   </si>
   <si>
     <t xml:space="preserve">41.6257972717285</t>
@@ -1535,31 +1535,31 @@
     <t xml:space="preserve">44.7988243103027</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1534614562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4890060424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1355400085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2201042175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2957038879395</t>
+    <t xml:space="preserve">44.1534652709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4889984130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1355323791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.220100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2957077026367</t>
   </si>
   <si>
     <t xml:space="preserve">47.5953903198242</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2060661315918</t>
+    <t xml:space="preserve">46.2060699462891</t>
   </si>
   <si>
     <t xml:space="preserve">45.8475379943848</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9512023925781</t>
+    <t xml:space="preserve">44.9511985778809</t>
   </si>
   <si>
     <t xml:space="preserve">44.2610244750977</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">44.099681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2033462524414</t>
+    <t xml:space="preserve">43.2033500671387</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975059509277</t>
@@ -1577,10 +1577,10 @@
     <t xml:space="preserve">41.4106788635254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3927536010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2493362426758</t>
+    <t xml:space="preserve">41.392749786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.249340057373</t>
   </si>
   <si>
     <t xml:space="preserve">39.9944686889648</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">40.9804382324219</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0123901367188</t>
+    <t xml:space="preserve">40.0123977661133</t>
   </si>
   <si>
     <t xml:space="preserve">40.7832450866699</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">39.9586143493652</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5283737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4784927368164</t>
+    <t xml:space="preserve">39.5283699035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4784889221191</t>
   </si>
   <si>
     <t xml:space="preserve">40.137882232666</t>
@@ -1613,55 +1613,55 @@
     <t xml:space="preserve">39.6538619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2594680786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.629695892334</t>
+    <t xml:space="preserve">39.2594718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6296920776367</t>
   </si>
   <si>
     <t xml:space="preserve">41.2851943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1728477478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2489585876465</t>
+    <t xml:space="preserve">42.1728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2489624023438</t>
   </si>
   <si>
     <t xml:space="preserve">40.9410018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8685302734375</t>
+    <t xml:space="preserve">40.8685340881348</t>
   </si>
   <si>
     <t xml:space="preserve">40.7598457336426</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0714569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9519386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6983222961426</t>
+    <t xml:space="preserve">40.0714530944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9519462585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6983261108398</t>
   </si>
   <si>
     <t xml:space="preserve">36.5389366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2635498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6838607788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8106689453125</t>
+    <t xml:space="preserve">37.2635536193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6838569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8106651306152</t>
   </si>
   <si>
     <t xml:space="preserve">36.2128562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8686561584473</t>
+    <t xml:space="preserve">35.8686599731445</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606956481934</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">33.6042251586914</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8578453063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0752296447754</t>
+    <t xml:space="preserve">33.8578414916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0752258300781</t>
   </si>
   <si>
     <t xml:space="preserve">34.673038482666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8904228210449</t>
+    <t xml:space="preserve">34.8904304504395</t>
   </si>
   <si>
     <t xml:space="preserve">35.3433151245117</t>
@@ -1691,52 +1691,52 @@
     <t xml:space="preserve">34.9266586303711</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7455024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1839256286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.020881652832</t>
+    <t xml:space="preserve">34.7454986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1839218139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0208854675293</t>
   </si>
   <si>
     <t xml:space="preserve">34.6368103027344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3251953125</t>
+    <t xml:space="preserve">35.3251991271973</t>
   </si>
   <si>
     <t xml:space="preserve">33.6948051452637</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5897598266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5716400146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6477489471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.955717086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7057476043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.65505027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1079387664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4014320373535</t>
+    <t xml:space="preserve">32.5897560119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5716438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6477565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9557132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7057514190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6550521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1079406738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4014339447021</t>
   </si>
   <si>
     <t xml:space="preserve">30.3253231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3833160400391</t>
+    <t xml:space="preserve">29.3833179473877</t>
   </si>
   <si>
     <t xml:space="preserve">29.5825881958008</t>
@@ -1745,25 +1745,25 @@
     <t xml:space="preserve">27.9884243011475</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2927398681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7093944549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7782096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4303684234619</t>
+    <t xml:space="preserve">29.2927417755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7093963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7782115936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4303722381592</t>
   </si>
   <si>
     <t xml:space="preserve">29.8180885314941</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1260528564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2890892028809</t>
+    <t xml:space="preserve">30.1260509490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2890911102295</t>
   </si>
   <si>
     <t xml:space="preserve">30.5789394378662</t>
@@ -1775,25 +1775,25 @@
     <t xml:space="preserve">31.8289070129395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2636795043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2854404449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5390644073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1586360931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9194889068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7926769256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0137119293213</t>
+    <t xml:space="preserve">32.2636756896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2854442596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5390605926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1586399078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9194869995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7926750183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0137138366699</t>
   </si>
   <si>
     <t xml:space="preserve">30.089822769165</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">30.0717086791992</t>
   </si>
   <si>
-    <t xml:space="preserve">29.83620262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2565097808838</t>
+    <t xml:space="preserve">29.8362045288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2565078735352</t>
   </si>
   <si>
     <t xml:space="preserve">28.8941993713379</t>
@@ -1814,16 +1814,16 @@
     <t xml:space="preserve">28.2601585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7529239654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7928047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4304943084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1949920654297</t>
+    <t xml:space="preserve">27.7529220581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7928028106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4304962158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1949939727783</t>
   </si>
   <si>
     <t xml:space="preserve">26.6659965515137</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">27.3906135559082</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2094593048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2638072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1732292175293</t>
+    <t xml:space="preserve">27.2094612121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2638053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1732273101807</t>
   </si>
   <si>
     <t xml:space="preserve">26.901496887207</t>
@@ -1847,40 +1847,40 @@
     <t xml:space="preserve">27.6261157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0790042877197</t>
+    <t xml:space="preserve">28.0790023803711</t>
   </si>
   <si>
     <t xml:space="preserve">27.7348079681396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0971183776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0065422058105</t>
+    <t xml:space="preserve">28.0971202850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0065402984619</t>
   </si>
   <si>
     <t xml:space="preserve">27.9521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">28.205810546875</t>
+    <t xml:space="preserve">28.2058124542236</t>
   </si>
   <si>
     <t xml:space="preserve">28.1695823669434</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9340782165527</t>
+    <t xml:space="preserve">27.93408203125</t>
   </si>
   <si>
     <t xml:space="preserve">28.767391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7130451202393</t>
+    <t xml:space="preserve">28.7130470275879</t>
   </si>
   <si>
     <t xml:space="preserve">29.3470897674561</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3289737701416</t>
+    <t xml:space="preserve">29.328971862793</t>
   </si>
   <si>
     <t xml:space="preserve">28.8036212921143</t>
@@ -1892,10 +1892,10 @@
     <t xml:space="preserve">27.8253860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6079998016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7166919708252</t>
+    <t xml:space="preserve">27.6080017089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7166957855225</t>
   </si>
   <si>
     <t xml:space="preserve">25.9051456451416</t>
@@ -1907,34 +1907,34 @@
     <t xml:space="preserve">21.8653907775879</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8472766876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.916088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5501308441162</t>
+    <t xml:space="preserve">21.8472747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9160900115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5501289367676</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6950550079346</t>
+    <t xml:space="preserve">23.6950569152832</t>
   </si>
   <si>
     <t xml:space="preserve">23.3689765930176</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5682468414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6443557739258</t>
+    <t xml:space="preserve">23.5682487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6443576812744</t>
   </si>
   <si>
     <t xml:space="preserve">21.8291606903076</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9415016174316</t>
+    <t xml:space="preserve">20.9415035247803</t>
   </si>
   <si>
     <t xml:space="preserve">21.4849643707275</t>
@@ -1949,61 +1949,61 @@
     <t xml:space="preserve">21.7204685211182</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8364543914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4234504699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3872184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6553039550781</t>
+    <t xml:space="preserve">19.8364562988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4234485626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3872165679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6553020477295</t>
   </si>
   <si>
     <t xml:space="preserve">18.9850273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4959106445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.111837387085</t>
+    <t xml:space="preserve">18.4959125518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1118354797363</t>
   </si>
   <si>
     <t xml:space="preserve">18.1064281463623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2368850708008</t>
+    <t xml:space="preserve">17.2368869781494</t>
   </si>
   <si>
     <t xml:space="preserve">17.2097110748291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3636951446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7568244934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2948799133301</t>
+    <t xml:space="preserve">17.3636932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7568264007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2948780059814</t>
   </si>
   <si>
     <t xml:space="preserve">16.0412616729736</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8057632446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7695322036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7061243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2495918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7024765014648</t>
+    <t xml:space="preserve">15.805760383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7695302963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7061262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2495899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7024784088135</t>
   </si>
   <si>
     <t xml:space="preserve">16.4941501617432</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">16.5847263336182</t>
   </si>
   <si>
-    <t xml:space="preserve">18.043025970459</t>
+    <t xml:space="preserve">18.0430240631104</t>
   </si>
   <si>
     <t xml:space="preserve">18.9306831359863</t>
@@ -2027,37 +2027,37 @@
     <t xml:space="preserve">17.7622356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8926906585693</t>
+    <t xml:space="preserve">16.8926887512207</t>
   </si>
   <si>
     <t xml:space="preserve">16.1046676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9959735870361</t>
+    <t xml:space="preserve">15.9959726333618</t>
   </si>
   <si>
     <t xml:space="preserve">16.3582820892334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2858200073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8148193359375</t>
+    <t xml:space="preserve">16.2858219146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8148183822632</t>
   </si>
   <si>
     <t xml:space="preserve">15.4887399673462</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1354875564575</t>
+    <t xml:space="preserve">15.1354885101318</t>
   </si>
   <si>
     <t xml:space="preserve">14.8365821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6789531707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2351226806641</t>
+    <t xml:space="preserve">15.6789522171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2351245880127</t>
   </si>
   <si>
     <t xml:space="preserve">15.5521450042725</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">17.8890438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2604084014893</t>
+    <t xml:space="preserve">18.2604103088379</t>
   </si>
   <si>
     <t xml:space="preserve">17.7441177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4905014038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1154842376709</t>
+    <t xml:space="preserve">17.49049949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1154861450195</t>
   </si>
   <si>
     <t xml:space="preserve">18.1517181396484</t>
@@ -2087,25 +2087,25 @@
     <t xml:space="preserve">18.3328723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1336002349854</t>
+    <t xml:space="preserve">18.133602142334</t>
   </si>
   <si>
     <t xml:space="preserve">18.0249080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5539073944092</t>
+    <t xml:space="preserve">17.5539054870605</t>
   </si>
   <si>
     <t xml:space="preserve">18.7857570648193</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9125652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7314147949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4415626525879</t>
+    <t xml:space="preserve">18.9125671386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7314128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4415664672852</t>
   </si>
   <si>
     <t xml:space="preserve">19.0574913024902</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">17.4542713165283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8256397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4053344726562</t>
+    <t xml:space="preserve">17.8256378173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4053325653076</t>
   </si>
   <si>
     <t xml:space="preserve">18.7132968902588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5103778839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.782112121582</t>
+    <t xml:space="preserve">19.5103797912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7821102142334</t>
   </si>
   <si>
     <t xml:space="preserve">20.3618049621582</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">20.1806526184082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0357284545898</t>
+    <t xml:space="preserve">20.0357265472412</t>
   </si>
   <si>
     <t xml:space="preserve">19.528491973877</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">17.8437538146973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8981018066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6082515716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5176753997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9470348358154</t>
+    <t xml:space="preserve">17.898099899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6082534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5176773071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9470367431641</t>
   </si>
   <si>
     <t xml:space="preserve">17.0829048156738</t>
@@ -2189,25 +2189,25 @@
     <t xml:space="preserve">17.1463069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0376148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4452114105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3727512359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3818092346191</t>
+    <t xml:space="preserve">17.0376129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4452152252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3727493286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4814434051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3818073272705</t>
   </si>
   <si>
     <t xml:space="preserve">18.2785243988037</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0792560577393</t>
+    <t xml:space="preserve">18.079252243042</t>
   </si>
   <si>
     <t xml:space="preserve">17.7169456481934</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">18.2422943115234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0158519744873</t>
+    <t xml:space="preserve">18.0158500671387</t>
   </si>
   <si>
     <t xml:space="preserve">17.7984638214111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2966423034668</t>
+    <t xml:space="preserve">18.2966384887695</t>
   </si>
   <si>
     <t xml:space="preserve">18.0520820617676</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">17.336519241333</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2278270721436</t>
+    <t xml:space="preserve">17.2278289794922</t>
   </si>
   <si>
     <t xml:space="preserve">17.7803478240967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.070198059082</t>
+    <t xml:space="preserve">18.0701961517334</t>
   </si>
   <si>
     <t xml:space="preserve">18.1879463195801</t>
@@ -2252,13 +2252,13 @@
     <t xml:space="preserve">17.9705619812012</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6173114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7078876495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6897735595703</t>
+    <t xml:space="preserve">17.6173095703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7078857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6897716522217</t>
   </si>
   <si>
     <t xml:space="preserve">17.8709259033203</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">18.7429008483887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3418235778809</t>
+    <t xml:space="preserve">17.3418216705322</t>
   </si>
   <si>
     <t xml:space="preserve">16.7572650909424</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">14.7066822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8808813095093</t>
+    <t xml:space="preserve">13.880880355835</t>
   </si>
   <si>
     <t xml:space="preserve">14.0200605392456</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">13.3891124725342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9736671447754</t>
+    <t xml:space="preserve">13.9736680984497</t>
   </si>
   <si>
     <t xml:space="preserve">13.9179954528809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5561265945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0272445678711</t>
+    <t xml:space="preserve">13.5561275482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0272436141968</t>
   </si>
   <si>
     <t xml:space="preserve">13.1478672027588</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">13.1757020950317</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2128171920776</t>
+    <t xml:space="preserve">13.2128162384033</t>
   </si>
   <si>
     <t xml:space="preserve">14.001503944397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7788152694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5582237243652</t>
+    <t xml:space="preserve">13.7788162231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5582227706909</t>
   </si>
   <si>
     <t xml:space="preserve">14.5025510787964</t>
@@ -2348,37 +2348,37 @@
     <t xml:space="preserve">13.9087162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8716020584106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7695369720459</t>
+    <t xml:space="preserve">13.8716011047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7695379257202</t>
   </si>
   <si>
     <t xml:space="preserve">14.5953378677368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.261305809021</t>
+    <t xml:space="preserve">14.2613067626953</t>
   </si>
   <si>
     <t xml:space="preserve">11.1622323989868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8189210891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2065296173096</t>
+    <t xml:space="preserve">10.8189220428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2065305709839</t>
   </si>
   <si>
     <t xml:space="preserve">10.2714805603027</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4663324356079</t>
+    <t xml:space="preserve">10.4663314819336</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756116867065</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6519060134888</t>
+    <t xml:space="preserve">10.6519050598145</t>
   </si>
   <si>
     <t xml:space="preserve">10.9209871292114</t>
@@ -2387,37 +2387,37 @@
     <t xml:space="preserve">10.9859380722046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5405616760254</t>
+    <t xml:space="preserve">10.5405607223511</t>
   </si>
   <si>
     <t xml:space="preserve">10.7446928024292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5962333679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3549880981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4292182922363</t>
+    <t xml:space="preserve">10.5962343215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3549890518188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.429217338562</t>
   </si>
   <si>
     <t xml:space="preserve">10.1044654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2343664169312</t>
+    <t xml:space="preserve">10.2343654632568</t>
   </si>
   <si>
     <t xml:space="preserve">9.96528434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71476173400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58485984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1508588790894</t>
+    <t xml:space="preserve">9.71476078033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58485889434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.150857925415</t>
   </si>
   <si>
     <t xml:space="preserve">10.549840927124</t>
@@ -2450,19 +2450,19 @@
     <t xml:space="preserve">10.1137428283691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1786937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5570240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34361457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63125228881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26474571228027</t>
+    <t xml:space="preserve">10.1786947250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55702495574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34361362457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63125324249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26474666595459</t>
   </si>
   <si>
     <t xml:space="preserve">9.45495796203613</t>
@@ -2483,37 +2483,37 @@
     <t xml:space="preserve">9.03741836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93071365356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59413909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29722213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33433532714844</t>
+    <t xml:space="preserve">8.93071460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59413814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29722118377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33433628082275</t>
   </si>
   <si>
     <t xml:space="preserve">9.16732025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93744850158691</t>
+    <t xml:space="preserve">9.93744945526123</t>
   </si>
   <si>
     <t xml:space="preserve">10.0302362442017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.048791885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2993173599243</t>
+    <t xml:space="preserve">10.0487928390503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.29931640625</t>
   </si>
   <si>
     <t xml:space="preserve">10.4941692352295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1415796279907</t>
+    <t xml:space="preserve">10.141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">10.1601362228394</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">9.72403907775879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57558155059814</t>
+    <t xml:space="preserve">9.57558059692383</t>
   </si>
   <si>
     <t xml:space="preserve">9.85394096374512</t>
@@ -2534,10 +2534,10 @@
     <t xml:space="preserve">9.62197399139404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3157787322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44567966461182</t>
+    <t xml:space="preserve">9.31577777862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44568061828613</t>
   </si>
   <si>
     <t xml:space="preserve">9.70548248291016</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">9.87249851226807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74259662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.039514541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80754661560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54774475097656</t>
+    <t xml:space="preserve">9.74259757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0395135879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8075475692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54774379730225</t>
   </si>
   <si>
     <t xml:space="preserve">10.3364315032959</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">10.1230220794678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6426267623901</t>
+    <t xml:space="preserve">10.6426277160645</t>
   </si>
   <si>
     <t xml:space="preserve">10.7910861968994</t>
@@ -2582,16 +2582,16 @@
     <t xml:space="preserve">10.568398475647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4106616973877</t>
+    <t xml:space="preserve">10.4106607437134</t>
   </si>
   <si>
     <t xml:space="preserve">11.4962644577026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003955841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3035087585449</t>
+    <t xml:space="preserve">11.7003946304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3035078048706</t>
   </si>
   <si>
     <t xml:space="preserve">12.0622625350952</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">12.2107210159302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2571153640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0344276428223</t>
+    <t xml:space="preserve">12.2571144104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0344266891479</t>
   </si>
   <si>
     <t xml:space="preserve">12.0251483917236</t>
@@ -2627,13 +2627,13 @@
     <t xml:space="preserve">12.136492729187</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5261964797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3334398269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.324161529541</t>
+    <t xml:space="preserve">12.526195526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.333438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3241605758667</t>
   </si>
   <si>
     <t xml:space="preserve">13.1571455001831</t>
@@ -2642,25 +2642,25 @@
     <t xml:space="preserve">13.6767501831055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.481897354126</t>
+    <t xml:space="preserve">13.4818983078003</t>
   </si>
   <si>
     <t xml:space="preserve">13.2777681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8344879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7880945205688</t>
+    <t xml:space="preserve">13.8344869613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7880935668945</t>
   </si>
   <si>
     <t xml:space="preserve">13.853045463562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4169473648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7973718643188</t>
+    <t xml:space="preserve">13.4169483184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7973728179932</t>
   </si>
   <si>
     <t xml:space="preserve">13.8066520690918</t>
@@ -2669,16 +2669,16 @@
     <t xml:space="preserve">14.0942897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2149114608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2056350708008</t>
+    <t xml:space="preserve">14.2149124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2056341171265</t>
   </si>
   <si>
     <t xml:space="preserve">14.0293397903442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7417020797729</t>
+    <t xml:space="preserve">13.7417011260986</t>
   </si>
   <si>
     <t xml:space="preserve">13.7602586746216</t>
@@ -2687,13 +2687,13 @@
     <t xml:space="preserve">14.5396661758423</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1963548660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9272737503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1314039230347</t>
+    <t xml:space="preserve">14.1963558197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9272747039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.131404876709</t>
   </si>
   <si>
     <t xml:space="preserve">14.112847328186</t>
@@ -2705,28 +2705,28 @@
     <t xml:space="preserve">15.7366132736206</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8201217651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1840858459473</t>
+    <t xml:space="preserve">15.8201198577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1840839385986</t>
   </si>
   <si>
     <t xml:space="preserve">16.8871688842773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9613971710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8407726287842</t>
+    <t xml:space="preserve">16.9613990783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8407745361328</t>
   </si>
   <si>
     <t xml:space="preserve">16.915002822876</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2005462646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0892009735107</t>
+    <t xml:space="preserve">16.2005481719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0892028808594</t>
   </si>
   <si>
     <t xml:space="preserve">16.0242519378662</t>
@@ -2735,16 +2735,16 @@
     <t xml:space="preserve">15.5603199005127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7623538970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.400486946106</t>
+    <t xml:space="preserve">14.762354850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4004859924316</t>
   </si>
   <si>
     <t xml:space="preserve">14.9293699264526</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3840246200562</t>
+    <t xml:space="preserve">15.3840255737305</t>
   </si>
   <si>
     <t xml:space="preserve">15.2912378311157</t>
@@ -2759,16 +2759,16 @@
     <t xml:space="preserve">15.2355651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3376321792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.068549156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2448444366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1613368988037</t>
+    <t xml:space="preserve">15.3376312255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0685501098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2448434829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1613359451294</t>
   </si>
   <si>
     <t xml:space="preserve">14.1870775222778</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">12.0437049865723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6540021896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3663635253906</t>
+    <t xml:space="preserve">11.6540012359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3663625717163</t>
   </si>
   <si>
     <t xml:space="preserve">10.6611843109131</t>
@@ -2804,40 +2804,40 @@
     <t xml:space="preserve">8.02140522003174</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93789720535278</t>
+    <t xml:space="preserve">7.93789768218994</t>
   </si>
   <si>
     <t xml:space="preserve">6.58785104751587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97755479812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9450798034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02394866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94971942901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0517840385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51571846008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10027313232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90751838684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39000701904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06525421142578</t>
+    <t xml:space="preserve">6.97755527496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94508028030396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02394819259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94971895217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05178451538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51571798324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10027408599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9075174331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39000797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0652551651001</t>
   </si>
   <si>
     <t xml:space="preserve">8.44358444213867</t>
@@ -2852,19 +2852,19 @@
     <t xml:space="preserve">8.30440425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1652250289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79407739639282</t>
+    <t xml:space="preserve">8.16522407531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79407691955566</t>
   </si>
   <si>
     <t xml:space="preserve">7.97501182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83119201660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15594482421875</t>
+    <t xml:space="preserve">7.8311915397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15594577789307</t>
   </si>
   <si>
     <t xml:space="preserve">7.88686418533325</t>
@@ -2876,16 +2876,16 @@
     <t xml:space="preserve">7.33014440536499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30230808258057</t>
+    <t xml:space="preserve">7.30230855941772</t>
   </si>
   <si>
     <t xml:space="preserve">7.36725902557373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37653779983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15384960174561</t>
+    <t xml:space="preserve">7.37653684616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15385007858276</t>
   </si>
   <si>
     <t xml:space="preserve">7.59922504425049</t>
@@ -2894,37 +2894,37 @@
     <t xml:space="preserve">7.8219141960144</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97965049743652</t>
+    <t xml:space="preserve">7.979651927948</t>
   </si>
   <si>
     <t xml:space="preserve">7.64561891555786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38117694854736</t>
+    <t xml:space="preserve">7.38117742538452</t>
   </si>
   <si>
     <t xml:space="preserve">7.56211042404175</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34870195388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18632459640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14457082748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20024347305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10745573043823</t>
+    <t xml:space="preserve">7.34870147705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18632507324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14457035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20024299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10745620727539</t>
   </si>
   <si>
     <t xml:space="preserve">6.9682765007019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60850381851196</t>
+    <t xml:space="preserve">7.60850429534912</t>
   </si>
   <si>
     <t xml:space="preserve">7.58530759811401</t>
@@ -2933,28 +2933,28 @@
     <t xml:space="preserve">7.48788118362427</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3115873336792</t>
+    <t xml:space="preserve">7.31158685684204</t>
   </si>
   <si>
     <t xml:space="preserve">7.76624155044556</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51781272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71730518341064</t>
+    <t xml:space="preserve">8.51781463623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71730422973633</t>
   </si>
   <si>
     <t xml:space="preserve">8.9539098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59204292297363</t>
+    <t xml:space="preserve">8.59204196929932</t>
   </si>
   <si>
     <t xml:space="preserve">8.74050140380859</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92607498168945</t>
+    <t xml:space="preserve">8.92607402801514</t>
   </si>
   <si>
     <t xml:space="preserve">9.38072872161865</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">11.0694456100464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5519351959229</t>
+    <t xml:space="preserve">11.5519371032715</t>
   </si>
   <si>
     <t xml:space="preserve">11.5612154006958</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">11.0044946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88177680969238</t>
+    <t xml:space="preserve">9.88177585601807</t>
   </si>
   <si>
     <t xml:space="preserve">9.79826927185059</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">10.5220050811768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2529239654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0766286849976</t>
+    <t xml:space="preserve">10.2529230117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0766277313232</t>
   </si>
   <si>
     <t xml:space="preserve">9.94672775268555</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4384965896606</t>
+    <t xml:space="preserve">10.438497543335</t>
   </si>
   <si>
     <t xml:space="preserve">10.4199380874634</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">10.7354135513306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6055135726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282012939453</t>
+    <t xml:space="preserve">10.6055126190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.828200340271</t>
   </si>
   <si>
     <t xml:space="preserve">12.0900983810425</t>
@@ -3023,22 +3023,22 @@
     <t xml:space="preserve">11.6818380355835</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8766899108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.885968208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7746229171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7282304763794</t>
+    <t xml:space="preserve">11.8766889572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8859691619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7746238708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7282314300537</t>
   </si>
   <si>
     <t xml:space="preserve">11.6354446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4127569198608</t>
+    <t xml:space="preserve">11.4127559661865</t>
   </si>
   <si>
     <t xml:space="preserve">11.338526725769</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">12.0715417861938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3870162963867</t>
+    <t xml:space="preserve">12.387017250061</t>
   </si>
   <si>
     <t xml:space="preserve">12.8973426818848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7767200469971</t>
+    <t xml:space="preserve">12.7767210006714</t>
   </si>
   <si>
     <t xml:space="preserve">13.1293087005615</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">13.472620010376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3612747192383</t>
+    <t xml:space="preserve">13.3612756729126</t>
   </si>
   <si>
     <t xml:space="preserve">13.5190124511719</t>
@@ -3077,25 +3077,25 @@
     <t xml:space="preserve">13.203537940979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3056039810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0829153060913</t>
+    <t xml:space="preserve">13.3056049346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0829162597656</t>
   </si>
   <si>
     <t xml:space="preserve">13.2684898376465</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6210775375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4262266159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6489143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4447841644287</t>
+    <t xml:space="preserve">13.6210784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4262275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6489152908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4447832107544</t>
   </si>
   <si>
     <t xml:space="preserve">13.222095489502</t>
@@ -3107,10 +3107,10 @@
     <t xml:space="preserve">13.1849813461304</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2406530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3427181243896</t>
+    <t xml:space="preserve">13.2406539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.342719078064</t>
   </si>
   <si>
     <t xml:space="preserve">13.3519973754883</t>
@@ -3119,43 +3119,43 @@
     <t xml:space="preserve">13.1200304031372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2499322891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4076690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4633417129517</t>
+    <t xml:space="preserve">13.2499313354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4076681137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4633407592773</t>
   </si>
   <si>
     <t xml:space="preserve">12.5818681716919</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4519672393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7024908065796</t>
+    <t xml:space="preserve">12.4519662857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7024898529053</t>
   </si>
   <si>
     <t xml:space="preserve">12.4055728912354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8602266311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5839643478394</t>
+    <t xml:space="preserve">12.8602275848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.583963394165</t>
   </si>
   <si>
     <t xml:space="preserve">13.5097351074219</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5282917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3561878204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6623840332031</t>
+    <t xml:space="preserve">13.5282907485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3561868667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6623830795288</t>
   </si>
   <si>
     <t xml:space="preserve">15.9221858978271</t>
@@ -3167,28 +3167,28 @@
     <t xml:space="preserve">15.448974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5510416030884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8458614349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6046161651611</t>
+    <t xml:space="preserve">15.5510406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8458623886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6046171188354</t>
   </si>
   <si>
     <t xml:space="preserve">14.6788463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7994680404663</t>
+    <t xml:space="preserve">14.7994689941406</t>
   </si>
   <si>
     <t xml:space="preserve">14.4376010894775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.992223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.732421875</t>
+    <t xml:space="preserve">13.9922246932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7324228286743</t>
   </si>
   <si>
     <t xml:space="preserve">14.5860595703125</t>
@@ -3203,10 +3203,10 @@
     <t xml:space="preserve">15.2726802825928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7644481658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5046453475952</t>
+    <t xml:space="preserve">15.7644500732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5046472549438</t>
   </si>
   <si>
     <t xml:space="preserve">15.1891736984253</t>
@@ -3218,40 +3218,40 @@
     <t xml:space="preserve">15.4768104553223</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8665151596069</t>
+    <t xml:space="preserve">15.8665170669556</t>
   </si>
   <si>
     <t xml:space="preserve">15.6716623306274</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2469387054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9036302566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9314661026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0149745941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2098236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9407453536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9685792922974</t>
+    <t xml:space="preserve">16.246940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9036293029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9314641952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0149726867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2098255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9407434463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9685802459717</t>
   </si>
   <si>
     <t xml:space="preserve">15.4396953582764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7273349761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5232038497925</t>
+    <t xml:space="preserve">15.7273368835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5232048034668</t>
   </si>
   <si>
     <t xml:space="preserve">15.6809415817261</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">16.0428104400635</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1912689208984</t>
+    <t xml:space="preserve">16.1912670135498</t>
   </si>
   <si>
     <t xml:space="preserve">16.1634311676025</t>
@@ -3275,19 +3275,19 @@
     <t xml:space="preserve">17.4902820587158</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5645122528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2119216918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3603782653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6387386322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5459518432617</t>
+    <t xml:space="preserve">17.564510345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2119197845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3603801727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6387405395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5459537506104</t>
   </si>
   <si>
     <t xml:space="preserve">17.666576385498</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">17.7222499847412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6480178833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1397876739502</t>
+    <t xml:space="preserve">17.6480197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1397857666016</t>
   </si>
   <si>
     <t xml:space="preserve">18.5202121734619</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">18.872802734375</t>
   </si>
   <si>
-    <t xml:space="preserve">20.097583770752</t>
+    <t xml:space="preserve">20.0975856781006</t>
   </si>
   <si>
     <t xml:space="preserve">19.540864944458</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">19.5594234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8356876373291</t>
+    <t xml:space="preserve">18.8356857299805</t>
   </si>
   <si>
     <t xml:space="preserve">19.3552932739258</t>
@@ -3332,19 +3332,19 @@
     <t xml:space="preserve">19.4480781555176</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3738479614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6501140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6686706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3068027496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5758838653564</t>
+    <t xml:space="preserve">19.3738498687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6501159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6686725616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3068046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5758857727051</t>
   </si>
   <si>
     <t xml:space="preserve">18.074836730957</t>
@@ -3356,7 +3356,7 @@
     <t xml:space="preserve">19.392406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.079029083252</t>
+    <t xml:space="preserve">20.0790271759033</t>
   </si>
   <si>
     <t xml:space="preserve">20.7285346984863</t>
@@ -3371,13 +3371,13 @@
     <t xml:space="preserve">21.3409271240234</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4337139129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3038120269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8811836242676</t>
+    <t xml:space="preserve">21.4337120056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3038101196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8811855316162</t>
   </si>
   <si>
     <t xml:space="preserve">22.8997421264648</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">21.9718761444092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6028270721436</t>
+    <t xml:space="preserve">22.6028251647949</t>
   </si>
   <si>
     <t xml:space="preserve">21.8419742584229</t>
@@ -3398,19 +3398,19 @@
     <t xml:space="preserve">20.6543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7470932006836</t>
+    <t xml:space="preserve">20.747091293335</t>
   </si>
   <si>
     <t xml:space="preserve">20.8398761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3017177581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2481384277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8027629852295</t>
+    <t xml:space="preserve">20.3017158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.248140335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8027648925781</t>
   </si>
   <si>
     <t xml:space="preserve">21.3223686218262</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">20.5800762176514</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9862442016602</t>
+    <t xml:space="preserve">19.9862422943115</t>
   </si>
   <si>
     <t xml:space="preserve">20.7656478881836</t>
@@ -3428,13 +3428,13 @@
     <t xml:space="preserve">20.9697799682617</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2110271453857</t>
+    <t xml:space="preserve">21.2110252380371</t>
   </si>
   <si>
     <t xml:space="preserve">21.2295818328857</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3388328552246</t>
+    <t xml:space="preserve">20.338830947876</t>
   </si>
   <si>
     <t xml:space="preserve">20.0604724884033</t>
@@ -3449,13 +3449,13 @@
     <t xml:space="preserve">19.7264404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9676837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9141101837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.431619644165</t>
+    <t xml:space="preserve">19.9676856994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9141082763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4316177368164</t>
   </si>
   <si>
     <t xml:space="preserve">20.9512233734131</t>
@@ -3467,10 +3467,10 @@
     <t xml:space="preserve">22.6770534515381</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1945629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3430233001709</t>
+    <t xml:space="preserve">22.1945648193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3430213928223</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687931060791</t>
@@ -3479,19 +3479,19 @@
     <t xml:space="preserve">22.1388912200928</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3801383972168</t>
+    <t xml:space="preserve">22.3801364898682</t>
   </si>
   <si>
     <t xml:space="preserve">22.1574478149414</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3265590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9203968048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8647212982178</t>
+    <t xml:space="preserve">23.3265609741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9203948974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8647232055664</t>
   </si>
   <si>
     <t xml:space="preserve">24.532787322998</t>
@@ -3500,16 +3500,16 @@
     <t xml:space="preserve">24.0317401885986</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1781024932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0482025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4379062652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5306930541992</t>
+    <t xml:space="preserve">23.1781005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0482006072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4379043579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5306911468506</t>
   </si>
   <si>
     <t xml:space="preserve">23.7162647247314</t>
@@ -3518,16 +3518,16 @@
     <t xml:space="preserve">23.2708892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7141666412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9368553161621</t>
+    <t xml:space="preserve">22.714168548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9368572235107</t>
   </si>
   <si>
     <t xml:space="preserve">22.4729232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6234760284424</t>
+    <t xml:space="preserve">23.623477935791</t>
   </si>
   <si>
     <t xml:space="preserve">23.883279800415</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">23.363676071167</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8440704345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.771936416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.219409942627</t>
+    <t xml:space="preserve">22.8440685272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7719383239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2194080352783</t>
   </si>
   <si>
     <t xml:space="preserve">26.9081249237061</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">26.6297664642334</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1308135986328</t>
+    <t xml:space="preserve">27.1308116912842</t>
   </si>
   <si>
     <t xml:space="preserve">27.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5390739440918</t>
+    <t xml:space="preserve">27.5390758514404</t>
   </si>
   <si>
     <t xml:space="preserve">27.6504173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3184833526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2071361541748</t>
+    <t xml:space="preserve">28.3184814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2071380615234</t>
   </si>
   <si>
     <t xml:space="preserve">27.4277286529541</t>
@@ -3578,16 +3578,16 @@
     <t xml:space="preserve">27.724645614624</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5576305389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2607135772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.056583404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.648323059082</t>
+    <t xml:space="preserve">27.5576324462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2607116699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0565814971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6483211517334</t>
   </si>
   <si>
     <t xml:space="preserve">26.0730457305908</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">26.7967796325684</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6112079620361</t>
+    <t xml:space="preserve">26.6112098693848</t>
   </si>
   <si>
     <t xml:space="preserve">26.536979675293</t>
@@ -3611,7 +3611,7 @@
     <t xml:space="preserve">25.6462249755859</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0544891357422</t>
+    <t xml:space="preserve">26.0544872283936</t>
   </si>
   <si>
     <t xml:space="preserve">26.407075881958</t>
@@ -3623,19 +3623,19 @@
     <t xml:space="preserve">26.1101589202881</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8153381347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4813060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6668796539307</t>
+    <t xml:space="preserve">26.815336227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4813079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.666877746582</t>
   </si>
   <si>
     <t xml:space="preserve">25.5905532836914</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8895683288574</t>
+    <t xml:space="preserve">26.8895664215088</t>
   </si>
   <si>
     <t xml:space="preserve">26.8710098266602</t>
@@ -3644,10 +3644,10 @@
     <t xml:space="preserve">26.9823532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5926494598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6854362487793</t>
+    <t xml:space="preserve">26.5926475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6854381561279</t>
   </si>
   <si>
     <t xml:space="preserve">25.5719966888428</t>
@@ -3668,31 +3668,31 @@
     <t xml:space="preserve">29.0793323516846</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6381492614746</t>
+    <t xml:space="preserve">30.638147354126</t>
   </si>
   <si>
     <t xml:space="preserve">31.139196395874</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7659549713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1864833831787</t>
+    <t xml:space="preserve">29.7659568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1864852905273</t>
   </si>
   <si>
     <t xml:space="preserve">27.0380249023438</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5019588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7803192138672</t>
+    <t xml:space="preserve">27.5019569396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7803211212158</t>
   </si>
   <si>
     <t xml:space="preserve">26.945240020752</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0937004089355</t>
+    <t xml:space="preserve">27.0936985015869</t>
   </si>
   <si>
     <t xml:space="preserve">27.3349418640137</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">28.0586795806885</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7432041168213</t>
+    <t xml:space="preserve">27.7432022094727</t>
   </si>
   <si>
     <t xml:space="preserve">27.3906154632568</t>
@@ -3716,13 +3716,13 @@
     <t xml:space="preserve">26.7782249450684</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4091739654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9287796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.46484375</t>
+    <t xml:space="preserve">27.4091720581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9287776947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4648456573486</t>
   </si>
   <si>
     <t xml:space="preserve">28.114351272583</t>
@@ -3734,31 +3734,31 @@
     <t xml:space="preserve">28.1885795593262</t>
   </si>
   <si>
-    <t xml:space="preserve">27.965892791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5040550231934</t>
+    <t xml:space="preserve">27.9658908843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5040531158447</t>
   </si>
   <si>
     <t xml:space="preserve">28.0772361755371</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8545475006104</t>
+    <t xml:space="preserve">27.854549407959</t>
   </si>
   <si>
     <t xml:space="preserve">27.205041885376</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9102191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.984447479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1329078674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4669399261475</t>
+    <t xml:space="preserve">27.9102210998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9844493865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1329097747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4669418334961</t>
   </si>
   <si>
     <t xml:space="preserve">28.4483833312988</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">28.2442531585693</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9473342895508</t>
+    <t xml:space="preserve">27.9473361968994</t>
   </si>
   <si>
     <t xml:space="preserve">26.4441909790039</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">26.3699626922607</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6647853851318</t>
+    <t xml:space="preserve">25.6647834777832</t>
   </si>
   <si>
     <t xml:space="preserve">24.7554740905762</t>
@@ -3788,10 +3788,10 @@
     <t xml:space="preserve">24.2358703613281</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1080627441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4956703186035</t>
+    <t xml:space="preserve">25.1080646514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4956722259521</t>
   </si>
   <si>
     <t xml:space="preserve">23.8461666107178</t>
@@ -3800,28 +3800,28 @@
     <t xml:space="preserve">23.4750194549561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4007911682129</t>
+    <t xml:space="preserve">23.4007892608643</t>
   </si>
   <si>
     <t xml:space="preserve">24.1987552642822</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3472137451172</t>
+    <t xml:space="preserve">24.3472118377686</t>
   </si>
   <si>
     <t xml:space="preserve">24.8853759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7740325927734</t>
+    <t xml:space="preserve">24.7740345001221</t>
   </si>
   <si>
     <t xml:space="preserve">25.3864250183105</t>
   </si>
   <si>
-    <t xml:space="preserve">25.237964630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0523929595947</t>
+    <t xml:space="preserve">25.2379665374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0523910522461</t>
   </si>
   <si>
     <t xml:space="preserve">25.1266212463379</t>
@@ -3830,22 +3830,22 @@
     <t xml:space="preserve">24.9596061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3307495117188</t>
+    <t xml:space="preserve">25.3307514190674</t>
   </si>
   <si>
     <t xml:space="preserve">24.8111457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6833400726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0152759552002</t>
+    <t xml:space="preserve">25.6833419799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0152778625488</t>
   </si>
   <si>
     <t xml:space="preserve">25.0709495544434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9781608581543</t>
+    <t xml:space="preserve">24.9781627655029</t>
   </si>
   <si>
     <t xml:space="preserve">24.4028854370117</t>
@@ -3854,19 +3854,19 @@
     <t xml:space="preserve">24.4400005340576</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0131816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6605930328369</t>
+    <t xml:space="preserve">24.0131797790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6605911254883</t>
   </si>
   <si>
     <t xml:space="preserve">23.2894458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9904346466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9533176422119</t>
+    <t xml:space="preserve">21.9904327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9533195495605</t>
   </si>
   <si>
     <t xml:space="preserve">22.0089893341064</t>
@@ -3875,16 +3875,16 @@
     <t xml:space="preserve">21.1553516387939</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8213233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8605308532715</t>
+    <t xml:space="preserve">20.8213214874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8605327606201</t>
   </si>
   <si>
     <t xml:space="preserve">21.5821723937988</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6564025878906</t>
+    <t xml:space="preserve">21.656400680542</t>
   </si>
   <si>
     <t xml:space="preserve">22.7883987426758</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">21.5636138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4687328338623</t>
+    <t xml:space="preserve">20.4687309265137</t>
   </si>
   <si>
     <t xml:space="preserve">21.099681854248</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">20.0419139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">20.190372467041</t>
+    <t xml:space="preserve">20.1903743743896</t>
   </si>
   <si>
     <t xml:space="preserve">21.006893157959</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">19.9305686950684</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9326648712158</t>
+    <t xml:space="preserve">20.9326629638672</t>
   </si>
   <si>
     <t xml:space="preserve">20.3202724456787</t>
@@ -3959,82 +3959,82 @@
     <t xml:space="preserve">20.6171894073486</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8769931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4872875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1346988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0954895019531</t>
+    <t xml:space="preserve">20.8769950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4872894287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1347007751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0954875946045</t>
   </si>
   <si>
     <t xml:space="preserve">18.6129989624023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7779178619385</t>
+    <t xml:space="preserve">17.7779197692871</t>
   </si>
   <si>
     <t xml:space="preserve">18.2325744628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2232933044434</t>
+    <t xml:space="preserve">18.223295211792</t>
   </si>
   <si>
     <t xml:space="preserve">17.16552734375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4624462127686</t>
+    <t xml:space="preserve">17.4624443054199</t>
   </si>
   <si>
     <t xml:space="preserve">15.170615196228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3190746307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3768424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4582538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3304500579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5468502044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2984209060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1406841278076</t>
+    <t xml:space="preserve">15.319073677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3768405914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4582529067993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3304481506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5468492507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2984218597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1406831741333</t>
   </si>
   <si>
     <t xml:space="preserve">14.4190435409546</t>
   </si>
   <si>
-    <t xml:space="preserve">14.771632194519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9015340805054</t>
+    <t xml:space="preserve">14.7716331481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9015331268311</t>
   </si>
   <si>
     <t xml:space="preserve">14.3448143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3355360031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7437973022461</t>
+    <t xml:space="preserve">14.3355350494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7437963485718</t>
   </si>
   <si>
     <t xml:space="preserve">15.9129076004028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7458925247192</t>
+    <t xml:space="preserve">15.7458915710449</t>
   </si>
   <si>
     <t xml:space="preserve">14.1221265792847</t>
@@ -4043,22 +4043,22 @@
     <t xml:space="preserve">14.0757331848145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8994388580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4468793869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9458322525024</t>
+    <t xml:space="preserve">13.8994379043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4468784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9458312988281</t>
   </si>
   <si>
     <t xml:space="preserve">13.6953077316284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8901596069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8787860870361</t>
+    <t xml:space="preserve">13.8901605606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8787851333618</t>
   </si>
   <si>
     <t xml:space="preserve">12.7859983444214</t>
@@ -4067,28 +4067,28 @@
     <t xml:space="preserve">13.4355049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">15.031436920166</t>
+    <t xml:space="preserve">15.0314359664917</t>
   </si>
   <si>
     <t xml:space="preserve">15.1335000991821</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3933029174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4304180145264</t>
+    <t xml:space="preserve">15.3933038711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4304170608521</t>
   </si>
   <si>
     <t xml:space="preserve">15.1242208480835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3210420608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0219535827637</t>
+    <t xml:space="preserve">15.3210411071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579359054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0219526290894</t>
   </si>
   <si>
     <t xml:space="preserve">15.4368171691895</t>
@@ -4097,28 +4097,28 @@
     <t xml:space="preserve">15.5622406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0735874176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6297788619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8034420013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8709783554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1218242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9481639862061</t>
+    <t xml:space="preserve">16.0735855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6297779083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8034410476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.870979309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.121826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9481620788574</t>
   </si>
   <si>
     <t xml:space="preserve">15.7359056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4078731536865</t>
+    <t xml:space="preserve">15.4078741073608</t>
   </si>
   <si>
     <t xml:space="preserve">14.6360330581665</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">13.2177743911743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0923509597778</t>
+    <t xml:space="preserve">13.0923500061035</t>
   </si>
   <si>
     <t xml:space="preserve">13.1405906677246</t>
@@ -4157,10 +4157,10 @@
     <t xml:space="preserve">12.8222064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9186868667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.667839050293</t>
+    <t xml:space="preserve">12.9186878204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6678380966187</t>
   </si>
   <si>
     <t xml:space="preserve">12.195086479187</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">12.7932624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7546701431274</t>
+    <t xml:space="preserve">12.7546710968018</t>
   </si>
   <si>
     <t xml:space="preserve">12.2722702026367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.966926574707</t>
+    <t xml:space="preserve">12.9669256210327</t>
   </si>
   <si>
     <t xml:space="preserve">13.2467184066772</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">12.5038223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8511505126953</t>
+    <t xml:space="preserve">12.851149559021</t>
   </si>
   <si>
     <t xml:space="preserve">13.3817911148071</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">13.3914394378662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5520620346069</t>
+    <t xml:space="preserve">12.5520629882812</t>
   </si>
   <si>
     <t xml:space="preserve">12.6774873733521</t>
@@ -4244,7 +4244,7 @@
     <t xml:space="preserve">12.4652299880981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3205099105835</t>
+    <t xml:space="preserve">12.3205108642578</t>
   </si>
   <si>
     <t xml:space="preserve">11.9345893859863</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">12.0793104171753</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2240304946899</t>
+    <t xml:space="preserve">12.2240295410156</t>
   </si>
   <si>
     <t xml:space="preserve">12.2915658950806</t>
@@ -4262,25 +4262,25 @@
     <t xml:space="preserve">12.3783979415894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1854381561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2529735565186</t>
+    <t xml:space="preserve">12.1854372024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2529745101929</t>
   </si>
   <si>
     <t xml:space="preserve">11.9152936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.233678817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5583171844482</t>
+    <t xml:space="preserve">12.2336778640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5583162307739</t>
   </si>
   <si>
     <t xml:space="preserve">11.5293731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3943014144897</t>
+    <t xml:space="preserve">11.3943004608154</t>
   </si>
   <si>
     <t xml:space="preserve">11.7319812774658</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">11.3364133834839</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9987316131592</t>
+    <t xml:space="preserve">10.9987325668335</t>
   </si>
   <si>
     <t xml:space="preserve">11.0083799362183</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">11.7223329544067</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6355018615723</t>
+    <t xml:space="preserve">11.6355009078979</t>
   </si>
   <si>
     <t xml:space="preserve">11.645149230957</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">11.9635334014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.789870262146</t>
+    <t xml:space="preserve">11.7898693084717</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125581741333</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">12.156494140625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3301572799683</t>
+    <t xml:space="preserve">12.3301582336426</t>
   </si>
   <si>
     <t xml:space="preserve">12.2626218795776</t>
@@ -4403,7 +4403,7 @@
     <t xml:space="preserve">12.63889503479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012142181396</t>
+    <t xml:space="preserve">12.3012132644653</t>
   </si>
   <si>
     <t xml:space="preserve">12.1757898330688</t>
@@ -4421,34 +4421,34 @@
     <t xml:space="preserve">12.3976945877075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3880453109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5327663421631</t>
+    <t xml:space="preserve">12.3880462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5327653884888</t>
   </si>
   <si>
     <t xml:space="preserve">12.0600137710571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9924783706665</t>
+    <t xml:space="preserve">11.9924774169922</t>
   </si>
   <si>
     <t xml:space="preserve">12.1082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1275491714478</t>
+    <t xml:space="preserve">12.1275501251221</t>
   </si>
   <si>
     <t xml:space="preserve">12.5713577270508</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8993911743164</t>
+    <t xml:space="preserve">12.8993902206421</t>
   </si>
   <si>
     <t xml:space="preserve">13.1598873138428</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8255996704102</t>
+    <t xml:space="preserve">13.8255987167358</t>
   </si>
   <si>
     <t xml:space="preserve">13.9124317169189</t>
@@ -4469,16 +4469,16 @@
     <t xml:space="preserve">14.2983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.31764793396</t>
+    <t xml:space="preserve">14.3176488876343</t>
   </si>
   <si>
     <t xml:space="preserve">13.8641910552979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8931350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2211685180664</t>
+    <t xml:space="preserve">13.8931360244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2211675643921</t>
   </si>
   <si>
     <t xml:space="preserve">14.2790565490723</t>
@@ -4496,13 +4496,13 @@
     <t xml:space="preserve">14.2501125335693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.800048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0316019058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5202560424805</t>
+    <t xml:space="preserve">14.8000497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0316009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5202569961548</t>
   </si>
   <si>
     <t xml:space="preserve">14.4720163345337</t>
@@ -4511,22 +4511,22 @@
     <t xml:space="preserve">14.394832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5299043655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4141283035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.433424949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6553287506104</t>
+    <t xml:space="preserve">14.5299053192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4141273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4334239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.655327796936</t>
   </si>
   <si>
     <t xml:space="preserve">14.6070890426636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6842727661133</t>
+    <t xml:space="preserve">14.6842737197876</t>
   </si>
   <si>
     <t xml:space="preserve">14.4430732727051</t>
@@ -4535,7 +4535,7 @@
     <t xml:space="preserve">16.1797142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9192190170288</t>
+    <t xml:space="preserve">15.9192180633545</t>
   </si>
   <si>
     <t xml:space="preserve">16.3437309265137</t>
@@ -4544,10 +4544,10 @@
     <t xml:space="preserve">16.4305629730225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8164844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4209136962891</t>
+    <t xml:space="preserve">16.8164825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4209156036377</t>
   </si>
   <si>
     <t xml:space="preserve">16.2954902648926</t>
@@ -4556,10 +4556,10 @@
     <t xml:space="preserve">16.3244342803955</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2376041412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1121788024902</t>
+    <t xml:space="preserve">16.2376022338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1121807098389</t>
   </si>
   <si>
     <t xml:space="preserve">15.4464654922485</t>
@@ -4586,22 +4586,22 @@
     <t xml:space="preserve">14.1246881484985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0185594558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1343355178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0860958099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4686231613159</t>
+    <t xml:space="preserve">14.0185604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1343364715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0860967636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4686241149902</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194719314575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6326398849487</t>
+    <t xml:space="preserve">13.6326389312744</t>
   </si>
   <si>
     <t xml:space="preserve">13.5361595153809</t>
@@ -4616,7 +4616,7 @@
     <t xml:space="preserve">13.5072154998779</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4300308227539</t>
+    <t xml:space="preserve">13.4300317764282</t>
   </si>
   <si>
     <t xml:space="preserve">13.2949590682983</t>
@@ -4631,7 +4631,7 @@
     <t xml:space="preserve">13.0441112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3335514068604</t>
+    <t xml:space="preserve">13.333550453186</t>
   </si>
   <si>
     <t xml:space="preserve">13.1019992828369</t>
@@ -5241,6 +5241,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72999954223633</t>
   </si>
 </sst>
 </file>
@@ -62288,7 +62291,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6493402778</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>52663</v>
@@ -62297,7 +62300,7 @@
         <v>10.0299997329712</v>
       </c>
       <c r="D2182" t="n">
-        <v>9.89000034332275</v>
+        <v>9.875</v>
       </c>
       <c r="E2182" t="n">
         <v>9.97999954223633</v>
@@ -62309,6 +62312,32 @@
         <v>1742</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6494212963</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>48597</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>10.1199998855591</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>9.76000022888184</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>10.1199998855591</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>9.72999954223633</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3280172348022</t>
+    <t xml:space="preserve">13.3280181884766</t>
   </si>
   <si>
     <t xml:space="preserve">BSS.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">13.0528583526611</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8206930160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4681453704834</t>
+    <t xml:space="preserve">12.8206939697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4681463241577</t>
   </si>
   <si>
     <t xml:space="preserve">12.3133687973022</t>
@@ -59,37 +59,37 @@
     <t xml:space="preserve">12.3305673599243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.21018409729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85413551330566</t>
+    <t xml:space="preserve">12.2101831436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480833053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85413455963135</t>
   </si>
   <si>
     <t xml:space="preserve">10.4130506515503</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90572738647461</t>
+    <t xml:space="preserve">9.90572643280029</t>
   </si>
   <si>
     <t xml:space="preserve">10.5334329605103</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3528604507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8429870605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8773822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7913942337036</t>
+    <t xml:space="preserve">10.3528594970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8429880142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8773832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7913951873779</t>
   </si>
   <si>
     <t xml:space="preserve">10.6366176605225</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">10.2496757507324</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5162343978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5506315231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0777006149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08884811401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02865886688232</t>
+    <t xml:space="preserve">10.5162363052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.550630569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0777015686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08884906768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02865791320801</t>
   </si>
   <si>
     <t xml:space="preserve">9.45859432220459</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">9.20063209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48438835144043</t>
+    <t xml:space="preserve">9.48438930511475</t>
   </si>
   <si>
     <t xml:space="preserve">9.95731925964355</t>
@@ -134,70 +134,70 @@
     <t xml:space="preserve">10.4990386962891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4044523239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2582750320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0665531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6108236312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840700149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2410764694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1009483337402</t>
+    <t xml:space="preserve">10.4044532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2582740783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0665521621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.610821723938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2840709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1009502410889</t>
   </si>
   <si>
     <t xml:space="preserve">10.9719686508179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8748340606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0124139785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1757879257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8404407501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0382080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.694260597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4362993240356</t>
+    <t xml:space="preserve">11.8748350143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0124130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1757898330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8404397964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0382099151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6942615509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4362983703613</t>
   </si>
   <si>
     <t xml:space="preserve">11.4448986053467</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7286558151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9866161346436</t>
+    <t xml:space="preserve">11.7286567687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092292785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9866180419922</t>
   </si>
   <si>
     <t xml:space="preserve">11.8662357330322</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1155986785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617769241333</t>
+    <t xml:space="preserve">12.1155996322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.261775970459</t>
   </si>
   <si>
     <t xml:space="preserve">12.2703762054443</t>
@@ -221,25 +221,25 @@
     <t xml:space="preserve">11.6340703964233</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3503122329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9522218704224</t>
+    <t xml:space="preserve">11.3503131866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8060445785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9522228240967</t>
   </si>
   <si>
     <t xml:space="preserve">11.8834314346313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7716493606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6684637069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.70285987854</t>
+    <t xml:space="preserve">11.7716484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6684646606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028579711914</t>
   </si>
   <si>
     <t xml:space="preserve">11.5394830703735</t>
@@ -248,19 +248,19 @@
     <t xml:space="preserve">11.2557258605957</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1697378158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.178337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3847074508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4105033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2213315963745</t>
+    <t xml:space="preserve">11.1697397232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1783361434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3847064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4105043411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2213306427002</t>
   </si>
   <si>
     <t xml:space="preserve">11.118145942688</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">11.0493564605713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2041330337524</t>
+    <t xml:space="preserve">11.2041339874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.6624145507812</t>
@@ -278,13 +278,13 @@
     <t xml:space="preserve">11.0166463851929</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4941539764404</t>
+    <t xml:space="preserve">10.4941530227661</t>
   </si>
   <si>
     <t xml:space="preserve">10.4144515991211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2816133499146</t>
+    <t xml:space="preserve">10.2816123962402</t>
   </si>
   <si>
     <t xml:space="preserve">10.3258924484253</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">10.3790283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0602178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3613166809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.308180809021</t>
+    <t xml:space="preserve">10.0602169036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3613157272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3081817626953</t>
   </si>
   <si>
     <t xml:space="preserve">10.6712703704834</t>
@@ -314,19 +314,19 @@
     <t xml:space="preserve">11.1937637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9812231063843</t>
+    <t xml:space="preserve">10.9812240600586</t>
   </si>
   <si>
     <t xml:space="preserve">11.3000335693359</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3443126678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0697822570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8926658630371</t>
+    <t xml:space="preserve">11.344313621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0697813034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8926649093628</t>
   </si>
   <si>
     <t xml:space="preserve">10.9015207290649</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">10.9723682403564</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8749532699585</t>
+    <t xml:space="preserve">10.8749542236328</t>
   </si>
   <si>
     <t xml:space="preserve">10.5738554000854</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">10.0070829391479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956411361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561437606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4055967330933</t>
+    <t xml:space="preserve">9.7414083480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956401824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4055948257446</t>
   </si>
   <si>
     <t xml:space="preserve">10.5118646621704</t>
@@ -377,28 +377,28 @@
     <t xml:space="preserve">9.17463397979736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73255157470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62628173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98937129974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461910247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0425071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23662567138672</t>
+    <t xml:space="preserve">9.73255062103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62628269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98937034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0425062179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23662662506104</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77683258056641</t>
+    <t xml:space="preserve">9.77683067321777</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
@@ -410,16 +410,16 @@
     <t xml:space="preserve">10.3436040878296</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1930551528931</t>
+    <t xml:space="preserve">10.1930561065674</t>
   </si>
   <si>
     <t xml:space="preserve">10.2727584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.210765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7598276138306</t>
+    <t xml:space="preserve">10.2107667922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7598285675049</t>
   </si>
   <si>
     <t xml:space="preserve">11.1406278610229</t>
@@ -428,10 +428,10 @@
     <t xml:space="preserve">11.0786390304565</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0963487625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0520696640015</t>
+    <t xml:space="preserve">11.0963497161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0520706176758</t>
   </si>
   <si>
     <t xml:space="preserve">10.9369449615479</t>
@@ -443,16 +443,16 @@
     <t xml:space="preserve">11.3177452087402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.379734992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.786395072937</t>
+    <t xml:space="preserve">11.3797359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7863960266113</t>
   </si>
   <si>
     <t xml:space="preserve">11.1140613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9635133743286</t>
+    <t xml:space="preserve">10.9635124206543</t>
   </si>
   <si>
     <t xml:space="preserve">11.2291870117188</t>
@@ -470,52 +470,52 @@
     <t xml:space="preserve">11.246898651123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3266000747681</t>
+    <t xml:space="preserve">11.3266010284424</t>
   </si>
   <si>
     <t xml:space="preserve">11.5922756195068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8136720657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8402376174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7516813278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8668060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7162561416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7339687347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5125732421875</t>
+    <t xml:space="preserve">11.8136711120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.840238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7516822814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8668069839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7162570953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7339677810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5125722885132</t>
   </si>
   <si>
     <t xml:space="preserve">11.3885917663574</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4328708648682</t>
+    <t xml:space="preserve">11.4328718185425</t>
   </si>
   <si>
     <t xml:space="preserve">11.2026195526123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.760537147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.680832862854</t>
+    <t xml:space="preserve">11.7605361938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6808338165283</t>
   </si>
   <si>
     <t xml:space="preserve">11.8933744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1059141159058</t>
+    <t xml:space="preserve">12.1059131622314</t>
   </si>
   <si>
     <t xml:space="preserve">12.1236238479614</t>
@@ -527,34 +527,34 @@
     <t xml:space="preserve">12.5752716064453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6018400192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4778594970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3538751602173</t>
+    <t xml:space="preserve">12.6018390655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.477858543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3538761138916</t>
   </si>
   <si>
     <t xml:space="preserve">12.6726865768433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9914960861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8852252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9295063018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1066226959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4874229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6556825637817</t>
+    <t xml:space="preserve">12.9914970397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8852262496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9295053482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1066217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4874219894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6556844711304</t>
   </si>
   <si>
     <t xml:space="preserve">13.7619533538818</t>
@@ -563,43 +563,43 @@
     <t xml:space="preserve">13.5051345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4527082443237</t>
+    <t xml:space="preserve">14.4527072906494</t>
   </si>
   <si>
     <t xml:space="preserve">14.3021574020386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3375825881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2135992050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2047452926636</t>
+    <t xml:space="preserve">14.3375806808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2136001586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2047462463379</t>
   </si>
   <si>
     <t xml:space="preserve">14.1516084671021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0010614395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8593654632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8416557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9125003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8062314987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2748823165894</t>
+    <t xml:space="preserve">14.0010595321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8593664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822500228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8416547775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912501335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8062324523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.274881362915</t>
   </si>
   <si>
     <t xml:space="preserve">13.4519987106323</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">13.2306022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265291213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6379709243774</t>
+    <t xml:space="preserve">13.7265300750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6379699707031</t>
   </si>
   <si>
     <t xml:space="preserve">13.8150882720947</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">13.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2578792572021</t>
+    <t xml:space="preserve">14.2578802108765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1781768798828</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">14.8689317703247</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3914232254028</t>
+    <t xml:space="preserve">15.3914251327515</t>
   </si>
   <si>
     <t xml:space="preserve">15.3648586273193</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">15.5773992538452</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5862550735474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534158706665</t>
+    <t xml:space="preserve">15.5862531661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534130096436</t>
   </si>
   <si>
     <t xml:space="preserve">15.5331172943115</t>
@@ -650,19 +650,19 @@
     <t xml:space="preserve">15.4268465042114</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6216745376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545146942139</t>
+    <t xml:space="preserve">15.6216764450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545137405396</t>
   </si>
   <si>
     <t xml:space="preserve">15.6305322647095</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3294334411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8962097167969</t>
+    <t xml:space="preserve">15.3294324874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8962078094482</t>
   </si>
   <si>
     <t xml:space="preserve">16.2858619689941</t>
@@ -680,64 +680,64 @@
     <t xml:space="preserve">17.1360244750977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9854717254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2511501312256</t>
+    <t xml:space="preserve">16.9854736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.251148223877</t>
   </si>
   <si>
     <t xml:space="preserve">16.8703460693359</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6489505767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3301429748535</t>
+    <t xml:space="preserve">16.6489524841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3301448822021</t>
   </si>
   <si>
     <t xml:space="preserve">16.6843776702881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7463645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6666603088379</t>
+    <t xml:space="preserve">16.7463665008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6666622161865</t>
   </si>
   <si>
     <t xml:space="preserve">17.0917415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.799503326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9766159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9500503540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1094551086426</t>
+    <t xml:space="preserve">16.7995014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9766178131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9500484466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1094532012939</t>
   </si>
   <si>
     <t xml:space="preserve">17.3928413391113</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2245788574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6312427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1802997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9589061737061</t>
+    <t xml:space="preserve">17.2245807647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6312408447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1803016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9589042663574</t>
   </si>
   <si>
     <t xml:space="preserve">17.3042831420898</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4459743499756</t>
+    <t xml:space="preserve">17.4459762573242</t>
   </si>
   <si>
     <t xml:space="preserve">17.7559299468994</t>
@@ -752,85 +752,85 @@
     <t xml:space="preserve">17.8179225921631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5522441864014</t>
+    <t xml:space="preserve">17.55224609375</t>
   </si>
   <si>
     <t xml:space="preserve">17.6585159301758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8444881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9419040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6762256622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8437824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614940643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0474662780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2600040435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3751335144043</t>
+    <t xml:space="preserve">17.8444919586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9419059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6762275695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8437805175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614921569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0474643707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2600021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.375129699707</t>
   </si>
   <si>
     <t xml:space="preserve">16.7817897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068672180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9146289825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308506011963</t>
+    <t xml:space="preserve">17.2068710327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9146308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308486938477</t>
   </si>
   <si>
     <t xml:space="preserve">17.3839855194092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4902572631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.348560333252</t>
+    <t xml:space="preserve">17.490255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3485622406006</t>
   </si>
   <si>
     <t xml:space="preserve">17.5345344543457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4725437164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7470779418945</t>
+    <t xml:space="preserve">17.4725456237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7470741271973</t>
   </si>
   <si>
     <t xml:space="preserve">18.0481719970703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4828147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0495891571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5012378692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7137756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4569568634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9528846740723</t>
+    <t xml:space="preserve">19.482816696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0495872497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5012359619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7137775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4569549560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9528827667236</t>
   </si>
   <si>
     <t xml:space="preserve">21.1654224395752</t>
@@ -842,40 +842,40 @@
     <t xml:space="preserve">21.2097034454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4488105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7764759063721</t>
+    <t xml:space="preserve">21.4488086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7764778137207</t>
   </si>
   <si>
     <t xml:space="preserve">21.8738899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0421504974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9358825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1395645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4140949249268</t>
+    <t xml:space="preserve">22.0421485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9358806610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1395626068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4140930175781</t>
   </si>
   <si>
     <t xml:space="preserve">22.3875274658203</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4760837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4495182037354</t>
+    <t xml:space="preserve">22.4760856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.449520111084</t>
   </si>
   <si>
     <t xml:space="preserve">22.3166809082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7594699859619</t>
+    <t xml:space="preserve">22.7594718933105</t>
   </si>
   <si>
     <t xml:space="preserve">22.5646438598633</t>
@@ -884,22 +884,22 @@
     <t xml:space="preserve">22.6089248657227</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7948951721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7506141662598</t>
+    <t xml:space="preserve">22.7948932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.750617980957</t>
   </si>
   <si>
     <t xml:space="preserve">22.8037509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.025146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2288284301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.96315574646</t>
+    <t xml:space="preserve">23.0251445770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2288265228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9631576538086</t>
   </si>
   <si>
     <t xml:space="preserve">22.5026531219482</t>
@@ -908,40 +908,40 @@
     <t xml:space="preserve">23.326244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5210742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.645055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0524234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3800888061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8494453430176</t>
+    <t xml:space="preserve">23.5210723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6450576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0524253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.380090713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8494472503662</t>
   </si>
   <si>
     <t xml:space="preserve">24.7963104248047</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0619869232178</t>
+    <t xml:space="preserve">25.0619850158691</t>
   </si>
   <si>
     <t xml:space="preserve">25.2302474975586</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1062679290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0354156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5763339996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6390762329102</t>
+    <t xml:space="preserve">25.1062660217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0354175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5763301849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6390743255615</t>
   </si>
   <si>
     <t xml:space="preserve">27.5533390045166</t>
@@ -950,61 +950,61 @@
     <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3152236938477</t>
+    <t xml:space="preserve">28.315221786499</t>
   </si>
   <si>
     <t xml:space="preserve">27.8312015533447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8440589904785</t>
+    <t xml:space="preserve">28.8440608978271</t>
   </si>
   <si>
     <t xml:space="preserve">29.5342407226562</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9656543731689</t>
+    <t xml:space="preserve">27.9656524658203</t>
   </si>
   <si>
     <t xml:space="preserve">28.628942489624</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1846675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6597232818604</t>
+    <t xml:space="preserve">29.1846694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.659725189209</t>
   </si>
   <si>
     <t xml:space="preserve">29.9375915527344</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0451488494873</t>
+    <t xml:space="preserve">30.0451507568359</t>
   </si>
   <si>
     <t xml:space="preserve">30.4753913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9504489898682</t>
+    <t xml:space="preserve">30.9504451751709</t>
   </si>
   <si>
     <t xml:space="preserve">30.4126472473145</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8428897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042266845703</t>
+    <t xml:space="preserve">30.8428916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042304992676</t>
   </si>
   <si>
     <t xml:space="preserve">31.0759334564209</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1924571990967</t>
+    <t xml:space="preserve">31.1924591064453</t>
   </si>
   <si>
     <t xml:space="preserve">31.1745300292969</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1117897033691</t>
+    <t xml:space="preserve">31.1117877960205</t>
   </si>
   <si>
     <t xml:space="preserve">30.8249588012695</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">30.9235591888428</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8608150482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.525276184082</t>
+    <t xml:space="preserve">30.8608169555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5252742767334</t>
   </si>
   <si>
     <t xml:space="preserve">29.6686859130859</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">29.4804611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">29.44460105896</t>
+    <t xml:space="preserve">29.4446029663086</t>
   </si>
   <si>
     <t xml:space="preserve">30.3409366607666</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">30.3050880432129</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1706390380859</t>
+    <t xml:space="preserve">30.1706371307373</t>
   </si>
   <si>
     <t xml:space="preserve">30.0989303588867</t>
@@ -1043,34 +1043,34 @@
     <t xml:space="preserve">30.2244186401367</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6507625579834</t>
+    <t xml:space="preserve">29.650764465332</t>
   </si>
   <si>
     <t xml:space="preserve">29.9824085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0771064758301</t>
+    <t xml:space="preserve">29.0771083831787</t>
   </si>
   <si>
     <t xml:space="preserve">29.2922267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9298000335693</t>
+    <t xml:space="preserve">27.9297981262207</t>
   </si>
   <si>
     <t xml:space="preserve">28.1269912719727</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4099254608154</t>
+    <t xml:space="preserve">27.4099273681641</t>
   </si>
   <si>
     <t xml:space="preserve">27.8491287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6429710388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7326068878174</t>
+    <t xml:space="preserve">27.6429748535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.732608795166</t>
   </si>
   <si>
     <t xml:space="preserve">28.279369354248</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">28.5124168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8760185241699</t>
+    <t xml:space="preserve">27.8760204315186</t>
   </si>
   <si>
     <t xml:space="preserve">28.7365016937256</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">28.7813186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6827201843262</t>
+    <t xml:space="preserve">28.6827220916748</t>
   </si>
   <si>
     <t xml:space="preserve">28.9516201019287</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">29.9555168151855</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7045440673828</t>
+    <t xml:space="preserve">29.7045421600342</t>
   </si>
   <si>
     <t xml:space="preserve">29.4983863830566</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">28.8709506988525</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1577758789062</t>
+    <t xml:space="preserve">29.1577777862549</t>
   </si>
   <si>
     <t xml:space="preserve">29.1129608154297</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7762489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0272235870361</t>
+    <t xml:space="preserve">29.7762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0272216796875</t>
   </si>
   <si>
     <t xml:space="preserve">29.5700950622559</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">29.8569202423096</t>
   </si>
   <si>
-    <t xml:space="preserve">29.785213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8479557037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8658828735352</t>
+    <t xml:space="preserve">29.7852115631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8479537963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8658809661865</t>
   </si>
   <si>
     <t xml:space="preserve">30.3140487670898</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">30.358865737915</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6866149902344</t>
+    <t xml:space="preserve">29.6866130828857</t>
   </si>
   <si>
     <t xml:space="preserve">29.3460102081299</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">30.6367301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6456909179688</t>
+    <t xml:space="preserve">30.645694732666</t>
   </si>
   <si>
     <t xml:space="preserve">30.4664306640625</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">30.2692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">30.233377456665</t>
+    <t xml:space="preserve">30.2333793640137</t>
   </si>
   <si>
     <t xml:space="preserve">30.4036827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2680587768555</t>
+    <t xml:space="preserve">32.2680625915527</t>
   </si>
   <si>
     <t xml:space="preserve">31.6764793395996</t>
@@ -1205,25 +1205,25 @@
     <t xml:space="preserve">32.1784286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9543418884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8736763000488</t>
+    <t xml:space="preserve">31.9543437957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8736743927002</t>
   </si>
   <si>
     <t xml:space="preserve">32.3666534423828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2590980529785</t>
+    <t xml:space="preserve">32.2591018676758</t>
   </si>
   <si>
     <t xml:space="preserve">32.1336059570312</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4921455383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3884811401367</t>
+    <t xml:space="preserve">32.4921417236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.388484954834</t>
   </si>
   <si>
     <t xml:space="preserve">33.5856742858887</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">34.9570655822754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8943214416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.93017578125</t>
+    <t xml:space="preserve">34.8943252563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9301795959473</t>
   </si>
   <si>
     <t xml:space="preserve">34.7777976989746</t>
@@ -1244,22 +1244,22 @@
     <t xml:space="preserve">34.4192657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6343841552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7419471740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6293182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4231605529785</t>
+    <t xml:space="preserve">34.6343803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.741943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.629322052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4231643676758</t>
   </si>
   <si>
     <t xml:space="preserve">34.8584671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5716400146484</t>
+    <t xml:space="preserve">34.5716438293457</t>
   </si>
   <si>
     <t xml:space="preserve">34.060733795166</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">34.0428047180176</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3385963439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9083518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2579231262207</t>
+    <t xml:space="preserve">34.3385925292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9083557128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.257926940918</t>
   </si>
   <si>
     <t xml:space="preserve">34.5088996887207</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">34.3117027282715</t>
   </si>
   <si>
-    <t xml:space="preserve">34.616455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9749946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8136520385742</t>
+    <t xml:space="preserve">34.6164588928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9749908447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.813648223877</t>
   </si>
   <si>
     <t xml:space="preserve">34.4999389648438</t>
@@ -1298,25 +1298,25 @@
     <t xml:space="preserve">34.3027381896973</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0299453735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2848129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3066329956055</t>
+    <t xml:space="preserve">33.0299415588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2848167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3066368103027</t>
   </si>
   <si>
     <t xml:space="preserve">36.4539451599121</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5077247619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3912010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7049217224121</t>
+    <t xml:space="preserve">36.5077285766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3911972045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7049179077148</t>
   </si>
   <si>
     <t xml:space="preserve">37.6281471252441</t>
@@ -1325,22 +1325,22 @@
     <t xml:space="preserve">39.0802040100098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1429481506348</t>
+    <t xml:space="preserve">39.1429443359375</t>
   </si>
   <si>
     <t xml:space="preserve">38.8381958007812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8023452758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4886207580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6499633789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4387397766113</t>
+    <t xml:space="preserve">38.8023414611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4886245727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.649959564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4387435913086</t>
   </si>
   <si>
     <t xml:space="preserve">39.0264282226562</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">38.0225296020508</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5692939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2735061645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5872268676758</t>
+    <t xml:space="preserve">38.5692977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2735023498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5872230529785</t>
   </si>
   <si>
     <t xml:space="preserve">38.5603332519531</t>
@@ -1370,16 +1370,16 @@
     <t xml:space="preserve">38.829231262207</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9099044799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9547157287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6628303527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3042869567871</t>
+    <t xml:space="preserve">38.9099006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.954719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6628265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3042907714844</t>
   </si>
   <si>
     <t xml:space="preserve">39.277400970459</t>
@@ -1388,43 +1388,43 @@
     <t xml:space="preserve">39.5462989807129</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7754516601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5065536499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5961875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9149703979492</t>
+    <t xml:space="preserve">38.7754554748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5065498352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5961837768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9149742126465</t>
   </si>
   <si>
     <t xml:space="preserve">36.8214416503906</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8970413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6858177185059</t>
+    <t xml:space="preserve">37.897045135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6858215332031</t>
   </si>
   <si>
     <t xml:space="preserve">42.2353057861328</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8985939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0599327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6655426025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2711639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249359130859</t>
+    <t xml:space="preserve">42.8985977172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6655464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2711601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249397277832</t>
   </si>
   <si>
     <t xml:space="preserve">42.1636009216309</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">41.8588447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.002254486084</t>
+    <t xml:space="preserve">42.0022583007812</t>
   </si>
   <si>
     <t xml:space="preserve">42.378719329834</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">41.9305534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7692070007324</t>
+    <t xml:space="preserve">41.7692108154297</t>
   </si>
   <si>
     <t xml:space="preserve">42.0201873779297</t>
@@ -1454,52 +1454,52 @@
     <t xml:space="preserve">41.0521430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5860481262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8190956115723</t>
+    <t xml:space="preserve">40.5860443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8190994262695</t>
   </si>
   <si>
     <t xml:space="preserve">40.0303230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3670349121094</t>
+    <t xml:space="preserve">39.3670310974121</t>
   </si>
   <si>
     <t xml:space="preserve">39.9048385620117</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0240783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7154350280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9009399414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7894821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5026550292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8151969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4247055053711</t>
+    <t xml:space="preserve">43.0240821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7154312133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9009437561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5026588439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8152008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4247093200684</t>
   </si>
   <si>
     <t xml:space="preserve">40.3350791931152</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8011703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0342140197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1776313781738</t>
+    <t xml:space="preserve">40.8011741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0342178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1776275634766</t>
   </si>
   <si>
     <t xml:space="preserve">41.3748245239258</t>
@@ -1511,22 +1511,22 @@
     <t xml:space="preserve">40.747386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1955528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4745979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4028854370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4426345825195</t>
+    <t xml:space="preserve">41.195556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4028816223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4426307678223</t>
   </si>
   <si>
     <t xml:space="preserve">40.6219062805176</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6257972717285</t>
+    <t xml:space="preserve">41.6257934570312</t>
   </si>
   <si>
     <t xml:space="preserve">42.8448143005371</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">44.1534652709961</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4889984130859</t>
+    <t xml:space="preserve">45.4890022277832</t>
   </si>
   <si>
     <t xml:space="preserve">44.1355323791504</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">46.2957077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5953903198242</t>
+    <t xml:space="preserve">47.595386505127</t>
   </si>
   <si>
     <t xml:space="preserve">46.2060699462891</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">45.8475379943848</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9511985778809</t>
+    <t xml:space="preserve">44.9512023925781</t>
   </si>
   <si>
     <t xml:space="preserve">44.2610244750977</t>
@@ -1574,19 +1574,19 @@
     <t xml:space="preserve">41.6975059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4106788635254</t>
+    <t xml:space="preserve">41.4106750488281</t>
   </si>
   <si>
     <t xml:space="preserve">41.392749786377</t>
   </si>
   <si>
-    <t xml:space="preserve">41.249340057373</t>
+    <t xml:space="preserve">41.2493324279785</t>
   </si>
   <si>
     <t xml:space="preserve">39.9944686889648</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3311805725098</t>
+    <t xml:space="preserve">39.331184387207</t>
   </si>
   <si>
     <t xml:space="preserve">40.9804382324219</t>
@@ -1595,28 +1595,28 @@
     <t xml:space="preserve">40.0123977661133</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7832450866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9586143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5283699035645</t>
+    <t xml:space="preserve">40.7832489013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9586181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5283737182617</t>
   </si>
   <si>
     <t xml:space="preserve">40.4784889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">40.137882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6538619995117</t>
+    <t xml:space="preserve">40.1378860473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.653865814209</t>
   </si>
   <si>
     <t xml:space="preserve">39.2594718933105</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6296920776367</t>
+    <t xml:space="preserve">42.629695892334</t>
   </si>
   <si>
     <t xml:space="preserve">41.2851943969727</t>
@@ -1625,22 +1625,22 @@
     <t xml:space="preserve">42.1728515625</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2489624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9410018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8685340881348</t>
+    <t xml:space="preserve">41.248966217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9409980773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8685302734375</t>
   </si>
   <si>
     <t xml:space="preserve">40.7598457336426</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0714530944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9519462585449</t>
+    <t xml:space="preserve">40.071460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9519424438477</t>
   </si>
   <si>
     <t xml:space="preserve">37.6983261108398</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">37.2635536193848</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6838569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8106651306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2128562927246</t>
+    <t xml:space="preserve">36.6838607788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.810661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2128601074219</t>
   </si>
   <si>
     <t xml:space="preserve">35.8686599731445</t>
@@ -1676,16 +1676,16 @@
     <t xml:space="preserve">33.8578414916992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0752258300781</t>
+    <t xml:space="preserve">34.0752296447754</t>
   </si>
   <si>
     <t xml:space="preserve">34.673038482666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8904304504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3433151245117</t>
+    <t xml:space="preserve">34.8904266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3433113098145</t>
   </si>
   <si>
     <t xml:space="preserve">34.9266586303711</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">34.6368103027344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3251991271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6948051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5897560119629</t>
+    <t xml:space="preserve">35.3251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6948013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5897636413574</t>
   </si>
   <si>
     <t xml:space="preserve">32.5716438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6477565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9557132720947</t>
+    <t xml:space="preserve">31.6477527618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.955717086792</t>
   </si>
   <si>
     <t xml:space="preserve">30.7057514190674</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">29.6550521850586</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1079406738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4014339447021</t>
+    <t xml:space="preserve">30.1079387664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4014320373535</t>
   </si>
   <si>
     <t xml:space="preserve">30.3253231048584</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">27.9884243011475</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2927417755127</t>
+    <t xml:space="preserve">29.2927398681641</t>
   </si>
   <si>
     <t xml:space="preserve">29.7093963623047</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">30.7782115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4303722381592</t>
+    <t xml:space="preserve">31.4303684234619</t>
   </si>
   <si>
     <t xml:space="preserve">29.8180885314941</t>
@@ -1766,16 +1766,16 @@
     <t xml:space="preserve">30.2890911102295</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5789394378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8470230102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8289070129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2636756896973</t>
+    <t xml:space="preserve">30.5789375305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8470249176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8289051055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2636795043945</t>
   </si>
   <si>
     <t xml:space="preserve">31.2854442596436</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">31.1586399078369</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9194869995117</t>
+    <t xml:space="preserve">31.9194889068604</t>
   </si>
   <si>
     <t xml:space="preserve">31.7926750183105</t>
@@ -1796,31 +1796,31 @@
     <t xml:space="preserve">31.0137138366699</t>
   </si>
   <si>
-    <t xml:space="preserve">30.089822769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0717086791992</t>
+    <t xml:space="preserve">30.0898246765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0717067718506</t>
   </si>
   <si>
     <t xml:space="preserve">29.8362045288086</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2565078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8941993713379</t>
+    <t xml:space="preserve">29.2565097808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8942012786865</t>
   </si>
   <si>
     <t xml:space="preserve">28.2601585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7529220581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7928028106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4304962158203</t>
+    <t xml:space="preserve">27.7529239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7928047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4304943084717</t>
   </si>
   <si>
     <t xml:space="preserve">26.1949939727783</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">26.6659965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3906135559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2094612121582</t>
+    <t xml:space="preserve">27.3906154632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2094593048096</t>
   </si>
   <si>
     <t xml:space="preserve">27.2638053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1732273101807</t>
+    <t xml:space="preserve">27.1732292175293</t>
   </si>
   <si>
     <t xml:space="preserve">26.901496887207</t>
@@ -1847,55 +1847,55 @@
     <t xml:space="preserve">27.6261157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0790023803711</t>
+    <t xml:space="preserve">28.0790042877197</t>
   </si>
   <si>
     <t xml:space="preserve">27.7348079681396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0971202850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0065402984619</t>
+    <t xml:space="preserve">28.0971183776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0065422058105</t>
   </si>
   <si>
     <t xml:space="preserve">27.9521961212158</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2058124542236</t>
+    <t xml:space="preserve">28.2058086395264</t>
   </si>
   <si>
     <t xml:space="preserve">28.1695823669434</t>
   </si>
   <si>
-    <t xml:space="preserve">27.93408203125</t>
+    <t xml:space="preserve">27.9340801239014</t>
   </si>
   <si>
     <t xml:space="preserve">28.767391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7130470275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3470897674561</t>
+    <t xml:space="preserve">28.7130451202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3470878601074</t>
   </si>
   <si>
     <t xml:space="preserve">29.328971862793</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8036212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8398532867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8253860473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6080017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7166957855225</t>
+    <t xml:space="preserve">28.8036193847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8398551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8253841400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6079998016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7166938781738</t>
   </si>
   <si>
     <t xml:space="preserve">25.9051456451416</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">22.8617420196533</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8653907775879</t>
+    <t xml:space="preserve">21.8653926849365</t>
   </si>
   <si>
     <t xml:space="preserve">21.8472747802734</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">22.9160900115967</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5501289367676</t>
+    <t xml:space="preserve">23.5501308441162</t>
   </si>
   <si>
     <t xml:space="preserve">23.8399791717529</t>
@@ -1922,10 +1922,10 @@
     <t xml:space="preserve">23.6950569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3689765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5682487487793</t>
+    <t xml:space="preserve">23.3689785003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5682468414307</t>
   </si>
   <si>
     <t xml:space="preserve">22.6443576812744</t>
@@ -1943,16 +1943,16 @@
     <t xml:space="preserve">21.3581581115723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4668521881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7204685211182</t>
+    <t xml:space="preserve">21.4668502807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7204666137695</t>
   </si>
   <si>
     <t xml:space="preserve">19.8364562988281</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4234485626221</t>
+    <t xml:space="preserve">18.4234504699707</t>
   </si>
   <si>
     <t xml:space="preserve">18.3872165679932</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">18.4959125518799</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1118354797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1064281463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2368869781494</t>
+    <t xml:space="preserve">19.111837387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1064300537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2368850708008</t>
   </si>
   <si>
     <t xml:space="preserve">17.2097110748291</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">17.3636932373047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7568264007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2948780059814</t>
+    <t xml:space="preserve">16.7568244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2948818206787</t>
   </si>
   <si>
     <t xml:space="preserve">16.0412616729736</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">16.2495899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7024784088135</t>
+    <t xml:space="preserve">16.7024803161621</t>
   </si>
   <si>
     <t xml:space="preserve">16.4941501617432</t>
@@ -2012,28 +2012,28 @@
     <t xml:space="preserve">17.5720195770264</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6535396575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5847263336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0430240631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9306831359863</t>
+    <t xml:space="preserve">17.6535415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5847244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0430221557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9306812286377</t>
   </si>
   <si>
     <t xml:space="preserve">17.7622356414795</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8926887512207</t>
+    <t xml:space="preserve">16.8926906585693</t>
   </si>
   <si>
     <t xml:space="preserve">16.1046676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9959726333618</t>
+    <t xml:space="preserve">15.9959735870361</t>
   </si>
   <si>
     <t xml:space="preserve">16.3582820892334</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">16.2858219146729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8148183822632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4887399673462</t>
+    <t xml:space="preserve">15.8148202896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4887428283691</t>
   </si>
   <si>
     <t xml:space="preserve">15.1354885101318</t>
@@ -2054,19 +2054,19 @@
     <t xml:space="preserve">14.8365821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6789522171021</t>
+    <t xml:space="preserve">15.6789512634277</t>
   </si>
   <si>
     <t xml:space="preserve">15.2351245880127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5521450042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2640571594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8890438079834</t>
+    <t xml:space="preserve">15.5521430969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2640552520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8890419006348</t>
   </si>
   <si>
     <t xml:space="preserve">18.2604103088379</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">17.7441177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">17.49049949646</t>
+    <t xml:space="preserve">17.4905014038086</t>
   </si>
   <si>
     <t xml:space="preserve">18.1154861450195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1517181396484</t>
+    <t xml:space="preserve">18.1517162322998</t>
   </si>
   <si>
     <t xml:space="preserve">18.3328723907471</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">17.5539054870605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7857570648193</t>
+    <t xml:space="preserve">18.785758972168</t>
   </si>
   <si>
     <t xml:space="preserve">18.9125671386719</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">18.5321407318115</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0883121490479</t>
+    <t xml:space="preserve">18.0883140563965</t>
   </si>
   <si>
     <t xml:space="preserve">17.4542713165283</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">17.8256378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4053325653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7132968902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5103797912598</t>
+    <t xml:space="preserve">18.405330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7132949829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5103778839111</t>
   </si>
   <si>
     <t xml:space="preserve">19.7821102142334</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">20.3618049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1806526184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0357265472412</t>
+    <t xml:space="preserve">20.1806507110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0357303619385</t>
   </si>
   <si>
     <t xml:space="preserve">19.528491973877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5647239685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3980369567871</t>
+    <t xml:space="preserve">19.5647258758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3980388641357</t>
   </si>
   <si>
     <t xml:space="preserve">17.8528099060059</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">17.8437538146973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.898099899292</t>
+    <t xml:space="preserve">17.8981018066406</t>
   </si>
   <si>
     <t xml:space="preserve">17.6082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5176773071289</t>
+    <t xml:space="preserve">17.5176753997803</t>
   </si>
   <si>
     <t xml:space="preserve">16.9470367431641</t>
@@ -2183,16 +2183,16 @@
     <t xml:space="preserve">17.0829048156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9651527404785</t>
+    <t xml:space="preserve">16.9651546478271</t>
   </si>
   <si>
     <t xml:space="preserve">17.1463069915771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0376129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4452152252197</t>
+    <t xml:space="preserve">17.0376148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4452133178711</t>
   </si>
   <si>
     <t xml:space="preserve">17.3727493286133</t>
@@ -2201,31 +2201,31 @@
     <t xml:space="preserve">17.4814434051514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3818073272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2785243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.079252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7169456481934</t>
+    <t xml:space="preserve">17.3818092346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2785263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0792541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7169437408447</t>
   </si>
   <si>
     <t xml:space="preserve">17.5267333984375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2422943115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0158500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7984638214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2966384887695</t>
+    <t xml:space="preserve">18.2422924041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0158519744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7984657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2966403961182</t>
   </si>
   <si>
     <t xml:space="preserve">18.0520820617676</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">17.7078857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6897716522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8709259033203</t>
+    <t xml:space="preserve">17.6897735595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8709278106689</t>
   </si>
   <si>
     <t xml:space="preserve">18.7429008483887</t>
@@ -3704,9 +3704,6 @@
     <t xml:space="preserve">27.7432022094727</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3906154632568</t>
-  </si>
-  <si>
     <t xml:space="preserve">27.3720588684082</t>
   </si>
   <si>
@@ -4406,9 +4403,6 @@
     <t xml:space="preserve">12.3012132644653</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1757898330688</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.8415031433105</t>
   </si>
   <si>
@@ -5244,6 +5238,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.72999954223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73999977111816</t>
   </si>
 </sst>
 </file>
@@ -42705,7 +42702,7 @@
         <v>29.5200004577637</v>
       </c>
       <c r="G1428" t="s">
-        <v>1230</v>
+        <v>605</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -42757,7 +42754,7 @@
         <v>29.5</v>
       </c>
       <c r="G1430" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -42783,7 +42780,7 @@
         <v>29.6599998474121</v>
       </c>
       <c r="G1431" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -42835,7 +42832,7 @@
         <v>28.8600006103516</v>
       </c>
       <c r="G1433" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -42861,7 +42858,7 @@
         <v>29.5</v>
       </c>
       <c r="G1434" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -42887,7 +42884,7 @@
         <v>29.5400009155273</v>
       </c>
       <c r="G1435" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42913,7 +42910,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1436" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -42939,7 +42936,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1437" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -42965,7 +42962,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1438" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -42991,7 +42988,7 @@
         <v>31.0799999237061</v>
       </c>
       <c r="G1439" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -43017,7 +43014,7 @@
         <v>30.3799991607666</v>
       </c>
       <c r="G1440" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -43043,7 +43040,7 @@
         <v>30.1399993896484</v>
       </c>
       <c r="G1441" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -43069,7 +43066,7 @@
         <v>30.7199993133545</v>
       </c>
       <c r="G1442" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -43095,7 +43092,7 @@
         <v>30.2600002288818</v>
       </c>
       <c r="G1443" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -43121,7 +43118,7 @@
         <v>30.3799991607666</v>
       </c>
       <c r="G1444" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -43147,7 +43144,7 @@
         <v>30.0200004577637</v>
       </c>
       <c r="G1445" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -43173,7 +43170,7 @@
         <v>29.3199996948242</v>
       </c>
       <c r="G1446" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -43199,7 +43196,7 @@
         <v>30.0799999237061</v>
       </c>
       <c r="G1447" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -43225,7 +43222,7 @@
         <v>30.1599998474121</v>
       </c>
       <c r="G1448" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -43251,7 +43248,7 @@
         <v>30.3199996948242</v>
       </c>
       <c r="G1449" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -43277,7 +43274,7 @@
         <v>30.6800003051758</v>
       </c>
       <c r="G1450" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -43303,7 +43300,7 @@
         <v>30.6599998474121</v>
       </c>
       <c r="G1451" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -43329,7 +43326,7 @@
         <v>30.4400005340576</v>
       </c>
       <c r="G1452" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -43355,7 +43352,7 @@
         <v>30.1200008392334</v>
       </c>
       <c r="G1453" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -43381,7 +43378,7 @@
         <v>28.5</v>
       </c>
       <c r="G1454" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -43459,7 +43456,7 @@
         <v>29.2600002288818</v>
       </c>
       <c r="G1457" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -43485,7 +43482,7 @@
         <v>28.4200000762939</v>
       </c>
       <c r="G1458" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -43511,7 +43508,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G1459" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -43537,7 +43534,7 @@
         <v>26.6800003051758</v>
       </c>
       <c r="G1460" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -43563,7 +43560,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="G1461" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -43589,7 +43586,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G1462" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -43615,7 +43612,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1463" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -43641,7 +43638,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1464" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -43693,7 +43690,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1466" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -43719,7 +43716,7 @@
         <v>25.2199993133545</v>
       </c>
       <c r="G1467" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -43797,7 +43794,7 @@
         <v>26.0799999237061</v>
       </c>
       <c r="G1470" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -43823,7 +43820,7 @@
         <v>26.2399997711182</v>
       </c>
       <c r="G1471" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -43849,7 +43846,7 @@
         <v>26.8199996948242</v>
       </c>
       <c r="G1472" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -43875,7 +43872,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1473" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -43901,7 +43898,7 @@
         <v>27.3600006103516</v>
       </c>
       <c r="G1474" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -43927,7 +43924,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1475" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -43953,7 +43950,7 @@
         <v>27</v>
       </c>
       <c r="G1476" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -43979,7 +43976,7 @@
         <v>27.0799999237061</v>
       </c>
       <c r="G1477" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -44031,7 +44028,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1479" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -44057,7 +44054,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1480" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -44083,7 +44080,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1481" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -44109,7 +44106,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -44135,7 +44132,7 @@
         <v>26.7399997711182</v>
       </c>
       <c r="G1483" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -44161,7 +44158,7 @@
         <v>27.6800003051758</v>
       </c>
       <c r="G1484" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -44187,7 +44184,7 @@
         <v>27</v>
       </c>
       <c r="G1485" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -44213,7 +44210,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G1486" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -44239,7 +44236,7 @@
         <v>27.0799999237061</v>
       </c>
       <c r="G1487" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -44265,7 +44262,7 @@
         <v>27.0200004577637</v>
       </c>
       <c r="G1488" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -44291,7 +44288,7 @@
         <v>26.9200000762939</v>
       </c>
       <c r="G1489" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -44317,7 +44314,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1490" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -44343,7 +44340,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G1491" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -44369,7 +44366,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="G1492" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -44447,7 +44444,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="G1495" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -44473,7 +44470,7 @@
         <v>25.5</v>
       </c>
       <c r="G1496" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -44499,7 +44496,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1497" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -44577,7 +44574,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1500" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -44603,7 +44600,7 @@
         <v>23.6599998474121</v>
       </c>
       <c r="G1501" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -44629,7 +44626,7 @@
         <v>23.7199993133545</v>
       </c>
       <c r="G1502" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -44681,7 +44678,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1504" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -44707,7 +44704,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G1505" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -44733,7 +44730,7 @@
         <v>23.5599994659424</v>
       </c>
       <c r="G1506" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -44759,7 +44756,7 @@
         <v>23.2600002288818</v>
       </c>
       <c r="G1507" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -44785,7 +44782,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1508" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -44811,7 +44808,7 @@
         <v>23.3400001525879</v>
       </c>
       <c r="G1509" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -44837,7 +44834,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G1510" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -44863,7 +44860,7 @@
         <v>23.6599998474121</v>
       </c>
       <c r="G1511" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -44889,7 +44886,7 @@
         <v>23.2399997711182</v>
       </c>
       <c r="G1512" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -44941,7 +44938,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G1514" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -44967,7 +44964,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G1515" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -45071,7 +45068,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G1519" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -45097,7 +45094,7 @@
         <v>22.7399997711182</v>
       </c>
       <c r="G1520" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -45123,7 +45120,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G1521" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -45175,7 +45172,7 @@
         <v>24.4200000762939</v>
       </c>
       <c r="G1523" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -45201,7 +45198,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -45227,7 +45224,7 @@
         <v>24.5799999237061</v>
       </c>
       <c r="G1525" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -45253,7 +45250,7 @@
         <v>24.4200000762939</v>
       </c>
       <c r="G1526" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -45279,7 +45276,7 @@
         <v>25.0599994659424</v>
       </c>
       <c r="G1527" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -45305,7 +45302,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G1528" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -45331,7 +45328,7 @@
         <v>24.8600006103516</v>
       </c>
       <c r="G1529" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -45357,7 +45354,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G1530" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -45383,7 +45380,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1531" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -45409,7 +45406,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G1532" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -45435,7 +45432,7 @@
         <v>23.1599998474121</v>
       </c>
       <c r="G1533" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -45565,7 +45562,7 @@
         <v>23.2399997711182</v>
       </c>
       <c r="G1538" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -45591,7 +45588,7 @@
         <v>23.3400001525879</v>
       </c>
       <c r="G1539" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -45617,7 +45614,7 @@
         <v>23.6399993896484</v>
       </c>
       <c r="G1540" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45643,7 +45640,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1541" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -45669,7 +45666,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1542" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -45695,7 +45692,7 @@
         <v>21.7600002288818</v>
       </c>
       <c r="G1543" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -45747,7 +45744,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G1545" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -45903,7 +45900,7 @@
         <v>22.1599998474121</v>
       </c>
       <c r="G1551" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -45929,7 +45926,7 @@
         <v>21.9799995422363</v>
       </c>
       <c r="G1552" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -45955,7 +45952,7 @@
         <v>21.4799995422363</v>
       </c>
       <c r="G1553" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -45981,7 +45978,7 @@
         <v>22.5599994659424</v>
       </c>
       <c r="G1554" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -46033,7 +46030,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1556" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -46085,7 +46082,7 @@
         <v>22.2199993133545</v>
       </c>
       <c r="G1558" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -46111,7 +46108,7 @@
         <v>22.5</v>
       </c>
       <c r="G1559" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -46137,7 +46134,7 @@
         <v>22.0799999237061</v>
       </c>
       <c r="G1560" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -46163,7 +46160,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1561" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -46189,7 +46186,7 @@
         <v>20.5799999237061</v>
       </c>
       <c r="G1562" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -46215,7 +46212,7 @@
         <v>20.5799999237061</v>
       </c>
       <c r="G1563" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -46241,7 +46238,7 @@
         <v>20.0599994659424</v>
       </c>
       <c r="G1564" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -46267,7 +46264,7 @@
         <v>19.1599998474121</v>
       </c>
       <c r="G1565" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -46293,7 +46290,7 @@
         <v>19.6499996185303</v>
       </c>
       <c r="G1566" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -46319,7 +46316,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G1567" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -46345,7 +46342,7 @@
         <v>18.5</v>
       </c>
       <c r="G1568" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -46371,7 +46368,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1569" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -46449,7 +46446,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1572" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -46475,7 +46472,7 @@
         <v>16.5100002288818</v>
       </c>
       <c r="G1573" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -46501,7 +46498,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1574" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -46553,7 +46550,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1576" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -46579,7 +46576,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1577" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -46605,7 +46602,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1578" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -46631,7 +46628,7 @@
         <v>15.4099998474121</v>
       </c>
       <c r="G1579" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46657,7 +46654,7 @@
         <v>15.2399997711182</v>
       </c>
       <c r="G1580" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -46683,7 +46680,7 @@
         <v>15.539999961853</v>
       </c>
       <c r="G1581" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -46709,7 +46706,7 @@
         <v>15.9200000762939</v>
       </c>
       <c r="G1582" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -46735,7 +46732,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G1583" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -46787,7 +46784,7 @@
         <v>15.460000038147</v>
       </c>
       <c r="G1585" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -46813,7 +46810,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1586" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -46839,7 +46836,7 @@
         <v>15.8900003433228</v>
       </c>
       <c r="G1587" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -46865,7 +46862,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1588" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -46891,7 +46888,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G1589" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -47099,7 +47096,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1597" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -47125,7 +47122,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1598" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -47151,7 +47148,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1599" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -47229,7 +47226,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1602" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -47281,7 +47278,7 @@
         <v>15.5699996948242</v>
       </c>
       <c r="G1604" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -47307,7 +47304,7 @@
         <v>15.0299997329712</v>
       </c>
       <c r="G1605" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -47333,7 +47330,7 @@
         <v>14.7600002288818</v>
       </c>
       <c r="G1606" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47463,7 +47460,7 @@
         <v>14.9700002670288</v>
       </c>
       <c r="G1611" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47567,7 +47564,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1615" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47593,7 +47590,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1616" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47619,7 +47616,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1617" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -47671,7 +47668,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1619" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -47697,7 +47694,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G1620" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -47749,7 +47746,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G1622" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -47775,7 +47772,7 @@
         <v>16.6299991607666</v>
       </c>
       <c r="G1623" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -47801,7 +47798,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -47827,7 +47824,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1625" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -47853,7 +47850,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1626" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47879,7 +47876,7 @@
         <v>15.5699996948242</v>
       </c>
       <c r="G1627" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47905,7 +47902,7 @@
         <v>16</v>
       </c>
       <c r="G1628" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47931,7 +47928,7 @@
         <v>16.1299991607666</v>
       </c>
       <c r="G1629" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47957,7 +47954,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1630" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47983,7 +47980,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1631" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -48009,7 +48006,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G1632" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -48035,7 +48032,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1633" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -48061,7 +48058,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1634" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -48087,7 +48084,7 @@
         <v>16.7099990844727</v>
       </c>
       <c r="G1635" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -48113,7 +48110,7 @@
         <v>16.5300006866455</v>
       </c>
       <c r="G1636" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -48139,7 +48136,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G1637" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48165,7 +48162,7 @@
         <v>15.9700002670288</v>
       </c>
       <c r="G1638" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48191,7 +48188,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1639" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48217,7 +48214,7 @@
         <v>14.1899995803833</v>
       </c>
       <c r="G1640" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48243,7 +48240,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1641" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48269,7 +48266,7 @@
         <v>14.4300003051758</v>
       </c>
       <c r="G1642" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48295,7 +48292,7 @@
         <v>13.5</v>
       </c>
       <c r="G1643" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48321,7 +48318,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1644" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48347,7 +48344,7 @@
         <v>13.5699996948242</v>
       </c>
       <c r="G1645" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48373,7 +48370,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1646" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48399,7 +48396,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1647" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48425,7 +48422,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1648" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48451,7 +48448,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G1649" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48477,7 +48474,7 @@
         <v>13.289999961853</v>
       </c>
       <c r="G1650" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48503,7 +48500,7 @@
         <v>13.3900003433228</v>
       </c>
       <c r="G1651" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48529,7 +48526,7 @@
         <v>13.1300001144409</v>
       </c>
       <c r="G1652" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48555,7 +48552,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G1653" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48581,7 +48578,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G1654" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48607,7 +48604,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G1655" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48633,7 +48630,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1656" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48659,7 +48656,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1657" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48685,7 +48682,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1658" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48711,7 +48708,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1659" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48737,7 +48734,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1660" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48763,7 +48760,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1661" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48789,7 +48786,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1662" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48815,7 +48812,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1663" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48841,7 +48838,7 @@
         <v>13.289999961853</v>
       </c>
       <c r="G1664" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48867,7 +48864,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1665" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48893,7 +48890,7 @@
         <v>13.7299995422363</v>
       </c>
       <c r="G1666" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48919,7 +48916,7 @@
         <v>13.7299995422363</v>
       </c>
       <c r="G1667" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48945,7 +48942,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1668" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48971,7 +48968,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1669" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48997,7 +48994,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1670" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -49023,7 +49020,7 @@
         <v>13</v>
       </c>
       <c r="G1671" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -49049,7 +49046,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G1672" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -49075,7 +49072,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1673" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -49101,7 +49098,7 @@
         <v>13.8699998855591</v>
       </c>
       <c r="G1674" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -49127,7 +49124,7 @@
         <v>13.5900001525879</v>
       </c>
       <c r="G1675" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -49153,7 +49150,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1676" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49179,7 +49176,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1677" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49205,7 +49202,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1678" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49231,7 +49228,7 @@
         <v>13.0100002288818</v>
       </c>
       <c r="G1679" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49257,7 +49254,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1680" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49283,7 +49280,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G1681" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49309,7 +49306,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1682" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49335,7 +49332,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1683" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49361,7 +49358,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1684" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49387,7 +49384,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1685" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49413,7 +49410,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1686" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49439,7 +49436,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1687" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49465,7 +49462,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G1688" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49491,7 +49488,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G1689" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49517,7 +49514,7 @@
         <v>12.3699998855591</v>
       </c>
       <c r="G1690" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49543,7 +49540,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1691" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49569,7 +49566,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G1692" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49595,7 +49592,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G1693" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49621,7 +49618,7 @@
         <v>12.8299999237061</v>
       </c>
       <c r="G1694" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49647,7 +49644,7 @@
         <v>12.6300001144409</v>
       </c>
       <c r="G1695" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49673,7 +49670,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1696" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49699,7 +49696,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1697" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49725,7 +49722,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1698" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49751,7 +49748,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1699" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49777,7 +49774,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1700" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49803,7 +49800,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1701" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49829,7 +49826,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1702" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49855,7 +49852,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1703" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49881,7 +49878,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G1704" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49907,7 +49904,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G1705" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49933,7 +49930,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1706" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49959,7 +49956,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G1707" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49985,7 +49982,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1708" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -50011,7 +50008,7 @@
         <v>11.8900003433228</v>
       </c>
       <c r="G1709" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -50037,7 +50034,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1710" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -50063,7 +50060,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1711" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -50089,7 +50086,7 @@
         <v>11.75</v>
       </c>
       <c r="G1712" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -50115,7 +50112,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1713" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -50141,7 +50138,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G1714" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50167,7 +50164,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G1715" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50193,7 +50190,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G1716" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50219,7 +50216,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G1717" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50245,7 +50242,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1718" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50271,7 +50268,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1719" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50297,7 +50294,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1720" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50323,7 +50320,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1721" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50349,7 +50346,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1722" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50375,7 +50372,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1723" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50401,7 +50398,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1724" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50427,7 +50424,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1725" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50453,7 +50450,7 @@
         <v>11.75</v>
       </c>
       <c r="G1726" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50479,7 +50476,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1727" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50505,7 +50502,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1728" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50531,7 +50528,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1729" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50557,7 +50554,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1730" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50583,7 +50580,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1731" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50609,7 +50606,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G1732" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50635,7 +50632,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G1733" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50661,7 +50658,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1734" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50687,7 +50684,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G1735" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50713,7 +50710,7 @@
         <v>13.5900001525879</v>
       </c>
       <c r="G1736" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50739,7 +50736,7 @@
         <v>13.4899997711182</v>
       </c>
       <c r="G1737" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50765,7 +50762,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1738" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50791,7 +50788,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G1739" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50817,7 +50814,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1740" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50843,7 +50840,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G1741" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50869,7 +50866,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1742" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50895,7 +50892,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50921,7 +50918,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1744" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50947,7 +50944,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1745" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50973,7 +50970,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1746" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50999,7 +50996,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1747" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -51025,7 +51022,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1748" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -51051,7 +51048,7 @@
         <v>13.289999961853</v>
       </c>
       <c r="G1749" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -51077,7 +51074,7 @@
         <v>13.1300001144409</v>
       </c>
       <c r="G1750" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -51103,7 +51100,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G1751" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -51129,7 +51126,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1752" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -51155,7 +51152,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1753" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51181,7 +51178,7 @@
         <v>12.710000038147</v>
       </c>
       <c r="G1754" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51207,7 +51204,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G1755" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51233,7 +51230,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1756" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51259,7 +51256,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1757" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51285,7 +51282,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1758" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51311,7 +51308,7 @@
         <v>12.75</v>
       </c>
       <c r="G1759" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51337,7 +51334,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1760" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51363,7 +51360,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1761" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51389,7 +51386,7 @@
         <v>13.3100004196167</v>
       </c>
       <c r="G1762" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51415,7 +51412,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1763" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51441,7 +51438,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1764" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51467,7 +51464,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1765" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51493,7 +51490,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1766" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51519,7 +51516,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51545,7 +51542,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1768" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51571,7 +51568,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1769" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51597,7 +51594,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1770" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51623,7 +51620,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G1771" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51649,7 +51646,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1772" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51675,7 +51672,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1773" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51701,7 +51698,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1774" t="s">
-        <v>1464</v>
+        <v>50</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51727,7 +51724,7 @@
         <v>12.5</v>
       </c>
       <c r="G1775" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51753,7 +51750,7 @@
         <v>12.6300001144409</v>
       </c>
       <c r="G1776" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51779,7 +51776,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G1777" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51805,7 +51802,7 @@
         <v>12.5500001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51831,7 +51828,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1779" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51857,7 +51854,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G1780" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51883,7 +51880,7 @@
         <v>12.8299999237061</v>
       </c>
       <c r="G1781" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51909,7 +51906,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1782" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51935,7 +51932,7 @@
         <v>13</v>
       </c>
       <c r="G1783" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51961,7 +51958,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1784" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51987,7 +51984,7 @@
         <v>13.3699998855591</v>
       </c>
       <c r="G1785" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52013,7 +52010,7 @@
         <v>13.5</v>
       </c>
       <c r="G1786" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52039,7 +52036,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1787" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52065,7 +52062,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G1788" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52091,7 +52088,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1789" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52117,7 +52114,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1790" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52143,7 +52140,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1791" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52169,7 +52166,7 @@
         <v>14.6700000762939</v>
       </c>
       <c r="G1792" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52195,7 +52192,7 @@
         <v>14.9899997711182</v>
       </c>
       <c r="G1793" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52221,7 +52218,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1794" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52247,7 +52244,7 @@
         <v>14.8400001525879</v>
       </c>
       <c r="G1795" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52273,7 +52270,7 @@
         <v>14.3699998855591</v>
       </c>
       <c r="G1796" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52299,7 +52296,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1797" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52325,7 +52322,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1798" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52351,7 +52348,7 @@
         <v>14.7399997711182</v>
       </c>
       <c r="G1799" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52377,7 +52374,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1800" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52403,7 +52400,7 @@
         <v>15.0200004577637</v>
       </c>
       <c r="G1801" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52429,7 +52426,7 @@
         <v>14.9799995422363</v>
       </c>
       <c r="G1802" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52455,7 +52452,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1803" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52481,7 +52478,7 @@
         <v>14.7700004577637</v>
       </c>
       <c r="G1804" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52507,7 +52504,7 @@
         <v>15.3400001525879</v>
       </c>
       <c r="G1805" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52533,7 +52530,7 @@
         <v>15.5799999237061</v>
       </c>
       <c r="G1806" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52559,7 +52556,7 @@
         <v>15.3999996185303</v>
       </c>
       <c r="G1807" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52585,7 +52582,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1808" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52611,7 +52608,7 @@
         <v>15</v>
       </c>
       <c r="G1809" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52637,7 +52634,7 @@
         <v>14.9200000762939</v>
       </c>
       <c r="G1810" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52663,7 +52660,7 @@
         <v>15.0600004196167</v>
       </c>
       <c r="G1811" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52689,7 +52686,7 @@
         <v>14.8199996948242</v>
       </c>
       <c r="G1812" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52715,7 +52712,7 @@
         <v>14.9399995803833</v>
       </c>
       <c r="G1813" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52741,7 +52738,7 @@
         <v>14.960000038147</v>
       </c>
       <c r="G1814" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52767,7 +52764,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1815" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52793,7 +52790,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1816" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52819,7 +52816,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1817" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52845,7 +52842,7 @@
         <v>15.2200002670288</v>
       </c>
       <c r="G1818" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52871,7 +52868,7 @@
         <v>15.1899995803833</v>
       </c>
       <c r="G1819" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52897,7 +52894,7 @@
         <v>14.9700002670288</v>
       </c>
       <c r="G1820" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52923,7 +52920,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G1821" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52949,7 +52946,7 @@
         <v>16.5</v>
       </c>
       <c r="G1822" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52975,7 +52972,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1823" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53001,7 +52998,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1824" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53027,7 +53024,7 @@
         <v>17.4300003051758</v>
       </c>
       <c r="G1825" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53053,7 +53050,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G1826" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53079,7 +53076,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1827" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53105,7 +53102,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1828" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53131,7 +53128,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1829" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53157,7 +53154,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1830" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53183,7 +53180,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1831" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53209,7 +53206,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1832" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53235,7 +53232,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G1833" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53261,7 +53258,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1834" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53287,7 +53284,7 @@
         <v>15.25</v>
       </c>
       <c r="G1835" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53313,7 +53310,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1836" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53339,7 +53336,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1837" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53365,7 +53362,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1838" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53391,7 +53388,7 @@
         <v>15.2299995422363</v>
       </c>
       <c r="G1839" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53417,7 +53414,7 @@
         <v>15.2600002288818</v>
       </c>
       <c r="G1840" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53443,7 +53440,7 @@
         <v>15.1700000762939</v>
       </c>
       <c r="G1841" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53469,7 +53466,7 @@
         <v>14.7299995422363</v>
       </c>
       <c r="G1842" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53495,7 +53492,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1843" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53521,7 +53518,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1844" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53547,7 +53544,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1845" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53573,7 +53570,7 @@
         <v>14.5299997329712</v>
       </c>
       <c r="G1846" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53599,7 +53596,7 @@
         <v>14.6400003433228</v>
       </c>
       <c r="G1847" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53625,7 +53622,7 @@
         <v>14.6499996185303</v>
       </c>
       <c r="G1848" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53651,7 +53648,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53677,7 +53674,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1850" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53703,7 +53700,7 @@
         <v>13.960000038147</v>
       </c>
       <c r="G1851" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53729,7 +53726,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1852" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53755,7 +53752,7 @@
         <v>14.1300001144409</v>
       </c>
       <c r="G1853" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53781,7 +53778,7 @@
         <v>14.0299997329712</v>
       </c>
       <c r="G1854" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53807,7 +53804,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1855" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53833,7 +53830,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1856" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53859,7 +53856,7 @@
         <v>14</v>
       </c>
       <c r="G1857" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53885,7 +53882,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G1858" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53911,7 +53908,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1859" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53937,7 +53934,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1860" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53963,7 +53960,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1861" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53989,7 +53986,7 @@
         <v>13.75</v>
       </c>
       <c r="G1862" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54015,7 +54012,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1863" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54041,7 +54038,7 @@
         <v>13.75</v>
       </c>
       <c r="G1864" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54067,7 +54064,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1865" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54093,7 +54090,7 @@
         <v>13.5699996948242</v>
       </c>
       <c r="G1866" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54119,7 +54116,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1867" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54145,7 +54142,7 @@
         <v>13.4899997711182</v>
       </c>
       <c r="G1868" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54171,7 +54168,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G1869" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54197,7 +54194,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1870" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54223,7 +54220,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1871" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54249,7 +54246,7 @@
         <v>13.0299997329712</v>
       </c>
       <c r="G1872" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54275,7 +54272,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G1873" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54301,7 +54298,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G1874" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54327,7 +54324,7 @@
         <v>12.4700002670288</v>
       </c>
       <c r="G1875" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54353,7 +54350,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1876" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54379,7 +54376,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1877" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54405,7 +54402,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G1878" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54431,7 +54428,7 @@
         <v>12.5699996948242</v>
       </c>
       <c r="G1879" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54457,7 +54454,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1880" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54483,7 +54480,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1881" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54509,7 +54506,7 @@
         <v>11.75</v>
       </c>
       <c r="G1882" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54535,7 +54532,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1883" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54561,7 +54558,7 @@
         <v>12.0100002288818</v>
       </c>
       <c r="G1884" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54587,7 +54584,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G1885" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54613,7 +54610,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1886" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54639,7 +54636,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1887" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54665,7 +54662,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1888" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54691,7 +54688,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1889" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54717,7 +54714,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1890" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54743,7 +54740,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1891" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54769,7 +54766,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1892" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54795,7 +54792,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1893" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54821,7 +54818,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1894" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54847,7 +54844,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1895" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54873,7 +54870,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54899,7 +54896,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1897" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54925,7 +54922,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1898" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54951,7 +54948,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1899" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54977,7 +54974,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1900" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55003,7 +55000,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G1901" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55029,7 +55026,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1902" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55055,7 +55052,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1903" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55081,7 +55078,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1904" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55107,7 +55104,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1905" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55133,7 +55130,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G1906" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55159,7 +55156,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1907" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55185,7 +55182,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G1908" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55211,7 +55208,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1909" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55237,7 +55234,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55263,7 +55260,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1911" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55289,7 +55286,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1912" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55315,7 +55312,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1913" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55341,7 +55338,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G1914" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55367,7 +55364,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1915" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55393,7 +55390,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1916" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55419,7 +55416,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1917" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55445,7 +55442,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1918" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55471,7 +55468,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55497,7 +55494,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1920" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55523,7 +55520,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1921" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55549,7 +55546,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55575,7 +55572,7 @@
         <v>12</v>
       </c>
       <c r="G1923" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55601,7 +55598,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1924" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55627,7 +55624,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1925" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55653,7 +55650,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G1926" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55679,7 +55676,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1927" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55705,7 +55702,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1928" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55731,7 +55728,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1929" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55757,7 +55754,7 @@
         <v>12.25</v>
       </c>
       <c r="G1930" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55783,7 +55780,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1931" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55809,7 +55806,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1932" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55835,7 +55832,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1933" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55861,7 +55858,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55887,7 +55884,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1935" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55913,7 +55910,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1936" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55939,7 +55936,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G1937" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55965,7 +55962,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1938" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55991,7 +55988,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1939" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56017,7 +56014,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1940" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56043,7 +56040,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1941" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56069,7 +56066,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1942" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56095,7 +56092,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1943" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56121,7 +56118,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1944" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56147,7 +56144,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1945" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56173,7 +56170,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1946" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56199,7 +56196,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1947" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56225,7 +56222,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G1948" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56251,7 +56248,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G1949" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56277,7 +56274,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G1950" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56303,7 +56300,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1951" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56329,7 +56326,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1952" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56355,7 +56352,7 @@
         <v>12.8699998855591</v>
       </c>
       <c r="G1953" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56381,7 +56378,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1954" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56407,7 +56404,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56433,7 +56430,7 @@
         <v>12.5</v>
       </c>
       <c r="G1956" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56459,7 +56456,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1957" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56485,7 +56482,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56511,7 +56508,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G1959" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56537,7 +56534,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1960" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56563,7 +56560,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1961" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56589,7 +56586,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1962" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56615,7 +56612,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1963" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56641,7 +56638,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1964" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56667,7 +56664,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1965" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56693,7 +56690,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1966" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56719,7 +56716,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G1967" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56745,7 +56742,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1968" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56771,7 +56768,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56797,7 +56794,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G1970" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56823,7 +56820,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1971" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56849,7 +56846,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56875,7 +56872,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1973" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56901,7 +56898,7 @@
         <v>10.9899997711182</v>
       </c>
       <c r="G1974" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56927,7 +56924,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1975" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56953,7 +56950,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1976" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56979,7 +56976,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1977" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57005,7 +57002,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1978" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57031,7 +57028,7 @@
         <v>10.9499998092651</v>
       </c>
       <c r="G1979" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57057,7 +57054,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1980" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57083,7 +57080,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1981" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57109,7 +57106,7 @@
         <v>11.25</v>
       </c>
       <c r="G1982" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57135,7 +57132,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1983" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57161,7 +57158,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1984" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57187,7 +57184,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1985" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57213,7 +57210,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G1986" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57239,7 +57236,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1987" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57265,7 +57262,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1988" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57291,7 +57288,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1989" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57317,7 +57314,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1990" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57343,7 +57340,7 @@
         <v>10.0799999237061</v>
       </c>
       <c r="G1991" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57369,7 +57366,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1992" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57395,7 +57392,7 @@
         <v>9.70499992370605</v>
       </c>
       <c r="G1993" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57421,7 +57418,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57447,7 +57444,7 @@
         <v>9.98999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57473,7 +57470,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1996" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57499,7 +57496,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1997" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57525,7 +57522,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1998" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57551,7 +57548,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1999" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57577,7 +57574,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G2000" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57603,7 +57600,7 @@
         <v>10.75</v>
       </c>
       <c r="G2001" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57629,7 +57626,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G2002" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57655,7 +57652,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G2003" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57681,7 +57678,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2004" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57707,7 +57704,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G2005" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57733,7 +57730,7 @@
         <v>11.3900003433228</v>
       </c>
       <c r="G2006" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57759,7 +57756,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2007" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57785,7 +57782,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G2008" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57811,7 +57808,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2009" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57837,7 +57834,7 @@
         <v>11.0900001525879</v>
       </c>
       <c r="G2010" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57863,7 +57860,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2011" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57889,7 +57886,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G2012" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57915,7 +57912,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2013" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57941,7 +57938,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2014" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57967,7 +57964,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2015" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57993,7 +57990,7 @@
         <v>11.5</v>
       </c>
       <c r="G2016" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58019,7 +58016,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58045,7 +58042,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2018" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58071,7 +58068,7 @@
         <v>11</v>
       </c>
       <c r="G2019" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58097,7 +58094,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2020" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58123,7 +58120,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2021" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58149,7 +58146,7 @@
         <v>11.2200002670288</v>
       </c>
       <c r="G2022" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58175,7 +58172,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2023" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58201,7 +58198,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58227,7 +58224,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58253,7 +58250,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2026" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58279,7 +58276,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2027" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58305,7 +58302,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2028" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58331,7 +58328,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2029" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58357,7 +58354,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2030" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58383,7 +58380,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2031" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58409,7 +58406,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2032" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58435,7 +58432,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2033" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58461,7 +58458,7 @@
         <v>12.6499996185303</v>
       </c>
       <c r="G2034" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58487,7 +58484,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2035" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58513,7 +58510,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2036" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58539,7 +58536,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2037" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58565,7 +58562,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2038" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58591,7 +58588,7 @@
         <v>11.8800001144409</v>
       </c>
       <c r="G2039" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58617,7 +58614,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G2040" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58643,7 +58640,7 @@
         <v>12.4300003051758</v>
       </c>
       <c r="G2041" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58669,7 +58666,7 @@
         <v>12.3299999237061</v>
       </c>
       <c r="G2042" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58695,7 +58692,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2043" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58721,7 +58718,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2044" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58747,7 +58744,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2045" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58773,7 +58770,7 @@
         <v>12</v>
       </c>
       <c r="G2046" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58799,7 +58796,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2047" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58825,7 +58822,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2048" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58851,7 +58848,7 @@
         <v>12</v>
       </c>
       <c r="G2049" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58877,7 +58874,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2050" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58903,7 +58900,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58929,7 +58926,7 @@
         <v>11.9899997711182</v>
       </c>
       <c r="G2052" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58955,7 +58952,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2053" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58981,7 +58978,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G2054" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59007,7 +59004,7 @@
         <v>12.25</v>
       </c>
       <c r="G2055" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59033,7 +59030,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2056" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59059,7 +59056,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2057" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59085,7 +59082,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2058" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59111,7 +59108,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2059" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59137,7 +59134,7 @@
         <v>12.25</v>
       </c>
       <c r="G2060" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59163,7 +59160,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2061" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59189,7 +59186,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2062" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59215,7 +59212,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2063" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59241,7 +59238,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2064" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59267,7 +59264,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2065" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59293,7 +59290,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59319,7 +59316,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2067" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59345,7 +59342,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59371,7 +59368,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2069" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59397,7 +59394,7 @@
         <v>12.25</v>
       </c>
       <c r="G2070" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59423,7 +59420,7 @@
         <v>12.2299995422363</v>
       </c>
       <c r="G2071" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59449,7 +59446,7 @@
         <v>12.25</v>
       </c>
       <c r="G2072" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59475,7 +59472,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2073" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59501,7 +59498,7 @@
         <v>12.7700004577637</v>
       </c>
       <c r="G2074" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59527,7 +59524,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2075" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59553,7 +59550,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2076" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59579,7 +59576,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2077" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59605,7 +59602,7 @@
         <v>12.4899997711182</v>
       </c>
       <c r="G2078" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59631,7 +59628,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G2079" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59657,7 +59654,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G2080" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59683,7 +59680,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2081" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59709,7 +59706,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2082" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59735,7 +59732,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59761,7 +59758,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2084" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59787,7 +59784,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2085" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59813,7 +59810,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2086" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59839,7 +59836,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2087" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59865,7 +59862,7 @@
         <v>11.7299995422363</v>
       </c>
       <c r="G2088" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59891,7 +59888,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G2089" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59917,7 +59914,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G2090" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59943,7 +59940,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59969,7 +59966,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59995,7 +59992,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2093" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60021,7 +60018,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2094" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60047,7 +60044,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2095" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60073,7 +60070,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60099,7 +60096,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2097" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60125,7 +60122,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2098" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60151,7 +60148,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2099" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60177,7 +60174,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2100" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60203,7 +60200,7 @@
         <v>12.3699998855591</v>
       </c>
       <c r="G2101" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60229,7 +60226,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2102" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60255,7 +60252,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2103" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60281,7 +60278,7 @@
         <v>12.3100004196167</v>
       </c>
       <c r="G2104" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60307,7 +60304,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60333,7 +60330,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2106" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60359,7 +60356,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60385,7 +60382,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2108" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60411,7 +60408,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60437,7 +60434,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2110" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60463,7 +60460,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2111" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60489,7 +60486,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G2112" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60515,7 +60512,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G2113" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60541,7 +60538,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G2114" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60567,7 +60564,7 @@
         <v>11.6099996566772</v>
       </c>
       <c r="G2115" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60593,7 +60590,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G2116" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60619,7 +60616,7 @@
         <v>11.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60645,7 +60642,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2118" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60671,7 +60668,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2119" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60697,7 +60694,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2120" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60723,7 +60720,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2121" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60749,7 +60746,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2122" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60775,7 +60772,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G2123" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60801,7 +60798,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2124" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60827,7 +60824,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2125" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60853,7 +60850,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60879,7 +60876,7 @@
         <v>12.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60905,7 +60902,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2128" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60931,7 +60928,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G2129" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60957,7 +60954,7 @@
         <v>12.9099998474121</v>
       </c>
       <c r="G2130" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60983,7 +60980,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61009,7 +61006,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2132" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61035,7 +61032,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61061,7 +61058,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2134" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61087,7 +61084,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2135" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61113,7 +61110,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61139,7 +61136,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G2137" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61165,7 +61162,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2138" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61191,7 +61188,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2139" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61217,7 +61214,7 @@
         <v>12.0500001907349</v>
       </c>
       <c r="G2140" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61243,7 +61240,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2141" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61269,7 +61266,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2142" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61295,7 +61292,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2143" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61321,7 +61318,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2144" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61347,7 +61344,7 @@
         <v>11.8299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61373,7 +61370,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2146" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61399,7 +61396,7 @@
         <v>11.75</v>
       </c>
       <c r="G2147" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61425,7 +61422,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2148" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61451,7 +61448,7 @@
         <v>11.4499998092651</v>
       </c>
       <c r="G2149" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61477,7 +61474,7 @@
         <v>11.5</v>
       </c>
       <c r="G2150" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61503,7 +61500,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G2151" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61529,7 +61526,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2152" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61555,7 +61552,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2153" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61581,7 +61578,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G2154" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61607,7 +61604,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G2155" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61633,7 +61630,7 @@
         <v>11</v>
       </c>
       <c r="G2156" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61659,7 +61656,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2157" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61685,7 +61682,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G2158" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61711,7 +61708,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2159" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61737,7 +61734,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G2160" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61763,7 +61760,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2161" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61789,7 +61786,7 @@
         <v>10.6300001144409</v>
       </c>
       <c r="G2162" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61815,7 +61812,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G2163" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61841,7 +61838,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G2164" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61867,7 +61864,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G2165" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61893,7 +61890,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G2166" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61919,7 +61916,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2167" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61945,7 +61942,7 @@
         <v>10.6599998474121</v>
       </c>
       <c r="G2168" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61971,7 +61968,7 @@
         <v>10.5</v>
       </c>
       <c r="G2169" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61997,7 +61994,7 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G2170" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -62023,7 +62020,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2171" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -62049,7 +62046,7 @@
         <v>10.6499996185303</v>
       </c>
       <c r="G2172" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -62075,7 +62072,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G2173" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -62101,7 +62098,7 @@
         <v>10.4700002670288</v>
       </c>
       <c r="G2174" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -62127,7 +62124,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G2175" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -62153,7 +62150,7 @@
         <v>10.6300001144409</v>
       </c>
       <c r="G2176" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -62179,7 +62176,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G2177" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -62205,7 +62202,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G2178" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -62231,7 +62228,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G2179" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -62257,7 +62254,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G2180" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -62283,7 +62280,7 @@
         <v>9.97500038146973</v>
       </c>
       <c r="G2181" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62309,7 +62306,7 @@
         <v>9.875</v>
       </c>
       <c r="G2182" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62317,7 +62314,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6494212963</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>48597</v>
@@ -62326,7 +62323,7 @@
         <v>10.1199998855591</v>
       </c>
       <c r="D2183" t="n">
-        <v>9.76000022888184</v>
+        <v>9.72999954223633</v>
       </c>
       <c r="E2183" t="n">
         <v>10.1199998855591</v>
@@ -62335,9 +62332,35 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2183" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.649537037</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>60174</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>9.89999961853027</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>9.72999954223633</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>9.72999954223633</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>9.73999977111816</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1747">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3280172348022</t>
+    <t xml:space="preserve">13.3280181884766</t>
   </si>
   <si>
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528602600098</t>
+    <t xml:space="preserve">13.0528593063354</t>
   </si>
   <si>
     <t xml:space="preserve">12.8206930160522</t>
@@ -53,31 +53,31 @@
     <t xml:space="preserve">12.4681453704834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3133678436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3305654525757</t>
+    <t xml:space="preserve">12.3133687973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.33056640625</t>
   </si>
   <si>
     <t xml:space="preserve">12.21018409729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5480833053589</t>
+    <t xml:space="preserve">11.5480823516846</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203758239746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85413551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.413049697876</t>
+    <t xml:space="preserve">9.85413455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4130506515503</t>
   </si>
   <si>
     <t xml:space="preserve">9.90572738647461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5334329605103</t>
+    <t xml:space="preserve">10.5334339141846</t>
   </si>
   <si>
     <t xml:space="preserve">10.3528604507446</t>
@@ -98,22 +98,22 @@
     <t xml:space="preserve">10.6968088150024</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2496757507324</t>
+    <t xml:space="preserve">10.2496747970581</t>
   </si>
   <si>
     <t xml:space="preserve">10.5162353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5506315231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0777015686035</t>
+    <t xml:space="preserve">10.550630569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0777025222778</t>
   </si>
   <si>
     <t xml:space="preserve">9.08884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02865695953369</t>
+    <t xml:space="preserve">9.02865600585938</t>
   </si>
   <si>
     <t xml:space="preserve">9.45859336853027</t>
@@ -122,22 +122,22 @@
     <t xml:space="preserve">9.20063209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48438930511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95732021331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71655559539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4990396499634</t>
+    <t xml:space="preserve">9.48438835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95731925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71655464172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4990377426147</t>
   </si>
   <si>
     <t xml:space="preserve">10.4044523239136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582750320435</t>
+    <t xml:space="preserve">10.2582769393921</t>
   </si>
   <si>
     <t xml:space="preserve">11.066554069519</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">10.9719686508179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8748359680176</t>
+    <t xml:space="preserve">11.8748340606689</t>
   </si>
   <si>
     <t xml:space="preserve">12.012414932251</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">11.8404397964478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0382108688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.694260597229</t>
+    <t xml:space="preserve">12.0382118225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6942615509033</t>
   </si>
   <si>
     <t xml:space="preserve">11.4362993240356</t>
@@ -188,34 +188,34 @@
     <t xml:space="preserve">11.9092292785645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9866170883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8662357330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1155977249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.261775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2703762054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079561233521</t>
+    <t xml:space="preserve">11.9866161346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8662347793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1155996322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617769241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.27037525177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079551696777</t>
   </si>
   <si>
     <t xml:space="preserve">12.201584815979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2359800338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2875728607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9694194793701</t>
+    <t xml:space="preserve">12.2359790802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2875719070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9694204330444</t>
   </si>
   <si>
     <t xml:space="preserve">11.634069442749</t>
@@ -224,64 +224,64 @@
     <t xml:space="preserve">11.3503122329712</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8060445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9522218704224</t>
+    <t xml:space="preserve">11.8060455322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.952220916748</t>
   </si>
   <si>
     <t xml:space="preserve">11.88343334198</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7716484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6684646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7028579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394830703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25572681427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1697378158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1783380508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3847064971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4105033874512</t>
+    <t xml:space="preserve">11.7716493606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6684637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394821166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2557249069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1697387695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.178337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3847055435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4105024337769</t>
   </si>
   <si>
     <t xml:space="preserve">11.2213306427002</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1181478500366</t>
+    <t xml:space="preserve">11.1181468963623</t>
   </si>
   <si>
     <t xml:space="preserve">11.0493574142456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2041330337524</t>
+    <t xml:space="preserve">11.2041339874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.6624135971069</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0166473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4941530227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4144515991211</t>
+    <t xml:space="preserve">11.0166454315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4941539764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4144506454468</t>
   </si>
   <si>
     <t xml:space="preserve">10.2816133499146</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">10.3258924484253</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98051643371582</t>
+    <t xml:space="preserve">9.98051452636719</t>
   </si>
   <si>
     <t xml:space="preserve">10.3790273666382</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">10.0602178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3613147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.308180809021</t>
+    <t xml:space="preserve">10.3613166809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3081817626953</t>
   </si>
   <si>
     <t xml:space="preserve">10.6712694168091</t>
@@ -311,64 +311,64 @@
     <t xml:space="preserve">11.4771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1937646865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9812240600586</t>
+    <t xml:space="preserve">11.1937656402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9812231063843</t>
   </si>
   <si>
     <t xml:space="preserve">11.3000335693359</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3443126678467</t>
+    <t xml:space="preserve">11.344313621521</t>
   </si>
   <si>
     <t xml:space="preserve">11.0697822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8926668167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9015216827393</t>
+    <t xml:space="preserve">10.8926639556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9015226364136</t>
   </si>
   <si>
     <t xml:space="preserve">10.9900798797607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9723672866821</t>
+    <t xml:space="preserve">10.9723691940308</t>
   </si>
   <si>
     <t xml:space="preserve">10.8749532699585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5738554000854</t>
+    <t xml:space="preserve">10.5738544464111</t>
   </si>
   <si>
     <t xml:space="preserve">10.1222085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.051362991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0070838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74140739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0956401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5561447143555</t>
+    <t xml:space="preserve">10.0513620376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0070829391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74140930175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0956411361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5561437606812</t>
   </si>
   <si>
     <t xml:space="preserve">10.4055957794189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5118646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.644702911377</t>
+    <t xml:space="preserve">10.5118656158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6447019577026</t>
   </si>
   <si>
     <t xml:space="preserve">9.93623638153076</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">9.17463493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73255157470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62628364562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98937129974365</t>
+    <t xml:space="preserve">9.73255252838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62628173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98937225341797</t>
   </si>
   <si>
     <t xml:space="preserve">10.2461891174316</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">10.0425062179565</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23662662506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234657287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77683162689209</t>
+    <t xml:space="preserve">9.23662567138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234752655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77683258056641</t>
   </si>
   <si>
     <t xml:space="preserve">10.1399202346802</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">10.1930561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2727584838867</t>
+    <t xml:space="preserve">10.2727575302124</t>
   </si>
   <si>
     <t xml:space="preserve">10.2107667922974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7598276138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1406278610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0786380767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0963487625122</t>
+    <t xml:space="preserve">10.7598266601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1406288146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0786390304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0963497161865</t>
   </si>
   <si>
     <t xml:space="preserve">11.0520696640015</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">10.9369449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1583404541016</t>
+    <t xml:space="preserve">11.1583395004272</t>
   </si>
   <si>
     <t xml:space="preserve">11.3177452087402</t>
@@ -446,10 +446,10 @@
     <t xml:space="preserve">11.3797359466553</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7863960266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1140604019165</t>
+    <t xml:space="preserve">10.786395072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1140613555908</t>
   </si>
   <si>
     <t xml:space="preserve">10.96351146698</t>
@@ -461,43 +461,43 @@
     <t xml:space="preserve">11.122917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2823219299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.184907913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2468976974487</t>
+    <t xml:space="preserve">11.2823209762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1849069595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.246898651123</t>
   </si>
   <si>
     <t xml:space="preserve">11.3266010284424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5922765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8136720657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8402395248413</t>
+    <t xml:space="preserve">11.5922756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8136711120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.840238571167</t>
   </si>
   <si>
     <t xml:space="preserve">11.7516803741455</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8668069839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7162561416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7339687347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5125722885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3885908126831</t>
+    <t xml:space="preserve">11.8668060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7162570953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7339696884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5125732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3885917663574</t>
   </si>
   <si>
     <t xml:space="preserve">11.4328708648682</t>
@@ -506,13 +506,13 @@
     <t xml:space="preserve">11.2026195526123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7605352401733</t>
+    <t xml:space="preserve">11.7605361938477</t>
   </si>
   <si>
     <t xml:space="preserve">11.6808338165283</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8933734893799</t>
+    <t xml:space="preserve">11.8933725357056</t>
   </si>
   <si>
     <t xml:space="preserve">12.1059141159058</t>
@@ -524,46 +524,46 @@
     <t xml:space="preserve">12.1324806213379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5752716064453</t>
+    <t xml:space="preserve">12.5752725601196</t>
   </si>
   <si>
     <t xml:space="preserve">12.6018390655518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4778575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3538770675659</t>
+    <t xml:space="preserve">12.477858543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3538751602173</t>
   </si>
   <si>
     <t xml:space="preserve">12.6726865768433</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9914960861206</t>
+    <t xml:space="preserve">12.9914970397949</t>
   </si>
   <si>
     <t xml:space="preserve">12.8852262496948</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9295053482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1066217422485</t>
+    <t xml:space="preserve">12.9295043945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1066226959229</t>
   </si>
   <si>
     <t xml:space="preserve">13.4874219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6556835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619524002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5051336288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4527082443237</t>
+    <t xml:space="preserve">13.6556844711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5051355361938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4527063369751</t>
   </si>
   <si>
     <t xml:space="preserve">14.3021574020386</t>
@@ -575,28 +575,28 @@
     <t xml:space="preserve">14.2135992050171</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2047452926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1516084671021</t>
+    <t xml:space="preserve">14.2047443389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1516094207764</t>
   </si>
   <si>
     <t xml:space="preserve">14.0010604858398</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8593673706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6822509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8416557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9125022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8062314987183</t>
+    <t xml:space="preserve">13.8593664169312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6822500228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8416547775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912501335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8062324523926</t>
   </si>
   <si>
     <t xml:space="preserve">13.2748823165894</t>
@@ -605,22 +605,22 @@
     <t xml:space="preserve">13.4519996643066</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2306032180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7265300750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6379718780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8150882720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9567804336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2578802108765</t>
+    <t xml:space="preserve">13.2306022644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7265291213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8150863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9567813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2578792572021</t>
   </si>
   <si>
     <t xml:space="preserve">14.1781768798828</t>
@@ -629,127 +629,127 @@
     <t xml:space="preserve">14.8689317703247</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3914241790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.364857673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5773973464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862522125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331201553345</t>
+    <t xml:space="preserve">15.3914251327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3648567199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5773963928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5862560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534158706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331192016602</t>
   </si>
   <si>
     <t xml:space="preserve">15.4268474578857</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6216764450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545146942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6305313110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3294334411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8962059020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2858638763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4629783630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5603942871094</t>
+    <t xml:space="preserve">15.621675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545137405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6305332183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3294343948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8962087631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2858619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4629802703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.560396194458</t>
   </si>
   <si>
     <t xml:space="preserve">16.6046733856201</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1360244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9854717254639</t>
+    <t xml:space="preserve">17.136022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9854736328125</t>
   </si>
   <si>
     <t xml:space="preserve">17.2511463165283</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8703460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6489524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3301448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6843719482422</t>
+    <t xml:space="preserve">16.8703479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6489505767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3301410675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6843757629395</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666622161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0917415618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.799503326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9766178131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9500465393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1094551086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3928413391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2245807647705</t>
+    <t xml:space="preserve">16.6666641235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0917434692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7995014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.976619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9500503540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1094532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3928394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2245826721191</t>
   </si>
   <si>
     <t xml:space="preserve">16.6312427520752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1803035736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9589061737061</t>
+    <t xml:space="preserve">17.1803016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9589042663574</t>
   </si>
   <si>
     <t xml:space="preserve">17.3042850494385</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4459781646729</t>
+    <t xml:space="preserve">17.4459762573242</t>
   </si>
   <si>
     <t xml:space="preserve">17.7559280395508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6408061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6053829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8179206848145</t>
+    <t xml:space="preserve">17.6408042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6053791046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8179225921631</t>
   </si>
   <si>
     <t xml:space="preserve">17.55224609375</t>
@@ -767,31 +767,31 @@
     <t xml:space="preserve">17.6762275695801</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8437805175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614921569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0474643707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2600021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.375129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7817897796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068653106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9146289825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308525085449</t>
+    <t xml:space="preserve">16.8437824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614902496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0474662780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2600040435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3751316070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7817916870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068691253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9146270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308506011963</t>
   </si>
   <si>
     <t xml:space="preserve">17.3839874267578</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">17.3485622406006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5345325469971</t>
+    <t xml:space="preserve">17.5345344543457</t>
   </si>
   <si>
     <t xml:space="preserve">17.4725437164307</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">17.7470741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0481700897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4828147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0495872497559</t>
+    <t xml:space="preserve">18.0481739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4828186035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0495891571045</t>
   </si>
   <si>
     <t xml:space="preserve">20.5012340545654</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">20.4569568634033</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9528846740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1654224395752</t>
+    <t xml:space="preserve">20.952880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1654243469238</t>
   </si>
   <si>
     <t xml:space="preserve">21.7056293487549</t>
@@ -845,97 +845,97 @@
     <t xml:space="preserve">21.4488086700439</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7764759063721</t>
+    <t xml:space="preserve">21.7764739990234</t>
   </si>
   <si>
     <t xml:space="preserve">21.8738899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0421504974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9358768463135</t>
+    <t xml:space="preserve">22.0421485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9358787536621</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395645141602</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4140949249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3875293731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4760837554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4495162963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3166809082031</t>
+    <t xml:space="preserve">22.4140930175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3875312805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4760856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4495182037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3166790008545</t>
   </si>
   <si>
     <t xml:space="preserve">22.7594718933105</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5646438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7948970794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7506141662598</t>
+    <t xml:space="preserve">22.5646419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6089210510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7948951721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7506160736084</t>
   </si>
   <si>
     <t xml:space="preserve">22.8037509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0251445770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2288303375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9631576538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.502649307251</t>
+    <t xml:space="preserve">23.025146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.228832244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.96315574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5026512145996</t>
   </si>
   <si>
     <t xml:space="preserve">23.326244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5210704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6450576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0524215698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3800868988037</t>
+    <t xml:space="preserve">23.5210723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.645055770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0524234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3800888061523</t>
   </si>
   <si>
     <t xml:space="preserve">24.8494472503662</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7963123321533</t>
+    <t xml:space="preserve">24.796314239502</t>
   </si>
   <si>
     <t xml:space="preserve">25.0619850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">25.23024559021</t>
+    <t xml:space="preserve">25.2302474975586</t>
   </si>
   <si>
     <t xml:space="preserve">25.1062660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0354194641113</t>
+    <t xml:space="preserve">25.0354175567627</t>
   </si>
   <si>
     <t xml:space="preserve">26.5763320922852</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">26.6390762329102</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5533390045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7863845825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.315221786499</t>
+    <t xml:space="preserve">27.553337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7863864898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3152236938477</t>
   </si>
   <si>
     <t xml:space="preserve">27.8312015533447</t>
@@ -959,25 +959,25 @@
     <t xml:space="preserve">28.8440628051758</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5342407226562</t>
+    <t xml:space="preserve">29.5342388153076</t>
   </si>
   <si>
     <t xml:space="preserve">27.9656524658203</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6289386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1846694946289</t>
+    <t xml:space="preserve">28.6289405822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1846675872803</t>
   </si>
   <si>
     <t xml:space="preserve">29.6597232818604</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9375896453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0451507568359</t>
+    <t xml:space="preserve">29.9375877380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0451488494873</t>
   </si>
   <si>
     <t xml:space="preserve">30.4753894805908</t>
@@ -986,37 +986,37 @@
     <t xml:space="preserve">30.9504489898682</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4126491546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8428897857666</t>
+    <t xml:space="preserve">30.4126510620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.842887878418</t>
   </si>
   <si>
     <t xml:space="preserve">31.0042304992676</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0759315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1924571990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1745338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1117858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8249588012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9235591888428</t>
+    <t xml:space="preserve">31.0759353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.192455291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1745300292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1117897033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8249626159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9235610961914</t>
   </si>
   <si>
     <t xml:space="preserve">30.8608150482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5252723693848</t>
+    <t xml:space="preserve">29.525276184082</t>
   </si>
   <si>
     <t xml:space="preserve">29.6686859130859</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">29.4804592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4446029663086</t>
+    <t xml:space="preserve">29.4446048736572</t>
   </si>
   <si>
     <t xml:space="preserve">30.3409404754639</t>
@@ -1040,19 +1040,19 @@
     <t xml:space="preserve">30.0989303588867</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2244148254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6507625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9824066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0771083831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2922306060791</t>
+    <t xml:space="preserve">30.2244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6507606506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9824047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0771102905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2922286987305</t>
   </si>
   <si>
     <t xml:space="preserve">27.9298000335693</t>
@@ -1067,28 +1067,28 @@
     <t xml:space="preserve">27.8491287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">27.642972946167</t>
+    <t xml:space="preserve">27.6429710388184</t>
   </si>
   <si>
     <t xml:space="preserve">27.7326068878174</t>
   </si>
   <si>
-    <t xml:space="preserve">28.279369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5124168395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8760185241699</t>
+    <t xml:space="preserve">28.2793712615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.512414932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8760204315186</t>
   </si>
   <si>
     <t xml:space="preserve">28.7365016937256</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7813186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6827182769775</t>
+    <t xml:space="preserve">28.7813167572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6827201843262</t>
   </si>
   <si>
     <t xml:space="preserve">28.9516201019287</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">29.9555130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7045421600342</t>
+    <t xml:space="preserve">29.7045402526855</t>
   </si>
   <si>
     <t xml:space="preserve">29.4983863830566</t>
@@ -1106,28 +1106,28 @@
     <t xml:space="preserve">29.3370475769043</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3997859954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3101577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4894218444824</t>
+    <t xml:space="preserve">29.399787902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3101558685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4894237518311</t>
   </si>
   <si>
     <t xml:space="preserve">29.1308879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8709487915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1577739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1129589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7762508392334</t>
+    <t xml:space="preserve">28.8709526062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1577758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1129608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7762489318848</t>
   </si>
   <si>
     <t xml:space="preserve">30.0272216796875</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">29.5700950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5790576934814</t>
+    <t xml:space="preserve">29.5790557861328</t>
   </si>
   <si>
     <t xml:space="preserve">28.9785137176514</t>
@@ -1145,43 +1145,43 @@
     <t xml:space="preserve">29.8569221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">29.785213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.847957611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8658866882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3140506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0092964172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3588695526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6866149902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3460102081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6059474945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5381336212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6367340087891</t>
+    <t xml:space="preserve">29.7852096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8479557037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8658828735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3140487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0092945098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.358865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6866130828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3460121154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6059436798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5381355285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6367321014404</t>
   </si>
   <si>
     <t xml:space="preserve">30.6456928253174</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4664287567139</t>
+    <t xml:space="preserve">30.4664268493652</t>
   </si>
   <si>
     <t xml:space="preserve">30.2692337036133</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">32.2680625915527</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6764755249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9952697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1784248352051</t>
+    <t xml:space="preserve">31.6764812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.995267868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1784286499023</t>
   </si>
   <si>
     <t xml:space="preserve">31.954345703125</t>
@@ -1220,43 +1220,43 @@
     <t xml:space="preserve">32.1336059570312</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4921417236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.388484954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5856704711914</t>
+    <t xml:space="preserve">32.4921455383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3884811401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5856742858887</t>
   </si>
   <si>
     <t xml:space="preserve">34.9570655822754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8943252563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9301795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7778015136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.419261932373</t>
+    <t xml:space="preserve">34.8943214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.93017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7777976989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4192657470703</t>
   </si>
   <si>
     <t xml:space="preserve">34.6343841552734</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7419471740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6293182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4231567382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.858470916748</t>
+    <t xml:space="preserve">34.741943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.629322052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4231605529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8584671020508</t>
   </si>
   <si>
     <t xml:space="preserve">34.5716400146484</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">34.0607299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0428009033203</t>
+    <t xml:space="preserve">34.0428047180176</t>
   </si>
   <si>
     <t xml:space="preserve">34.3385925292969</t>
@@ -1277,16 +1277,16 @@
     <t xml:space="preserve">34.257926940918</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5088996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3116989135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6164588928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9749908447266</t>
+    <t xml:space="preserve">34.5088958740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3117027282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.616455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9749946594238</t>
   </si>
   <si>
     <t xml:space="preserve">34.8136520385742</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">34.4999389648438</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3027381896973</t>
+    <t xml:space="preserve">34.3027420043945</t>
   </si>
   <si>
     <t xml:space="preserve">33.0299415588379</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2848129272461</t>
+    <t xml:space="preserve">34.2848167419434</t>
   </si>
   <si>
     <t xml:space="preserve">35.3066368103027</t>
@@ -1310,25 +1310,25 @@
     <t xml:space="preserve">36.4539451599121</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5077285766602</t>
+    <t xml:space="preserve">36.5077247619629</t>
   </si>
   <si>
     <t xml:space="preserve">36.3912010192871</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7049179077148</t>
+    <t xml:space="preserve">36.7049217224121</t>
   </si>
   <si>
     <t xml:space="preserve">37.6281433105469</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0802040100098</t>
+    <t xml:space="preserve">39.080207824707</t>
   </si>
   <si>
     <t xml:space="preserve">39.1429481506348</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8381958007812</t>
+    <t xml:space="preserve">38.8381996154785</t>
   </si>
   <si>
     <t xml:space="preserve">38.8023414611816</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">38.4886245727539</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6499633789062</t>
+    <t xml:space="preserve">38.6499671936035</t>
   </si>
   <si>
     <t xml:space="preserve">39.4387397766113</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">39.0264282226562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0225296020508</t>
+    <t xml:space="preserve">38.022533416748</t>
   </si>
   <si>
     <t xml:space="preserve">38.5692977905273</t>
@@ -1361,16 +1361,16 @@
     <t xml:space="preserve">38.5603332519531</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7395973205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7844200134277</t>
+    <t xml:space="preserve">38.7396011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7844161987305</t>
   </si>
   <si>
     <t xml:space="preserve">38.8292350769043</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9099006652832</t>
+    <t xml:space="preserve">38.9099044799805</t>
   </si>
   <si>
     <t xml:space="preserve">38.9547157287598</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">39.3042869567871</t>
   </si>
   <si>
-    <t xml:space="preserve">39.277400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5463027954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.775447845459</t>
+    <t xml:space="preserve">39.2773971557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5462951660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7754516601562</t>
   </si>
   <si>
     <t xml:space="preserve">38.5065536499023</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5961875915527</t>
+    <t xml:space="preserve">38.59619140625</t>
   </si>
   <si>
     <t xml:space="preserve">37.9149703979492</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">36.8214454650879</t>
   </si>
   <si>
-    <t xml:space="preserve">37.897045135498</t>
+    <t xml:space="preserve">37.8970413208008</t>
   </si>
   <si>
     <t xml:space="preserve">38.6858177185059</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">42.2353057861328</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8985939025879</t>
+    <t xml:space="preserve">42.8985900878906</t>
   </si>
   <si>
     <t xml:space="preserve">43.0599365234375</t>
@@ -1421,16 +1421,16 @@
     <t xml:space="preserve">42.6655464172363</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2711563110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3249397277832</t>
+    <t xml:space="preserve">42.2711639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3249359130859</t>
   </si>
   <si>
     <t xml:space="preserve">42.1636047363281</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8588447570801</t>
+    <t xml:space="preserve">41.8588485717773</t>
   </si>
   <si>
     <t xml:space="preserve">42.0022583007812</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">42.378719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">41.930549621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7692070007324</t>
+    <t xml:space="preserve">41.9305534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7692108154297</t>
   </si>
   <si>
     <t xml:space="preserve">42.0201873779297</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">41.0521430969238</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5860481262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8191032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0303230285645</t>
+    <t xml:space="preserve">40.586051940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8190956115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0303192138672</t>
   </si>
   <si>
     <t xml:space="preserve">39.3670310974121</t>
@@ -1475,13 +1475,13 @@
     <t xml:space="preserve">41.7154312133789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9009437561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7894821166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5026550292969</t>
+    <t xml:space="preserve">38.9009475708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5026626586914</t>
   </si>
   <si>
     <t xml:space="preserve">39.8151969909668</t>
@@ -1493,43 +1493,43 @@
     <t xml:space="preserve">40.335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8011703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0342178344727</t>
+    <t xml:space="preserve">40.8011741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0342140197754</t>
   </si>
   <si>
     <t xml:space="preserve">41.1776313781738</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3748245239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2314109802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7473907470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1955528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4745903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4028854370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4426383972168</t>
+    <t xml:space="preserve">41.374828338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2314071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.747386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.195556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4745941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.402889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4426345825195</t>
   </si>
   <si>
     <t xml:space="preserve">40.6219024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6258010864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8448104858398</t>
+    <t xml:space="preserve">41.6257972717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8448143005371</t>
   </si>
   <si>
     <t xml:space="preserve">44.7988243103027</t>
@@ -1538,46 +1538,46 @@
     <t xml:space="preserve">44.1534614562988</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4890022277832</t>
+    <t xml:space="preserve">45.4890060424805</t>
   </si>
   <si>
     <t xml:space="preserve">44.1355361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2200965881348</t>
+    <t xml:space="preserve">45.220100402832</t>
   </si>
   <si>
     <t xml:space="preserve">46.2957077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">47.595386505127</t>
+    <t xml:space="preserve">47.5953903198242</t>
   </si>
   <si>
     <t xml:space="preserve">46.2060699462891</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8475379943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9511985778809</t>
+    <t xml:space="preserve">45.8475341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9512023925781</t>
   </si>
   <si>
     <t xml:space="preserve">44.2610282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0996856689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2033500671387</t>
+    <t xml:space="preserve">44.099681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2033462524414</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4106788635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.392749786377</t>
+    <t xml:space="preserve">41.4106750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3927536010742</t>
   </si>
   <si>
     <t xml:space="preserve">41.2493362426758</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">40.7832450866699</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9586219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5283737182617</t>
+    <t xml:space="preserve">39.9586181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5283699035645</t>
   </si>
   <si>
     <t xml:space="preserve">40.4784927368164</t>
@@ -1613,13 +1613,13 @@
     <t xml:space="preserve">39.6538619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2594718933105</t>
+    <t xml:space="preserve">39.2594680786133</t>
   </si>
   <si>
     <t xml:space="preserve">42.6296920776367</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2851905822754</t>
+    <t xml:space="preserve">41.2851943969727</t>
   </si>
   <si>
     <t xml:space="preserve">42.1728477478027</t>
@@ -5250,6 +5250,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.30500030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01500034332275</t>
   </si>
 </sst>
 </file>
@@ -62401,7 +62404,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6493981481</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>218793</v>
@@ -62422,6 +62425,32 @@
         <v>1745</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6493171296</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>163922</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>9.19999980926514</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>8.95499992370605</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>9.19999980926514</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>9.01500034332275</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BSS.MI.xlsx
+++ b/data/BSS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="1749">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3280181884766</t>
+    <t xml:space="preserve">13.3280191421509</t>
   </si>
   <si>
     <t xml:space="preserve">BSS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528583526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8206920623779</t>
+    <t xml:space="preserve">13.0528593063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8206939697266</t>
   </si>
   <si>
     <t xml:space="preserve">12.4681453704834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3133697509766</t>
+    <t xml:space="preserve">12.3133687973022</t>
   </si>
   <si>
     <t xml:space="preserve">12.33056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2101850509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5480823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203748703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85413360595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4130516052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90572643280029</t>
+    <t xml:space="preserve">12.2101831436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5480833053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85413455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.413049697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90572738647461</t>
   </si>
   <si>
     <t xml:space="preserve">10.5334329605103</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">10.3528594970703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8429870605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8773822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7913961410522</t>
+    <t xml:space="preserve">10.8429880142212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8773832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7913951873779</t>
   </si>
   <si>
     <t xml:space="preserve">10.6366176605225</t>
@@ -98,19 +98,19 @@
     <t xml:space="preserve">10.6968088150024</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2496747970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5162353515625</t>
+    <t xml:space="preserve">10.2496757507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5162363052368</t>
   </si>
   <si>
     <t xml:space="preserve">10.5506315231323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0777015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08884716033936</t>
+    <t xml:space="preserve">10.0777025222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08884906768799</t>
   </si>
   <si>
     <t xml:space="preserve">9.02865791320801</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">9.45859336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20063209533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48438835144043</t>
+    <t xml:space="preserve">9.2006311416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48439025878906</t>
   </si>
   <si>
     <t xml:space="preserve">9.95731925964355</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">10.4990396499634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4044523239136</t>
+    <t xml:space="preserve">10.4044532775879</t>
   </si>
   <si>
     <t xml:space="preserve">10.2582750320435</t>
@@ -143,34 +143,34 @@
     <t xml:space="preserve">11.0665531158447</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6108236312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2840700149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2410774230957</t>
+    <t xml:space="preserve">10.6108226776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2840719223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2410764694214</t>
   </si>
   <si>
     <t xml:space="preserve">11.1009492874146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9719686508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8748359680176</t>
+    <t xml:space="preserve">10.9719696044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8748340606689</t>
   </si>
   <si>
     <t xml:space="preserve">12.0124139785767</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1757888793945</t>
+    <t xml:space="preserve">12.1757898330688</t>
   </si>
   <si>
     <t xml:space="preserve">11.8404397964478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0382089614868</t>
+    <t xml:space="preserve">12.0382099151611</t>
   </si>
   <si>
     <t xml:space="preserve">11.694260597229</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">11.43630027771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4448976516724</t>
+    <t xml:space="preserve">11.4448986053467</t>
   </si>
   <si>
     <t xml:space="preserve">11.7286558151245</t>
@@ -188,88 +188,88 @@
     <t xml:space="preserve">11.9092292785645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9866161346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8662338256836</t>
+    <t xml:space="preserve">11.9866170883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8662357330322</t>
   </si>
   <si>
     <t xml:space="preserve">12.1155986785889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2617769241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.27037525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079561233521</t>
+    <t xml:space="preserve">12.261775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2703762054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079542160034</t>
   </si>
   <si>
     <t xml:space="preserve">12.201584815979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2359781265259</t>
+    <t xml:space="preserve">12.2359800338745</t>
   </si>
   <si>
     <t xml:space="preserve">12.2875728607178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9694194793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6340703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3503112792969</t>
+    <t xml:space="preserve">11.9694204330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.634069442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3503131866455</t>
   </si>
   <si>
     <t xml:space="preserve">11.8060445785522</t>
   </si>
   <si>
-    <t xml:space="preserve">11.952220916748</t>
+    <t xml:space="preserve">11.9522228240967</t>
   </si>
   <si>
     <t xml:space="preserve">11.8834314346313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7716493606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6684646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.70285987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5394859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2557249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1697378158569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1783380508423</t>
+    <t xml:space="preserve">11.7716484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6684637069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7028579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5394840240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25572681427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1697387695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1783361434937</t>
   </si>
   <si>
     <t xml:space="preserve">11.3847064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4105043411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2213296890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.118145942688</t>
+    <t xml:space="preserve">11.4105033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2213306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1181468963623</t>
   </si>
   <si>
     <t xml:space="preserve">11.0493564605713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2041320800781</t>
+    <t xml:space="preserve">11.2041339874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.6624145507812</t>
@@ -281,37 +281,37 @@
     <t xml:space="preserve">10.4941530227661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4144506454468</t>
+    <t xml:space="preserve">10.4144525527954</t>
   </si>
   <si>
     <t xml:space="preserve">10.2816123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3258924484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9805154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3790273666382</t>
+    <t xml:space="preserve">10.325891494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98051643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3790292739868</t>
   </si>
   <si>
     <t xml:space="preserve">10.0602178573608</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3613157272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3081798553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6712694168091</t>
+    <t xml:space="preserve">10.3613147735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3081827163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6712703704834</t>
   </si>
   <si>
     <t xml:space="preserve">11.4771499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1937627792358</t>
+    <t xml:space="preserve">11.1937637329102</t>
   </si>
   <si>
     <t xml:space="preserve">10.9812240600586</t>
@@ -320,25 +320,25 @@
     <t xml:space="preserve">11.3000345230103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.344313621521</t>
+    <t xml:space="preserve">11.3443126678467</t>
   </si>
   <si>
     <t xml:space="preserve">11.0697813034058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8926668167114</t>
+    <t xml:space="preserve">10.8926649093628</t>
   </si>
   <si>
     <t xml:space="preserve">10.9015216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9900789260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9723691940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8749532699585</t>
+    <t xml:space="preserve">10.9900798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9723682403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8749542236328</t>
   </si>
   <si>
     <t xml:space="preserve">10.5738554000854</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">10.1222085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0513610839844</t>
+    <t xml:space="preserve">10.0513620376587</t>
   </si>
   <si>
     <t xml:space="preserve">10.0070829391479</t>
@@ -359,22 +359,22 @@
     <t xml:space="preserve">10.0956411361694</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5561437606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4055957794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118646621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6447038650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93623542785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.174635887146</t>
+    <t xml:space="preserve">10.5561447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4055948257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118637084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.644702911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93623638153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17463397979736</t>
   </si>
   <si>
     <t xml:space="preserve">9.73255157470703</t>
@@ -386,82 +386,82 @@
     <t xml:space="preserve">9.98937129974365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.246190071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0425052642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23662567138672</t>
+    <t xml:space="preserve">10.2461891174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0425062179565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23662662506104</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77683258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1399211883545</t>
+    <t xml:space="preserve">9.77683067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1399202346802</t>
   </si>
   <si>
     <t xml:space="preserve">10.4410181045532</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3436040878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1930551528931</t>
+    <t xml:space="preserve">10.3436050415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1930561065674</t>
   </si>
   <si>
     <t xml:space="preserve">10.2727584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2107667922974</t>
+    <t xml:space="preserve">10.210765838623</t>
   </si>
   <si>
     <t xml:space="preserve">10.7598276138306</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1406278610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0786380767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0963487625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0520696640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9369449615479</t>
+    <t xml:space="preserve">11.1406288146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0786390304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0963497161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0520706176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9369459152222</t>
   </si>
   <si>
     <t xml:space="preserve">11.1583404541016</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3177442550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.379734992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7863969802856</t>
+    <t xml:space="preserve">11.3177452087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3797359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.786395072937</t>
   </si>
   <si>
     <t xml:space="preserve">11.1140613555908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9635133743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2291879653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1229162216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.282322883606</t>
+    <t xml:space="preserve">10.9635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2291870117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.122917175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2823219299316</t>
   </si>
   <si>
     <t xml:space="preserve">11.1849069595337</t>
@@ -470,19 +470,19 @@
     <t xml:space="preserve">11.246898651123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3266000747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5922765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8136711120605</t>
+    <t xml:space="preserve">11.3266010284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5922756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8136720657349</t>
   </si>
   <si>
     <t xml:space="preserve">11.840238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7516803741455</t>
+    <t xml:space="preserve">11.7516822814941</t>
   </si>
   <si>
     <t xml:space="preserve">11.8668060302734</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">11.7162570953369</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7339696884155</t>
+    <t xml:space="preserve">11.7339687347412</t>
   </si>
   <si>
     <t xml:space="preserve">11.5125722885132</t>
@@ -503,34 +503,34 @@
     <t xml:space="preserve">11.4328708648682</t>
   </si>
   <si>
-    <t xml:space="preserve">11.202618598938</t>
+    <t xml:space="preserve">11.2026195526123</t>
   </si>
   <si>
     <t xml:space="preserve">11.7605361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.680832862854</t>
+    <t xml:space="preserve">11.6808338165283</t>
   </si>
   <si>
     <t xml:space="preserve">11.8933744430542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1059150695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1236248016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1324806213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5752725601196</t>
+    <t xml:space="preserve">12.1059131622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1236238479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1324815750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5752716064453</t>
   </si>
   <si>
     <t xml:space="preserve">12.6018390655518</t>
   </si>
   <si>
-    <t xml:space="preserve">12.477858543396</t>
+    <t xml:space="preserve">12.4778575897217</t>
   </si>
   <si>
     <t xml:space="preserve">12.3538761138916</t>
@@ -548,28 +548,28 @@
     <t xml:space="preserve">12.9295063018799</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1066207885742</t>
+    <t xml:space="preserve">13.1066217422485</t>
   </si>
   <si>
     <t xml:space="preserve">13.4874210357666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6556825637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7619524002075</t>
+    <t xml:space="preserve">13.6556844711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7619533538818</t>
   </si>
   <si>
     <t xml:space="preserve">13.5051345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4527082443237</t>
+    <t xml:space="preserve">14.4527072906494</t>
   </si>
   <si>
     <t xml:space="preserve">14.3021574020386</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3375825881958</t>
+    <t xml:space="preserve">14.3375816345215</t>
   </si>
   <si>
     <t xml:space="preserve">14.2136001586914</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">13.8062314987183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2748823165894</t>
+    <t xml:space="preserve">13.274881362915</t>
   </si>
   <si>
     <t xml:space="preserve">13.4519987106323</t>
@@ -608,19 +608,19 @@
     <t xml:space="preserve">13.2306022644043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7265291213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6379718780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8150873184204</t>
+    <t xml:space="preserve">13.7265300750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8150882720947</t>
   </si>
   <si>
     <t xml:space="preserve">13.9567813873291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2578792572021</t>
+    <t xml:space="preserve">14.2578802108765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1781768798828</t>
@@ -629,43 +629,43 @@
     <t xml:space="preserve">14.8689317703247</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3914222717285</t>
+    <t xml:space="preserve">15.3914232254028</t>
   </si>
   <si>
     <t xml:space="preserve">15.3648586273193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5773973464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5862531661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4534177780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5331192016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4268474578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6216773986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7545137405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6305313110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3294334411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8962059020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2858600616455</t>
+    <t xml:space="preserve">15.5773992538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5862550735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4534149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5331172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4268484115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6216745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7545156478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6305322647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3294343948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8962078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2858619689941</t>
   </si>
   <si>
     <t xml:space="preserve">16.4629802703857</t>
@@ -689,52 +689,52 @@
     <t xml:space="preserve">16.8703479766846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6489505767822</t>
+    <t xml:space="preserve">16.6489524841309</t>
   </si>
   <si>
     <t xml:space="preserve">16.3301429748535</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6843757629395</t>
+    <t xml:space="preserve">16.6843776702881</t>
   </si>
   <si>
     <t xml:space="preserve">16.7463665008545</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6666641235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0917434692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7994976043701</t>
+    <t xml:space="preserve">16.6666622161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0917415618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.799503326416</t>
   </si>
   <si>
     <t xml:space="preserve">16.9766178131104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9500484466553</t>
+    <t xml:space="preserve">16.9500503540039</t>
   </si>
   <si>
     <t xml:space="preserve">17.1094532012939</t>
   </si>
   <si>
-    <t xml:space="preserve">17.39284324646</t>
+    <t xml:space="preserve">17.3928413391113</t>
   </si>
   <si>
     <t xml:space="preserve">17.2245807647705</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6312427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1802997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9589061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3042850494385</t>
+    <t xml:space="preserve">16.6312408447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1803016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9589042663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3042831420898</t>
   </si>
   <si>
     <t xml:space="preserve">17.4459762573242</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">17.7559299468994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6408023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6053829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8179225921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5522441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6585178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8444900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9419021606445</t>
+    <t xml:space="preserve">17.6408061981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6053791046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8179244995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.55224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6585159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8444919586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9419059753418</t>
   </si>
   <si>
     <t xml:space="preserve">17.6762256622314</t>
@@ -776,22 +776,22 @@
     <t xml:space="preserve">17.0474643707275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2600040435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3751316070557</t>
+    <t xml:space="preserve">17.2600021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.375129699707</t>
   </si>
   <si>
     <t xml:space="preserve">16.7817897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068691253662</t>
+    <t xml:space="preserve">17.2068710327148</t>
   </si>
   <si>
     <t xml:space="preserve">16.9146289825439</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3308506011963</t>
+    <t xml:space="preserve">17.3308486938477</t>
   </si>
   <si>
     <t xml:space="preserve">17.3839855194092</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">17.5345325469971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4725437164307</t>
+    <t xml:space="preserve">17.4725456237793</t>
   </si>
   <si>
     <t xml:space="preserve">17.7470741271973</t>
@@ -818,43 +818,43 @@
     <t xml:space="preserve">19.4828147888184</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0495853424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5012340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.713773727417</t>
+    <t xml:space="preserve">20.0495891571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5012359619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7137775421143</t>
   </si>
   <si>
     <t xml:space="preserve">20.4569568634033</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9528846740723</t>
+    <t xml:space="preserve">20.9528827667236</t>
   </si>
   <si>
     <t xml:space="preserve">21.1654224395752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7056274414062</t>
+    <t xml:space="preserve">21.7056312561035</t>
   </si>
   <si>
     <t xml:space="preserve">21.2097034454346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4488086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7764720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8738899230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0421504974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.935884475708</t>
+    <t xml:space="preserve">21.4488067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7764778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8738918304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0421485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9358806610107</t>
   </si>
   <si>
     <t xml:space="preserve">22.1395626068115</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">22.4140930175781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3875255584717</t>
+    <t xml:space="preserve">22.3875274658203</t>
   </si>
   <si>
     <t xml:space="preserve">22.4760856628418</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">22.3166809082031</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7594699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5646457672119</t>
+    <t xml:space="preserve">22.7594718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5646438598633</t>
   </si>
   <si>
     <t xml:space="preserve">22.608922958374</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">22.7948932647705</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7506160736084</t>
+    <t xml:space="preserve">22.7506198883057</t>
   </si>
   <si>
     <t xml:space="preserve">22.8037509918213</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">23.0251445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">23.228832244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9631538391113</t>
+    <t xml:space="preserve">23.2288284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9631576538086</t>
   </si>
   <si>
     <t xml:space="preserve">22.5026531219482</t>
@@ -911,55 +911,55 @@
     <t xml:space="preserve">23.5210723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.645055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0524196624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3800868988037</t>
+    <t xml:space="preserve">23.6450576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0524253845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.380090713501</t>
   </si>
   <si>
     <t xml:space="preserve">24.8494472503662</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7963104248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0619850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2302474975586</t>
+    <t xml:space="preserve">24.7963123321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0619869232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.23024559021</t>
   </si>
   <si>
     <t xml:space="preserve">25.1062660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0354194641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5763320922852</t>
+    <t xml:space="preserve">25.0354175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5763301849365</t>
   </si>
   <si>
     <t xml:space="preserve">26.6390743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5533390045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7863845825195</t>
+    <t xml:space="preserve">27.553337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7863864898682</t>
   </si>
   <si>
     <t xml:space="preserve">28.3152236938477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8312034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8440589904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5342426300049</t>
+    <t xml:space="preserve">27.8312015533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8440608978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5342407226562</t>
   </si>
   <si>
     <t xml:space="preserve">27.9656524658203</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">28.628942489624</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1846675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6597270965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9375915527344</t>
+    <t xml:space="preserve">29.1846694946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6597232818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.937593460083</t>
   </si>
   <si>
     <t xml:space="preserve">30.0451507568359</t>
@@ -983,58 +983,58 @@
     <t xml:space="preserve">30.4753913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9504470825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4126491546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.842887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0042285919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0759334564209</t>
+    <t xml:space="preserve">30.9504451751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4126472473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8428897857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0042304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0759372711182</t>
   </si>
   <si>
     <t xml:space="preserve">31.1924591064453</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1745319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1117839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8249607086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9235553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8608131408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5252742767334</t>
+    <t xml:space="preserve">31.1745338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1117877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8249588012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9235591888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8608150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.525276184082</t>
   </si>
   <si>
     <t xml:space="preserve">29.6686859130859</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4804573059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4446048736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3409366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3050880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1706371307373</t>
+    <t xml:space="preserve">29.4804611206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.44460105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3409385681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3050899505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1706352233887</t>
   </si>
   <si>
     <t xml:space="preserve">30.0989303588867</t>
@@ -1049,52 +1049,52 @@
     <t xml:space="preserve">29.9824085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0771045684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2922306060791</t>
+    <t xml:space="preserve">29.0771083831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2922267913818</t>
   </si>
   <si>
     <t xml:space="preserve">27.9297981262207</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1269931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099254608154</t>
+    <t xml:space="preserve">28.1269912719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4099273681641</t>
   </si>
   <si>
     <t xml:space="preserve">27.8491287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6429710388184</t>
+    <t xml:space="preserve">27.6429748535156</t>
   </si>
   <si>
     <t xml:space="preserve">27.7326068878174</t>
   </si>
   <si>
-    <t xml:space="preserve">28.279369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5124168395996</t>
+    <t xml:space="preserve">28.2793674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.512414932251</t>
   </si>
   <si>
     <t xml:space="preserve">27.8760185241699</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7365036010742</t>
+    <t xml:space="preserve">28.7365016937256</t>
   </si>
   <si>
     <t xml:space="preserve">28.7813186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6827220916748</t>
+    <t xml:space="preserve">28.6827201843262</t>
   </si>
   <si>
     <t xml:space="preserve">28.9516201019287</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9555149078369</t>
+    <t xml:space="preserve">29.9555168151855</t>
   </si>
   <si>
     <t xml:space="preserve">29.7045421600342</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">29.4983863830566</t>
   </si>
   <si>
-    <t xml:space="preserve">29.337043762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3997898101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3101558685303</t>
+    <t xml:space="preserve">29.3370456695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.399787902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3101577758789</t>
   </si>
   <si>
     <t xml:space="preserve">29.4894237518311</t>
@@ -1118,67 +1118,67 @@
     <t xml:space="preserve">29.1308879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8709526062012</t>
+    <t xml:space="preserve">28.8709506988525</t>
   </si>
   <si>
     <t xml:space="preserve">29.1577758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1129608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7762489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0272254943848</t>
+    <t xml:space="preserve">29.1129589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0272216796875</t>
   </si>
   <si>
     <t xml:space="preserve">29.5700950622559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5790538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9785118103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8569221496582</t>
+    <t xml:space="preserve">29.5790557861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9785137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8569202423096</t>
   </si>
   <si>
     <t xml:space="preserve">29.785213470459</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8479557037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8658828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3140487670898</t>
+    <t xml:space="preserve">29.8479537963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8658809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3140506744385</t>
   </si>
   <si>
     <t xml:space="preserve">30.0092964172363</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3588638305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6866130828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3460121154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6059417724609</t>
+    <t xml:space="preserve">30.358865737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6866149902344</t>
+  </si>
